--- a/output/Total_time_range_data/山东省/德州市_学习考察.xlsx
+++ b/output/Total_time_range_data/山东省/德州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3166 +436,3465 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>141</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>关于推进城市精细化管理水平再提升的提案</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n84856692/c86379884/content.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['推进城市精细化管理是提升城市品质，满足人民群众美好生活需要的民心工程。经过几十年的发展，德州市同其他城市一样，进入了以质量提升为主要内容的新发展阶段。习近平总书记多次指示，“城市管理要像绣花一样精细”，我们要顺应城市发展的规律，深刻把握新时代城市发展的内涵，注重人与人、人与城、人与自然的和谐共处，坚定不移推进城市精细化管理水平再提升。', '（一）城市管理“大格局”有待提高。有关部门、单位对城市精细化管理工作的站位不够高，认识不够全面，忽视了在城市精细化管理工作中承担的重点工作任务。也有个别行业牵头单位，没有很好的发挥作用，行业系统内的城市精细化管理工作开展效果不好。执法部门和行业管理部门在整体合力上做的不够，部门联动较少，在统一行动的协调上尚有差距。规划、审批、建设、管理多方协调机制有待健全完善，在建设精品工程、管出精细水平上还有提升空间。', '（二）城市品牌“影响力”有待提高。在挖掘德州历史文化，打造城市品牌形象方面做的不够深入，没有把城市形象与“九达天衢”“神京门户”的德州人文品牌有机融合。在城市户外广告牌匾设置、城市建筑物色彩、城市景观小品设计等文化挖掘方面不够深入，在彰显历史文化与时代精神上与先进地区有差距。', '（三）规划先行“执行力”有待提高。虽然已经制定了城市的整体规划，但是具体到行业领域上还缺少更加细致的规划指导。或者有具体规划，但执行不到位。', '（一）进一步创新机制，推进管理更加科学化高效化。要用聚识思维促共识，靠质效思维提标准，强调规划先行引路，量力而行落实，结合地段区域定事项，从而实现市民的幸福感。要建立执法单位、管理部门、街道办事处、社区协同联动的“大城管”格局，强化调度，大力推进，切实解决“看到管不到，管到看不到”的问题。在把握上，要突出五个字，即全、长、联、重、责。全，就是全要素、全过程、全社会、全员、全局、全域；长，就是长抓、长效、长新，绵绵用力，久久为功；联，就是部门联动、行业联动、社会联动；重，就是重要区域，重要节点，重要道路，重要元素；责，就是责任到部门、到人、到事、到机制。要强化审批-规划-建设-管理的联动协调，做好工程竣工后的移交工作，确保按规划审批、依审批施工，建出精品、管出水平。', '（二）进一步打造亮点，发挥示范街区带动引领作用。建议将城区主要交通干路作为城市精细化管理示范街道进行重点打造，在此基础上，以“老路更新改造，新路提档升级”为基准，辐射周边区域，新建、增建口袋公园、健康步道、休闲驿站等便民、暖城项目。在城市广告牌匾的审批管理上要严格把关，做到风格统一、形式现代、设计标准，对已有的不规范牌匾要逐一销号更新。强化重点路段的车辆动态管理和静态管理，持续推进车辆文明规范停放行动，加强对城市流动摊贩、噪音扰民、油烟烧烤等扰乱城市秩序行为的查处力度。', '（三）进一步丰富“3+N”内涵和外延。“车、树、门”是城市管理中最重要的三个组成要素，“路、灯、店、房、墙，水、气、匝、场、院，彩（色彩）、违（违拆）、厕（公厕）、背（背街小巷）、消（消杀消毒）”等都是城市精细管理中的N个组成要素。具体工作中，要广泛凝聚共识、高质高效抓好“3+N”要素的建设管理，做到全要素覆盖、全过程监督、全周期管护、全人员参与，要进一步明确要素标准和整改提升事项，对重点区域、重点路段、重点要素进行重点打造。', '一要见微知著。要从小事做起，从细节抓起，以小见大，以细求精。持续开展拆违专项行动，对不按规划私搭乱建和抢栽抢种等行为要零容忍、强震慑。持续推进“马路办公”，面对面与群众交流，倾听市民呼声，对市民群众关心的身边小事，要第一时间调查处理，做到小事不小，见微知著。', '二要见贤思齐。用“走出去、请进来”的方法，组织相关部门单位业务骨干学习周边省市先进经验和做法。在此基础上，明确省内或省外的对标学习榜样城市，通过建立联系、交流学习、实地参观等方式学习先进地区的经验做法，结合德州的实际情况进行融会贯通，制定符合德州实际的工作措施和方案，逐步形成有德州特色的，可借鉴、可推广的经验做法。', '三要见异思改。对于影响城市发展和城市形象的工程或其他相关存在，要建立整改台账，明确相关责任单位，制定整改计划表，按照“轻重缓急”的原则，有步骤、有计划的逐一落实。要严格尊重规划、遵循规划，全面落实“规划面前、人人平等”的原则，坚决防止把一些“城市客厅”演变为“城市超市”的违规行为。具体工作中要量力而行，因地制宜，结合实际，不能“一刀切”，要承认区域和发展的差异性。', '四要见缝插绿。在城市绿化工作中，要充分利用现有的空闲地、边角地等，建设有特点的绿化“口袋公园”，要打造有鲜明视觉冲击力的“树阵”、“花海”或成片“草坪”，让城市绿化景观成为城市绿化美化的“满天繁星”。', '（二）强化部门联动。为进一步提升为民服务水平，打通城市管理“微循环”，印发了《德州市城市综合执法进社区工作实施方案》和《德州市城市综合执法进社区工作考核办法》，综合（城管）执法、公安、市场监管、消防等部门各安排1-2名执法人员进入社区，常态化开展综合执法进社区工作。起草了《城市综合执法进社区工作站建设规范》《城市综合执法进社区工作站工作制度》，正在征求意见。组织在70余个小区开展燃气安全宣传进社区活动，开展了城市综合执法进社区供水服务活动，以解决人民群众急难愁盼问题。', '（三）发动社会参与。落实“门前五包”责任制，通过张贴“门前五包”公示牌、签订承诺书、建立详细系统的“门前五包”管理台账、联合街道办事处开展“星级文明经营户”评审等方式，点对点宣传、面对面讲解，增强沿街商户“自治”的责任意识、主动意识，自觉纠正店外摆放、乱扯乱挂等不文明行为，主动规范门前秩序。2022年以来，中心城区2.4万余户商户签订了“门前五包”责任书并张贴公示牌，全民参与管理的积极性、主动性持续提升。开发“全民城管”模块，接入“爱山东”APP，同时与微信公众号“德州城市管理”进行链接。市民可以对身边的城管问题进行随手拍，将现场照片通过“全民城管”上传至数字城管信息系统，成为数字案件进行流转办理，并可以实时跟踪了解问题处理情况。自系统建成至今共接收全民城管案件11387件，结案10487件。开展“全民携手，烟头清零”活动，通过烟头有奖兑换活动动员社会力量参与城市管理工作。', '（四）严格审批-规划-建设-管理的联动协调。按照中心城区城建计划安排，市城管局每年提报并实施一批城建项目，按照年度目标任务积极推进实施，强化全过程监管。一是严格按照程序办理立项、施工许可证等工程前期手续，依审批施工；二是依据相关规划组织设计，组织相关人员现场调研、充分论证，确定设计方案后按图施工；三是在项目推进过程中，统筹抓牢安全生产、文明施工、扬尘管控等因素，既追进度又保安全，规范施工，压实安全责任；四是参照《德州市城市管理局市政公用基础设施接收管理办法》有关要求，按照“竣工一项、验收一项”的原则，对完工且符合验收条件的尽快组织验收，质保期满组织相关单位予以交接。', '（一）高标准打造示范街道。在道路保洁上，建立起“机扫机洗、高压冲洗、人工普扫、动态保洁、督导巡查”的“五位一体”精细化保洁机制，日常机械化道路保洁作业按照“突出重点、兼顾其他”原则，对辖区主次干道分区分级洒水作业，洒水后出动湿式机扫车作业，机动车道、非机动车道路面双覆盖，有效提高辖区道路路面洁净度。在市政养护上，采取“徒步巡查，实时上报，建立台账，立即整改”的方式，对所辖设施开展全覆盖、拉网式排查销号行动，通过系统梳理道路、路灯、排水、桥梁等市政基础设施的精细化管理，着力从基础环节推动城市环境改善，完善城市功能，刷新城市颜值。在园林绿化上，对重要道路节点绿化，通过逐年改造，打造乔灌草相宜的植物群落和高品质景观层次。持续开展新优植物、彩叶树种引种驯化，重点在品种选择、花期交替上寻求突破。加强植物修剪造型，提高园林园艺水平，体现景观设计效果。', '（二）持续推进“老路更新改造、新路提档升级”活动。一是加强设施养护力度。道路管养引进新技术。2022年新引进稀浆封层技术，修复沥青路面2.5万余平方米；全年共完成沥青摊铺10.7万平方米，修复人行道3万余平方米。人行道清洗采用新方式。2022年以来，采取“大型机械+小型冲洗设备+人工清扫”的方式展开冲洗作业，积尘得以彻底清理。城市亮化打造新品牌。坚持“高标准、上档次、显特色、出精品”的原则打造精品“亮化示范街道”，2022年重点实施了晶华南大道、东风路亮化提升改造，共安装灯带1.2万余米，悬挂灯笼4600个、小花灯1800余个、流星灯600余串，为德州城市夜景“增光添彩”。桥梁管理探索新模式。委托桥梁专业检测机构，采取常规检测、结构检测、动静载实验检测三种形式，对市区96座桥梁实施拉网式“体检”，探索出了“专人养护、专家指导、专业检测”的“三位一体”桥梁管养新模式，三方优势互补、有机结合，实现了科学高效的桥梁预防性养护。二是推进口袋公园建设。2023年把口袋公园建设列入全市“民生实事”，计划在全市范围内建设、改造 100 处“口袋公园”，着力打造“300米见绿、500米见园”城市空间，为群众提供更多方便、可达、管理规范的公园绿化活动场地。目前已确定了全市“口袋公园”新建、改造位置，各县市区全面开工建设，预计12月份全部完成。三是加大健康步道、休闲驿站建设。目前中心城区现有健康步道（绿道）129.06公里，2023年计划新建9.17公里。在长河公园、锦绣川景区建设休闲驿站，增加便民设施。', '（三）强化动态监管。一是加强共享单车停放管理。开展中心城区共享单车专项整治行动，提请市城管委办公室印发《城区共享单车专项整治行动实施方案》，合理控制共享单车投放总量，同时督促共享单车企业在停车区域采取设立电子围栏、安装蓝牙道钉等技术措施，安装道钉14700个，方便和引导用户有序停放共享单车。二是加强流动摊贩管理。联合市场监管、公安、交警、属地镇街，在群众需求较多、周边小区和人员较为集中的乐普大道路东侧、刘集社区、赵辛停车场外区域、星凯国际南门、堤口街堤口小区等15处地点设置临时便民疏导点，为商贩提供更为便利的经营场所，解决流动摊点乱摆乱设影响市容秩序的问题。三是加强噪音监管。对未经审批的建筑工地夜间超时施工噪声污染扰民现象，采取处罚与教育相结合的方式，确保整改效果。中高考重点时间段专项工作专人负责，明确管控重点，现场发放《德州市城市管理局关于高考、中考期间噪音控制等事项的通告》，营造良好的整治氛围。对装修、生活等噪声扰民不文明现象，落实网格管理工作，对市民投诉案件和物业及其上级部门转交的小区内社会生活噪声及时调解处理。对于广场舞、健身活动等噪声，对组织参与者进行劝解引导要求降低音响音量，遵守噪音相关管理规定，避免噪音扰民。四是加强油烟烧烤监管。继续实行“监督登记卡、清洗记录台账+4字标准”油烟治理工作法，逐一梳理细化清洗记录台账，逐项对账销号，标准不降、频度不减，落实好餐饮油烟常态化治理工作。所有餐饮单位基本做到每月清洗，并及时反馈清洗情况。采取日常巡查和集中督查相结合的管理方式，将餐饮单位巡查列为日常巡查重点工作，同时每周开展两次以上餐饮油烟专项整治行动，以“随机抽查、重点督促”方式对辖区餐饮单位进行抽检。“进后厨、看实物、查台账”掌握餐饮油烟单位油烟净化处置情况，发现问题，立行立改，切实提高净化处置率。积极与环保部门、市场监管部门开展联合执法活动，对重点区域餐饮门店突击检查，对餐饮门店净化设备及清洗维护情况、集烟罩洁净情况、排放口及排烟管道洁净情况进行检查，对于存在的问题现场指导整改。', '（一）持续开展中心城区违法建筑整治。一是完善工作机制，遏制新增违法建设。加强对各县（市、区）违法建设工作的督导，充分发挥社区居委会、小区物业、网格员等基层管理力量神经末梢作用，对正在建设中的违法建设，从建设物料进场即纳入监管之中，物业行使发现、劝阻职权，劝阻无效后，报告相关社区和镇街，城管等相关部门进行执法，有效制止新增违建，确保新增违建零增长。二是有序推进，依法拆除违法建设。对已经建成的违法建设，由属地对辖区违法建设情况进行清查、建立台账，以综合执法进社区为契机，开展违法建设专项治理，对尚可采取改正措施消除影响的限期改正，对不可采取改正措施消除影响的依法进行拆除，建立起行之有效的控违建联动机制。2021年以来积极推进中心城区违法建筑集中整治行动，排查违法建筑1168处，59544平方米。截至目前，除集体土地上的违法建设以外，其余已全部拆除。', '（二）持续推进“马路办公”。对市民通过12345市民热线、网络问政平台等途径反映的问题，坚持一线指挥，一线督导，一线落实，实行“三必到”：即所有热线承办人员必到现场，有争议的热线问题承办单位分管负责人必到现场，核查人员核查必到现场，第一时间调查处理，确保件件有回音、事事有着落。在群众工作方面探索了“以三化促三化”的工作措施，即“以制度化促进长效化、以扁平化促进高效化、以程序化促进规范化”，获得市委主要领导同志批示肯定。', '（三）借鉴他山之石提高精细化管理水平。为推进我市生活垃圾分类工作开展，市城管局主要负责同志带队赴东营、日照调研生活垃圾分类工作，并提请市委市政府成立了德州市生活垃圾分类工作领导小组，制定了《德州市生活垃圾分类工作领导小组职责清单》《关于进一步推进生活垃圾分类工作的实施方案》《德州市年度生活垃圾分类试点实施方案》《德州市年度生活垃圾分类推进计划》等政策文件，对我市生活垃圾分类工作进行了安排部署。为推进我市城市运管服平台及城市生命线项目建设，市城管局赴太原市、亳州市考察学习，理清了建设思路，明确了工作重点，建立了数字城管疑难案件协调机制，进一步完善了信息采集指挥手册。积极探索园林绿化垃圾处理和资源化利用，我市作为住建部园林绿化垃圾的处理和资源化利用试点城市，持续加强与高等院校、科研机构的合作交流，加快技术创新和研究成果转化应用，并结合德州实际，形成可复制可推广的经验，推进城市园林高质量发展。赴雄安新区就常绿阔叶、耐盐碱等树种培育推广以及水环境治理等进行现场交流，全力落实我局与雄安新区对接合作事宜，引进水生植物，借鉴种养技术，助推水体生态修复，提升我市水环境。', '（四）按照“轻重缓急”的原则推进工作。按照工作安排，市城管局每年将需要列入城建计划的项目进行汇总，形成项目台账，以轻重缓急为原则，统筹财政部门资金安排，重点提报一批群众关注、整改达标、城市创建等民生项目列入城建计划，待计划批复后予以组织实施。例如，2023年，市城管局牵头组织实施市区道路交通畅通提升工程，一是对市区主干道50万平方米路面进行沥青砼罩面，清除安全隐患；二是对岔河滨河大道东西两侧信号灯、路灯、绿化带等设施进行迁改，畅通交通微循环；三是对东方红路下穿京台高速桥洞进行拓宽改造，疏解交通堵点。', '（五）建设特色口袋公园。2023年我市把口袋公园建设列入全市民生实事，锚定“全域公园化”部署要求，充分利用废弃地、边角地、空闲地建设居民身边的小微绿地、口袋公园，计划在全市范围内建设、改造100处口袋公园，为市民营造“推窗见绿、出门入园”的绿色空间。市城管局作为牵头部门，制定建设工作方案及进度图，推动口袋公园建设落地落实，截至5月底全市已开工建设98处，完工56处。公园绿地建设时，将历史文化、民俗风情、街道特色等融合在园林绿化中，并科学合理搭配植物，营造与周边环境相协调的景观风格，力求“一园一品牌”，避免出现千篇一律的景观特点。例如拾忆园，结合废弃铁路原龙马金建铁路线，设计“拾忆”主题公园，通过放置火车头等小品，重现老站台充满故事的景观场景，引起市民对过去美好生活的回忆。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>141</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>德州市公安局打击和防范经济犯罪宣传日新闻发布会</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c88243106/content.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['出席：市公安局党委委员、副局长、新闻发言人李壮志，市公安局经侦支队政委张克辛，市公安局经侦支队副支队长张明，市公安局经侦支队副支队长乔明江', '内容：介绍2023年以来德州市公安机关打防经济犯罪、护航经济发展的工作情况，并回答记者提问', '今年5月15日是全国公安机关第15个打击和防范经济犯罪宣传日，今天，我们邀请市公安局党委委员、副局长、新闻发言人李壮志先生，市公安局经侦支队政委张克辛先生，市公安局经侦支队副支队长张明先生，市公安局经侦支队副支队长乔明江先生出席发布会，向大家介绍2023年以来德州市公安机关打防经济犯罪、护航经济发展的工作情况，并回答记者提问。', '大家好，很高兴参加此次新闻发布会，向大家介绍2023年以来德州市公安机关打防经济犯罪、护航经济发展的工作情况。借此机会，向各位记者朋友长期以来对德州公安经侦工作的关心与支持表示衷心感谢。', '2023年以来，德州市公安机关在市委、市政府和省公安厅的坚强领导下，坚持党建引领，以过硬作风忠诚履职，严打严防经济犯罪，在防范化解金融风险、助力优化营商环境等工作中做出了积极贡献。', '一、严打各类经济犯罪，有力维护经济安全。2023年，全市公安机关针对经济犯罪新形势新特点，立足主责主业，创新工作模式和打击战法，严厉打击非法集资、网络传销、地下钱庄、反洗钱、虚开骗税等领域违法犯罪，相继开展了涉农涉粮领域非法集资“打非护农”行动、打击利用离岸公司和地下钱庄向境外转移赃款“歼击23”等专项行动，依托“云端”和“鲁剑”打击模式，先后破获一批大案要案。全市公安机关共立经济犯罪案件612起，抓获各类经济犯罪嫌疑人770余人，挽回经济损失超1.2亿元，有力维护了全市经济安全和社会大局稳定。', '二、依托实战深度研判、防范重点领域风险。以“防风林”工程为牵引，开展涉汽车金融、涉众、涉税、直销企业挂靠公司风险等专题研判，及时向党委政府报送风险研判报告，有效推动经济金融风险前端防范、源头治理。连续侦破两起特大涉汽车贷款诈骗案，打掉集“背债人”“皮条客”“贷款中介”“造假证”“销赃”于一体的犯罪网络，铲除多个流窜各地作案的贷款诈骗犯罪团伙，发起2起全国集群战役，研发汽车贷款诈骗挖掘模型，并积极研判全国、全省汽车金融领域风险隐患，工作做法受到省公安厅领导批示表扬，工作成效被新华社、央视予以报道。', '三、推动实施主动警务、助力优化营商环境。创新实施联系服务企业“1+2+5+N”工作机制，与2000余家企业建立了联系和交流平台，组织开展进企业“法治体检”、“安全评估”、政策宣讲、重点人员培训等服务，协助企业建章立制，提升守法合规水平。开展服务重大项目“鲁剑2023”1号专项行动，依法严打合同诈骗、挪用资金、职务侵占、非国家工作人员受贿、非法经营等涉企经济犯罪，2023年以来，共侦办相关案件110余起，抓获犯罪嫌疑人120余人，挽回经济损失1700余万元，有力维护了全市经济秩序和法治营商环境。', '四、持续打击涉税犯罪，服务高质量发展。将打击涉税犯罪作为保障经济发展的重要抓手，坚决落实党中央、国务院有关医疗行业整治、粮食领域反腐等系列部署，对医疗销售、粮食购销领域虚开犯罪活动开展针对性打击，持续严打骗取出口退税犯罪，2023年以来，共侦办涉税案件109起，挽回税款损失1200余万元，成功侦办了平原、德城等地多起骗取留抵退税、骗取出口退税典型案件，进一步遏制了涉税领域违法犯罪高发态势，有力保障了国家财税政策落地实施。', '五、扎实开展“猎狐”行动，境外追逃成效显著。今年是公安部部署开展缉捕在逃境外经济犯罪嫌疑人“猎狐”专项行动10周年。2023年7月，我市公安机关成功规劝外逃犯罪嫌疑人王某回国投案，省公安厅发贺电予以表扬；2024年1月，成功劝返外逃犯罪嫌疑人韩某回国投案，2024年“猎狐”行动取得“开门红”。自“猎狐”专项行动以来，全市公安机关发挥主战作用，市县一体、警种联动，境外追逃和防逃控逃同步发力，通过境外缉捕、法律震慑、政策感召和亲情感化等多种手段，先后从8个国家和地区缉捕、劝返境外逃犯15名，有力彰显了公安机关“有逃必追”的坚定决心。', '下一步，全市公安机关将着力锻造“专业+机制+大数据”新型警务运行模式，在打击犯罪、预警防范、服务保障、规范执法、队伍建设上持续发力，进一步提升打击犯罪、服务发展、维护安全稳定的能力水平，以德州公安工作现代化支撑和服务中国式现代化德州实践。', '同时，打击防范经济犯罪是一项系统工程，需要社会各界的共同参与，更需要新闻媒体的广泛传播，希望大家能够一如既往地支持公安机关打击防范经济犯罪工作。让我们携起手来，促进提高企业守法合规经营水平，促进提升群众防范经济犯罪的意识、能力，共同为全市经济社会高质量发展保驾护航，不断提高群众的获得感、幸福感、安全感。', '2023年以来，德州市公安机关经侦部门严厉打击各类经济犯罪活动，严密防范非法金融活动、涉企犯罪案件发生，取得了一大批战果，为维护经济金融秩序、企业健康发展和人民群众财产安全贡献了公安经侦力量。', '为进一步守护好全市经济发展和人民群众的钱袋子，德州市公安局评选出“德州市打防经济犯罪十大案例”和“德州市打防涉企犯罪十大案例”，通过典型案例以案普法、以案警示，揭露违法犯罪伎俩，警示风险，震慑犯罪，教育公众，更好地预防经济犯罪犯罪的发生。', '2023年12月，德州市公安局陵城分局经侦大队成功破获沈某挪用资金案。经查，2017年5月至2023年11月期间，犯罪嫌疑人沈某在德州市陵城区某房地产开发有限公司担任出纳期间，自己掌握账户密码、U盾、银行绑定电话，便利用职务之便将公司账户资金转到其名下银行卡用于炒股，后因炒股赔钱无法将挪用资金还回，给德州市陵城区某房地产开发有限公司造成重大经济损失。目前，犯罪嫌疑人沈某已被依法批准逮捕。', '警方提示：企业应加强对员工的遵规守法教育，增强全体员工的守法自律意识，特别是对财会人员要加强监督管理，提升财会人员遵守职业道德、财会纪律、法律法规的意识。同时，企业应从健全完善财务管理制度，转账支出等环节加强审核把关，定期进行对账，堵塞各种可能造成财物流失的风险漏洞。一旦发现身边同事、员工存在挪用资金的违法犯罪行为时，应及时向公安机关报案，最大限度维护企业合法权益。', '2023年，德州市公安局天衢新区分局经侦大队成功破获“1.03”贷款诈骗案。经查，以范某、林某为首的犯罪团伙以非法占有为目的，以贷款购车名义骗取银行等金融机构贷款，提车成功后立即将车辆变卖套现，涉及车辆170余辆，造成汽车金融公司、银行等金融机构巨额损失。天衢新区公安分局经侦大队经拓展关联分析，深挖出犯罪团伙24个，成功在全国发起集群战役，抓获涉案犯罪嫌疑人127名。', '警方提示：目前，国家出台鼓励和促进汽车消费的一系列相关政策，但这也让一些不法分子钻了漏洞，他们利用汽车分期贷款手续简单、标准宽松的情况，在全国各地物色征信良好的“背债人”，分期付款购车后不再偿还剩余贷款。银行及汽车金融公司、汽车4S店应当加强购车贷款审核，注意识别发现可疑情况，如遇贷款诈骗案件，及时到公安机关报案。', '2023年，德州市公安局天衢新区分局经侦大队破获某建筑劳务有限公司合同诈骗案。公安机关接群众报警称，其与德州某建筑劳务有限公司签订合作协议，承包德州市老旧小区改造加装电梯工程，并缴纳质保金和保险费16.5万元，后发现该建筑劳务有限公司以相同名义诈骗16家单位和个人，涉案金额达350余万元，其行为已涉嫌合同诈骗罪，被公安机关依法采取强制措施，目前，该公司实际控制人董某已被批准逮捕。', '警方提示：近年来，地方政府对老旧小区改造特别是加装电梯给予了不少政策扶持，鼓励社会资本参与电梯加装项目。部分犯罪团伙正是瞄准了这一领域，打着老旧小区电梯加装业务的幌子，向施工方出示虚假的授权文件、实施诈骗行为，施工方在签订合同时一定要擦亮眼睛，多方核实项目真实性，谨防上当受骗。', '2023年10月，禹城市公安局经侦大队接到辖区某制动材料有限公司报案。经查，该公司业务员刘某在任职期间，利用控制定价及发货的权利，将控制的空壳公司虚构成其公司代理商，增加销售过程的中间环节，通过“低买高卖”赚取差价的方式侵占公司财产100余万元。立案后，禹城市公安局经侦大队迅速地开展侦查、抓捕等工作，将刘某抓获归案，辗转10省份调查取证、固定证据，在公安机关努力工作下，刘某如实供述犯罪事实，退赔公司全部损失。', '警方提示：企业职工利用职务便利增加销售环节，通过“关联交易”低价销售、侵占公司利益的行为非常隐蔽，企业应当制定严格规范的财务管理、货款收支、供应商、代理商管理等制度，加强关键岗位人员法治教育，加强监督，提升从业者的守法意识。及时发现企业经营中的各类反常行为，如遭遇经济犯罪侵害，及时到公安机关报案。', '2023年10月，禹城市公安局经侦大队破获陈某合同诈骗案。经查，山东某塑编有限公司于2023年8月与山东某国际贸易有限公司签订了原材料的购买合同，并汇款90万元。对方公司负责人陈某未发货并失去联系。经查，陈某收到货款后，并未计划履行合同，而是将合同款项转至女朋友银行账户，大部分充值进入期货平台买卖期货，经侦大队迅速抓获犯罪嫌疑人并挽回经济损失。', '警方提示：选择交易合作伙伴要慎重，需仔细考察对方实力、信誉和项目真实性，如遇合同诈骗及时报案。', '2023年6月，乐陵市公安局经侦大队破获杨某、高某等系列非国家工作人员受贿案。乐陵某公司采购部业务员在向原材料供应商购置金刚石砂轮、油墨、五金配件等耗材过程中，利用职务上的便利，以按业务量5%的比例向供应商索要回扣的方式受贿，案值达240余万元。3名嫌疑人到案后，办案民警通过拓展研判，梳理出受贿线索27条，涵盖全国12省市，案值达1100余万元。该案通过公安部成功发起集群战役部署涉案省市落地打击，共立案16起，抓获犯罪嫌疑人23人。', '警方提示：非国家工作人员受贿罪是很容易被企业忽视的犯罪，很多人误认为只有国家工作人员才会触及受贿罪，一般公司人员之间的“人情往来”与犯罪扯不上关系，这是一种误解。非国家工作人员收受贿赂，将构成非国家工作人员受贿罪。企业应建立完善的事前防范及事后应对机制，从人员、财务、权责等多方面进行监督管理，加强员工普法教育和以案警示，防止违法犯罪的发生。', '2023年4月，齐河县公安局经侦大队破获3.20职务侵占案。经查，张某、张某林、王某、魏某四人与山东某餐具清洗服务有限公司存在运输承包关系，负责向济南、聊城、德州等地配送餐具。该公司通过微信小程序为上述四人量化记录配送餐具的数量、距离等信息并支付费用。2021年7月以来，该四人窃取管理者的账号和密码，私自修改配送数量，从而获利，给公司造成巨大经济损失。公安机关先后抓获4名犯罪嫌疑人，为受害企业挽回经济损失100万元。张某、张某林、王某、魏某分别被判处七个月至三年不等有期徒刑。', '警方提示：职务侵占罪在民营企业经营中属高发犯罪，不法分子多以修改账目、虚增环节、侵占公司货款等手段从中获利，给企业造成巨大损失。企业应加强内部管理、堵塞风险漏洞，在日常经营和业务往来中加强监管，一旦发现企业内部人员存在重大违规操作涉嫌职务侵占时，应及时固定相关证据到公安机关报案。', '2023年，武城县公安局经侦大队破获王某贷款诈骗案。王某因工程款拖欠、投资期货赔钱等原因导致较大负债，其利用其担任某银行信贷客户经理职务便利，让身边朋友帮忙办理贷款为其完成贷款任务为由，利用苏某、张某等11人的身份信息，在该银行及网贷平台，违反贷款操作规程，利用平台审批漏洞，办理了11笔银行贷款，共计900余万元，用于偿还个人债务，涉嫌贷款诈骗罪，被法院判处有期徒刑八年二个月，并处罚金十万元。', '1、企业或群众在办理贷款时要合法合规，要对自己的经济实力和还款能力进行合理判断，向金融机构提供真实资料，按照约定还款还息，切勿恶意逃废金融债务，否则将受到法律的惩处。', '2、银行职工利用管理漏洞实施贷款诈骗，暴露了银行在员工管理、贷款审核方面还存在漏洞，银行等金融机构要加强日常员工管理、普法教育，同时加强贷款前审核、贷款后跟踪管理，防止被别有用心之人利用。', '3、广大企业或群众切勿提供资料协助他人顶名冒名贷款，否则将造成信用失信，情节严重的，将涉嫌违法犯罪，受到法律的严惩。', '2023年3月，临邑县公安局侦破杨某职务侵占案。经查，自2018年以来，犯罪嫌疑人杨某在担任德州某公司材料仓库主管期间，利用公司系统存在漏洞，将公司的原材料私自处理给殷某、赵某、李某等人，非法获利100余万元。同时，杨某与公司纸箱供货商李某某内外勾结，合伙套取公司钱财，非法获利2.9万元。为挽回企业损失，办案民警辗转多地调查取证，在公安机关的努力工作下，杨某与殷某、赵某、李某、李某某等人主动退缴非法所得，共计为企业挽回损失150万余元。犯罪嫌疑人杨某等人被依法判处有期徒刑一年至三年，并处罚金。', '警方提示：近年来，职务侵占犯罪案件发案较高，部分企业管理人员被利益蒙蔽双眼，利用公司管理漏洞，实施职务侵占行为。此类犯罪具有隐蔽性，起初并不容易被发现，公司、企业和其他单位应建立健全规章制度，完善财务制度，提升企业经营管理水平，强化监督和法治教育、警示教育，把职务侵占“内鬼”遏制在摇篮中。', '2024年，临邑县公安局侦破李某伪造虚假交通事故骗取保险案。经查，自2021年8月份以来，作为保险公司业务员的李某为谋取私利，先后十余次伪造交通事故、虚假人伤事故等，将18万余元赔偿金据为己有，用于个人消费，临邑县公安局经侦大队接到保险公司报案后，迅速行动，对李某采取强制措施。经公安机关缜密侦查和取证，李某对其犯罪行为供认不讳，并主动退缴违法所得。', '警方提示：该案的成功告破，有效打击了保险欺诈违法犯罪行为，维护了保险业正常秩序。根据我国刑法和有关司法解释规定，进行保险诈骗活动，数额较大的，涉嫌保险诈骗罪，将依法追究刑事责任。在此提醒广大汽修厂、车主和保险理赔人员，伪造事故或者故意制造事故骗取保险金是违法犯罪行为，切莫贪图小利而触碰法律红线，否则将可能因保险诈骗犯罪而被追究刑事责任。', '2022年8月，德州市公安局德城分局经侦大队立案侦查8.24骗取出口退税罪案。经查，2021年以来，犯罪嫌疑人边某伙同王某通过购进进项增值税专用发票、购买他人报关单及结汇资金,“假报出口”到税务机关骗取出口退税共计1100余万元。办案民警通过骗税细节入手，研判出虚开、地下钱庄等犯罪链条，在公安部统一指挥下，发起全国集群战役，对该犯罪全环节全链条打击，彻底铲除了虚开骗税团伙。2023年11月，边某、王某被德城区人民法院判处有期徒刑11年6个月，并处罚金530万元。', '警方提示：骗取出口退税犯罪是严重的危害税收征管犯罪之一，严重损害国家税收利益，扰乱商品贸易秩序。不法分子利用这一税收政策，以假报出口或者其他欺骗手段，将没有出口或者虽出口但不应退税的业务伪装成应退税业务，骗取出口退税，造成国家巨额财产损失，公安机关和税务部门将依法从严打击，坚持以零容忍的态度对骗取出口退税等涉税违法犯罪行为重拳出击、严惩不贷，为出口退税政策保驾护航。。', '2023年1月，德州市公安局天衢新区分局经侦大队破获一起装修合同诈骗案件。经侦查，犯罪嫌疑人以提前装修、装修价格低廉为由诱骗业主交纳装修款项，业主缴纳完毕后，刘某拒不履行合同内容，并拒不退还合同款项，累计以客户装修房屋名义诈骗客户18人，以事后结算建材费、支付工资等为由诈骗材料供应商、工人5人，共计诈骗金额150余万元。接报案后，天衢新区警方迅速出动，逐一落实证据，对犯罪嫌疑人采取强制措施，将全部损失追回。', '警方提示：在工作和生活中，签订合同时，要对合作伙伴的资质及诚信情况进行全面了解，多方核实合同主体是否合法、项目是否真实、负责人信誉等情况，切勿因轻易相信而打款。如遇到明显低于市场价格的商品或服务，更要多加注意，切记天上不会掉馅饼，掉下来的大概率是陷阱。', '2023年6月，齐河县公安局成功破获3.24虚开发票案。经查，2021年2月份以来，犯罪嫌疑人张某、邱某、董某等人为牟取不法利益以出租屋为虚开犯罪窝点，通过虚假注册成立空壳公司，再通过互联网联系客户，搭建虚开犯罪平台，大肆对外虚开增值税普通发票、增值税专用发票，通过深度研判，该案发现大量暴力虚开空壳公司，涉案发票16万余份，虚开发票30余亿元，捣毁虚开犯罪窝点2处，抓获核心成员10人。经深挖拓线，在公安部的统一指挥下，该案发起全国集群战役集中开展收网行动，共立案104起，抓获犯罪嫌疑人143名。犯罪嫌疑人董某等人被判处有期徒刑一年至六年不等。', '警方提示：我国的税收政策存在行业性、区域性和差异化特点，部分地区或行业推出税收返还、出口退税等优惠政策，在鼓励行业发展、促进经济发展的同时也引发了一些涉税犯罪案件。在此，正告违法犯罪分子，虚开发票违法犯罪必将受到法律追究。公安机关将继续强化与税务等部门协作，保持对虚开骗税等犯罪的严打高压态势，全力维护国家税收征管秩序。', '2023年3月，宁津县公安局经侦大队在工作中主动发现线索，立案侦查3.27非法妨害信用卡管理案。经调查，2022年5月至12月份期间，犯罪嫌疑人张某某、曹某某等多人在明知其上线犯罪嫌疑人实施违法犯罪行为，仍为其提供银行卡用于违法犯罪资金转移，帮助其进行洗钱活动。为非法获利，张某某、曹某某等人明确分工、密切配合，设立犯罪窝点，招募银行卡持卡人，利用聊天软件建立群聊，为其上线接收、转移违法犯罪资金。办案民警在充分掌握该团伙犯罪证据后，寻线深挖，抓获犯罪嫌疑人8人。', '警方提示：买卖、出售、出借银行卡的行为将给自身带来极大的法律风险，也对经济金融秩序造成严重侵害，同时也助长了一些违法犯罪行为，如果出售、出借给犯罪分子用于犯罪活动，情节严重的将涉嫌妨害信用卡管理罪，被追究刑事责任。另外，银行卡包含大量个人信息，如被不法分子掌握，极有可能遭遇电信网络诈骗等不法侵害，对财产安全带来较大风险。', '2023年2月，宁津县辖区居民报警称其在某APP进行股票配资炒股时，未按时给予其炒股分红，经多方了解后发现该平台无相关经营资质。接到报案后，宁津县公安局经侦大队迅速组织警力开展分析研判、落地查控，确定了张某、童某、高某等人的犯罪事实。经查，该团伙通过网络购买炒股软件源代码，制作虚假炒股APP，非法为客户提供证券交易服务。同时，以交纳保证金可为客户提供三倍至十倍不等比例的配资为诱饵，对外吸引大量客户投资，并从中收取所谓“隔夜费”、配资利息、“手续费”等相关费用以牟利。民警在充分掌握该团伙确凿的犯罪证据后，巡线深挖，兵分四路，在山东、湖北两省同时收网，一举打掉非法经营窝点4处，抓获非法经营团伙成员11人。', '警方提示：投资股票应通过正规渠道、选择合法机构进行投资理财，切勿相信网络上的非法引流广告，勿相信各种QQ群、微信群里所谓的“高手”“专家”“导师”，勿点击不明链接下载不明APP。提高警惕，不要被诈骗分子营造的虚假盈利氛围所欺骗。发现被骗，要及时报案，并配合警方提供相应线索、证据，尽早追回损失。', '2023年8月，平原县公安局经侦大队破获一起假币犯罪案件，抓获涉案两名犯罪嫌疑人。2022年9月，接报案后，平原经侦大队立即开展工作，经查，吴某伙同他人在平原辖区及周边省、市、县多次使用面额100元的假币，吴某及其同伙有持有、使用假币的嫌疑。民警辗转河北、辽宁、山东青岛及周边县市等地调查取证，有效固定证据，最终抓获犯罪嫌疑人吴某、何某，并当场收缴大量假币。经平原县人民法院判决，犯罪嫌疑人吴某被判处有期徒刑2年6个月，犯罪嫌疑人何某被判处有期徒刑2年。', '警方提示：广大群众在日常使用人民币时要注意提高防范意识，学习了解识别假币的基本知识，特别是中小企业商户在收款结账时一定要注意仔细甄别人民币的真伪，避免造成不必要的损失。当收到假币时应当及时上缴公安机关或者银行，不能私自持有、使用，如抱有侥幸心理而持有或使用，也将涉嫌违法犯罪。', '2023年，武城公安破获李某虚假诉讼案。经查，2022年1月以来，犯罪嫌疑人李某、于某等人借用武城县某纸箱公司名义，先后为10余人通过虚构劳动关系、伪造证明材料向法院提起诉讼，确认劳动关系，利用法院出具的调解书向社保部门申请补缴养老保险金。李某、于某等人的行为破坏了养老保险缴纳规定，且妨害了司法秩序，涉嫌虚假诉讼犯罪，李某、于某依法被公安机关采取强制措施，被法院判处有期徒刑。', '缴纳养老保险金参保应符合相关政策要求，借助虚假诉讼或者虚假劳动仲裁确认劳动关系的形式参保缴费、办理退休、领取退休金等，属于骗取和套用国家社保基金的违法行为，一经查实，除清除缴费记录、没收补缴款、退回已领取的社保金外，还将受到行政处罚甚至刑事处罚。', '根据有关法律和司法解释的规定，当事人采取伪造证据、虚假陈述等手段，捏造民事法律关系、虚构民事纠纷，向人民法院提起民事诉讼的，属于虚假诉讼行为，不仅妨害正常的司法秩序，还危害其他当事人的合法权益，情节严重的，构成虚假诉讼罪，将被追究刑事处罚。', '2023年10月，夏津县公安局经侦大队成功破获一起通过“买单配票”模式进行骗取出口退税犯罪案件。经查，2020年9月以来，犯罪嫌疑人刘某等人通过购买他人身份信息，批量注册空壳公司，在没有真实业务的情况下，通过QQ、微信等聊天工具联系客户大肆对外虚开增值税普通发票、增值税专用发票。侦办过程中发现，以犯罪嫌疑人杨某、郭某为首的骗税团伙联系虚开团伙购买进项增值税专用发票后骗取出口退税，并通过郑某为首的地下钱庄完成资金回流，涉案数额巨大。该案涉及全国等25个省市众多接受虚开发票企业、骗税企业，虚开发票30余亿元。该案于2023年11月成功发起全国集群战役，打掉以刘某为首的虚开团伙，以杨某、郭某为首的骗税团伙，以吴某为首的虚假报关团伙，以郑某为首的地下钱庄团伙，共抓获11名犯罪嫌疑人，实现了对虚开、骗税上下游犯罪的全链条打击。', '警方提示：虚开骗税等违法犯罪行为严重危害国家财政税收安全，扰乱正常征税秩序，公安机关坚持以零容忍的态度对虚开骗税等违法犯罪行为重拳出击、严惩不贷，并对实施犯罪的各环节开展全链条打击。', '2023年5月，庆云县公安局经侦大队成功侦破一起信用卡诈骗案。经查，2018年2月份以来，犯罪嫌疑人李某在背负大量债务且无偿还能力的情况下，以资金周转、帮助归还信用卡欠款等名义，骗取报案人李女士先后办理5张信用卡并擅自透支使用，多次冒用李女士身份从网络贷款平台借款，用于归还个人欠款和日常消费。造成李女士信用卡及网贷平台逾期未归还本金共计9万余元。因涉嫌信用卡诈骗罪，公安机关依法对李某采取强制措施。', '警方提示：恶意透支信用卡逾期不还，涉嫌信用卡诈骗罪。广大群众要重视个人信息安全，不轻易泄露个人身份证、银行卡等信息，更不能向他人透漏信用卡卡号、安全密码。办理信用卡请到正规银行，不能轻信所谓的银行卡代办机构和人员，更不能将信用卡借用给他人，一旦逾期持卡人本人要承担相应责任。如果发现个人信用卡存在异常情况，应及时与银行进行沟通处理，避免被盗刷的风险。', '2023年7月，庆云县公安局成功破获杜某洗钱案。经查，2021年10月以来，杜某非法持有、使用他人银行卡，为电信诈骗团伙转移违法犯罪资金并收取好处费。为掩饰其犯罪所得，将获得的好处费通过多账户流转，最后ATM取现，累计获益6.9万元。2023年9月，庆云县人民法院以涉嫌洗钱罪对杜某依法判处拘役五个月，并处罚金人民币七千元。', '警方提示：洗钱犯罪不但侵犯了国家金融管理秩序，也对社会稳定和人民财产安全产生了威胁。公安机关提醒大家在任何情况下不要出售、出租、出借自己的身份证件、银行账户，发现银行账户异常情况，及时向银行或者公安机关反馈，防止被不法分子利用。', '感谢这位记者朋友的提问。2024年，全市公安机关将着力构建“专业+机制+大数据”新型警务运行模式，严厉打击突出经济犯罪、严密防范经济金融风险，全力维护市场经济秩序、人民群众合法权益和金融安全、社会稳定。', '一是依法严打涉企突出犯罪。加大对侵害民营企业权益的合同诈骗、职务侵占、挪用资金、非国家工作人员行受贿等案件侦办力度，强化追赃挽损，加强涉企普法宣传，推动民营企业内部腐败治理、合规守法经营，推动建设法治民营企业、清廉民营企业。', '二是会同金融监管等部门开展打击非法集资专项行动。聚焦高息理财非法金融活动等重点领域开展排查整治，及时掌握问题线索、及早发现风险隐患，有效处置重大案件，坚决惩处违法犯罪分子。', '三是会同金融监管部门联合开展保险诈骗犯罪专项打击行动。面对新形势下保险犯罪手段的多样化、变异性和作案主体职业化、团伙化的新特点新趋势，针对保险欺诈风险突出的保险险种和渠道，组织专业力量集中攻坚。', '四是会同人民银行等部门开展打击利用离岸公司和地下钱庄向境外转移赃款专项行动，及打击治理洗钱违法犯罪三年行动。重点打击涉贪腐、涉赌、涉诈的非法资金通道和利用非法支付平台、虚拟货币、数字人民币等新型方式实施的洗钱和地下钱庄违法犯罪。', '五是会同金融监管等部门持续开展打击恶意逃废金融债务专项工作。重点打击贷款诈骗、骗取贷款、信用卡诈骗等金融信贷领域犯罪活动，遏制重点区域、重点领域逃废金融债务高发势头，有效维护经济金融秩序。', '六是会同税务等部门联合打击涉税违法犯罪。依托八部门联合打击涉税违法犯罪工作常态化工作机制，推进对假企业虚开发票、假出口骗取退税、假申报骗取优惠等涉税违法犯罪行为，将打击锋芒对准行业性、区域性涉税犯罪，特别是骗税和农产品等重点领域虚开犯罪，紧盯职业团伙，着力“打团伙、挖幕后、破大案”，全面查处违法企业、全力打掉犯罪团伙。', '问:公安经侦部门在全力服务保障重大项目，支撑和服务中国式现代化德州实践方面将开展哪些工作？', '一是全面落实《中共中央 国务院关于促进民营经济发展壮大的意见》。进一步规范涉产权强制性措施，避免超权限、超范围、超数额、超时限查封扣押冻结财产，依法保护民营企业产权和企业家权益。', '二是深入落实公安部经侦局《公安经侦部门便民利企十项工作指引》。从打防经济犯罪、执法规范化建设、服务群众和企业等方面推出一系列具体措施，全力以新安全格局保障新发展格局，以高水平安全保障高质量发展。', '三是全力推进优化营商环境“一把手”项目。联合市委政法委、市法院、市检察院、市司法局开展“护航企业合法经营，推进社会治理集成服务”，加强部门协同、数据共享、精准研判，强化对企业经营风险的关注监测、靠前防范、分析预警、矛盾化解、依法处置，引导、提醒、帮助企业合法经营，推动企业在法治轨道内行稳致远。', '四是组建德州市“经济卫士”志愿服务队。建立常态化开展入企业、入社区等防范宣传机制，第一时间掌握经济领域违法犯罪形势特点和线索，对有关苗头性问题早发现、早报告、早处置。联合相关行政部门，主动为企业商户提供“法治体检”“安全体检”和普法宣传等服务，协作企业商户提升守法合规水平。', '五是依托“云端”和“鲁剑”等专项行动，强力打击合同诈骗、职务侵占、挪用资金、非国家工作人员行受贿等涉企犯罪，保护企业合法权益。强化前端防范、综合治理，针对经营风险，发布公安经侦“两书一单”（《公安经侦提示书》、《公安经侦建议书》、《风险预警备案单》）和涉企犯罪警示案例，积极为企业生产经营和发展保驾护航。', '衷心希望广大群众可以关注“公安部经侦局”、“山东经侦”、“德州公安”微信公众号，及时了解官方信息和最新经济犯罪案例，学习防范知识，提升防范能力。', '感谢这位记者朋友的提问。涉及企业高发的经济犯罪有合同诈骗、职务侵占、挪用资金、非国家工作人员行受贿等案件，企业在对外合作贸易活动中，要注意防范合同诈骗犯罪案件，在选择合作伙伴、签订合同、支付货款、货物交付等过程中，要认真考察对方资质、实力、信誉，核实对方单位、人员的真实性，注意交易过程中的反常现象，防范被合同诈骗。企业在生产经营、日常管理中，要强化财务监督管理，健全货物发放和货款回收制度，加强日常员工的普法教育，防范发生企业被管理人员、业务员、财务人员职务侵占、挪用资金、非国家工作人员行受贿等侵害企业公司利益的案事件发生。', '银行及汽车消费金融等金融机构在办理房贷、汽车贷、消费贷等业务时，要严格贷款审查、审批和贷款人信用调查，防范贷款诈骗案件；保险公司在保险赔付过程中要加强审核，防止出现隐瞒真相故意造成事故、夸大损失程度、伪造证明材料等骗取保险金的行为，防范保险诈骗案件发生。', '广大人民群众在日常经济生活中，要注意防范高息理财和打着股权投资、投资养老公寓、保健品、预付费消费充值等名义的非法集资、传销等活动，保障个人资金安全。要注意保管个人银行卡，在生活中，坚决不要买卖、出租、出售个人银行卡及U盾等证件资料，如果出售、出借给犯罪分子用于犯罪活动，情节严重的涉嫌刑事犯罪，将被追究刑事责任。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>德州市体育局关于德州市全民健身条例草案议题解读材料</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392144/n51838788/c89056216/content.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['2014年，国务院印发《关于加快发展体育产业促进体育消费的若干意见》（国发〔2014〕46号），将全民健身上升为国家战略。2022年新修订的《中华人民共和国体育法》将“国家实施全民健身战略”首次写入法律。健身已不仅是人民群众对身心健康的自发追求，也已成为推动全体人民共同富裕实质性进展的重要内容。', '近年来，我市全民健身工作取得长足发展，截至2023年年底，人均体育场地面积3.61平方米，实现“15分钟健身圈”全覆盖。特别是黄河大运河连通廊道、马拉松赛道和市体育公园等项目的建设，掀起了全民健身新热潮。但人民群众日益增长的健身需求与当前有效供给不足等矛盾依然突出，有必要通过地方立法，推动破除制约全民健身事业发展的瓶颈，进一步提升人民群众获得感和幸福感。今年年初，市人大常委会、市政府将《条例', '市体育局负责《条例（草案）》起草工作。3月1日，市体育局经过前期两轮现场调研，摸清全民健身设施建设管理状况，起草形成《条例（草案）》初稿。3月中下旬，会同市人大常委会法工委、市司法局9次集中改稿。4月11日，向市发展改革委、市教育局、市财政局、市自然资源局等14个部门以及市总工会、团市委、市妇联、市残联4个群团组织征求意见。4月18日，会同市人大常委会法工委、市司法局赴宁津县组织座谈会，听取德城区、德州天衢新区、陵城区、宁津县、乐陵市、庆云县体育部门以及市人大代表意见，并赴企业现场调研。4月19日—5月19日，通过市司法局官方网站面向社会公开征求意见。5月9日，会同市人大常委会法工委、市司法局召开市民热线专题立法调研座谈会，听取数据分析情况。5月14日—24日，共同赴保定、杭州、温州、成都考察学习。5月29日，召开党组会议进行研究，同日报市司法局进行合法性审查。', '市司法局全程参与起草工作并负责合法性审查工作。5月20日—28日，书面征求县（市、区）政府（管委会）、司法所立法民意采集点、政府立法基层联系点意见，就重点条款书面征求市外聘法律顾问意见。5月30日，组织召开立法座谈会，听取市工商联、市总工会、市教育局等11个市直部门单位和基层政府、社区、法律顾问、体育爱好者等的意见建议。6月2日—4日，征求各民主党派意见，同步组织市发展改革委、市教育局、市自然资源局等11个部门单位进行会签，其中市教育局、市城管局共提出14条意见建议，吸收采纳13条，未采纳部分已沟通达成一致。6月4日，市司法局根据各方意见建议，审核修改后形成目前的《条例（草案）》。', '《条例（草案）》以《中华人民共和国体育法》、国务院《全民健身条例》和《山东省全民健身条例》等法律、法规为立法依据，并参考了《青岛市全民健身条例》《日照市全民健身促进条例》《石家庄市全民健身条例》《温州市全民健身条例》等市的立法内容。', '结合我市全民健身工作的实际，《条例（草案）》以“不重复、不抵触、有特色”为立法原则，以“固化经验、解决问题、创新工作”为出发点，对全民健身各方面进行规范。', '一是固化经验。我市全民健身工作推进过程中，探索出了如基层体育组织建设、全民健身公共服务体系构建、体育改革创新、特色体育名城建设等方面独具特色、行之有效的做法经验。通过立法将这些实践中的好措施、好做法固定下来，建立健全常态化、制度化的全民健身工作机制，规范、引导和促进我市全民健身事业蓬勃发展，进一步提升我市全民健身工作法治化水平。', '二是解决问题。将国家、省的立法中较为宽泛的方面，以及我市创建特色体育名城和全民健身工作推进中发现的短板问题，进行明确细化，使得条例好落地、可执行。重点解决市全民健身协调机制作用发挥、城乡健身设施分布不均及维修更新、竞技体育后备人才不足、依法行政主体责任不清等问题，以问题为导向，以立法的形式破解难题，补齐短板，着力构建更高水平的全民健身公共服务体系。', '三是创新工作。在学习借鉴国家、省及其他地市出台的条例基础上，本条例将我市独具特色的一些创新性工作写入立法。例如非体育用地内全民健身设施的建设、吸收民法典要求规范大型全民健身活动举办、发展智慧体育等。', '（一）总则，共9条。写明了立法依据、原则，规定了各方职责、鼓励事项，丰富全民健身内涵。', '（二）全民健身场地设施，共14条。明确全民健身设施布局、规划与建设等要求，规范居民住宅区健身设施配建，完善全民健身设施及配套服务设施配置，明确全民健身设施管理单位及职责，规范推动公共体育设施和学校体育健身设施向公众开放。', '（三）全民健身活动，共9条。设立全民健身周，推动构建适合各年龄段、不同群体的全民健身活动体系，鼓励引导公民参与健身，培养健身习惯，推广具有本地特色的体育健身项目，明确全民健身活动中的安全管理责任。', '（四）全民健身服务保障，共5条。对全民健身事业经费预算、分配和使用等进行规定，鼓励社会力量参与全民健身事业，支持发展公益类社会体育指导员队伍。', '（五）全民健身融合发展，共5条。推动“体育+教育”“体育+医疗”“体育+卫生”“体育+旅游”融合发展，鼓励体育科技、体育制造业、体育服务业、数字体育领域发展。', '（六）法律责任，共2条。本条例为促进类立法，未新设法律责任。遵循不重复上位法规定的立法技术要求，法律责任仅作了指引性规定。', '（一）全民健身场地设施，是指用于全民健身活动的建筑物、场地和设备，包括公共体育场地设施、经营性体育场地设施、学校体育场地设施、居民住宅区的体育场地设施以及国家机关、企业事业单位和其他组织内部的体育场地设施。', '（二）公共体育场地设施，是指由各级人民政府或者社会力量举办的，向公众开放用于开展体育活动的公益性的建筑物、场地和设备。', '《条例（草案）》经市政府常务会议讨论通过后，以市政府议案形式提请市人大常委会会议研究审议。市体育局主要负责同志代表市政府向市人大常委会作起草情况汇报。市司法局、市体育局配合做好审议工作。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>141</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>关于组织人大代表企业家异地观摩学习的建议</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n84856676/c85216828/content.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['近年来随着我国制造业的快速发展，科技改革和发展环境的不断变化，北方制造型企业改革创新高质量发展及绿色低碳转型，必须解决在思想认知和实际运行中的问题：', '我县虽已组织赴外企业参观学习，观摩一些南方科技型企业，并取得了一定的成效，但我县企业仍在科技创新的现状存在一些问题：', '2.特别是人工智能、云计算和物联网等新一代信息技术的快速发展，深刻影响制造业的发展态势和发展格局。', '2.由政府部门牵头定期组织赴江浙沪等省市一些先进的企业参观交流，借鉴其经营理念、先进技术、科学管理模式和多元化创新精神，加强我县企业家们做大做强的信心和企业的高质量发展。', '为解决我县企业在创新发展过程中遇到的思想认知和实际运行问题，今年以来，我县紧扣“高质量发展突破年”目标任务,立足职能，先后组织7次赴异地观摩学习。', '2月16日至17日，我县赴江西省赣州市南康区考察家具产业。山东帝豪家具有限公司、山东三岭实木家具有限公司、宁津兴权木业有限公司负责人参加活动。活动先后到家居特色小镇、国家级工业设计中心、国际木材集散中心、智能制造共享备料中心、零部件共享智能工厂，以及行业协会和知名家具企业等进行实地考察，并召开座谈会，深入了解南康区家具产业发展具体情况和先进经验；2月22日至24日我县赴日照开展食品企业科技赋能现场推进会，走进预制菜生产企业参观学习；3月6日至9日赴华为苏州研究所、苏州市智能制造融合发展中心、莱克电气股份有限公司、苏州汇川技术有限公司等单位实地参观；3月31日赴平原县山东征宙机械股份有限公司、山东福洋生物科技股份有限公司学习参观。', '5月17日，在上海组织召开聚能“一金一木”携手智造未来山东宁津（上海）招商引资推介会，进一步深化宁津和上海及长三角地区的交流合作，宣传推介我县区位优势、“一金一木”产业和投资环境，加强战略衔接，以高质量招商引资推动经济高质量发展。5月25日至27日，我县组织迈宝赫、宝德龙、大胡子、天展、布莱特威、美能达等25家企业赴厦门参加了主题为“智”造健康，“质”赢未来的体博会招商推介会，会上对我县健身器材产业进行推介，并介绍了宁津中国健身器材产业指数设计方案，发布了宁津健身器材产业区域公用品牌LOGO，最终推介会现场签约项目11个，总投资15.01亿元；5月26日赴禹城保龄宝生物股份有限公司学习，通过参观活动，学习借鉴经营理念、先进技术、科学管理模式、创新精神等，促进我县企业高质量发展。', '我县计划8月29日至31日参加上海国际智能家居展览会；深圳国际医疗器械展览会、2023第52届09月05日至08日中国(上海)国际家具博览会；9月下旬计划在北京组织-宁津（北京）产业推介会暨智能制造项目签约仪式；11月05日至10日参加中国（上海）国际进口博览会；11月中旬在深圳组织-数享经济智引未来”宁津（深圳）数字经济暨智能制造产业发展推介会。', '下一步我县将继续以现场观摩+实地培训方式，组织企业赴外地先进企业参观交流，提高企业负责人管理能力，更新管理理念，增强市场竞争力，促进企业高质量发展。并加大与我县产业关联度高，与企业发展方向契合度高的业内龙头、行业领军企业对接力度，引导企业认真学习好的经验做法，充分挖掘自身优势，放大我县产业特色和亮点，真正推动企业技术革新和产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>141</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>关于推进招商工作的提案</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n84856692/c85224242/content.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['关于推进我招商工作成效的建议 我认为以企招企的优势更大，“以企招企”与政府招商相比，具有以下优点：1. 引资渠道广，招商信息量大。2. 招商信息的准确性真实性较高。3. 有利于形成产业集聚效应。4.有利于本地企业的发展壮大。 建议政府相关部门采取以下措施： 1. 发挥企业商务信息量大的优势，相关职能部门负责收集整理各企业提供的招商信息，并按照政府发展规划的要求，对收集到的招商信息进行分析整理，确定一批已有一定基础，符合重点支持发展方向的行业及新技术领域作为招商重点。 2. 政企结合进行招商，企业提供招商信息及人脉资源关系，职能部门负责向投资商介绍投资环境及解释政府优惠政策，在必要时与企业一起协同上门做投资商的工作。 3. 激发企业对于招商工作的积极性，政府制定出台相关的鼓励政策，对于积极提供招商信息或招商成功的企业给予现金奖励，并依据贡献大小，在企业发展过程中所急需的生产要素资源上给予优先支持。 4. 加大对规模大、效益好的行业龙头企业和研发能力强、技术含量高的创新型企业的扶持力度，为实现“以企招企”工作的顺利开展奠定基础。 5. “以企招企”招商成果具有多样性，政府制定鼓励政策时，应分别给予不同的鼓励政策', '您提出的关于推进招商工作的提案收悉，衷心感谢您长期以来对我市招商引资工作的关注、理解、支持和关心。对此提案，我局高度重视，认真组织对提案建议进行学习研究和组织实施。现将办理情况答复如下：', '“以企招企”，即以商招商，是一项行之有效的招商引资方式，是助力招商引资的快捷手段，也是目前我市招商引资最重要的方式方法。', '（一）制定激励政策，鼓励企业招。2022年5月22日，我市以市政府办公室名义印发《德州市招商引资激励办法》，其中第二条“以商招商激励”规定，“对引荐促成项目落地的社会组织、企业、中介机构或自然人（国家机关、事业单位及其工作人员和项目投资利益相关方除外），按照项目实际投资额的5‰给予奖励，最高500万元。”近年来，市委、市政府和各县市区多次召开招商引资有关会议，对优秀的引资人和企业给予一定激励，兑现承诺，鼓励企业多提供线索，大力开展以商招商。比如，通过山东亚通汽车零部件制造有限公司“牵线搭桥”，总投资10亿元的亿利汽车零部件智能制造产业园项目成功落地夏津县；在乐陵籍尚居酒店管理（北京）有限公司董事长韩广涛推动下，总投资12亿元的晓麦铺生态食品产业园成功落地乐陵。', '（二）开展系列活动，联合企业招。一是乡贤招商活动。印发《关于开展全市“回乡筑梦，安商亲商”招商引资活动的通知》，发放《致德州籍在外乡亲的一封“家书”》，举办各类活动20余场次，对接项目50余个，掀起乡贤促招商的新热潮。二是“投资服务年”活动。制定活动方案，实行“1+N招商服务官”机制，对市投资促进局招引落地的50多个项目和全市重点企业进行走访，帮助企业解决难题，搜集招商项目线索。目前，走访企业127家，助企解难题5个，搜集项目线索50多条，引进北京凯德菲环保、中科院马光辉院士生物医药产业关键耗材、世纪华筑新型耐火板及安防设备等一批项目，为全市高质量发展注入新动能。三是“百企助招商”活动。围绕全周期服务，吸纳社会各方合作招商，搜集线索、论证项目、优化服务，进一步营造全民招商浓厚氛围。目前，已与农行、德州银行、德达集团、金控集团、交投集团等7家单位达成战略合作。', '（三）搭建平台，方便企业招。一是开通德州市投资促进局政务抖音号和“招商德州”微信公众号，全力打造招商宣传、项目招引、高效服务三大平台。平台24小时专人维护，及时解决企业咨询问题，“线上”对接招商线索。目前，政务抖音号和微信公众号粉丝8万多人，播放量超过1000万，帮助企业解决问题300多个。二是搭建与外地商会、协会日常联系机制，建立京津冀德州籍乡贤通讯录，与深圳山东商会签订合作协议。', '（二）全方位增强保障水平。一是强化方式创新，积极推进全市产业基金招商工作。鼓励有条件的国有企业参与基金（融资）平台建设，引入专业管理人才，探索“产业项目+基金平台+园区运营”合作模式，推动“高精尖”“小实快”项目落地进程；二是持续办好“招商大讲堂”，强化招商队伍建设。定期举办“招商大讲堂”活动，通过大会集中讲、企业现场讲、一线招商人员讲等方式，不断更新观念，增强招商队伍以商招商业务能力。', '（三）精准化构建政策平台。在现有招商政策基础上，进一步放大“政策漫游”“一事一议”优势，科学嫁接先进地区经验，放大政策支持效应。认真落实《德州市域内联动招商和招商引资（内资）项目共享实施细则》，建立市域内招商项目信息共享平台，突破行政界限，搭建联动招商大格局；及时做好项目统计管理，加大优质项目、资源要素匹配力度，实现优质项目资源在市域内流转。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>141</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>回顾奋进主题系列新闻发布会市司法局专场</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c87450553/content.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['出席：市司法局党组书记、局长刘洪贵，市司法局党组成员、副局长、三级调研员，新闻发言人贾长群，市司法局公共法律服务管理科科长、一级主任科员侯胜立，市司法局行政复议应诉一科科长马世利', '今天我们举行“回顾 2023，奋进 2024”主题系列新闻发布会第八场——市司法局专场，邀请市司法局党组书记、局长刘洪贵先生，市司法局党组成员、副局长、三级调研员，新闻发言人贾长群先生，市司法局公共法律服务管理科科长、一级主任科员侯胜立先生，市司法局行政复议应诉一科科长马世利先生出席，向大家介绍市司法局2023年度亮点工作及2024年度工作安排，并回答记者提问。', '大家上午好，首先，感谢大家长期以来对德州全面依法治市和司法行政工作的关心支持和帮助。', '今年1月11日，习近平总书记对政法工作作出重要指示，强调要依法维护社会主义市场经济秩序，提升法治化营商环境建设水平。春节后上班伊始，市委、市政府即召开全市民营经济高质量发展暨优化营商环境大会，强调要持续优化法治营商环境，着力完善企业平等保护机制，营造“人人都是营商环境、人人支持民营企业”的浓厚氛围。', '法治是最好的营商环境。为认真落实中央、省市委决策部署，我们立足“一个统抓、五大职能”工作定位，坚持立法、执法、司法、守法普法统筹发力，用心用力用情为市场主体提供法治服务，不断优化法治化营商环境，以高水平法治保障全市经济社会高质量发展。具体工作中，我们注重做好“加减乘除”四篇文章：', '一、做好“加法”文章，加大涉企制度优质供给。2023年，我们出台了《德州市法治化营商环境评价指标体系》，规范引导各级各部门落实优化法治营商环境各项举措。加强优化营商环境配套制度建设，推动出台《德州市供热条例》《德州市城乡供水条例》等5部法规、规章。开展妨碍统一市场和公平竞争政策措施、政府规范性文件等专项清理，审查文件81件，废止16件，宣布失效31件。编制《德州市实行告知承诺制的证明事项通用清单（第二批）》，证明事项免提交清单项目扩增至966项，数量全省第一。', '2024年，市司法局围绕市委、市政府中心工作，制定出台《优化法治化营商环境二十条措施》，开展优化法治化营商环境创新突破攻坚行动。围绕市场准入、产权保护、公平竞争等方面，加快推进粮食生产促进、全民健身、户外广告管理等重点立法项目。围绕规范政府合同管理，出台《德州市政府合同管理办法》，开展市政府合同专项清查行动，避免和减少因合同纠纷影响企业利益情况发生。围绕优化制度供给，坚持立改废并举，完善法规规章和行政规范性文件清理工作机制，逐步构建系统完备、符合德州实际的法治化营商环境制度体系。', '二、做好“减法”文章，减轻企业不合理负担。2023年，我们推动出台了《德州市涉企行政检查管理办法》《德州市企业分级分类监管办法》，建立行政处罚决定书、行政合规建议书、信用修复告知书“三书同达”机制，开发了“德企行”执法检查智慧管理平台，实行“先备案后入企”的执法检查模式。自去年11月30日启用以来，各行政执法部门通过平台申请涉企执法检查，月均入企检查、调研次数分别下降35%、29%。', '2024年，我们将以“德企行”执法检查智慧管理平台为抓手，按照市政府主要领导提出的“一季度试运行、二季度促提升、年度内见效果”工作要求，持续规范行政执法行为，采取企业实地抽查、电话核查、案卷评查、“双随机、一公开”平台数据比对等方式，完善“数据赋能+全过程监督”运行模式，抓好正反两方面典型，每季度形成分析报告，以数字化、信息化方式为优化法治营商环境提供科学决策依据。通过“德企行”平台这一有力抓手，力争多头执法、重复检查等问题有效解决，入企检查、调研次数持续下降，年度内入企执法检查数量降低40%、三年内降低60%，打造全省涉企执法检查智慧监管示范城市。', '三、做好“乘法”文章，放大法治服务乘数效应。2023年，我们成立“德州市惠企法律服务团”，开展“1+7+X”惠企法律服务，为企业及员工提供更精准高效的公共法律服务，并提供合规辅导、司法确认、存证固证、商事调解和知识产权保护等综合配套服务。开展了“产业链+法律服务”行动，为全市12个标志性产业链配备法律顾问团队，常态化开展“法治体检”，破解中小企业特别是小微企业获取法律服务难、成本高等问题。目前，“德法通”平台已有409名律师进驻，申请用户3546人，为企业和群众全方位解答法律咨询，平台作用得到有效发挥。', '2024年，我们将树立用户思维，以企业为视角，围绕企业全生命周期、产业全链条，集成公共法律服务实体、热线、网络三大平台资源，深化“1+7+X”惠企服务模式，构建普惠基础上的市场化涉企法治服务新生态。扎实开展“律企同行 法护营商”行动，组织律师法律服务团为企业开展法治体检、法治讲座、助企纾困、专项帮扶等活动，加强两公律师职能发挥，丰富法律服务产品供给，让企业提前知晓法律“底线”、自觉不触“红线”，为企业打造一面法治“防火墙”。', '四、做好“除法”文章，积极化解企业经营纠纷。2023年，我们常态化开展涉企矛盾纠纷排查化解工作，共化解农民工工资、合同纠纷等涉企矛盾纠纷6000余件。', '2024年，我们将继续深化完善“德解决”行政争议预防化解机制，建立行政复议“全域联动”工作模式，实现行政复议案件“联收、联调、联审、联治”。拓展矛盾纠纷调解领域，加强与市工商联对接沟通，推动建立德州市商事调解委员会，提升商事矛盾纠纷化解效能。探索加强律师行业涉外法律服务工作，加大涉外法律高端人才引进和培养，组织涉外律师积极参与“一带一路”、东盟、非洲等国家和地区涉外企业法律服务，提高涉外法律服务水平。', '问：2023年9月1日，十四届全国人大常委会第五次会议审议通过了新修订的《中华人民共和国行政复议法》，已于2024年1月1日起施行。请问我市2024年在贯彻落实行政复议法方面有什么举措？', '市司法局将深入落实市委市政府工作要求，以贯彻落实行政复议法为契机，坚持“复议为民”“能动复议”，充分发挥行政复议制度优势，严格依法办理行政复议案件，为维护人民群众合法权益，推进行政机关依法行政，助力我市法治政府建设贡献力量。', '一是高质量履行本级政府的行政复议职责。在党委政府领导下严格落实行政复议申请、受理、审理、决定和履行5个重要环节的要求，不断提高政府行政复议案件的办理质量，充分体现各级政府对所属部门和下级政府依法行政的有效监督。理顺行政复议管辖、出台被申请人目录、指导行政机关规范复议权告知。开展全市行政复议卷宗评查、业务培训、行政复议与行政审判业务联席会议等活动，制发半年、年度行政复议应诉工作通报，努力发挥行政复议化解行政争议主渠道作用。', '二是深化“德解决”行政争议预防化解机制。充分发挥“德解决”行政争议预防化解工作专班和公职律师法律服务团的作用，采取案件研判、错案分析、调研督导、教育培训等方式，构建行政争议化解合力。评选发布第二批“德解决”最佳实践案例，加大宣传、扩大影响。', '三是探索建立涉企行政复议案件“跨域通收、全域联动”工作模式。通过端口前移、精审细调、提级审理、专班会诊、精准指导、全面体检、多元治理等方式，实现涉企行政复议案件“联收、联调、联审、联治、联防”，保障企业合法权益，进一步优化营商环境。', '习近平总书记强调，法治是最好的营商环境。市委市政府高度重视法治化营商环境建设，将打造稳定公平透明、可预期的法治化营商环境作为推动经济社会高质量发展的重要内容，摆在突出位置。为进一步发挥法治固根本、稳预期、利长远作用，市司法局紧密结合实际，制定了《德州市司法局优化法治化营商环境二十条措施》。', '《措施》共有5个方面20条具体举措，着力从立法、执法、司法、守法普法各方面发力，聚焦重点问题、关键环节，围绕涉企政策供给、优化法律服务、规范行政执法、化解涉企纠纷、加强法治宣传等方面，为企业健康发展提供全流程、全链条、全方位的法治保障。', '《措施》覆盖立法、执法、公共法律服务等各领域，通过规范政府规章和行政规范性文件审查、清理工作，加强政府合同管理，严防损害营商环境的决策和政策文件“带病”出台、“带病”运行；深化涉企执法阳光监督改革，持续推进包容审慎监管和柔性执法，推行企业行政合规指导，让企业在行政执法中提升获得感；不断提升公证、司法鉴定质效，拓展涉企法律服务广度和深度，开展“律企同行 法护营商”行动，加强涉企法律服务；提升商事矛盾纠纷化解效能，办好涉企行政复议案件，优化涉外法律服务，多元化解涉企矛盾纠纷；深入开展“法律进企业”活动，强化宣传营造氛围，打造法治营商环境品牌，不断增强广大企业在我市投资兴业的信心。', '下一步，市司法局将扎实推进《二十条措施》落实，密切关注企业发展需求，切实将《二十条措施》落实和日常工作相结合，确保各项措施在8月中旬取得实质性进展，力求早落实、快见效，及早让市场主体获得实惠。', '感谢这位记者朋友的提问。2024年，市司法局将以健全完善现代公共法律服务体系为主线，以“严格行业监管”和“提升服务能力”为重点，以狠抓有效政策供给、坚持群众导向、全面提升质量为引领，拉高标杆、加压奋进，全面提升公共法律服务工作水平。', '一是整合资源，统筹推进公共法律服务体系建设。研究制定提升全市公共法律服务体系建设水平的意见措施，筹划召开全市公共法律服务体系建设工作会议，不断提升服务能力和水平。印发《德州市优化公证服务利企便民十条措施》，加强督导落实，持续优化公证服务水平。指导各县市区常态化开展“乡村振兴 法治同行”和“法援惠民生”系列品牌活动。开展司法鉴定质量建设年活动，加强司法鉴定质量管理。根据公共法律服务体系覆盖全业务、全时空的要求，融合律师服务、公证服务、法律援助服务、调解服务、司法鉴定服务、司法所服务、基层法律服务等重点业务，研究开发德州市公共法律服务平台，收录全市法律服务机构办公住址、电话等信息，将法律服务从线下搬到线上，更好地为群众提供优质高效的公共法律服务，推动全市公共法律服务工作高质量发展。组织法律服务团队开展公共法律服务进乡村、进社区、进企业志愿服务活动，向群众和企业宣传公共法律服务业务，提升公共法律服务的知晓率和利用率。', '二是严格培训，建设高素质法律服务队伍。组织开展全市法律援助、公证、司法鉴定等法律服务行业从业人员教育培训，邀请业内专家授课，将新鲜的法律知识、从业技能灌输进来，提升我市法律服务队伍执业能力水平。选派法律服务人员参加省厅举办的各类培训班，提高业务素质。组织县市区外出考察学习，借鉴先进地市工作经验，打开眼界，结合自身实际，拓宽工作思路，实现“创新突破”。', '三是加强监管，切实规范法律服务行业执业行为。扎实开展全市公证、司法鉴定、法律援助案件质量检查，对检查发现的问题将采取通报、重点检查、“回头看”等方式督导整改，解决法律服务行业人员执业不够规范、不够严谨，整改不彻底、不到位的问题，持续提升案件质量。开展法律服务行业突出问题专项整治，进一步加强律师、公证、司法鉴定、法律援助、基层法律服务等公共法律服务领域工作的监督管理，严厉惩处违纪违规行为，提升群众对法律服务工作的满意度。', '问：近年来，全市行政执法规范化水平持续提升，法治营商环境不断改善，请问市司法局在规范涉企执法方面今年将推出哪些举措？', '一是深化涉企执法阳光监督改革。落实《德州市涉企行政检查管理办法》《德州市企业分级分类监管办法》，实行涉企检查一口登记和联合检查。依托“德企行”执法检查智慧管理平台，制定执法检查智慧监管年度提升方案，加大涉企行政执法监督力度，推动形成涉企执法检查“事前报备、事后评价、结果公示”的闭环管理体系，全面规范涉企执法行为，切实减轻企业负担，力争多头执法、重复检查等问题有效解决，入企检查、调研次数持续下降，实现“进一次门、查多项事”。', '二是全面实施“三书同达”机制。持续推动行政执法部门融“执法+服务”为一体，对市场主体做出行政处罚决定时，将《行政处罚决定书》《行政合规建议书》《信用修复告知书》同步送达，提升企业合规经营意识，避免违法行为再次发生。按照信用等级开展分级分类监管，指导失信主体进行信用修复，减轻企业负担，增强市场活力，为企业高质量发展提供法治保障。', '三是推进包容审慎监管和柔性执法。严格落实行政裁量权基准制度，规范适用行政裁量权基准，强化日常监督管理，加强学习教育培训，提高行政执法人员熟练运用行政裁量权基准解决执法问题的能力。督促指导行政执法部门规范行使裁量权，认真落实推行行政处罚“不罚”“轻罚”清单制度，实施首违免罚、轻违免罚事项清单动态调整，为市场主体提供宽松、适度的发展环境。', '四是创新改进涉企执法方式。全面推行行政指导，督促行政执法部门多采取说服教育、劝导告诫等监管方式，把执法的柔性真正体现在每个实际的执法行为中。深入落实企业行政合规指导清单制度，入企检查时及时跟进行政合规指导，提供便捷、高效的执法服务，让执法有力度也有温度。按照省市部署，结合我市实际，积极运用互联网、大数据、人工智能等技术手段，推行移动执法、掌上办案和非现场监管等多种方式，逐步实现行政执法全流程数字化运行、管理和监督。', '提问环节到此结束。刚才，几位发布人介绍了市司法局2023年度亮点工作及2024年度工作安排，并就大家关心的问题进行了解答。请各媒体做好宣传报道。如需进一步了解情况，请与市司法局联系，电话2325076。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>141</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>年度德州工匠德州市工匠工作室选树工作新闻发布会</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c87501421/content.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2023年度“德州工匠”“德州市工匠工作室”选树工作新闻发布会 - 德州市人民政府', '出席：市总工会党组书记、常务副主席、二级巡视员朱秀彦，市委组织部副部长、市人才事业发展中心主任、新闻发言人周春华，市总工会四级调研员周美清和两名工匠代表', '千工易寻，一匠难求。广大工匠们用时间淬炼本领，用汗水浇灌理想，将工匠精神书写在平凡岗位上，用奋斗创造了一个又一个奇迹。2023年，我市选树了5名德州大工匠、50名德州工匠、10家德州市工匠工作室。今天举办新闻发布会，正式公开发布“德州工匠”“德州市工匠工作室”选树结果，并介绍有关情况。', '出席今天发布会的有：市总工会党组书记、常务副主席、二级巡视员朱秀彦先生，市委组织部副部长、市人才事业发展中心主任、新闻发言人周春华先生，市总工会四级调研员周美清女士和两名工匠代表，他们是：德州大工匠代表，华能国际电力股份有限公司德州电厂燃料部系统一班班长、高级技师王文成先生和德州市工匠工作室领衔人代表，山东禹王生态食业有限公司刘希伟智能制造创新工作室领衔人刘希伟先生。', '大家上午好！很高兴与大家在这里见面交流。首先，感谢大家多年来对全市人才工作的关心支持，正是有了你们的积极参与和广泛宣传，我市人才工作的影响越来越大、氛围越来越浓。', '发展是第一要务，人才是第一资源，创新是第一动力。近年来，特别是2022年市委人才工作会议召开以来，我市人才工作呈现出全面发力、加速深化的良好态势。一是人才政策持续创新，出台了“人才强市23条”“产才融合17条”“大学生兴德34条”等人才新政4.0版，推出了定制权、破格权、配额制、编制池等一揽子改革举措，人才政策的吸引力、影响力不断增强，人才制度的精准性、灵活度明显提升。二是人才结构持续优化，近两年，全市申报入选国家重点人才工程20人、省泰山人才工程44人，新增高技能人才5.86万人，集聚大学生近7万人，人才队伍实现量质齐升。三是对外合作持续深入，建成德州（北京）协同创新中心，组建新一代信息技术、高端装备2个科教产协同创新共同体，在全国10余个中心城市举办高层次人才创新创业大赛，“北接南融”不断深化，“四链融合”逐步深入。四是人才生态持续向好，深入实施创业安心、住房安居、配偶安置、子女安顿、身体安康“五安工程”，畅通子女教育、医疗保健、交通出行等23项服务绿色通道，建成高品质人才公寓4万多套，“德州人才之家”投入使用，“德才码”数智化平台上线运行，“‘德’有你、才‘州’全”工作品牌更加响亮。', '技能人才特别是高技能人才，是国家战略人才力量的重要组成部分。市委、市政府历来高度重视技能人才队伍建设，先后出台《关于实施“德州工匠”建设工程的意见》《德州市首席技师选拔管理办法》等政策文件，持续加大技能人才培养开发力度，目前，全市技能人才总量达到65万人，其中高技能人才13.5万人，拥有程平、王晓菲、孙一倩等大国工匠、全国技术能手24人，省市首席技师、技术能手1300余人。', '近年来，市总工会持续完善工匠培育体系，深入开展“德州工匠”“工匠工作室”选树工作，推动形成了以“德州大工匠”“德州工匠”为引领，各领域工匠人才不断涌现的良好局面。截至目前，共选树“德州大工匠”13名、“德州工匠”268名、“德州市工匠工作室”20家，示范带动各级各行业选树工匠人才3000余名，一大批锐意创新、追求极致的优秀工匠人才实现了干事创业梦想，为全市高质量发展提供了坚实人才支撑。', '借此机会，希望广大工匠人才坚定走好技能成才、技能报国之路，始终保持执着专注、精益求精、一丝不苟、追求卓越的精神追求，坚持终身学习，淬炼过硬技能，做好匠艺传承，矢志创新突破，为全市产业发展、科技攻关、城市治理发挥更多聪明才智，为中国式现代化“德州实践”作出新的更大贡献。我们将会同市总工会等部门，持续强化工匠人才选树培育，不断完善技能人才关心关爱机制，竭力为大家提供精准政策支持、有力服务保障，助力广大工匠人才用技能点亮人生、用匠心筑梦未来！', '大家上午好！很高兴能与各位媒体朋友、各位记者在这里见面交流。首先，感谢大家多年来对德州工会工作的关心和支持，下面，我就2023年“德州工匠”“德州市工匠工作室”选树情况做简要介绍。', '工匠是具备执着专注、精益求精、一丝不苟、追求卓越精神的技术工人，是工人阶级队伍中的优秀代表，他们在平凡的岗位上，凭借超群的技艺、非凡的业绩成为广大职工群众学习的标杆和榜样。', '党的二十大报告提出：努力培养造就更多大师、战略科学家、一流科技领军人才和创新团队、青年科技人才、卓越工程师、 大国工匠、高技能人才。“大国工匠”写入党的二十大报告，为培养造就更多更高层级工匠和高技能人才指明了方向、提供了遵循。', '近几年，市总工会认真贯彻落实党的二十大精神，在市委人才工作领导小组的大力支持下，始终致力于工匠人才的培育、选树、宣传等工作，一大批工匠人才不断涌现。“焊花”中走出的大国工匠程平、“手舞银丝织彩凤”的大国工匠年度人物提名人选王晓菲、“钢铁丛林”中的“女超人”齐鲁大工匠孙一倩、五金模具的“微雕大师”齐鲁大工匠赵磊、奋战电力检修一线守护万家灯火的德州大工匠吴延明等工匠人物家喻户晓，他们代表了德州、全省乃至全国相关领域的拔尖技术水平，展现了德州产业工人的职业技能、职业素养、职业精神，成为新时代新征程最耀眼最闪亮的明星。截至目前，我市共推荐入选大国工匠1名、大国工匠年度人物提名人选1名、齐鲁大工匠3名、齐鲁工匠18名，选树“德州大工匠”“德州工匠”281名。在市级示范带动下，“德城工匠”“禹城工匠”“齐河工匠”“犁城工匠”“德州警营工匠”“德州建筑工匠”、普利森“冠军级工匠”等市县级及行业、企业工匠也在持续培育选树，初步形成了工匠人才梯次培育格局。', '为进一步加强德州工匠人才队伍建设，市总工会于2023年继续开展了德州工匠、德州大工匠培育选树工作。此次选树工作自2023年8月份启动，经过寻访推荐、资格审查、专家评审、网络投票、现场考察、媒体公示等多个环节和程序，最终确定王文成等5人为德州大工匠，李海娥等50人为德州工匠。', '今年的德州工匠选树工作呈现三个特点：一是涵盖范围广。德州工匠选树范围为全市各行各业中从事某一工种、专业8年以上，具备执着、精益、创新精神和高超技艺的职工，人选不受年龄、性别、学历职级、职称、荣誉基础等条件限制。二是参与人数多。德州工匠选树工作启动以来，各级工会组织、协会等组织和职工群众高度重视，积极申报，共推荐26名德州大工匠人选、121名德州工匠人选。经初步审查，确定26名德州大工匠人选、109名德州工匠人选进入专家评审环节。三是社会关注度高。社会各界和广大职工持续关注并积极参与德州工匠评审工作，网络投票环节点赞数量达到73.68万次。', '选树工作中我们坚持了“五个注重”原则：一是注重筛选我市12条标志性产业链企业中发挥标兵、头雁作用的职工，涵盖高端装备、新能源与节能环保、医养健康、新材料、新一代信息技术、绿色化工多个产业；二是注重选拔基层一线直接从事操作工作的技能型职工；三是注重推选富有工匠精神、技能技艺水平在全市、全省乃至全国具有示范引领作用的技能型职工；四是注重事迹尤其是技能水平、创新创效和所获技术奖励；五是注重企业、工种的广泛性和代表性。', '德州市工匠工作室是由我市县级以上工匠领衔创建的工作室，目的是发挥工匠人才示范引领作用，凝聚团队力量开展技能研修、带徒传技、技术创新等活动，激发职工群众的无穷智慧和创新活力。2022年，市委人才工作领导小组印发了《德州市工匠工作室认定管理办法》，计划2022年-2024年，每年培育10家德州市工匠工作室，并给予5万元一次性资金资助。', '今年共有28家工匠工作室申报德州市工匠工作室，市总工会按照德州市工匠工作室建设要求进行了严格审查，刘希伟智能制造创新工作室等10家工匠工作室脱颖而出，被确定为德州市工匠工作室。', '下面我为大家介绍今天出席发布会的德州大工匠代表王文成和德州市工匠工作室代表刘希伟智能智造创新工作室的基本情况。', '王文成，华能国际电力股份有限公司德州电厂燃料部系统一班班长，高级技师，高级工程师，注册安全工程师，注册一级建造师。他主持设备大修项目24项，山东公司级创新改造项目6项，在省级及以上刊物发表论文5篇，授权实用新型专利24项，省级及以上技术创新奖项7项，荣获有德州市首席技师、德州市“五一劳动标兵”、“德州工匠”等称号。', '刘希伟智能制造创新工作室，由山东禹王生态食业有限公司刘希伟2018年创立。该工作室建设非转基因大豆产业互联网平台，引领产业转型，进一步提升中国非转基因大豆产业在全球产业中的竞争力。平台集成了ERP、电采、仓储、物流、销售、大数据采集分析、财务管控等信息化系统，目前这些系统在数据和流程层面都已经打通，并且扩展应用到集团内的其他企业。开展数据分析与利用，让数据发挥价值，提升决策效率和准确性。2022年积极推进DCMM三级贯标，深入挖掘数据价值，实现数据管理反哺业务水平提升，是德州首批通过贯标的企业。', '今年我们共推出5位德州大工匠、50位德州工匠、10家德州市工匠工作室，基本情况和事迹已印发给各位媒体记者，请大家参阅。', '劳模和工匠是时代的楷模，是优秀人才的代表。2024年是中华人民共和国成立75周年，是实施“十四五”规划的关键一年。朱开国市长在德州市第十九届人民代表大会第三次会议政府工作报告中，提出“聚力推动传统产业提质增效、新兴产业集群集聚，加快建设先进制造业强市”的目标。把既定目标变为现实，必须坚定党的领导，充分发挥工人阶级主力军作用，这就迫切需要培养造就更多的工匠人才，激励广大职工走技能成才、技能报国之路。下一步，市总工会将深入贯彻落实市委市政府的部署要求，大力弘扬劳模精神、劳动精神、工匠精神，培育选树更多的德州工匠、德州大工匠、齐鲁工匠、齐鲁大工匠、大国工匠，团结动员广大职工奋进新征程、建功新时代，为开创新时代社会主义现代化强市建设新局面作出新的更大贡献。', '问：刘希伟先生，您是2023年度认定的“德州市工匠工作室”领衔人，请问工作室是如何发挥作用的？', '感谢这位记者朋友的提问。我是禹王集团信息管理中心经理、两化融合办公室主任。非常荣幸我领衔创建的智能制造创新工作室入选2023年度“德州市工匠工作室”，感谢各级对禹王集团给予的认可和大力支持。', '2018年被评为禹城工匠后，创建了以我为领衔人的智能制造工作室，主要从事集团的信息化和生产自动化领域相关课题的研究和实施。工作室有成员60余人，80％的成员为一线技术技能人才。近年来，我和工作室成员攻克完成了集团的云数据中心，ERP、BPM、CRM等信息化应用系统，以及运维管理、测量管理、信息安全管理等体系的建设，并首批通过了两化融合管理体系贯标。先后实施了多个互联网+及两化融合项目，涵盖从基础架构到生产自控到商业智能多个方面，不仅在集团内快速完成两化融合布局，在行业的两化工作中也起到了带头作用。', '2021年以来，聚焦公司年度重点任务集智攻关降本提质、数据赋能等课题11项，植物蛋白肉产品智能制造工厂项目获得山东省数字经济重点项目，基于5G的智能能源及设备管理系统项目获得山东省5G试点示范项目，非转基因大豆产业工业控制系统集成提升制造能力项目获得工信部新一代信息技术与制造业融合发展试点示范，为单位创造经济效益96万元，节约成本325万元；联合禹王大学培训机构，开展技术技能人才的培训60余期，培训企业发展急需人才百余名，其中15人获得中、高级职称证书，5人获得省级竞赛奖项；完成植物蛋白肉产品智能制造工厂等成果转化28项。', '下一步，工作室将继续以“建设智慧企业，为禹王赢得未来”为使命，借助现代信息技术，以技术应用为核心思想，搭建人才培养、技术攻关、成果转化三大平台，充分发挥人的主观能动性，通过培养复合型技术人才，在公司生产经营管理中发挥示范带头作用，实现“引领”业务全面提升。', '感谢这位记者朋友的提问。在德州工匠培育、选树、宣传、激励等方面我们多措并举，基本形成了较为完善的工匠选育工作体系。主要做了四个方面的工作：', '一、思想引领铸匠心。一是以党的创新理论引导职工。以学习宣传贯彻党的二十大精神为主线，发挥劳模工匠宣讲团的作用，2023年组织宣讲554场，覆盖职工30.5万余人。二是以先进典型鼓舞职工。在电视台、德州日报开辟专栏，于“五一”期间集中宣传报道劳模工匠的先进事迹，引导广大职工技能成才、技能报国，营造“劳动光荣、技能宝贵、创造伟大”浓厚氛围。在全省工会系统首推华能德州电厂焊工班班长“大国工匠”程平为“齐鲁时代楷模”。三是以先进文化引领职工。组织“中国梦·劳动美”系列文体活动。德州市首届职工运动会成功举办，打造“运动365 健康赢未来”职工体育运动品牌。全市职工宣讲比赛、歌咏比赛、第二届“时传祥杯”职工书画作品大赛、“玫瑰书香”女职工主题阅读活动等文化活动丰富多彩。', '二、搭建平台精匠艺。一是开展职工职业技能竞赛。连续9年举办全市职工职业技能大赛，与市人社局等部门联合开展“技能兴德”职业技能大赛，形成“培训、练兵、比武、晋级”四位一体的职工技能大赛长效机制，带动全市职工学技术、练技能、作贡献。全市开展各类技能竞赛3290场次，参赛职工达51万人次，涌现出优秀选手7000余人，命名市五一劳动标兵标兵395名、技能标兵558名。二是开展全市示范性创新创优劳动竞赛。2023年，在全市30个重大项目暨挂图作战重点项目中开展劳动竞赛，带动全市近3万职工参赛，让职工在重大工程、重点项目现场锤炼本领、展示风采。三是开展职工创新创效竞赛。德州市各级共开展创新创效竞赛423场，参与职工20.5万人次，创新成果13.2万个，2023年涌现市级职工优秀创新成果95项，省级职工创新成果一等奖、三等奖各1项。', '三、政策支持育匠才。深入推进“德州工匠”建设工程。2021年修定《关于实施“德州工匠”建设工程的意见》，将“德州工匠”由每2年评选30名，扩大到每年评选50名左右，每人一次性资助1万元；增加“德州大工匠”项目，每年选树10名左右，每人一次性资助2万元。同时，将“德州工匠”纳入德州市现代产业领军人才工程子项目管理。2022年出台《德州市工匠工作室认定管理办法》，每年遴选认定德州市工匠工作室10家，每家一次性资助5万元。示范带动全市各级各行业选树了一大批工匠人才。', '四、创新传承践匠行。一是开展“名师带徒”，发挥“传、帮、带”作用。全市师徒结对13.7万对，让技术创新、人才培训、技艺传承得到充分发挥。二是成立劳模工匠创新工作室，发挥“头雁效应”。选树认定市级劳模工匠创新工作室144家，带动各级各类劳模工匠创建工作室700余家，2023年示范引领广大职工开展技术革新项目5955项，取得国家专利1237项，推广先进操作法3260项。三是成立工匠学院，发挥育匠作用。2023年，德州市总工会与德州职业技术学院联合，挂牌成立德州市工匠学院；12个县级工匠学院先后挂牌成立，为提升产业工人技能水平、培养高精尖缺工匠人才、推进职工创新成果孵化转化搭建平台和载体。', '问：我想问一下华能德州电厂的王文成师傅，作为一名电力生产一线的职工，您是怎样一步一步成长为“德州大工匠”的？', '我是华能德州电厂输煤系统机械设备的一名检修人员，能当选“德州大工匠”，我倍感荣幸，这不仅是我个人的荣誉，也是社会各界对广大电力职工的认可和褒奖！', '输煤系统是火力发电厂的“粮道”，入厂的煤炭就是经输煤系统输送至锅炉燃烧发电。工作30年来，我和班组人员一起恪尽职守，忘我拼搏，承担着一二期输煤系统机械设备的检修、维护和消缺任务。近几年来，我主持了设备大修改造项目24项，现已熟练掌握皮带胶接等检修工艺，能快速、准确处理输煤系统机械故障，我与班组人员曾创造了10天内高质量地更换2条皮带、硫化4个接头、更换1个减速机联轴器和1个除木器筛轴的燃料检修摸高峰值！', '在创新方面，我主持完成了诸如：主副管并存式初级落煤管改进、一二期含煤废水煤泥优化设计等6项山东公司级创新改造项目，解决了诸如双向皮带跑偏、犁煤器撒煤隐患综合治理、伞齿减速机箱体积煤等多个德州电厂以至电力系统“卡脖子”技术难题，获得省级及以上职工技术创新奖励7项，在省级以上期刊发表论文5篇，授权24项实用新型专利。这些专利都已应用到现场实际工作中，其中专利《输煤系统箱式筛碎设备三级密封装置设计》成功转化至华能八角电厂。这些工作，都极大降低了工作人员的工作强度，提高了现场文明生产水平，有效保证了输煤系统的稳定运行，为德州电厂的发电保供、守护德州市的万家灯火贡献了自己的力量。', '时代成就梦想！当今是一个科技、产业高速发展、充满无限可能与挑战的时代，无论何种行业，何种工种，只要积极，努力，有方向，有干劲，有毅力，就能干出一番成绩，就能实现自己的梦想。', '现在社会上很多工厂、车间已经实现“无尘化”生产，自动化程度大大提高，劳动强度大大降低，就业环境早已发生变化，再也不是原来的“苦脏累”的刻板模样。年轻人进工厂、学技能，一方面可以更快速的学习到更多新的知识，积累到更多宝贵的实践经验；另一方面，完全可以通过学习、掌握和运用技术技能，取得骄人的成就、实现个人的梦想。', '所以，年轻人要正确看到当前形势，树立正确的就业观和职业观，克服浮躁心态，放下身段，要耐得下性子，经得起磨炼，脚踏实地，精益求精，不断提升个人技能水平和文化素质，靠双手、靠劳动、靠技术赢得驰骋职场的底气，赢得社会的认可，赢得光明的未来！', '提问环节到此结束。刚才，周部长介绍了我市技能人才队伍建设的有关情况，朱主席介绍了我市2023年“德州工匠”“德州市工匠工作室”选树情况。周部长与两位工匠代表就大家关心的问题进行了解答。请各媒体做好宣传报道。如需进一步了解情况，请与市总工会联系，电话2687772。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>141</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>回顾奋进主题系列新闻发布会市科协专场</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c87087112/content.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['出席：市科协党组书记、主席、一级调研员苗晓钢，市科协党组成员、副主席、新闻发言人李静， 市科协党组成员、副主席夏祥涛', '今天我们举行“回顾 2023，奋进 2024”主题系列新闻发布会第四场——市科协专场，邀请市科协党组书记、主席、一级调研员苗晓钢先生，市科协党组成员、副主席、新闻发言人李静女士， 市科协党组成员、副主席夏祥涛先生出席，向大家介绍市科协2023年工作成效和2024年工作安排，并回答记者提问。', '大家好！很高兴来参加“回顾2023 奋进2024”主题系列新闻发布会，今天我为大家介绍全市科协工作情况。', '2023年是全面贯彻落实党的二十大精神的开局之年，全市科协系统以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神，积极投身新时代社会主义现代化强市建设，踔厉奋发、奋勇争先、担当作为，在科学普及、科技成果转化等方面取得了显著成绩，用实际行动谱写了“创新争先 自立自强”的华丽篇章！', '这一年，德州科协事业发展亮点纷呈。我们坚持为科技工作者服务，推出了一批科技工作者典型，1人获中国老科学技术工作者协会奖、1人获山东省泰山产业领军人才、3人被评为第十一届山东省优秀科技工作者、2人成为我省首批海智工作特聘专家、5人入选山东省企业“创新达人”、评选出10名“德州市最美科技工作者”。我们坚持为创新驱动发展服务，“科创中国”试点创建工作成效显著，推动我市高端装备产业、新一代信息技术产业入选省科协助力创新驱动发展协同创新基地；举办24期天衢科技论坛、1期省科协泰山科技论坛、1次省材料大会，以学术繁荣促进科技创新；我们坚持为提高全民科学素质服务，科普中国信息员注册人数超过11万人，位居全省第6；面积达17000平方米的科技馆新馆建设工程稳步推进，目前已进入内部装修阶段；精心开展全国科普日活动，受到中国科协表扬。我们坚持为党和政府科学决策服务，围绕德州市“十四五”规划、2023年市政府工作报告等，组织开展智库课题调研，组织全市科技工作者开展智库课题调研工作，48项调研成果供市委、市政府相关部门决策参考。我们加强自身建设，乡镇科协覆盖率达到100%，选优配强各级科协组织领导班子，全市科协组织共吸纳“三长”206名，在4775个村（社区）设立了科协联络员。企业科协数量位居全省前列，培育32家市级企业科协试点，3家省级企业科协试点。新创建省级科普示范社区7个、科普教育基地6个、农技协（服务队）6个，基层科协组织不断健全。狠抓党风廉政建设，牢固树立“抓好党建是本职、不抓党建是失职、抓不好党建是不称职”的责任意识，打造科协特色党建品牌，党建工作被评为全省科协系统“改革品牌”。', '2023年，德州市科协相继被中国科协评为“2023年全国科普日优秀组织单位”，被山东省科协评为“山东省2023 年全国科技工作者日优秀组织单位”、“助力创新驱动发展行动表现突出单位”、“科技信息企业应用推广优秀服务站”。我们深刻体会到，成绩的取得，根本在于习近平新时代中国特色社会主义思想的科学指引，得益于市委、市政府的坚强领导，得益于全市各级各部门和社会各界的大力支持，得益于全市科协系统的艰苦努力和不懈奋斗，得益于全市科技工作者的共同努力。借此机会，我代表市科协向在座各位媒体朋友及关心支持科协事业发展的社会各界表示衷心感谢！谢谢大家！', '感谢这位记者朋友的提问。在过去的一年，市科协全心全意服务科技工作者，为全市人才工作贡献科协力量。一是密切联系科技工作者，加强对科技工作者的政治引领。深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，到科技工作者群体中宣讲习近平新时代中国特色社会主义思想。全国科技工作者日期间，市委书记田卫东，市委副书记、市长朱开国走访慰问德州职业技术学院崔健、市农科院高凤菊、有研集团刘斌、双一集团苏勇等科技工作者代表，向他们致以节日的祝贺，表示诚挚的慰问，德州电视台等主流媒体给予重点报道，充分体现了市委市政府对科技工作者的关怀、重视。二是全力推出一批科技工作者典型。古贝春集团公司吴兆征获中国老科学技术工作者协会奖（全省仅6人）；胡柏耿、孟祥辉、于家峰荣获“第十一届山东省优秀科技工作者”荣誉称号，获奖数量为历年最多；山东森峰激光装备有限公司李峰西、庆云良医巷中医院赵磊被聘任为“山东省科协海智工作特聘专家”，成为我省首批海智工作特聘专家；王世辉、胡柏耿、程平、杜新勇、邵先豹等5人入选2023年山东省企业“创新达人”，胡柏耿成为省级宣讲代表（全省仅10人）。一系列举措有力提升了我市科技工作者的影响力。三是全面宣传科技工作者。围绕全国科技工作者日做好系列宣传活动，举办宣讲报告、学术交流、科技竞赛等活动共337场，受益群众达12万人次。联合市委宣传部等相关单位继续开展“最美科技工作者”学习宣传活动，经过广泛发动、组织申报、资格审查、专家评审和组织考察等程序，7名科技工作者、3个集体获评2023年德州“最美科技工作者”。首次在德州市广播电视台举办德州“最美科技工作者”发布仪式并全程直播，大力宣传科技工作者，在全社会营造尊重劳动、尊重知识、尊重人才、尊重创造的浓厚氛围，掀起学习“最美科技工作者”的热潮。四是大力培训科技工作者。举办山东省集成电路设计师培训研修班，邀请山东大学微电子学院教授、山东电子学会副理事长王卿璞授课，培养我市集成电路专业人才；开展创新理论培训，邀请创新方法专家张明勤作TRIZ理论培训；开展全市青少年科技辅导员培训工作，邀请山东省警察学院二级教授尉永清、山东省青少年科普专家团专家陈明泉等专家对我市青少年科技辅导员进行辅导；开展全市农技协专题培训活动，邀请省科协原副主席陈爱国对德州市农技协会员代表进行专题培训，为乡村振兴贡献科协力量。五是为科技工作者建言献策搭建平台。开展智库课题调研工作，确定49项立项课题，其中4项为重点立项课题，对每个重点立项课题给予8000元经费支持。将智库课题调研成果反馈给市委市政府相关部门，助力科学决策。', '感谢这位记者朋友的提问。2023年，市科协围绕提升科普供给力，积极打造科学素质建设“德州样板”。一是全民科学素质工作大提升。召开全市全民科学素质会议安排部署工作，副市长、市全民科学素质工作领导小组副组长邵红双出席会议并讲话，形成全市一盘棋的大格局；开展全民科学素质工作专题培训，省科协原副主席陈爱国作专题辅导；开展德州市科学大讲堂、数字素养提升专项等100余场科学大讲堂、银龄健康科普活动，受众约万人。开展德州市青少年科技节系列活动、科普百校行系列活动，6000余名青少年参与；发挥科技馆科普宣传主阵地作用，全年接待游客3万多人次，是2022年的2倍多。二是科普传播渠道进一步拓宽。在德州日报开设《科普之光》栏目，全年刊登科普文章52篇，有效推动科学知识普及。在德州交通音乐广播开设《科普之声》栏目，邀请一线科技工作者讲述科普知识，播放科普访谈节目120余期。发挥德州市科普网络台微信公众号传播作用，每日刊发省科协每日科普内容，让广大群众随时通过移动终端轻松获取丰富的科普资源，动员组织市级学会利用自媒体广泛传播科普资讯，市创客学会、市心理健康促进会的科普节目累计点赞关注近20万次。三是科普日活动数量质量“双丰收”。聚焦“提升全民科学素质，助力科技自立自强”主题，联合22家市直部门单位和各县（市、区）科协、市级学会、高校科协，采取“1+N”的活动模式，着力打造全国科普日主场活动3场、分场活动近5000余场次，实现了预期目标。进一步丰富全国科普日活动内容、形式，开展德州市首届科普宣讲大赛，举办集相声、快板、山东快书等多种艺术形式的德州市科普文艺汇演活动，在欢歌笑语中进行科普宣传，提升科普日活动质量，让科普活动更加贴近群众生活。四是科普宣讲团成效显著。聘请100余名省、市级专家组建德州市科普宣讲团，依托德州市中医院、市卫健委、市文联等单位组建成立中医科普宣讲团、“播散阳光”心理健康科普宣讲团、银龄健康科普宣讲团、德州市科普文艺宣传队等4支科普宣传队伍，开展德州市科学大讲堂、心理健康进社区、科普服务乡村文化振兴、食品安全宣传活动近200余场，受益人群超万人。五是科普助力乡村振兴取得实效。加大农村科普活动力度，紧密围绕广大农民科普需求，深入开展文化科技卫生“三下乡”、德州市科学大讲堂-科技下乡志愿服务、全国科普日-农技服务、科普“赶大集”等品牌活动，切实把科学知识、科技信息、科技服务送到农民群众身边。临邑县“玉米科技小院” 被命名为德州市首家全国科技小院。举办德州市科普助力乡村文化振兴暨全国科普日陵城区主场活动启动仪式，邀请山东农业大学教授和市农科院专家为种养殖大户进行技术培训，走进田间地头进行现场指导，帮助解决农户技术问题，深受群众好评。', '通过刚才的介绍，我们了解了科协去年的工作成效，请具体介绍一下2024年科协工作计划。', '感谢这位记者朋友的提问。2024年具体的工作计划是按照“4510”工作布局，即高水平履行“四服务”职责，全面实施五大工程，突出十项重点工作（巩固学习贯彻习近平新时代中国特色社会主义思想主题教育成果、530全国科技工作者日系列活动、天衢科技论坛、科技经济融合工作、第十七届自然科学优秀学术成果评选、科普信息员队伍建设提升、全国科普日系列活动、智库调研工作、科技工作者状况调查、科普阵地提升），团结引领全市广大科技工作者坚持“四个面向”，勇攀科技高峰，为推进中国式现代化德州实践贡献科协力量。', '一是大力实施思想凝聚工程，团结带领广大科技工作者为落实党的二十大精神凝心聚力。一要巩固主题教育成果，把学习贯彻习近平新时代中国特色社会主义思想作为首要政治任务，不断巩固主题教育成果，努力筑牢思想根基、实现更大作为。二要坚决扛牢管党治党政治责任。坚持和加强党的全面领导，确保党中央决策部署和省委、市委工作要求在科协系统不折不扣落实。', '二是大力实施创新驱动助力工程，为产业振兴和高质量发展创新赋能。一要积极争创中国科协“科创中国”试点。深化科技经济融合，以高端装备、食品化工两大产业为培育重点，全面对接国家级、省级学会服务德州，深入挖掘发展需求，将创新资源精准匹配到产业链和骨干企业，促进科技成果转移转化。二要以学会为抓手推动协同创新基地建设。持续开展天衢科技论坛、承办泰山科技论坛，打造全市学术交流品牌活动。支持县市区全面对接省级学会，开展人才技术对接和学术交流活动。', '三是大力实施科学素质提升工程，为提高全民科学素质再立新功。一要强化科普队伍建设，深入推进科学素质提升工作。推动科普信息员队伍建设，建立长效机制，形成科普网格化管理。二要强化科普品牌建设，增强科普工作社会影响力。全力组织开展全国科普日活动，力争在数量和质量上达到全省前列。围绕重点人群科学素质提升，推动开展第二届德州市科普宣讲大赛、“银龄跨越数字鸿沟”科普专项行动、科学大讲堂、青少年科技创新大赛等活动。三要强化科技馆能力建设，打造科普传播新渠道。提前规划市科技馆新馆相关工作，为新馆运行做好充分的准备；以“流动科技馆”形式深入实施科技馆进校园活动，为广大青少年送上精品服务。', '四是大力实施人才托举工程，为科技工作者成长成才铺路搭桥。一要多渠道表扬宣传优秀科技人才。坚持弘扬新时代科学家精神，围绕2024年“全国科技工作者日”节日主题，开展体现我市科技工作者风采的活动。继续开展全市“最美科技工作者”学习宣传活动。二要加强科技创新智库建设。围绕前瞻性、全局性和战略性问题，面向全市科技工作者征求意见建议，形成一批有份量的的调研报告，为党和政府科学决策提供智力支撑。三要开展第十七届自然科学优秀学术成果评选活动，通过评选发现、培养、表扬一批科技人才。四是要开展科技工作者状况调查，详细了解我市科技工作者整体情况。', '五是大力实施改革创新工程，为夯实根基增强活力保驾护航。一要推进科协系统组织建设。不断巩固拓展科普阵地，加快未换届的县市区科协的换届步伐，加强国有企业、产业链企业、国家级、省级开发区科协组织建设，同步推进科技信息推广应用工作，不断完善科协组织体系。二要抓好学会能力提升。积极引导市级学会健康有序发展，重点支持5家左右市级学会创建示范性学会，不断提升市级学会创新发展能力。三要抓好工作作风建设，积极打造“五型”机关和干部队伍。', '提问环节到此结束。刚才，三位发布人介绍了市科协2023年工作成效和2024年工作安排，并就大家关心的问题进行了解答。请各媒体做好宣传报道。如需进一步了解情况，请与市科协联系，电话2687941。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>141</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>回顾奋进主题系列新闻发布会市地方金融监管局专场</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c87055251/content.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['出席：市地方金融监管局党组书记、局长孙洪魁，市地方金融监管局党组成员、副局长刘秀岭，中国人民银行德州市分行党委委员、副行长杨德阔，国家金融监督管理总局德州监管分局党委委员、副局长夏贞峰，市地方金融监管局新闻发言人，市金融风险防控中心主任、党支部书记孙茜茜', '内容：介绍2023年全市金融系统重点工作情况和2024年主要工作安排，并回答记者提问', '今天我们举行“回顾 2023，奋进 2024”主题系列新闻发布会第二场——市地方金融监督管理局专场，邀请市地方金融监管局党组书记、局长孙洪魁先生，市地方金融监管局党组成员、副局长刘秀岭先生，中国人民银行德州市分行党委委员、副行长杨德阔先生，国家金融监督管理总局德州监管分局党委委员、副局长夏贞峰先生，市地方金融监管局新闻发言人，市金融风险防控中心主任、党支部书记孙茜茜女士出席，向大家介绍2023年全市金融系统重点工作情况和2024年主要工作安排，并回答记者提问。', '大家上午好。下面由我就2023年全市金融系统在推动金融服务实体经济、促进金融改革创新、防范化解金融风险等方面的工作以及2024年工作安排作以下情况介绍。', '2023年，在市委、市政府坚强领导下，全市金融系统认真落实“高质量发展重点突破年”要求，聚焦先进制造业强市建设、民营经济发展等中心工作，着力提升金融服务实体经济水平、深化金融领域改革创新、有效防范化解金融风险，持续优化金融营商环境，各项工作取得了明显成效，为经济社会高质量发展提供了坚实金融支撑。', '一、创新金融工作举措，融资服务实现“3个历史新高”。为有效缓解企业融资难、融资贵、融资周期长等问题，2023年我市在全省首创“金服制度”，创新推出“线上线下金服大厅、公共评审、投融资局长行长接待日”等措施，闭环服务促进金融资源“能投快投、应投尽投、难投讲清”；积极推动多家省级分行与市政府签订战略合作协议，组织金融系统调研观摩活动、重点项目融资对接会等政银企对接活动，实施“齐心鲁力·助企惠商”金融支持小微企业和个体工商户三年提升行动、“金融+商会+企业”金融支持民营经济高质量发展等专项行动，持续引导金融机构加大对经济社会发展等重大战略、重点领域和薄弱环节金融支持。通过各项措施共同发力，我市融资服务实现“3个历史新高”：一是社会融资规模增量创历史新高，全年社会融资规模增量839.77亿元，同比多增104.74亿元。二是各项贷款增量创历史新高，全年新增贷款476.39亿元，同比多增76.19亿元。三是对重点领域支持力度创历史新高，其中民营企业贷款增速、增量翻倍，贷款余额同比增长12.67%、是上年的2.05倍，新增贷款75.42亿元、是上年的2.17倍；制造业贷款同比增长16.14%、较年初增加72.24亿元；普惠小微贷款同比增长32.63%，较年初增加149.17亿元。', '二、畅通多元服务路径，金融资源配置效率有效提升。一是实施“市场筛选、政府重奖、部门帮扶、即期督导、首长点睛”五重点工作法，以市场力量推动企业上市，拓宽企业融资渠道。2023年全市新增上市审核企业1家、上市辅导企业2家、挂牌企业78家。新增直接融资85.98亿元，同比增长30.06%。二是积极打造金融高管、金融辅导队、服务专员、金融管家、金融宣导队、督导组“六位一体”金融辅导组织架构，聚焦重点项目、民营企业、产业链条、场景园区，高质量开展金融机构高管走基层“十百千万”活动，促进金融资源有效下沉。组织金融辅导见面会、金融会客厅等政金企对接活动110余场，走访1006个重点项目、1536个民营企业，累计为辅导企业解决融资600.9亿元。三是有效发挥保险保障功能，我市人保财险获批全国首家地市级农业保险创新实验特区，主粮作物农业保险覆盖率90.39%，居全省前列。四是持续释放地方金融组织服务实体经济效能，各类地方金融组织共向三农、小微等领域投放资金59.94亿元，银担“总对总”累保业务规模达到88.99亿元，农担累保突破130亿元。', '三、点面结合防控风险，金融生态环境持续优化。一是创新开展司法清收百日攻坚行动，“一企一策”推动多家企业超亿元不良贷款得到妥善处置，争取43.4亿元专项债补充农商行资本，扎实推进地方金融机构风险资产占比高问题专项整治工作，持续打击非法金融活动，不断优化金融生态环境。2023年全市共处置不良贷款26.76亿元，12月末全市不良贷款余额39.76亿元、居全省第2低位，不良贷款率1.05%、下降至十年来最低。二是持续加大非法金融活动防范处置力度，组织开展非法集资专项整治、非法集资宣传月等活动，2023年全市新发非法集资刑事案件4起、同比下降33.33%，涉案金额1.46亿元、同比下降81.3%。', '2024年是中华人民共和国成立75周年，也是实施“十四五”规划的关键一年。全市金融系统将坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实中央、省、市经济工作会议和中央金融工作会议精神，围绕全市中心工作，守正创新、开拓进取，持续优化金融服务质效，推动金融高质量发展。一是深化“金服制度”改革，创建“金服项目”体系。在“金服制度”改革取得明显成效的基础上，2024年以推行“金服项目”体系为抓手，进一步提升金融服务民营经济质效。将全市重大战略、重点领域和薄弱环节的金融有效需求“项目化”，按照“需求-衔接-入库-调度-协调-解困”的流程，将融资服务的重点由事后统计分析前置为事前谋划设计、事中调度协调，实现“动态掌握有效需求、高效推动金企衔接、及时协调融资困难”，打造“主动、规范、高效、优质”的金融营商环境品牌，实现“金服制度”的深化和优化。二是建立“金融伙伴+重点领域”协作机制，围绕科技、绿色、普惠、养老、数字金融等领域，开展精准帮扶对接活动，提高金融服务效率，优化金融供给结构。三是坚持“一企一策”化解重点企业风险，综合运用清收、核销、批量转让等方式全力压降不良贷款。不断巩固风险资产占比高问题专项整治工作成果，指导地方法人银行用足用好政府专项债，着力推动地方法人银行改革化险。加强宣传教育、监测预警和风险排查，坚持打早打小，严厉打击非法金融活动。', '刚才在发布辞中提到了“金服制度”，请为我们详细介绍一下这一制度，以及目前已经取得的效果和下一步打算。', '为缓解企业特别是中小企业长期面临的融资难、融资贵问题，2023年我局在全省首创“重点企业（项目）金融服务制度”（简称“金服制度”），探索推行打通融资壁垒的金融改革措施。一是制度创新，促进金融资源循环畅通。按风险控制原则，将企业划分为能投、应投、难投三类，按照“企业申请—金融（银行）考察—公共评审—投放储备—调度协调—国企增信—尽职免责”流程，形成工作闭环，分类精准施策提高融资落地效率。二是数字赋能，提高金融资源可得性。设计开发线上“金服大厅”，打造集金融政策推介展示、金企融资高效对接、金融服务直连直通、金融运行分析研判等多功能于一体的综合性金融服务平台。首创线上“抢单”模式，银行机构对有融资意向的企业开展线上“抢单”，限时5个工作日完成走访对接，通过多轮匹配使融资需求得到充分响应。三是搭建桥梁，加强融资疑难问题协调服务。全省首创“市场评审+公共评审”的双层评审模式，组建德州市金融服务公共评审专家库，对风险基本可控但需要增信的“应投类”企业进行“公共评审”，由国有融资担保公司为通过评审的企业提供担保增信等服务，为企业融资提供双层通道。建立“投融资局长行长接待日”工作机制，为企业“面对面”精准把脉，“一站式”纾困解难。', '2024年，我局将继续围绕缓解企业融资难、融资贵问题，深化“金服制度”改革，探索建立“金服项目”体系，提高金融资源配置效率。进一步强化“数据赋能”，引导各业态金融机构持续优化服务，促进金融资源高效投向重点领域和薄弱环节，为全市经济社会发展提供有力金融支撑。', '2024年中央农村工作会议上，习近平总书记指出，要坚持农业农村优先发展，有力有效推进乡村全面振兴，请介绍下德州市金融支持乡村振兴工作开展情况', '近年来，国家金融监督管理总局德州监管分局深入贯彻落实习近平总书记关于“三农”工作的重要论述，围绕在打造乡村振兴齐鲁样板中率先突破的要求，聚焦重点领域，坚持目标导向，推动辖区银行保险业创新金融服务，加大资源倾斜，精准有力注入乡村振兴“金融活水”。', '一是建立健全金融服务制度机制。强化监管引领，出台金融支持乡村振兴工作要点、实施方案等政策文件，与农业农村部门全面开展战略合作。健全政银协作机制，向银行机构推介农业农村领域储备重大项目95个、总投资344.7亿元。搭建金融产品宣传平台，汇编涵盖120种“三农”专属信贷保险产品的手册。优化监管考核，2023年，全市涉农贷款和普惠型涉农贷款分别较年初增长19.8%和21.92%，均远高于各项贷款平均增速。', '二是重点支持乡村产业转型发展。围绕“产业振兴”这个重中之重，聚焦高标准建设的专业园区和产业集群，重点锚定粮油加工、功能食品加工、调味料加工等五大基地建设，强化金融服务供给，支持全市建设现代农业产业园7个、省级农业产业强镇11个、省级乡土产业名品村101个，累计发放贷款60余亿元。积极支持“德州味”品牌企业，逐户对接、优化服务，累计支持品牌企业52家、贷款15.11亿元。', '三是全力服务国家粮食安全战略。围绕市委市政府提出的“实施新一轮‘吨半粮’产能提升行动”，引导银行机构充分发挥金融护航“吨半粮”产能建设优势，推出“粮食增产贷”“农机贷”“粮食规模种植贷”等专属信贷产品，从“造良田”“育好种”和“智慧农业”三个维度不断加大资金投放，截至2023年末，全市粮食重点领域贷款余额128.96亿元，较年初增长80.38%。大力支持粮食收储，成立“粮食收购贷款信用保证基金”，实缴金额全省第一，已累计放款超4亿元。', '四是全面提升农业保险保障。大力推进小麦玉米完全成本保险提标扩面，为1454.45万亩农作物提供风险保障146.91亿元，保险承保覆盖率90.39%，居全省前列。有效分担农户种植生产损失，累计赔款支出3.62亿元，惠及农户28.22万户次，助力农户稳产增收。人保财险在德州成立全国首家地市级的农业保险创新试验特区，推出10余种新保险产品提供风险保障1000余万元，推动农业保险产品开发和服务升级。', '下一步，国家金融监督管理总局德州监管分局将继续强化监管引领，坚持产业兴农、质量兴农、绿色兴农工作要求，引导银行保险机构健全授信管理机制，优化数字化经营模式，丰富金融产品，提升农业经营主体金融服务可得性和满意度，努力开创金融支持乡村振兴新局面。', '刚才，孙洪魁局长对2023年全市金融情况进行了全面介绍，人民银行主要从贯彻实施稳健货币政策的角度介绍下情况。主要有两个方面：', '货币政策是国家重要的宏观调控政策。人民银行综合运用多种货币政策工具，充分发挥货币政策工具总量和结构双重功能，为全市营造了良好的货币政策环境。一是加大货币政策工具支持力度。2023年，全年累计办理再贷款、再贴现51.86亿元，支持民营小微企业和个体工商户1.07万户。提供普惠小微贷款支持工具激励资金7142.78万元，直接带动普惠小微贷款增长37.25亿元。运用普惠小微贷款阶段性减息工具，为全市普惠小微贷款实际减息5312.96万元。利用结构性货币政策工具直接支持绿色、科创、重大项目等资金71.26亿元，其中碳减排支持工具落地36.08亿元，居全省第5位。以上是人民银行拿出的“真金白银”。二是引导融资成本稳中有降。引导金融机构降低利率、减免费用、合理让利，促进企业综合融资成本稳中有降，全市新发放企业贷款平均利率降至5.17%，同比下降0.2个百分点，让利实体经济5亿元。良好的货币金融环境，激发了各金融机构加强信贷投放的主动性、积极性，货币信贷总量持续增长。', '主要体现在金融支持先进制造业、绿色发展、普惠小微、乡村振兴四个领域的力度明显加大。我主要介绍下金融支持绿色发展情况，请媒体朋友们多关注。人民银行德州市分行实施“绿色金融深化发展年”行动，探索推出碳排放权抵押贷款等绿色信贷产品。2023年末，全市绿色贷款余额393.79亿元，同比增长近50%,达到48.2%。', '2024年，我行将紧紧围绕全市重大发展战略，落实好灵活适度、精准有效的货币政策要求，保持社会融资总量平稳均衡增长，不断优化信贷结构，持续减低融资成本，为全市经济高质量发展提供更为有力的金融动能。', '2023年，市地方金融监管局把握国家资本市场全面改革机遇，探索实施“五重点工作法”，强力推动上市工作。去年6月份以来，证监会逐步收紧上市政策，严把企业质量关，缩减新股发行和上会审核数量。我局积极转变策略应对上市政策调整带来的影响，准确把握沪深交易所上市企业定位，加大北交所上市推进力度。全年，全市新增1家企业报北交所审核、2家企业报证监局辅导，现有审核辅导企业5家。一是市场筛选，定“准”上市后备资源。组织券商、投资基金逐县市场化筛选具备上市潜力企业，确定46家上市后备资源精选企业，151家市级上市后备资源企业，建立规划清晰、目标明确的上市后备梯队。结合我市“专精特新”企业多且中小企业为主的特点，储备北交所上市后备资源25家。二是政府重奖，坚定企业上市信心。及时落实市委、市政府关于支持企业上市挂牌的扶持政策，足额兑现市级奖补资金2856.94万元。三是部门帮扶，解决上市具体难题。成立市上市工作服务专班，统筹推进解决企业上市发展中的有关难题。联合市有关部门到企业研究解决土地、建设手续、社保等问题；落实“一函通办”，帮助拟上市企业协调部门出具合规证明；争取证监局优先对我市企业开展现场辅导验收；指导在审企业防范舆情风险，积极向交易所做好沟通汇报，确保上市工作正常推进。四是即期督导，调动县级抓上市积极性。制定企业上市三年行动计划，将46家企业上市工作分解到季度，定期调度进展。结合北交所发展定位和我市企业实际，制定推动“专精特新”企业北交所上市方案，明确上市主培对象，督导县市区对上市工作的有效推进。五是首长点睛，解决部分企业犹豫不决问题。提请市委市政府首次召开高规格全市上市企业座谈会；印发《关于进一步提高上市公司高质量发展的意见》；提请市政府与北交所签署战略合作协议；市政府分管领导带队拜访交易所和上级上市主管部门；两次举办“走进北交所”活动，组织20余家企业到北交所参观学习；召开企业上市和内控管理能力提升培训会、北交所上市专题培训会等活动，邀请上市专家走访拟上市企业，为企业上市把脉，推动企业快上市。', '提问环节到此结束。刚才，几位发布人绍了2023年全市金融系统在推动金融服务实体经济、促进金融改革创新、防范化解金融风险等方面的工作以及2024年工作安排，并回答了大家的提问。请各媒体做好宣传报道。如需进一步了解情况，请与市地方金融监督管理局联系，电话2687851。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>141</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市政府常务会议召开朱开国主持传达学习习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392144/n51838778/c83901419/content.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['传达学习习近平总书记在黑龙江考察时、在主持召开新时代推动东北全面振兴座谈会时的重要讲话精神', '9月11日，市委副书记、市长朱开国主持召开市政府常务会议，传达学习习近平总书记在黑龙江考察时、在新时代推动东北全面振兴座谈会上的重要讲话精神，研究现代水网示范区建设、涉企行政检查、企业分级分类监管等工作。', '会议强调，各级各部门要深入贯彻落实习近平总书记重要讲话精神，以科技创新引领产业全面振兴，推动传统产业转型升级，引导发展战略性新兴产业和未来产业，努力实现高质量发展。要大力发展乡村优势特色产业，创新农业经营方式，加快推进农业农村现代化。要整合文旅资源，培育多元业态，大力发展特色文化旅游。要树立正确的政绩观，积极打造法治化营商环境。', '会议要求，要以现代水网示范区建设为抓手，大力实施“水网+”行动，加快构建“三通六带”现代水网体系，推进水资源、水安全、水生态、水环境、水文化、水经济融合发展，全面提高水资源综合利用效益。', '会议要求，要推行企业分级分类监管，规范涉企行政检查行为，积极推进联合检查，优化执法服务，提高执法效能，最大限度减少对企业的干扰，进一步优化营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>141</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>德州最美青年记者见面会</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c80450339/content.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['大家上午好！欢迎参加由市委宣传部主办的“致敬奋斗者-2022年德州最美人物”系列主题记者见面会。今天举办的是“最美青年”专场。', '在我们德州，有这样一批信念坚定，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑的新时代青年。2022年市委宣传部联合团市委在全市范围内选树了11名优秀的青年代表，并隆重举行了“德州最美青年”发布仪式。', '今天我们邀请团市委副书记聂玉辉先生以及4位“最美青年”代表来到发布厅，听他们讲述自己的青春故事。他们是德州一中团委书记、政教处主任郝亮先生，乐陵城市资产经营建设投资有限公司项目经理徐希国先生，德城区行政审批服务保障中心副主任张晶甡女士，庆云县水库运行维护中心副主任、河长制办公室综合科科长杨慧迪女士。欢迎你们。', '郝亮：您好主持人，各位媒体的记者朋友们，我是郝亮，德州一中的教师，同时负责德州一中团委、政教处工作。自2017年我多次被团市委评为优秀团干部，我们学校团委2019年被评为“山东省五四红旗团委”，2021年被评为“全国五四红旗团委”。', '受益于德州一中“勤责”文化的熏陶，以及老教师的“传、帮、带”，在教师岗位上，我也取得了一点成绩，2019年获得教育部“一师一优课一课一名师”奖项；2021年因漫画教学的方式在网络传播，被多家媒体报道；2021年因主持劳动教育、安全教育工作突出，分获得山东省优秀案例，2022年获得四年一届、教育届最高规格的山东省教学成果奖。', '徐希国：大家好，我叫徐希国，今年32岁，是乐陵市城投公司的一名项目经理。参加工作以来，先后负责了乐陵市棚户区改造、阜昌中学、全市中小学消防改造等重点项目的建设管理工作，同时担任公司的投融资任务，项目建设离不开资金的支持，几年下来累计协助公司争取各类融资56亿元。', '在工作中我也像公司里其他青年们一样，默默奉献在自己的岗位，没有轰轰烈烈的事迹，就是任劳任怨、踏踏实实的完成领导们的交代的任务，我先后荣获了乐陵市2018年度、2019年度以及2020年度的城乡建设工作先进个人，所负责的项目赢得上级主管部门的一致好评。', '张晶甡：大家好，我叫张晶甡，今年33岁，中共党员，现任德城区行政审批服务局党组成员、保障中心副主任。我是2012年参加工作的，到现在已经10来年了，在工作过程中，我认真贯彻落实上级各项决策部署，紧盯企业群众诉求，聚焦“关键小事”，结合德城实际，推出多项具有“德城味儿”的“微改革”事项，就目前社会各界反映来看，大家还是比较认可，比较受欢迎的。比如，发布了首张政务服务地图、在基层服务站所实施“沙漏工作法”、创建“诚易办”政务服务品牌和“印章红”党建品牌等，相关改革创新举措入选《山东省优化营商环境典型案例》，被中国改革报、大众日报、山东新闻频道等媒体刊发推介，我本人也因此荣获2020年度德州市“改革尖兵”、2022年度德州市“最美青年”等荣誉称号。', '杨慧迪：大家好，我是杨慧迪，来自庆云县水利局，2017年庆云县在全省率先推行河长制，我作为一名治水护水的传播者和实践者，6年来也一直积极投身河湖管理保护工作，守护着河畅、水清、岸绿、景美。今天也特别荣幸有机会参加这次见面会，谢谢大家！', '谢谢杨科长。4位代表都做了一个简单的自我介绍。在他们与各位媒体记者互动交流之前，我们想先请聂书记简要通报一下2022年“德州最美青年”选树工作开展情况。', '我是共青团德州市委副书记聂玉辉。非常荣幸参加“2022德州最美人物”记者见面会。借此机会，向长期以来关心、支持德州共青团事业的社会各界人士表示衷心感谢！', '2022年，在市委和团省委的坚强领导下，全市各级团组织以党建带团建措施落地为抓手强化支撑保障，以纵深推进改革为路径激发内生动力，以青年发展友好型城市建设为统揽优化城市团的工作，以打造乡村好青年升级版为牵动提升农村团的工作，各方面各领域实现新的突破，团的引领力、组织力、服务力和大局贡献度显著提升。在2022年度山东共青团工作评价中，德州团市委获评“优秀”，在全省16市共青团中位列第二，取得历史性突破。', '习近平总书记强调“青年兴则国家兴，青年强则国家强。青年一代有理想、有本领、有担当，国家就有前途，民族就有希望”。近年来，在共青团组织的团结引领下，德州各行各业涌现出大量青年榜样，以奋进姿态建功立业、书写芳华。为认真落实习近平总书记关于青年工作的重要思想，发挥先进典型示范带动作用，激励更多团员青年为德州高质量贡献青春力量，2022年，市委宣传部、团市委、市青联、市学联联合选树了11名“德州最美青年”。他们政治坚定、善于创造、甘于奉献、品德高尚，来自行业基层一线，具有较强的先进性和代表性，是全市青少年可亲可信、可敬可学的身边榜样。', '团市委号召广大青少年向“最美青年”看齐，崇尚“最美”、学习“最美”、争当“最美”，牢记青春使命、不负时代重托，在产业发展、项目建设、科研攻关、民生改善、社会治理等领域履行新使命、展现新作为，为新时代社会主义现代化强市建设作出新的更大贡献。', '问：我这个问题提给郝亮老师。我了解到画漫画是你的爱好，你是怎么把它和教学工作结合起来的呢？', '郝亮：2021年，忽然间，我成为了全国画漫画最好的高中数学老师，还接受了山东省电视台的采访。这源于我一直喜欢在教学的间隙植入漫画元素，吸引学生的注意力，学生会觉得老师会画漫画，还画得挺有意思，从而吸引学生提高学习兴趣。', '从2007年担任班主任，我就经常用漫画和孩子们沟通。但是是比较碎片式的。2015年开始把班级管理的想法逐渐梳理，形成系列，通过漫画和学生聊成绩、聊考试、聊习惯、聊目标，学生们很喜欢，效果比较好。2017年开始参与学校心语工作室工作，逐渐在漫画中融入心理元素，通过漫画和学生聊人生、聊挫折、聊情感、聊奋斗，面对的都是自己班级的学生。', '2021年高考期间，为进一步夯实学生对知识点的掌握，缓解他们的紧张心理。我创作了《徒儿下山》等系列漫画，发布网络。一时间，省市多家媒体相继转载，让更多人了解到数学也可以很有趣。', '借此契机，我把高中数学起始课《集合》《函数》画成漫画，发布在学校公众号上。2022年疫情期间还创作了一些居家学习的小漫画，同学们还是比较喜欢的，也起到调整居家学习状态的作用。', '问：我也想问郝亮老师一个问题。高中生活节奏快，刚才了解到除了教学外，还在学校负责政教处团委的工作，肩负着班主任管理以及学生德育工作，工作一定比较忙碌，有没有工作中遇到的最难忘的事情？', '疫情比较严重的时期，同学们居家，即使是每周的升旗仪式都是线上举行。学校偌大的德育广场，只有在校值班的老师们。学生们的团队活动少得可怜。', '为了让学生们增加交流互动，减少焦虑情绪，调整学习节奏，我联系德州市博物馆，得到积极回应，“知史明德呵护家园”为主题的线上博物馆直播活动如期举行。', '高一高二年级两千五百余人人同时在线，博物馆时任副馆长吕宏伟、时任陈列部徐振江精心准备，为同学们讲解。《德州先民的幸福生活》《德州历史上的那些事》直播点赞，瞬间破亿，被德州日报、德州晚报、山东教师队伍公众号等多家媒体报道。', '学生们在活动中有所收获，屏幕上跳动的点赞，和互动聊天中积极讨论，是对我们团队活动的最大认可。这是一次比较新颖的尝试，但是非常成功。学校老师们、博物馆工作人员、媒体工作人员都非常激动。团队活动需要创新，学生们渴望外面世界的样子真的让我都记忆犹新。', '徐希国：在项目管理过程中，我作为建设单位项目负责人，主要就是负责项目的组织与协调，组织施工、监理、设计等参建单位的招标工作，办理项目立项、环评、能评、用地、规划、施工许可等前期手续，项目开工后，负责组织施工单位进场，召开工地例会，制定工期，编制各类施工方案。建设过程中，协调现场出现的各类问题，处置突发事故，并及时做好现场已完工程或者隐蔽工程的收量工作。组织项目各个节点验收，组织召开项目推进协调会，把控进度，监督质量。项目竣工后，办理各种竣工手续并做好最后一班交接等等！', '徐希国：2020年11月，城投公司接到上级紧急任务，启动全市中小学及幼儿园消防设施改造工程，该项目共计20所学校的地上消防水池以及92所学校增压稳压设备，要求年前全部完工，时间紧、任务重。接到公司指派后，我随即组织了施工公司、设计院以及监理公司到教育局进行对接，带领队伍先后到惠民、淄博学习考察，制定施工方案，不到3个月的工期，传统的施工模式根本满足不了进度要求，而各个学校情况也不尽相同，我创新性的提出了“方案先行、施工随后、设计同时跟进”的思路进行改造建设，同时积极协调财政评审单位及时跟进，据实核量。', '那年12月份，遭遇几十年不遇的严寒天气，我一刻也没停，带领施工队伍那几天跑了好十几个乡镇指导施工，回到家手脚冻得早已没了知觉。随之而来的雨雪天气以及两次重污染天气响应，部分学校商混无法供给，小型泵站工程量小，传统施工工艺既费时又费力，给施工进度造成了不小影响，我接着又带领设计院、施工班组四处考察，以成品泵房代替现砌砖房，在保温效果相同的条件下，不但降低了施工成本更是极大缩短了工期，最终112所学校消防工程顺利完成改造，全部通过验收。', '张晶甡：我是2018年转隶到德城区行政审批服务局工作的，在“一枚印章管审批”改革过程中，通过走访企业和窗口亲身办事体验，我和我的同事们发现了许多企业群众办事不方便的地方，比如：涉及建设项目办事手续多，企业不知如何下手准备材料，再比如群众去窗口办事，有的时候等待时间比较长，异地办事比较难等问题。这些问题都是老百姓最为关注的小事和难事，也是涉及自身利益的关键事，如果解决不好，那么打通服务群众“最后一公里”将无从谈起。聚焦如何精准解决问题，我们针对中心城区独有特点，广泛征求意见，积极制定措施。一是进行业务流程再造，提升审批效率；二是创新工作方式方法，建立服务机制，为企业和群众提供全方位立体式服务，促进营商环境再优化。像我们建立的政务“1+2+3”帮办代办体系，通过“1”个重点项目一套服务方案，建立政务中心和社会力量“2”支首席服务官队伍，打造区、镇街、社区“3”级政务服务帮办代办体系，构建了主动对接、精准定制、并联推进、全链服务、跟踪保障的服务模式，行政审批一次办结率提高到九成以上，彻底解决群众办事“时间长、材料多、不会办”等难题。近几年推出的还有像无差别一窗受理、“批发办”改革、政务可视化直播等一系列“微改革”，我们争取用最短周期、最小成本、最大程度办好那些民心所向、发展所需、基层所盼的关键实事，真正让改革红利可感受、能触摸、有温度，截至目前，大家的反响还是不错的。', '问：我也问张主任一个问题。“微改革”听起来很微小，但是我想也不是一蹴而就的，请您再详细介绍一下。', '张晶甡：“微改革”虽“微”，内容却涉及各行各业，千头万绪，做起来也就不是一蹴而就的，这需要我们成为一名身处其中的“有心人”，用微视角观察群众最关心、最现实、最直接的问题，用“微改革”推出管用的新招、实招、妙招。举个日常生活中的例子，企业群众在办理证照后，如未能及时办理年审、认定、延续等手续而导致证照过期，就会面临“无证经营”、“无证生产”、“无证上岗”等风险，进而导致行政处罚、停产停业、重新办证等问题，造成经济损失。考虑到这点，我们就用最笨的方法，依托现有的业务系统，用人工筛选的方式，建立《年度证照临期提醒台账》，再通过“短信提醒”、“点对点函告”、“人工电话通知”等方式对符合要求的企业进行“一对一”告知提醒，变“人找服务”为“服务找人”，可以说，这个任务量非常大，特别是牵扯到数据对比、信息核对，必须保证精准到位，只能是人工一个企业一个企业的核对，我和我的同事加班加点，往往工作到晚上10点，这都是常态，也正是因为这些辛勤的付出，我们增强了政务服务的主动性和精准度，切实提升公众的幸福指数。', '杨慧迪：庆云县作为在全省率先推行河长制的县，在治水护水的过程中也面临着前所未有的压力和挑战，我们也是摸着石头过河、千方百计趟路子，最终也取得了一定的成效。在具体工作中，我们也是摸索出了“搭三桥过三河工作法”。一是架起沟通的桥梁，过了百姓的心河。在河湖清理整治过程中，遇到最大的难题就是群众的不理解。群众住了几十年的房子、即将丰收的果树等都要无条件清除，这让群众很难理解和接受。面对现实难题，我与同事每天天不亮就出发，挨家挨户做工作，确保了群众全部按期自行拆除，未出现一例上访户。更让我欣慰的是越来越多的人加入到我的队伍中来，成为河湖志愿者，跟我一起巡河护河，凝聚起治水管水护水强大合力。二是架起融汇的桥梁，过了致富河。推行河长制的过程中，坚持与重大惠民战略相结合，做好“河长制 + 与乡村振兴”文章，清理河滩地万余亩，大量种植油菜花、油葵、中草药、胡萝卜等经济作物，亩均收益3000元以上。“河长制+乡村振兴”美环境增收入做法获全国基层治水十大经验之一，成为山东省唯一上榜的典型经验。三是架起示范的桥梁，过了幸福河。围绕不断满足人民群众日益增长的优美生态环境需要，我主导编制了庆云县3年美丽幸福河湖全覆盖规划。优先挑选一批基础好、特色浓、示范带动效果明显的河湖打造幸福河湖典范，目前共创建了省市级美丽幸福示范河湖7条，县级幸福河湖54条。沿河湖群众获得感、幸福感显著增强。', '问：我想问各位最美青年代表，在工作中有哪些瞬间和事例让你们觉得自己从事的工作非常有意义？', '郝亮：我有一位学生入学时他就有一个航天梦！他能在班会课上涛涛不决的和同学们讲国内外各种武器知识，特别是战斗机。可是他眼睛高度近视，本科去了大连理工大学学习软件工程，不过他读硕士终于还是去了北京航空航天大学，计算机科学专业。导师刘瑞，任职北航软件开发环境国家重点实验室。', '在校时我们师生关系很好，但是毕业多年，也只是偶尔发发信息。去年除夕，他打电话过来，说被公派新西兰奥克兰大学，研究人工智能、图学习、信息论相关问题。他的导师很厉害，获得了洪堡奖——相当于计算机人的诺贝尔，而他已经发表了4篇研究论文，有三篇发表于人工智能领域顶级的会议（AAAI、IJCAI、SIGIR）。', '他很兴奋的给我讲他的求学路，我说：你说的太专业了！我甚至都听不懂了，我就问你一句话，学完了回国么？', '作为他曾经的老师，他的优秀有高中阶段我们一行老师尊重支持了他的梦想，有一中智育、德育土壤的滋养，我们教育出了不少优秀、大气、担当的青年人，我觉得无比自豪。', '徐希国：我主要负责的是市重点民生项目，当看到一栋栋棚改高楼拔地而起，看到我们的城市变得越来越好，心中也不由泛起一阵阵自豪感。虽然我一个人的力量是微不足道的，但我很荣幸能够参与进我们这座城市的改造，看到老百姓的生活越来越好，城市环境越来越美，我觉得我从事的这份工作特别有意义。', '张晶甡：在从事政务服务工作的这几年，我始终为我的单位、为我所从事的这份工作感到骄傲和自豪。因为我们直面群众，我们向前多迈一步，老百姓就能少跑一步，哪怕少跑这一步，我都认为是非常有意义的。我印象很深的，是关于德城区“争分夺秒”审批模式的创建。德城区地处中心城区，人口集聚，市场主体集中，审批服务业务量占全市四分之一。为了进一步帮企业节约宝贵时间，让企业赢在起跑线上，我们创造性的开启了“争分夺秒”的审批新模式，首批10大类83项区级事项实现承诺即入。具体来讲，就是在风险可控和基本条件具备的情况下，只需信用承诺即可开工或经营，实现“信用越好，审批越容易”，助力企业实现信用财富转换。比如：对涉及办件量较多的餐饮类的食品经营许可以及生产类的食品小餐饮小作坊登记事项实行告知承诺制，取消现场勘验，申请人承诺即可领证，每年超千家企业享受到该项改革红利。再比如：连锁药品经营零售许可“先发证后核查”，由原来的6个工作日办结，变为只跑一趟、立等可取。特别是去年8月份，我们对德州实华化工有限公司新建仓库项目，启动社会投资简易低风险“承诺代证·极速审批”模式，一天就完成了包括立项、规划、水保、人防、质监、施工在内的建筑许可阶段多项审批，费用减免23.46万元，实现“多证齐发”。此次推出的“微改革”不仅让企业省时、省费、更省心，而且在推进过程中还加快了地方对于“信用审批”的立法进程，进而实现改革的不断突破，这让我觉得自己从事的工作非常有意义。', '杨慧迪：今天也为大家带来了两张图片，这是我们庆云县母亲河马颊河整治前后的一组照片，一张拍于2017年，另一张拍于近期。这张是2017年4月份我们在实行河长制伊始，在做河湖问题排查的时候拍摄的，大家可以看到，这段光养殖棚就40多处，污染河道的同时也影响河道的行洪安全，当时，我们排查出的违章建筑、养殖棚就有200多处，整个河道杂树丛生，无法通行，我们排查都是徒步的。右边这张是最近拍摄的，现在的马颊河是河畅、水清、岸绿、景美。经过这组照片的对比，大家可以看到整个马颊河面貌发生了翻天覆地的变化，这变化得益于河长冲锋在前，水利与各部门齐心协力，以壮士断腕的决心开展了清河行动，并且，去年在省市水利部门的支持下，投资1235万元成功创建成马颊河省级美丽幸福示范河湖。现在每当我在马颊河边走过，看着穿行于堤顶路的车辆，游玩与水文化公园的行人就感觉特别有欣慰和自豪，这种变化呢，也更加坚定了我工作的决心和信心，我也愿化做一滴水，融入水利改革发展事业的时代洪流,在领导的带领下，与同事们携手守护好德水安澜，为美丽德州建设贡献自己的力量。', '提问环节到此结束。刚才，聂书记简要通报了2022年“德州最美青年”选树工作情况，4位“最美青年”代表与各位媒体记者做了比较充分的互动交流。既有结合工作谈体会、谈经验，也有难忘小故事的分享。在他们身上，我们领略到了“最美青年”的青春风采。谢谢你们。', '青年作为引风气之先的社会力量，价值追求和精神状态如何，在很大程度上决定着国家和民族走向。希望全市青年做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习、向“最美青年”学习，从我做起，从现在做起，从一点一滴做起，用实际行动告诉全社会什么是真善美、什么是假恶丑。', '今天的记者见面会就进行到这里。如果需要进一步了解情况，请与团市委联系，电话2687794。', '下面我发两个预告。一是稍后11点钟，我们将举行市政府新闻办新闻发布会，邀请气象专家通报我市去年入冬以来的气候特点和主要气候事件，并发布4-5月份气候趋势预测信息。二是4月18日（下周二）上午9点半，我们将在这里举行“2022年德州最美退役军人”专场记者见面会。欢迎大家继续关注，谢谢！']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>141</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>年德州市市民热线服务中心优秀青年人才选聘初试公告</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860954/c80628863/content.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['根据《2023年德州市市直事业单位优秀青年人才选聘公告》及考生报名情况，经研究，德州市“12345”市民热线服务中心督促承办岗位（100011岗位）决定增设初试，现将有关事项公告如下。', '初试采取线上面谈方式，主要考察考生综合分析、组织协调、思维应变、言语表达、举止言表等方面。初试使用“旗帜云面试”微信小程序进行，使用腾讯会议进行监控。初试共分两个环节：一是自我陈述，主要陈述本人的学习工作情况、兴趣爱好、优缺点等，内容要客观翔实、个人特点突出；二是回答问题，考生阅读问题，思考后作答。自我陈述和回答问题共计10分钟，每位考生思考和答题时间分别为5分钟。', '考生的自我陈述及报名登记表应与实际相符，考察阶段将作重点核实，不相符的，取消选聘资格。', '模拟初试日期为2023年4月26日，模拟初试入场时间及腾讯会议号见初试通知单，考生须在规定的入场时间加入腾讯会议室，根据工作人员指引进行模拟初试。请仔细阅读《初试操作指南》（附件3），做好初试准备。', '正式初试日期为2023年4月27日，具体时间见初试通知单。考生须在正式初试开始前60分钟加入腾讯会议室，腾讯会议号见初试通知单。正式初试开始前30分钟仍未进入腾讯会议室的，视为放弃初试资格。正式初试腾讯会议号与模拟初试一致。', '1. 考生须仔细阅读《初试违纪行为认定及处理办法》（附件4），严格服从工作人员的管理、监督和检查。', '2. 完成初试确认的考生于2023年4月22日-23日加入指定钉钉群（相关信息将以短信形式发送），发送“报名序号+考生姓名”进行验证，进群后更改备注为报名序号。初试具体事宜将在钉钉群通知，考生因个人原因未能及时接收通知影响参加初试的，后果自行承担。', '3.考生须凭本人有效居民身份证、初试通知单（纸质版）方可参加初试。初试应在安全、封闭、明亮且无干扰的房间中独立进行，考试范围内不得放置任何书籍、影像资料、电子设备等与考试无关的物品。', '4. 考生不得佩戴饰品，不得遮挡面部和耳朵，不得佩戴口罩和耳机，不得使用滤镜等可能导致本人严重失真的设备。未经许可不得接触和使用除面谈端和监考端手机以外的设备。调整好身体坐姿和监考端手机摄像头的拍摄角度，确保能够清晰拍摄到面谈过程（包括面谈端手机屏幕内容），拍摄角度应避免逆光。', '10. 考生违反初试考试规则和管理规定行为的，将视情节给予终止初试程序、不予初试评分、初试成绩为零分等处置。隐瞒真实信息、弄虚作假、考试作弊、扰乱考试秩序等违反纪律行为的，将视情节给予考试成绩无效、取消资格、通报单位等处理。构成犯罪的，移送有关国家机关依法处理。', '11. 正式初试前，考生应确保联系方式畅通，以便接听相关电话、接收短信、接收钉钉群通知等。考生应及时确认和回复相关信息。', '填报入口：2023年德州市‘12345’市民热线服务中心优秀青年人才选聘初试信息填报入口']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>141</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>德州最美税务人记者见面会</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c80407448/content.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['大家上午好！欢迎参加由市委宣传部主办的“致敬奋斗者-2022年德州最美人物”系列主题记者见面会。今天举办的是“最美税务人”专场。', '近年来，德州税务系统大力弘扬“忠诚担当、崇法守纪、兴税强国”的中国税务精神，持续激发干部队伍干事创业的精气神、汇聚担当作为的正能量，锻造了一支忠诚干净担当的税务铁军。为了树立典型、表彰先进，去年市委宣传部联合国家税务总局德州市税务局在全市范围内选树了10名优秀的税务干部，并隆重举行了“德州最美税务人”发布仪式。', '今天我们请来了国家税务总局德州市税务局党委委员、副局长贾长勇先生以及4位优秀的税务干部代表。他们是德州市税务局稽查局局长王洪光先生，德城区税务局第一税务分局局长郭喜春女士，德州运河经济开发区税务局党委委员、副局长宋平平女士，武城县税务局办公室负责人孙皓先生。', '各位记者朋友们，大家好。我叫王洪光，来自德州市税务局稽查局。1992年参加工作以来，我历经税源管理、货物劳务税管理、税务稽查等多个岗位，一直奋战在税收征管工作第一线。虽然岗位在不断调整，但是我对税收工作的坚定信仰从未改变，面对工作中的问题和困难，我始终牢记“为国聚财，为民收税”的职责使命，奋勇拼搏、务实创新，始终用行动践行新时代税务干部的初心和使命。2016年，在营改增的关键时期，我被确诊患有肠部肿瘤，随即进行了手术治疗，手术后3天我就返回了工作岗位，和同事们并肩作战，我们克服人手少、户数多、工作量大的困难，完满完成了营改增各项工作任务。我先后荣获“感动德州十大人物”“德州市道德模范”“德州最美税务人”“齐鲁最美税务人”等荣誉称号。这些荣誉的获得，是人民群众对我的认可。下一步,我将把荣誉转化为做好税收工作的强大动力，在服务人民群众的新征程上再立新功。', '大家好，我是德城区税务局第一税务分局局长郭喜春，从税19年，我先后在信息中心、征收管理、基层分局、纳服一线多个岗位工作，从营改增的逐步推进到金三系统的上线运行，从征管规范的梳理实施到纳服规范的准确落实，我很庆幸自己既是见证者更是参与者，爱岗敬业、尽职履责，在平凡的岗位上我用行动践行初心和使命，连续多年我被评为优秀公务员、先进工作者、德城区优秀团支部书记、德州市优秀共青团员，荣获德州市国税系统全面推开营改增试点工作三等功，德州市税务系统“最美税务人”等多项荣誉称号，秉承“忠诚担当、崇法守纪、兴税强国”的中国税务精神，我将继续做好本职工作带动身边人干好税收工作，为税收现代化服务中国式现代化勠力奋进。', '大家好，我叫宋平平，现任国家税务总局山东德州运河经济开发区税务局党委委员、副局长。2011年，怀揣着对税务梦想的无限憧憬，如愿考入了原夏津县国税局，先后在办税服务厅、业务科室工作过，从事过增值税、出口退税管理，现在担任夏津县税务局办税服务厅负责人。参加工作以来获得先后获得营改增先进个人，县级五四青年奖章，市级五一劳动标兵，全市机关服务群众标兵，全市“三亮一争”攻坚标兵等荣誉称号；同时进入省局多个业务专业人才库，在2020年业务比武中获得全省第二名的成绩。', '尊敬的各位领导、各位来宾，大家好！我是孙皓，现任武城县税务局办公室负责人。今天，很高兴也很荣幸参加记者见面会。从税4年以来，我先后在办税服务厅、纳税服务中心、办公室等岗位工作，从学习税收业务服务纳税人缴费人，到从事行政工作保障税收工作开展，在每一个岗位上我都始终用行动践行新时代税务人的初心和使命，先后获得4次嘉奖，荣立3等功。这些荣誉既是对我工作的肯定，更是对我的鞭策，责任在肩、使命在心、担当在行，我将一如既往地在税务工作这条道路上奋力前行！', '孙皓是95后，是最年轻的“最美税务人”。谢谢孙主任。4位代表都做了一个简单的自我介绍。在他们与各位媒体记者互动交流之前，我们想先请贾局长简要通报一下2022年“德州最美税务人”选树工作开展情况。', '大家上午好！我是德州市税务局党委委员、副局长贾长勇。十分荣幸能够来到“2022德州最美人物”记者见面会现场。借此机会，向长期以来关心、支持德州税收工作的广大纳税人、缴费人和社会各界人士表示衷心感谢！', '去年以来，在市委、市政府和省税务局的坚强领导下，全市税务系统认真贯彻落实习近平新时代中国特色社会主义思想，扛牢忠诚担当政治责任，主动融入全市经济社会发展大局，充分发挥税收职能作用，实现了税收事业的高质量发展。市局获评2022年度全省税务系统“绩效优秀单位”，跨入全省“第一方阵”。', '榜样力量催人奋进，拼搏绘就精彩人生。为进一步激发全市税务干部干事创业精神活力，去年以来，我们在全市税务系统启动了德州最美税务人评选活动，在市委宣传部的精心指导下，全系统广泛发动，采取自下而上、层层推荐的方式，通过初审预选、专家评审、考察公示等环节，评选出10 名基层先进税务干部代表，并成功举办了“致敬奋斗者——2022‘德州最美税务人’发布仪式”，集中体现了新时代税务人胸怀国之大者、税之重任的深厚情怀，充分展现了负重前行、攻坚克难的最强担当，营造了事争一流、唯旗是夺的浓厚氛围。', '围绕擦亮“最美税务人”品牌，不断提升“最美人物”典型带动作用，今年以来，在全市税务系统深入开展了“亮身份 比贡献 争先锋 立新功”党员意识教育活动，进一步倡导“最美”精神、唱响“最美”声音、树立“最美”形象，引导广大税务干部在为民服务中砥砺成长，在税收实践中增长才干，在不懈奋斗中锤炼品格，在投身税收现代化的新征程中贡献力量、彰显价值。', '最美的风景在路上，崭新的征程在前方。全市税务系统将以“最美税务人”为榜样，崇尚模范、争当先进，忠诚践行“为国聚财，为民收税”的宗旨，唱响学习榜样、干事创业主旋律，凝聚唯旗是夺、争创一流的磅礴力量，以更加昂扬的斗志奋进新时代、争创新业绩，为建设新时代社会主义现代化强市贡献税务力量！', '问：近几年，我们税务部门在办税便利化、税费政策改革、减税降费方面做了很多工作，各位作为最美税务人，长期工作在基层一线，亲身经历了这些工作，可以聊一聊印象最深的工作吗？', '王洪光：谢谢您的提问，感谢您对我们税务部门改革发展的关注。我想谈一下由我负责过的增值税留抵退税工作。增值税留抵退税是党中央、国务院重大决策部署，是2022年组合式税费支持政策中最重要的内容。在市委市政府、省局的正确领导下，在社会各界、广大纳税人的支持配合下，我市工作开展成效显著。作为留抵退税工作的直接参与者，我感触很多。', '首先，为民初心是干事创业的基础。留抵退税政策能够有效减轻纳税人的税收负担，是稳定经济大盘、助力企业纾困解难的关键性举措。我们全市税务系统，胸怀为民办实事的初心，抓落地、优服务、提质效，以“严真细实快”的工作作风，落实2022年增值税留抵退税58亿多元，政策红利普惠5000多户纳税人，让真金白银助力企业发展。', '其次，守正创新是干事创业的路径。我们德州税务深化应用“五步”工作法，通过建立留抵退税政策落实台账，保障退税资金快速直达企业，推动留抵退税政策落实落细、落准落稳。我局留抵退税工作开展情况及效果，得到国家税务总局王道树副局长的充分肯定。', '再次，敬业奉献是干事创业的支撑。为了确保留抵退税政策落实落地，自政策实施之初的三个月内，全市广大税务干部加班加点、夜以继日，放弃了节假日，一直奋战在工作一线。我所在的科室，有的同志执意延迟了已经预约好的住院治疗，直至工作结束后才去治病；有的同志将孩子送去父母家照看，近一个月未与孩子见面；有的同志多次在深夜赶往办公室，处理紧急工作任务。', '正是德州税务人这些不懈的努力和付出，以及对工作的敬畏和热爱，确保了留抵退税政策实现早退、快退、退准、退稳的目标，为德州市经济社会发展贡献了税务智慧和税务力量。', '宋平平：我也来谈谈自己的感受。我感觉，要让国家的税收政策准确、及时落实，我们税务干部的业务素质非常关键。我们税务系统有业务“大比武”的优良传统，每年都会选择几个税种进行业务比武。把练兵比武与本职工作和日常业务学习紧密结合，坚持干什么练什么、练什么比什么，切实增强我们的业务素质和岗位胜任能力。', '2020年4月，总局下发“大比武”活动方案，我所在的出口退税管理岗被选定为练兵比武项目。那时我是夏津县税务局税政一股的负责人，虽然科室的工作很忙，我还是报名参加了市局的“业务大比武”。白天因业务繁忙，只能利用业余时间自学备考。晚上短暂陪伴刚上幼儿园的女儿，等女儿睡着后，才是我的学习时间。经过多轮选拔，我入选市局集训队，需要进行三个月的脱产学习。为了保证培训效果，集训后期取消周末休息。当时，孩子年龄还小，时间一长，孩子常哭着闹着见妈妈，实在没办法，孩子爷爷奶奶就每周带着孩子往返一百多公里到我培训的楼下，让孩子与我短暂相聚。', '参加工作之后有脱产学习的机会非常不容易，需要单位和家庭的给予很大的支持，所以我倍加珍视这次封闭集训的机会,做了3大本厚厚的笔记，那段的学习拼搏不仅仅是让我取得了全省第二名的成绩，更重要的是我的业务水平也获得了一个很大的飞跃。', '无论是在科室还是到了办税服务厅，我都把人员业务素质提升作为重点工作来抓，我会自己随身带一个小本子，只要遇到涉税问题及时记上的经验传授给大家。在我的带动和影响下，办税厅工作人员业务水平不断提高，大家也充分地认识到，每次提升，都不仅仅是税务人员岗位技能的比拼，更是优化服务、提升纳税人缴费人满意度的重要举措。正是这种浓厚的学习氛围，办税服务厅服务质量不断提升，2022年，我所在的办税厅也荣获了全市政务服务先进集体，我们的团队荣获全市青年文明号称号。', '郭喜春：您好，我也讲讲我的感受，作为一名基层工作者，我经历了很多岗位、也参与了很多专项重点工作，印象最深刻的是我们税务系统开展的“便民办税春风行动”，这项工作我们开展了十年，也持续优化了十年。十年间，我们牢固树立以纳税人缴费人为中心的服务理念，将“便民办税春风行动”与减税降费、“放管服”改革、优化营商环境有机融合，联合银保监会开展“税银互动”活动，联合工信部门开展中小企业服务月，与市场监管部门开展“春雨润苗”专项行动，帮助中小微企业充分享受政策红利、缓解融资难题。十年间，我们持续落实涉税服务的征管体制改革，深化“非接触式”办税方式，提升纳税缴费便利度，从以前的“人工办”“到厅办”“排队办”到现在纳税人足不出户的“自助办”“远程办”“智能办”，便民春风让税收服务有温度，更有速度。十年间，我们始终坚持以纳税人缴费人的涉税需求为导向，快速响应纳税人缴费人的诉求，竭力解决办税缴费的难点、痛点、堵点问题，让便民春风成为纳税人缴费人的“暖心”春风、“满意”春风。十年，有太多的工作来不及细述，也有太多的瞬间值得被铭记，感动我的是税务人十年如一日的奋力拼搏，是税务人始终不变的为民情怀，更是纳税人缴费人对我们税务工作的支持肯定和他们脸上愈发灿烂的笑容。2023年，便民办税春风行动的主题是“办好惠民事 服务现代化”，德州税务系统将在“大力优化税收营商环境、全面提升纳税人满意度、打造“全域联动”税费服务新模式”三个方面下足功夫。我们细化落实20项优化税收营商环境举措，增设“零号窗口”统筹串联服务全过程，针对六大类12项易办事项，严格落实“一分钟快办”要求，持续提升纳税人缴费人的满意度和获得感，为进一步推进税收现代化服务中国式现代化营造良好社会氛围。谢谢！', '孙皓：您好，我接着分享一下我的感受，工作这几年的时间，自己也经历并参与了很多重点工作，让我最深刻的工作还是每年的“税收宣传月”工作。每年4月份税务系统上下同步、集中开展税收宣传，为纳税人缴费人送政策、办实事、解难题，积极营造良好税收营商环境。我们每年都会围绕宣传月主题，围绕良好征纳关系，对标纳税人缴费人所需所盼，为纳税人缴费人提供便利服务，请进企业问需问计，深入企业答疑解惑，线上线下多元宣传，积极为纳税人缴费人提供优质服务，帮助企业及时掌握、享受国家税费优惠政策。同时，还会针对性地推出了一系列特色服务举措，让他们切实感受到更快、更易、更好的办税新体验。比如说每年在企业走访问需问计活动中，都会帮助企业解决政策享受、资质申报、资金等多方面问题，纳税人缴费人都非常认可、高度评价。每年我们都会收到纳税人缴费人信件、锦旗等多种方式的感谢，我们还有个传统，历年来信件、锦旗都放在办公室，每天抬头就能看到，这既是我们的传承，也是激励我要抓好宣传，干好税务，做好服务的标杆。今年是第32个全国税收宣传月，主题是“税惠千万家 共建现代化”，我们也是积极响应，与工商联联合开展的启动仪式，联合推出“税收政策入万企”“商会代表话税收 畅谈‘税感’谋发展”等8项活动，积极与新闻媒体沟通对接，制定了线上+线下多形式的宣传活动，确保宣传有吸引力、传播力，确保为纳税人缴费人送上实实在在的政策、解决实实在在的困难，帮助企业健康高质量发展。谢谢。', '问：我的问题提给王洪光。您好王局长。您对待税收工作的热情和激情让我们由衷的敬佩和感动。您不仅被评为“德州最美税务人”，还被山东省委宣传部、省税务局评为“齐鲁最美税务人”，被称为咱们税务系统的一面“硬汉”旗帜。我想，大家所说的“硬汉”，不仅仅是指您克服病痛折磨，加班加点夜以继日的奉献精神，更是指您面对复杂的工作局面，繁重的工作任务，敢啃硬骨头，勇于担当的攻坚精神。请问，您面对深化税收征管改革的重大任务，您是怎样发扬“硬汉”精神，冲锋在前、攻坚克难的？请和我们分享一下。', '王洪光：感谢您的提问。您刚才提到的“硬汉”精神，不仅仅是指我个人，而是我们整个德州税务系统的精神底色和形象缩影，是全市2800余名税务干部工作作风的一种体现。“硬汉”精神，就是十个字——“奉献不言苦，追求无止境”。', '“奉献不言苦”，工作中要时刻牢记党的教导，始终坚守责任二字。作为一名共产党员、一名税务干部，将全部的身心，奉献给税收事业，关键时刻挺在前，就是我们的责任。记得几年前，我年近80岁的老母亲因频发脑血栓，需要到上海华山医院接受治疗，但当时的我作为我市代表人员参加全省一项业务攻关集中办公，工作非常繁重。为了不耽误工作，只能由我的妻子陪同老母亲赴上海治病。当我圆满完成工作任务，匆匆赶回家，看到刚刚出院仍然需要照顾的母亲时，感觉亏欠了家庭很多。对于我来说，这些年，面对涉税问题我倾力解决，面对紧急任务我勇于担当，面对病痛折磨我从未屈服，我认为我坚守了全心全意为人民服务的初心。', '“追求无止境”，工作中要有精益求精的精神，把工作干好干优，干出成绩。还记得2016年，“营改增”工作全面推进，为尽快推动企业准确掌握营改增的业务知识，我受市局委托在3天后进行政策宣讲。面对4万多字的36号文件及相关配套政策，面对知识多、业务新、零基础的困难挑战，因剥离肠部肿瘤在北京做完手术十几天的我，看政策、学文件、走企业，白天忙不完，晚上接着干，每天都要工作到凌晨。在三天后举办的“千户企业走近营改增”政策宣讲活动中，面对1200多名来自全市的营改增纳税人，我强忍着突发的腹部疼痛，高质量的完成政策宣讲，受到纳税人的一致好评。宣讲结束后，同志们立即送我到医院进行了复查。', '这是我对全市税务系统硬汉精神的一种诠释，我将继续学习贯彻好党的二十大精神，立足税收本职岗位，始终保持德州税务人的“硬汉”本色，为税收现代化服务中国式现代化贡献自己的力量！谢谢。', '问：我的问题提给宋平平。宋局长您好，从您刚才介绍的情况看，您有10多年的税务工作经历。在这10多年的时间里，您从一个税务新兵到行家里手、业务骨干，到现在能够独当一面，走上领导岗位，这一路走来，您有哪些比较深的体会和感悟，请和我们分享一下。谢谢。', '最早让我感受到这个问题是在2012年，首次在植物油加工行业推行农产品进项税额核定扣除。实施核定扣除既维持了农业生产者销售自产农产品免征增值税政策不变，也改变原来凭票低扣的种种弊端，消除了“高征低扣”的情况，降低企业税负，提高企业的核心竞争力。', '政策落实期初，由于对行业情况不了解，政策无法落实，为保证政策扎实落地，我和科室的同志走访了当地100多家植物油加工企业，深入企业车间、库房，了解企业生产情况和核算情况，对企业的情况深入分析，结合政策要求，提出了具体落实意见，形成的工作调研在中国税务报发表，为政策落地贡献了德州实践。这是我从税10年在中国税务报发的第一篇文章，至今印象非常深。后期调研中了解，这项政策的落地大大降低行业税负，仅这一项政策的优惠金额超过1000万元。', '后期我到办税厅工作，十年时间里我们办税缴费的方式变化真的太大了，我刚工作时在办税厅实习，纳税人还是填不完的表、跑不完的路，一种税费填一张表，国税办完地税办，复杂业务甚至一天还办不完，大厅排队长龙更是很普遍的现象。现在的服务模式实现了从入厅办到智慧办，实现了“最多跑一次”甚至“一次都不用跑”的升级转变，纳税人不仅收获了“申报缴税不出户”良好体验，也在一定程度上减少了企业的办税成本，节约了办税时间。', '智能化速度快了起来，其实也对我们工作人员也提出了更高的要求，我们服务的也不仅仅是进入到办税厅的纳税人，越来越多的纳税人通过网络、手机办理相关业务，办理过程中他们可以通过厅线联动电话、智能办税小程序、微信等多种渠道与我们厅内工作人员进行交流。为提升厅内工作人员 “一对一”叠加“点对点”精准辅导的业务能力，每周定期利用晨夕会组织学习，督促窗口人员、导税人员懂政策、会操作、能辅导。 同时利用办税厅中、后台服务团队的联动，建立“科室—分局—办税服务厅”联合辅导宣辅机制。', '开展了一系列像“纳税人学堂”云直播培训，“税收专家团队”上门“面对面”宣传等活动，将大水漫灌的辅导方式，改成了精准画像后的精细服务，不断给纳税人带来“新税感”。谢谢。', '问：我的问题提给孙皓。孙主任您好，您是一位95后， 2018年参加工作，至今工作还不满5年。您在这么短的时间里却能够先后获得4次嘉奖，荣立三等功，在众多青年干部中脱颖而出，成为获评“最美税务人”里最年轻的一位。请您给我们分享一下，青年税务干部在新时代税收现代化建设中如何成长成才？', '孙皓：感谢您的提问。其实我们德州税务系统青年都非常优秀，我只是其中一员。在新时代税收现代化建设中，我认为，好的青年干部不是“种到地里自己长出来的”，即要靠组织培养，也靠自身努力，近年来，市局党委高度关注青年干部成长成才，积极搭建平台，比如我们的“练兵比武”“蹲苗计划”等等，为我们青年成长提供舞台，我们要珍惜组织的关心关爱。在大好的年华，赶上了好时代，拥有充分的发展机会，我们必须要有重塑自我的余地。结合自身在日常的工作、学习、生活中经历向大家分享几点想法：一是有坚定的信念。信念是旗帜，是方向。一直以来，我作为支部书记，始终坚持带头加强政治理论学习，充分运用支部活动、青年理论学习小组等载体，开展沙龙、分享会等活动，持续加强自身的政治建设，在行动上自觉与党中央和上级党委、本级党委保持高度一致。二是有学习的自觉。税务部门是业务性、政策性很强的部门，业务是我们的基础。入职以来，我一直把业务作为自己的立身之本，围绕税收治理现代化建设“六大能力”深入学习，积极参加“练兵比武”和“知识竞赛”，争当税收现代化需要的复合型人才，自己也有幸考选省市局人才库，省局青年才俊等。三是有积极的心态。工作中要积极主动，善于突破自我，追求极致。在制度创新现场会工作上，我主动请缨争当联络员，深刻以制度创新推动深化征管改革意义，多次深入企业调研，深入研究分析，结合实际提出多项创新项目，取得了很好成效。四是有担当的锐气。青年干部要有强烈的事业心和责任感，能吃苦、能战斗，不畏难、不避险。在疫情形势严峻期间，作为牵头部门的负责人，积极担当，从制定方案、物资筹备、执勤安排、后勤保障等各方面，不能有一环松懈，带病24小时坚守岗位一个多月，多次都是闻令而动、凌晨出发。现在回想起来，我认为更多的是充实，是一段宝贵的经历。以上是我个人在成长过程中的感受，这也是税务青年共同的精神风貌，我们肩负着时代赋予的重任，在每一位税务人的苦干实干下，税收现代化建设一定会不断深化，税收现代化服务中国式现代化成效也一定会不断凸显。谢谢。', '郭喜春：感谢您的提问。参加工作这么多年，我感觉“双向奔赴”是对征纳关系最好的诠释，我们理解纳税人的辛苦，纳税人懂得我们的付出。德城区税务局第一税务分局服务辖区内4.3万户纳税人和34万缴费人，业务办理量占全市三分之一。时常会有人问我，这么大的工作压力你一定很累吧，对于这个问题，我更想通过分享一个小故事来回答。一个临近下班的工作日，一位老先生到办税服务厅领取发票，却因为忘记带需要缴回的作废发票急的大声吵嚷，了解事情的原委，我为他预约了延时服务，业务办理完毕，窗外已经是漆黑一片，他连连道谢的走出办税服务厅，笑容里多少有些不好意思。隔了不长时间，一场流感让办税服务厅的多半人员中招，老先生不知从哪里听到了消息，带着一大包感冒药急匆匆赶来，挨个放到我们手里还催促着“快吃上，快吃上，这个药可管用了。”说实话那一刻我们都特别感动。', '用真诚化解矛盾、以沟通营造和谐。就在昨天，我们的办税服务厅收到了今年以来的第三面锦旗，“真诚服务为企业，业务精湛解难题”简简单单的十四个字表达了沧州车务段德州站对我们税务部门的高度赞扬。是的，工作在一线，我们付出了很多，也收获了很多。站在纳税人的角度，解决纳税人的问题，“想纳税人所想，急纳税人所急”是每一位像我一样的基层税务干部数十年如一日的初心和使命。我和我的同事们将继续立足本职岗位，用心用情为纳税人缴费人提供优质高效的涉税服务，全心全意为德州市的经济发展贡献税务力量。谢谢。', '提问环节到此结束。刚才贾局长简要通报了2022年“德州最美税务人”选树工作情况。4位“最美税务人”代表回答了记者提问，谈了工作感悟，分享了工作体会，也介绍了工作经验。谢谢你们。', '以习近平同志为核心的党中央高度重视税收工作，习近平总书记多次作出重要指示批示，强调要发挥税收在国家治理中的基础性、支柱性、保障性作用。在此，对全市税务人的辛勤付出表示感谢，向“最美税务人”致敬！祝你们在今后的工作中一切顺利。', '今天的记者见面会就进行到这里。如果需要进一步了解情况，请与国家税务总局德州市税务局联系，电话2383581。', '最后我发一个预告。明天上午9点半，我们将在这里举行“致敬奋斗者-2022年德州最美职工”专场记者见面会。欢迎大家继续关注，谢谢！']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>141</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>争当新时代德州工匠新闻发布会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c80647118/content.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['工匠是一个闪亮的名字，是一个执着专注、精益求精、一丝不苟、追求卓越的群体。在我们德州，就有一批以实际行动弘扬工匠精神的劳动者，他们在平凡的岗位上创造了不平凡的业绩。2022年，我市选树了4名德州大工匠、50名德州工匠、10家德州市工匠工作室。今天举办“争当新时代德州工匠”新闻发布会，正式公开发布“德州工匠”选树结果，并介绍有关情况。', '出席今天发布会的有：市委组织部副部长、市人才事业发展中心主任、新闻发言人周春华先生，市总工会党组书记、常务副主席朱秀彦先生，市总工会办公室主任、四级调研员、新闻发言人周美清女士和两名“德州大工匠”代表，他们是国家电网山东省电力公司德州供电公司变电检修中心变电一次检修专工吴延明先生和德州职业技术学院农业机器人工程中心实训教师高强先生。', '大家好！很高兴能与各位媒体朋友、各位记者在这里见面交流。首先，感谢大家多年来对德州人才工作的关心和支持，正是有了你们的参与，德州的人才政策才更具影响，人才品牌才更加响亮，人才工作才更有成效。', '今天重点是向大家通报一下德州工匠的有关政策情况，希望借助媒体力量，进一步加大政策宣传，展现德州爱才敬才的满满诚意和浓厚氛围。', '近年来，市委、市政府高度重视人才工作，深入实施“人才兴德”行动，持续加强高技能人才培养，特别是围绕壮大工匠队伍，持续优化政策体系，加大政策激励：', '2020年3月，为规范提升工匠培育，壮大工匠队伍，市委人才工作领导小组办公室出台了《关于实施“德州工匠”建设工程的意见》（德人组办发〔2020〕1号），启动实施“德州工匠”建设工程，对“德州工匠”培训培养、选树命名、政策激励进行了系统谋划、顶层设计，并将“德州工匠”纳入德州市高层次人才库。', '2021年4月，为完善政策支持体系，强化高技能领军人才激励，市委人才工作领导小组办公室出台了《德州市引进培养高技能领军人才奖励实施细则》（德人组办发〔2021〕7号），将省级“齐鲁大工匠”“齐鲁工匠”纳入政策支持范围，对入选省级“齐鲁大工匠”“齐鲁工匠”的人才，分别奖励1万元、5000元。', '2021年11月，为进一步完善工匠支持体系，加大人才激励力度，市委人才工作领导小组办公室对《关于实施“德州工匠”建设工程的意见》进行了修定，进一步强化工匠梯次培养，加大人才激励力度，将“德州工匠”由每2年评选30名，扩大到每年评选50名左右，每人一次性资助1万元；增加“德州大工匠”项目，每年选树10名左右，每人一次性资助2万元。同时，将“德州工匠”纳入德州市现代产业领军人才工程子项目管理。', '2022年11月，为充分发挥技能领军人才在技术创新、技能研修、带徒传技等方面的重要作用，市委人才工作领导小组办公室出台了《德州市工匠工作室认定管理办法》（德委人组办发〔2022〕20号），每年遴选认定德州市工匠工作室不超过10家，每家一次性资助5万元，从平台角度进一步完善工匠政策。', '通过近三年的努力，逐步构建起从省级“齐鲁大工匠”“齐鲁工匠”，到市级“德州大工匠”“德州工匠”和“德州工匠工作室”的工匠培养选拔体系、政策支持体系，可以说，目前我市工匠政策的含金量越来越高、覆盖面越来越广、体系越来越完备。在市总工会的统筹实施和精心落实下，政策激励效应和工程引领作用充分释放，激发了广大人才奋勇争先、出圈出彩的精气神，培养了一大批锐意创新、追求极致、匠心筑梦的优秀人才。目前全市共推荐入选大国工匠年度人物提名人选1名、“齐鲁大工匠”3名、“齐鲁工匠”13名，选树“德州大工匠”8名、“德州工匠”218名，示范带动各级各行业选树工匠人才2900余名。', '时代呼唤人才，发展需要人才！借此机会，也希望广大技能人才传承好劳模精神、劳动精神、工匠精神，坚定走好技能成才、技能报国之路，为中国式现代化“德州实践”提供有力人才支撑。市组织部、市委人才工作领导小组办公室将全力为大家做好各方面服务保障工作，与广大技能人才携手同行，用技能绘就精彩人生！', '大家好上午好！很高兴今天能与各位媒体朋友、各位记者在这里见面交流。首先，感谢大家多年来对德州工会工作的关心和支持，在这里我向大家通报近年来“德州工匠”选树宣传活动的情况。', '党的十八大以来，以习近平同志为核心的党中央高度重视弘扬劳模精神、劳动精神、工匠精神，作出一系列决策部署。在市委、市政府的正确领导下，自2017年以来，市总工会联合有关部门认真组织开展德州工匠选树宣传活动，让劳模精神、劳动精神、工匠精神闪耀德州大地，凝聚建设新时代社会主义现代化强市正能量。2022年，选树德州大工匠4名、德州工匠50名、德州市工匠工作室10家。', '市委、市政府高度重视德州工匠的选树工作，在《新时期产业工人队伍建设改革实施方案》中，明确提出“选树宣传‘德州工匠’，加大‘工人伟大、劳动光荣’宣传力度,推动劳模精神、劳动精神、工匠精神进学校、进课堂,进企业、进班组。”2020年，由市总工会牵头，联合市委组织部、市委宣传部等9个部门组成“德州工匠”建设工程推进工作委员会，将“德州工匠”建设工程纳入全市人才工作大盘子，由市委人才工作领导小组统一领导。出台《关于实施“德州工匠”建设工程的意见》，从培养措施、推荐条件、推荐程序、享受待遇、培育管理、宣传报道等方面建立了德州工匠推荐宣传学习机制，为工匠人才成长和发挥作用提供了有力保障。', '以“当好主人翁 建功新时代”为主题，广泛开展劳动和技能竞赛，为工匠型人才脱颖而出搭建平台、提供舞台。近年来，全市连续组织了8届职工职业技能大赛，每届设置市级一类竞赛20项，市级二类竞赛不少于30项。每年举办重点工程、重点项目攻坚竞赛、创新创优劳动竞赛，带动万名职工学技术、练技能、做贡献。目前，全市开展各类技能竞赛3290场次，参赛职工达51万人次，涌现出优秀选手6530人，其中选树市级技能标兵728人，授予市五一劳动奖章（标兵）592人，选树县市区和产业工匠285名。', '近年来，我们不断加大宣传力度，通过报刊、电视、网站、微信等渠道，设立“工匠”专栏，大力宣传德州工匠人物，扩大德州工匠的社会影响力。2018年，以“大匠之心，制造之魂”为主题，举办德州市“寻找身边工匠”职工微电影大赛，动员全市3万名职工寻找身边工匠，借助微电影展现出各行各业独具匠心的绝活绝技，弘扬爱岗敬业、精益求精的工匠精神。2019年以来，成立劳模工匠宣讲报告团，每年开展“劳模精神、工匠精神进企业、进社区、进校园”暨先进事迹巡回报告会，用他们匠心筑梦、奋斗圆梦的故事激励全市广大职工、学生学习先进、争当先进，努力成为知识型、技能型、创新型劳动者。通过开展德州工匠推荐宣传活动，推动各行各业培育选树了大批工匠人才。', '今天参加新闻发布会的2位德州大工匠就是这些工匠人才中的优秀代表：吴延明，国网德州供电公司变电检修中心变电一次检修专工、高级技师。他带领班组完成德州首座220kV主变自主安装等多项工作，解决德州城区供电卡脖子和电压不稳定问题；主持完成变电三级及以上高风险大型复杂作业700余项、国网省公司70余项重大工程项目；拥有2项发明、3项实用新型专利，储油柜油位无线监测系统等多项成果在现场获得应用推广。', '高强，德州职业技术学院农业机器人工程中心实训教师、高级技师。他主持的“面向医疗器械射频电刀肛肠治疗机器人关键技术的研究与实现”，获得重点研发计划项目立项，重大课题立项1项，省级市级重点研发课题2项，市级自然科学技术成果3项，获得发明专利4项，先进操作法6项，技术革新9项。', '我们同时还推出了50位“2022年度德州工匠”、10家德州市工匠工作室。在此不再详细介绍，他们的基本情况和事迹已在汇编中印发，请大家参阅。', '劳模和工匠是时代的楷模，是优秀人才的代表。市委、市政府把今年确定为全市‘高质量发展重点突破年’，实施技改“三千计划”，加快建设先进制造业强市。落实要求、实现目标，需要建设一支高素质的人才队伍，其中，培养更多的劳模、工匠，不仅是引领社会风尚的需要，更是在高科技人才引进难、留住难的情况下，实现我市高质量发展、跨越式赶超的现实选择。下一步，我们将要深入贯彻落实市委的部署要求，大力弘扬劳模精神、劳动精神、工匠精神，培养造就更多的德州工匠，团结动员广大职工为建设新时代社会主义现代化强市作出新的更大贡献。', '周美清：感谢这位记者朋友的提问。德州工匠选树面向全市各行各业，聚焦新旧动能转换重点产业，一般从事某一工种、专业 8 年以上，具备执著、精益、创新精神和高超技艺的一线职工，人选不受年龄、性别、学历、职级、职称、荣誉基础等条件限制。医生和教师（职业院校实训教师除外）不参加评选。', '选树条件：德州工匠候选人应在德州工作满 1 年以上，遵纪守法，爱岗敬业，具有良好的职业道德，得到职工群众公认，目前在一线岗位直接从事生产、技术等工作。具体应满足以下条件：', '4.做出突出贡献。为企业在实现工艺改进、技术革新、质量攻关、提高效率等方面做出了突出贡献，取得了重要成果，或在职工技能竞赛和技术创新活动中成绩突出、发挥示范带动作用。', '当选“德州工匠”后，技艺更加精湛，“传帮带”作用更加突出，特别是在关键技术工艺领域又取得重大革新、重大突破、重大成果，助力攻克“卡脖子”核心技术难题，达到或接近国内、国际领先水平的；或作为主要成员，参与完成市级及以上重点技术攻关项目，为加快新旧动能转换、推动技术进步，实现企业、产业、行业高质量发展作出突出贡献的；', '获得省部级劳动模范和先进工作者、省五一劳动奖章及以上称号的优先推荐；获得国家技术能手、齐鲁首席技师或国家、省职业技能大赛一等奖上以奖项称号的优先推荐；', '已获得齐鲁工匠及以上称号的不再申报；在管理期内的德州市首席技师等纳入市级人才工程管理的人员暂不申报。', '周美清：德州市工匠工作室从各县市区总工会、市产业工会及直属基层工会选树命名且已有效运行1年以上的工匠工作室中推荐产生。工作室的领衔人应为县级及以上工匠。', '（二）标志明显。有工作室牌匾、组织机构、工作职责、目标任务、管理办法等规范性标志。', '（三）场所固定。有面积适当、功能明确的固定场所，用于学习研讨、创新实践和成果、荣誉展示。', '（七）运行规范。有明确的技术攻关课题和创新目标、完善的管理制度，能定期开展技术攻关或创新活动，运行规范有序。', '（九）成效明显。每年有3项以上创新课题或攻关项目；每年至少有2项创新成果在本单位推广应用；每两年至少有1项创新成果获得相关认定，并取得一定效益。', '周美清：德州大工匠、德州工匠选树工作坚持党管人才、德才兼备、好中选优、公开透明的原则，共有五个环节。', '一是逐级推荐。组织推荐，由县（市、区）总工会、市产业或行业协会等组织筛选、初审，确定推荐人选，公示 3 个工作日，向市总工会推荐申报。个人自荐，以网络和新媒体作为个人自荐的主要渠道，发布征集启事，设立推荐平台。', '二是资格审查。市“德州工匠”建设工程推进工作委员会办公室按照申报条件和相关要求，对所有推荐人选进行资格审查，确定“德州工匠”“德州大工匠”候选人，候选人人数应不少于选树人数的 1.5 倍。', '三是专家评审和网络投票。邀请不同领域专家组成“评审委员会”，对候选人开展“背靠背”评审。通过网络发布“德州工匠”建设工程候选人基本情况和主要事迹，发动公众进行网络投票。依据专家评审结果（权重占 90%）和网络投票情况（权重占 10%），确定“德州工匠”“德州大工匠”提名人选。', '四是社会公示。提名人选名单在德州工会官网及相关媒体进行公示，公示期为 5 个工作日。', '一是基层申报。各基层工会根据工匠工作室建设情况自主提出申报意愿，并提供相关书面申报材料。', '二是县级审核推荐。各县市区总工会按照管理权限，审核所属基层工会申报材料的完整性和真实性，并采取实地考察等方式确定推荐名单，报市总工会。', '三是市级审定公示。市总工会成立评审工作办公室，对申报的工匠工作室进行评审，提出拟认定名单，在市级媒体公示5个工作日。', '我想请问一下高强老师，一般人理解大工匠都是做工的人，作为一名老师，您当选为德州大工匠，我想问您是如何理解老师与大工匠的关系的？谢谢！', '高强:感谢您的提问，我作为德州职业技术学院的一名教师，当选德州大工匠感到非常荣幸和光荣。大学老师和大工匠两者中均有一个“大”字，这让我想起梅贻琦老先生的一句话，“大学之大,非大楼之大,乃大师之大”。因此，按我的理解，这个“大”不仅仅指广泛且扎实的掌握知识与科学技术，也是指有大的格局与胸怀，将所知所思加以利用和传承，用实际行动响应“科技兴国”与“科教兴国”战略，培养一代代有理想有情怀的新生代工匠力量。', '而我所在的学校——德州职业技术学院，也秉持着着相通的理念，涵养师生“大气厚道”的德职气质，以“崇德尚能 敬业乐群”的校训，以“科教兴国”“精心育人”为任，加强推进“三强”+双师型队伍建设。（三强教学、强实践，强科研，双师是指教师+技能大师）目前，我校已跻身全省高职院校前8名，跨入“A”档等级佳绩。', '自入选德州工匠、德州市创新工作室以来，获得发明专利4项，先进操作法6项，技术革新9项，科技服务到账额87.68万元。时刻提醒自己，自己不仅仅老师，更是工匠之师，实训教师要上的了讲台，还要开的了机床，要求学生的标准化、规范化实践实习，细节上慢工细匠、精益求精。下一步，我们紧跟习近平总书记重要讲话精神，为加快构建现代职业教育体系，培养更多高素质技术技能人才，能工巧匠，大国工匠，给学生的职业技能生涯系好第一个扣子，为德州经济发展、科技进步贡献德州智慧和力量。', '我想问一下吴师傅,您从事电力行业已经30年了，作为一名电力工作者，我们相信您肯定解决了很多电力设备关键技术难题，在这里，您能简单跟大家分享一下吗？', '吴延明：感谢您的关注，我在供电公司主要负责变压器设备的检修工作。变压器是变电站的心脏，而变电站又是电网的核心，对电网安全运行起着至关重要的作用。近年来，德州电网发展十分迅速，记得刚参加工作的时候，德州全市110千伏及以上变电站仅17座，而今天，相同电压等级的变电站数量达到147座，容量增加了25倍。很荣幸我即是电网发展的见证者，也是电网建设的亲历者。在这期间，我先后完成220千伏宁津、庆云站等变压器安装和大修技改等大型高风险复杂作业700余项，变压器排油注氮灭火装置改造等网省公司重大工程项目70余项。创新应用变压器胶囊储油柜“冲顶注油”工艺方法，解决了大型变压器油位不准、补偿偏差大等技术难题，提升了变压器的安全运行可靠性。我带领团队完成了德州首座110千伏双富智能变电站自主安装任务，推动了德州电网跨入智能电网时代，为德州经济发展注入了更坚强的供电保障。', '作为电力人，我会始终践行“人民电业为人民”的服务宗旨，不忘初心，勇于担当、甘于奉献，全力守护万家灯火，为经济发展保驾护航。', '时间关系，提问就进行到这里。刚才周部长介绍了将“德州工匠”建设工程纳入市级人才工程情况及有关奖励政策，朱主席介绍了“德州工匠”选树工作开展情况，周美清和两位“德州大工匠”代表就大家关心的问题做了解答。请各媒体做好宣传报道。如果需要进一步了解情况，请与市总工会联系，电话2687772。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>141</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>德州高层次人才创新创业大赛济南分赛举行</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860896/c80776780/content.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['（常立栋）4月23日，第二届中国·德州高层次人才创新创业大赛济南分赛成功举行。市政协副主席隋力出席。大赛共邀请27名选手参赛。 参赛选手通过“10+5”路演答辩方式依次亮相，同台竞技展示项目亮点、商业模式和发展前景，技术、投资专家逐一提问、现场打分，并就创业项目提出建议。赛后，我市各县市区与参会专家、参赛选手积极对接、深入洽谈，与部分参赛项目达成初步合作意向。会后，参赛选手将到相关县市区开展精准对接和实地考察。 活动期间，市委组织部、德州人才发展集团等有关负责同志赴坐落于长清区的北京理工大学前沿技术研究院实地考察学习，深化交流合作。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>141</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会工业高质量发展专题天衢新区专场发布会</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c81951407/content.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“工业高质量发展”专题天衢新区专场发布会 - 德州市人民政府', '“中国式现代化的德州实践”系列主题新闻发布会“工业高质量发展”专题天衢新区专场发布会', '接下来，我们举行“工业高质量发展”专题新闻发布会第三场——天衢新区专场。我们邀请天衢新区党工委委员、管委会副主任霍丽敏，天衢新区经信科技部部长孙光明先生，天衢新区投资促进部副部长刘怀东女士，天衢新区发改统计部督导专员张忠鉴先生出席发布会，向大家介绍天衢新区推动工业高质量发展的总体思路、政策措施以及其他已经开展的工作、取得的成效和下一步打算，并回答记者提问。', '大家上午好！首先，我代表天衢新区党工委管委会，向一直以来关心和支持全区工业发展的新闻界朋友表示衷心的感谢！', '天衢新区成立以来，全区上下坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实市委市政府关于发展先进制造业的决策部署，把发展经济的着力点放在实体经济上，狠抓先进制造业强区建设，全区工业发展呈现稳中向好、进中提质的良好态势。', '坚持高质量发展不动摇，重点在招大引强、企业梯次培育、产业集群培植等方面狠下功夫。2022年，全区实现工业增加值增速8.3%，利润总额增速21.26%。景津装备营收突破56亿元，营收过10亿元企业达到8家，税收过千万工业企业达到29家，全市“双50强”企业达23家。上市企业达到了2家，今年预计主板上市企业1 家，北交所上市报审企业1家，新三板挂牌企业1家，上市培育企业20家，上市后备力量不断充实。今年1-5月份实现规上工业增加值增速9.1%，工业经济持续实现平稳增长。', '深入实施创新驱动战略，加快推进新旧动能转换，持续培育壮大新兴产业，增强工业发展内生动力。2022年，全区高技术制造业投资增长95.3%，高新技术产业产值占规上工业比重达到69.04%，居全市第1位。截至目前，全区高新技术企业达到128家，总量全市第1；国家级、省级单项冠军11家，居全市第一；国家级专精特新“小巨人”企业5家，居全市第二，省级专精特新企业76家，居全市第一；省瞪羚企业10家，数量全市第二；省级创新型中小企业达到66家。', '坚持以数字变革引领工业企业转型，助力全区新型工业化加速推进。2022年，我区数字经济核心产业营收达到106亿元，形成了半导体集成电路（设计、材料和封测）、智能终端、信息技术服务三大产业链。电子信息材料产业集群入选省战略性新兴产业集群，成功举办2022 中国（德州）集成电路产业峰会。19家企业入选省级数字经济重点项目，为全市首位。山东越海通信科技股份有限公司、德州易泰湖信息技术有限公司入选山东省5G试点示范企业。京津冀协同发展产业示范园区列入省级数字经济园区（试点），中元科技创新创业园入选省级首批数字经济“晨星工厂”试点园区，奥链工业互联网有限公司的工业互联网平台入选工信部工业互联网集成创新试点示范、第四批服务型制造示范平台、省级智能制造系统解决方案供应商，其“德链汇”共享制造平台入选2022年省级智能制造场景，其数字经济大数据平台入选第六批山东省首版次高端软件产品名单，是我市首个首版次高端软件产品。', '下一步，我们将深入学习贯彻习近平总书记关于工业经济发展的重要论述，锚定“走在前、开新局”，按照全市“高质量发展重点突破年”工作部署，在工业经济发展上率先突破，以加快先进制造业强区的实际行动，为“中国式现代化的德州实践”贡献天衢新区力量。', '天衢新区积极围绕市委、市政府工作部署，结合功能区产业定位和平台优势，深入落实先进制造业强区战略，引导项目合理布局，带动产业提质增效，推动工业经济高质量发展。', '坚持高位推动、部门联动、上下齐动相结合，帮助企业解决生产经营和项目建设中遇到的痛点难点问题，加快推进主导产业全链条、集群式发展。一是打造新一代信息技术（集成电路）“一号产业链”。推动有研8英寸硅片、硅材料刻蚀零部件两个上市募投项目落地开工，加速有研艾斯、有研亿金建成投产，英望科技、恒芯电子持续扩大规模，建设国家重要的集成电路关键材料基地和国内一线半导体产业城市，3年内产业规模达到200亿级。二是壮大新能源新材料、高端装备制造、食品加工产业规模。加快推动聚尔盛高端焊接材料、乐华陶瓷高端卫浴项目、山推（德州）提升项目、景津过滤成套装备产业化一期、二期项目、德州扒鸡上市募投项目等一系列重大项目建设。建设新能源新材料、高端装备制造产业发展示范区和北方最大的休闲食品产业基地。3年内三大产业规模均达到200亿级。三是打开生物医药产业新格局。加快消博士、德药制药技改升级项目建设，推动安颂科技、阳参生物、伯桢生物类器官等新项目实施主体3—5年内主板上市，在德州“京沧德济”生物医药走廊建设中打头阵。3年内产业规模达到100亿。', '开展标杆企业培育行动，实施三大工程，打造三大标杆，带动制造业全面发展。一是大企业培强工程。持续开展企业赋能行动，区级领导包保重点企业，提高“一企一策”培植、“一对一”服务精准度、实效性，集中力量打造“强企标杆”。二是上市企业培植工程。以获批全省上市公司孵化聚集区试点为契机，推动企业上市，目前正在推进1家企业主板上市、1家北交所上市；1家新三板上市，同时储备20家上市后备资源企业，打造一批“上市标杆”。三是“金种子”培育工程。建立中试“种子”项目、初创型“种子”企业、成长型“种子”企业、骨干型“种子”企业四级企业库，形成大企业顶天立地、中小企业铺天盖地的生动局面。', '实施科技创新引领行动计划，当好德州创建创新型城市主力军，打造科技走廊。依托38万平的齐鲁工大“一院一基地一园区”、数字经济创新基地、中元科技创新创业园等创新要素，整体谋划德州科技走廊，争创京津冀国家技术创新中心德州中心、国家体育高端装备技术创新中心。加大高新技术企业引进力度，今年国家高新技术企业、科技型中小企业分别突破140家和200家。借助高层次人才“双创”大赛等平台，全年引进培养国家级、省级高层次人才10人以上、博士、硕士等高端人才250人以上，争创省级特色人才集聚高地。', '深化“首席政府服务官”服务机制，压实企业服务专员包保责任，为工业企业提供点对点上门服务，实现企业服务全覆盖。强化企业服务中心服务机制，受理企业问题诉求，转交相关部门、镇街限期办理，对于难以推进的事项，报管委会分管领导协调推动，直至党工委会议研究推动，会议决策后，转入办公室督查室督办程序，切实形成企业诉求闭环解决机制。新区成立以来，累计解决企业问题诉求135件，实现了全区企业“问题诉求有窗口、意见建议有平台、业务咨询有桥梁”的服务宗旨。建立服务企业问题清单周报制度，将服务企业重点、难点问题纳入服务企业问题清单周报，明确牵头区领导、责任部门、推动措施和完成时限，每周将清单周报经党工委主要领导审阅后通报到各有关部门。今年以来，累计解决企业重点、难点问题诉求69件。', '问：请问天衢新区在健全梯次培育体系、打造更好的专精特新企业方面做了哪些工作？取得了哪些成效？', '孙光明：近年来，我区认真贯彻落实上级关于引导和推动中小企业“专精特新”发展的战略。按照市委、市政府和市工信局工作部署，大力培育“专精特新”中小企业。', '一是强化培育体系建设。制定优质企业培育工作方案，建立“专精特新”企业培育库，按照“分级培育、层层递进、有序升级”模式，形成梯度培育格局，推动企业扩规提质。', '二是强化要素赋能作用。完善土地、财税、投资、人才等方面政策支持，瞄准企业需求靶心，制定专项金融服务产品，为企业提供高效、精准的融资服务，为“专精特新”企业成长不断“输血”。', '三是强化服务保障机制。工作中为优质中小企业精准“画像”，实现“一企一策”个性化精准帮扶，企业遇到任何难题，多部门联动跟进服务。组织“专精特新”企业参加融链固链活动，提升中小企业配套能力，企业竞争力愈发强劲。', '近日，省工信厅公布《山东省2023年度专精特新中小企业名单》，我区推荐的英望科技等26家企业被新认定为山东省“专精特新”中小企业，金光复材等3家企业通过复核。', '截至目前，我区省级“专精特新”中小企业达到76家，国家专精特新“小巨人”企业5家，总量达81家，居全市首位。', '问：请问近年来科技部门在科技创新中助力工业高质量发展方面做了哪些工作，下一步有哪些举措？', '孙光明：天衢新区在科技创新中助力工业高质量发展方面主要做了以下工作：一是培育一流创新主体。实施创新型企业滚动培育、研发投入提升、科技成果转化“三大工程”。2022年度高新技术产业产值占比69.04%，国家高新技术企业达到128家、2022年完成国家科技型中小企业入库210家，有效发明专利拥有量550件，均居全市前列。二是搭建一流创新平台。新区现有科技创新平台118家，其中，包含国家级1家，省级17家，市级100家。省级以上孵化载体9家，其中国家级孵化器2家，省级3家；国家级众创空间3家，省级2家。获批2个山东省重点实验室，是国家中小企业公共服务示范平台和国家小型微型企业创业创新示范基地。中国（德州）知识产权保护中心正式落户。山东有研获批山东省十大科技成果，获批省级重大专项3个。正全力推进与京津冀国家技术创新中心、齐鲁工业大学（山东省科学院）的深入合作，打造鲁北科创中心。 三是引育一流创新人才。实施顶尖人才引领、领军人才集聚、海外人才汇智、青年人才筑梦、企业家人才领航、高技能人才支撑“六大工程”。现有市级以上重点人才工程人才1253人，其中包括国家级24人，省级86人，获批国家外国专家项目2项，省外国专家项目3项。加强人才平台载体建设，是国家级高端人才引领型创新创业特色载体，获批山东省引智成果示范推广基地2家，山东省国际合作基地1家，山东省海智工作站2家。拥有三大人才创新创业园，打造国内一流的人才汇聚之地、事业发展之地、价值实现之地。', '天衢新区作为对接京津冀的桥头堡，承载着“打造对接京津冀协同发展先行区、鲁北智慧活力新城区、新能源新材料产业示范基地”的功能定位。下一步，我们将继续做好以下工作：一是加快创新主体培育，激发创新活力。加大高企申报摸排力度。持续开展走访企业“百日行”活动，对区内企业进行“地毯式”走访，“深嵌式”挖掘，加大高新技术潜力企业摸排，建立高新技术企业培育库，“一企一策”靶向培育，加强高新技术企业源头供给。挖掘可申报科小提升、省重点研发计划、揭榜挂帅、重大关键技术等项目的企业，做好项目储备。二是依托德州科技走廊建设，吸引京津冀科技项目落地。依托人才创新园、齐鲁工大“一院一基地一园区”、中元科技园、数字经济产业园等创新载体，以及人才创新园、电子信息产业园、北方应急（医疗）救援综合示范区、新材料产业示范园等148万平方米的“四大产业园区”，发挥专业招商力量，用好高企招引政策开展精准招商，大力引进高新技术企业。三是积极推进重大平台建设。全力争取京津冀国家技术创新中心德州中心和国家体育高端装备技术创新中心落地新区。继续推进山东有研省硅单晶半导体材料与技术实验室和德州市半导体产业创新创业共同体建设，同时争创大数据和先进装备市级创新创业共同体。四是继续加大对海内外高层次人才项目和平台的引进和培育。按照“储备一批、培育一批、申报一批”的思路，对企业进行精准指导，做好项目的储备、培育、申报、跟进工作，广泛挖掘储备未来1-3年内能够落户区内的创业项目。五是深化产学研合作，推动科技成果转化。联合教育部科技发展中心、山科控股等服务机构，协助区内企业与清华大学、北京大学、山东大学等“985”“211”重点大学建立深度合作，集聚院士、专家、技术团队通过技术转移、技术服务、成果转化、项目合作等形式精准对接企业生产发展遇到的技术难题，扩大产学研合作的深度和广度。', '刘怀东：今年以来，天衢新区按照“聚产业、聚资源、聚要素、聚人气、聚红利”总体思路，围绕新一代信息技术、新能源新材料、高端装备、生物医药、食品研发制造、现代服务业等六大主导产业，强化双招双引、坚定主责主业，集中资源要素、全力推进招商工作实现新突破。重点做好三个方面的工作。', '一、“高位推动”与“顶层谋划”相结合，提升招商引资精准度。推动高质量发展，基础在产业，关键靠项目，突破在招商。今年以来，区领导、区直部门主要负责同志带队赴京津冀、长三角、珠三角、环渤海等地区招商考察40余次，与国内外500强企业、跨国公司驻华机构、上市公司、咨询公司、基金公司等密切互动，举办重大招商活动5次。所有举措都为确保签约项目尽快落地、开工建设、竣工投产。为此，区直各部门专门成立项目服务专班，盯办各项审批手续，从外部环境和内部机制进行了无缝衔接，快速推进项目。', '二、“招大引强”与“延链补链”相结合，提升招商引资纵深度。按照招龙头、补链条、聚集群的思路，从产业着手，一手引进“链主”企业，一手导入上下游企业，打通堵点、连接断点、畅通产业循环，逐淅由点向面进行布局。一是绘制产业招商路线图。按照“8个1”工作思路，组建专业招商队伍，形成专业、专家、专班“三专”招商机制。招商队伍专业能力大幅提升、招商活力充分激发、招商实效显著增强。二是聚焦京津冀精准招商。围绕打造对接京津冀桥头堡，瞄准大型央企、国企外迁机遇、高新企业靶向定位，在创新能力强、投资规模大、产业层次高、带动潜力足的项目上攻坚突破。三是坚持园区思路抓招商。聚焦六大主导产业，高标准规划打造专业化园区，包括电子信息产业园、新能源新材料产业园、高端装备产业园、生物医疗器械产业园、食品科技产业园、科技创新创业园、人才创新谷等11个特色专业性园区，其中，5个园区已建成投产，涉及伯桢类器官、阳参生物、恒芯电子、明治医疗、安颂科技等69个项目已入园发展。', '三、“优化环境”与“创新方式”相结合，提升项目落地加速度。把优化营商环境作为项目建设的首要保障，一是强化载体建设。充分发挥国有企业投融资优势，对投资规模大、科技含量高、产业带动性强的大项目好项目，通过土地入股、代建厂房、股权投资出资等方式进行市场化合作，实现国资产业资源聚合发展。二是创优营商环境。对项目签约落地后到竣工投产，我们执行：无事不扰，有求必应的项目帮包式服务，探索创立了“产业项目‘双线并行’审批机制”，打造新区最优营商环境。三是强化运行机制。调整完善招商考核办法、产业项目论证办法、招商引资优惠政策、入园项目指导意见等一系列政策制度；编制主导产业分析报告、闲置低效载体报告、优惠政策汇编；推动“管委会+部门+镇街+国企”高效联动工作机制，积极构筑大招商格局。通过体系建设和运行机制完善，努力推动全区招商工作的高效开展。', '问：今年是我市高质量发展“重点突破年”，请问天衢新区的发改部门在推动工业经济高质量发展方面，接下来将采取哪些措施？', '张忠鉴：天衢新区将严格贯彻落实全市关于推动工业经济加力提速部署安排，坚定不移实施工业强区战略，坚决扛起工业经济高质量发展的新区责任，切实发挥工业高质量发展的主战场主阵地作用，全力趟出一条工业经济高质量发展的新路子。', '一是着力加快项目建设进度。牵头开展好重点项目谋划储备竞赛活动，力争竞赛第一阶段新谋划项目总投资达到500亿元，达到市级重点项目标准的项目50个，其中，总投资5亿元以上、达到省级重点项目标准的项目25个。加快市级以上重点项目、政府专项债券项目、省市集中开工项目建设进度，跑出项目建设“加速度”。深化“要素跟着项目走”机制，全力做好重点项目的资金、能耗、土地保障，持续为扩投资、稳增长提供支撑。', '二是着力提高产业培育质量。深入实施产业链创新深度融合，大力培植电子信息、新能源新材料、食品研发制造、高端装备制造等千亿级主导产业集群。坚持把电子信息集成电路产业作为“一号产业链”，在成功入选省级战略性新兴产业集群基础上，积极申请纳入全国集成电路产业重大生产力布局规划。鼓励支持企业开展工业领域“卡脖子”技术攻关，全年争创国家级企业技术中心1家，省级企业技术中心、工程研究中心2家以上，市级企业技术中心、工程研究中心2家以上。', '三是着力推动绿色低碳转型。争取31个项目纳入省建设绿色低碳高质量发展先行区三年行动计划重点项目名单，总数全市第一，强化项目调度，推进项目加快建设，目前，已开工29个，开工率93%，以重大项目支撑制造业高质量发展。严格落实《德州市碳达峰工作方案》《德州市“十四五”节能减排实施方案》，积极争取省绿色低碳高质量发展示范区试点。切实加强“两高”项目管理，严格落实“五个等量或减量替代”，有序提高新能源和可再生资源使用比例。做好“加减法”，坚决把高耗能、能耗大户的产品消耗水平降下来，切实降低万元工业增加值能耗水平，为新上优质高效项目增加更多指标和空间。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>141</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>高水平创建全国文明城市主题系列新闻发布会第四场</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c79777209/content.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['今天，我们继续举行“高水平创建全国文明城市”系列主题新闻发布会第四场，邀请天衢新区党工委委员、管委会副主任董伯驹先生，德城区委宣传部常务副部长李鲲先生，陵城区创城办副主任张罡先生，向大家介绍三区创建全国文明城市工作成果并回答记者提问。', '大家上午好！欢迎大家前来参加“高水平创建全国文明城市”主题系列新闻发布会。借此机会，向长期以来支持天衢新区创城工作的新闻媒体和社会各界朋友表示衷心的感谢。', '按照市创城指挥部印发的《2022年德州市创建全国文明城市行动计划》，结合工作实际，出台了《2022年创建全国文明城市“10+5”行动计划》，落实区级领导分线牵头负责、帮包重点点位责任制，实行项目化、清单化管理，聚焦缆线杂乱、秩序管理、社区小区、建筑工地、市场提升等重点问题，强化措施，补足短板。一是缆线专项整治工作。成立专项整治领导小组，制定《2022年空中缆线专项整治工作实施方案》，按照“整治-督导-验收-销号”机制，全方位、全覆盖、全过程督查。2022年以来，累计完成小区、便民市场、背街小巷等点位62处890个点位，完成线缆整治约1.6万米，废线清除约0.7万米。二是交通秩序专项整治工作。2022年以来，共施划停车位9235个、标线施画47108米、增设标志牌2383块。投入警力治理非机动车行人交通违法59600起，机动车违法停车3980起。同时，新增资金532万元，摸排梳理需安装信号灯及电警未落实“三同时”要求的19个主要路口和标线、护栏不完善的重点路段，目前已全部完成。三是社区小区专项整治工作。组织志愿者发放各类宣传手册共计6万余份，在126个小区主要出入口设置宣传栏273组，累计发放调查问卷约9500份；引进物业公司对三水厂宿舍、地毯厂宿舍、油棉厂宿舍等辖区内的7个“三无”小区开展环境卫生综合整治；建立240人的保洁队伍，150人的保安队伍和60人的维护维修队伍，建立常态化常效化的管理机制，确保居住小区达到创城标准。四是建筑工地专项整治工作。按照创建全国文明城市相关标准要求，成立创城专项检查组，采取“四不两直”的方式对区内东海贵和府、壹号院西区、东部医疗城、体育公园、文化科技中心等14个“标杆点位”加大检查频次和执法力度，确保创建工作落实到位。五是市场改造提升工作。组织市场监管部门、各镇街、市场开办方开展市场改造提升工作，完善市场硬件设施，更新、增设环卫设施，提高市场的整体硬件水平；对八里庄便民市场、郭家庵农贸市场、小申农贸市场等5处市场进行改造提升。六是开展老旧小区改造提升工作。推动新城市花园、宋官屯小区和湘江小区3个老旧小区实施改造，总投资为11579万元，涉及建筑面积40.6万平方米、楼宇104栋，惠及居民3793户。改造工程于4月底开工，现已全部完工。', '下一步，为圆满完成今年的创城工作目标，我们将对照全国文明城市创建标准，狠抓以下五个方面工作。', '一是查找创建差距，补齐短板弱项。根据省测、市测反馈问题和市创城办督导问题，如飞线充电、车辆乱停放、消防巡查记录不全、墙面污损等顽症痼疾，对标对表，查找创建差距，研究分析造成原因，明确问题解决方法，科学指导责任单位，把阶段性突击整治与建立长效机制有机结合起来，落实长效管理机制，补齐短板弱项，不断巩固和扩大创建成效。', '二是联合行动，协同作战。牢固树立 “一盘棋”的思想，按照区创城工作指挥部的统一部署，加强联系沟通，团结协作，特别是聚焦重点工作、重点区域、重点环节，抽调精干力量，开展联合行动，深入创建一线，凝聚工作合力，推动工作落实。', '三是开展全面检查，查漏补缺。对照全国文明城市创建标准，省测和市测反馈问题为切入点，举一反三，持续有效开展现场检查和专项检查。', '四是创新工作方法，责任落实到人。建立“提醒”制度，通过微信、QQ等线上方式，分类建群，按照标准要求，进行提醒，立行立改，确保常态化工作不漏死角。落实街长制等制度，如垃圾散落、车辆乱停放等问题，明确责任到人，压实压紧，建立责任台账，确保工作落到实处。', '五是加强督导考核。实行“按周通报、按月考核”工作制度，对各部门、各单位落实创建任务情况以及群众反映强烈的问题整改情况进行督促检查，并在全区范围内进行通报。加强现场检查督导力度，对创城工作中发现的突出问题抓住不放、限时解决；对不按要求整改、整改后出现严重反弹的单位严格扣分。', '习近平总书记指出，人民城市人民建，人民城市为人民。深化文明城市创建，不断提升新时代城市治理现代化水平，归根结底是为了保障和改善人民生活、满足人民对美好生活的期盼。人以城为“家”，城以人为“本”，让人民群众满意是文明城市创建的目标所向，天衢新区有信心也有决心做好创城工作，定将一份满意的答卷交给大家。', '最后，再次感谢各新闻媒体对天衢新区创城工作的关心支持，希望大家继续关注、继续监督。谢谢大家。', '去年以来，德城区紧紧围绕全国文明城市创建目标任务，聚焦十大攻坚行动，建立健全机制，持续加大投入，全面提升创建工作质效，人民群众获得感、幸福感不断提升。', '一是强化基础保障。德城区把创城作战单元“1+1”坐标式进行分解，横向分解到涉及的部门单位，纵向分解到镇街、社区，形成网格化、经纬结合的任务清单。同时，从各部门、各镇街抽调26名精干人员，成立加强型创城工作专班，为创城工作奠定坚实基础。', '二是强化部署推动。召开全区重点工作“百日攻坚”暨创城工作动员会，激发全区干部攻坚热情；定期召开区委常委会会议、区政府常务会，研究部署推进创城工作；印发实施《关于调整德城区创建全国文明城市工作指挥部领导体制及职责分工的通知》《关于建立创建全国文明城市区级领导“网格长”责任制的通知》《德城区创建全国文明城市十大行动专项整治工作方案》，目标任务更加明确；成立由区委副书记、常务副区长、宣传部长组成的“三人小组”，牵头抓总，实行区委常委包镇街、县级干部包行业、区直部门包网格的落实机制，735个居民小区、194条背街小巷全部指定帮扶单位、纳入督导范围。坚持在真督实导、模拟验收、评比排名、约谈提醒上下功夫，把一线考察识别干部伴随创城始终。', '一是建立完善“四个一”工作机制。以“构建一套骨骼、落实街长制，充实一身血肉、压实社区责任，组建一支队伍、实行联合执法，树立一批典型、引导学习榜样”为创城工作路径，对辖区202条重点道路均明确街长，定期开展“执法进小区”工作，公安、市场监管、交警、城管等执法部门实时组织开展巡查、整治、执法等工作，切实形成“街长吹哨、执法报到、常态长效”的工作机制。', '二是建立完善资金投入机制。着力在学校、“四小工程”、农贸市场改造、基础设施建设等方面多元投入，推动城市硬环境提档升级。全区累计投入1.6亿元，实施67个老旧小区改造及基础设施提升工程，修复破损路面4800余平，粉刷污损墙面2600余平，施划停车位1万余个。投资2600余万元，实施文明村镇村容村貌整体提升工程，城乡面貌显著提升。实施“四小地块”工程，建设“口袋公园”12个，占地约101.4亩，其中小停车场4个，新增停车位366个，居民生活更加便利，社会文明程度不断提高。', '三是建立完善问题整改落实机制。今年以来，区创城办、区纪委监委、区委区政府“两办”督查室成立联合督导组，不定期深入一线开展明察暗访，及时发现问题，每周形成通报，对部署落实不力、问题整改不到位的镇街和部门，通报约谈、挂牌督办。区级领导累计开展现场督导200余次，发现问题2000余个，市人大常委会副主任、区委书记张泽中开展“四不两直”调研30余次，提出整改意见100余条，目前，已全部整改完成，并取得明显成效。同时，按照“一次告知、二次督办、三次通报”督导工作要求，加大“回头看”力度，实行“台账式管理、清单式推进”工作模式，严格执行责任挂牌制度，推动创城各项工作高效有序开展。今年以来，共印发督查通报22期，督办单及交办单4659份。', '一是现场观摩+实名打分，倒逼问题整改落实。区委常委会研究决定，每周末由区委、区政府主要负责同志带队，区有关领导和各镇街、有关责任部门一把手对创城测评点位进行现场观摩，并召开总结评比会议，逐一对测评点位进行实名打分，专家指导现场点评，区委主要负责同志公布成绩并总结发言，对每次观摩测评排名靠后的镇街、部门主要负责人进行约谈并通报，倒逼各项整改责任落实到位。邀请第三方评审专家模拟暗访，全面摸底全区创城工作情况，以重奖重罚的强力措施推进问题彻底整改。2022年以来，已召开创城重点点位现场观摩测评会议20余次，查看重点点位百余处，整改问题2000余个，采取以奖代补形式拨付创城资金989万元。', '二是实施精细化管理，破除城市“顽瘴痼疾”。联合城管、公安等部门开展执法进小区行动，本着“治理违建零死角、拆除违建零容忍”的态度，出重拳拆除违章建筑，对飞线充电、墙皮破损等问题，“把脉问诊”，逐一销号整改；同时，落实好街长制、“网格化”工作法，发动机关干部、社区干部、网格员、楼道长、志愿者等多方力量，责任到人，形成大城市小网格的精细化管理格局。守住点，管好线，控制面，强化网格化管理执法，整治脏乱差，全面改观和提升城市形象，形成全面创建、全民创建、全域创建的良好局面。2022年以来，共拆除小区违章建筑480余处、1.7万余平方米；制止、纠正擅自改变住宅、车库用途用于经营活动18处；纠正不文明养犬1000余起，警告处罚无证养犬、遛狗不拴绳168起；劝导机动车乱停乱放、清理僵尸车310余辆；清理店外、占道经营上万处。', '三是构建大宣传格局，营造浓厚创城氛围。在创建全国文明城市工作中，德城区广泛开展全民化立体式“大宣传”活动，做到周周有活动、月月有安排、半年有评比、全年有计划。深入开展“我为创城做什么”大讨论活动，常态化开展“四德”评比、“小手拉大手”、文明交通劝导等活动，树牢“人人文明、城市文明”的主体意识。利用媒体曝光、现场处罚、市民“随手拍”等方式，加大对不文明行为的整治力度，倒逼形成人人支持创城的良好社会氛围。利用新时代文明实践“宣讲+”模式，讲好创城故事，传递创城声音，形成人人参与创城、人人关心创城、人人享受创城成果的生动局面。去年，共开展集中性文明实践活动5000余场，推出重点服务项目160个，“窗帘行动”品牌项目先后两次在山东卫视《山东新闻联播》栏目播出。', '下一步，我们将不断推动创城工作常态化长效化，全力提升德城区整体形象，恳请各位记者朋友、各界人士一如既往的关心支持我们的工作，谢谢大家!', '近年来，陵城区严格按照全市工作部署，把人民满意作为出发点和落脚点，将创建工作列为“一把手工程”，按照“高位推动、全面覆盖、动态巡查、重点发力、上下同心、全民参与”的工作原则，动员各级各部门，齐心协力，全方位提升创建水平，持续改善城乡人居环境。', '一是系统谋划，高位推动。在区级领导“网格长”制度的基础上，进一步完善领导体系，明确各区领导行业主管责任和乡镇帮包责任，形成强大工作推力。区委、区政府主要领导多次主持召开全区创城工作推进会议，研究部署创建工作，深入社区、市场、小区、背街小巷等工作一线，现场解决问题，推动工作落实到地。', '二是优化机构，充实力量。将区创城协调服务中心直接划归区创城办管理，城区环境卫生、绿化养护问题，由创城办直接督导并解决到位，进一步压缩工作环节，理顺管理体制。区创城综合执法大队持续开展“十乱”整治，重点问题集中攻坚。', '三是创新机制，重点提升。进一步规范“百局帮百区”“路长制”工作机制，各责任单位常态化开展志愿服务活动。针对部分居住小区、背街小巷管理难问题，进一步压实责任，提升管理力度。重点小区落实“每人一栋楼”，背街小巷落实“十人一条街”，现场督导织密“百人一张网”，营造“千人一座城”创建氛围，全面提升各点位管理标准，杜绝管理盲区。', '一是全面实施市政设施修复。持续加大投入力度，对迎宾街等7条道路1.63万平方米道路进行挖补、维修，对颜城街等4条道路9800平方米人行道及附属设施进行铺设、改造，主次道路施划停车位2000余个，13处公厕进行提档升级。', '二是全面提升小区管理标准。23处“三无”小区全部由创城协调服务中心接管，开展日常保洁和垃圾清运。实施了12处小区的充电桩安装或者线路改造、13处小区的破损路面修复、14处小区的墙面粉刷。对中医院家属院等7处小区实施了老旧小区改造，对世纪家园柏景湾、星河湾等小区实施了基础设施提升。', '三是全面优化市场经营环境。黑马市场实施重点打造，对市场外部环境实施改造提升，建设一座景观公园，设置夜间照明、园路、休憩亭、休闲桌椅等设施，种植时令花卉、绿化苗木，建设了两处绿荫式停车场，设置机动车位近500个，有效解决了以往管理老大难问题。', '四是全面开展城市街景提升。实施政府街立体绿化，种植乔木和藤本月季，达到层次分明、色彩鲜艳、美观大方的绿化效果，统一安装了垃圾分类收集桶；实施陵州路、陵安路绿化提升，种植羽衣甘蓝3.5万棵，保持三季有花、四季常绿。通过示范街、示范段的建设，打造多条精品道路，营造特色鲜明、风景优美的城市新形象。', '一是开展空中缆线整治。组织移动、电信、联通、广电四家运营商，通过捆扎、剪除、安装桥架、重新铺设等方式，对城乡空中缆线进行全面规范，打造“安全规范、统一有序、整洁美观”的缆线环境。', '二是开展文明养犬整治。持续开展文明养犬宣传，发放宣传单，悬挂横幅标语，不间断开展文明养犬联合巡查执法行动，倡导依法养犬、文明养犬、科学养犬，大力规范不文明养犬行为。', '三是开展交通秩序整治。在城区主次干道、商业街区、公共道路、人行道以及学校、医院、大型商场、农贸市场等重点区域，进行拉网式、地毯式大排查大整治，加大对车辆乱停乱放、行人不文明行为的劝导、整治。', '四是开展乡村环境整治。结合农村人居环境整治工作，重点打造13个示范村，集聚提升130个村，各乡镇纵深推进“三大堆”、私搭乱建、乱堆乱放、乱涂乱画、脏乱边沟、残垣断壁、路域环境、无功能建筑等整治行动。组织实施了省道323、国道513整治提升工程，开展了路肩设施、废品收购站、河道水域、交通秩序、路域环境综合整治，环境面貌提升明显。', '五是开展特色志愿服务。每周五定期开展“我为陵城文明奉献一小时”活动，通过义务劳动，宣传垃圾分类、文明就餐等知识。各类志愿团体、社会组织、热心市民积极行动，参与飞线治理、“15分钟生活圈”提升、违法停车“随手拍”、维护交通秩序等活动。建立“积分超市”，鼓励群众通过参与文明城市创建、优秀家庭及家庭角色评选、文明实践活动等来获得积分，并进行相应物品兑换，充分调动群众参与志愿服务的积极性。', '一是抓好体系推进。进一步强化区级领导行业主管责任和帮包责任，实行“领导分线、部门包干、行业主管、辖区负责”,各行业主管部门、属地政府协同配合，共同推进，精准对标，补齐短板，突出常态创建、长效创建、精细创建。', '二是抓好点位管理。全面开展环境卫生、市容秩序、公益广告、交通秩序、缆线整治攻坚行动，重点抓好居住小区、背街小巷、农贸市场、村镇创建等薄弱环节，全面提升管理水平。', '三是抓好日常提升。组织各执法部门，针对占道经营、流浪犬、车辆乱停乱放、占用消防通道、不文明交通行为等管理易反弹问题，持续加大日常巡查和整治力度，落实好“门前五包”“路长制”，推动执法下基层、入小区。', '四是抓好志愿服务。持续抓好各新时代文明实践所、站阵地建设，高标准开展形式多样、内容丰富的志愿服务活动，做到“工作制度化、管理信息化、活动常态化、项目品牌化”。继续做好“我为陵城文明奉献一小时”活动，动员全区各级各部门，确实做到真帮实促。', '五是抓好宣传教育。加大新闻宣传、社会宣传力度，通过传统媒体、新媒体、电子屏等多种载体，共同发力，营造浓厚的创建氛围。各种文化文艺活动、理论宣讲活动紧密围绕创城开展，让群众感受到创城在行动，感受到城市的发展变化，吸引群众关注创城、支持创城、参与创城。', '陵城区将持续加大创建工作力度，举全区之力、集全区之智，坚决打好、打细、打实、打胜这场攻坚战，为全区人民营造一个洁净、有序、文明、和谐的居住环境。', '小区治理是多数群众市民反映强烈的老大难问题，特别是很多老旧小区、三无小区没有物业，治理难度很大，请问天衢新区做了哪些工作？', '董伯驹：2022年，我们投入1.3亿元，成功完成了对宋官屯小区、新城市花园和湘江小区等3个老旧小区改造,按照“基础类改造全面实施、完善类改造突出亮点、提升类改造适度融入”的工作思路，结合群众实际需求，重点对老旧小区实施楼宇修缮、环境美化、照明亮化、道路硬化、路面铺装、安防消防、雨污分流等基础设施改造，增设机动车停车位、电动汽车充电桩、充电车棚等完善类设施，适当配建社区服务中心;对供水、供电、供气、供暖及弱电通信等专营设施进行整治改造。同时，打造“老旧小区改造示范亮点”。对地毯厂宿舍、油棉厂宿舍、三水厂宿舍等7个“三无”小区，投入4500万元完成改造，为巩固改造成果，组织镇街聘请物业企业进驻，推动实施正规物业管理，建立长效管理机制，全面提升物业管理服务水平，用实际行动践行了“创城为民”的理念，提高了人民群众的满意度、获得感。', '下一步，我们将从基础设施完善、配套设施健全、环境综合整治、规范停车秩序、补齐社区管理等方面，加大人力、物力、财力投入，持续发力，落实长效管理机制。', '我们知道，背街小巷、居住小区是管理工作的重点和难点，问题反复性很强，在这方面管理上，陵城区是怎么落实的？', '张罡：为了做好背街小巷和居住小区的管理，我区相继实施了“我为陵城文明奉献一小时”“百局帮百区”、商户门前“五包”等做法。除了各执法部门持续加大日常管理和巡查力度以外，严格落实志愿服务责任机制，其中：', '重点小区落实“每人一栋楼”，将市场、医院、社区等周边的小区作为试点，实施重点管理，每栋楼落实一名专人负责，同时明确各部门工作职责，帮包单位志愿者、住建局、综合行政执法局、公安、交警、消防大队等部门通力配合，强化管理；背街小巷落实“十人一条街”，将10条背街小巷打造管理样板，交警、综合行政执法局加强日常治理，相关“路长制”责任单位分别出动10名志愿者，维持环境秩序管理水平；现场督导织密“百人一张网”，区创城办组织工作人员及综合执法队伍百余人，既当“战斗员”，又当“督导员”，区纪委和创城办开展联合巡查，对工作不认真、不积极、执行不力的，直接问责到人。同时，组建一支百人机动队伍，反复巡查，及时补位。各乡镇坚决落实“党政班子成员带队、机关干部分片管理”责任制，集中力量，针对驻地、行政村、路域环境秩序开展集中整治、全面提升。整治活动期间，全区共出动志愿者两千余人，形成“千人一座城”创建格局。', '同时，为了提升群众对创城工作的参与度和满意度，我们严格落实了双联户制度。区创城办负责总督导协调，街道落实第一责任和属地责任，组织社区工作人员负责相关小区，联系帮包单位共同开展工作，动员楼道长结合日常生活开展创城宣传；各帮包单位明确专人负责相关楼道，定期走访；物业部门全力做好配合。区创城办统一印制《明白纸》，组织社区、帮包单位，结合志愿服务活动等契机，逐户发放。同时，对小区住户进行入户走访，发放毛巾、香皂、宣传凉扇、调查问卷、日历等宣传品，引导广大居民共同参与其中。执法部门持续开展“执法进小区”，对违法违规行为开展集中整治。通过多措并举，营造“创城为我、我为创城”的工作氛围。', '德城区作为中心城区，老城区，承担了较多的创城工作任务，全区上下按照文明创建工作要求，高标准开展各项专项整治活动，促使文明城市创建工作取得较大进展、辖区人居环境有了较大提升、不文明行为得到有效遏制，随着创城工作的深入推进，德城区将在下步工作中做好以下几方面工作：', '一是坚持高位推动，强化专项整治。深入实施社区小区、环境卫生、交通出行等十大领域专项整治行动，突出实绩实干导向，对工作中涌现出来的先进典型及时表彰，对完成不力的部门单位加大处罚力度，形成齐抓共管，真抓实干的共识合力，推动全国文明城市创建工作入脑入心，走深走实。', '二是坚持内外兼修，提升城市品质。德城区将继续做好实施“口袋公园”建设、老旧小区改造等特色亮点的民生工作，全面营造小区居民乐居、乐学、乐活的愉悦氛围，增加小区居民的认同感;同时继续强化阵地作用，依托新时代文明实践中心、所、站，组织开展弘扬社会主义核心价值观“学雷锋志愿服务”“反对浪费、文明办事”“倡树美德健康生活方式”等文明实践系列主题活动，真正将志愿服务送到群众身边，让创城更有广度、有温度，以实际行动提升群众满意度。', '我们将坚定“志在必得”的信念，聚全区之力，坚持不懈推动文明城市创建各项任务落实落地落细。', '针对这一突出问题，我们全域推进“红色物业”，坚持党建引领，充分吸纳物业企业、业委会、社区工作人员中的党员，成立小区党支部495个，实现小区党组织全覆盖，增强了党组织在小区治理中的引领作用。同时，在735个小区物业行业党委和街道党工委联合发力，全区121家物业企业中97家建立党组织，党组织覆盖率80%，构建起共建共治共享的基层社会治理新格局。', '谢谢几位发布人的介绍和解答。请各媒体做好宣传报道。如需进一步了解情况，请与市创城办联系，电话2686131。', '各位媒体记者，各位网友，到目前为止“高水平创建全国文明城市”系列主题新闻发布会就全部结束了。从2月27日开始，我们先后邀请了6个市直部门和德城区、陵城区、天衢新区召开了四场新闻发布会，对创建全国文明城市的各项成果进行了介绍。各媒体都做了非常好的宣传报道。在此对各媒体的支持表示感谢，对各位热心网友和市民的持续关注和支持表示感谢。最后也祝愿我市全国文明城市创建工作取得圆满成功。欢迎大家继续关注德州市各项重点工作的进展情况。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>141</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>德州答卷主题系列新闻发布会第十五场</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c79065080/content.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['我们继续举行“2022德州答卷”主题系列新闻发布会第十五场，我们邀请市委统战部副部长、市台办主任、新闻发言人王泽森先生，市委统战部党派科科长陈建磊先生，市委统战部非公有制经济工作科科长赵文静女士出席发布会，向大家介绍2022年德州统一战线工作和突出成绩并回答记者提问。', '2022年德州统一战线紧扣迎接服务保障党的二十大、学习宣传贯彻党的二十大精神这条主线，围绕市委市政府工作中心，以深化改革为抓手，树立“科室树品牌、党派有特色、县市区出亮点”工作理念，广泛凝聚智慧、汇聚力量，全面提升统战工作服务中心大局贡献率，不断推动各领域工作守正创新、提质增效。', '大统战工作格局进一步完善。市委常委会专题研究统战工作12次，第一时间传达学习中央、省委统战工作会议精神，组织召开市委统战工作会议。市委、市政府主要负责同志带头参加统战工作各项活动，先后批示（圈阅）党外人士意见建议、报告142篇次，创历年新高。将统战工作纳入县市区高质量发展考核、纳入全市政治生态分析研判指标体系、纳入全面从严治党主体责任清单，推动中央、省委关于统战工作的决策部署落实落地。加强制度建设，制定印发《关于加强新时代全市统战工作的若干措施》，建立健全2项工作制度、3个推进措施和6项协调机制。创新打造集统战服务、管理和数据汇聚、分析于一体的“智慧统战”信息化平台，不断提升统战工作智慧化、信息化水平。', '主动服务融入全市经济社会发展。积极统筹疫情防控和经济社会发展，制定《全市统战系统服务经济社会高质量发展的十条措施》，动员统战成员参与疫情防控工作2000多人次，累计捐款捐物3200余万元。聚焦多个国家和省级战略，引导支持党外人士深入开展“小切口”调查研究，形成高质量建言资政成果，为市委民主科学决策提供重要参考。推动九三学社中央乡村振兴实践基地落户我市，争取中央、省、市级乡村振兴重大专项资金864万元，助力打造乡村振兴齐鲁样板。围绕打造“年轻人喜欢的城市”目标，举办“蓝桥沙龙”校企对接活动3期，100余家企业提供400余个就业岗位，促进高校毕业生留德就业。', '新型政党制度效能全面提升。扎实开展“矢志不渝跟党走 携手奋进新时代”政治交接主题教育，不断提升民主党派机关各项工作制度化规范化程序化水平。创新提出“7×2+1”民主监督模式，促成12345市民热线流程再造、公共充电桩管护等一大批协商成果落实落地。全面实施“炫七彩建三桥”同心工程，打造200多个“同心”社区，创新民主党派“7+7”结对共建机制，7个民主党派与中心城区7个镇街结对，助力提升中心城区首位度。探索“小社区 大统战”工作模式，开辟“党建引领、统战聚力、社会参与、多元共治”服务基层社会治理新路径，得到全国人大常委会委员、民盟中央副主席谢经荣高度评价。', '民营经济统战工作持续强化。畅通政企沟通渠道，上报4期“政企直通车”，3期得到市委、市政府主要负责同志批示。擦亮“三金沙龙”品牌，截至目前已举办活动120期，累计服务民营企业3600余家，促放贷超83亿元，提供法律服务530余次，为企业招引人才1900余人，推进营商环境不断优化。开展“三联三共 惠企纾困”活动，构建民商事调解机制，打造政策宣传、金融、法律、人力资源共享等12个惠企服务平台，成功调解纠纷25件。稳步推进工商联和商会改革，禹城市工商联被评为全国“五好”标杆县级工商联。深入推进商会建设“双十双百”工程，创建省级规范化商会67家，异地商会65家。实施非公党建“红色堡垒”工程，在商会、企业党组织分批建设非公党建“共建双提”阵地。', '民族宗教工作稳步推进。实施防范化解风险隐患强基、民族团结进步创建提升、民族经济协同发展、铸牢中华民族共同体意识样板“四大工程”，发挥新疆干部在我部任职优势，探索推进对疆交流“三项计划”，推动铸牢中华民族共同体意识“十大行动”落地落实落细。我市被确定为全省首批各族青少年交流工作试点市。建立市级铸牢中华民族共同体意识研究基地，其研究成果获国家民委社会科学研究成果一等奖。实现民族团结主题公园建设全覆盖。禹城市、临邑县被确定为全省铸牢中华民族共同体意识示范创建试点。加快推进“智慧民宗”建设，经验做法得到省委统战部副部长、省民委党组书记白山批示。高规格举办全市民族宗教工作专题培训、基层民族宗教工作干部暨统战委员集中“秋训”，累计培训10418人次。', '广泛凝聚党外知识分子和新的社会阶层人士合力。支持引导举办“凝聚新力量 筑梦新时代”“喜迎二十大 同心跟党走”主题教育活动，进一步强化思想政治引领。加强网络统战工作，建设新媒体负责人、网络评论员、网络宣传员三支骨干队伍。创新举办“石榴花开红满德 共铸网络同心圆”电商培训。探索建立新的社会阶层代表人士综合评价指标体系，做法在全省推广。争取全省新阶层助力黄河下游山东段生态保护与高质量发展论坛在我市成功举办。', '积极挖掘与台港澳及海外交流合作潜能。成功举办海峡两岸（德州）中医药交流大会，台湾新党主席吴成典视频致辞，台湾著名政论家邱毅等两岸100余位嘉宾参会。组织开展海峡两岸百名中医义诊活动，惠及群众2万余人，并入选全市首批“微改革”事项。创新举办全省首家以“海峡两岸青少年中医药文化”为主题的夏令营研学活动。推动齐河黄河文化博物馆群入选首批“山东省台港澳青年交流实习基地”。举办海峡两岸（德州·庆云）八极拳技艺交流大会、海峡两岸（德州·乐陵）经贸合作暨红枣文化与食品产业交流大会，中国国民党前主席洪秀柱，全国台企联会长李政宏线上参会，德台两地经贸文化交流持续热络。中医药交流大会与八极拳交流大会均被确定为国台办对台交流重点项目。积极承办中央统战部对口韩国、印尼“网上外派教师”试点项目和中华文化大乐园—亚洲园活动，取得良好成效。', '2023年我们将坚持以党的二十大精神为指引，深入学习贯彻中央、省委统战工作会议精神，在市委的坚强领导下，锚定“走在前、开新局”，坚定服务中心大局，坚持打造品牌亮点，坚决守好“一排底线”，不断推动全市统战工作守正创新、行稳致远。', '问：去年9月份，全国人大常委会委员、民盟中央副主席谢经荣同志来我市考察，对我市“小社区 大统战”工作模式给予了充分肯定。据悉，我们还探索建立了“五联五促”工作模式，请就相关工作进行下简要介绍。', '陈建磊：近年来，我市充分发挥统一战线重要法宝作用，创新“红网格+小社区+大统战”工作思路，探索建立“五联五促”工作模式，开辟“党建引领、统战聚力、社会参与、多元共治”的基层社会治理新路径。', '联合建立网络，促进“基层统战+社区党建”深度融合。建立社区统战工作小组，明确社区书记为统战工作第一责任人，完善社区、小区、网格员三级统战工作网络，实行社区网格员、物业“红管家”、统战志愿者一网通管。深入调查社区统战对象情况，及时登记造册、分类管理，做到底数清、情况明。完善社区统战工作例会、座谈、走访、联谊等工作制度，推动基层党建和基层统战融合发展。', '联合建设阵地，促进“统战服务+社区建设”双驱发力。依托社区党群服务中心，在全市建立200多个统战工作室、20个民主党派基层组织活动阵地，创建6个党外知识分子实践基地，8个新阶层实践创新基地，7个红石榴家园。推动建立“同心”社区，整合民主党派资源定期举办“同心”大集。促成7个民主党派市级组织与德城区7个镇街“7+7”结对帮扶，7个民主党派基层组织与7个重点社区“7+7”结对共建。全国人大常委会委员、民盟中央副主席谢经荣给予充分肯定。', '联合信息共享，促进“政党协商+基层协商”有机衔接。助力基层协商提质增效。建设“同心社情民意工作室”，安排统战成员“一对一”倾听社区居民关心的热点、难点问题，及时帮助协商解决。推动政党协商向基层延伸。进一步畅通议政建言渠道，将社区居民集中反映的政策、制度性问题转化为政党协商意见，直接报送市委、市政府有关领导。抓好协商成果的督促落实。将支持民主党派参政议政工作纳入全市政治生态建设“一号工程”，纳入市委常委会立项督查事项，纳入市政府工作规则，促成了12345市民热线流程再造、公交线路调整、公共充电桩管护等一大批关系社区发展的协商成果落实落地。', '联合举办活动，促进“统战优势+为民宗旨”充分契合。今年以来，先后组织各类社会服务活动120余场次，受益群众10万余人。市各民主党派累计为社区捐款捐物1000余万元；市工商联组织会员企业捐赠专用核酸检测小屋13个。带动网络人士深入社区，推广社区“云广播”、推介社区“名小吃”、开展网络直播培训等，勾画网上网下最大同心圆。', '联合人才培养，促进“党员干部+党外人士”共同锻炼。推动党员干部深度参与统战工作。在社区党员干部中配备统战（民宗）联络员，选调参加统战工作培训班、民族宗教工作培训班等，增强做好统战工作意识和方法。加大党外人士实践锻炼。选派党外人士到社区一线参与服务，物色发现优秀代表人士，视情向人大、政协、民主党派、工商联、统战团体等做出举荐安排。搭建党内党外沟通桥梁。借助五四青年节、中秋节、春节等重要时间节点，组织开展社区联谊交流活动，增进社区党员干部与党外人士之间相互了解和互学互鉴，共同提高能力素质，携手共建美好社区。', '赵文静：2022年，市委统战部、市工商联深入贯彻落实习近平总书记关于加强新时代民营经济工作的重要指示精神，多措并举推动我市民营企业健康发展。', '政策先行，强化制度保障。将党委、政府及部门、单位与经济类行业协会商会、民营企业沟通协商工作分别纳入《中共德州市委全面深化改革委员会2022年工作要点》《德州市民营经济高质量发展三年行动计划》和2022年市级领导领衔重点改革事项，制定具体工作措施，定期调度上报，有序推动工作。按照市级领导分工，对所联系的商协会进行了调整，共涉及19名市级领导、15个异地德州商会和19个市直直属商会，有效增强沟通协商工作的长期性、连续性和经济性。', '主动对接，了解企业需求。市委统战部和市工商联主动上门对接服务，当好服务企业的“娘家人”。先后到11个县市区50余家企业走访调研，召开市直直属商会、行业商会、镇街商会会长、县市区工商联负责人会议，开展县市区“互学互促”观摩交流活动、“走企联心助企纾困”活动，充分了解企业最需要、最迫切解决的问题，提高服务的精准性。', '创新方式，服务企业发展。创建“三金沙龙”工作品牌。举办“金桥沙龙”，为银企对接架桥。2022年市县两级共开展10余期活动，为疫情下的工商联会员企业设计专属金融产品20余款，精准服务企业百余家。丰富活动载体，开展“联银联企促共建同心喜迎二十大”专题活动，打造快捷、高效、绿色金融服务通道。举办“金盾沙龙”，为企业提供法律支持。与市法院联合建立商会调解机制，与市司法局联合启动“百名律师进千企”行动，服务企业1102家，发现问题1170个，提出法律指导建议1054个，化解矛盾纠纷2201件。与市税务局联合开展“春雨润苗”行动，与市检察院联合建立的涉案企业第三方监督评估机制，最大限度保护中小民营企业合法权益。举办“金才沙龙”，为企业招引人才。与市人社局、市科技局、市人才办、市人才集团及高校合作开展多形式的招才引智活动，开展线上线下招聘活动67场，参加招聘活动民营企业数1750个，提供岗位1.2万个，达成就业意向9400余人次；在北京、深圳等6个德州商会，设立6处招才引智联络站，为企业引进110多名高端人才。', '多措并举，优化营商环境。发挥好工商联的桥梁、纽带和助手作用，整合商会资源，启动“三联三共惠企纾困”行动，建立政策宣传服务、金融服务、法律服务、原材料采集等12个为企服务平台,帮助中小企业克服疫情造成的影响，这一做法在省委办公厅《今日信息》第207期进行了刊发；形成了《关于推动我市民营企业高质量发展的调研报告》和4期《政企直通车》，市主要领导均予批示并协调相关部门解决企业反映的问题。与市委政法委联合建立了民营经济领域司法突出问题协同解决工作机制，这一做法在省委统战部的《每日信息要报》进行了刊发。贯彻落实市委关于中小企业“要账难、应收多”问题会议精神，与市工信局联合调研，与市法院联合召开民营企业家座谈会，全面摸排市县两级政府部门和地方国有企业拖欠中小企业账款情况，征集问题线索和意见建议80余条，汇总整理问题台账报相关部门予以解决，真正实现了政府与企业间的“零距离”。', '问：近年来，我市对台经贸文化交流工作成绩亮眼，请简要介绍一下2022年我市对台经贸文化交流工作开展情况。', '王泽森：2022年，德州市委统战部深入贯彻落实习近平总书记关于对台工作的重要论述，全面构建“文化品牌化、品牌项目化”工作新模式，不断强化两岸经贸文化交流，实现全市对台工作走在前、开新局。', '推动德台两地经贸合作。坚持用好我市对接京津冀协同发展桥头堡区位优势，一体化推进对台产业融合发展。举办2022海峡两岸（德州?乐陵）经贸合作暨红枣文化与食品产业交流大会，会议以“共享新机遇 构建新格局”为主题，线上线下同步举办。邀请全国台企联会长李政宏、大陆台商聚集区知名台商和裕隆、旺旺、晋亿等部分在德投资台企台湾总部负责人线上参会，积极宣传推介德州。坚持做好涉台服务，贯彻落实中央、省、市惠台措施，探索打造对台企服务“一企一策”德州品牌，为台企发展保驾护航。2022年，在德主要台资企业经营实现逆势上扬，取得良好业绩。截至目前，全市累计批准台资企业231家，总投资17.5亿美元，引进台资11.9亿美元，德州已成为台湾同胞在大陆北方投资发展的重要城市。', '增进中华民族文化认同。八极拳发源于德州庆云，距今已有240多年的历史，是中华传统武术文化中的一块瑰宝，在海峡两岸拥有广泛的影响力。2018年，我们发挥这一独特优势，成功打造了海峡两岸八极拳技艺交流大会对台工作品牌。2022年大会以“八极同源、文化同根”为主题，克服疫情带来的不便影响，线上线下同步举办。中国国民党前主席洪秀柱以视频形式致辞。台湾著名政论家邱毅，台湾中华两岸新时代交流协会理事长、南开大学台湾研究中心主任黄清贤，台湾中华洪门联盟总会会长刘会进现场连线。海峡两岸14个分会场的千余名八极拳习练者线上线下切磋技艺，同打八极一套拳。大会连年被国台办列为对台交流重点项目，连年获评全省优秀对台交流项目。', '创新打造中医药交流品牌。挖掘传承弘扬中医药文化，成功举办首届海峡两岸（德州）中医药交流大会，台湾新党主席吴成典视频致辞，海峡两岸100余位知名专家学者就推动中医药事业和产业高质量发展深入交流研讨，国台办交流局专门向大会发来贺函，活动得到省委常委、统战部部长徐海荣，市委书记田卫东批示肯定。推动建成德州市海峡两岸中医药交流基地“良医巷”，提升对两岸知名中医药专家的集聚能力，夯实品牌支撑力。组织开展海峡两岸百名中医义诊活动，惠及群众2万余人，并入选全市首批“微改革”事项。创新举办全省首家以“海峡两岸青少年中医药文化”为主题的夏令营研学活动。推动齐河黄河文化博物馆群入选首批“山东省台港澳青年交流实习基地”。', '提问环节到此结束。刚才，几位发布人介绍了2022年德州统一战线工作和突出成绩并回答了记者提问，请各媒体做好宣传报道。如需进一步了解情况，请与市委统战部联系，电话2231525。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>141</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>德州市深化农村区域党建共同体建设主题系列新闻发布会第二场</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-09-05</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c74367361/content.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['德州市“深化农村区域党建共同体建设”主题系列新闻发布会（第二场） - 德州市人民政府', '我们继续举行德州市“深化农村区域党建共同体建设”主题系列新闻发布会第二场。今天，我们邀请陵城区委常委、组织部部长高洪星先生，禹城市委常委、组织部部长任晓冰先生，乐陵市委常委、组织部部长董军先生，齐河县委常委、组织部部长、统战部部长，县政协党组副书记张志勇先生，向大家介绍本县市区农村区域党建共同体建设情况并回答记者提问。', '近年来，陵城区在省委、市委的领导和支持下，着力打造农村区域党建共同体，从产业振兴着手，通过三合模式强基础、三化路径促发展、三借思维求突破，聚合各类资源要素，推动全面振兴，实现强村富民。', '三合模式强基础。产业布局抓联合，科学制定共同体产业发展规划，根据各村实际，明确在产业发展中的功能定位，以113个产业强村为中心，提供市场推广、技术指导、资源保障等服务，吸引周边521个村庄要素集聚，提高共同体市场、成本、管理、技术竞争优势。边临镇德轩党建共同体推动产业布局、资金支持、技术服务、市场推广、基础配套“五统一”，建成占地2000亩的现代农业产业园，吸引周边13个村庄入股联营，村集体收入全部突破20万元。人才队伍抓聚合，全面摸排区域内基层治理、种养能手、经商人员等群体，分类建立能人台账，纳入共同体统一管理、调配，选派153人跨村担任产业顾问、439名导师联系帮带，帮助共同体2000余名后备干部加速成长，切实将外力帮扶转化为内力激活。资金投入抓整合，赋能共同体资产处置权，对辖村集体资产、上级注入资金等，由共同体联合党委商议，确定投入使用方式，统筹开展项目规划、实施、运营和管理。目前，共同体累计使用上级资金7000余万元，跨70余个村庄布局产业项目。', '三化路径促发展。联合经营实体化，指导共同体因地制宜，注册联合社、公司、集体经济组织三类经营主体，对内提供农资统购、农机作业、晾晒收储、农产品销售等8项服务，对外争取政策、招引企业、承接项目、融资投资、联通市场。土地经营规模化，共同体召开辖村党员群众代表会议，给老百姓算好土地流转经济账，讲好“一地生四金”致富经，即土地流转生“租金”，村民务工赚“薪金”，股份合作分“股金”，产业发展挣“现金”，提高群众流转土地的积极性。目前，共同体流转土地18.6万亩，累计发放劳务工资1500余万元、二次分红2800余万元。产业发展市场化，精准摸排共同体、企业关于劳动力、资金、产品等要素的供需关系，鼓励采取投资、入股、捐助、委托加工、服务外包等方式，将企业和共同体双向联结，先后与中粮合作打造粮食安全共同体，与中化合作开展粮食育种，与中国供销集团合作引进中央厨房预制菜项目，推动一二三产融合发展。', '三借思维求突破。开放思维“借智”，区委聘请农科院、山农大、青岛农业大学等专家教授成立“发展顾问团”，围绕共同体优势产业，采取线上线下相结合的方式，每月进行技术指导，形成葡萄种植、龙虾养殖、数字农业、小麦育种、生态昆虫等90余个特色产业。品牌思维“借势”，强化共同体品牌建设，每季度开展1期农产品品牌化营销专题培训，引导共同体注册成立区域品牌13个，认证“三品一标”53个，形成于集乡“念念有于”、滋镇“滋味”、义渡口镇“义路义心”等品牌矩阵。通过产销对接、新闻发布、线上博览等形式，加大品牌宣传推介力度，提升共同体产品知名度和影响力。网络思维“借路”，成立全省首个党建共同体电商基地—陵呈云仓，布局建设5个乡镇分仓，助力共同体直播带货、品牌营销、电商人才培训等，为农业特色化、规模化、品质化发展搭建新平台、开辟新空间。目前，已举办培训班22期，培训农村闲散劳动力2000余人次，直播带货蔬菜、扒鸡、蜂蜜、水果等共同体产品，实现销售收入2300余万元。', '为破解农村区域党建共同体资金技术短缺、市场开发能力不强等问题，禹城市以开展“百企结百村”行动为载体，完善利益联结，建立长效机制，实现组织优势与市场优势的“双向奔赴”。目前，已从全市优选95家重点企业与共同体结对帮扶，走出了一条党建搭台、村企抱团、合作共赢的乡村振兴发展新路子。', '结对共建，关键看企业与共同体是否供求互补、相互信任。为此，我们主要开展3方面工作。', '一是党委牵线搭桥。市委统筹相关职能部门、镇街组建村企联建工作专班，制定《关于在全市广泛深入开展结对活动合力打造乡村振兴禹城模式的工作方案》，组织对共同体、企业基本情况进行全面摸排，制定了共同体资源清单、企业项目需求清单。共同体根据集体经济发展壮大需求选择企业结对，企业根据产业基础、资产、资源、资金等要素选择共同体合作，实现了双向互选、优势互补。', '二是增进互动交流。共同体和企业党组织互派党员担任党建工作联络员，负责联建行动的协调推动。共同体与企业每月召开党建工作联席会议，重点研究组织建设、项目推进、利益分配等方面工作，促进交流融合。坚持每季度至少开展1次共建活动，通过党组织书记互上党课、联合开展主题党日活动等多种形式，加强沟通交流。', '三是健全推进机制。针对共同体和企业需求，我们坚持因地制宜，策划和包装一批适合联建的具体项目，以项目化推进合作共赢，今年以来，已合力打造联建重点项目36个。此外，我们在金融、土地、行政审批等方面制定了21项优惠政策，推动联建工作扎实开展。', '围绕共同体与企业“双赢”目标，我们探索实施资源联享、资金联用、产业联建的“三联”联建模式。', '一是实施资金联用。村集体将自有资金、各级政策扶持资金入股共同体内龙头企业，为企业扩大规模提供资金支持。今年以来，已注入重点项目资金3200余万元，带动集体增收710余万元，2400余名农村劳动力实现家门口就业。', '二是实施资源联享。对共同体内村庄土地综合整治产生的增减挂钩结余指标集中整合利用，兴建标准化厂房，村集体以土地入股，以“飞地”模式推动集体经济持续稳定增收。目前，我们利用各共同体闲散土地盘活指标，已建成10处乡镇产业园，引进投资110多亿元，落地项目410余个。', '三是实施产业联建。共同体统筹区域内土地、劳动力资源，由企业注入资金技术、联通对接市场，共同培育产业项目，带动区域内劳动力就业，实现企业、集体、群众三方受益。比如，禹城市张庄镇统筹辖区6个区域党建共同体与辖区内龙头企业领翔牧业合作，分别承载湖羊产业链上下游饲料供应、湖羊养殖、肉奶制品加工等生产环节，实现抱团发展、整镇推进。', '为确保项目持续健康稳定运营，我们充分发挥基层党组织作用，健全产业项目持续稳定运行机制。', '一是实施前置审查。为确保联建项目规范运转，我们为每个共同体都配备了1名法律顾问。各项合作协议签订前，必须由共同体法律顾问进行合法性、风险性审查，报共同体联合党委审议，由乡镇党委审核备案。', '二是实施过程监管。所有合作项目实行“线上留痕”“阳光公开”，将项目实施纳入“智慧村务”监管平台，作为村务公开重点内容，共同体联合党委书记要在“阳光报告会”上讲明资金使用、项目进展、收益分配等方面的内容，接受村民询问，切实保障村民对资金使用、实施进度、项目收益等方面的监管权。', '三是实施考核监管。将联建工作纳入各级党组织书记基层党建述职评议考核的重要内容，作为各镇街党政领导班子和主要领导干部年度考核的重要指标。建立与村企联建成效相挂钩的村党组织书记考核和待遇激励机制，对主动参与联建的企业，在企业考评考核中予以适当加分奖励。', '企业与共同体结对帮扶，呈现了企业收益、集体受益、群众获益的“三赢”局面。下一步，我们将继续加强企业与共同体间的合作交流，推出更多优质项目，为推动乡村振兴注入强劲动力！', '金色九月、丹桂飘香。在这个丰收的季节，向大家介绍一下乐陵市农村区域党建共同体建设的相关情况。今年以来，乐陵市聚焦村级带头人难选、后备力量不足、乡土人才缺乏等问题，以农村区域党建共同体为抓手，树牢“抓人才就是抓发展、谋人才就是谋未来”的理念，探索实施“头雁领航·群雁齐飞”雁阵工程，在更大范围内识人、选人、用人，打造人尽其才、才尽其用的区域人才集聚平台。', '带头人跨村共用。按照“党建引领、区域联动、优势互补、协同发展”原则，逐步建立健全“共同商议、共同建设、共同管护、共同享有”共同体工作机制，实现乡村振兴带头人共用。一是拓展党组织覆盖面。坚持从组织引领入手，破解引领不强的问题。通过拓展共同体党组织覆盖面，着力增强组织功能，筑牢引领乡村振兴的坚强战斗堡垒。建立村干部区域化统筹使用机制，选派强村书记担任共同体联合党委书记。二是放大能人效应。根据村干部专业特长，安排到共同体内的组织管理、纠纷调处、文明实践、产业发展等不同类别专项小组，打通村干部“上挂”通道，搭建村干部干事创业平台，拓宽带头人干事创业空间。对表现突出的，引导加入共同体群雁参事会，贡献智慧力量，打造“同心智囊团”。三是强化跟踪培养。引导大村带小村、强村带弱村、富村带穷村，采取跟班锻炼、试用任职等方式，各村带头人参与共同体内事务，通过开展“走出去”学先进地区经验、“引进来”开展专题培训等活动，实行“一对一”帮带和定向培养工程，组织区域内“示范村”书记与“强基村”书记结成帮扶对子，每月开展“擂台比武”，帮助缩短“适应期”。我市花园镇回引的10名优秀人才全部安排到联合党委任职，释放返乡能人的资源和优势，实现“引进一个人、治好一个村、带动一大片”。', '后备力量跨村共育。围绕化解村干部害怕“育苗丢位”和发展党员宗族干扰等问题，以共同体为单位，成立青年人才党支部，建起后备干部队伍。一是严格选拔。明确选拔条件，采取个人自荐、组织推荐、党员群众举荐等公开选拔方式，吸收18—45周岁的大中专毕业生、退伍军人、种养殖大户等优秀青年纳入后备干部队伍。二是精准培育。按照“需要什么学什么、缺什么补什么”的原则，明确需求导向，充分挖掘长处和优势，制定个性化培养计划24条，补足短板和不足，每季度以共同体为单位开展人才交流座谈会，分享心得体会，了解思想动态，锻造能力过硬的后备干部队伍。三是从严管理。建立后备干部人才信息库，一人一册，一村一档，实行积分纪实管理，通过设岗定责、列席共同体会议等途径，到共同体重要岗位参加实践锻炼，提升治村兴村综合能力。今年以来，有125名优秀人才提交入党申请，285人纳入村级后备干部人才库，36人进入村干部队伍。', '各方人才跨村共聚。推动干部往共同体流动，资源向共同体下沉、力量在共同体凝聚，有效破解农村村庄分布散、资源整合利用率低等问题，促进了产业的集聚发展，进一步提高农村对人才的吸引力和承载力。一是实施“村村有能人、镇镇有专家”计划。以推动“能人回归、资金回流、创业返乡”为重点，支持鼓励“五类人才”返乡就业创业，鼓励以共同体为平台，积极对接高等院校、科研院所、创新团队，共建“农科小院”，汇聚专家学者、农业科技人才、电商主播等优秀人才，提升农业科技协同创新水平。二是建立“八个一“结对帮扶制度。推行1个职能部门、1家企业、1名乡镇干部、1名第一书记、1名乡村振兴指导员、1名乡贤人才、1名法律顾问、1名基层干警“八个一”结对帮扶，1400名执法力量、机关干部下沉到所有乡镇党建共同体党群服务中心联动办公，带动部门资源、服务事项向共同体投放，推行共同体周例会、六权议事决策等制度，分类制定共同体公开事项目录，推出为民服务事项网上“乐一码”，推动村级治理全域融合。三是设立人才服务通道。市、乡镇、共同体成立工作专班，根据共同体产业发展需求，引进急需的创新创业型人才。定期举办创新创业活动，激发人才创新创业活力；分领域分层次开展在外人才家乡行系列活动，组织开展乡村人才寻访、旅外人才家乡行等引才活动，以浓厚乡情凝聚发展共识，为创业就业人才提供项目推荐、工商登记等“一站式服务”。南部生态区党建共同体联合区域内规上农产品加工企业，与中国农科院等10所国内农口大院大所共建技术研究院、人才培训基地等平台，培育新型农业经营主体带头人和现代青年农场主683人。', '事业因人才而兴，人才因事业而聚。在深化农村区域党建共同体建设协同推进强村共富上，我市无数乡村人才踔厉奋发、携手共进，在枣乡大地破土飘香，奏响了一曲乡村振兴的红色乐章。开放包容的乐陵，将举全市之力、邀四海之贤、汇八方智慧，真诚邀请各位在外能人、乡贤人士汇聚乐陵、携手乐陵，共享时代机遇，共谋发展大业，共创美好未来！', '近年来，齐河县认真贯彻落实中央和省委、市委部署要求，坚持以改革思维求突破、系统思维抓推进、融合思维谋发展，围绕解决党建共同体人员配备不足、运转机制不畅、财力支持不够等问题，制定《关于规范农村管区党组织体系建设打造区域党建共同体的实施方案》《区域党建共同体经费管理使用办法》等文件，推动力量、资金、职能下沉一线，深化党建共同体赋能提质，有效解决了村庄单打独斗、各自为战和资源不均、封闭发展等问题，构建起带动强村共富、助推乡村振兴的坚强战斗堡垒。', '下面，围绕如何深化党建共同体赋能提质，打造执行有力的坚强战斗堡垒，向各位媒体朋友简要介绍齐河县的具体工作做法。', '一、强化“三个支撑”，夯实共同体基础保障。一是队伍支撑。选拔精兵强将担任112个共同体总支书记，副科级占比50%以上，作为乡镇班子重点培养对象。从熟悉“三农”工作的乡镇干部、优秀村支部书记、回乡创业能人中选拔736名总支委员，打造一支素质优、能力强、威信高的“雁阵”队伍。在全市首创基层治理专岗，聚焦农技、经管相关专业招聘274人，全部为本乡本土、大专以上、35岁以下，保证共同体专兼职人员不少于15人。二是资金支撑。今年为共同体增设4100万元工作经费，保证每个共同体每年不少于10万元。对兼任共同体委员的村支部书记按照1.5倍发放报酬补给；对基层治理专岗按事业编制人员80%的标准落实待遇，保证队伍稳定性、工作积极性。三是能力支撑。依托齐河党员教育体验基地等县域教学资源，定期开展党务、财务、集体经济等专题培训，分批组织赴浙江杭州等先进地区学习考察，确保年度内总支书记集中培训1遍、工作人员轮训1遍。赋能提质让党建共同体有精力抓统筹、有能力抓落实，今年开展农村基层治理“百日攻坚”行动，各共同体组建攻坚小组，拿出专项资金，清理违规占用集体土地、闲散地1.2万亩，清偿村级债权500万元，整改不规范经济合同3436份。', '二、完善“三项机制”，强化共同体职能职责。一是工作运行机制。明确共同体党总支抓党建、抓发展、抓治理、抓服务4类30条具体职责，设立组织、纪检、宣传、政法、统战5类专职委员，党总支书记牵头抓总、专职委员对口负责、工作人员“一对一”包村，高效衔接镇村工作。二是干部管理机制。出台“一排底线”考核办法，赋予共同体党总支对村干部的任免建议权，对不积极、表现差的村干部，共同体党总支研究报乡镇党委同意后即可免职，报酬待遇即时取消，保障牢牢抓住“关键人”，增强工作执行力，今年已对5名支部书记扣发绩效，4名支部书记予以免职。实施阳光监督工程，设立共同体纪检监察站，该做法被《山东组工信息》予以刊发。三是考核奖惩机制。出台党建共同体考核办法，每半年组织1次述职评议，年底总考核。对考核排名前20%的共同体直接奖励1—2万元工作经费，总支书记干得好的优先提拔重用、排名靠后的动态调整，共同体委员和工作人员绩效工资与考核成绩挂钩，充分激发工作干劲。今年以来，已有35名优秀共同体总支书记、副书记提拔为副科级干部。', '三、搭好“三个平台”，提升共同体工作效能。一是便民服务平台，即党群服务中心。实施共同体党群服务中心规范化建设行动，投入500万元提档升级，承接社保、就业、低保救助等135项服务职能，打造“15分钟便民服务圈”，方便群众在家门口办好事；同步引入幸福食堂、老年看护、幼儿托管等功能，在为民办事中提升基层党建整体效应。二是联动治理平台，即“网格化+综合执法”服务站。按照“农村到街到巷”的原则精细布设4651个网格，配备专兼职网格员5400余名。在共同体设立综合执法站，建立智慧化综合指挥平台，网格员发现问题通过平台上报，共同体作为运转中枢，汇总辖区信息，及时处置村内各类安全隐患、矛盾纠纷，“铁脚板+大数据”综合发力，为共同体联动治理提供支撑。三是为农服务平台，即共同体合作联社。县级出台扶持办法，通过贴息贷款、农机购置补贴等方式，引导村级合作社组建共同体合作联社，由共同体牵头运营，推动农业生产规模化、组织化。齐河县乡土丰利合作社，整合扶持资金230万元，扩大规模升级为合作联社，覆盖面达到36个村，社会化服务面积达到20万亩，集成推广绿色高产技术，亩均节本260元、增产100斤以上，该社模式得到胡春华副总理充分肯定。', '你好，我是齐鲁晚报记者，企业和共同体结对帮扶，除了在产业方面，在其他方面还发挥了哪些作用？', '任晓冰：我们开展企业与共同体结对帮扶，内容涵盖了“五大振兴”各个方面。刚才主要介绍了组织、产业方面的融合共建。在人才方面，我们建立了企业与共同体人才互培、互聘、互相交流的共育共享机制。企业党组织主动为村“两委”干部和劳动力培训搭建平台，选派136名业务骨干、经营骨干到共同体开展技能培训、创业辅导。共同体党组织积极为企业推荐介绍人力资源，共同发掘人才，为优秀人才提供创新创业支持。聘请95名企业人员担任发展顾问，帮助共同体发展出谋划策，提升集体资产运营效益。此外，帮扶企业积极参与共同体人居环境整治、疫情防控、基础设施和公共服务设施建设等等，在资金、技术、人力等方面给予支持，推动农村人居环境大幅提升，实现了农业强、农村美、农民富。', '您好，我是德州晚报记者。刚才听到您介绍齐河县在全市首创基层治理专岗来强化队伍支撑，我对此项工作较为感兴趣，您能否介绍下这项工作呢？', '张志勇：感谢你的提问。今年以来，我县聚焦区域党建共同体人员捉襟见肘的难题，创新开设基层治理专岗，强化共同体工作力量，持续提升党建引领基层治理水平。一是严选聘，定对“岗”。制定《公开选聘基层治理专岗工作人员的方案》，实行严格选聘流程、严格准入标准、严格合同管理的“三严”机制，结合全县“万名大学生创业兴齐”计划，吸引274名优秀青年人才回乡就业，全部为35岁以下、大专以上学历，实现了行政村“一对一”专人包保。二是强管理，守住“岗”。专岗人员实行规范化管理，“一人一档”建立人员档案，按照事业编人员工资80%落实待遇保障，并健全共同体党总支日常管理、镇街党（工）委考核评估、县级组织部门统筹指导的三级管理机制，掌握履职情况，动态调整岗位。三是重保障，站好“岗”。将专岗人员纳入“基层治理后备人才库”，分级分层开展初任培训、岗位培训、专题培训等，打造“一专多能”人才；对政治素质高、表现优秀的专岗人员，优先发展为中共党员、遴选为村党组织书记等，激发干事创业活力。', '你好，我是鲁网记者。目前，党建共同体工作已经取得了良好成效，接下来，陵城区将如何乘胜追击，推动共同体发挥更大作用？', '高洪星：感谢您的提问。下步，陵城区将认真贯彻落实市委决策部署，按照建强1个联合党委、建好1个服务阵地、开展人才引育3大工程、深入推进农村“三类地”开发利用的“1133”工作措施，深化农村区域党建共同体建设，协同推进强村共富。一是实施共同体联合党委赋能提质行动，明确村干部考核、任免等“五项职责”，完善组织共建、审查监督等“五项制度”，落实扶持资金优先投入、优惠政策优先倾斜等“四个优先”，进一步做实做强联合党委。二是实施农村党群服务中心专项提升行动，对农村党群服务中心进行集中规范提升，扎实开展“十进”活动，持续优化公共、政务、社会化服务，推动农村服务资源集聚。三是实施乡土人才集聚提速行动，深入开展农村劳动力素质提升、“村村有能人、镇镇有专家”、“五类人员”回乡创业三大工程，为共同体发展蓄好人才“源头水”。四是实施农村“三类地”开发利用产业增效行动，激活土地资源，做好土地文章，推动农用地规模经营、闲散废弃地盘活利用、“飞地”抱团发展，全面拓宽农业农村发展空间，促进产业发展壮大村级集体经济。', '你好，我是市广播电视台记者。乐陵集聚了这么多乡土人才，请问具体是通过什么方式吸引人才、留住人才？', '董军：我市围绕“农村需要什么样的带头人，如何选好带头人，带头人需要干什么事”等核心问题，制定出台《关于实施“雁归工程”回引优秀人才到村任职的实施意见》等一系列雁阵工程文件，从制度层面建立鼓励吸引优秀人才到共同体、村任职的常态机制。一是搭建平台，确保“引得回”。在外出务工人员集中的北京、天津等地，建立39处流动党组织和人才服务站，提供优秀人才回引“一站式”服务。建立市—乡—共同体三级联动机制，市级领导带头包保乡镇（街道）驻外流动党员党组织开展走访慰问。开展乡村人才寻访、我为家乡绘蓝图、旅外人才家乡行等活动，以乡情为系吸引人才“回家”。二是优化政策，确保“留得住”。创业扶持上，提高待遇政策，制定优秀人才到村任职专项扶持政策，设立回引人才到村任职专项奖励资金；政治激励上，对表现突出的返乡任职人员，推荐担任“两代表一委员”，列席全市重大会议、重要活动。三是培养锻炼，确保“有作为”。建立健全优秀人才到村任职培养锻炼机制，开展提能行动，实行“一对一”帮带机制，开展村民评村官”活动，对任职人员德、能、勤、绩等方面进行综合考评。近年来，先后300多名在外人才返乡任职，挑起推进乡村全面振兴的担子，成为带动群众致富的重要力量。', '提问环节到此结束。刚才，几位发布人介绍了本县市区农村区域党建共同体建设情况并回答了记者提问。请各媒体做好宣传报道。如需进一步了解情况，请与市委组织部联系，电话2687850。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>141</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>决策公开</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-12-14</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n45703392/n67633470/n71129413/n71157228/c78742481/content.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['会展业是以举办各种会议和展览活动为核心，集商品展示交易、科学技术交流、文化娱乐旅游于一体的现代服务行业，包含展览、会议、旅游、节庆、赛事等多种业态，是构建现代市场体系和开放型经济体系的重要平台。在促进产业发展、拉动市场消费、扩大对外开放、提升城市美誉度等方面发挥着重要作用。', '做大做强会展业对于我市推进经济社会高质量发展，加快建设先进制造业强市、中国食品名市、特色体育名城、现代物流枢纽城市、区域消费中心城市具有重要意义。本规划根据《德州市国民经济和社会发展第十四个五年规划和2035年远景目标纲要》《中共德州市委、德州市人民政府关于建设区域消费中心城市的实施意见》《德州市人民政府办公室关于加快建设现代服务业集聚区的意见》等精神编制。规划期限为2022年至2025年。', '近年来，我市现代服务业加快发展，兼具生产性和生活性服务业属性的会展市场逐渐活跃，会展项目日益丰富，世界太阳能大会、德州广电家博会、山东（乐陵）红枣暨健康食品博览会等一批具有影响力的展会成功举办，会展业带动效果逐渐显现，奠定了我市会展业发展基础。', '我市在用会展场馆4个、在建3个，现有展览面积3.4万平方米；全市办展机构2家，展会服务机构2家。2021年我市共举办5000平方米以上展览活动20场，总展览面积约30万平方米，包括车展、家博会、文旅节等活动；各县（市、区）举办电商节、年货节、音乐节等大型节事活动30余场，线上线下参与者超20万人次。', '承接能力逐渐增强。长期以来，我市承接会展的硬件基础比较落后，专业型会展展览场馆仅德州市会展中心，建筑面积1.2万平方米，拥有展厅2个，展览面积5000平方米。近年来，我市为承接专业型会议，2010年建设德州太阳谷微排国际会议中心，2018年建成投入使用太阳能德州小镇、东盟国际会议中心。其中，太阳能德州小镇建筑面积13万平方米，拥有展厅6个，展览面积2.2万平方米；德州太阳谷微排国际会议中心拥有展厅2个，展览面积4959平方米；东盟国际会议中心建筑面积1.9万平方米，拥有展厅2个，展览面积2000平方米。在此基础上，我市逐渐承接一些专业型展会。', '配套资源不断完善。我市交通资源便利，主要场馆均可与公共交通枢纽相连。目前，我市拥有100间客房以上、可作为会展接待使用的酒店20余家；A级景区15家；大型购物商超130余家。以上资源能够满足客商参展之余的休闲娱乐活动，我市成为会展目的地的吸引力逐渐增强。', '会展项目日益丰富。我市以人文资源和产业优势为依托，组织或承接相关领域的会议及展览活动逐年增加，特色品牌影响力逐年增强。会展与特色农业融合发展，打造“德州味”区域公共品牌，宣传优质农产品，推动我市从农业大市向食品名市跃进，举办了中国农民丰收节、山东粮油产业博览会、中国（德州）古桑产业发展大会、山东（乐陵）红枣暨健康食品博览会等系列展会活动。会展与先进制造业融合发展，吸引高端人才群策群力，扩大产业影响力，推动先进制造业强市建设，举办了中国（德州）集成电路产业峰会、中国预制菜产业发展峰会等系列活动。会展与文旅产业融合发展，宣传德州悠久的历史文化及特色美食产品，举办了德州古玩城交流会、德州美食节等系列展会活动。会展与体育产业融合发展，结合我市优质的体育产业基础，推动体育名城建设，举办了中国（德州）体育产业交流大会、山东省少年围棋锦标赛等活动。丰富多彩的会展项目及会展资源，为更好发展会展业打下坚实基础。', '缺少统筹规划。我市已举办了十四届德州经贸洽谈会、世界太阳能大会、中国国际太阳能十项全能竞赛等在国际上具有一定影响力的展会活动，但因缺少系统性规划，大多以行政能力来推动会展业发展，未能充分发挥我市的区位、交通等相对优势，未形成引领性作用。', '基础设施薄弱。与周边地市相比我市会展基础设施薄弱，缺少专业会展场馆。全市尚无单体面积1万平方米以上且配套设施齐全的大型专业会展场馆，在硬件设施上存在突出短板，承接专业性会展活动能力较弱。', '市场主体亟需培育。我市会展市场内专业会展主办承办机构、会议活动组织者和目的地管理公司、各类配套服务公司等市场主体短缺，导致在举办会议和专业展会过程中，缺少有效统筹谋划，大量参展商、参展观众涌入我市后，产生的消费需求超出局部行业承载能力，造成参与人员无序流动，影响展会体验。', '专业人才不足。会展专业人才短缺和储备不足是我市会展业发展的重要瓶颈。目前市内还没有开设会展相关专业的中等及高等院校（含职业教育）。会展从业人员存在业务素质整体偏低、专业结构不合理等方面的问题。', '发展环境需改善。我市会展活动组织实施过程中存在服务流程不规范、办展程序及风险管理措施不健全不完善等问题。同时，未成立会展业行业协会，企业间沟通协调机制不健全，未能形成发展合力。', '新发展格局机遇。从国内看，中国会展业已经逐步实现了专业化、品牌化、国际化和市场化，并逐步呈现出由国内一线城市向二三线城市外溢的趋势，为我市发展会展业赋予更广阔的发展前景。从国际看，世界经济重心东移，中国在全球疫情蔓延中表现出经济发展的强大韧性和实力，对跨国公司和国际会展龙头企业形成强大吸引力，为会展业更高水平发展提供了新机遇。', '重大区域战略机遇。“十四五”时期，京津冀协同发展战略将加快推动，我市作为山东省唯一列入京津冀国家发展战略的城市，面对非首都功能疏解和京津市场会展资源溢出，在承接方面具有明显区位优势；黄河流域生态保护和高质量发展战略推进实施，黄河流域（山东）现代农业科学城、全域湿地保护示范城市等一批重大项目、重大事项加快推进；省会经济圈一体化发展进入快速通道，新旧动能转换起步区联动区加快建设。三大战略叠加效应必将对我市会展产业产生巨大带动作用。', '城市发展机遇。《中共德州市委、德州市人民政府关于建设区域消费中心城市的实施意见》提出“打造会展服务新地标、建设区域会展服务中心，全力建设‘宜业、宜游、宜赛、宜养、宜学、宜居、宜购’的品质城市，增强消费对经济发展的基础性作用和主拉动作用”；《德州天衢新区发展规划（2021—2025年）》提出“建设天衢新区现代化会展中心，打造附加值高、成长性好的特色会展集聚地”，这为我市会展业发展提供了良好政策环境和广阔承载平台。', '产业发展机遇。市委、市政府提出，紧密围绕11个关键产业链，实施“一链一展”，每个产业链谋划一个会展品牌，借势借力开展产业对接、招商引资，打造一批具有德州特色、在全省乃至全国有影响力的产业链，形成百亿级、五百亿级、千亿级的产业梯次发展格局。产业发展将为会展业发展提供更丰富的题材和广阔市场。', '交通发展机遇。我市制定出台《德州市加快建设交通强市的实施意见》，提出建设交通强市的战略目标，全面提升高铁、高速的快捷高效水平，谋划建设德州机场和内河通航，积极打造互联互通的综合立体交通网络体系。现代化综合交通运输体系的持续完善，将进一步放大我市交通区位优势，为我市会展业发展提供更为便利的交通条件。', '坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神，积极落实习近平总书记对山东提出的“走在前列、全面开创”“三个走在前”重要指示要求，坚持以人民为中心的发展思想，坚持高质量发展理念，围绕富强活力幸福美丽的新时代社会主义现代化强市建设，坚持市场化、特色化、品牌化、数字化、绿色化发展，加快会展设施建设，优化空间布局，不断提升会展市场活跃度，营造良好的会展发展环境，打造会展经济新名片，促进“会展+”发展。', '坚持市场主导、政府引导。充分发挥会展市场中企业的主体作用，切实调动会展企业积极性。同时发挥政府引导作用，通过政策供给，积极鼓励会展企业参与国际、国内市场的分工合作，全面提升会展企业的内生动力和整体竞争力。', '坚持高质量发展。坚持新发展理念，更加注重会展业发展的质量与效益。在确保会展业规模稳步扩大的同时，围绕会展产业链上下游，着力通过建链、补链、强链，加快推动会展业内涵式发展。践行绿色发展理念，提高数字化在会展中的应用，探索低碳、节约、高效、便捷的办展模式。', '坚持融合发展。积极推动会展业与我市优势产业融合发展，以会展赋能带动产业集群发展。实现以会展策划、会展场馆、会展综合服务为核心的会展产业链与区域特色实体产业链融合发展，以产业市场助力德州招展引会，形成产业规模效应。', '坚持特色发展。从发展定位、空间布局、产业驱动力等方面着力打造差异化发展格局，依托我市社会经济发展基础，形成具有区域特色的会展经济核心竞争力。', '到2025年，会展基础设施承载能力大幅提升，配套设施布局优化、供给有效改善；会展市场主体活跃度明显提升，形成2家以上具有较强影响力的会展企业；培育以特色产业、特有文化、特殊区位为核心的国内知名会展品牌；会展人才供需基本平衡；会展服务体系协同有效，营商环境明显改善；基本建成区域性会展中心城市和知名会展目的地。', '培育赋能期（2022—2023年）。会展基础设施和配套设施明显提升，建立协同有效的办展办会服务体系；出台会展业促进政策；依托优势资源打造特色会展项目，形成特色展会品牌，会展业对区域消费中心城市建设的拉动力更加凸显；初步建立会展人才培养体系；会展数量稳步增长，2023年举办具有一定规模的展览40个以上，展览总面积超过50万平方米。', '提质发展期（2024—2025年）。到2025年，会展基础设施承载能力大幅提升，德州天衢博览广场、乐陵市会展中心等场馆投入运营，相关配套设施完备，满足会展消费等相关需求；会展市场主体明显增加，知名会展市场主体落户德州；形成德州对接京津冀优质农产品博览会、文创与旅游商品创意设计大赛、中国（德州）古玩文化交流大会等一批国内品牌会展项目。会展人才培养体系初见成效，实现人才供需基本平衡。会展数量质量快速提升，2025年举办具有一定规模的展览60个以上，展览总面积超过60万平方米，展馆综合利用率提至10%以上。', '以我市城市功能区划为依托，以各县（市、区）优势特色产业为基础，加速构建我市“一极引领、多点协同”的会展发展格局。', '构建会展产业“一极”。“一极”即围绕我市中心城区（包括德州天衢新区、德城区、陵城区）打造综合型会展集聚中心，形成以德州天衢新区为核心的会展产业发展高地。借助德州天衢新区建设机遇，建设国际商业会展中心，深度融入京津冀协同发展战略，在承接京津外溢会展项目的同时，通过知名专业机构引进和开展项目合作等方式举办会展活动。加快推进德州天衢博览广场项目建设，打造集展览、会议、商务、餐饮、休闲为一体的现代化综合城市会展中心。积极培育形成以高端会议、展览为核心，以交通、物流、金融、接待服务为支撑，以会展策划、会展广告、会展设计、会展运营服务为配套的会展产业链集群。加强与专业化运营团队的合作，常态化开展德州国际跨境电商贸易博览会、德州—东盟产业合作论坛，每年举办2个以上具有行业影响力和知名度的国家级展会，打造带动作用强、协同作用好的特色会展集聚地。', '构建会展产业“多点”。“多点”即各县（市、区）依托本地产业、文化、旅游等资源，打造特色展会，形成会展产业发展的“多点”。', '——围绕齐河县、禹城市，打造我市会展产业南部“高点”。加快推进黄河文化博物馆群、黄河水街、济高康养基地、黄河流域（山东）现代农业科学城、禹城市中华农耕文化博览园等基础设施建设，发挥齐河县旅游资源优势，打造“会展+旅游”品牌，持续推动“黄河文化旅游带推进活动”，举办中国（山东）—东盟中小企业合作发展大会、中国—东盟市长论坛暨协同创新发展大会等展会活动；发挥禹城市大豆振兴工程、“吨半粮”工程及功能糖等产业优势，举办中国大豆产业振兴高峰论坛、中国（德州）“吨半粮”生产能力建设高层峰会。', '——围绕宁津县、乐陵市、庆云县，打造我市会展产业北部“焦点”。加快推进乐陵市会展中心项目建设落地，提升会展承载能力；借助宁乐庆体育联盟联手打造世界级体育器材制造基地之际，积极对接中国体育用品联合会，争取举办中国国际体育用品博览会等国家级知名展会。宁津县依托“宁津实木家具”区域公用品牌及德百杂技蟋蟀谷，举办中国（北方）半成品家具博览会；乐陵市依托金丝小枣及调味品产业，举办“枣博会”“味博会”；庆云县依托八极拳文化资源，举办海峡两岸八极拳技艺交流大会。', '——围绕武城县、夏津县，打造我市会展产业西部“亮点”。以德百温泉小镇作为会展承接地，不断提升会展市场的活跃度。夏津县加快落实黄河文化传承馆、古桑文化村落等森林公园景区提升工程，打造“会展+文旅”品牌，依托农业、文旅资源举办世界桑黄大会；武城县依托本地暖通空调产业及商会资源，积极举办行业高峰论坛。', '——围绕临邑县、平原县，打造我市会展产业东部“强点”。加快推进临邑县中体运动城项目、平原县食品科技产业园项目建设。临邑县依托京德数谷产业园优势，积极举办国家级高峰论坛；平原县依托“中国机床附件之乡”的产业基础，主动对接中国机床工具工业协会，积极承办相关展会。', '围绕我市“一极引领、多点协同”的会展业空间布局，以高质量发展为目标，重点发展展会、“会展+”等业态。', '办专“交易型”展会。聚焦我市优势产业，打造先进制造业领域的专业展会，积极展示机械设备及制造业所需相关服务，为企业产品销售搭建平台；聚焦商品消费热点，打造面向大众和终端客户的消费展，举办“房博会”“家博会”“糖酒会”等展会，提升产品销量。鼓励会展市场主体，吸引客商前来参展、布展、考察、采购，拓宽生产企业的销售和采购渠道，逐渐形成原材料采购、商品销售一体化市场，促进相关行业发展。', '办精“体验型”展会。深挖德州历史文化、民俗风情、文创设计等资源，围绕“四河往事、老城印象、历史人物、历史名吃”等历史场景，打造体验式展会，讲好德州故事，吸引游客前来观展，宣传德州城市形象。鼓励会展市场主体，主动对接吸引党政机关、企事业单位、社会团体及公司等组织，围绕体验场景，举办新品发布、年终总结等其他相关活动。', '办新“推广型”展会。把握我市先进制造业强市、中国食品名市、特色体育名城、现代物流枢纽城市建设机遇，主动对接国家级行业协（学）会等资源，汇聚专家人才，举办以论坛、峰会、交流大会等为主要模式的会议，提升相关产业影响力。鼓励与我市各关键产业链相关的世界500强企业、国内知名企业和本市链主企业，联合产业链上下游企业，在我市举办新品发布会、新产品展示会等展会活动，宣传企业新产品，增强我市产业影响力。', '中国（德州）集成电路产业峰会、高端装备制造交流对接会、先进材料高峰论坛、高端化工产业论坛', '预制菜产业论坛、中国大豆产业振兴高峰论坛、中国（德州）“吨半粮”生产能力建设高层峰会', '推进“会展+旅游”建设。统筹全市旅游资源，重点推进会展与“红色”“古色”“绿色”等特色文旅和特色产业的融合发展，支持举办“街角、胡同”老城往事文艺展等活动，叫响“大德之州、好运之河”品牌，提升会展、旅游综合消费能力。', '推进“会展+文创”建设。支持德州扒鸡、黑陶等行业企业建设展示企业风貌和工业文明的观光工厂、工业博物馆等会展示范基地，对德州黑陶、剪纸、金丝彩贴等非物质文化遗产进行创造性展示。推动“会展+文创”产业营销模式整合，实现人流、物流、信息流等要素共享。', '推进“会展+赛事”建设。全力建设特色体育名城，积极申办重要文体赛事节庆活动，鼓励引进国内外重大赛事，争取每年申办2—3场国家级体育赛事、4—6场省级赛事、一批国内外青少年赛事，规划建设马拉松赛道、自行车赛道，推广板式网球运动，举办中国（德州）国际钓鱼大赛、中国（德州）国际马拉松大赛等各类品牌赛事。形成“一日比赛、多日停留，一人参赛、多人旅游，一场赛事、多场展销”的赛事展销新模式。', '推进“会展+演艺”建设。充分利用“中国京剧城”“宁津杂技之乡”等重要非遗文化品牌资源，结合会展业新发展趋势和消费新亮点，创新文化传承，扩大品牌推广，支持举办德州宁津杂技展、中国戏曲文化周、“弘扬国学 唱响国粹”大赛等演艺活动。在各类展会活动中嵌入演艺因素，促进会展和演艺融合发展。', '加快在建会展基础设施项目建设。积极推动我市会展基础设施建设，稳步推进德州天衢博览广场、乐陵市会展中心等重点会展项目建设。支持各县（市、区）新建与当地经济规模、产业发展、区域特色相匹配的专业会展场馆，力争到2023年乐陵市会展中心等场馆投入使用，到2025年全市可利用展馆面积超过20万平方米。推动太阳能德州小镇的升级改造工程，构建现代化会展场馆；鼓励现有展览场地恢复或提升会展功能，提升我市会展场馆的承载能力。', '提升会展配套服务设施水平。完善会展场馆周边住宿、餐饮、购物、娱乐、旅游、交通等服务配套设施建设，提升综合服务水平，推动会展与周边经济融合发展。鼓励各县（市、区）根据产业发展需求逐步改造、升级一批会议、展览、演出和体育场所。推进星级酒店、金融中心及数字智慧产业园、德州文化科技中心等重点项目建设，提升参展参会人员“食、宿、行、游、购、娱”的消费体验。', '充分发挥政府引导作用。加强市级层面工作统筹，发挥政府在战略、规划、政策及相关行业标准上的引导作用。成立会展协会，广泛调动社会各界力量，与其他行业协会、高端智库、会展企业开展全方位、多层次合作，为会展活动提供强大支撑。争取国家和省级层面的重视支持，帮助我市在较短时间内更加高效地获取并整合相关优质会展资源，承接国家级和省级重大会展活动。加大政府购买服务力度，吸引社会力量通过招投标和接受委托、授权等方式承接原来政府举办的会展活动，逐步形成市场主导、政府引导的现代会展业发展模式。', '推动会展主体壮大。充分发挥会展产业链链主企业作用，积极对接产业链上下游企业，围绕链主企业形成集聚发展态势，打造全方位的会展服务体系。招引知名会展主体落户德州，带动会展大项目落地，提升我市会展产业影响力。通过内培外引，尽快形成涵盖会展主办、代理、策划、商旅、物流、设计、搭建、租赁等业务的完整产业链。', '品牌展会建设是提升会展竞争力的必要手段，综合考虑我市特色产业、特有文化和特殊区位，推进会展业品牌化发展。', '打造中国（德州）先进制造业会展品牌。充分把握我市先进制造业强市战略部署机遇，结合山东省高端化工及精细化工创新发展示范基地、传统化工转型升级示范基地建设，围绕新兴产业“增量崛起”引领动能转换，全力打造先进制造业强市主引擎。坚持高端展会引领，整合高端装备制造交流对接会、全国机械工业经济形势报告会、中国（德州）集成电路产业峰会、“工赋山东5G双百行动”现场会暨德州市5G产业联盟大会、中国（德州）新能源汽车产业峰会、先进材料高峰论坛暨产业精准对接会等多项展会，着力将中国（德州）先进制造业博览会打造成集聚工业互联网、大数据、高端软件、新能源、新材料为一体的现代化品牌展会工程。', '打造中国（德州）现代农业会展品牌。结合预制食品生产加工配送基地、肉制品加工基地、粮油精深加工基地、功能食品生产基地、食品调味料生产基地、饮品饮料生产基地、休闲食品生产基地七大基地建设，围绕提升“德州味”“德州宴”影响力，建设面向京津冀鲁乃至全国的“中央厨房”。整合中国北方粮油产业交易会、中国大豆产业振兴高峰论坛、中国（德州）“吨半粮”生产能力建设高层峰会、“德州味”展销对接洽谈会、预制菜产业论坛、预制菜美食专享周、德州市对接京津冀优质农产品博览会等多项展会，将中国（德州）农业博览会打造成“论坛+展销+评比”的综合性展会活动，让德州“农博会”成为德州城市新品牌。', '打造中国（德州）健康体育产业会展品牌。立足我市在体育器材制造业方面的基础优势，着力打造“中国体育名城”会展品牌。依托国家体育产业基地（乐陵）、国家体育产业示范基地（庆云）、中国健身器材产业基地（宁津）等“国字号”品牌建设，引导产业集群错位发展，鼓励骨干企业带头办展办会，围绕竞技体育、家用体育健身器材、康复养老器材、健身场馆等打造全场景体验式展销活动。整合中国（德州）体育器材交流大会、德州京津冀体育产业深度融合高峰论坛、中体联公益服务平台体育产业资源对接服务大会、全国青年体操锦标赛、全国拔河比赛、中国（德州）世界健身者大会、中国（德州）国际钓鱼大赛等多项赛事大会，发展壮大体育新基建、体育智能智造、体育服务和“体育+”生态体系，不断扩大中国（德州）体育产业博览会知名度与影响力，让“体博会”成为德州城市靓品牌。', '打造中国（德州）文创会展品牌。整合德州历史文化，加强历史、名人、民俗等资源的综合开发利用，传承、创新传统经典节庆，培育具有本土特色、时尚创意的节庆品牌。落实“老字号涅槃行动”，充分利用“德州扒鸡”等“老字号”城市名片，积极参加中华老字号（山东）博览会、山东品牌中华行等系列知名展会，扩大我市老字号影响力和品牌效应，打造德州老字号博览会。挖掘黄河文化、运河文化、大禹文化、黑陶文化、董子文化等人文历史资源，实施运河遗址遗迹文物保护展示工程，形成具有德州特色的人文品牌，打造德州古玩博览会。传承红色文化基因，依托乐陵冀鲁边区革命纪念园、渤海教导旅纪念馆，加强革命文物保护利用，打造红色文化品牌。', '打造中国（德州）区域开放高地会展品牌。抓住用好国家和省重大战略机遇，强化协同观念，拓展合作空间，在区域协调发展大局中找准定位，积极把战略机遇转化为发展优势和发展成果。发挥我市对接东盟传统优势，举办中国—东盟市长论坛、中小企业高层论坛；聚集要素资源，吸引、承接东盟国家有关组织、协会在我市举办固定会展、博览会，全力打造中国北方对接东盟支点城市。围绕融入京津冀协同发展战略、黄河流域生态保护和高质量发展战略、省会经济圈一体化发展战略，收集整理国内知名品牌会展项目清单，加大招展引会力度，引进国内外优质会展资源，争取将我市列为区域性活动举办地或分会场。拓展与国内外知名会展公司和国家级行业协会合作，通过合作办展、移植或举办区域巡回展等方式，引进一批与我市主导产业相吻合的品牌会展项目。', '集成电路（数字经济核心产业）产业链：主要涉及信息电子制造行业、电信网络和卫星传输行业、软件和信息技术服务行业，国家级协会有中国电子视像行业协会和中国电子商会，知名展会有中国国际技术进出口交易会、中国国际光电博览会、亚洲电子生产设备暨微电子工业展览会；', '高端装备产业链：主要涉及环保装备行业和智能设备行业，国家级协会有中国仪器仪表行业协会、中国机电装备维修与改造技术协会、中国印刷及设备器材工业协会、中国农业机械流通协会，知名展会有深圳国际工业制造技术博览会、中国国际焙烤展览会、中国国际农业机械展览会；', '食品加工产业链：主要涉及食品行业和饮品行业，国家级协会有中国饭店协会、中国食品工业协会、中国调味品协会、中国焙烤食品糖制品工业协会，知名展会有全国糖酒商品交易会、中国国际大豆食品加工技术及装备展览会、上海国际酒店及餐饮业博览会、中国国际食品添加剂和配料展览会；', '高端化工产业链：主要涉及精细化工行业和新材料行业，国家级协会有中国化工情报信息协会、中国石化联合会、中国复合材料工业协会，知名展会有深圳国际高分子新材料新装备博览会、上海国际胶粘带保护膜及功能膜展览会；', '现代物流及会展经济产业链：主要涉及现代物流行业和会展经济行业，国家级协会有中国物流与采购联合会和中国会展经济研究会，知名展会有中国国际物流装备与技术博览会和中国会展行业高峰论坛；', '医药产业链：主要涉及医药行业和医疗器械行业，国家级协会有中国医药设备工程协会、全国医药技术市场协会、中国非处方药物协会、中国口腔清洁护理用品工业协会，知名展会有中国国际医疗器械博览会、中国兽药展览会、全国药材药品交易会、上海国际防疫物资展览会；', '体育产业链：主要涉及体育器械、竞技体育、体育赛事行业，国家级协会有中国体育科学学会、中华全国体育总会、中国企业体育协会，知名展会有全国体育科学大会体育科技人才交流会；', '特色轻工纺织产业链：主要涉及新型纺织、家具家居行业，国家级协会有中国纺织工业协会、中国产业用纺织行业协会、中国轻工业勘察设计协会，知名展会有深圳时尚家居设计周、中国国际纺织面料及辅料博览会、大湾区国际纺织服装服饰博览会；', '新能源汽车及装备产业链：主要涉及新能源汽车、新能源装备行业，国家级协会有中华全国工商业联合会汽车经销商商会、汽车摩托车配件用品业商会，知名展会有世界电池产业博览会、深圳国际锂电池技术博览会；', '医养健康产业链：主要涉及医养健康行业，国家级协会有全国医药技术市场协会、中国医药设备工程协会、中国医药包装协会，知名展会有中国国际医疗器械博览会、世界大健康博览会、中国国际医疗健康产业博览会；', '先进材料产业链：主要涉及无机非金属材料、特色金属材料、高性能纤维及复合材料行业，国家级协会有中国金属材料流通协会、中国复合材料工业协会、中国耐火材料行业协会，知名展会有中国环博会、深圳国际高分子新材料新装备博览会、成都建筑及装饰材料博览会。', '推动会展与产业融合发展。深入对接关键产业链链长制，大力发展产业会展，为集成电路、高端装备、食品加工、高端化工等11个关键产业链提供低成本、高效率、专题性、精准化的经贸交流投资平台。推行“一链一展”，通过精准式策划、定向性邀请、竞争性展示等手段，充分发挥会展业在维护和发展产业链过程中的促进作用。鼓励有条件的县（市、区），依托本地产业优势，建立“一产一会”“一县一展”的办会办展模式，以产业论坛、节庆活动、展览会为抓手，将优势产业与会展业有机结合，为产业发展提供平台，进而推动县（市、区）优势产业升级与高质量发展。', '发挥会展促消费作用。依托会展服务业属性及功能优势，促进展览、会议、节庆、旅游、赛事、演艺等多种业态融合发展。鼓励举办教育、家政、汽车、房地产、智能家居等展会，拉动居民消费。把握行业新趋势和发掘消费新亮点，创新会展项目供给，扩大品质消费，探索举办智慧生活展、房车露营展、阳光康养展、科技产品展等创新型展会。', '提升重点在建场馆的数字化水平。鼓励在德州天衢博览广场、乐陵市会展中心等新场馆规划建设中，融入数字赋能要素，结合会展业数字化发展趋势，打造高起点、高水准的现代化展览馆，使之成为我市数字城市建设的示范点、智慧城市的展示窗口和体现未来生产与生活的智慧化、沉浸式体验场景。', '推动数字化技术在会展中的应用。引导会展企业加强云计算、大数据、人工智能、物联网、移动互联、区块链、全息投影、VR等技术在会展中的应用，培育新会展经济增长点，发展新兴会展业态。推进会展平台与电商平台融合发展，为优势产业、特色产业建立线上线下相协同的数字营销体系。鼓励会展市场主体通过直播、VR等技术化手段，将传统的线下会议、展览会等参与人数众多的活动场景转移至线上，搭建虚拟场景，进行实时参与和互动。', '加强数据在会展服务方面的应用与共享。充分用好德州市“数字化转型百强城市”“四星级新型智慧城市建设试点城市”等城市名片。推动智慧会展与智慧城市建设相融合，破除数据壁垒和信息孤岛，实现交通、公安、市场监管、卫健等相关职能部门的信息共享和对展会展位布置、人群分布、配套需求的动态监测，加强会展政务服务建设。', '践行绿色发展理念。落实“碳达峰、碳中和”目标，鼓励组织者在会展活动全生命周期中实施经济可行的环保减排措施。鼓励会展业与环保产业交流、合作以及融合发展，加快推进绿色会展技术创新与应用体系的建立。落实《国务院关于支持山东深化新旧动能转换推动绿色低碳高质量发展的意见》，鼓励以太阳谷微排国际会议中心、太阳能德州小镇等场地为中心，大力发展绿色会展，通过新能源、新技术的使用，赋能会展策划、组织和实施全过程，为区域特色产业提供沉浸式低碳、绿色、立体化体验及展示中心。', '推进绿色场馆建设。鼓励新建场馆按照绿色建筑标准设计建设，现有场馆实施绿色节能改造；鼓励场馆设施、项目运营、展示设计、展台搭建、仓储物流、垃圾处理等环节应用低碳节能环保技术及可循环利用材料；鼓励会展设计、组展、搭建、场馆等企业利用新工艺新技术，加快实现设计简约化、构建模块化、材料低碳化。', '强化会展业相关部门工作职责，全面、科学统筹我市会展经济发展，建立全市会展业发展联席会议制度，加强对场馆布局、政策扶持、重点会展活动引进的统筹协调，进一步统一思想、明确任务，落实联动发展计划。推动各县（市、区）、各有关部门将会展业发展纳入高质量发展重要内容，建立联络员制度，安排专人负责，强化评估督导，协调解决跨部门、跨区域问题，保障规划有序实施。', '研究制定我市关于促进会展业高质量发展的意见，对符合德州产业发展导向且对产业发展具有显著推动作用、具有重大影响力的会展项目，进行重点扶持。坚持市场化产业发展理念，创新“财政引导+市场筹措”的产业投入模式，用市场发展红利吸引会展龙头企业集聚我市，建立平等参与、竞争有序的市场机制。', '发挥政府在战略、规划、政策及会展行业标准上的引导作用，加强对公共安全、知识产权、产品质量、宣传推广等方面的监管，建立起涵盖展览安全保障、交通组织、柔性执法、氛围营造、宣传营销、医疗救援、食品卫生、能源保障、展品通关等的公共服务体系。', '充分利用我市各项人才政策，借助人力资源服务交流合作平台，积极引进高层次会展人才。鼓励我市会展企业组织员工参加高水平专业培训，提高我市会展从业人员专业化水平。鼓励在德高校开设商务策划、会展策划、会展设计等相关专业或课程，为我市会展产业发展提供持续人才支撑。', '成立会展行业协会，搭建政府与会展企业间的桥梁，充分利用协会资源，开展会展业发展调查研究和政策宣传，协助政府引导会展业健康发展，扶持我市会展企业做大做强。加强与国际展览业协会（UFI）、国际大会及会议协会（ICCA）等知名会展组织的交流，积极参加由国际和国家会展行业协会、优势产业协会举办的年会、论坛等，展示我市优势产业、会展设施和营商环境，邀请境内外知名会展企业来德州参观考察，借助行业主流媒体及新兴媒体进行多渠道、全方位宣传，提升我市招展引会的吸引力。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>141</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>朱开国主持召开市政府常务会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860896/c83749612/content.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['（记者王志冕）9月11日，市委副书记、市长朱开国主持召开市政府常务会议，传达学习习近平总书记在黑龙江考察时、在新时代推动东北全面振兴座谈会上的重要讲话精神，研究现代水网示范区建设、涉企行政检查、企业分级分类监管等工作。', '会议强调，各级各部门要深入贯彻落实习近平总书记重要讲话精神，以科技创新引领产业全面振兴，推动传统产业转型升级，引导发展战略性新兴产业和未来产业，努力实现高质量发展。要大力发展乡村优势特色产业，创新农业经营方式，加快推进农业农村现代化。要整合文旅资源，培育多元业态，大力发展特色文化旅游。要树立正确的政绩观，积极打造法治化营商环境。', '会议要求，要以现代水网示范区建设为抓手，大力实施“水网+”行动，加快构建“三通六带”现代水网体系，推进水资源、水安全、水生态、水环境、水文化、水经济融合发展，全面提高水资源综合利用效益。', '会议要求，要推行企业分级分类监管，规范涉企行政检查行为，积极推进联合检查，优化执法服务，提高执法效能，最大限度减少对企业的干扰，进一步优化营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>141</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>德州市党政代表团赴北京市朝阳区考察交流</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860896/c84648649/content.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['（记者王贺）10月23日，市委书记田卫东率市党政代表团赴北京市朝阳区考察对接，推进两地深化合作事宜。朝阳区委书记文献，区委常委、统战部部长李国红，区委常委、常务副区长、北京商务中心区党工委书记聂杰英，德州市领导宿胜、赵学坤、陈海明参加有关活动。', '北京市朝阳区素有“中国涉外第一区”的美誉，集聚了几乎全部外国驻华使馆以及北京市70%的跨国公司地区总部、80%的国际组织和国际商会。位于该区的北京商务中心区在世界商务中心区吸引力指数排名位居全球第7、亚洲第2、全国第1。代表团来到北京商务中心区管委会招商服务中心，实地察看服务中心设置情况，深入了解北京商务中心区招商服务工作。', '当天，朝阳区人民政府与德州市人民政府签署战略合作框架协议，北京商务中心区管委会与德州天衢新区管委会签署战略合作框架协议。北京商务中心区与德州天衢新区作为两地最重要的产业功能区，将通过打造“生产飞地+”模式，促进金融、商务、科技等领域资源共享，加快创新链、产业链、资金链、人才链深度融合。', '文献在座谈会上讲话。他说，近年来德州市抢抓京津冀协同发展等战略机遇，经济社会各项事业不断取得新成绩。朝阳区与德州市在功能定位、发展格局等方面既有共同点，也存在互补性，合作空间广阔。希望两地更加深入落实京津冀协同发展战略，围绕商务和科技等方面持续推进产业协作，加强消费市场供需对接，推动两地文化旅游深入合作，强化人才交流与合作，促进两地人才合理流动、优势互补，以务实合作共谋发展新篇章。', '田卫东表示，近年来，朝阳区立足当好首都“两区”建设排头兵，深入实施高质量发展、高品质生活“双五”工程，着力打造首都高质量发展示范区、文化创新引领区、国际交往中心区、绿色宜居标杆区，高质量发展的蓬勃之势、朝阳区干部群众追求卓越的精神气质，让我们由衷钦佩、深受鼓舞。德州市要学习朝阳区谋篇布局的高点站位、争创一流的精神状态、改革创新的胆识气魄、敬业奉献的工作作风。我们将深入服务融入京津冀协同发展战略，努力借势借力发展。希望进一步深化与朝阳区对接合作，在产业协作、科技成果转化、优质农产品供应、人力资源输送、人才交流、对外开放上取得更多合作成果，推动两地全面协同发展。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>141</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>德州市政府第次市政府常务会议德州重庆秀山万水千山情不断携手共赴富裕路</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392144/n84218373/c84485161/content.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['【德州市政府第35次市政府常务会议】德州·重庆秀山：万水千山情不断 携手共赴富裕路', '鲁渝协作是党中央交给山东和重庆的重要使命，也是两省市加强交流、扩大合作、共谋发展的重要平台。', '2011年，鲁渝协作将德州、秀山两座相隔万水千山的城市，紧紧地联系在了一起。12年来，德州坚决贯彻东西部协作战略部署，从黄河下游到武陵山腹地，跨越千山万水、心系千家万户，聚焦秀山所需、德州所能，通过资金支持、项目援助、人才培养、消费帮扶等方式，为秀山经济社会高质量发展作出了重要贡献，谱写了“东部援西部、先富带后富、推动共同富裕”的生动篇章。', '去年7月，德州市委副书记、市长朱开国率党政代表团到秀山对接东西协作工作，拓展深化两地交流合作。召开联席会，畅叙友情，共谋发展大计。', '朱开国一行在秀山县委主要领导的陪同下，先后到兴隆坳农业园区、电子商务产业园考察调研。在随后召开的工作联席会中，双方分别介绍了两地经济社会发展情况和东西部协作工作开展情况。德州市政府、慈善总会给秀山县捐赠援助资金3140万元。在秀山期间，朱开国还召开了德州协作秀山干部人才工作座谈会。朱开国对援秀干部人才的付出表示充分肯定并向大家致以诚挚慰问。他强调，希望大家倍加珍惜协作机会，发扬爱岗敬业、甘于奉献、善于攻坚的好传统，发挥自身优势和专业能力，用心用情做好工作。德州市各有关部门单位要做好服务保障，不断提升东西部协作工作成效和水平。', '6月初，秀山县委主要领导率队赴德州对接东西部协作工作，先后对德城区“交邮快”智慧物流示范园区等多家单位展开实地考察，深入了解当地在物流建设、产业发展、企业创新等方面的经验做法。双方就下一步东西部协作工作，进行了深入交流。', '类似互访，在德州、秀山已成常态。两地党政主要负责人高度重视，专题研究，率先垂范。市区县、部门、街镇乡主动对接，积极行动。德州所辖11个县（市、区）分别结对帮扶秀山的一个乡镇，每县（市、区）则选择一个经济实力较强的镇结对帮扶秀山一个村。目前，两地已结成帮扶对子66对。共同谋划、共同推进、共同落实的协作机制不断完善，产业、劳务、人才、消费等协作领域不断拓展，多层次、多形式、全方位的东西部协作新格局全面形成。', '历经一年的建设，位于官庄街道的秀山鲁渝协作现代高效蔬菜产业示范园（一期）即将投用。', '这座产业示范园占地400余亩，是秀山去年重点推进的建设项目，包括蔬菜种植示范区、蔬菜分拣包装区、蔬菜瓜果采摘区、新品种试验示范区、智能化蔬菜种苗繁育馆、数字农业立体栽培科技馆、新型农民培训中心等“四区两馆一中心”。其中，一期投资2000万元，建设智能化蔬菜种苗繁育馆、蔬菜种植示范区、蔬菜分拣包装区、蔬菜瓜果采摘区及配套设施。', '产业协作是东西部协作的重中之重。打造东西部协作的“鲁渝样板”，关键是要紧紧牵住产业协作这个“牛鼻子”。', '协作中，德州、秀山高起点擘画，共谋蔬菜产业智能化，将农耕文化与生态文明和高科技智慧农业发展相融合，把蔬菜种植、加工、采摘、观赏、体验、培训融为一体，发展智慧农业，打造秀山县蔬菜产业特色化示范基地。重点扩展蔬菜种植示范基地1500亩，年产有机绿色果蔬2100吨，带动周边村民年均增收6万—8万元，解决300人以上农户就近就业。', '秀山鲁渝协作现代高效蔬菜产业示范园是德州、秀山紧密合作，共同做大产业“蛋糕”的缩影。近年来，山东省、德州市共向秀山投入东西部协作财政援助资金2.8亿元，援建项目240多个，涉及种植养殖、加工、乡村旅游、基础设施等。', '围绕做大做强秀山现代山地特色高效农业，撬动4亿元帮扶建设国家农业园区，集中连片发展基地1.5万亩，年实现经济效益7000万元，带动群众5900多人，年人均增收1.2万元。', '帮扶建设“武陵药都”，实现中药材就地杀青、烘干，附加值增加20%以上。帮扶建设油茶加工中心，年加工干茶籽3000吨，产茶油600吨，直接服务油茶基地5万亩。帮扶建设柑橘加工仓储中心，带动渝湘边区20余个乡镇10万余户果农发展柑橘产业。', '同时，扎实开展消费帮扶，在德州各大超市、批发市场搭建秀山农特产品销售专柜。组织秀山企业参加德州市第二届“德州味”优质农产品展销峰会，并专门设立“鲁渝协作 德秀情深”展区。近年来，双方实现消费协作金额1.6亿元。', '人才，是发展的基石。德州、秀山把人才作为联系两地的桥梁，互派互学互鉴，以“组团式”协作，全覆盖医疗、教育、农业各领域，将东部成效推广并留在秀山，实现普惠民生、共享发展成果，累计选派各类专业技术人才354人次。', '2022年6月底，山东大学齐鲁医院德州医院影像科主治医师张欢作为山东省第六批赴秀山“组团式”对口帮扶医疗队队长，带队到秀山投入到援渝医疗工作中。', '初到秀山，在秀山县中医院挂职的张欢生活环境发生了较大转变。他在最短时间内调整好了身心状态投入工作，开始规范医院在胸腹部CT扫描呼吸控制、改善增强CT动脉期时相控制、优化造影剂高压注射速率等扫描技术方面的问题，并推广规范书写报告语句，建立了疑难病例讨论及随访制度。', '张欢主导的规范化工作开展后，秀山中医院影像图像质量明显提高，报告水平也在持续进步，精准检出了颅咽管瘤、胆汁瘤、脂肪肉瘤等疑难病例。出色的业绩，让张欢被任命为科室挂职主任，带领秀山本土医务人员更好地为患者服务。', '张欢是众多来自德州的医疗帮扶人才之一。和他一起来自德州的支医队伍，共接诊患者6000余人次，开展手术800余台，临床教学750余次，义诊30余次、服务群众5000余人。心脏介入术、鼻泪道再通术等技术，填补了医疗空白，群众逐步实现“大病不出县”。秀山区域医疗辐射能力的不断提升，还吸引到周边湖南、贵州等地患者纷至沓来。', '同时，来自德州的支教教师将先进教学理念引入秀山学子的课堂，指导当地教学、教研、管理水平迅速提升。支教老师李国辉将夏津县“武韵新风”武术操引入莲花小学，实施体教融合，做到既让学生强身健体，又传承“武术精神”和弘扬中华传统文化。支农专家深入秀山田间地头、项目一线，指导产业发展。《“铁打的组长”——德州农艺师张斌》先进事迹在《重庆日报》刊登。德州援秀干部祁玉方《一个“老扶贫人”的“东西部协作情”》先进事迹在山东电视台《东西有约》栏目刊播。近年来，通过东西部协作，累计培训秀山党政干部1245人次、专业技术人员3962人次，人才本土化效应凸显。', '2月10日，首批71名秀山籍劳务人员满怀憧憬地乘上专车，从秀山赶赴山东就业。这是今年首批有组织规模化转移就业的赴鲁赴德务工人员，也是鲁渝劳务协作的第一份“成绩单”。', '为推动鲁渝劳务协作走深走实，德州、秀山人社部门早谋划、早对接、早行动。此次赴鲁务工的71人，都是在“德州市·秀山县2023年鲁渝劳务协作专场招聘会”上达成就业意向和返鲁务工者。为确保本次就业工作顺利开展，两地人社部门前期经过了多次沟通对接、细致安排，最后以组织专车的形式，将秀山务工人员点对点接送至务工企业。', '秀山务工人员抵达德州后，当地人社部门相关负责人陪同他们前往接收企业庆云和美食品有限公司、山东泰山瑞豹复合材料有限公司，还专门为远道而来的秀山乡亲举办隆重的欢迎仪式，详细了解他们的需求情况，解答他们在工作和生活上关心的问题，并送上棉被、床垫、床上用品、电饭煲等“开工大礼包”，帮助他们安心工作。', '就业是最大的民生。协作中，德州、秀山扎实推进培训就业一体化，通过培训、劳务直接转移、当地吸纳等方式实现和就业的无缝衔接。每年安排专项培训资金，累计培训育婴、养老、“非遗技艺”等1100多人。支持援建一批就业帮扶车间，促进就地就近就业。每年在秀山举办劳务协作专场招聘，通过劳务转移、工厂直招、“点对点”接送等方式，帮助一大批农村劳动力在“家门口”实现就业，有些甚至到山东等沿海地区高质量就业。', '突出山东经验粘贴性，打造鲁渝协作乡村振兴示范村。秀山县洪安镇贵措社区学习借鉴山东省村党支部领办合作社的创新实践经验，建立“合作社+党员干部/大户+农户”的模式，发展脐橙产业3500亩，年综合产值3000余万元。', '突出打造平台双向性，创新建设“鲁渝协作德州馆”。重点搭建“一窗口五平台”，即德州在秀山的城市品牌展示窗口和人文交流平台、产业协作平台、企业对接平台、产品展销平台、文旅共享平台，让该馆成为鲁渝（德秀）协作的新名片、新阵地。', '突出非遗传承性，变文化资源为产业优势、致富渠道。注重发展以土家织锦非遗工坊为代表的传统工艺产业，助力当地深度挖掘整理土家织锦传统图纹400多种，培养非遗文化、手工技艺人才近400人，每位“织娘”平均月薪2000元—4000元。帮助320名签约织娘灵活就业、实现增收260余万元，受益家庭人口1200余人。', '突出群众参与积极主动性，加强和改进乡村治理。投入协作资金197.5万元，在227个村（社区）推行乡村治理“积分制”，占全县总村数的84.7%，以小投入提升群众参与乡村治理的积极主动性，加强和促进社会和谐。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>141</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>德州市深化融入京津冀协同发展专场新闻发布会</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c85766755/content.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['出席：市委常委、常务副市长宿胜，市深化融入京津冀协同发展领导小组办公室副主任，市发展改革委党组书记、主任刘泽华，市投资促进局党组书记、局长王磊，市农业农村局党组成员、副局长、新闻发言人赵光涛，市商务局党组成员、副局长、新闻发言人魏立路', '今天，我们举行德州市深化融入京津冀协同发展专场新闻发布会，非常荣幸地邀请到市委常委、常务副市长宿胜先生，市深化融入京津冀协同发展领导小组办公室副主任，市发展改革委党组书记、主任刘泽华先生，市投资促进局党组书记、局长王磊先生，市农业农村局党组成员、副局长、新闻发言人赵光涛先生，市商务局党组成员、副局长、新闻发言人魏立路先生出席，向大家介绍2023年全市深化融入京津冀协同发展工作总体进展情况，并回答记者提问。', '大家好！首先，向一直以来关注和支持德州市深化融入京津冀协同发展工作的新闻界朋友们，表示衷心的感谢！下面，我就今年以来全市深化融入京津冀协同发展工作总体情况作简要介绍。', '今年5月，习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时强调：实践证明，党中央关于京津冀等重大区域发展战略是符合我国新时代高质量发展需要的，是推进中国式现代化建设的有效途径，要努力使京津冀成为中国式现代化建设的先行区、示范区。这为我市服务融入京津冀协同发展指明了前进方向、提供了根本遵循。', '德州作为山东省唯一列入京津冀协同发展规划的城市，被赋予“一区四基地”功能定位。今年以来，市深化融入京津冀协同发展职能部门认真落实市委、市政府部署要求，深刻认识和把握“京津冀协同发展需要我们做什么，我们能做什么”，把深化融入京津冀协同发展放在全市推动高质量发展工作大局中来定位、来谋划、来推进，坚持全域对接、全面承接，抓重点、求突破、促深化，构建“（天衢新区）一区引领、（高新区及省级开发区）多点支撑、全域融入”的工作格局，重点在优化工作机制、争取政策支持、承接产业转移、拓展重要平台、集聚科创资源、共享公共服务等方面加力突破。', '二是聚力抓好政策争取落实。持续抓好对上争取，围绕推动我市与京津冀地区实现交通、能源等重要设施互联互通，谋划提出建设鲁西北冀东南区域能源保供中心等8方面落实举措。按照任务清单化、清单项目化、项目责任化要求，将国家部委、省支持政策细化为71条若干措施，分解为127项具体任务，目前已完成49项，正在推进78项。', '三是聚力抓好产业转移承接。抢抓北京第二批央企疏解有利时机，启动对接央企强企、科研院所、院士人才团队百日攻坚行动，扎实推进“一县一区”对接合作。成功举办第八届（夏季）央企投资发展会议暨“融入京津冀 国企德州行”活动，签约项目42个，总投资432.3亿元。积极推进与河北雄安新区、北京市朝阳区等重点地区对接合作。今年以来，新开工京津冀地区过亿元投资项目150个、到位资金109.1亿元，提前完成全年目标任务。', '四是聚力抓好重要平台拓展。天衢新区20平方公里的京津冀协同产业转化基地配套设施不断完善，成功举办2023中国半导体材料产业发展（德州）峰会，打造全国重要集成电路关键材料基地。积极谋划实施黄河、大运河两大国家文化公园牵手工程，统筹沿线文旅、休闲、康养等重要节点和项目，构建“一廊六片”运河文化景观带，打造“两大国家文化公园”集中展示地，加快建设京津冀鲁重要目的地城市。中国（德州）农业食品创新产业园全力打造面向京津冀鲁的中央厨房，德州数字农谷项目建成投用，山东乡村振兴实践研究院成功落户，同福集团一二三产融合等7个项目同步有序推进。', '五是聚力抓好科创资源集聚转化。举办新能源新材料产业精准对接会，签订13项合作协议，达成34项技术合作意向。与京津冀6市签订《京津冀协同区域人力资源发展框架协议》，与京津冀6家知名人力资源服务机构签订落地意向协议，落户3家知名机构。评选产生2021—2022年度德州市“假日专家”262名。《实施“北接南融”专项行动 推进德州特色区域性人才集聚高地建设》荣获2023年全国人才工作创新最佳案例，全省唯一。今年以来，新增京津冀深度合作企业44家，转化京津冀科技成果21项，合作共建京津冀创新平台30个。德州（北京）协同创新中心已吸纳15家科创机构、33个创新项目签约入驻。', '六是抓好医疗教育文旅资源对接。与国家中医药博物馆达成7项合作协议。与北京301医院等30余家京津冀知名医疗机构建立合作关系，实施医疗领域具体合作事项100多项。实现在京津冀就医购药即时联网结算。首次成功举办中国·京津冀鲁体育产业交流大会，率先组建德州·京津冀体育产业协同发展联盟。开展名校“手拉手结对帮扶”等活动，选派15名知名校长和学科带头人赴北京实验学校跟岗学习。组织20余家企业参加第十届北京国际文旅消费博览会，举办“大德之州 两河牵手”德州·齐河文化旅游北京推广活动，与北京市旅游协会、重点旅行社建立合作关系。', '问：2023年我市招引京津冀区域项目情况如何，在积极做好京津冀产业承接工作中，市投资促进局都做了哪些方面的工作？', '感谢记者的提问。根据统计，2023年1—10月份，全市新开工京津冀区域项目150个，同福大健康食品城、蓝田农发冷链物流产业园、酷美健身器材大健康装备制造平台等投资10亿元以上的重大项目开工建设，京津冀招商成果显著。', '一是深入实施“一把手”招商工程，强化高层推动。组织市党政主要领导带队赴京津冀地区开展招商活动9次，与有研科技、中化控股、凯盛科技集团、中国三峡新能源（集团）、三一重能等20多家重点企业面对面洽谈对接，推动大项目、好项目落地合作，见证签约项目7个。各县市区、市直有关部门主要负责人积极“走出去”“请进来”，开展集中招商行动，围绕承接产业转移、招引强企国企、科研院所，务实开展产业招商、委托招商、驻点招商、以商招商，借船出海，借力发力，不断扩大招商成果。', '二是搭建招商活动平台，对接京津冀项目资源。创新“新媒体+招商”，开展“线上”推介。运营微信公众号、政务抖音号，全方位、立体式宣传我市融入京津冀有关政策，推介全市对接京津冀承接载体，展示全市融入成果。组织项目签约活动，开展“线下”对接。9月22日，联合市国资委举办第八届（夏季）央企投资发展会议暨“融入京津冀 国企德州行”活动，邀请91家央企、16家省属国企等300余位嘉宾参加，42个重点项目现场集中签约。', '三是创新多种招商方式，营造浓厚招商氛围。一是创新开展“招商大讲堂”，将党的二十大精神融入招商引资方方面面，培育懂产业、通政策、能干事的过硬招商干部队伍，招引更多京津冀项目。二是创新开展“百企助招商”活动，充分调动银行、国企、券商等社会各方参与招商积极性，联合赴京津冀招商、论证项目、投资服务，提高工作实效。目前，与农行、德州银行、德达集团、金控集团、交投集团等12家国企、金融机构达成战略合作。三是探索项目共享机制。印发《德州市域内联动招商和招商引资项目共享实施细则》，实现有效信息全市共享，助力我市招商引资工作项目共享、利益共享。', '下一步，深化融入京津冀协调发展，实施“突破行动”，与央企投资协会等平台机构建立联合招商机制，与有研、中建材、中化等央企国企拓展合作；以北京朝阳区为突破口，深化战略合作，瞄准高科技企业，探索“生产飞地+”招商模式，进一步推进京津冀区域招商拓面提质。', '问：请问市农业农村局在建设京津冀优质农产品供应基地及中国（德州）农业食品创新产业园方面有哪些重要举措，请简要介绍一下。', '今年以来，市农业农村局在市委、市政府的正确领导下，贯彻落实深化融入京津冀协同发展重大战略，在建设京津冀优质农产品供应基地及中国（德州）农业食品创新产业园方面主要开展了以下工作。', '一是突出稳产保供，打造优质农产品供应基地。大力开展“吨半粮”生产能力建设，累计建成高标准农田772.7万亩，占耕地面积的80%以上，成功入选全国首批整地市级推进高标准农田建设试点。今年128万亩核心区80%以上地块（102.7万亩）达到“吨半粮”产量目标，再次实现“吨半粮”创建年度目标。“三夏”时节，中央广播电视总台连续19次聚焦德州，多频道多栏目高频次播出德州经验。积极培植优势产品和主导产业，大力推进各类农业标准化生产基地和标准化示范场建设。当前全市共培育国家现代农业全产业链标准化示范基地1家，省级农业标准化生产基地33家，省级以上畜禽养殖标准化示范场区165个，蔬菜功能保护区31个，有效期内“三品一标”认证产品达到915个。', '二是打造“食品名市”，推进中国（德州）农业食品创新产业园建设。持续推进园区基础设施建设，目前已完成数字农谷项目和起步区“四纵两横”道路及管网建设。同福集团一二三产融合项目、航天全豆豆浆项目、中国—白俄罗斯液体无菌包装项目、中核辐照项目等4个产业项目签约落地；京东冷链物流项目、江南大学技术转移中心德州分中心、青岛农业大学农产品深加工与安全现代产业学院项目均已成功签约。成功举办中国（德州）“食品名市”建设推介会，邀请农业食品领域头部企业、院士专家和省以上主流媒体共计300余人到场参会。推动农产品质量和品牌建设，主要农产品监测合格率稳定在98%以上，区域农产品公用品牌“德州味”已完成4批授权企业认证，总数达到103家。', '三是加强交流对接，推动我市农业向好向快发展。加强与上级部门技术交流，农业农村部、全国农技中心、中国农业科学院等部门有关专家领导多次来我市针对农业生产进行调研指导。黄淮海小麦玉米“吨半粮”技术集成示范基地等一批产学研平台相继在我市挂牌成立。加强与雄安新区对接交流，充分利用农业农村部在答复全国人大代表建议中“鼓励德州市和雄安新区加强合作”的宝贵机遇，与雄安新区加强农产品加工、人才交流、冷链物流等方面的合作。组织“德州味”品牌授权企业参加在雄安新区开幕的“2023京津冀品牌农业嘉年华”，切实提升我市品牌的市场知名度。', '下一步，全市农业农村系统将紧扣深化融入京津冀协同发展战略，不断提升农产品综合生产能力、市场竞争能力和可持续发展能力，全力推动优质农产品供应基地更高质量发展。', '今年以来，市商务局全面深化融入京津冀协同发展，积极对接朝阳区商务局，建立我市与朝阳区政府合作机制，拓宽合作领域，取得显著成效。', '一是精准对接跨国公司。走访京津地区世界500强企业，知名跨国公司和行业龙头企业区域总部，举办了德州—跨国公司恳谈交流会、跨国公司德州行等重大经贸投促活动，多次赴北京对接跨国公司，推动跨国公司与我市产业合作，吸引北京需外迁的外资企业来我市投资，实现互利共赢。', '二是积极推动优质农产品输送京津冀。立足德州市“京津冀优质农产品供应基地”功能定位，举办了2023金秋双节直播季·德州市对接京津冀优质农产品博览会等活动，推动我市商贸流通企业在北京市大型商超、农批市场设立德州优质农产品专卖店或专柜，积极畅通农产品供应渠道，加快打造京津冀地区有影响力的“米袋子”“菜篮子”“果盘子”。', '三是组织开展面向京津冀促消费活动。以打造区域消费中心城市为契机，先后组织举办了中国（德州）美食峰会、2023年中国（山东）家电零售创新峰会、天衢不夜城消费节、首届大运河音乐节、广电车展、新能源汽车下乡巡展等系列丰富多彩的促消费活动，不仅惠及本地居民，也吸引了很多京津冀地区企业和居民参加活动。', '四是大力发展家政服务业。围绕京津地区家政服务需求，我市充分发挥劳动力资源丰富的优势，在家政标准化建设、星级评定、优化服务等方面加大工作力度，向京津市场输送了大批家政服务人员，增加了我市家政企业营业收入。', '下一步，市商务局将加快落实双方签署的战略合作框架协议，深化与朝阳区商务局对接合作，力争在我市打造上市公司总部经济的生产制造基地、商务活动互融互通、农产品供应京津、两地市场主体对接交流等方面取得显著成效，积极助力我市融入京津冀协同发展。', '请问，今年以来，我市在加强同京津冀重点区域交流合作方面取得了哪些新进展，请介绍一下有关情况。', '今年以来，我市主动加强与京津冀重点地区的交流合作，先后与雄安新区、北京市朝阳区建立战略合作关系，京津冀地区“朋友圈”不断扩大，合作领域持续拓展，互利共赢的基础更加坚实。', '服务雄安新区建设发展是德州对接融入京津冀协同发展大局的重大政治任务。4月14日，市委书记田卫东，市委副书记、市长朱开国带领市党政考察团赴河北省雄安新区进行全面对标学习，深入对接服务合作事宜。期间，雄安新区改革发展局与德州市发改委、德州天衢新区管委会签署合作备忘录，两地重点从服务雄安新区建设、农业全产业链供应、人力资源交流、产业协作等9个领域、29个方面深化交流合作，共同推动高质量发展。目前，我们已建立起常态化工作推进机制，取得了一些阶段性成果。推动德州优质农产品进雄安，组织20余家企业参加“德州味·润雄安”进机关、进展会活动。加强人力资源交流，邀请雄安新区来德参加京津冀鲁（德州）人力资源服务高峰论坛暨省会经济圈人力资源一体化发展推进会，签订“京津冀协同区域人力资源发展框架协议”，开展各类人力资源交流对接活动14次，促成引才用工980人次。深化产业协作，在雄安新区举办“雄安—德州友好商会恳谈会”，20多家两地企业代表参会，4家企业达成合作意向。', '与北京市朝阳区建立战略合作关系是德州深化融入京津冀协同发展的又一重要举措。10月23日，市委书记田卫东率市党政代表团赴朝阳区考察对接，推进两地深化合作事宜。朝阳区人民政府与德州市人民政府签署战略合作框架协议，确定在产业协作、科技成果转化、优质农产品供应、人力资源输送和人才交流等11个方面深化合作，推动两地全面协同发展；北京商务中心区管委会与德州天衢新区管委会签署战略合作框架协议，北京商务中心区与德州天衢新区作为两地重要的产业功能区，将加快创新链、产业链、资金链、人才链深度融合，促进金融、商务、科技等领域资源共享。我市还与中关村朝阳园在产业转移承接合作方面进行了深度交流，初步确定以“政府引导+工业飞地”模式开展合作。目前，在市深化融入京津冀协同发展领导小组办公室统筹协调下，市直有关部门正在按照职责分工，加快推动德州优质农产品进朝阳、加强与朝阳区旅游开发合作、加大中关村朝阳园有外迁意向高端企业项目的招引力度等13项重点工作，争取尽快取得实质性合作成果。', '下一步，我们将持续深化对接交流，全力推动合作事项落地落实，携手雄安新区建设京津冀协同联动示范区，对接北京市朝阳区建设环京产业外溢优选地，更好服务和融入京津冀协同发展重大国家战略。', '好的，提问环节到此结束。刚才，几位发布人介绍了2023年德州市深化融入京津冀协同发展的有关情况并回答了记者提问。请各媒体做好宣传报道。如需进一步了解情况，请与市深化融入京津冀协同发展领导小组办公室联系，电话0534-2569902。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>141</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会全面推进乡村振兴专题陵城区专场</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c81889583/content.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“全面推进乡村振兴”专题陵城区专场 - 德州市人民政府', '大家上午好！欢迎参加市政府新闻办新闻发布会。今天我们来到陵城区，举行“全面推进乡村振兴”专题新闻发布会第八场——陵城区专场。我们邀请陵城区政协副主席、区农业农村局局长马峰先生，陵城区委组织部主持日常工作的副部长李赵明先生，市生态环境局陵城分局党组成员、副局长王飞先生，陵城区精神文明指导中心副主任杨洪涛先生，陵城区发改局党组成员、副局长张鑫先生，陵城区农业农村局副科级干部江萍女士出席发布会，向大家介绍陵城区全面推进乡村振兴工作开展情况，并回答记者提问。', '大家好，首先我代表陵城区人民政府对参加本次新闻发布会的各位记者朋友们表示热烈的欢迎和衷心的感谢！', '农为邦本，本固邦宁。民族要复兴，乡村必振兴。无论是筹划中国千年发展大计，还是应对世界百年未有之变局，都必须稳住农业基本盘、守好“三农”“压舱石”，答好乡村振兴这道“必答题”。近年来，陵城区以习近平新时代中国特色社会主义思想为指导，紧紧围绕农业提效、农民增收和农村发展工作目标，攻坚克难、勇毅前行，全力推进乡村振兴开新局，全区农业农村工作呈现稳定向好的发展态势。', '产业振兴方面。一是扛牢粮食安全重大责任，建设“吨半粮”创建先行区。开展张榜揭榜，实施“十大工程”，在全市超额完成“吨半”任务，“吨半粮”创建工作获得全国人大常委会副委员长艾力更.依明巴海的批示，农民日报、山东新闻联播等媒体先后进行报道。今年，经吨半粮核心区实打测产，小麦亩产平均达到664.6公斤/亩。二是聚焦食品名区创建，大力推进农产品加工业发展。全区现有规模以上农产品加工企业达152家，农业产业化龙头企业17家，其中，国家级龙头企业1家，省级龙头企业3家，市级龙头企业13家；建设市级现代农业产业园4个，农业“新六产”示范主体5个，承担国家产业强镇项目镇1个和省级产业强镇项目镇2个；依托谷神集团，补强大豆深加工产业链，打造国家级大豆优势特色产业集群。加快康融净菜、东方卤肉等预制菜项目建设。三是争取政策项目，提升现代农业发展水平。国家级制种大县小麦新品种展示评价观摩会议、中国农服平台年度云上交流会相继在陵召开；省级现代农业产业园项目、高标准农田建设等重点项目先后落地陵城，糜镇示范区获批创建第二批乡村振兴齐鲁样板省级示范区。依托国家制种大县项目和国家沿黄小麦优势特色产业集群项目，打造商业化育种创新基地和研发中心，农业发展质量有效提升。', '文化振兴方面。一是深化文明实践，开展志愿服务。建成区级新时代文明实践中心1处，镇级新时代文明实践所13个，建成28个示范站、23个示范基地；完善“1+3+18+N”志愿服务体系，打造“义满陵城”服务品牌，共注册志愿者82535人、志愿团队2561支。二是深化移风易俗，倡树文明新风。持续推进“四德工程”建设，开展“文明家庭”“好婆婆”“好媳妇”等先进典型评选；细化文明村镇创建标准，共创建文明村609个，覆盖率达90%；“反对浪费、文明办事”纳入村（居）规民约率100%。三是深化文化惠民，丰富农民生活。推进“一村一年一场戏”演出活动，组织开展党的二十大主题阅读等系列活动2000余场次；开展优秀传统文化惠民活动，创建乡村文化建设样板镇（街道）、村（社区）；开展农村公益电影放映，实现全区678个行政村（社区）“一村一月一场”电影标准化、全覆盖放映。', '生态振兴方面。一是高效实施农村人居环境综合整治行动。扎实推进农村改厕“再提升”行动，解决冬天保温防冻和冲洗不彻底问题；动态巡查56户农户纳入危房改造计划，保障人民群众住房安全；累计完成416个行政村的农村生活污水治理，正在有序开展20个行政村的农村生活污水治理；深入开展国土绿化，全区造林面积4987.1亩。二是广泛开展农村基础设施建设全域提升行动。抓好“四好农村路”建设，提升农村公路安全通行水平，开展美丽乡村“三级联创”，累计建设省级美丽乡村14个，市级美丽乡村10个，区级美丽乡村39个。三是扎实推进河湖高质量建设行动。建设美丽幸福河湖105条（段），扎实开展笃马河、马颊河故道2条（段）数字河湖建设，“鬲津湖”效益河湖已通过水利部河湖世界网站宣传推广，积极推进河湖长巡河履职，协调解决河湖问题73处。', '组织振兴方面。一是实施村党组织“跨村联建”全域攻坚行动。召开全区基层党建重点任务推进会，推动联合体建设实现政策、资源、力量下沉，举办网红协会成立暨首届农村党建联合体电商文化节启动仪式，线上交易额达24.2万元。二是实施“百村示范、千村共富”集体经济倍增行动。持续深化“三类地”开发利用，推动流转土地59.35万亩，清理闲散废弃地1.28万亩，规划建设糜镇、京渤陆港“飞地”产业园2个，建设“共富工坊”34家，带动就业1600余人。三是实施村党组织规范提升行动。开展村党组织分类推进整体提升三年行动计划，扎实做好村庄深度融合“后半篇”文章，确定试点村30个。四是实施村党组织带头人队伍素质提升行动。抓实农村基层干部乡村振兴主题培训，举办村（社区）党组织书记直播电商培训班，持续开展“阳光报告会”678场次。', '人才振兴方面。一是抓实政策保障，激发创新创业活力。重新制定我区人才政策，进一步完善乡村振兴人才交流服务机制，举行京德人才创享交流会陵城专场，共回引超过400名“五类人员”返乡创办企业，带动就业超过1500人。二是丰富活动载体，强化智力集聚效能。与中科院进行精准对接，开展产学研合作，与德州人才发展集团达成合作协议5项；引进大学生人才超过300名，入选山东省“百名乡村好青年”2名；开展“匠心传承，帮扶带动”行动，以“空中课堂”+现场教学方式开展农科技术培训，参与人数超3000人次；6月9日，中央农业广播电视学校乡村振兴产学研基地在陵城揭牌落地。三是强化宣传推介，营造良好留才环境。开展“人才政策进企业”宣讲及上门送政策活动，组织线上招聘会7次，协助达成就业意向3000余人次。', '“双镇百村”建设方面。以“双镇百村”建设重点突破年为指引，结合中心镇聚而全、特色镇特而精、中心村辐射周边的功能定位，高标准编制中心镇规划方案，统筹规划人口集聚、产业集群、城镇功能完善、基础设施配套等，不断提高县域次中心承载力、影响力。4月，糜镇成功入选省级小城镇创新提升试点镇之县域次中心镇。锚定建设国际垂钓基地目标，彰显乡镇特色。4月28日，全国钓鱼明星赛（山东德州）达人挑战赛在丁庄镇大薜庄举行，吸引全国210名钓鱼明星、30余支战队参赛，中央电视台等媒体进行重点报道。“五一”期间，丁庄特色景点客流量达到5000人次/天。坚持“一村一品”，形成10个辐射带动周边的产业强村、环境优良村、省（市）级文明村，截止5月底，全区10个中心村实现集体增收近300万元。', '农业强不强、农村美不美、农民富不富决定着全面小康社会的成色和社会主义现代化的质量。强国必先强农，农强方能国强。下一步，我们将立足陵城实际，加快建设农业强区，全面推进乡村振兴战略，扎实做好“三农”工作，谱写陵城农业农村现代化发展新篇章，为打造乡村振兴齐鲁样板作出陵城贡献！', '首先，我代表陵城区乡村生态振兴工作专班对大家长期以来给予乡村生态振兴工作的关心和支持表示衷心感谢！下面，我向大家简要介绍一下近年来我区乡村生态振兴工作情况。', '改善农村人居环境是普惠的民生福祉，良好生态环境是农村最大优势和宝贵财富。近年来，乡村生态振兴工作专班认真贯彻中央、省、市和区委、区政府部署要求，围绕“改善农村人居环境”、“提升农村基础设施建设”、“推动农业农村绿色发展”持续发力，着力解决环境突出问题，乡村生态振兴取得阶段性成果。', '农村垃圾治理扎实推进。2022年以来，更换2万余个垃圾桶、补齐垃圾挂桶车25辆。垃圾分类取得阶段性成效，2个乡镇所辖52个村庄的生活垃圾分类全覆盖。压茬推进农村生活污水和黑臭水体治理，截止2022年底，累计完成416个行政村的农村生活污水治理、24处农村黑臭水体整治，2023年，正有序开展20个行政村的农村生活污水治理和8处农村黑臭水体“清零”整治。巩固提升“厕所革命”成果，2022年，排查6.2万户农村改厕户，整改问题厕所784户。开展农村美丽幸福河湖建设，截止2022年底，建成省市级美丽幸福示范河湖8条、全域美丽河湖达标建设122条。开展美丽乡村创建，截止2022年底，全区累计建成“美丽庭院”1.83万户，占比44.08%。', '农业清洁生产成效显著，农药使用实现负增长，2022年农药使用量较2020年下降6.8%；测土配方施肥技术使用面积逐年增加，2022年应用面积较2020年增加0.8万亩；农业废弃物资源化利用稳步提升，全区粪污综合利用率稳定在90以上，秸秆综合利用率达到96%以上。', '下一步，我们将继续深入学习贯彻党的二十大精神，聚焦改善农村人居环境总体目标，着力推动农村绿色生态环境转型，实现生态文明与乡村振兴有机融合。', '一是搞好结合，协调推进。依托乡村生态振兴专班，建立健全协调推动机制，及时化解工作中存在的问题，巩固提升乡村生态振兴成效。', '二是突出重点，夯实责任。统筹推进垃圾、旱厕和污水等人居环境整治，持续加强基础设施建设，完善配套功能，推进美丽村庄、生态河湖和农业绿色发展，构建绿色、循环、低碳的生态发展模式。', '三是督导帮扶、强化保障。强化督导考核“指挥棒”作用，加强对各项重点任务的督查调度，确保落实落细、落地见效，共同推动全区乡村生态振兴工作迈上新台阶。', '大家上午好！首先，我代表区委宣传部，向一直以来关心和支持乡村文化振兴工作的社会各界朋友们表示衷心的感谢，对大家的到来表示欢迎!文化振兴是实施乡村振兴的重要内容和力量源泉，乡风文明是乡村振兴的重要目标。下面，我向大家介绍一下陵城区乡村文化振兴方面的有关情况：', '一是深化文明实践。在新时代文明实践中心建设方面，抓阵地建设，打造文明实践“新高地”。按照“有场所、有队伍、有制度、有标识、有活动”的五有标准，建成区级新时代文明实践中心1处，镇级新时代文明实践所13个，村庄（社区）新时代文明实践站690个，覆盖率达到100%。整合综合文化站、爱国主义教育基地等阵地资源，建成28个示范站、23个示范基地。抓队伍建设，奏响文明实践“合奏曲”。完善“1+3+18+N”志愿服务体系，打造“义满陵城”服务品牌。目前我区已有注册志愿者82535人、志愿团队2561支，开展志愿服务活动4万余次，累计活动时长84万余小时。抓活动开展，构建文明实践“同心圆”。依托新时代文明实践中心、所、站共累计开展理论政策宣讲、百姓宣讲1300余场次，开展倡树美德健康生活方式活动2500余场，扶贫助困活动1200余场，各类文化活动400余场。抓项目建设，焕发文明实践“新活力”。围绕教育、文化、科技、医疗、法律等领域，特别聚焦空巢老人、留守妇女儿童以及特殊群体，打造接地气、聚人气的志愿服务项目。目前，已建立志愿服务项目库，收录志愿服务项目90余个。在深化文明实践志愿服务方面。深入开展“五为”志愿服务，今年3月组织各乡镇、区直相关部门业务骨干到青岛市志愿服务学院开展“五为”志愿服务专题培训，聚焦“五为”设计推出了“爱心妈妈·孤贫儿童心理关爱”、“与爱童行”关爱未成年人、“银辉暖暖”敬老爱老、“春雨”家校共建等6个特色品牌。', '二是深化移风易俗。在乡村文明行动及文明村镇创建方面。抓典型选树。持续推进“四德工程”建设，各行政村每季度召开道德评议会，评选本村“四德模范”上榜人员。2月份，陵城区各乡镇（街区）、各村庄（社区）先后开展“文明家庭”“好婆婆”“好媳妇”等先进典型进行评选。抓文明村创建。细化文明村镇创建标准，明确了档案资料、实地考察等工作事项，全面开展环境卫生整治，截至目前，全区有省级文明村17个，市级文明村317个。在倡树婚丧新风方面。召开区级现场会（推进会、专题会）2次，开展区级培训会1场次，镇级培训会26场次，培训红白理事会骨干成员1000人次，发放宣传单7000余份，“反对浪费、文明办事”纳入村（居）规民约百分率为100%，开展移风易俗志愿服务活动38次。', '三是深化文化惠民。在丰富农民文化生活方面，推进“一村一年一场戏”演出活动。目前已完成第一阶段全部演出156场，覆盖全区13个乡镇。积极争取上级专项资金招标648场演出，届时将超额完成全省工作任务。大力开展乡村阅读活动。组织全区农家书屋开展阅读活动，上传山东省农家书屋数字管理平台3000余场次，组织开展党的二十大主题阅读等系列活动2000余场次。成立13支阅读推广志愿服务队伍，招募阅读推广志愿者50余人，开展阅读推广志愿服务活动70场次。开展农村公益电影放映。投资162.72万元，购买农村公益电影8136场，目前已经完成招标，5月6日，召开2023年度陵城区农村公益电影放映员技术培训暨放映工作部署会议，计划11月份完成放映任务，实现全区678个行政村（社区）“一村一月一场”电影标准化、全覆盖放映，覆盖率达100%。擦亮陵城“星期五露天影院”电影品牌，计划放映25场，让全民共享“文化大餐”。在乡土文化遗产保护利用方面。储备非遗项目，打造非遗工坊。围绕非物质文化遗产项目申报工作，指导美东地毯制作技艺、兴华锅巴制作工艺申报备案。督导滋镇、徽王庄镇、边临镇等乡镇挖掘县级非遗资源，组织大于家冯氏手工包制作技艺、富鑫康石磨面粉加工技艺、松树宿丰糕制作技艺、颜真卿扒鸡制作技艺等项目填报《陵城区县级非物质文化遗产代表性项目申报书》，经多次修改提升报上级备案，为打造非遗工坊打下基础。支持非遗传承人开展传承活动。先后开展了非遗剪纸走进前孙镇实验小学、朔公家酒非遗文化传承展示走进神头镇文化站传承教育活动，开展了朔之乡非遗剪纸培训活动、就业培训各1场。', '大家上午好！首先，我代表区农业农村局，向出席今天新闻发布会的记者朋友们表示热烈欢迎！向一直以来关心和支持农业农村工作的社会各界朋友们表示衷心的感谢！下面，我向大家介绍一下我区乡村产业振兴、“双镇百村”建设方面的工作情况。', '产业兴旺是乡村振兴的关键之举，农业高质量发展是农业农村现代化的必由之路。近年来，区农业农村局深入学习贯彻中央及省委、市委农村工作会议精神,根据全市“要在打造乡村振兴齐鲁样板中率先突破”的重大政治任务要求，持续聚焦产业振兴，强化产业化、绿色化、品牌化总体思路，努力探索出一条农业高质高效的发展之路。', '一是持续巩固产粮大县地位，全力抓好“菜篮子”稳产保供。我区连续14年获全国产粮大县称号，连续两年累计开展12万亩大豆玉米带状复合种植任务，通过“一田双收”，实现稳粮增豆，在全市超额完成“吨半”任务，“吨半粮”创建工作获得全国人大常委会副委员长艾力更.依明巴海的批示；全区蔬菜播种面积10.24万播亩，全年蔬菜总产量稳定在40.38万吨，累计建设高标准蔬菜园区17个。水产畜牧生产稳定发展。全区现有各类畜禽规模养殖小区（场）416处，其中国家级标准示范场2处、省级12处。2023年申报标准化示范场1处，省级龙头企业4个，截止5月底，肉蛋奶总产量6.21万吨，肉类总产量4.01万吨，禽蛋产量1.17万吨，奶类产量1.03万吨，完成全年肉蛋奶任务率44.71%；创建省级以上水产健康养殖示范场3家，淡水养殖面积490公顷，淡水产品年产量稳定在3068吨。', '二是大力发展农产品加工业，农业产业向集群化方向发展。全区规模以上农产品加工企业达152家，农业产业化龙头企业17家，其中，国家级龙头企业1家，省级龙头企业3家，市级龙头企业13家，市级现代农业产业园4个，农业“新六产”示范主体5个，糜镇示范区列入第二批山东省乡村振兴齐鲁样板示范区创建名单；实施山东沿黄优质小麦优势特色产业集群项目，总投资2.2亿元，项目实施后，全区小麦加工能力达到30万吨/年；成功申报大豆优势特色产业集群建设项目，计划用三年的时间，做强做大陵城大豆产业，全产业链总产值达到41.63亿元，大豆加工能力达到70万吨/年，形成优势特色产业集群，实现一二三产业高度融合发展。', '三是提升新型经营主体培育质量，乡村振兴生力军稳步壮大。开展新型经营主体区级示范创建，2023年新增38家农民合作社、50家家庭农场、17家服务组织，区级以上示范主体累计432家，同比增长32.1%；农村集体资金“码上收、线上付”全程监管模式，荣获全省农业科技成果转化项目二等奖，人民日报头版头条引入大于集国家固定观察点事例，4月10日，农业农村部等多部委联合发文，公布陵城区友邦种植专业合作社为国家级农民专业合作社示范社；5月8日，全市农服平台签约推广暨农经工作会议在我区举办，推广陵城农服平台创新做法。', '四是加强农产品质量品牌建设力度，陵城农产品品牌影响力持续扩大。全区主要农产品抽检合格率连续多年稳定在98%以上，全区“三品一标”认证的产品53个，其中，获得无公害农产品认定19个，获得绿色食品标志使用的认证产品33个，全国绿色食品原料（西葫芦）标准化生产基地1处；举办“智选陵城”品牌推介暨社区团长表彰交流会，借助德州市社交电商团购资源以及直播电商带货等将陵城农产品资源销向全国；6家企业入选“德州味”企业，组织企业参加第二届“德州味”优质农产品展销峰会，陵城农产品品牌美誉度和市场竞争力不断增强。', '五是大力实施农业重点项目，农业现代化水平显著提升。截至5月底，共争取中央财政耕地地力保护补贴资金、中央农业保险补贴资金、农田建设补助资金、玉米大豆带状复合种植补贴、小麦“一喷三防”补助等产业发展项目23个，项目总金额3.6亿元，预计下半年，资金总量将达到5亿元。实施国家制种大县项目，计划5年时间，建成20万亩品种全、品质优、品牌化、标准化的小麦制种样板基地，届时将年生产加工高质量小麦种子1亿公斤以上。实施省级现代农业产业园项目，以优质小麦和鲁西黄牛为主导产业，建设集生产、加工、研发、物流贸易、电子商务、文化产业与休闲观光旅游为一体的三产融合产业功能区，全面提升主导产业规模档次。', '六是开展“双镇百村”建设，城乡融合发展步伐加快。锚定“八个一”“八大工程”，培产业、上项目、抓投入、促改革。建成1023亩的糜镇产业园区，入区企业6家，完成2个过亿元入区新开工项目。1-5月份，“双镇”开展项目17个，其中，新开工8个，续建5个，办理前期手续4个，总投资达36亿元。完成工商税收5312万元，27家规模以上企业实现产值12.52亿元，新增固定资产12亿元。中心村产业投入加大，人居环境、配套设施水平全面提升，2022年新增、升级农业新型经营主体22家，社会化服务覆盖率达到95%以上，10个中心村集体经济收入全部超50万元。', '下一步，区农业农村局将继续发挥职能作用，扛牢吨半粮建设、食品名市、城乡融合“三面大旗”，抓新型经营主体培育，提升农业专业化社会化服务水平；抓品牌建设，增强农产品核心竞争力；抓项目争取，抢占改革创新制高点，为实现陵城农业全面振兴摇旗呐喊。', '首先，我代表区发展改革局，对大家长期以来给予陵城区域乡融合发展工作的关心支持表示感谢，对大家的到来表示欢迎!下面，我向大家简要介绍一下我区城乡融合发展有关工作情况。', '近年来，全区各级各部门深入贯彻落实省、市和区委、区政府关于加快推进域乡融合发展的决策部署，坚持规划引领、试点带动，加快推进城乡要素融合、经济融合、设施融合、服务融合，各项任务全面发力、多点突破，取得了阶段性成效。', '先后制定印发了《陵城区省级城乡融合发展试验区实施方案》(陵政办字〔2020〕71号)《陵城区新型城镇化与城乡融合发展规划（2021-2035年）》等文件，为我区推进新型城化及城乡融合发展提供了基本政策遵循。区有关部门围绕人口、就业、土地、财政、金融等重点任务，研究出台了多项具体政策措施，全区形成了协同高效的工作推进机制。', '2020年8月我区成功入选首批省级城乡融合发展试验区，截至目前，5项试验任务取得了初步成效。全区土地经营权流转面积47万亩，涉及4.56万户，在山东农村产权交易平台办理业务笔数累计1396笔，涉及流转面积22.94万亩，交易金额90209.2万元。', '（一）政策叠加，推进城乡要素融合。一是畅通入乡返乡渠道。制定《陵城区乡村振兴人才支撑计划》《陵城区农业人才示范引领工程实施意见》，整合17项支撑政策，制定25条扶持措施，实现各领域农业人才全覆盖。2022年以来，已吸引近400名在外人才返乡创业就业。二是有效建立了进城落户农民依法自愿有偿退出农村权益的工作机制，农村集体经济组织成员转移落户中，全区整户转移的5137户，涉及16745人。', '（二）业态多元，推进城乡经济融合。一是搭建城乡产业协同发展平台。我区成功申报省级现代农业产业园，涉及徽王庄镇、前孙镇、义渡口镇和宋家镇区域。我区被评为中国农业社会化服务平台优秀推广县，成功创建山东省农业社会化服务机制创新试点县。二是畅通城乡市场供需体系。全区快递服务站点覆盖率达到100%，基本建立覆盖全区的“15分钟优质便民生活服务圈”。三是健全农民收入增长机制。完善县、乡、村三级就业服务体系，开发城乡公益性岗位4859个，全部在岗。以工代赈项目涉及三个领域共6个项目全部开工。截至目前，共雇佣农村劳动力467人，发放工资1230万元。2022年，农村居民人均可支配收入增长7.3%，高于城镇居民2个百分点。', '（三）民生普惠，推进城乡基本公共服务融合。一是促进城乡教育资源均衡配置，实施“农村薄弱学校能力提升”项目，极大改善了乡镇学校办学条件。二是健全基层医疗卫生服务体系，全区共有33处中心村卫生室，乡村医生队伍中乡聘村用的乡村医生人数为25人，乡镇卫生院和卫生室远程诊疗系统覆盖率为43.60%。三是健全城乡公共文化服务体系，目前拥有博物馆、图书馆、文化馆三馆，建成城市书房1家，基层文体组织、文体队、文体场所建成率100%。四是完善城乡统一的社会保障度，建立城乡居民基本养老保险待遇确定和基础养老金正常调整机制，稳步提高居民基本医保和大病保险筹资标准，调整城乡低保对象、特困人员、孤困童等九类困难群众救助保障标准，进一步缩小了城乡差距。', '（四）补齐短板，推进城乡基础设施融合。一是推进城乡基础设施一体化建设。“十四五”以来，改建农村公路184.591公里。完成农村供水主管线提升改造39.53km，生物质清洁取暖改造1.44万户，累计完成62730户户厕改造提升。二是推进城乡基础设施一体化管护。建立完善城乡环卫一体化、农村污水处理、无害化卫生厕所管养体系，整合资源，提高效率。', '下一步，我们将继续深入学习贯彻党的二十大精神，按照区委、区政府工作部署，聚焦城乡“四个融合”，积极谋划，狠抓落实，不断探索突破，促进城乡要素自由流动、平等交换和公共资源合理配置，力争形成更多典型经验和发展举措，为实现乡村全面振兴作出更大贡献。', '问：请问，关于“吨半粮”创建工作，陵城区主要采取了哪些具体举措和创新性做法，今年有哪些工作打算？', '三项举措指的是：一是抓领导核心。成立了由区委书记、区长任双组长的领导小组，把创建工作作为头号工程，持续攻坚。二是抓示范引领。“三级书记”抓粮，划定指挥田 1.6 万亩，以点带面，推动实施。三是抓立体配套。实施高标准农田建设等“十大工程”，多点发力，综合施策。', '四个突破指的是：一是种业提升实现新突破，建成 12.5万亩标准化小麦制种基地。二是人才支撑实现新突破，组建了以中国工程院院士赵振东为首、省农科院三名教授参与的专家团队。三是创建模式实现新突破，在全市首创“张榜揭榜”制，吸纳社会资源参与。四是智慧农业实现新突破，在义渡口镇建设智慧农业示范区，搭建数字农业信息化平台。', '2023年，我们将在16.5万亩核心区继续优化实施“十大工程”，实施高标准农田建设，提高核心区基础设施水平，达到旱能浇、涝能排；实施耕地地力提升工程，提高耕地有机质含量；利用制种大县项目，保障优良品种供给，以及实施增产技术集成推广、农机装备提升、科技网络服务、现代农业经营体系培育等工程，力争全部创建达到“吨半粮”产量。谢谢！', '问：特色小镇作为新型城镇化建设平台载体和城乡融合发展的重要支点，陵城区建设情况怎么样？', '张鑫：感谢记者的提问。近年来，陵城区全面贯彻落实新发展理念，准确把握特色小镇发展定位，推动特色小镇规范健康发展，取得了明显成效。2022年2月12日，我区边临装配式产业特色小镇成功入选省级特色小镇（全市共7个），在特色小镇建设管理方面，我们重点做好了三方面工作：', '一是聚焦产业发展，做好特色文章。陵城区边临装配式产业特色小镇以装配式产业为发展基础，重点聚焦现有特色资源，加快打造特色产业，形成“创新、协调、绿色、开放、共享”五大发展新理念，以“装配式产业现代化、建筑工业化”为路径，大力推动建筑业“节能减排、转型升级”。同时借助装配式产业化，通过新技术、新产业、新业态创造新供给，释放新的市场需求，打造边临装配式产业特色小镇。', '二是聚焦产业延链，做好发展文章。截至目前：边临装配式产业小镇依托装配式产业园，引进钢结构、木结构和铝型材加工生产、物流运输等装配式上下游企业100余家，企业规模优势明显，未来将成为华北地区最大的钢结构、木结构、铝材、机械加工、物流产业集聚地。其中联兴绿厦、好宜居木结构公司均获批“山东省装配式建筑产业基地”荣誉称号。', '三是聚焦产业创新，做好建设文章。近年来，边临装配式产业特色小镇严格按照小镇建设标准，在产业发展、产业带动、人文理念上进行规范，打造特色突出、生态宜居、环境优美、产业集聚的“小而美、小而特、小而精、小而雅”的特色小镇。', '2023年，新规划投资1.6亿元装配式产业科创馆已完成规划设计；投资3000万元的农旅融合项目已动工建设。项目全部竣工后，可增加小镇游客量达到20万人。', '下一步，我区将严格按照《全国特色小镇规范健康发展导则》要求，突出特色品质，全面提升特色小镇建设标准，积极引导特色小镇规范健康发展，为加快推进全区新型城镇化和城乡融合发展贡献发改力量。', '问题：刚才发布人提到陵城区建立了区—乡—村三级农业技术推广平台，能否为我们详细讲解一下具体情况。', '王飞：感谢记者朋友的提问。近年来我们围绕科学谋划、标本兼治原则，不断厚植绿色生态优势，助力乡村生态振兴发展。截止2022年底，全区农村生活污水治理完成416个行政村；农村黑臭水体治理完成34处，治理验收率分别达到47.1%、80.9%。', '一是科学谋划，梯次推进农村生活污水治理。按照“突出实用、规划先行、因地制宜、分类施策”工作思路，总结现有农村生活污水收集处理工作经验，合理规划设计，坚持选择低成本、低耗能、易维护、高效率的技术和工艺，采取集中拉运、纳入市政污水管网等方式，推进陵城农村生活污水的高效治理。同时，对于已经完成的生活污水收集处理设施，坚持“建管并重”，建立并落实“建设、运行、监管”长效机制，加强管理和维护，确保有效发挥生态环境效益。', '二是标本兼治，逐步消除农村黑臭水体。按照“标本兼治”原则，着力解决群众身边的突出问题，建立农村黑臭水体动态监管清单，通过综合性、系统性治理措施，实施全域入河排污口整治，依法依规取缔、封堵325个，对达标排放的25个排污口树立规范标识，并定期监测，对8处农村黑臭水体采取截污断流、清淤疏浚等方式，实行“拉条挂账，逐一销号”。同时，充分发挥河湖长制平台作用，严格落实网格化监管职责，实现水体有效治理和管护，确保黑臭水体治理不反弹、不反复。', '下一步，我们将加快补齐农村生态环境基础设施建设短板，有效改善农村人居环境质量，用工作实绩检验学习贯彻党的二十大精神成效，不断提升农村群众的生态环境获得感、幸福感、安全感。', '问：陵城区为实现综合文化站、综合文化服务中心与新时代文明实践所、站协同推进，采取了什么措施？', '杨洪涛：感谢这位记者的提问。陵城区依托综合文化站、社区综合文化服务中心等公共服务阵地，建立新时代文明实践所、站，坚持做到阵地资源整合到位、服务群众精准到位、体制机制健全到位，实现综合文化站、综合文化服务中心与新时代文明实践所、站协同推进。', '一、抓阵地整合，夯实活动基础。陵城区依托各个社区综合文化室等场地设施和服务功能，推动社区（村）文化及相关资源整台，帮助社区（村）建设集宣传文化、党员教育、科学普及、普法教育、体育健身等功能于一体的综合性文化服务中心，为文明实践活动正常开展提供有效载体。目前，陵城区13个乡镇（街区）全部建成面积300平方米以上的综合性文化站，并依托综合性文化站建立新时代文明实践所，373个社区（村）全部建有综合性文化服务中心及文体小广场，为广大村民开展健身锻炼、文体娱乐等文明实践活动提供活动场地。', '陵城区13个新时代文明实践所分别成立了志愿服务分队，广泛吸纳机关干部、学校、医院、企业、乡贤能人和社会各界优秀人士，组成文明实践理论宣讲、文化文艺、手牵手圆梦行动、扶贫助困等志愿服务小分队。各新时代文明实践站组织党员、乡土文化人才、退休文艺工作者、创业返乡人员等成立村级志愿服务队。志愿服务队按照“讲评帮乐庆”五种形式，因地制宜开展经常性、面对面、广大群众喜闻乐见的文明实践活动。', '一是积极开展宣传文化活动。边临镇组织社区文艺爱好者每周固定时间在文化广场进行演出，丰富社区群众文化生活，惠及村内群众800余人；糜镇充分利用基层文化阵地基础设施，积极组建志愿宣讲队伍，开展百余场宣讲活动，全镇8个管区1000余群众受益。各乡镇还在乡镇综合文化站和社区综合文化服务中心开展了高跷秧歌表演、“书香进社区”社区读书会活动、“非遗剪纸进社区”活动等特色文化活动。二是积极开展市民教育工作。5月下旬开始，陵城区在全区范围内广泛开展为期一个月的新时代美德健康生活方式集中宣讲活动。全区110余个区直部门开展《如此生活》交流研讨会，通过读书分享和交流研讨，深刻领悟新时代美德健康生活方式的内涵和实践要求。74个文明单位选派志愿宣讲员到所包联的文明村，13个乡镇（街区）组织志愿宣讲员到每个村庄开展新时代美德健康生活主题宣讲，采取培训、文艺演出、情景式体验、有奖问答等多种方式，邀请广大居民共同涌入到《如此生活》读本的阅读浪潮中。共开展了1200余场新时代美德健康生活方式集中宣讲，受众达5万余人次。三是大力抓好普法教育。各新时代文明实践所（站）不定期开展各类形式多样的普法活动，对广大群众开展普法教育。文旅局与公安局、临齐街道联合开展群众性法治文化活动，把理论宣讲与文艺活动相结合，对社区群众进行反诈骗普法教育，收益群众千余人。', '今年以来，陵城区新时代文明实践所（站）依托综合文化站、综合文化服务中心平台，充分发挥基层文化阵地优势，组织全民阅读、“浓情端午，传承文化”等丰富多彩的新时代文明实践活动5400余场，在全社会营造崇德向善的良好风尚。', '提问：党建联合体是推动农村发展升级和治理转型的有效抓手，请问陵城区在推进过程中都做了哪些工作？', '近年来，陵城区以“跨村联建幸福家园”建设为抓手，以党建联合体建设为载体，按照建强1个联合党委、提升1处服务阵地、启动3项共富工程、共建5种治理载体的“1135”工作措施，深化农村区域党建联合体建设，协同推进强村共富。一是实施组织联建赋能提质行动，通过任命、选举、跨村交流三种方式确定联合党委书记，编制“跨村联建”资源、需求、项目“三张清单”，做实党员联培、工作联推等“五联”机制，进一步强化组织力。二是实施民生服务普惠联享行动，对农村党群服务中心提档升级，优化设置农技培训、快递物流等服务站点，整合各类资金建设暖留中心，持续提升群众满意度幸福感。三是实施产业联兴强村共富行动，抓住“人”“地”“钱”三大要素，启动“村村有能人、镇镇有专家”“三类地开发利用”“百村示范、千村提升”三大工程，推动村庄高质量发展。四是实施治理联动融合提效行动，建立健全“五个一”跨村联动治理机制，即“共建一个村民议事厅知民意、共建一个矛盾调解室解民忧、共建一个道德评议庭树民风、共建一支新风公益基金暖民心、共建一个纪检监察站稳民情”，着力提升治理质效。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>141</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会全面推进乡村振兴专题夏津县专场</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c82581662/content.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“全面推进乡村振兴”专题夏津县专场 - 德州市人民政府', '今天，我们来到夏津县，举行“全面推进乡村振兴”专题新闻发布会第十五场——夏津县专场。我们邀请夏津县副县长隋荣霞女士，夏津县委组织部副部长、老干部局局长滕儒训先生，夏津县农业农村局党组书记、局长苏景田先生，夏津县文旅局党组书记、局长赵华鲁先生，市生态环境局夏津分局党组副书记宋建龙先生，夏津县人社局党组副书记、县公共就业和人才服务中心主任曹大鹏先生向大家介绍夏津县全面推进乡村振兴工作开展情况，并回答记者提问。', '大家上午好！近年来，夏津县坚持以习近平新时代中国特色社会主义思想为指导，聚焦乡村产业、人才、文化、生态、组织五大振兴，取得了一系列理论成果、制度成果、实践成果、宣传成果，乡村振兴齐鲁样板夏津实践得到极大丰富和发展。', '一是保障粮食和重要农产品供给。2022年全县“吨半粮”生产能力创建首战告捷，2023年再夺夏粮丰收。生猪出栏量稳居全市第一，棉花种植面积和产量均居全省前三位，被农业农村部授予“棉花制种大县”荣誉称号。蛋鸡、肉鸡年产量超千万只，在全市名列前茅。我县用稳产保供实效展现了农业大县担当。', '二是着力打造农业产业链。以建设食品名县为目标，坚持“内培”“外引”双轮驱动，“强链”“建链”双维突破，推动链条升级。现有农业产业化国家重点龙头企业1家，省级7家，规上农业产业化龙头企业95家。引进新希望六和集团，从生猪养殖逐渐发展到屠宰、熟食加工、冷链物流、饲料加工、粪污处理等，新的生猪产业链迅速成形。', '三是发展新产业新业态。立足独有的特色资源，大力培育生态旅游、预制菜加工、电商直播等新产业新业态。2018年，夏津县古桑树群被授予全球重要农业文化遗产。借助这一品牌优势，连年举办椹果生态文化节，承办第二届德州市旅游发展大会、“中国旅游日”山东省暨德州市分会场活动，每年游客超百万人次。引进德百古桑产业研究院，建立桑黄种植基地，桑产品品类和质量得到极大提升。总投资10.5亿元的央厨智慧港项目成为全市首个“省重大”预制菜项目。后赵地瓜、老庄小米等通过直播的方式，销售量快速上升。', '四是走农业高质量发展道路。以现代农业建设为抓手，积极构建现代农业产业体系、生产体系和经营体系。2019年以来共建高标准农田29.6万亩，高标准农田面积占比达82.1%。深入开展农村土地制度改革，发展“土地入股+全程托管”模式。完成“夏津椹好”农产品区域公用品牌建设，现有“三品一标”认证数量92个，认证总面积31.07万亩。', '一是引进高端人才。聚焦纺织、古桑等特色产业，引进束怀瑞、李玉等高层次顶尖人才，设立博士工作站2个，成功申报国家级人才项目1个。二是充实基层人才队伍。举办农村实用人才、经营管理人才及职业技能培训，连年开展齐鲁乡村之星、村村都有好青年评选，开发公益岗4000多个，建成零工市场3处。三是吸引在外人才返乡。开展创新创业、鄃城学子家乡行等活动，吸引在外人才返乡就业创业。鼓励致富能手、民营企业家、退休党政干部等乡贤到村任职。', '一是新时代文明实践走深走实。常态化开展“三个一百场”联讲、夏津好人评选、“爱满鄃城日”志愿服务等，探索出“一校两队三堂四式五制”家风建设新模式，涌现出全国十大孝星、全国最美家庭等先进模范。二是持续开展移风易俗。规范红白理事会，对大操大办等突出问题进行专项治理。我县被评为全省移风易俗工作先进县。三是深入开展文化惠民活动。连年举办消夏艺术节、“一村一年一场戏”等，邀请中国评剧院、湖北黄梅戏剧院来夏演出，全力打造“山东手造·鄃城有品”品牌，52项手造项目入库。', '一是持续开展农村人居环境整治。以四清一改一增为主要内容，开展了农村人居环境整治三年行动，农村生活垃圾统一实行市场化运营，探索了“撤桶并点、生活垃圾上门收集”试点，累计完成农村旱厕改造7万多户，55个村开展农村生活污水集中连片治理，建成“美丽庭院”示范户2万多户。按照“八清零一提升”标准，常态化开展农村人居环境整治巩固提升。二是完善农村基础设施。投资近亿元实现农村安全饮水全覆盖，完成农村入户道路硬化355万平，实施气电代煤改造7万多户。多个乡镇建立暖心食堂，“社会力量+商业保险”兜底的社会救助模式得到市领导批示肯定。三是开展示范片区打造。苏留庄镇入选市级乡村振兴齐鲁样板示范区，苏留庄镇桑产业生态旅游特色小镇成功入选山东省特色小镇。打造成方连片省级美丽乡村示范村10个，17个村庄参与乡村振兴“十百千”示范创建。以“双镇百村”为抓手的城乡融合发展工作扎实推进，中心镇、特色镇、中心村建设成效明显。', '一是提升村支部书记履职能力。高质量完成村“两委”换届，组织村党支部书记到四川等地考察学习，举办乡村振兴“擂台比武”“书记公开课”等特色活动，提高党建引领乡村振兴的能力。二是发展壮大村集体经济。探索了“大田托管”、“飞地抱团”等发展集体经济新路径，成立农村区域党建共同体88个，闲散土地盘活利用做法得到时任省委书记李干杰批示。三是强化乡村治理。创新“党建引领·小巷红管”基层微治理模式，在全国首创成立“商量办”。结合村规民约、美德建设等，教育引导群众严守道德底线，培育文明新风、良好家风、淳朴民风。推行多元调解工作模式，打造“慧鄃解”调解品牌，有效将群众矛盾化解在基层。夏津县成功入选全省党建引领乡村治理试点县。', '乡村振兴是一项复杂的系统工程，不是一蹴而就的。脚步暂时到不了的地方，眼光可以到；眼光可以到的地方，脚步早晚也会到。下一步，我县将秉持历史耐心，着力开展村级党组织建设，积极落实“四个优先”政策，持续发展现代农业，完善农村基础设施，不折腾、不懈怠，推动乡村振兴工作再上新台阶。', '记者：在推进“三类地”开发利用，盘活集体资产作为组织振兴的一项重点工作，夏津县有哪几种模式盘活“三类地”资产 ？能否举例说明？', '滕儒训：今年来，夏津县聚焦农村“三类地”开发利用，以农用地规模化、闲散废弃地资源化、“飞地”集约化为抓手，破解发展要素分散、村庄单打独斗的问题，走出一条“组织起来、抱团发展、强村富民、共同富裕”的发展新路径。', '一、坚持资源整合，推动农用地规模化经营。一是构建三级联动机制。夏津县依托“村级合作社+联合体联合社+乡镇合作联盟+县乡村振兴公司”体系，为农用地规模化发展奠定坚实基础。二是探索多元增收路径。依托三级合作社，发挥联合体纽带聚合作用，将分散的农民、农村、农业组织起来，配套农业全产业链服务，有效降低农业生产成本。实现群众集体“双增收”。发挥国企优势，成立乡村振兴公司，对接大型涉农企业20余家，开展土地托管项目。全县规模经营土地达26万亩，带动集体增收3500万元，节约生产成本2600万元。三是强化发展要素支撑。制定《发展壮大村级集体经济十条措施》，在资金保障、税费优惠、奖励机制等方面给予政策帮扶。聚焦资金精准投放，整合涉农资金9000万元，打造“乡村产业发展资金池”，累计撬动“鲁担惠农贷”“强村贷”等多种形式涉农贷款资金16.55亿元流向农业农村。', '二、坚持闲置盘活，推动闲散废弃地资源化利用。以党建联合体为单位，组建专项清理小组，实行“起底式清理+提级式管理”模式，细化“4+10”清理程序，集中开展集体“三资”清理攻坚行动。一是明确所有权，让集体家底厚起来。按照“八清理六收回”，对“挤占抢占、承包费过低”等8种类型土地重点清理，对“长期闲置、一户多宅”等6种类型土地收归集体，全面夯实发展基础。二是赋予使用权，让土地资源动起来。按照“确认成员身份—资产量化折股—规范‘三资’管理—强化民主监督”的程序，先确权再清理，赋予群众合法的使用权，在打消群众顾虑的同时强化民主监督。放活经营权，让经营方式活起来。通过“四议两公开”程序，将闲散土地统一打包，由县乡村振兴公司和党建联合体领办联合社有组织、有规划地发展“边角经济”，种植绿化苗木等经济作物。三是规范收益权，让集体群众富起来。采取“集体+农户”股份合作制，明确集体群众6:4分红比例，由农村公益性岗位负责日常管理。目前，全县盘活利用各类闲散土地9500余亩，预计带动集体群众增收800余万元。', '三、坚持要素统筹，探索“飞地”抱团发展路径。坚持抓关键、抓引领，立足“飞地”集约化流动，探索村集体多元化增收路径，共享集成发展红利。一是统筹谋划实施。实行“县级统筹、企业经营、产权明晰、收益归村”的发展形式。用足用好增减挂钩政策，鼓励村集体对与大田相连的闲置低效集体存量建设土地复垦，通过拆旧复垦、指标置换、资金补偿推动“飞地”抱团。二是多方筹措资金。项目参建村以腾空复垦土地的村为主，县级统筹征地补偿款及结余指标拟收益金额，同时吸收有中央财政扶持资金和集体积累资金较多、有投资意向的村参与，形成“土地+资金”“强村+弱村”的联合模式。三是实施项目牵引。村集体采取“资金入股+委托经营+分红收益”的模式，对应的增减挂钩指标资金集中落地到“飞地”产业园，共同抱团发展高质量产业项目。目前，全县累计实施“飞地抱团”发展项目4个，其中总投资10亿元亿利集团汽车零部件智能制造产业园、占地1100亩夏津县现代农业产业园已落地兴建，涉及行政村年增收60万元以上。', '乡村要振兴，产业必振兴。夏津县立足自身资源禀赋，坚持三产融合发展，着力推动农业产业高质量发展，为全面推进乡村振兴奠定物质基础。', '“吨半粮”生产能力建设成效初显，粮食总产连续四年突破12亿斤，2023年74.9万亩小麦再夺丰收，预计面积、总产分别较上年增长13.0%和13.8%，国家常规产粮大县的地位更加稳固。棉花生产和棉种繁育水平不断提升，被农业农村部评为“国家级棉花制种大县”。畜禽养殖蓬勃发展，是国家生猪调出大县，全县能繁母猪4.67万头，生猪存栏53.03万头，蛋鸡422.03万只，育成鸡560.46万只，肉鸡225万只，肉鸭166.69万只，标准化规模养殖场（小区）比重达到89.9%以上。蔬菜生产的集约化、品牌化特征更加明显，夏津县乐农有机种植专业合作社、德州优农生态农业开发有限公司是全德州市仅有的两家供港有机蔬菜基地和粤港澳大湾区“菜篮子”生产基地，生产规模1500余亩，年产有机蔬菜4000余吨。', '全县规上农业产业化龙头企业已发展到95家，其中国家级龙头企业1家，省级7家，市级14家。全县年加工面粉230万吨，屠宰生猪100万头，生产冷鲜猪肉14万吨，屠宰肉鸭3321万只，生产冷鲜鸭产品8.3万吨，年加工棉籽油100万吨。2022年，规上企业总产值78.16亿元，同比增长58.18%。不断发挥农产品加工业的引领带动作用，全县已成功创建省级农业产业强镇3个（双庙镇小麦种植加工、郑保屯镇畜牧养殖加工、宋楼镇棉花种植加工）、省级现代农业产业园1个（棉桑）。', '聚焦打造京津冀优质农产品供应基地，夏津县不断引进发展粮油加工、肉制品加工以及功能食品类支柱项目，向着建设食品名县不断迈进。作为全市首个“省重大”预制菜项目，总投资10.5亿元的央厨智慧港项目建设取得阶段性成效，目前已引进北京西鼎和、江苏好七、北京净鲜集配等4家公司签约入驻。山东千喜鹤食品有限公司已建成集生猪屠宰、肉制品加工及仓储冷链物流于一体的现代化大型食品企业，日屠宰能力4000头，列全省生猪屠宰量第七位。德州业源食品有限公司日屠宰肉鸭14万只，列全省肉鸭屠宰量第五位。山东发达面业有限公司作为农业产业化国家重点龙头企业和中国农业500强企业，小麦日加工能力9000吨，总体规模位列全省第一。', '依托山东夏津黄河故道古桑树群这一“全球重要农业文化遗产”，全力构建了“夏津椹好”农产品区域品牌，推进农文旅产业一体化发展。目前，全县已培育椹树下、东方紫、德百桑产业研究院和圣源等20多家桑产业上下游企业，开发椹果酒、桑叶茶、桑黄等系列产品20多种，年加工椹果2万吨，桑叶1000吨，从业人员3.5万人，年产值10亿元。夏津椹果生态文化节已连续举办15届，年均吸引游客200万人次。古桑树群周边村集体收入从平均6万元增长到现在的12万元。', '赵华鲁：围绕乡村振兴，结合夏津实际，我们科学制定了“开展优秀传统文化惠民活动”的具体任务目标：一是创建1个乡村文化建设样板镇2个乡村文化建设样板村。二是每个乡镇打造一处以上文化体验活动场所。三是重点打造10 处“山东手造”非遗工坊。四是开展优秀传统文化展演活动10场以上。五是储备非遗项目。六是支持10个市级非遗传承人进景区、进校园、进社区开展传承培训活动。目前各项工作正在按计划有序推进。', '（一）文化建设样板镇、村创建工作有序推进。苏留庄镇成立了文化建设样板镇、村创建工作领导小组，根据创建标准正在积极开展工作。该镇投资200万元新建综合文化站，建筑面积1500平方米，立足“桑文化+旅游”特色资源优势，突出桑文化体验展示和游客服务功能，高标准打造图书阅览室、书画室、文体体验室、文化展示区、文体广场等功能区域，目前已投入使用；在样板村建设上，后屯村和平安湖村正在按照标准进行打造提升。尤其是平安湖村作为乡村振兴齐鲁样板示范村，重点打造延续家庭文明历史、传承古桑文化记忆、保留农村悠悠乡愁的文化综合体，村内建有3000平方米综合文化服务中心及1500平方米户外演出文化广场，综合文化服务中心内设乡村书屋、文化展示区、乡村记忆展览馆、300平方米室内演出厅等。目前档案材料和科室设置正在规范提升。', '（二）传统文化活动丰富多彩。积极打造乡镇文化体验活动场所，目前全县14个乡镇均在乡镇文化站部分功能的基础上进行改造提升，打造文化体验活动场所，室内活动场所不低于50平方米，室外活动场所不低于500平方米，硬件标准、开放要求、服务标识、服务公示等按标准进行设置。在文化活动开展方面每个乡镇文化体验活动场所每月开展非遗传承体验活动或传统文化体验活动不少于3场，截止6月底共完成197场传统文化体验活动。', '（三）“山东手造”非遗工坊全面提升。重点对老虎鞋、布袋鸡、益和成糕点、老榆木家具、黑陶、珍珠琪、剪纸、条柳编、宋楼火烧、核雕10处非遗工坊进行了打造，个性化地对非遗体验区、标识牌、制作流程展示、产品展示区等方面进行提升。同时安排各非遗工坊定期开展公益性非遗技能培训，每月开展非遗体验或进校园、进社区、进景区活动2次以上。截止6月底非遗进校园29场、进社区9场、进景区12场，非遗特色培训7场。', '（四）优秀传统文化展演活动已完成年度任务。为进一步丰富广大群众的精神生活，提升幸福感、获得感、满意度，今年我们进一步加大工作力度，多频次地开展了一系列优秀传统文化展演活动，主要包括：一是开展了群众性小戏小剧展演。二是开展了传统文化或非遗展演进校园、进社区、进景区。三是开展了优秀传统文化集中展演活动。截止6月底，全县共开展优秀传统文化展演45场次，已提前完成全年演出任务目标。', '（五）完成了优秀非遗项目储备任务。今年上半年，我们公布了县级优秀非遗项目7项，具体是崔楼小调、桑椹干制作技艺、烧伤疮疡药膏、坩埚制作工艺、地藏寺、微雕、连环铁砂掌；储备了鑫瑞娜手工千层棉、漫川酒、菊美诺工艺品、山东椹树下生物科技有限公司四项优秀非遗项目，资料归档、图片收集、申报材料工作均已结束，共计11项。超额完成了市里规定的任务目标。', '下一步县文旅局将立足部门职能，按照年初制定的计划，以提高群众满意度为核心，做好公共文化场馆免费开放，挖掘本土文化资源，培养本地优秀文艺人才，围绕学习贯彻党的二十大，创新策划形式新颖、内容丰富的专题文艺演出、小戏小剧展演活动；加大文艺精品创作力度；增强公共文化服务效能，真抓实干，开拓创新，为推动全县乡村振兴贡献文旅力量。', '宋建龙：农村生活污水治理是改善农村人居环境至关重要的一环，也是乡村振兴的关键一步。十三五以来，我县坚持因村制宜、科学设计、精准施策、分类施治，灵活选择建设污水处理站、集中拉运、纳管及分散处理就地利用等治理方式，对466个行政村梯次实施生活污水治理。截止2022年底，已累计治理完成行政村219个，其中，采用建设污水站方式14个，纳管方式4个，集中拉运方式55个，分散处理就地利用方式146个，全县农村生活污水治理率达到46.9%以上。今年，我县将采用集中拉运方式新增完成治理15个村。', '一是摸底建档，治理精准高效。对全县纳入治理范围的行政村逐一开展摸底调查，建立清单台账，全面涵盖村庄人口分布、地形地貌、污染物排放、污水治理与改厕衔接、治理设施建设运行等基础信息，所有信息统一纳入农村生态环境保护综合监管平台，不定期开展动态更新和调整，实现信息化、动态化管理，为实现科学、精准、高效治理提供强有力地数据支撑。', '二是多方筹措，资金保障有力。2020年以来，累计争取中央生态专项资金、中央、省乡村振兴重大专项资金1500余万元用于支持治理配套设施建设，确保“建成一个、运行一个、见效一个”。今年，我县新盛店镇、渡口驿乡等下辖32个村农村生活污水治理项目已成功申报列入中央生态资金项目储备库，争取中央农村环境整治资金768万元。', '三是因村制宜，规划设计科学。结合全县乡村生态振兴整体布局，统筹整合项目资金，集中优势资源力量，开展农村生活污水集中连片整治，发挥规模化示范引领带动，重点打造乡村环境整治可推广、可复制的示范样板。累计投入2000余万元，采用“污水收集罐+罐车拉运+污水处理站”集中拉运方式，配套村内污水收集、贮存和转运设施，完成香赵庄镇整建制镇等55个村生活污水集中连片治理。通过发挥项目示范及宣传带动，人民群众节水、护水、爱水意识明显增强，村容村貌焕然一新。', '四是发挥优势，运维管护长效。累计投入1300余万元，实施建制镇污水处理设施升级改造，对双庙镇、苏留庄镇、新盛店镇等8个乡镇（社区）污水处理站进行扩容，改进处理工艺，总处理规模达到2600吨/天。在香赵庄镇新建1000吨/天污水处理站1座，进一步优化提升了镇域生活污水处理效能。发挥第三方专业运维服务优势，对乡镇（社区）污水处理设施实行统一维护、统一管理，有效提高了运维效率，降低了运维成本，切实保障设施长效运行。', '下一步，我县将继续把农村生活污水治理摆在更加重要的位置，坚持把人民群众对美好生活的向往作为奋斗目标，持续发力、久久为功，不断完善农村环境治理基础设施建设，积极探索更加高效、便捷、易于管护的治理新途径和新模式，以更加高效的举措，务实的作风，切实推动农村人居生活环境质量持续改善，助力乡村生态振兴，不断增强人民群众获得感、幸福感、安全感。', '记者：人才是乡村振兴的关键支撑和源头活水。请问在基层人才培育方面做了哪些工作？取得了哪些成效？', '曹大鹏：人才是乡村振兴最关键、最活跃的因素。我们深入实施乡村人才培育的各项举措，不断壮大基层人才队伍、赋能乡村振兴：一是抓好“定向评价、定向使用”基层职称制度落实。我们对长期在基层工作的农业、教育、卫生、工程、统计系列专业技术人员，积极落实基层职称评审制度，从事专业技术工作10年以上的专业技术人员可以申报中级职称，从事专业技术工作20年以上的可以申报副高级职称，从事专业技术工作30年以上的可以申报正高级职称，且不受单位岗位结构比例限制。截至目前，我县有161人评审通过基层职称，其中教育专业124人、卫生专业33人、农业专业3人、工程专业1人。二是抓好新型职业农民职称制度落实。2020年以来已实现农民职称评定工作常态化，已有146人获得初、中级农民职称，其中初级农民助理农艺师89人，中级农民农艺师57人。2023年计划评定新型职业农民职称30人。三是抓好乡村人才培育。今年已完成省级乡村振兴领域人才培训任务1000人次；在2021年高标准完成山东省农业技术人员保护地蔬菜种植技术高级研修班的基础上，今年将开展《肉鸭智慧养殖与疫病防控能力提升高级研修班》项目。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>141</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会全面推进乡村振兴专题德城区专场</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c82160843/content.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“全面推进乡村振兴”专题德城区专场 - 德州市人民政府', '大家上午好！欢迎参加市政府新闻办新闻发布会。今天我们来到德城区，举行“全面推进乡村振兴”专题新闻发布会第十一场——德城区专场。我们邀请德城区政府副区长、党组成员杜海伟先生，德城区人社局党组书记、局长王新峰先生，德城区农业农村局党组书记、局长王莉女士，德城区委组织部副部长、党员教育中心主任刘彦辉先生，德城区文化和旅游局党组成员、副局长张璐女士出席发布会，向大家介绍德城区全面推进乡村振兴工作开展情况，并回答记者提问。', '大家上午好！首先，我谨代表德城区政府向一直以来关心和支持我区乡村振兴的新闻界朋友们表示衷心的感谢！近年来，在市委、市政府的坚强领导下，德城区委、区政府以习近平新时代中国特色社会主义思想为指导，立足优势、精心谋划，聚力推进乡村振兴战略实施，形成了五大振兴互为支撑、协同发展的崭新局面。', '一是严守底线，确保粮食稳产保供。坚决扛牢粮食安全政治责任，夯实产业发展基础，大力实施“吨半粮”创建，3万亩“吨半粮”核心区70%地块实现“吨半粮”产能。持续提升农业生产效率，成功创建全国主要农作物全程机械化示范县，粮食安全底线更加牢固。', '二是延长链条，实现产业协同发展。积极培育壮大下游产业，引进培育北京万喜、粮全其美、永盛斋等核心下游企业12家，产业链条不断延展。大力推动农业产业化发展，培育规模以上农业产业化龙头35家，其中省级龙头企业3家，市级龙头企业13家。推动农业、旅游业融合发展，打造以奥德曼酒庄、黄河涯万亩桃园为主的休闲生态游，推广采摘农业等农业发展新业态，“都市型”农业特色更加彰显。', '三、创新突破，打造德城农业品牌。充分发挥现代服务业优势，积极运用“农业+互联网”“农业+共享经济”等新模式，推广黄河涯西瓜、草莓、樱桃等特色农产品。大力打造农业品牌，推出首批“尚德诚品”品牌企业10家，认证“三品一标”农产品19个，持续提升农产品附加价值，让农民增产更增收。', '二是发挥优秀教师教育支撑力。针对乡村义务教育阶段优秀教师紧缺状况，积极鼓励城区优秀教师通过兼职、离岗等方式支教。实施村镇学校校长素质提升工程和教师层级培养计划，今年以来，开展29节名师“送教助教”活动，持续提升乡村教师教学能力，推动德城教育均衡发展。', '三是发挥青年学子青春支撑力。针对乡镇青年人才不足的问题，在现有的12名“三支一扶”人员基础上，今年计划招募“三支一扶”毕业生24人，其中从事乡村振兴工作4人，支教工作20人。组织乡村振兴重点企业参加山东农业大学、泰山医学院等高校专场招聘10场，提供就业岗位1000余个，引进高校毕业生510人。', '四是发挥本土人才发展支撑力。针对基层对优秀本土人才的迫切需要，今年以来，开展乡村振兴人才职业技能培训5期，培训乡村公益性岗位400余人次，在提升乡村公益岗履职能力和服务水平中，厚植乡村振兴人才沃土。', '一是开展丰富活动。广泛开展“听党话、感党恩、跟党走”宣讲活动。组织“道德模范”“德城好人”“文明市民”等活动，评选各类身边榜样100余人。围绕“乡村文明行动”主题，组织开展“农民文化艺术节”“送戏下乡”等文化活动和家庭教育、法律咨询、科学普及等志愿活动6000余次，在满足群众精神文化需求中，让文明新风吹遍村村百姓心头。', '二是建强文明阵地。推动新时代文明实践站（所）、文明志愿服务站、道德讲堂标准化建设，文明实践站实现全覆盖。依托“智慧德城”APP建立文明实践管理平台，实现百姓“有需”，志愿服务队“有应”。坚持城乡文明创建一体化，创建全国文明村镇3个、省级文明村镇20个。开展村级组织活动场所维修改造和“空白村”清零行动，124个村居室内外活动场所和三支文艺队伍实现全覆盖，村民文化娱乐活动有了更好去处。', '三是推动移风易俗。制定《关于在城乡倡导开展“反对浪费、文明办事”移风易俗行动（2022年-2024年）实施方案》，实现红白理事会、村规民约张贴全覆盖，黄河涯镇焦庄村红白理事会做法入选“全省百佳红白理事会典型案例”，全省婚俗改革试点圆满结项，经验做法被《德州改革》刊发。实施移风易俗入户走访调查，印发文明行为宣传画、明白纸，开展“立家规、树家风”活动，让文明宣传深入群众、深入人心。', '一是攻坚大气水体污染防治。坚持用政府的不懈努力，让清风绿水重回群众身边。实施“秸秆禁烧高空智慧监控”项目，采取“人防+技防”手段实现对490km2重点区域的全天候自动监控，真正做到第一时间发现处置火点。对全区5家污水处理厂和华鲁恒升、实华化工等重点排污企业加强监管，实时监控在线监测设施运行达标情况，河流水质持续改善，南运河1-5月份水质均值达到地表水Ⅱ类水质，历史最优。持续强化三十里铺、王村店2处污水处理站监管，实现排水稳定达标，完成馨秋社区沟渠、二十里铺沟渠等4处黑臭水体治理任务，已发现的黑臭水体今年即可全部消除。', '二是攻坚农业面源污染治理。依托农业农村部畜禽规模养殖场直联直报信息系统，对全区55家规模养殖场、153家养殖大户进行动态监测。持续开展联合执法进养殖场、户。充分发挥养殖绿色化抓手作用，建立养殖尾水治理技术模式推广点2处、水产养殖用药减量模式推广点4个，全区畜禽粪污综合利用率达到91.18%，规模养殖场粪污处理设施装备配套率达到100%，推动农民增收与生态保护协调发展。', '三是攻坚农村人居环境整治。编制印发《德城区农村人居环境整治五年行动提升方案》和《德城区2023年农村人居环境“十村示范百村提升全域整治”实施方案》，开展人居环境“百日攻坚”“夏季战役”行动和“双镇百村”建设攻坚行动，创建省级“美丽乡村示范村”8个、“清洁村庄”32个，馨秋村中心村入选山东省景区化村庄名单。', '一是持续强化带头人队伍建设。全面优化班子结构，所辖60个村全部配备35岁以下年轻干部，“一肩挑”比例96.67%。回引15名在外创业能人、机关企事业单位退居二线干部回村担任“荣誉村书记”，在“创业、引资、纳智、留人”上出主意、想办法，为乡村振兴提供“源头活水”。', '二是深化农村区域党建联合体建设。出台《联合体规范运行机制》，构建起“镇街党（工）委—联合党委—村级党总支—网格党支部—党员服务队—党员中心户”的六级组织链条。摸底排查党组织、产业振兴、基层治理等三类带头人400余名，分批次到联合体挂职锻炼。采取“任职挂职+选派下派+招聘整合”等方式，组织60余名第一书记、工作队员、镇街机关干部下沉治理一线，充分发挥下派干部的最大效能。', '三是不断夯实村级工作规范运转。完善小微权力清单，全面梳理党务、村务、便民服务3大类29项事关群众切身利益的村级权力事项。在联合体、村两级成立9—13人的公开“评议团”，强化联合共治，累计召开两级评议会50余场，化解民事纠纷、信访案件等38件。出台“1+N+5”党员联系户制度，印发工作手册2000余本，组织2000余名党员结对联系群众1.6万余户。', '下一步，我们将继续坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大精神，坚持立足特色谋发展，凝心聚力促振兴，全力争取乡村振兴工作在我区率先突破，为我市全面推进乡村振兴贡献德城力量。谢谢大家。', '记者：今年以来德城区农村人居环境综合整治工作取得了显著成效，请问农业农村局从哪些方面推进了此项工作的开展？', '王莉：近年来，德城区牢牢抓住农村人居环境整治这个“突破口”，大力开展人居环境“百日攻坚”、“夏季战役”和“攻坚月”行动，统筹推进污水治理、农村改厕、畜禽养殖粪污资源化利用等各项工作，健全了基础设施、完善了公共服务，农村人居环境治理水平得到显著提升。一是高度重视、统筹规划。年初制定《德城区2023年农村人居环境“十村示范百村提升全域整治”实施方案》和《德城区农村人居环境综合整治提升春季战役实施方案》，明确目标任务，坚持统筹规划，综合考虑各项要素，统筹安排部署工作任务。二是迅速行动、狠抓落实。集中开展综合整治行动，累计清理三大堆问题2250余处、乱堆乱放1390余处、乱贴乱画460余处、路域环境问题1430余处，新增各类绿植10000余株。全面推进基础设施提升项目，积极争取各级资金及专项债等，启动村庄道路升级改造项目，补齐农村基础设施短板，第一批选取19个村，截至目前，黄河涯镇辛店、于西、九龙庙3个村的改造工作已完成，其余村已完成招投标工作，正陆续进场施工。三是强化督导、确保实效。成立联合督查小组，依照“八清零一提升”标准，每周开展督查评比，对农村人居环境整治工作进行全面检查，发现问题及时反馈，并督促立行立改，确保管理到位不松懈、严抓共管不放松、清理彻底不反弹。', '下一步，我们将更加注重全域提升，对村庄边缘地带，村与村交界地带，各个分散的自然村做到全面整治、同步推进，确保不留死角。同时，紧盯突出问题不放，逐一盘点梳理，对存在的重点、难点问题集中商议，逐个精准破点。对基础较差的村庄，需持续用力、久久为功，不搞突击战、一阵风，全力推动人居环境整治工作再上新台阶。', '问：农村基层党组织是推进乡村振兴战略的核心力量和重要抓手。作为中心城区，今年在加强农村基层党组织建设有哪些思路？', '刘彦辉：感谢您的提问。今年以来，德城区聚焦抓党建促乡村振兴重点任务，聚力抓班子、强队伍、促发展，为农村基层党组织“铸魂赋能”。', '一是推进村党组织“跨村联建”。以组织联建引领乡村抱团发展，培育12家农村区域党建联合体，带动60个村连线成片、组团发展。推行产业联营，培育出“德水安澜”“文贤果”等一批特色品牌。抓实人才联育，在“四化”党建联合体，建立德州学院新园博士工作站，探索“双师型”教师培养培训。推广“联合党委+专项攻坚小组+行政村网格”治理模式，通过治理联抓，累计化解网格内问题百余件。二是建强骨干队伍。结合“今冬明春”党员培训和县乡村三级乡村振兴主题培训计划，对60名村党组织书记全覆盖培训，集中轮训农村党员干部1.2万人次。对“强基村”和集体经济薄弱村，街镇逐人明确领导帮包，扶上马、送一程。对“创优村”、“示范村” 党组织书记，每季度组织开展一次“擂台比武”，公开客观评议工作落实情况。三是强化管理监督。对全区60个村405名“两委”成员常态化资格联审，严把人选政治关、廉洁关、能力关。抓实村级治理“阳光工程”，从管权、管钱、管人和织密监督网络4个方面，加强以“一肩挑”人员为重点的村干部管理监督。结合今年主题教育检视整改工作要求，集中开展农村基层党建突出问题专项整治，围绕9个方面43个“有没有”问题清单，逐村“过筛子”，在学习培训、督导检查等方面建立长效机制。', '下一步，德城区将着力构建一贯到底的党建责任体系，进一步树牢抓党建促乡村振兴的鲜明导向，始终保持干要最优、争就一流的奋斗状态，在党建引领乡村振兴中展现新担当新作为。谢谢！', '王新峰：为加强基层专业技术人才队伍建设，山东省人社厅和山东省人民政府办公厅在《关于加强基层专业技术人才队伍建设的实施意见》（鲁人社发【2017】18号）、《关于深化职称制度改革的实施意见》（鲁办发【2018】1号）中制定并完善了基层专业技术人才职称评审倾斜政策。其中规定：一是在乡镇专业技术岗位工作的专业技术人才（医疗卫生专业除外）申报职称，可不受所学专业限制，评审时侧重考察其实际工作业绩。非乡镇单位专技人才交流聘用到乡镇单位专技岗位工作并在现岗位工作一年以上的，经考核符合条件的，可不受任职年限和职务级别的限制，申报相应职称。二是建立健全“定向评价、定向使用”基层职称制度，乡镇基层职称评审单独标准、单独评审，颁发基层职称证书，证书在全省乡镇区域内使用。基层高级专技岗位实行总量控制、比例单列，不占单位专技岗位结构比例总数。三是畅通基层专技人才职称“双通道”，可自主选择基层职称或者全省统一的职称。', '问：围绕建设新时代社会主义现代化强市“首善之区”，区文旅局在公共文化服务体系建设方面都采取了哪些措施来为群众提供更多更好的精神文化生活？', '张璐：这个问题由我来回答。近年来，区文旅局高度重视乡村文化振兴工作，充分利用现有资源，统筹规划、加大投入，提高公共文化产品供给能力，不断提高群众文化生活的获得感、幸福感、满意度。', '一是，高质量构建多元化城乡公共文化服务体系建设。目前占地面积22000平方米，总建筑面积48898.96平方米的德城区文化中心项目即将投入使用，随着德城区公共文化服务体系的不断完善，将为城乡居民提供更多开展公益性文化活动、独特文化休闲舞台、地域文化交流展示的平台，对完善城市功能，提高城市竞争力和城市品位，提升德城中心城区形象具有十分重要的意义。', '二是，“15分钟阅读服务圈”日益形成。促进公共文化服务网络向基层延伸，建设乡村博物馆、村史馆、城市书房、文化驿站等“小而美”的覆盖城乡的新型公共文化空间。目前，高标准规划建设了集图书借阅、自修学习、公益培训、文化交流、文创展示、非遗体验等于一体共13座明德书房，形成了独具特色的“德城模式”，有效打通公共服务“最后一公里”。', '三是，以样板镇村创建为抓手，构建区、镇街、社区（村）三级公共文化服务体系。全区7个镇街均建有文化馆、图书馆分馆和综合文化站，124个社区（村）设有综合性文化服务中心，同时打造7至10个样板社区（村）、并择优向市级重点推介。', '四是，群众文化活动“百花齐放”，组织了以“文化进万家、黄河大集、小戏小剧”等为主题的群众文化活动137场次，开展了送春联、非遗展示、文艺演出、古街庙会、非遗进校园、戏曲讲座、公益培训、书画笔会展览等形式多样、丰富多彩的群众文艺活动。创排推出一批思想精深、艺术精湛、制作精良的文艺精品20余部。2023年上半年全区共开展文艺活动800余场，其中开展群众性文艺活动737场，小戏小剧50余场，送戏下乡60余场，公益电影放映300余场。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>141</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会全面推进乡村振兴专题天衢新区专场</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c81951075/content.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“全面推进乡村振兴”专题天衢新区专场 - 德州市人民政府', '大家上午好！欢迎参加市政府新闻办新闻发布会。今天我们来到天衢新区，举行“全面推进乡村振兴”专题新闻发布会第九场——天衢新区专场。我们邀请天衢新区党工委委员、管委会副主任申毅先生，天衢新区社会事务管理部部长王玉国先生，天衢新区党群工作部副部长王涛先生，天衢新区生态环境分局副局长杨列勇先生，天衢新区党群工作部副部长王振东先生出席发布会，向大家介绍天衢新区全面推进乡村振兴工作开展情况，并回答记者提问。', '大家上午好！首先，我谨代表天衢新区党工委、管委会向一直以来关心和支持天衢新区乡村振兴的新闻界朋友们表示衷心的感谢！近年来，天衢新区认真贯彻落实习近平总书记关于“三农”工作的重要论述和重要指示批示精神，坚持唯旗是夺、事争一流，补短板、强弱项、固底板、扬优势，强力推进乡村振兴战略，实现了农业农村工作高质量发展。', '一、发展新型农业，推动产业振兴。以龙头企业为引领，发展现代农业、设施农业、智慧农业、数字农业、精准农业，全区现有农业产业化龙头企业10家，其中国家级重点龙头企业1家，省级重点龙头企业4家，市级重点龙头企业5家。全区规模以上农产品加工企业27家，形成了以粮油加工、肉制品、调味品、功能食品、乳饮料、酒水饮料等六大领域为支撑的产业链发展体系。与北大荒农垦集团八五三农场深度合作，流转土地8800余亩，在“吨半粮”示范区创建上实现新突破。德高、德农两大种子公司在种子研发上走在全市前列。亚洲单体面积最大的文洛式智能玻璃温室大棚——财金智慧大棚被新闻联播宣发。', '二、健全体制机制，推动人才振兴。建立健全校地人才培养合作与交流机制。鼓励高等学校、职业学校毕业生到农村就业创业，百名博士天衢行活动，吸引100余名青年博士到天衢新区参观交流，指导乡村发展。通过举办大学生乡村振兴创新创业大赛、乡村振兴合伙人等多种形式，加强与强企名校加强合作，为各类人才在农村大地大显身手、干事创业提供平台。建设后备干部队伍，鼓励村级积极吸纳年富力强、经验丰富的人进入班子队伍。', '三、加强道德建设，推动文化振兴。积极培育和践行社会主义核心价值观，高标准建设新时代文明实践站所，实现镇街社区全覆盖，乡村志愿服务形式多样、精彩纷呈，通过文化惠民工程，以文化浸润人心，以文艺滋养文明，移风易俗引领文明新风尚；与山东大学达成合作意向，打造抬头寺文旅融合产业示范带；挖掘农耕文化，推出一批精品露营地，打造了一系列黄河大集品牌；高标准开展“山东手造”推进工程，入库项目和展示中心位居全市前列。', '四、开展环境整治，助力生态振兴。深入开展农村人居环境整治行动，积极谋划专项债，推进农村公共基础设施和基本公共服务建设，建设宜居宜业和美乡村。建立区、乡、村三级帮包机制，健全长效管护措施，解决农村突出生态环境问题，厕所革命、垃圾治理稳步推进，农村人居环境得到明显改善。截至目前，全区已完成122个行政村生活污水治理任务，提前完成市下达的“十四五”农村生活污水治理任务。', '五、强化效能提升，推动组织振兴。充分发挥党组织战斗堡垒作用，乡村振兴“擂台比武”，农村党组织书记抓党建促乡村振兴的能力和水平不断提升。创新推出“国企托管村集体经济”、“跨村联建”、“三类地”开发利用等模式，分类推进，以先进带后进，分类施策，增强村党组织战斗力和引领力，发展壮大集体经济。', '下一步，我们将认真学习贯彻党的二十大精神，落实中央、省委、市委农村工作会议精神，坚持目标导向、问题导向、结果导向，坚持唯旗是夺、事争一流，在打造乡村振兴齐鲁样板率先突破上贡献天衢力量。', '大家上午好！首先，我代表天衢新区社会事务管理部向出席今天新闻发布会的各位来宾、新闻记者朋友表示热烈欢迎，向关心我区乡村产业发展的各界朋友表示衷心的感谢！下面，我简要介绍一下全区乡村产业振兴工作情况。', '近年来，天衢新区认真贯彻落实习近平总书记关于“三农”工作的重要论述和重要指示批示精神，大力发展设施农业、现代农业、智慧农业，推动一二三产业融合，全面开启天衢新区乡村产业振兴高质量发展新篇章。2022年，农林牧渔业总产值9.07亿元，可比增长2.2%；农民人均纯收入增长8.3%，增幅居全市第2位。', '一、狠抓三个关键，保障农业增产增收。一是狠抓“吨半粮”建设。支持赵虎镇“吨半粮”示范区建设，依托北大荒集团八五三农场全程托管，发展现代农业，已流转土地8800余亩，涉及16个村庄。二是狠抓种业振兴。从政策、资金、研发、推广等方面重点扶持，推动天衢新区种业振兴。德农种业的德麦008在2022年德州吨半粮建设中拔得头筹，德高种业2个品种被列入《国家农作物优良品种推广目录（2023年）》（全市仅3个），新区种业振兴被“朝闻天下”宣发。三是狠抓科技服务。组织“千人指导、万人培训”农技提升培训会、“千人下乡·稳粮保供”农技服务大行动等系列活动，出动农业技术人员百余人次，开展专业技术指导，有效提升群众种植管护水平。举办节粮减损大比武、“粮王”争霸赛等系列活动，激发了群众减损耗、增单产的主动性。打造国家小麦产业技术体系，“4422”绿色高产模式在新区开花结果。', '二、聚焦三项提升，促进三产深度融合。一是品牌提升，首衢一指。做足做大做强天衢新区“天”字号文章，挖掘天衢新区特色农产业资源禀赋，突出智慧、有机、绿色、健康等属性，推进“首衢一指”农业品区域公用品牌，形成了新区农产品抱团发展的良好态势。全区“德州味”授牌企业5家，“三品一标”认证产品25个，现有农业产业化龙头企业10家。二是平台提升，聚合发力。积极为推广新区农产品搭建平台，承办中国（德州）“食品名市”建设推介会现场观摩、第二届“德州味”优质农产品展销峰会等活动；举办德州天衢新区特色农产品推介暨产销选品交流会；先后组织区内重点农业企业参加展览20余次；现代农业、智慧农业先后被“朝闻天下”“新闻联播”宣发，预制菜产业发展情况被新华网报道；德州扒鸡股份有限公司作为全市唯一入选2023中国预制菜企业竞争力百强。三是产业提升，拉长链条。充分挖掘新区特色资源优势，不断延伸产业链，率先成立产业链联合党委，以“党建强、发展强”为导向，把战斗堡垒建在“链”上，把先锋力量聚在“链”上，把服务保障抓在“链”上。全区共有规模以上农产品加工企业27家，1-5月，实现营业收入34.37亿元，同比增长2.77%。', '三、深化三项改革，推进三资增值增效。一是深化管理体系改革。构建农村集体“三资”管理系统、“银农直连”非现金结算系统，实现数据信息共享，促进农村经济持续健康发展，推进农村集体经济增值增效。目前全区累计实现村级集体经济收入6264.74万元，比去年同期增长了8.9个百分点。二是深化制度体系改革。制定出台《德州天衢新区村级集体经济组织“三资”管理办法》等一系列制度体系文件，将三资管理整体纳入纪委监管平台，提级监督，让“三资”在阳光下运行。三是深化农村产权改革。建设天衢新区农村产权交易中心，推进农村产权流转的透明化、运作的规范化、效益的最大化，促进农民增收、农业增效、农村发展。', '下一步，我们将认真学习贯彻党的二十大精神，落实中央、省委、市委农村工作会议精神，按照“1234n”的工作路径，实现天衢新区农业农村工作跨越发展。1是1个目标，放眼全国，瞄准全省一流水平，谋划好全省领先的乡村振兴发展规划。2是2项要害工作，实施种业振兴行动，打造高标准农田和“吨半粮”示范区。3是3产融合，做优存量，培植农业龙头企业，延伸产业链、增强价值链；做大增强，打造产业强镇、产业集群；做强变量，加强与全国知名企业的联系，实现招商引资突破，打造宜居宜业和美乡村旅游生态带。4是开展4项基础设施提升行动，开展美丽乡村建设、衔接资金项目、人居环境整治、安置区提升等行动；n是坚持事争一流、唯旗是夺，守牢一排底线，实现n项工作创品牌，推出一批全国全省叫得响的出圈出彩事项，为建设农业强市贡献天衢新区力量。', '近年来，天衢新区认真贯彻落实上级关于乡村人才振兴工作的总体要求，创新举措，积极引导人才要素向乡村流动，为全面促进乡村振兴提供有力的人才支撑。', '一、就业优先夯实共富共享。今年以来，建成运营建筑面积400平方米，总占地1800平方米公益性零工市场，实行“线上+线下”2种服务模式，第3方服务运营与人社管理相结合，每月至少4次人才大集等集中对接活动，全区6个乡镇（街、办）全部建成零工驿站和N个社区、企业零工服务网络，为劳动者提供就业创业、人才服务、职业技能培训等“一站式办理”服务。目前，已组织举办各类对接活动7场次，募集合作企业达430余家，提供岗位1640余个，达成就业意向800余人次，为求职者提供爱心免费早餐1300余份，组织开展手工零活、家政服务等专项培训，组织参加手工活人员共计210余人次，现场教导完成成品2400余件。组织举办“春风行动”“民营企业服务月”系列促就业招聘活动，开展“百企校园行”，发动企业单位赴济南、石家庄、西安、哈尔滨等城市学校开展招才引智活动，今年以来，累计组织各类招聘招引活动近30场次，参与人次超过1万人，达成就业意向1200余个。', '二、平台搭建助力招才引智。2023年新增德州乡盛食品有限公司、山东凯蒂斯工业系统有限公司省级博士后科研平台2家。截至目前，我区已获批国家级博士后科研工作站1家，省级博士后创新实践基地3家，省级专家服务基地1家，齐鲁工业大学（山东省科学院）就业实习实训基地2家。涵盖高端装备制造、食品加工、生物医药、新能源新材料等产业。依托人才平台，近年来，培育国务院政府特殊津贴专家5人，国家级技术能手1人、省技术能手20人，齐鲁首席技师15人、市级首席技师16人，柔性引进专家68人，实现技术转换及项目落地30余项，解决生产难题110多个，组织开展技术培训20次，累计培训1100余人次。在为对接乡村产业需求、推动科研成果转化、乡村振兴人才队伍建设方面提供了坚实的人才和智力支撑。', '三、人才集聚破解企业难题。聚焦重点企业需求，组织“百名博士天衢行暨‘广纳才、聚共识、解难题、促发展’青年博士德州行首场走进天衢新区”活动，邀请100余名青年博士到天衢新区参观交流。通过观摩洽谈，100余名“博士团”与企业达成深度合作需求20余项，涉及生物医药、食品等10余个领域，实现精准高效对接各类人才，产、学、研协同创新发展，满足企业与人才发展的多元需求，促进人才在高校与企业间双向流动，加速全市和天衢新区产业发展步伐。积极协助德州市大学生乡村振兴创新创业大赛活动开展，大赛围绕“创新促农 创业助农 乡村振兴 双创同行”主题展开，聚焦乡镇在乡村振兴战略实施过程中的痛点、难点问题，借助高校师生的创意成果以比赛形式提供解决方案，探索以赛事办实事，助力乡村振兴。', '四、技能培训政策帮扶促进农民就业创业。将职业技能培训作为促进农村转移劳动力就业、稳定农民工工作岗位、支持农民工返乡创业、助力群众增收的重要抓手，面向广大农民工群体，开展大规模、广覆盖和多形式的职业技能培训，今年1-5月份，全区农民工参加职业培训人次数达到1423人，已完成计划的284.6%，补贴性职业技能培训扎实开展，培训人次数达到1655人。积极落实就业困难人员兜底政策，开发农村民政助残、养老护理、交通管护、公共卫生等乡村公共服务类公益性岗位，截止5月底已按程序安排乡村就业困难人员上岗494人，完成全年计划的54.89%。通过落实创业扶持政策，优化创业服务措施，不断优化创新创业环境，提升创业服务水平，支持更多重点群体投身创业活动，截至5月底发放创业担保贷款2163万元。', '下一步，天衢新区将继续加强人才政策宣传，优化服务质量，持续发挥省级乡村振兴专家服务基地作用，开展乡村振兴技术技能人才高级研修班，激发乡土人才活力，为乡村振兴人才搭建交流合作的平台，助力乡村振兴战略落实落地。', '大家上午好！首先，我谨代表天衢新区向一直以来关心和支持我区乡村文化振兴的新闻界朋友们表示衷心的感谢！天衢新区认真贯彻落实习近平总书记关于乡村文化振兴的重要论述和重要指示批示精神，加强顶层设计，聚力创新发展，不断丰富乡村文化生活，提高乡村社会文明程度，为乡村振兴持续提供强大精神动力。', '一、着力推动新时代文明实践提档升级。实现“五有”标准全覆盖。已建成镇街文明实践所5处，社区（村）文明实践站127处，实现镇街社区全覆盖。以新时代文明实践所站为平台，强力推进乡村文化服务活动建设，进一步提升全民文化素养，筑牢文化自信。2023年，将大力实施阵地提升工程，巩固提升“五有”标准，由高标准覆盖转入高质效发展阶段，提升综合效益、整体效能。“五为”志愿服务精准匹配、常态长效。全区现有400余支志愿者服务队伍，队员8万余人。结合各自实际情况，开展形式多样的志愿服务活动，为老百姓解决困难、舒缓身心、提高素养。开展“党的二十大精神”“习近平新时代中国特色社会主义思想”宣讲、“共庆元旦 文明起航”文艺演出、“迎新春送温暖”走访等600多场特色活动，进一步丰富了居民日常文化生活。', '二、深化推动移风易俗走深走实。将移风易俗工作纳入意识形态工作专项考核，作为评选文明村镇、文明单位、文明家庭、文明校园的前置条件，召开移风易俗重点领域突出问题专项整治行动推进会，开展移风易俗风险点排查、重点领域突出问题专项整治等行动，强化行业监管，发挥党员干部示范作用，累计开展180场移风易俗活动，通过线下推广、线上直播相结合的方式，大力宣传移风易俗新风尚，着力营造婚事新办、丧事简办的社会氛围，全区城乡精神文明建设水平不断提升。', '三、文化惠民演出活动亮点纷呈。新时代的农民群众对美好生活的需求正在发生深刻变化，迫切要求扩大文化设施建设，满足群众多样化、多层次的文体活动需求。目前，建有德州市文化馆天衢新区分馆，区内镇（街、办）全部建成综合文化站，并达到三级以上标准，基层综合性文化服务中心覆盖率达到100%。全区所有村、社区都建有室内外活动场所和文体队伍。为农民群众提供高质量的精神食粮，是推动乡村文化振兴的题中应有之义。今年，1-6月份我区共开展文化惠民活动1000余场，其中文化进万家活动850余场、黄河大集活动80余场，“一年一村一场戏”演出活动84场，非遗进乡村活动60余场。高标准开展“山东手造”推进工程，建立以非遗为主的“山东手造”项目库，入库项目125项，建成“山东手造”展示中心1家、展销专区23处，建成非遗工坊12家，位居全市前列。', '四、乡村旅游实现高质量发展。把文旅产业作为集聚资源要素、刺激经济复苏、提升区域竞争力的重要抓手，推动乡村旅游提档升级。依托赵虎镇和抬头寺镇着力打造乡村旅游集群片区。深入挖掘现有的葡萄、杏、西瓜等农业资源，让更多的资源转化为旅游产品，推动乡村旅游品质化发展。创新“露营+旅游”模式，推出一批精品露营地，全区开营露营地7处，220余个营位，每处露营地都与景区、生态、人文旅游资源进行了紧密结合，露营特色突出。开展一批精品节庆活动。打造好艾家坊大集、袁桥大集等系列黄河大集品牌。以“乡村踏青游”为主题，聚焦田园踏青、特色采摘、文艺展演等三大主题活动和山东手造、文创产品、非遗产品等“六品下乡”，创新“线下大集+线上带货+宣传推介”的方式，借助传统乡村大集和线上平台，广泛开展促进消费活动。', '大家好！首先，我代表区乡村生态振兴工作专班，向出席今天新闻发布会的记者朋友们表示热烈欢迎！向一直以来关心和支持乡村生态振兴工作的社会各界朋友们表示衷心的感谢！下面，我向大家简要介绍一下近年来我区乡村生态振兴工作情况。', '近年来，区乡村生态振兴工作专班深入贯彻落实上级部门关于乡村振兴战略决策部署，围绕改善农村人居环境“一个目标”，立足工作实际，加快补齐乡镇基础设施短板，扎实开展农村生活污水治理、厕所改造等重点工作，乡村生态振兴取得阶段性成果。', '一是扎实推进农村“厕所革命”。目前除长河街道外，其他镇（街、办）均涉及改厕工作。厕所革命以来，各有关镇（街、办）已完成139个村23741户厕所改造（2016年至2020年），其中新建23741座，规范提升3912座，建设公厕所14个。2023年我区旱厕改造任务2794户，施工单位现已进场施工，预计12月底完成改造任务。 各镇（街、办）强化改厕后续管护，配齐抽粪车辆、配足管护人员，按照上级有关标准建立改厕管护站，基本实现委托专业第三方组建管护队伍运行，后续管护长效机制基本建立并稳定运行。', '二是积极开展农村垃圾治理工作。德州天衢新区以城乡环卫一体化为抓手，持续完善农村生活垃圾收运设施设备。今年以来，创新资金投入渠道，通过实施农村人居环境整治专项债券项目，加强两镇一办生活垃圾收集设施设备提升。其中，涉及生活垃圾压缩站及车辆等设备的投资费用约为570万元，约占总项目实施金额65%，对提升新区城乡环卫一体化水平发挥实质性保障作用。按照“户集、村收、镇运、县处理”的城乡环卫一体化要求健全完善农村生活垃圾收运设施设备和人员力量，设置密闭式垃圾收集桶，建设运行垃圾转运站，配齐垃圾清运车辆，建立专门的村庄保洁队伍，每日对村庄进行清扫保洁。', '三是稳步推进农村生活污水。现已完成122个行政村生活污水治理任务，农村生活污水治理率56%，提前完成省市下达的“十四五”农村生活污水治理率达到55%的工作目标。今年重点抓好运维制度落实，督促镇（办）对已建立的污水管网进行定时清淤维护，发现损坏及时修复，确保污水纳入管网；对采用集中拉运方式的村庄，定期检查蓄水池等收集系统是否正常运行，并建立专业化拉运队伍，做好抽运记录。', '四是全力促进村容村貌提升。资金筹措方面，谋划争取农村人居环境整治债券资金项目，一期到位资金5000万元，专项用于建设宜居宜业美丽乡村、提升公共基础设施、农村危桥维护等重点项目，助力乡村面貌全面提升，目前各项提升工程项目正在压茬推进。长效机制建立方面，建立周调度、月通报、季观摩、年总评的督导考核制度，成立3个区级督导组，定期进行暗访督查，发现问题实时反馈给有关镇（办），并开展问题整改“回头看”，发布“红黑榜”，以奖惩促提升。建立健全区、乡、村三级领导干部帮包机制，先后多次召开全区农村人居环境整治工作部署会，明确职责，分享措施、指出问题；多次召开培训会议，将农村公益岗、网格员纳入农村人居环境工作队伍，广泛组建党员志愿服务队，形成了齐抓共管、全员动员的工作合力。', '基层党组织是党执政大厦的地基，是党全部工作和战斗力的基础。乡村振兴的各项政策，最终要靠基层党组织来落实。组织振兴是乡村振兴的重要目标，也是根本保证。必须突出政治功能，提升组织力，打造千千万万个坚强的农村基层党组织，以乡村组织振兴保证乡村振兴战略实施。', '近年来天衢新区聚焦各村服务资源分散、力量薄弱、效能不高等问题，以组织振兴为抓手，打造过硬队伍，盘活集体资产，壮大集体经济，走出了一条以组织振兴引领乡村振兴的发展路径。', '一是强化农村党建根基。开展农村党组织评星定级，针对后进村党组织制定专项提升措施，促进村党组织规范化运转。举办全区农村党组织书记抓党建促乡村振兴“擂台比武”，对全区抓基层党建促乡村振兴工作进行“成绩晾晒”和“能力检验”，全面提升农村党组织书记抓党建促乡村振兴的能力和水平。', '二是持续深化“跨村联建幸福家园”建设。制定《天衢新区全域推进村党组织“跨村联建”工作方案》，优化完善制度机制，提升12个联合党组织统筹协调能力和跨村联建运转效能，通过党组织融合带动各方面融合，进一步优化资源配置，从而实现“组织融合”带动“产业振兴”。多路径推动乡村振兴。深入推进“三类地”开发利用，先后与中国华能、北大荒农垦集团等企业签订土地流转合同，推进农用地规模化经营，累计流转土地8800余亩，亩均增收1200余元。组织第一书记和工作队专班、镇党委成员及村党支部书记多次赴日照等地考察学习，开设“田间课堂”，邀请中药系等专家现场指导授课，通过“走出去”+“引进来”，进一步拓宽乡村振兴路径。', '四是实施“红地强村”工程，深入推进农村“三类地”开发利用行动，通过推进村党组织领办合作社、组建合作社联合社、对接农业龙头企业（或大型农业项目）、做精乡土特色产业、兴建“飞地”产业园等方式，充分提升农村各类土地使用质效，优化城乡要素配置，壮大村级集体经济，实现强村富民，打造先进示范点，以党建促乡村振兴。', '火车跑得快，全靠车头带。实践证明，基层党组织充分发挥把方向、议大事、抓落实作用，在农村各项工作中发挥“主心骨”作用，就能保证乡村振兴沿着正确方向阔步前进、行稳致远。', '王玉国：天衢新区立足高端、数字、智能等特点，重点推进农业产业化发展。特色产业主要有扒鸡产业、菌业产业、种业产业、西红柿产业等。一是扒鸡特色产业蓬勃发展。目前我区扒鸡产业“全产业链式”发展格局已初步形成，形成了以山东德州扒鸡股份有限公司、乡盛食品有限公司、德州倚诚扒鸡有限公司3家龙头企业为引领，集肉鸡养殖、加工、销售于一体的特色全产业链发展模式。2022年3家扒鸡公司，营业收入10.39亿元，税收0.62亿元。其中，德州扒鸡公司先后被授予“农业产业化国家重点龙头企业”、“中华老字号”、“中国肉类食品行业强势企业”、“中国食品安全年百家诚信示范单位”等荣誉称号，德州扒鸡制作工艺被授予国家非物质文化遗产代表性项目。二是食用菌产业做强做大。山东雪榕生物科技有限公司是全国最大的食用菌生产基地，主要产品为金针菇、真姬菇等，是山东省农业产业化重点龙头企业，日产500余吨食用菌。德州大晟生物科技有限公司填补了德州市鹿茸菇生产的空白，2022年鹿茸菇年产量3600吨，产值1800万元。三是种业产业后劲十足。以德高种业、德农种业为引领，大力提升种业科研创新能力，培育优良农作物新品种。德农种子有限公司具有自主知识产权的玉米、棉花、小麦品种22个，具有生产经营权的品种19个。德高蔬菜种苗研究所是一集蔬菜作物科研育种、繁育、推广一体化科技型企业。先后主持和承担了国家农业科技成果转化资金项目、国家948葱类育种项目、山东省大白菜科技攻关育种项目、山东省良种工程重点育种项目和德州市大白菜攻关育种项目。取得8个国家注册商标和一项包装外观设计专利，已通过ISO9001国际质量管理体系认证。公司已审定品种11个，已登记品种55个，取得植物新品种权12个。四是西红柿产业出彩出圈。财金智慧农业产业园高端设施农业日采摘量可达60吨，让传统农业从“靠天吃饭”转变为“靠技术吃饭”，不断推动传统农业数字化转型，带动了大数据、物联网等现代信息技术与农业生产深度融合。德州归然种植合作社传统农业大棚，百亩大棚西红柿，订单式生产，全部施用有机肥、不打农药、不用任何催熟剂，生态西红柿畅销北京、深圳、沈阳等大城市。此外，新区鼎味、光明、双汇等品牌产业业内一流。', '王涛：下一步，天衢新区将牢牢把握社会主义先进文化前进方向，强化政治引领，加快公共文化服务体系的健全和完善。一是补齐基层文体设施短板，加大宣传力度，持续更新、维护体育健身器材，打通全民健身的“最后一公里”。二是积极引进人才资源，引导年轻大学生投身于文化建设工作中来。定期举办培训班、讲座，派遣文化骨干外出交流、进修深造，加强对乡村文化人才的培养，提高文化人才队伍的业务水平和业务素质。三是依托新时代文明实践所（站），打造活动品牌，丰富活动载体，精心策划群众喜闻乐见的文体活动，增强群众文化活动的参与感、体验感、获得感。', '杨列勇：农村生活污水治理方式有纳入污水管网处理、集中拉运、建设集中污水处理站、建设小型一体化污水处理设备等方式。天衢新区因地制宜，分类治理，主要采取纳入污水管网处理和集中拉运两种治理方式。对靠近城镇且满足城镇污水收集管网接入要求的农村区域，优先纳入城镇污水处理厂处理；对集聚程度较高的农村区域采用集中拉运方式，污水经收集系统汇入蓄水池暂存，将污水就近拉运至污水处理厂或汇入管网进行处理。', '问：推进“三类地”开发利用，盘活集体资产作为组织振兴的一项重点工作，天衢新区有哪几种模式盘活“三类地”资产？能否举例说明？', '王振东：一是复垦地开发利用模式。利用赵虎镇于彬村南30亩复垦地打造赵虎镇农业为民服务中心，该项目建设单位为山东种业集团有限公司，总建筑面积1.55万平方米，投资6000万元。项目主要建设粮食烘干塔、粮食存储仓库、冷藏库、“一喷三防”综合作用库房、露天晒场、土壤检测中心、智能配肥中心、职业农民培训中心、农机维修保养中心、粮食检验检测中心、数字化管理中心等基础设施。项目建成后，通过粮食烘干、无人机植保、旋耕收获等全自动机械化作业项目，带动周边就业100余人，可实现净利润50余万元，有力提高村集体经济收入。', '二是“合作社+企业”联合模式。利用赵虎镇双湾村收回240亩集体土地，与央企中国华能集团有限公司签约，发展“种植大棚+棚顶发电”项目。一期投资9800万元，按照农光互补模式，整合为一个农业拱棚种植区块，作为首期试点进行整体一次性开发。采用上光下棚样式，成排、成片建设60亩东西走向的拱形薄膜大棚，在大棚上部架设光伏。二期、三期建设将利用周边10个村回收的1110亩的土地和坑塘，按照“农光互补、渔光互补”模式，建农业光伏大棚，开发渔业生产光伏发电项目，打破原有村庄界限，成方连片实现现代化新能源产业发展。', '三是“飞地”产业园模式。袁桥镇组织建设中元科技“飞地”产业园，走出了一条抱团发展壮大集体经济的新路子。袁桥镇41个村用征地补偿款入股中元“飞地”产业园，占地面积达629亩，规划建筑面积50万平方米，形成固定资产投资10亿元。组建专业运营团队，按年度对各股东即各村进行分红。首次分红，根据各股东出资情况，金额为2000万元，村均达到50万元，一举消灭了经济薄弱村和空壳村。二次分红，根据赢利情况，金额翻了一番，达到4000万元，村均100万元，累计达1.8亿元，村级集体经济实力空前增强。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>141</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>中国式现代化的德州实践系列主题新闻发布会全面推进乡村振兴专题第三场</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c80989845/content.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['“中国式现代化的德州实践”系列主题新闻发布会“全面推进乡村振兴”专题（第三场） - 德州市人民政府', '今天我们来到乐陵市，走进杨安镇百味佳新村，举行“全面推进乡村振兴”专题新闻发布会第三场，邀请市人社局党组成员、副局长、新闻发言人焦方兵先生，市农业农村局人事科科长李永强先生，市教育科学研究院教师发展研究室主任段化刚先生，团市委组织部部长、一级主任科员杨延昭先生，乐陵市委组织部副部长、人社局党组书记、局长宋殿民先生出席，向大家介绍全市乡村人才振兴工作情况，并回答记者提问。', '乡村振兴，人才为本。近年来，我市深入贯彻落实习近平总书记关于打造乡村振兴齐鲁样板的重要指示精神，紧紧围绕省、市党委政府部署要求，大力实施乡村人才振兴战略，健全工作体制机制，强化各项保障措施，创新“本土人才培育、外地人才回引、专业人才下乡”工作思路，汇聚各类人才在乡村振兴中施展才华、建功立业，为打造乡村振兴齐鲁样板“德州实践”提供了有力人才智力支撑。截至2022年底，全市培育集聚各类乡村人才20余万人，各领域人才规模不断壮大、素质稳步提升、结构持续优化，成为我市乡村振兴的生力军、引领者。', '一是坚持规划引领。制定出台《德州市乡村振兴人才支撑计划（2018-2022年）》，围绕全市乡村振兴战略布局，聚焦农村一二三产业融合发展，从工作目标、重点任务、措施路径、组织保障等四个方面，谋划了5年的重点工作任务，系统推进各项工作任务落实。', '二是坚持精准施策。聚焦乡村人才“引育留用服”各环节，精准出台专项支持政策，打造完备的政策支持体系。实施《德州市“一村一能人”行动计划》，在农民职称评审改革、社会化服务组织培育、农技人才队伍扩容、“乡村之星”评选等方面出台了12条含金量高、操作性强的“硬核”措施。出台《激励“五类人员”回乡创业带就业工作方案》，支持引导企业技能人员、外出经商人员、高校毕业生回乡创业，每年设立1000万元返乡创业扶持资金，带动农民就业和农村发展，激发“归雁经济”内生动力。推动“鲁青基准贷”“鲁青农担贷”“乡村好青年贷”金融贷款项目实施，累计为1028人发放贷款10.37亿元。', '三是坚持制度创新。着力解决县乡事业单位招人难、留人难问题，指导基层适当放宽学历、专业、户籍、年龄条件，适当降低开考比例，稳定基层事业单位人才队伍。推进基层职称制度改革和县以下事业单位管理岗位职员等级晋升制度改革，拓展县以下事业单位管理人员职业发展空间。建立“新型职业农民”职称，评审“土专家”“田秀才”1274名。推进基层职称“定向评价、定向使用”和“直评直聘”制度改革，有9576名基层人才享受到了政策红利。', '一是活动招才。常态化组织开展“千企百校行”“高校直通车”“人才夜市”“直播带岗”“乡村振兴专场”等招引活动，推动线上线下引才“不打烊”，年均举办各类招聘活动超过150场，发布县乡基层岗位超过1万个。', '二是事业引才。2018年以来，全市公开招录县乡基层公务员（含选调生）2790人，招聘教师、医生、农业等事业单位工作人员25670人，服务期满大学生80%以上扎根基层。大力开展“三支一扶”招募活动，指导县市区统筹县域事业单位岗位，确保每个乡镇有2个岗位用于高校毕业生“三支一扶”招募计划，累计招收1533人，全部在基层从事支医、支教、乡村振兴等工作，招录人数连续4年居全省首位。', '三是平台纳才。大力推进基层人才载体建设，持续丰富平台服务功能。全市累计建成国家、省、市级农业产业园区68家，建成省市级专家服务基地97家，其中省级基地16家，实现县市区全覆盖，依托基地对接联系专家3492人次，开展服务基层活动696场。', '四是创业聚才。鼓励引导返乡入乡创业、乡村能人就地创业，帮助有条件的脱贫人口自主创业，逐年加大创业担保贷款贴息力度，全力支持重点群众创业就业，2018年以来，全市共发放创业担保贷款32.06亿元，扶持市场主体2.15万家，发放自主创业农民和返乡创业农民工贷款15.78亿元，惠及12338名创业者。', '一是实施实用型人才培育计划。率先实施“农民工免费上大学”，288人走进大学课堂。遴选一批高素质农民培训基地，每年培育生产经营型、专业技能型、专业服务型新型职业农民2000人以上。实施“巾帼人才”培育工程，每年培训女企业家、妇女创业就业带头人100人以上，培育了一大批“德州手造”手工艺人。', '二是实施职业技能培训提升工程。组织开展职业技能培训三年行动计划，丰富职业技能培训模式，搭建“互联网+”职业技能培训平台，创新实施电子职业培训券，面向农民工、脱贫人口等农村劳动力开展职业技能培训，累计参训人员达到19.4万人次。', '三是实施系列高层次人才工程。实施现代产业领军人才、假日专家、市有突出贡献的中青年专家、乡村之星、十佳农民等人才工程，选拔市级以上各类涉农、涉医等基层高层次人才420余人，示范带动作用明显增强。实施“村村都有好青年”选培计划，选树各级好青年1.05万人，其中1060名乡村好青年进入“两委”班子，180人担任党支部书记，为乡村振兴注入强大青年力量。', '四是实施基层人才支持行动。组织开展科技人才“下乡进村”、教育卫生对口支援帮扶等工程，每年选派2000余名科技工作者、教师医务工作者、文化旅游工作者到乡村基层开展服务活动。大力实施乡村人才安居工程，规划建设了乡村人才公寓800处、3690套，让基层人才来得了、住得下。', '下一步，我们将在市委、市政府的坚强领导下，深入学习贯彻党的二十大精神，进一步完善工作机制，强化人才引育，优化人才服务，全力打造乡村人才振兴“德州样板”。', '一是进一步健全完善体制机制。制定新一轮推动乡村人才振兴的政策措施，创新乡村人才培养、引进、管理、使用、流动、激励等制度，建立市县乡三级联动推动乡村人才振兴机制，形成齐抓共管的工作合力，打造乡村人才振兴的制度优势。', '二是大力培育乡土人才。实施高素质农民培育、职业技能培训提升等工程，突出精准培训、因人施策，摸清农民实际需求，利用培训“大篷车”“田间课堂”等群众喜闻乐见的形式开展各类培训。继续深入推进基层职称和农民职称制度落实，培育更多“田秀才”“土专家”。', '三是积极引导各类人才返乡下乡。深入实施农业、科技、卫生、教育人才“下乡进村”工程。用好刚性、柔性“两条引才路径”，促进返乡下乡就业创业。做好基层公务员、事业单位人员、“三支一扶”人员等招募工作，为基层补充青春人才力量。', '四是优化提升人才发展环境。下好吸引人才、留住人才先手棋，强化典型激励，做好德州市“十大返乡创业农民工”“十佳新型职业农民”“乡村之星”“好青年”等典型选树，在全社会营造尊重、关心乡土人才的良好氛围。', '关心支持，衷心希望大家一如既往支持乡村人才工作，帮助我们宣传人才政策、推介先进典型，共同在全社会营造关心爱护乡村人才的浓厚氛围，推动全市乡村人才振兴工作取得新成效、迈上新台阶。', '乡村好青年工作为我市乡村人才振兴工作注入了青春活力，请问针对乡村好青年我们有哪些赋能培育措施？', '杨延昭：感谢记者朋友的提问。乡村振兴，青年先行。近年来，德州共青团通过开展“村村都有好青年”选培计划，有效发挥了青年在打造乡村振兴齐鲁样板中率先突破的生力军和突击队作用。5年来累计选树各级乡村好青年1.05万人。我们聚焦“组织链、产业链、人才链”为好青年赋能，激发了广大青年扎根农村、干事创业的热情。', '一是健全“组织链”培养机制，把好青年选出来、用起来。市县乡三级联动，严格选树标准，规范程序步骤，确保选树的好青年素质高、品行好、带动能力强。注重把好青年培养与村级后备力量建设相衔接，在镇街层面探索成立以乡村好青年为主体的青年人才党支部，优先推荐符合条件的好青年入党、列为村级后备力量。截至目前，全市累计推荐600余名好青年入党，1060名好青年进入村社区“两委”班子，180名好青年担任村社区党组织书记，577人担任村团组织书记，有力发挥了乡村振兴人才蓄水池作用。', '二是构建“产业链”支撑体系，把好青年带起来、强起来。围绕破解好青年在乡村创业中最急需的资金、技能、平台等难题，联合金融机构出台“鲁青惠企贷”“乡村好青年贷”等青字号贷款，累计为1028名好青年发放贷款10.37亿元。将好青年培训纳入全市高素质农民培育，遴选30余名创新创业、农业技术、产业发展等领域青年专家，组建“乡村好青年导师服务团”，全方位助力成长发展。在全市11个县（市、区）全部建立“乡村好青年联盟”，定期组织开展交流活动，为好青年延伸产业链条、共享信息资源、实现抱团发展提供了有效载体。截至目前，各级累计开展交流培训120余场，覆盖近万人次。', '三是畅通“人才链”引育渠道，把好青年引回来、留下来。在全省率先出台市级支持青年投身乡村振兴政策措施，在强化人才荣誉激励、实施乡村振兴创新创业项目扶持计划等方面取得突破，让好青年更加便捷高效地享受到乡村振兴“政策红利”。在200余所高校建立青鸟驿站1470个，组织看家乡等活动120余场，常态化联络5.1万名德州籍大学生和900余名德州籍博士，搭建起优秀青年学子回乡就业创业的桥梁。', '“村村都有好青年”选培计划经过几年来的探索实践，已成为德州共青团参与乡村振兴战略、凝聚农村青年人才的有力载体。下一步，我们将围绕引、选、育、管、用5个方面，持续深化村村都有好青年选培计划，既注重选树，更突出引育，既全面活跃存量，更持续做强增量。到2025年，力争在全市培养1.6万名乡村好青年，为德州在打造乡村振兴齐鲁样板中率先突破凝聚青春力量。', '近年来，乐陵市人社局认真贯彻落实上级关于乡村人才振兴工作的总体要求，立足职能、创新举措，积极引导人才要素向乡村流动，为全面促进乡村振兴提供有力的人才支撑。', '一是壮大乡村人才力量。持续开展“三支一扶”大学生招募计划，鼓励大学生到基层就业，近五年来，累计招募“三支一扶”大学生127人。通过公开招聘，为乡镇政府、教育、卫生系统事业单位补充大学生991人，已成长为乡村振兴的中坚力量。', '二是强化技能人才培育。聚焦乡村实用人才、高技能人才培养，以城乡富余劳动力、返乡农民工等人员为重点，大力实施职能技能提升行动，探索创新“戏说培训”“培训大篷车”“实训露天课”“培训成果展”“直播培训”五大培训模式，做法被新华网、农民日报等媒体报道，近五年，累计免费培训群众2.6万余人次，涉及装备制造类、居民服务类、食品加工类等五大类20余种实用专业技能，今年，我市“鲁菜师傅”创业能力提升培训项目获批省级试点，计划培训鲁菜烹饪技能人才800人，并为参训学员提供项目推介、创业指导、对接创业孵化基地等一系列跟踪式创业服务，进一步将鲁菜产业发展与乡村振兴有机融合，以培训提技能，以技能促就业。', '三是激发乡村人才活力。推动基层职称制度改革落实落地，1182符合条件的乡镇基层专业技术人员通过评审，并全部聘任到位。开展农民职称评审工作，已有101名农民获得职称证书。为人才扎根乡村、干事创业提供了有力支持。', '四是搭建人才发展平台。我们高度重视人才平台建设，打造了博士后科研工作站两家（泰山体育产业集团、山东金麒麟股份有限公司）；博士后创新实践基地两家（山东星光糖业有限公司、山东希成农业机械科技有限公司）；博士后创新实践基地备案单位两家（乐陵市希森马铃薯产业集团有限公司、亚萨合莱国强（山东）五金科技有限公司）；省级专家服务基地一家（山东百枣枣产业研究院）。涵盖了农业种植加工、高端体育、五金机械制造等产业。依托人才平台，近年来，共联系对接各类行业人才120余人，柔性引进专家66人，实现技术转换及项目落地11项，解决生产难题40多个，组织开展技术培训11次，累计培训800余人次。在对接乡村产业需求、推动科研成果转化、培养乡村人才队伍等方面发挥了重要作用。', '下一步，乐陵市人社局将继续加强人才政策宣传，优化服务质量，为各类人才来乐就业创业保驾护航，为乡村振兴做出积极贡献。', '段化刚:一是抓补充交流。大力补充乡村优质教育资源，2018至2022年全市共补充中小学教师13458人，补充到农村学校任教的4717人，占补充总数的35.05%。2016年以来共提供省属公费师范生招生计划2438人。选派义务教育学段城区学校494名教师支援本县（市、区）乡村学校，选派399名乡村学校中青年骨干教师到县直中小学跟班学习。近五年，全市中小学校长教师城乡交流人数为8100人，其中校长城乡交流人数为685人，教师城乡交流7415人。近五年，乡村教师的年龄结构进一步优化，平均年龄下降了7.8岁。本科以上学历教师比五年前提升了13.21%，达到了93.82%。我市还率先实施“农民工免费上大学”，共1批次288人走进大学课堂。', '二是抓培养。实施乡村青年教师培养计划。市、县每年列支不少于500万元（其中市级每年列支100万元奖补资金），专项用于乡村青年教师培养培训，拓展乡村教师成长途径；设立乡村教育突出贡献奖，每年表扬100名优秀乡村青年教师；目前，我市共有齐鲁名师39人，其中乡村学校教师6人；共有齐鲁名校长18人，其中乡村学校校长3人；共有齐鲁名班主任16人，其中乡村学校班主任5人。实行了乡村特级教师岗位计划，190名教师被评为乡村特级教师。评审建立了12个市级乡村名师引航工作室，辅射带动上千名农村优秀教师成长。', '三是抓待遇保障。不断提高农村教师工资收入水平，人均比城镇多600-1000元。实施乡村教师周转宿舍建设计划，到2022年年底，完成投资3.19亿元，建设周转宿舍4240套，面积18.52万平方米，改善乡村教师食宿条件，我市乡村教师公寓建设情况的经验也被央视报道。', '下一步，我们将加大基层教师招聘力度，既从“源头”处提高乡村教师素质水平，又从教师、校长交流方面开拓教师交流的“活水”形式，加大落实城乡教师交流长效机制，争取在乡村教师培养培育方面做出新的举措。', '我国农村农业农民在不断变化，我们要培养一支懂农业、爱农村、爱农民的高素质农民队伍，培训模式就要不断创新、与时俱进，请问我们有哪些培训模式的亮点和创新点？', '李永强：近几年，市农业农村局紧密围绕我市主导特色产业，开展种养、加工、销售全产业链培训，根据培育对象和培训内容制定差异化的培训计划，形成了一套与产业发展相衔接、与创新驱动相适应、与农民需求相一致的农民培训模式。', '一是创新培育模式，助力发展农民组织。为了解决培训后如何长期跟踪服务指导和农民组织化的问题，成立全国第一个新型农民发展协会—陵城区新型职业农民发展协会和新型农民双创中心，带动高素质农民抱团发展，取长补短，实现农业领域的强强联盟。农业农村部调研组、人民日报社、中国财经报等先后实地考察调研，协会的典型事迹被刊登在《人民日报》新农村版头条，称其“集结起农业发展的有生力量”，被中央农业广播电视学校评为全国高素质农民培育“十大模式”之一。2022年培训高素质农民3305人，市县两级共培训基层农技推广人员500余人，推荐90人参加头雁项目培训，54人获评齐鲁乡村之星，临邑县富民小麦种植专业合作社党支部书记、理事长魏德东获评全国十佳农民并受邀参加庆祝中国农民丰收节活动。', '二是创新培训模式，开设线上大讲堂。近几年来，市农业农村局积极发挥农民培训主阵地作用，充分调动专兼职教师积极性，利用学习强国、云上智农等权威网上学习平台，以及微信、头条、钉钉、快手、抖音、腾讯等大众交流媒介，在直播软件中推送课程ppt、摄像头画面，学员们在线交流学习心得，提出感兴趣问题，授课教师及时记录，集中解答，方式便捷高效，线上大讲堂使广大学员掀起了网络学习的热潮，不断加强自身素质和业务技能的学习。全市共开展线上培训176期，在线课程74门，培训学员11963人次。', '下一步，市农业农村局将紧扣我市产业发展需求，瞄准产业布局，大力实施农村生产型、经营型、技能型和科技服务型等实用人才培育，进一步规范和创新培训模式，不断提升培训时效，以“人才链”支撑“产业链”，为推进乡村振兴战略提供内生动力和智力支撑。', '刚才，市人社局焦局长介绍了我市乡村人才振兴工作情况，市农业农村局、市教科院、团市委和乐陵市人社局分别回答了各位记者朋友的提问，从不同角度解释了我市乡村人才引、用、育、留工作开展情况。请各媒体做好宣传报道。如需进一步了解情况，请与市人社局联系，电话2687187。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>141</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>关于推动我市现代服务业加速发展的建议</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67748631/content.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['现代服务业的发展水平，是衡量一个城市综合竞争力和现代化程度的重要标志。加快发展现代服务业，是“十四五”时期中央加速构筑现代产业体系做出的重要部署。对德州而言，加快发展现代服务业，是决胜工业强市三年行动的现实需求，是打造活力德州智造名城的重要路径。', '2021年是“十四五”的开局之年，更是德州构建“541”现代产业体系的关键之年，聚焦短板弱项，实施精准攻坚，做好现代服务业发展这篇文章，对于建设新时代现代化新德州具有至关重要作用。为此，建议：聚焦主攻方向，精准发力突破，推动我市现代服务业跑出新时代发展“加速度”。', '一是完善政策保障。出台《德州市现代服务业高质量发展三年行动方案（2021—2023年）》，推动现代服务业高质量发展，提升德州城市综合竞争力。统筹整合促进服务业发展的各类财政性资金，设立我市现代服务业发展引导基金，支持品牌打造、人才培养和市场主体培育等重大平台、重大项目建设。建立统一、开放、竞争、有序的服务业市场环境，降低服务业行业准入门槛；完善主要由市场决定价格的服务业价格形成机制，严格落实服务业企业水、电、气与工业同价等优惠政策，消除服务业价格歧视。加强现代服务业信用体系建设，完善服务业企业信用档案，加强市场监管，规范发展秩序。', '二是突出并重发展。坚持生产性服务业和生活性服务业并重，参照《山东省生产性服务业发展布局规划》，依据德州制造业基础，大力发展科技服务、现代物流、金融服务等生产性服务业，优化生产性服务业与先进制造业融合发展生态，引进和培育一批生产性服务业领军企业，推动生产性服务业集聚创新发展。制定提升我市生活性服务业品质三年行动方案，加快发展文化创意、健康养老、商贸服务等生活性服务业，打造一批新兴业态产品。借鉴厦门市“协同共享的城市末端物流配送模式”，加快推进物流配送终端进社区、进校园，构建便民利民的城市末端物流配送体系。', '三是创新融合发展。大力推进互联网＋、云计算、大数据等信息技术改造，推动“物流+”、“旅游+”、“养老+”等跨界融合发展。支持信息技术在医养健康、体育健身、家政服务等行业创新应用，加快数字技术与服务业融合发展，积极培育“数字+”现代服务业新业态、新模式。完善竞争机制，以公平竞争促进供给侧结构性改革，加快我市服务业数字化、标准化、品牌化，推动现代服务业同先进制造业、现代农业深度融合、高效联动，加速构建产业协同发展新格局。创建云计算、物联网等新兴服务业品牌，培育一批“德州服务品牌”，形成一批在国内有影响的服务业品牌企业。', '四是强化人才支撑。落实德州人才政策“黄金30条”升级版，制定和实施服务业高层次人才引进和培养计划，将服务业高层次人才纳入市现代产业领军人才、市“假日专家”等选拔范围，着力引进和培育科技金融、电子商务、商务会展等领域创新团队和领军人才。完善以知识资本化为核心的激励机制，推进技术入股、管理入股、股票期权等多种分配方式，吸引集聚服务业高层次人才。加大财税政策支持力度，大力鼓励服务业人才创业。实施“德州工匠计划”，培育物流、家政、信息技术等服务业领域高技能人才。引导德州职业技术学院、华宇工学院等高等院校增设服务业紧缺学科和专业，提高从业素质及专业资质。', '五是加强统计监测。各行业主管部门和统计部门加强服务业统计调查体系建设，提高服务业统计的全面性、精确性和及时性。建立数据互通共享机制，各相关部门之间加强数据交流与共享。健全服务业季度经济运行分析报告、重点行业发展指标季度通报、运行监测分析季报等定期通报机制，加强对服务业发展态势的监测、预测和分析，针对性制定对策措施。研究制定我市现代服务业发展考核实施细则，建立健全科学有效的绩效考核评价体系。', '近几年，在市委、市政府的坚强领导下，持续推进服务业供给侧结构性改革，坚持规划引领和政策驱动双动力，实现服务业总量提升、增量提优。重点推进现代物流、医养健康、科技服务、现代金融、软件和信息技术、文化旅游、电子商务、人力资源等现代服务业产业，新业态、新模式不断涌现，全力打造全市现代服务业新高地。2020年全市实现第三产业增加值1516.11亿元，增长3.3%。三次产业比例调整为10.6:40.2:49.2，与上年相比提高1.3个百分点，对经济增长的贡献率为42.7%。全年全市第三产业投资增长0.8%，增速同比提高4.3个百分点，占全部投资的比重为63.2%。', '2021年按照市委、市政府部署，更大力度发展现代服务业，推动生产性服务业向专业化和价值链高端延伸，推动生活性服务业向高品质和多样化升级。提案中提出的完善政策保障、突出并重发展、创新融合发展、强化人才支撑、加强统计监测等重点建议，我们积极研究，结合工作职能和计划，确定重点推进服务业十大产业方向，推动六项重点工程，加快建设现代服务业高地，全力推进服务业高质量发展。', '以产业转型发展需求为导向，着力发展生产性服务业，积极培育新型服务业态，促进生产性服务业向专业化发展、向高端价值链延伸。推动现代服务业与先进制造业、现代农业深度融合。重点推进现代物流、现代金融、科技服务、电子商务、软件与信息技术服务等方向。以消费结构升级为导向，着力发展生活性服务业，创新服务方式和内容，推动生活性服务业高品质和多样化升级。重点推进文化旅游、医养健康、教育体育、商务会展服务和人力资源服务等方向。', '（一）改革创新发展工程。继续抓好《山东省服务业创新发展行动纲要（2017-2025年）》等若干政策的贯彻落实。坚持创新发展与转型升级双项联动，着力构建服务业创新发展的体制机制。在规上服务业企业中，培育建设省级服务业创新中心，促进移动互联网、大数据、云计算、人工智能、物联网等新技术在服务领域转化应用，加快新业态新模式规模化发展。积极申请国家、省服务业综合改革试点，推进禹城市科技服务业和齐河县旅游业综合改革试点验收工作。', '（二）产业融合发展工程。贯彻《山东省生产性服务业发展布局规划（2018-2028年）》落实，鼓励制造业由生产制造型向服务型转变，以泰山体育集团省级先进制造业和现代服务业融合发展试点为重点，依托全市“541”工业体系，培育一批先进制造业与现代服务业融合发展试点。推进服务与农业在农业技术、信息、金融、流通方面布局，健全农业生产性服务业体系，促进农村一二三产业深度融合。', '（三）培育产业载体工程。坚持项目谋划与项目建设滚动推进，着力发挥服务业拉动投资的引擎作用。持续推进10个省服务业载体项目，重点推进50个服务业储备项目，年度计划投资118.5亿元。培育壮大一批服务业重点园区、重点镇、重点企业，发挥示范带动作用，推进服务业重点行业的转型升级。', '（四）产业集聚发展工程。加快中心城区现代服务业集聚区建设，大力发展服务业新兴业态。在全市打造一批布局合理、定位准确、发展集约、辐射力强的商贸流通、文化旅游、现代物流业、电子商务、信息技术、科技创业、医养健康等服务业集聚示范区（产业集群）。做好9个省级服务业特色小镇建设，争取顺利通过验收授牌，推广现有服务业特色小镇创建模式，深入挖掘小镇资源，促进县域服务业集聚创新发展。', '（五）品牌和标准化建设工程。积极培育山东省服务品牌，加大品牌宣传和推广力度，提升品牌价值和竞争力。鼓励企业引入先进质量管理模式，加强质量管理。总结推广标准化程度较高的企业的标准化发展经验，推动家政、养老、健康、体育、文化、旅游、法律、教育等领域的关键标准研制与推广，推动服务产品安全标准化，促进企业服务标准化发展并带动相关领域产业化发展。', '（六）人才队伍建设工程。完善人才培养机制。精准实施人才工程，支持创新团队的培养，围绕科技服务、现代金融、创意设计等重点产业发展和现代管理需要，面向海内外集中遴选一批“高精尖缺”人才。积极争取服务业人才奖励，鼓励申报“泰山产业领军人才”工程（现代服务业及社会民生创新类），柔性引进、灵活使用留住各类人才。推动高校、科研机构与企业联合定向培养产学研融合型人才，推广校企合作操作型人才培养模式。', '您提出的《关于推动我市现代服务业加速发展的建议》收悉，根据我局职能，现就“强化人才支撑”有关问题答复如下：', '人才是创新的第一资源，加快引育专业人才，对于推动现代服务业发展，促进产业转型升级具有重要意义。近年来，在市委、市政府领导下，人社部门高度重视现代服务业人才引进培养工作，会同有关行业主管部门，把服务业人才纳入人才工作总体计划，积极推进政策引领、人才招引、培养提升、服务保障等重点工作，持续推动现代服务业人才队伍壮大。主要开展了五方面工作：', '2020年9月，德州市积极顺应人才形势发展变化，对标国内发达地区和省内各市先进做法，制定出台《关于实施“人才兴德”行动建设新时代区域性人才聚集高地的若干措施》（德发〔2020〕13号），突出市场化导向、发挥用人主体作用、创新人才评价方式，对原有政策进行了全面升级、系统改革，打造了人才政策“黄金30条”升级版，并将符合条件的现代服务业人才纳入政策支持范围。对引进的人才和团队最高给予6000万元的科研补助。对企业引进的博士、硕士和“双一流”建设高校本科生，市财政每月分别给予5000元、3500元、2000元生活补贴，其他本科大学生每月给予500元生活补贴。对于自主创业大学生补贴最高不超过100平方米的房租补贴，连续资助3年。近年来，市级财政累计为1774名大学生发放生活补贴7530.85万元，发放创业房租补贴89.99万元。', '一是聚焦重点产业，推进按需引才。紧扣我市重点产业发展，面向包括服务业企业在内的重点企业，定向摸排人才需求情况，及时发布急需紧缺人才目录，通过举办大型综合类招聘会、精准化专业化小型招聘会，为用人单位和求职者搭建对接平台。近年来共组织各类公益性人才招聘会143场，服务企业6000余家。二是推动校企合作，实现精准引才。先后与全国47家高校建立常态化沟通协调机制，与9所高校签订人才战略合作协议，设立“德州市招才引智示范基地”“德州市引才工作站”8个。今年上半年邀请天津大学、山东理工大学、德州学院师生参观考察我市12家重点企业，通过实地考察增加校地企深度了解。三是组织重点活动，做到集中引才。将“走出去”与“引进来”相结合，开展“德州市百企校园行”“名校人才直通车”“德州学子家乡行”“高校德州行”等引才活动，市领导带队开展专项引才，今年已组织1600多家企业赴高校专场招聘37场、线上对接54场，达成引才意向5931人。参与举办“智汇德州”人才创新创业周、高端专家服务基层、“百名博士进德州”“中北大学德州行”等20余场大型人才活动，集中引进各行业优秀人才。四是应对新冠疫情，强化线上引才。去年以来受新冠疫情影响，线下招聘活动暂停，为有效缓解人才紧缺问题，依托“互联网+”和“云平台”，为人才引进提供线上线下立体化服务，共发布人才需求信息6.1万条，吸引1.2万名求职者上线应聘，做到了网上招聘“不停歇”，人才服务“不打烊”。积极开展“德州网上百企校园行”活动，对接全国34所重点高校，组织全市1155家用人单位参加网络招聘活动。今年上半年建设运行“德州智慧就业平台”，与线下招聘大厅协调联动、数据共享，初步形成覆盖“一网、一微、一端”多功能人力资源对接平台，为人才引进提供线上线下立体化服务。', '在引进急需紧缺人才的同时，始终把本土人才作为推动城市发展最基本、最持久的力量，通过抓实人才专项工程，构建育才、养才、用才全链条机制等，大力发掘和培养本土人才队伍，做大做强本土人才“基本盘”。近年来先后有4.5万人取得专业技术职称，其中高级职称人才超过7800人。培育高技能人才2.5万人，其中技师2260人、高级技师964人，全市技能人才总量达到55万人。目前，全市现有享受国务院政府特殊津贴专家46人、省市级首席技师283人、省市有突出贡献的中青年专家222人，为全市新旧动能转换提供了有力的人才智力支撑。', '一是开展职业技能提升专项行动。着眼于服务经济发展需要，2019年从失业保险基金中列支2亿元专项用于3年培训行动，2019-2021年共开展补贴性职业技能培训15万人次以上。工作中注重将培训提升与助推职业院校发展有机结合起来，支持职业院校面向企业在职职工、在校大学生等开展补贴性培训，可提取最高不超过50%的培训净收入，用于追加绩效工资总量，并向一线教师倾斜，进一步调动职业院校育训并举的积极性。二是推动职业院校开展校企合作。深化职业培训模式改革，大力推行订单培训、定向培训、定岗培训等培训模式，增强培训的针对性和有效性，提高就业成功率。比如德州交通、走四方、智科等学校开设的铁路客运服务专业，鲁信、普利森等学校开设的物业管理专业，还有多所学校开办的旅游服务与管理、导游等专业，就业率较高。鼓励各技工院校利用自身优势发展品牌特色专业，将专业设置、职业培训与市场需求相结合，稳步扩大技工教育规模，为服务业发展提供高素质技能人才。', '在全省率先建立人才综合服务中心，承担人才政策的落地实施，建立人才服务“一网一库一平台”综合服务系统，服务事项全部实行线上办理、无纸化运行，一站式、一条龙、保姆式的服务受到广大人才的欢迎，先后有省内外的70多家单位来德州考察学习。会同14个部门，整合人才服务优势资源，出台《德州市高层次人才服务绿色通道规定》《德州市高层次人才服务专员管理办法》，为高层次人才开通户籍办理、子女入学、住房保障、医疗保健、交通旅游、工商税务等23个服务事项绿色通道，在全市建立“四级”高层次人才服务专员制度，在政策解读、待遇落实、人文关怀等方面为高层次人才提供个性化、精准化服务，在全省率先开通“德州市12345人才服务专线”，提供24小时不打烊服务。目前全市已经发放“山东惠才卡”104张、“德州惠才卡”340张，配备服务专员648名。', '下一步，结合您的建议，人社部门将进一步加大现代服务业人才引育力度，在人才需求征集、人才引进活动中，重点向现代服务业倾斜，支持引导职业院校强化现代服务业校企合作力度，深入实施服务业领域专业技术人才知识更新工程，加快引进一批服务业高端紧缺人才，完善人力资源服务体系，为我市现代服务业发展引进培养更多专业人才。', '对您提出的《关于推动我市现代服务业加速发展的建议》，我们非常赞同。市商务局一直以来高度重视服务业发展，积极推动相关工作落实。', '（一）推动电商与现代服务业的融合发展。充分利用报刊、电视等传统媒体和微信、抖音等网络新媒体，加大电商宣传力度，大力展示电商发展成果，营造创业浓厚氛围，激发经营主体创新动力。围绕扩大内需战略基点，聚焦双十一、双十二、元旦、春节等重要消费节点，鼓励服务业企业利用新业态、新模式，开展线上促消费活动，促进线上销售。如今年“网上年货节”期间，通过举办线上系列直播促销活动、引导电商企业对接抖音及美团等平台，营造了浓厚的直播电商发展氛围，在抖音、今日头条端开展的“寻味山东·食在德州年”专题活动，我市4家餐饮企业11天累计总曝光22万余次，实现533单成单量。', '（二）强化电商人才培育。鼓励电商经营主体深化与京东、阿里等大型电商平台企业对接合作，争取平台优惠政策等便企惠企措施，推动更多中小商户尤其是服务业商户上线电商平台。邀请电商企业（平台）的专家对企业进行点对点、线上和线下等多种方式的培训，帮助培养一批精通电商网络销售的实用人才。今年以来，先后在齐河县、乐陵市、宁津县、武城县和临邑县举办电子商务培训七场，邀请德州职业技术学院及电商企业专家现场授课，培训共计1200余人参加，培训活动的开展提升了电商从业及创业人员的实操技能。', '（三）是持续完善城市末端配送网络。进一步完善城市主要商业区、校园、社区等末端配送节点设施，引导企业发展统一配送、集中配送、共同配送等集约化组织方式。一是推动运达物流园和金茂园物流园转型升级为城市配送中心。运达物流园受中心城区限行影响，货运公司大量迁出，大量经销商，电商企业、快餐总部入驻园区，已经达到150余家，接近园区商铺总量的50%以上，基本具备城市综合物流配送中心职能。通过积极引导电商企业入驻金茂源物流园区，加快基础设施建设，金茂源园区建成自动化分拣中心，配备先进的管理系统，实现了仓储管理的信息化、智能化、现代化。顺丰、申通、韵达、中通等各大快递公司均入驻园区，涵盖快递共同分拣和电子商务云仓两大板块，成为我市快递专业配送中心。二是推进智能快件箱等智能化设备进社区、进商圈、进学校。通过我省实施的智能快件箱进楼宇工程“三年行动计划”，我市云柜、智柜、近邻宝和邮政等4家建设企业共安装236组智能快件箱。同时，随着菜鸟网络、摩西管家等新型分拨形式的不断补充，快件末端配送体系基本形成。', '（四）加强家政服务人员培训。2020年，协调、支持德州市家政服务业协会，举办师资培训班3期，共计培训师资51人；培训养老护理员24期，共计培训686人；培训育婴员培训班6期，共计培训149人；举办家庭配餐员培训班22期，共计培训768人；开办线上直播，网上学习人数7800人次；全年家政行业累计培训服务员9403人次。举办全市家政服务职业技能大赛一期。山东朗润家政，德州恩慈家政被评为诚信单位，德州恩慈家政被评为爱心企业。', '今年以来，今年以来共培训6个班次，主要包括高级养老护理员、养老护理员师资、养老护理考评员、家政服务考评员、中式面点考评员、育婴员考评员、公共营养考评员，共计培训210人，其中妇女占65%以上。', '下一步，我们将积极采纳您的建议，坚持生产性服务业和生活性服务业并重，大力推进互联网＋、云计算、大数据等信息技术改造，推动“物流+””等跨界融合发展。支持信息技术在家政服务等行业创新应用，培育一批“德州服务品牌”。会同、配合各部门强化强统计监测，加强数据交流与共享，推动现代服务业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>141</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>关于让第三方参与医疗探索医患风险共同承担救治模式的建议</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n66411375/c67965514/content.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['（案由）目前，医疗改革进入深水区，国家和社会致力于人民健康和社会和谐发展，实现人民幸福。但是医生的处境一直是两难。', '（案据）目前，医疗改革进入深水区，国家和社会致力于人民健康和社会和谐发展，实现人民幸福。但是医生的处境一直是两难。一方面医学成才比较慢，家庭和个人投入较大。另一方面社会对医生的要求比较高，医患矛盾一直困扰医院和医生。由于疾病的不确定性和医疗条件限制等多方面的原因，受不可控制因素导致的医疗事故难免发生，这造成的医患纠纷、医疗诉讼时有发生，按照目前医患纠纷评判标准，医方大部分败诉，使医院面对天价赔偿，使医生处境尴尬。现在有些医务工作者脱离临床岗位，造成部分医院临床医务人员数量不能满足医院发展的需要，部分科室医生超负荷工作，导致医生既承受繁重的工作压力，又遭受医患纠纷的困扰。', '让第三方参与“医疗”，是参照交通事故的处理，由保险公司或是医调委（或是其他患方信任的部门）参与医患纠纷的处理及赔付，医患双方不直接“对话”，减少医患的直接冲突。第三方代表可以行使其监督功能，督导医疗行为、限制患者的过激行为，医生参与方式可以是“交保险”的形式或是其他的契约模式。医患冲突的解决，尤其是患者的暴力行为，还是更多的依靠法律。', '您提出的“关于让第三方参与‘医疗’，探索医患风险共同承担救治模式的建议”收悉，现答复如下：', '近年来，全国各地陆续出现了多起伤害医务人员的严重事件，给医务人员身心造成了严重伤害，严重扰乱了医疗机构的正常诊疗秩序，影响十分恶劣。为此，我委高度重视维护和谐医患关系、保障医院就医秩序的相关工作，近年来在市政府的统一领导下，与各有关部门加强协作配合，不断将第三方调解机制和医责险推向深入，取得了阶段性成效。', '2012年6月我市印发《德州市医疗纠纷预防与处置暂行办法》，成立德州市医疗纠纷人民调解委员会，作为独立的第三方人民调解，坚持“公平公正、及时便民、依法调解”的原则，积极主动参与医疗纠纷调解工作，建立健全各项规章制度，规范工作流程，成立了专家咨询委员会，医疗纠纷逐步实现了依法调解，得到各级各单位和患者的普遍认可。', '为充分发挥医疗责任保险在医疗风险中的分担作用，切实提高医疗机构及医务人员防御医疗风险能力，2012年市政府组织太平洋财险、人保财和国寿财三家保险公司组成共保，确定太平洋为主承保公司，负责协调相关工作。以县（市、区）域划分各保险公司独立承保医疗机构医疗责任保险。我市医疗纠纷第三方人民调解与医疗责任保险纠纷处理调赔结合模式初步形成。2014年7月，原国家卫计委联合五部委下发的《关于加强医疗责任保险工作的意见》要求，2015年底前，全国三级公立医院参保率应当达到100%，二级公立医院参保率应当达到90%以上。', '为提高医责险参保率，我委组织医疗机构负责人到外地对调赔结合工作进行实地考察学习，借鉴外地工作经验，研究决定聘请保险经纪人作为医疗责任保险保险顾问，采用“政策引导、政府推动、市场化动作、人民调解参与”的政策性保险方式，确定了我市医疗机构医疗责任保险统保示范项目的工作模式，我市医疗纠纷第三方人民调解与医疗责任保险“保、调、赔、防、控”结合机制初步形成。经积极引导，我市医疗机构投保医疗责任保险的覆盖率逐年提高，二级以上公立医疗机构参保率100%，并向乡镇卫生院、社区卫生服务中心、村卫生室延伸。', '德州市医疗机构医疗责任保险统保示范项目实施以来，医疗纠纷第三方人民调解与医疗责任保险“调赔结合”机制运行平稳，2016年-2020年共受理纠纷案件612起，医疗纠纷处理方式发生了重大变化，逐步由医调委到现场处理纠纷转为患方主动咨询、医患双方主动到医调委调解纠纷，奠定了“有纠纷找医调委、要赔偿找保险公司”的医疗纠纷处理导向。据信访局和公安局统计数据，近年来，医疗纠纷信访案件明显下降，治安案件下降了30%，法院受理的医疗纠纷案件明显减少。', '做好医疗纠纷处理工作，关系维护和谐的医疗环境，责任重大。结合您的意见建议，下一步我们将进一步充分发挥第三方作用，健全纠纷化解机制，加强平安医院建设，保障医护人员人身安全。', '一是强化源头预防措施。进一步加强医疗质量安全管理，医疗机构应严格执行医疗质量安全核心制度。医疗纠纷预防实行关口前移，我委将在有条件医疗机构试点择期手术知情同意告知第三方见证方式，持续改善医疗服务，提升医疗服务质量，提高人民群众就医自我风险意识和就诊体验。推行医疗意外保险，降低医疗纠纷的产生。', '二是依法处置医疗纠纷。推动完善院内调解、第三方人民调解、行政调解、司法判决相结合的医疗纠纷综合处置体系。医疗机构应及时告知并引导患方采取合法合规途径处理纠纷。倡导“有纠纷找医调委、要赔偿找保险公司”的医疗纠纷处理导向。医疗纠纷责任未认定前，医疗机构不得“花钱买平安”、“妥协换和谐”、“赔钱求解决”。', '三是发挥人民调解组织作用。医调委充实和稳定调解队伍，加大培训力度，提升专业能力。坚持自愿、平等、合法原则，引导医患双方选择法定处理程序解决纠纷，做好与法院的诉调对接，与医疗机构调解对接，提高医疗纠纷协议调解率，充分发挥第三方人民调解在医疗纠纷化解中的重要作用。', '四是发挥第三方经纪人作用。保险公司积极探索“医责险+商业险”协同发展，协助制定医疗意外险、医务人员执业责任险、公众责任保险方案，在巩固医疗责任保险工作的基础上，探索建立多维度立体化医疗风险分担机制。依据市场变化动态调整医责险承保方案，做好保险索赔与人民调解的衔接，通过案例总结分析定期向医疗机构出具风险防控报告及所需数据，发挥保险经纪人在医疗纠纷处理中的作用。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>141</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>关于加强农村女性红色思想阵地建设的建议</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-12-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67835295/content.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['习近平总书记指出：中华民族伟大复兴需要以中华文化发展繁荣为条件。中华文化发展繁荣，要从人民群众获得先进的、优秀的思想文化做起，从夯实基层思想文化阵地做起。在我市推进乡村振兴战略中，由于成年男性大量外出务工，广大农村女性成为乡村文化建设的主力军，农村女性思想文化水平直接决定着乡村文化振兴的进程。当前，农村女性面临就业岗位少、精神文化生活匮乏、法律知识缺乏、维权能力薄弱等情况，随着新媒体急速发展，各种虚假信息、不当言论流行网络，农村女性受年龄和文化等因素影响无法自觉抵制不良信息。如何筑牢基层思想阵地、加强基层女性红色思想阵地建设，成为基层治理工作的当务之急。', '一是“闷得慌”。由于农村文化资源相对较少，农村女性精神娱乐活动相对匮乏，文化生活层次不高，基层组织针对女性的思想阵地建设缺乏有效载体，部分女性娱乐方式限于上网、打麻将，往往受到不良信息和组织的影响。', '二是“闲得慌”。农村女性大部分被老小牵绊，无法像男性有整块时间进企业务工，由于乡村二三产业发展滞后，农村女性在接送孩子、伺候老小的剩余时间，无法在家门口就业，创造家庭收益，影响了家庭地位的提升。同时，受女性政治认知度低和女党员比例低等因素影响，女性政治参与度弱，即便进入村“两委”，也缺乏足够的话语权，在基层组织中被边缘化，不能有效代表农村女性发声，影响女性进村“两委”工作的推进和女性政治地位的提升。', '三是“愁得慌”。随着经济高速发展，农村家庭结构发生巨大变化，夫妻关系、婆媳关系、亲子关系等常见家庭矛盾比小农时代更加复杂。特别是城中村改造，离婚女、外嫁女在宅基安置、共享社会发展成果方面更加迫切期盼维护自身权益，农村女性作为家庭重要成员缺乏协调家庭矛盾能力，缺乏情绪自我排解能力。尤其是一些遇到天灾人祸的家庭女性以及残疾、贫困家庭女性，更需要社会关爱。', '因此，加强农村女性红色阵地建设，解决基层女性的“三慌”问题，对促进乡村文明建设进程、基层治理、男女平等都具有重要意义。', '组织、政法、宣传、民政等部门应将对农村女性政治引领与基层治理与新时代文明实践相结合，加强农村女党员的管理和作用发挥，积极发展年轻女党员及女性后备干部，不断壮大基层巾帼红色力量，积极促进女性进两委。基层思想政治工作和新时代文明实践要广泛覆盖基层女性群众，建设一批具有乡村特色的女性红色教育基地，常态化开展具有针对性、系统性、群众喜闻乐见的红色思想教育及文体娱乐活动。', '坚持党建带妇建原则，健全基层妇联组织，村级妇联组织全覆盖；扩大村级妇联执委干部队伍，提升妇联干部参政议政水平，将村级妇联主席骨干培训班纳入党校干部培训主体班次；健全执委工作站（室）、女性之家、儿童之家等女性儿童活动阵地，发挥好红色阵地作用；打造一批流量高、质量高、点赞高的“三高品质”妇建阵地。', '人社部门女性职业培训纳入培训规划，积极开设适合女性特点的家政、编织、服装等职业技能培训项目，有条件的专门开设女性职业能力提升培训班，确保女性比例。要积极发展适合女性就业的项目，开办乡村车间，促进女性家门口就业。', '解决女性实际困难是凝聚女性群众最根本、最有效的手段。因此，基层组织应将脱贫攻坚与乡村振兴有效衔接，关注女性特殊利益。要建立女性困难群体台账，实施好“贫困母亲救助”、“困难儿童帮扶”、“两癌”女性筛查及救助项目。成立“红色爱心志愿团队”，充分发挥巾帼志愿者在扶贫济困中的作用。', '您提出的关于加强农村女性红色思想阵地建设的建议已收悉，感谢您对基层组织建设工作的关注、关心。近年来，市委组织部大力推进乡村组织振兴，持续加强农村基层组织建设，坚持党建引领基层妇女组织建设，推进农村基层组织建设全面过硬。', '村“两委”换届以来，坚持把选好干部、配强班子作为换届核心任务。截至目前，班子结构明显优化、各项指标持续提升。一是强化制度供给。制发《在全市村（社区）“两委”换届中推进女性进“两委”和做好村（社区）妇联换届工作的通知》，提高女性进村（社区）“两委”比例，大力推动妇女有序参与城乡基层社会治理和民主决策，进一步加强基层妇联组织建设。二是提前摸底研判。要深入村（社区）调查研究，摸清“两委”中女干部现状、妇联主席进“两委”情况和优秀妇女人选底数，严格登记造册。积极推动符合条件的村（社区）妇联主席按法定程序进入“两委”班子。要充分评估存在的问题和困难，对村情复杂、优秀妇女人才缺乏的村，要提前采取应对措施，做好人选准备工作。三是拓宽人选渠道。从村（社区）妇联主席、女党员、本村致富女能手、外出务工经商返乡女性、本乡本土女大学毕业生、女社区专职工作者、女专职网格员、巾帼志愿者骨干、退休女性等人员中，推荐思想政治素质好、道德品行好、群众公认度高，公道正派、廉洁自律，有一定参政议政能力、热心为妇女群众服务的优秀妇女作为村（社区）“两委”成员候选人。在农村要更加注重推荐致富带富能力强、敢闯敢拼、能推动乡村振兴的优秀妇女，在社区要更加注重推荐协调能力强、治理和服务能力强的优秀妇女。截至目前，村委会中女性成员占比达到30%，居委会中女性成员达到50%。', '下一步，我们将按照“党建带妇建、妇建服务党建”的原则，跟进组织培训，提升“两委”班子成员素质，切实发挥女性成员的重要作用，持续加强农村基层组织体系建设。', '促进妇女就业，有利于推动妇女更加广泛深入参加社会和经济活动，提升社会生产力和经济活力。近年来，人社部门高度重视农村妇女就业创业工作，立足自身职能，积极落实就业创业政策，广泛开展就业创业培训，促进妇女就业创业。', '一、完善政策体系，加大妇女就业创业支持力度。出台《关于印发&lt;德州市就业创业资金管理使用实施细则&gt;的通知》（德人社发〔2019〕7号），对就业补助资金、创业带动就业扶持资金进行规范。设立市级创业带动就业扶持资金，2014年起连续6年，每年从失业保险基金中拿出5000万元扶持包括妇女在内的劳动者创业创新。截至2020年底，全市妇女创业总人数达到1.04万人，较2015年的0.52万人增长了一倍。出台《德州市人民政府办公室关于印发&lt;德州市职业技能提升行动实施方案（2019-2021年）&gt;的通知》（德政办发〔2019〕6号）等重要文件，进一步完善培训政策体系。', '二、强化职业培训，助力妇女就业创业。结合妇女培训意愿，积极开展形式多样的就业技能培训、创业培训，提高就业创业能力，并落实好培训补贴。利用春风行动、就业援助月等专项就业活动开展“就业创业培训进社区、进乡村”等将培训班开到群众家门口，让更多的群众掌握一技之长。同时，不断创新培训模式，积极引导妇女到家政服务等行业从业，并对从事家政服务的人员进行不同专业、不同等级的连续式、循环式职业技能提升培训，不断提高服务人员的就业技能。2020年全市开展培训7.33万人，其中女性4.9万人，占比超过66%。', '三、大力推广创业担保贷款，为妇女创业提供资金支持。进一步提高最高贷款额度，个人由原来的10万元提至20万元，个体工商户贷款可以合伙人形式（最多3人）贷款60万元，扶持政策更加实惠实在。为充分发挥市级创业担保资金的作用，为县市区创业担保贷款业务开展提供充实有力的后盾保障，在原有2家市级创业担保贷款合作银行的基础上，引进良性竞争机制，通过招标新增齐鲁银行、中国农业银行和农商银行等3家贷款合作银行，拓宽了放贷渠道，有效释放市级担保基金效能。2020年，面向妇女发放创业担保贷款1.8亿元，扶持妇女创业1251人。', '下一步，结合您的建议，我们将继续加大对妇女等重点群体就业创业的支持力度。进一步深化校企合作，建立创业导师队伍，举办专场招聘，提供创业孵化，加大就业创业服务供给力度。联合开展“春风行动”等活动，为生育女性、女农民工、登记失业女性等提供政策咨询、技能培训、岗位信息、劳务对接等服务。加强对脱贫妇女、农村低收入妇女群体的就业帮扶，继续发挥就业帮扶车间等就业载体作用，为脱贫人口创造就地就近就业机会。加强返乡入乡创业园等各类创业载体建设，为返乡入乡创业人员提供低成本、全要素、便利化的创业服务。持续拓宽农村劳动力就地就近就业，促进农民工就地就近就业，支持返乡入乡创业带动就业，吸纳更多妇女就业。', '您提出的《关于加强农村女性红色思想阵地建设的建议》，已经市妇联研究办理，现答复如下：', '市妇联深入学习贯彻习近平新时代中国特色社会主义思想，着力强化妇女思想政治引领，坚持党建带妇建，坚持为党分忧、为民谋利,更好地组织动员妇女、教育引导妇女、联系服务妇女，不断提升广大妇女幸福感获得感安全感。', '抓住村（社区）“两委”换届契机，大力推进女性进“两委”，提前摸底研判，加强宣传引导，抓好换届培训，推荐优秀人选，定期巡回督导，及时跟进指导，提高女性进“两委”比例，截至6月20日，全市5102个行政村、225个社区已全部完成“两委”换届，女性进“两委”比例均达到100%，截至8月2日，全市已有5034个村、217个社区妇联完成换届，妇联主席进“两委”比例达到100%，大力推动妇女有序参与城乡基层社会治理和民主决策。着力贯彻落实《2020-2023年德州市妇联干部教育培训规划》，持续深化基层妇联组织成员素质提升工程，全市累计培训乡村妇联执委53656人次，增强基层妇联执委履职意识和作用发挥。加强基层阵地建设，依托基层党建阵地、党群服务中心、新时代文明实践站等，建设省级妇女儿童家园46处，“妇女之家”5870个。', '一是实施“巾帼助农”项目。牵头引入山东省供应链管理协会会长单位--佳怡供应链企业集团落户德州，先后深入平原县、临邑县、武城县、庆云县、齐河县、乐陵市、德城区、陵城区、经开区等9个县市区进行考察调研16次，协调搭建巾帼农产品供应链服务平台，降低农产品物流成本。', '二是实施“乡村振兴 巾帼先行”人才培训项目。今年，通过竞争性磋商的方式进行招标，确定由德州市阳光大姐家政职业培训学校、德州市经济技术开发区恩慈培训学校、德州市新未来职业培训学校、德州市妇女儿童活动中心4家培训机构，承接全市31场农村妇女实用技能培训，计划培训农村创业就业妇女1470余人次。目前已开展培训2场次，100名妇女受益。', '三是实施妇女居家灵活就业项目。通过“企业+产业项目+妇女”的形式，积极培育“大姐工坊”、巾帼扶贫车间、居家灵活就业点等，加强居家创业就业技能培训、孵化等，培植种植养殖、手工加工、乡村旅游等适合妇女居家创业就业的项目,促进妇女家门口就业增收。目前，全市创建妇女居家灵活就业点400余处，居家安置就业妇女5万余人。', '一是聚焦帮扶助困，关爱帮扶特殊困难群体。建立低收入“两癌”患病妇女台账，切实摸清关爱对象底数。结合“全面开展农村适龄妇女‘两癌’免费检查”写入市政府工作报告契机，推进实施贫困妇女“两癌”保险救助项目，不断扩大“两癌”免费检查和救助覆盖面。持续开展“爱心妈妈”关爱结对、“春蕾计划”、“把爱带回家”等活动，招募“爱心妈妈”（爱心爸爸）960名，为留守和困境儿童提供生活救助、亲情抚慰、学业辅导服务。市妇儿工委制定婴幼儿照护、教育医疗、创业就业、关爱帮扶、志愿服务、党史学习等十项措施的实事清单，切实解决妇女群众“急难愁盼”问题。今年以来，开展关爱活动120余场次，帮扶贫困妇女儿童1000余人。', '二是开展“巾帼志愿服务活动日”活动。下发《关于招募巾帼志愿服务队开展“巾帼志愿服务活动日”活动的通知》，广泛发动各级妇联组织、机关企事业单位、公益社会组织等每月8日常态化开展“巾帼志愿服务活动日”活动，服务项目涉及巾帼送暖、关爱儿童、便民服务等十余项，充分发挥巾帼志愿者在扶危助困中的作用。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>141</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>关于大力发展妇女居家灵活就业项目加强妇女职业技能培训的建议</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-12-19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67834549/content.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['当今，妇女不仅仅是构建和谐家庭的基础力量，更是经济建设发展中不可或缺的部分。随着社会经济的发展，妇女更要转变角色，注重内外兼修，注重学习，提高就业技能和自身素质，实现自我价值。', '然而，广大城乡妇女因为照顾老人、孩子而不能外出打工，就近找工作因缺少技术技能，就业层次低，只能从事一些简单、重复的体力劳动，如粘花、串珠等，收入低，而且不稳定，有订单时就干一段时间，没有订单就中断就业。自己创业又面临着缺乏资金、缺乏技术、缺乏致富项目的困难。', '一、大力发展妇女居家灵活就业项目，尤其是技术含量高的新型居家就业项目。随着社会发展，传统的种养殖项目已无法满足大多数家庭对美好生活的向往的需求，因此建议在发展农业种植、养殖技术，手工技能类项目的基础上，引进推广创新型、科技含量高的项目，既提升妇女创业就业能力，又提高项目附加值，促进妇女创业就业和居家就业，帮助农村家庭增收。', '二、结合学历教育，加强面向妇女的实用职业技能培训。当前就业竞争较为激烈，尤其是中低学历的妇女更有渴望继续教育，获取更高学历的需求。因此建议：一方面，联合高校开设与学历教育相挂钩的实用技能培训课程，培训学习后可获取相应的毕业证书；另一方面，加大家政领域培训，提高家政行业证书的含金量。从而激发妇女学习的热情，引导妇女不断掌握新知识新技能，提升妇女创业就业竞争力，同时提升妇女自立自强意识，体现自身价值。', '三、建议相关部门鼓励用人单位针对产后返岗女职工开展岗位技能提升培训，示范引导，加强心理建设，尽快适应岗位需求，以增强女性的自信心，充分发挥女性的潜力，提高妇女的社会地位。', '四、推进落实男女平等基本国策，促进就业机会男女平等。针对当前有些就业岗位有性别要求的问题，建议在产业发展中，提供更多适合妇女就业的岗位和机会，采取技能培训、技能指导等措施，为妇女创业、就业提供更多、更平等的机会。', '通过电视、广播、报纸等多种媒体渠道，大力宣传，吸引更多妇女实现居家灵活就业。对身边的成功案例进行展示，营造良好的舆论氛围。提高妇女对从事居家灵活就业的认同感，鼓励妇女主动作为，主动就业，大胆创业。', '您提出的关于大力发展妇女居家灵活就业项目，加强妇女职业技能培训的建议收悉，现结合我局职能答复如下：', '2020年，在省农业农村厅的坚强领导下，我市各级农业农村部门立足现代农业发展需求，按照山东省农业农村厅《关于做好2020年高素质农民教育培训工作的通知》（鲁农科教字〔2020〕22号）要求，切实抓好培训工作的组织实施和管理工作，通过积极宣传、精心组织、严格管理、强化措施，项目实施过程中我们有意识地向农村妇女倾斜，在条件相同的情况下优先培育女性学员，组织广大农村妇女积极参与培育，使农村妇女成为具有新理念、新技能、新觉悟的新一代高素质农民。', '2020年全市共分类分层次培训高素质农民3150人，完成省定任务的112%，其中新型经营主体带头人2767人、农业领军人才128人、农业丝路先锋25人、农业经理人230人，培训学员满意度达100%，超额完成培训任务。其中妇女人数为893人；2021年，我们继续实施好高素质农民培训工作，根据前期报名情况统计，今年计划培训女性高素质农民764人。', '您提出的《关于大力发展妇女居家灵活就业项目，加强妇女职业技能培训的建议》收悉，现答复如下：', '男女平等是我国基本国策。促进妇女平等就业，有利于推动妇女更加广泛深入参加社会和经济活动，提升社会生产力和经济活力。近年来，市人力资源社会保障局高度重视妇女就业创业工作，结合自身职能，积极开展促进妇女就业的专项活动，有针对性的开展就业创业培训。全面落实就业创业政策，通过政策咨询、岗位推荐、职业指导、职业介绍、技能培训等措施，支持妇女就业创业。', '一、完善政策体系，支持妇女参加职业技能培训。出台《德州市职业技能提升行动实施方案（2019-2021年）》（德政办发〔2019〕6号）等20多个一揽子职业技能培训文件，从失业保险基金中列支2亿元专项用于3年培训行动。从建立职业技能培训体系、加强职业技能培训载体建设、构建技能人才多元评价机制、完善职业技能培训补贴政策、推动和规范线上线下培训工作组织等方面做了全面部署，为妇女参加职业技能培训提供了有力的政策支持。', '二、广泛开展培训，推动职业技能培训政策落实落地。坚持需求导向，结合妇女培训意愿，积极开展有针对性的就业技能培训。利用春风行动、就业援助月等专项活动开展“就业创业培训进社区、进乡村”，将培训班开到群众家门口，让更多的群众掌握一技之长，真正让农村妇女在家门口接受免费就业培训。把发展基础好、思想观念新、学习能力强的妇女作为重点扶持对象，开展形式多样的创业培训，提高她们的创业能力。同时，坚持技能培训跟着产业走，课程设置跟着岗位走，定期与企业进行对接，了解用工缺口，推行订单式培训、定岗培训、定向培训等培训模式，把技能培训与推荐就业安置结合起来，促进妇女更高质量的就业。2020年全市开展培训7.33万人，其中女性4.9万人，占比超过66%。2020年全市共有2.83万名女性成功在城镇就业。', '三、加大工作力度，提升妇女家庭服务业技能。创新培训模式，积极引导妇女到家政服务行业从业，对从事家政服务的人员进行不同专业、不同等级的连续式、循环式职业技能提升培训，不断提高从业人员专业技能。支持家庭服务职业培训基地建设，鼓励支持业内企业利用自身资源开展自主培训，将岗前培训、岗中滚动培训结合起来，探索了一条企业自主培训、自主提高、政府扶持引领的新路子。德州市技师学院2015年被认定为全省家庭服务职业培训省级示范基地，2019年又顺利通过省级示范基地复核。同年，德州阳光大姐家政职业培训学校被评选为“山东省家庭服务职业培训省级示范基地”，并获得省级专项奖补资金50万元。2020年，市人社局印发了《关于开展2020年度德州市家庭服务职业培训市级示范基地认定工作的通知》（德人社字〔2020〕72号），经推荐、审核、实地考察、专家评审、公示等环节，认定夏津县天泽母婴护理职业培训学校、德州走四方高级技工学校、庆云县职业中等专业学校3家单位为“2020年度德州市家庭服务职业培训市级示范基地”，分别给予每家示范基地20万元的一次性奖补。注重技工院校建设和特色专业开发，全市共建有技工院校22所，在专业设置方面，鼓励技工院校设立护理、会计、幼儿教育、旅游管理等适合女生学习的专业，女生就读人数及比例近年来逐渐提高。2020年末，全市技工院校在校生女生达到0.87万人，较2015年增长了64%。', '四、多措并举，营造妇女创业就业良好氛围。大力宣传就业培训政策，提高妇女的政策知晓率，努力为妇女创业就业创造良好条件。组织开展就业援助月、“春风行动”系列专项公共就业服务活动，对有就业需求的妇女进行就业指导、职业介绍等免费就业服务，持续不断开展线上招聘活动，有序组织线下服务，加大岗位信息、远程招聘、网上面试、网络培训等服务供给，多频次、分行业、分岗位举办特色鲜明的女性专场招聘。与企业签订反歧视就业承诺书，保证妇女享受平等就业权利。通过税费减免、贴息贷款、创业补贴、辅导培训等措施，为妇女创业者提供全方位支持。2020年，直接面向妇女发放创业担保贷款1.8亿元，共扶持妇女创业1251人。妇女创业总人数达到1.04万人，较2015年的0.52万人增长了一倍。大力选树培育宣传妇女创业先进典型，弘扬创业精神，发挥典型示范带动作用。', '下一步，结合您的建议，我们将继续加大对妇女等重点群体就业创业的支持力度。进一步深化校企合作，建立创业导师队伍，举办专场招聘，提供创业孵化，加大就业创业服务供给力度。联合开展“春风行动”等活动，为生育女性、女农民工、登记失业女性等提供政策咨询、技能培训、岗位信息、劳务对接等服务。加强对脱贫妇女、农村低收入妇女群体的就业帮扶，继续发挥就业帮扶车间等就业载体作用，为脱贫人口创造就地就近就业机会。加强返乡入乡创业园等各类创业载体建设，为返乡入乡创业人员提供低成本、全要素、便利化的创业服务。持续拓宽农村劳动力就地就近就业，促进农民工就地就近就业，支持返乡入乡创业带动就业，吸纳鼓励更多妇女就业。', '您提出的《关于大力发展妇女居家灵活就业项目，加强妇女职业技能培训的建议的提案》收悉，现答复如下：', '德州市妇联及全市妇联系统始终高度重视妇女居家就业工作，积极开展促进妇女就业专项活动、有针对性的开展妇女居家就业培训。同时积极争取妇女居家就业创业政策，充分发挥“妇”字号企业吸纳就业的主渠道作用，努力帮助有需求的城乡妇女尽快实现居家就业、提高经济收入。', '一、探索“4+1” 居家就业模式。居家灵活就业具有投资少、风险低、易操作和时间灵活、收入稳定、不离家等特点，是解决妇女不能外出务工实际困难，促进妇女就业增收的有效途径。德州市妇联在确立了“创建居家灵活就业示范点”助力妇女脱贫增收的思路后，连续三年与市人社局联合发文，认定三批市“妇女居家灵活就业示范点”，给予资金扶持，探索出“4+1”妇女居家就业模式。截至目前，我市共建立妇女居家灵活就业点300余处，其中省级大姐工坊89处，投入扶持资金50万元，市级示范点51处，投入扶持资金25万元，居家安置就业妇女4万多名。', '二、突出巾帼人才培育，提高妇女就业能力。大力实施“乡村振兴巾帼人才培育工程”项目。本着“实际、实用、实效”的原则，根据农村妇女申报的培训需求，连续四年市妇联通过购买第三方培训服务的方式，面向农村妇女开展以农业技术、家政、电商、烹饪、手工技能等为内容的技能培训，培训妇女4000余人，有效提高了农村妇女创业就业能力。举办新型职业女农民培训班。为助力“乡村振兴”战略实施，德州市妇联累计举办全市新型职业女农民培训班4期，来自全市妇女领办或联合创办的有一定规模的农业龙头企业、专业合作社、家庭农场、农家乐、种养殖大户等农业新型经营主体负责人510多人参加了培训。依托省级“大姐工坊”，积极开展就业技能培训。2018年以来，利用省妇联为德州市25处省“大姐工坊”拨付的50万培训资金，对省“大姐工坊”从业妇女开展就业技能培训，内容涉及新时代生态农业职员健康与安全、服装缝制及常用工具设备使用与保养、条柳编等知识。目前，共计举办培训78期，培训人数2311人次。', '三、搭建线上线下平台，促进城乡妇女居家就业。不断丰富信息化平台建设，依托“德州女性之声”微信公众号，适时发布“妇”字号企业招工信息，2020年疫情期间，帮助近10家“妇”字号企业解决用工难题。2021年7月以来，市妇联积极对接浙江省金华市妇联，对标先进、考察项目，收集附加值高的“来料加工”信息，拟培植一批优秀妇女居家就业项目经纪人，带动城乡妇女居家就业，提高居家就业妇女经济收入。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>141</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>关于德州市推广农产品分销前产地内初加工的议案</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-12-23</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n66411375/c68040636/content.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['德州，古称安德，简称德，位于山东省西北部、黄河下游冲积平原，是山东省的西北大门。北接河北省沧州市，南接省会济南市、聊城市，西邻河北省衡水市，东连滨州市，处于环渤海经济圈、京津冀经济圈、山东半岛蓝色经济区以及黄河三角洲高效生态经济区交汇区域。京杭大运河有140多公里流经境内，历史上曾是重要的漕运通道，现如今已定位为京津冀协同发展示范城市。 德州富产小麦、玉米、大棚蔬菜、西瓜、西红柿等农产品，又处于交通运输的枢纽，有天然的地理优势。对于农产品高损失率的问题，在德州地区率先推广产地初加工是否是一个针对该问题有效的解决方案呢？', '1.2 2009年中央一号文件提出：要扶持农业产业化经营，鼓励发展农产品加工，让农民更多分享加工流通增值收益。', '1.3 2010年中央一号文件提出：要推进乡镇企业结构调整和产业升级，扶持发展农产品加工业，扶持农民专业合作社自办农产品加工企业。', '1.4 2012年中央一号文件提出：要支持农民专业合作社兴办农产品加工企业，研究制定支持农产品加工流通设施建设的用地政策，扶持产地农产品加工等配套设施建设，重点对农民专业合作社建设初加工和贮藏设施予以补助。', '1.5 2013年中央一号文件提出：要对示范社兴办农产品加工业给予补助，逐步扩大农产品加工增值税进项税额核定扣除试点行业范围；适当扩大农产品产地初加工补助项目试点范围。', '1.6 2014年中央一号文件提出：支持粮食主产区发展粮食加工业和推进以农产品精深加工为重点的新兴产业技术研发。', '1.7 2014年中共中央办公厅、国务院办公厅印发《关于引导农村土地经营权有序流转发展农业适度规模经营的意见》提出，鼓励农业产业化龙头企业等涉农企业重点从事农产品加工流通和农业社会化服务，带动农户和农民合作社发展规模经营；落实和完善相关税收优惠政策，支持农民合作社发展农产品加工流通；推动供销合作社农产品流通企业、农副产品批发市场、网络终端与新型农业经营主体对接，开展农产品生产、加工、流通服务。', '1.8 2016年农业部《全国农产品加工业与农村一二三产业融合发展规划（2016—2020年）》，加快推进农业供给侧结构性改革，充分发挥农产品加工业引领带动作用，大力发展休闲农业和乡村旅游，促进农村一二三产业融合发展，拓展农民增收渠道、构建现代农业产业体系、生产体系和经营体系，转变农业发展方式、探索中国特色农业现代化道路，实现“四化同步”、推动城乡协调发展。', '1.9 2016年国务院办公厅《关于进一步促进农产品加工业发展的意见》基本原则，以农为本、转化增值，立足资源优势和特色，以农产品加工业为引领，着力构建全产业链和全价值链，进一步丰富品种、提升质量、创建品牌，提高农产品附加值；市场主导、政府支持。尊重企业主体地位，充分发挥市场在资源配置中的决定性作用。针对农产品加工业的薄弱环节、瓶颈制约和重点领域，强化政府服务，加大扶持力度；科技支撑、综合利用。依靠科学技术，建设全程质量控制、清洁生产和可追溯体系，生产开发安全优质、绿色生态的各类食品及加工品，促进资源循环高效利用；集聚发展、融合互动。充分发挥新型城镇化辐射带动作用，引导加工产能向农产品主产区、优势区和物流节点集聚，促进加工企业向园区集中，打造专用原料、加工转化、现代物流、便捷营销融合发展的产业集群。', '[3] 农业农村部农产品加工质量安全风险评估实验室(北京),疫情期间农产品收贮运及产地初加工环节风险分析与防控[N].农民日报,2020.', '[5] 普洱市人民政府办公室,关于促进农产品加工业跨越发展的实施意见[N].普洱市人民政府公报,2019.', '积极、主动向德州市、临邑县农业农村局相关处室、科室进行沟通交流和调研，了解农产品的损耗与浪费产生的原因，为产地初加工问题有效的解决提供有质量的方案。', '（1）优化农产品加工产业结构布局。培育优势特色农产品产业带、粮食生产功能区、重要农产品生产保护区分布，合理布局原料基地和农产品加工业，形成生产与加工、科研与产业、企业与农户相衔接配套的上下游产业格局，促进农产品加工转化、增值增效。围绕粮食、棉花、果品、蔬菜 、畜牧、渔业、中药材等优势特色产业，建设以德州等市为中心的粮食加工企业集群。', '（2）加快农产品初加工发展。以粮食、油料、薯类、果品、蔬菜、菌类和中药材等为重点，支持农户、家庭农场和农民合作社改善储藏、保鲜、烘干、清选分级、包装等设施装备条件，促进商品化处理，减少产后损失。加快鲜活农产品保鲜物流体系建设，促进加工减损增效，提高产品附加值。通过实施相关项目和推广适用技术，推动农产品初加工水平整体提升。\ue5d2\ue5cf', '（3）提升农产品精深加工水平。充分利用高校科研院所人才、技术优势，扎实开展农产 品精深加工技术研发和成果转化，加大生物、工程、环保、信息等技术集成应用力度，加快新型非热加工、新型杀菌、高效分离、节能干燥、清洁生产、无损和在线检测等技术升级，开展精深加工技术和信息化、智能化、工程化装备研发，挖掘农产品加工潜力，提 升增值空间。', '（4）加强综合利用。选择一批重点地区、品种和环节，主攻农产品及其加工副产物循环利用、全值利用、梯次利用。 \ue5d2 \ue5cf采取先进的提取、分离与制备技术，集中建立副产物收集、运输和处理渠道，加快推进秸秆、稻壳米糠、麦麸、油料饼粕、果蔬皮渣、畜禽皮毛骨血、水产品皮骨内脏等副产物综合利用，开发新能源、新材料、新产品等，不断挖掘农产品加工潜力、提升增值空间。', '（5）加快农产品加工上下游产业发展。强化专用型农产品优良品种选育，支持高等院校、科研院所和种业企业围绕我 省农产品加工业发展需求，强化加工专用型农产品品种资源 的引进收集和创新利用，从源头上提升农产品加工的原料质量。大力发展农产品冷链物流，构建以骨干优势农产品为重点、以信息化平台为依托、以冷链物流标准为支撑、以重点项目为基础的冷链物流体系，探索果蔬、肉类、水产品等从生产、加工、储藏、运输、销售到最终消费全程 “不断链”的冷链物流模式，提高全省农产品冷链物流发展水平和效率。鼓励新型农业经营主体与城市快递网点和社区直接对接，开展生鲜农产品“基地＋社区直供”电子商务。', '国外发达国家对农产品加工提供种类繁多的补贴，低息和贴息贷款，这些扶持措施为农产品产地初加工产业的发展提供了良好的政策保障。在日本，农业产业由国家政策实施严格保护，限制国外产品流入，以农民组织为核心组建农产品加工企业。我国虽然鼓励社会资本和民间资金投入农产品加工业，但没有专门的政府机构进行协调，现在对一些农产品初加工产业中应用的冷库、机械设备的建设和采购的补贴才刚刚实施，需要更广范围更加深度政策扶持。', '国外还建立了用于促进产业发展的全面的金融服务组织，国家层面和民间资本都对科研给予大力支持。2009年，美国农业部70%的技术经费用于扶持农产品加工环节。加拿大基于国家层面设立了国家谷物研究中心和国家谷物局，用于加工的粮食原料必须先经过上述两家专设机构测试证明适于加工后才能用于加工产品，其粮食品种是否合格则由市场、加工决定，而我国恰恰相反，先经过育种，品种的产量质量合格后再推向市场，进而确定是否适合加工以及适合加工成什么产品。', '发达国家农产品初加工产业的发达不仅体现在具有先进的管理经验和设备，更重要的是制定了众多种类的农产品加工标准和规范的操作步骤，相关的服务体系也非常完善，我国在发展农产品初加工过程中可以借鉴国外的经验结合国情制定相应的发展策略。美国的农产品初加工以农场主为主， 一般农场主负责加工装备的购买和基础设施的修建，国家提供贷款补贴或部分购置资金。印第安纳州的Hoekstra马铃薯农场种植了马铃薯约600hm，马铃薯采后初加工所需要的自动化清洗、分级初加工等设备设施均为农场自建，与前期的马铃薯收获设备相互配合，具有高度自动化的特点，马铃薯贮藏周期可达8～10个月。农产品加工中心 (APC) 是承担韩国农产品产地初加工设施建设的主要部门，农协负责具体建设及运营管理，为用户提供农产品初加工技术、设备租用信息、产品交易信息等，很好地承担了信息交流平台的任务。', '农产品产地初加工在农产品产业中有着承上启下的作用，向上延伸至采收、种植甚至育种，向下则为精深加工、贮运销售，是产业中的重要环节，是城市与农村的连接纽带。农产品初加工产业发展两极分化极其严重，益海嘉里、中粮集团、光明乳业、新希望集团等外资公司、上市公司等大型企业拥有先进技术和装备，其初加工及深加工均已与国际接轨；我国农产品初加工产业从整体来说还处于相对落后的水平，产地初加工的意识还并不强烈，缺乏初加工设备或者设备非常陈旧，场地简陋，处理方法落后。发达国家粮食产后仅损失约1%，而我国损失达到7%～10%，由此可知，我国仅粮食损失每年就超过500亿元。2015年，四川省的果蔬产后腐损率约18%， 远高于发达国家5%的水平，由此测算，我国仅果蔬损失每年就1000亿元以上。因此，我国农产品初加工还有众多问题需要面对。', '目前，以国家储备粮库为首的大型粮库的粮食初加工设备和技术较为完善，具有干燥、清选、脱壳、贮藏等初加工工序的设备设施，还具有相对先进的初加工技术，与发达国家相比，几无差距。但民间或者农户的粮食初加工水平仍停留在低效阶段。有关调查表明，每年我国粮食因虫鼠灾害、存储不当造成的霉变等引起的损失约120～190亿kg，经济价值约300亿元。马铃薯为第四大粮食作物，马铃薯的贮藏60%由农户自行完成，贮藏方法多为土埋、地头堆放、装袋后庭院存放、简单窖藏等原始方法，此类方法无法有效避免贮藏时失水、腐烂、发芽等问题，采后损失率仍然达 15%以上。', '蔬菜和水果均为含水量高、产后呼吸代谢旺盛、极易腐烂变质，大部分果蔬采后的最初一段时间均是由农户自行进行初加工或者贮藏，其方法方式相对落后，设备设施简陋，为后期的贮藏运输、精深加工造成了大量损失。我国蔬菜损失率一直居高不下，约为20%～25%，主要是因为产地初加工水平不足；虽然我国苹果种植面积和产量均占世界总量的40% 以上，但采后损失率同样居高不下。目前黄土高原地区苹果产后有近50%由农户进行贮存， 平均损失率为15%。渤海湾地区苹果产后有70%由农户进行贮存，损失率在15%～20%之间。因缺少适宜初加工及贮藏方法，贮藏窖库年久失修设计不合理，冷藏设备简陋甚至是缺乏，导致苹果腐烂、绵化的问题屡见不鲜。', '农产品产地初加工产业的发展水平受到多种因素的影响，我国人口多耕地少，经营体制限制等问题制约了生产规模，形成了季节性强，生产分散，设备利用率低等问题。此外，农产品初加工的宣传不到位，民众对初加工认同感低，不了解行业属性的客户认为“初加工”技术含量低，投资大、风险高，因此对农产品产地初加工的重视程度不够；产地初加工设施应定义为农业基础设施， 应当更多注重于生态效益和社会效益而非经济效益，因此政府应当出台更多的鼓励政策，并给予更大力度的扶持。', '产地初加工大大延长了农产品销售时间，有利于保持价格稳定，使农民可以主动选择销售时机错峰销售，有效确保了群众的切身利益。近年来，我国农产品精深加工发展迅速，有效推动了农产品加工转化增值，但总体上由于发展时间短，创新发展能力不足，政策扶持不到位，工作机制不完善，产业链条短，上下游环节不匹配，增值空间有限，迫切需要提高政策的指向性、精准性和可操作性，促进农产品精深加工增品种、提质量、创品牌，加快转型升级发展，提高质量效益和竞争力。', '为了深入贯彻落实党的十九大精神，实施乡村振兴战略，根据2018年中央1号文件提出的“实施农产品加工业提升行动”要求和国务院领导批示精神，为了促进产地农产品初加工高质量发展为此我提出如下相关提议或建议：', '统筹推动农产品精深加工与初加工、综合利用加工协调发展，与专用原料生产、仓储物流(含冷链物流)、市场消费等上下游产业有机衔接，与营养健康、休闲旅游、教育文化、健康养生和电子商务等农村产业有机结合、深度融合，优化产业链布局。加大果品、蔬菜、茶叶、菌类、中药材、畜产品和水产品等营养功能成分提取开发力度，以满足需求为导向，不断增加营养均衡、养生保健、食药同源的加工食品和质优价廉、物美实用的非食用加工产品的市场供应。探索多主体参与、多层次联动的农产品和加工产品市场化收购制度，建立健全农产品市场化收购调运、仓储物流和应急供应体系。', '农产品初加工产能要向粮食生产功能区、重要农产品生产保护区、特色农产品优势区、现代农业示范区和现代农业产业园布局，推动农产品就地就近转化增值；依托现有加工园区、物流园区、产业集聚区等，建设一批产业发展规模大、科技创新能力强、精深加工程度深、示范带动机制好、政策保障环境优的农产品精深加工示范基地，遴选推介一批农产品精深加工发展典型企业和综合利用典型模式，引导其对接国际市场，打造国际化品牌，形成国家竞争力。依托大数据、云计算等信息化手段，加快形成品种专用、生产定制、产销对路的精深加工引领生产发展的新模式。', '把培育精深加工企业作为一项重要措施，支持加工企业加快技术改造、装备升级和模式创新，向产业链中高端延伸，向研发设计和品牌营销这两端延伸，不断提升企业加工转化增值能力，促进加工企业由小到大、加工层次由粗(初)到精(深)、加工业态由少到多、加工布局由散到聚。引导加工企业与农民合作社和农民构建紧密的利益联结机制，着力扶持一批农村一二三产业融合发展利益共同体，让农民更多地分享精深加工带来的增值收益，促进就地就近就业增收。', '实施科技创新驱动战略，加快建设一批农产品精深加工装备研发机构和生产创制企业，推动高等学校设立农产品加工装备相关专业，提升我国农产品精深加工技术装备研发能力。采取先进的提取、分离与制备技术，加快推进秸秆、稻壳米糠、麦麸、油料饼粕、果蔬皮渣、畜禽皮毛骨血、水产品皮骨内脏等副产物综合利用，开发新能源、新材料、新产品等。建立精深加工和综合利用加工技术装备目录，支持和鼓励企业和单位攻破关键核心技术。', '组织实施好农产品加工业人才培训行动。以科技创新与推广、经营管理、企业家和职业技能人才为重点开展专题培训。推动国家农产品加工技术研发体系、农产品加工科技创新联盟和农产品加工科技成果转化服务平台建设。逐步建立涉农专业毕业生到农业企业、合作社等新型经营主体实习的培养制度，缓解毕业生实践能力不足和企业用工难等问题。', '鼓励各地综合运用贴息、奖补等政策，按规定统筹相关资金支持精深加工企业发展。逐步将农业企业、合作社等新型经营主体纳入培训机构范围，依托其开展农业技术、经营管理等培训，既满足培训学员的实际操作需求，也能补贴新型经营主体，拓宽其经营范围。落实农产品加工企业可以凭收购发票按规定抵扣增值税政策。', '鼓励金融机构综合考虑自身发展战略、企业状况和市场定位等因素，加大对重点精深加工企业、综合利用加工短缺产能和重要特色农产品原料收购的信贷支持力度，合理提高授信额度，允许符合条件的企业流动资金贷款周转使用，满足企业对差异化金融服务的有效需求。不断创新产品和服务，加大对农业产业化龙头企业的信贷支持，引导担保机构在企业贷款、发行债券等进行担保增信，建立多层次风险缓释措施和风险分担机制。建立偿还意外风险保障制度，拓宽精深加工企业融资渠道。支持符合条件的农产品精深加工企业申请发行农村产业融合发展专项债券，申请上市、新三板等挂牌融资。', '各地应细化用地用途分类，增加农产品精深加工、综合利用加工和仓储流通设施用地规划空间。对农产品精深加工、综合利用加工和仓储流通设施建设用地，在年度新增建设用地计划指标安排上予以倾斜支持。优先考虑现代农业示范区、现代农业产业园、农产品精深加工示范基地、加工园区、产业集聚区建设用地，引导加工企业入驻加工园区、产业集聚区集中发展。支持农村集体经济组织依法办理审批手续后，以集体建设用地使用权入股、联营等形式与其他单位、个人共同兴办农产品精深加工企业。支持精深加工企业将企业总部和加工产能向县城和中心镇转移。城乡建设用地增减挂钩节余的用地指标要重点支持农产品精深加工发展。市、县农业农村和自然资源等部门应加强在农产品精深加工、综合利用加工用地落实方面的沟通协作，切实做好用地保障。', '九、建立工作机制应按照《国务院办公厅关于进一步促进农产品加工业发展的意见》要求，发挥牵头作用，履行规划、指导、管理、服务等职能，督促各项政策措施落实。支持科研院所、高等院校、现代农业产业技术体系、农业各类产业联盟、行业组织加强科普宣传，引导广大消费者科学消费、健康消费，共同推动农产品精深加工发展，为实施乡村振兴战略、促进农业农村现代化提供强有力的支撑。', '市财政局高度重视产业集群、园区等创建工作，密切关注研究上级政策，主动对接省厅业务处室，最大限度做好争取工作。一是陵城区、夏津县、禹城市入围的沿黄优质小麦产业集群入选2021年国家级优势特色产业集群建设名单。该项目争取中央财政奖补资金总额2亿元，我市三个县预计将获得中央补助资金1.2亿元。二是齐河县成功创建2021年国家级现代农业产业园，预计获得中央补助资金1亿元。三是平原县王杲铺镇成功创建2021年国家农业产业强镇，争取中央补助资金1000万元。三个农业产业项目的顺利创建，将助推我市加快构建现代农业产业体系，促进农业高质高效，进一步推动农产品精深加工发展。', '农业信贷担保体系建设作为转变财政支农方式、构建服务乡村振兴战略多元投入机制、缓解农业农村融资难题的重要手段，全市各级财政部门多措并举、主动作为，积极帮助农担公司协调有关单位，并通过财政资金安排风险保障金3960万元，有效降低农担公司信贷风险，全力推动农担工作不断发展壮大，持续提升农担政策影响力，进一步提高对农产品精深加工企业的支持力度，为助推全市乡村振兴贡献积极力量。', '2021年，在受经济下行叠加疫情防控影响，财政收入回落幅度大，减税降费力度大，刚性支出增长快，各级财政收支矛盾更为尖锐的情况下，按照市委市政府决策部署，市级财政安排资金420万元，专项用于农机服务体系培训和深化供销合作社综合改革发展工作，进一步提升农产品初加工技能和供销服务能力，有力促进产地农产品初加工高质量发展。', '下一步，我们将根据您的建议，进一步完善相关政策措施，综合运用各种政策工具，统筹各类资金资源，加大农产品加工支持力度，为全面推进乡村振兴、加快农业农村现代化作出积极贡献。', '农业供给侧改革作为农业农村工作的主线，在乡村振兴、产业振兴等方面发挥着重要作用。近年来，我局一直关注农业领域发展情况，合理配置金融资源，加大对“三农”支持力度，针对困扰企业发展的融资难、融资贵问题，主动提升金融服务效能，充分发挥了金融助推乡村振兴功能作用，促进我市农业产业全面、快速、协调发展。主要开展以下工作：', '一、加大信贷支持力度。一是加强线下银企对接。2021年3月召开全市重点项目融资对接会，对中合汇农宁津·农产品电商物流城、高端淀粉及精深加工项目等64个市级重点项目融资需求进行推介，每周调度银企对接情况。会后，市内银行机构共对接了52个重点项目，截至4月末，累计提供授信39.98亿元，已投放到位25.80亿元。二是搭建政银企合作平台，2020年市政府与农发行山东省分行、工商银行山东省分行等多个省级银行机构签订战略合作协议，为我市乡村振兴领域提供信贷政策和规模倾斜。大力推广“鲁担惠农贷”“农耕贷”“强村贷”等金融产品，着力满足农业企业、新型农业经营主体和农户的融资需求。截至2020年末，全市涉农贷款余额1159.43亿元，较年初增加100.76亿元。三是组织农发行信贷政策宣讲会议，对农发行中长期贷款业务种类、相关政策、操作流程及运作模式等内容进行深入讲解，旨在增强我市有关职能部门及企业运用国家“三农”领域政策性信贷资金能力，发挥金融助力乡村振兴作用。', '二、创新开展涉农信贷业务。武城县、乐陵市率先开展农村承包土地经营权抵押贷款试点工作，健全农地抵押贷款配套机制，提供免费评估和抵押登记服务，精简贷款办理流程，截至2020年末，武城县已累计发放农村集体股权质押贷款1.35亿元，居全省16个试点县（市、区）第2位，推进农村集体资产股权质押贷款试点工作被省委主要领导肯定批示。禹城市农商行创新开办农村集体经营性建设用地使用权抵押贷款业务，有效拓展了涉农贷款抵质押物范围，提高了涉农企业、农村经济组织信贷获得率，该产品获得山东省“2019年新旧动能转换优秀金融产品”称号。自试点推广以来，截至2020年末，累计发放该类贷款101笔、授信1.57亿元，目前余额0.67亿元，惠及客户47家，抵押土地面积572.63亩。', '三、加快构建多层次农业保险体系。一是农业保险持续提标、增品、扩面。我市保险公司在小麦、玉米、棉花等传统政策性农险业务基础上，逐步开展了能繁母猪、育肥猪、蛋鸡、奶牛、肉驴、蔬菜大棚、林木、蜜桃等农险业务，相关农险政策不断修订完善，为全市农业生产提供了坚实的风险保障。2020年全市各类农业保险实现保费收入4.33亿元、提供风险保障93亿元、累计赔付1.99亿元。二是农产品“保险+期货”创新业务模式走在全省前列，受到省政府领导批示认可。2019年起，夏津县、武城县被列入全省棉花目标价格保险业务试点县（全省共6个县列入试点），全县域推广“保险+期货”业务；陵城区作为山东省第一批耕地轮作休耕制度试点县（市、区）种植大豆，被列入大连商品交易所“农民收入保障计划”，有效发挥了保险的风险管控和期货市场的价格发现以及套期保值功能，我市农业保险的保障水平不断提升，服务乡村振兴的广度和深度不断拓展。', '四、积极推动地方金融组织支持“三农”发展。截至2020年底，全市共有小额贷款公司、融资担保公司、民间融资机构、典当行和融资租赁公司等地方金融组织共50家，作为传统金融的有益补充，有效支持了“三农”和小微经济发展。2020年全市政府性融资担保机构新增融资担保业务88404.8万元，新增担保户数153家，平均担保费率为1.38%，较2019年度全市融资担保公司平均担保费率降低38.12%。2020年度融资担保放大倍数为1.09，较2019年度同比增长16%。2021年2月德州市召开推动政府性融资担保机构银担合作座谈会，整合财政、工信等方面奖补政策，鼓励引导市内银行在担保公司准入、二八分险方面积极作为，定期调度实时督导，实现更多金融资源支持 “三农”和小微企业发展。拍摄微电影引导小额贷款公司支农助微，根据小额贷款公司支农真实案例撰写信用金融故事《好人的价值》，并改编拍摄全国首部信用与金融题材电影短片《老杨的盛夏》，荣获第八届亚洲微电影艺术节“最佳作品奖”等多个奖项。省地方金融监管局将此电影短片在全省宣传推广，反映小额贷款公司诚信支农，引导小额贷款公司扎根当地、深耕基层，支持“三农”经济发展，践行支农支微责任担当。', '五、多途径推动企业上市。一是强化组织保障。印发《德州市上市公司数量和市值三年双翻番行动实施方案》，明确上市目标，落实推进措施。通过召开专题调度会和协调会、进行现场办公、实行“一事一议”、开辟“绿色通道”，帮助企业解决有关困难和问题，清除上市障碍。二是强化政策落实。目前，市政府对企业上市按照辅导、报会、成功上市三个阶段，共给予300万元资金补助，县（市、区）也制定了相应的扶持政策。近年来，市级财政已累计兑现上市挂牌补助资金4980万元，极大地提升了企业家对接资本市场的信心。三是强化资源培育。深入发掘资源企业，建立全市上市后备资源库，实行动态管理，2021年将127家企业纳入上市资源库，其中未来三年上市重点培育对象43家，分年度、分梯次推进企业上市工作，对企业上市全程提供“保姆式”服务和按“确定券商、股改、辅导、报会、上市”等阶段给予精准化指导，2021年发达面粉集团有限公司已进入上市报辅导阶段。每年到拟上市企业调研不少于3次，并邀请省地方金融监管局、山东证监局和沪深证券交易所的领导专家到企业考察指导。组织业内名气大、执业水平高的证券公司分片区对后备资源逐企走访，把脉问诊。四是强化培训宣传。坚持“请进来授课”与“走出去取经”相结合，努力提高企业家对资本市场的认识，转变思想观念。每年开展资本市场专题培训活动不少于10次。举办“走进上交所”、“走进深交所”，组织企业到交易所参观学习，感受资本市场魅力。今年以来，全市新增上市公司1家。目前，全市境内上市公司10家居全省第7位、报审辅导企业4家，居全省第8位，累计实现上市融资183.49亿元。', '当然，目前融资难、融资贵仍然是制约农业类企业和农村生产经营主体健康发展的一个重要问题。问题既有企业自身实力不强的因素，也有政府扶持力度和个别金融机构服务意识欠缺的因素。针对您提出的建议，我们下一步将努力做好以下几项工作：', '一是搭建对接平台，加大涉农贷款投放力度。积极推介涉农企业、重点项目融资需求，促进银企对接，提高乡村振兴领域融资效率。鼓励各银行机构围绕乡村振兴战略实施，加快信贷业务和服务方式创新，扩大涉农信贷业务范围，有效增加对农业基础设施建设、农业龙头企业、新型农业经营主体和新农村建设等的信贷投放。', '二是创新金融服务方式，提升服务乡村水平。鼓励银行业金融机构在有效防范金融风险的前提下，拓宽农户和农业生产经营主体抵质押物范围，支持农村产业链和新型农村经营主体发展，扩大“鲁担惠农贷”、“强村贷”等业务覆盖范围，做大业务规模。继续引导保险公司开展农业保险、扶贫特惠保险等重点险种，更好发挥保险功能作用。', '三是推动地方金融组织支持“三农”经济。支持前景广阔、现金流充沛、资产负债率低的优质企业依法发起设立地方金融组织，丰富地方金融业态。引导地方金融组织专注主业、回归本源，更好服务“三农”和小微经济发展。', '农产品分销前产地内初加工是加快推动农业现代化发展的基础，是增加农产品附加值、降低产后损失的有力举措，是不断拉长农产品加工产业链条、实现“粮头工尾”，推动农产品种植向农副产品深加工产业发展的必由之路。2020年6月11日市委市政府印发了《德州市新型工业化强市三年行动计划》，全力构建“541”产业体系，农副产品深加工产业是保障民生的基础性产业，也是我市重点打造的四大传统优势产业之一，产业基础好，支柱作用明显，产业门类齐全，产业体系健全，区域性品牌知名度较高，培育除了“中国扒鸡之乡”“金丝小枣之乡”“中国食品馅料城”“中国辣椒城”等一系列国家级称号，2020年食品产业的六个产业链规上企业167家，实现主营业务收入440亿元，同比增长9.8%，特别是食品调味料、功能食品与保健品、休闲食品产业链均实现10%以上的增长。', '虽然我市农副产品深加工产业在多个细分产业具备一定的产业发展优势，但目前仍存在产业结构层次低，细分产业规模小，2B型企业偏多，缺少大企业集团带动，整体研发创新能力不足的问题。根据《德州市新型工业化强市三年行动计划》和您的工作建议，我市将以实现产品终端化、休闲化、功能化、品牌化以及企业资本化为产业发展目标，推动供给侧结构性改革，实现2B制造型与2C品牌型的食品产业组合模式，建设专业化食品产业园区，推动现代化农副产品产业集群发展。', '一、不断优化产业结构。正在研究制定《德州市农副产品深加工产业专项发展规划》，立足我市农副产品资源禀赋和产业发展优势，以粮油加工、肉制品加工、酒水及饮料、调味料、休闲食品加工五大农副产品产业链和功能食品与保健品产业链为发展重点，加强延链补链强链，加强终端消费引领，推动农产品初加工向精深加工转化，农副产品加工向食品制造产业转化，不断提升产业价值链，优化产业结构。', '二、加快产业集群发展。坚持农副产品深加工产业向现代产业园区化、集群化发展。依据原料主产区、重要物流节点和区域经济带产业分布，依托骨干企业，按照布局合理、特色鲜明、集约高效、绿色生态的原则，印发《德州市“一县一集群（主导产业）”培植意见》，打造全产业链，建设资源要素集聚的农副产品深加工产业基地。', '三、壮大龙头企业规模。坚决落实《德州市支持新型工业化强市20条意见》等政策，重点支持双汇食品、星光糖业、德州扒鸡、古贝春、光明乳业、旺旺食品、谷神蛋白等“工业50强”企业做大做强，坚持政策优先倾斜、要素优先供给、服务优先保障、难题优先解决，集中力量，重点突破，支持龙头企业加强核心能力建设，扩大企业规模，增强企业实力，推动形成一批主导产业链发展、优化产业发展生态的产业链“链主”企业。', '四、提升技术装备水平。聚焦传统产业转型升级，以高端化、智能化为主攻方向，贯彻落实省传统产业智能化技术改造三年行动计划，持续开展技改供需对接，落实贷款贴息、设备奖补、股权投资等政策，不断提升农副产品深加工产业企业的技术装备水平。', '五、加强专业人才培养。积极开展企业家培训活动，以规模以上工业企业为重点，以现代产业商学院为重要载体，充分借助市委党校、德州职业技术学院以及国内著名高校、优秀培训机构优势资源，以专题培训、对标学习、企业家大讲堂等形式，深入实施企业家素质提升工程，对企业家进行精准化、差异化、系统化培训，造就一支素质高、能力强、懂经营、精管理、善创新的优秀企业家队伍。', '六、加强金融服务。发挥我市作为国家产融合作试点城市试点示范作用，创新融资服务，推进产业发展。积极扩大中期流动资金贷款覆盖面，稳定企业现金流。加大融资担保机构小微企业信用保证工作力度，解决企业无抵押物贷款难问题。促进产业项目与基金对接，积极推荐优质项目，帮助对接基金机构，提升精准对接效能，积极推动供应链上下游中小企业票据融资。', '德州市地处山东省西北部，黄河下游北岸，是全国重要的粮食、蔬菜、畜牧主产区，京津冀地区重要农副产品供应基地；是全国首个“亩产过吨粮、总产过百亿”的地级市。共有9个县（市、区）列入全国新增千亿斤粮食产能大县，8个县（市、区）是全国蔬菜重点县，6个县（市）是全国生猪调出大县。拥有“中国扒鸡之乡” 、“中国金丝小枣之乡” 、“中国辣椒之乡”、“中国食用菌之乡”、“中国椹果之乡”、“中国功能糖城”、“中国粮油食品城”等多个农业特色地域名片。到目前，我市培育农业产业化国家重点龙头企业9家、省级67家。随着农业产业化龙头企业规模的不断发展壮大，龙头企业涉及行业逐步拓宽，产业集聚趋势明显。目前已经覆盖粮食、油料、畜禽、果蔬、棉花、调味品、种子和木材加工八大产业，基本形成了以禹城保龄宝、百龙创园为龙头的功能糖产业，以百枣纲目、德润为龙头的枣产业，以乐陵飞达为龙头的调味品产业，以夏津发达为龙头的粮食加工产业，以平原福洋为龙头的玉米深加工产业，以武城英潮为龙头的辣椒产业等10余个特色产业集群，区域化布局、规模化经营的发展格局初步形成。农产品加工成为全市一大优势特色产业。', '2015年以来，为提高农产品利用率，减少产后损失，我市先后在临邑县、夏津县、乐陵市等蔬菜、水果种植大县开展农产品产地初加工补助项目，累计争取中央财政扶持资金600余万元，帮助农户建设冷库、通风库、贮藏窖、烘干库等设施200余套。项目的实施有效的支持农户、家庭农场和农民合作社改善储藏、保鲜、烘干、清选分级、包装等设施装备条件，促进商品化处理，减少产后损失，促进农产品加工减损增效，提高产品附加值。德州市农业农村局深入推进农业供给侧结构性改革，推动品品牌打造。2021年4月10日，组织在北京举办德州市对接京津冀优质农产品供应展销洽谈暨“德州味”品牌发布会，“德州味”品牌形象正式发布。“德州味”品牌发布会的成功举办，标志着德州市优质农产品将以“德州味”统一品牌形象为指引，健全完善农产品“整体品牌形象+单品类区域公用品牌+企业产品品牌”的品牌运营体系，抱团发展、合作共赢，不断提高品牌竞争力、影响力和知名度。', '（一）加快农业产业化发展。充分发挥我市农业资源优势和交通区位优势，分析农业产业化龙头企业在带动农业转型升级、促进农民增收、壮大地方财源等方面的作用，坚持问题导向，立足各县市区产业基础和资源优势，把农业产业化发展作为促进乡村产业振兴的重要抓手，进行通盘考虑。进一步加快土地流转，积极发展家庭农场、农业社会化服务组织。加大农业龙头企业引进力度，积极引进一批综合实力强、精深加工层次高、税收贡献大的国内外知名农产品（食品）深加工企业落户德州。改变指导农业生产的重点和方式，变过去抓种养为主转变为抓市场、抓加工为主，变过去农产品大市向食品生产大市转变，力争使农业产业的兴旺在推动乡村振兴上实现率先突破。', '（二）加大品牌创建力度。一是建立健全“德州味”区域公用品牌授权标准体系。按照品种培优、品质提升、品牌打造、标准化生产的基本要求，完善准入标准。二是严格监管被授权企业。大力发展数字农业、智慧农业，运用农业物联网技术，推进被授权企业加快自有生产基地建设步伐，逐步实现对投入品、仓储、加工、物流直至终端市场的全过程监管，确保农产品质量安全、可追溯。一旦发现问题，立即取消使用权并追究相关责任。三是积极引导和帮助本地企业树立品牌意识，培植一批大型知名品牌农业产业化龙头企业，实现规模化经营、标准化生产、订单化销售。', '（三）加大政策扶持力度。进一步优化发展环境，积极帮助企业解决困难问题。集中精力，选择一批具有本地特色的农产品加工企业，进行重点培育，提升产品档次和管理水平，打造一批具有地方特色的食品龙头企业。积极引导金融资本、工商资本、社会资本投资农业发展。', '结合我市实际，通过典型示范引领，推动各县（市、区）推进科技创新发展的积极性，以建设科技创新型县（市）为契机，以实施创新驱动发展战略、乡村振兴战略为抓手，以体制机制创新为突破口，以创新主体培育、创新要素集聚、产学研协同创新、科技成果转移转化为路径，以科技惠民为落脚点，努力探索科技支撑产业发展的有效途径和新经验新做法。', '立足我市的产业发展实际和企业技术需求，积极推动国家农产品加工技术研发体系建设，深入对接京津冀鲁等地高校院所、科研机构的科技资源，推进其科技成果在德州市转移转化，为我市企业与高校院所、科研机构提供精准对接平台，打造京津冀科技成果转移转化基地，加速涉农科技成果转移转化。', '以科技创新与推广、经营管理、企业家和职业技能人才为重点。围绕研发设计、孵化培育、技术交易、知识产权等领域引进和培育一批高水平的专业科技服务机构和人才团队，重点建设山东省技术市场鲁北技术转移中心，着力推动我市技术转移服务机构市场化体系建设，打造一批科技服务品牌。每年面向我市重点产业、科研实力强的重点工业企业，征集10项左右事关产业核心竞争力和重大共性关键技术，建立重大科技创新技术需求项目库，培育一批产业技术和产品。公开面向全社会和各大科研院校“发榜”，组织企业、科研院校联合攻关，对接国家、省重点研发计划，形成一批具有市场竞争力的创新产品和技术成果。', '依托现有省级以上科技创新平台的集聚效能和品牌优势，释放科技创新产能，加快农产品加工科技创新联盟和农产品加工科技成果转化服务平台建设，加速本土科技成果的转移转化和扩链增效。推动希森马铃薯持续开展“育繁推”，拉长马铃薯产业链条，实现扩链增效，形成技术研发、成果落地与市场应用的良性循环。', '突出企业主体作用发挥，围绕产业转型升级重大需求，在“卡脖子”关键问题上，突破技术瓶颈制约，重点建设国家国家马铃薯技术创新中心等一批国家级和省级技术创新中心、重点实验室等。加快建设一批农产品精深加工装备研发机构和生产创制企业，重点建设调味品产业技术研究院、马铃薯产业技术研究院等创新载体，为主导产业的创新发展提供科技支撑。推动新型研发机构建设。鼓励发展投资主体多元化、管理制度现代化、运行机制市场化、用人机制灵活的新型研发机构，鼓励支持科技型企业与高校院所、科研机构组建或共建新型研发机构。', '培育一批高研发投入企业，在研发平台建设、重大技术攻关、高端人才引进培养等方面，给予持续重点扶持。提升我国农产品精深加工技术装备研发能力。加强研发投入政策落实力度，实施科技创新驱动战略，推动高等学校设立农产品加工装备相关专业。', '我局高度重视“三农”工作中土地要素保障工作，积极向上级争取建设用地指标支持，全面做好乡村振兴重点产业和项目用地服务保障工作。一是做好政策支持。为保障乡村振兴用地需求，市自然资源局积极研究对策，出台了《关于加快全市用地报批工作的意见》（德自然资字〔2020〕308号），优先支持乡村振兴项目，要求用于乡村重点产业和项目、农民建房等不少于县（市、区）指标的5%，进一步完善了保障机制。二是做好“三农”工作中土地要素保障工作。2020年，我局为农业农村项目解决用地2500余亩，为齐河县大黄康瑞食用菌、平原县鲁望生态农业等64个乡村重点产业、农村民生和基础设施项解决用地。三是支持使用城乡建设用地挂钩节余指标用于农产品精深加工、综合利用加工等项目用地。四是建议有关部门积极将该类项目争取列入省级重大项目清单，我局也将争取省统筹指标解决。', '下一步，我们将继续按照“要素跟着项目走”机制，积极与农业农村部门对接，继续做好农产品精深加工、综合利用加工等项目土地要素保障工作。', '正如您在议案中所述，乡村振兴离不开人才的支撑，近年来我局充分发挥职能，高度重视技能人才培训培养，制定出台了一系列政策措施，推动相关领域技能人才队伍建设。', '一、完善培训政策体系。针对技能人才队伍建设，自去年以来，我市先后制定出台了《关于做好新冠肺炎疫情防控期间农民工等四类重点群体职业技能培训工作的补充通知》《关于印发德州市职业技能提升行动实施方案（2019-2021）的通知》，并联合市财政局制定出台了《做好职业技能提升行动（2019-2021年）专账资金管理使用工作的通知》，为开展大规模、广覆盖、多形式的农村劳动力职业技能培训提供了政策依据。', '二、确保政策落实落地。结合开展职业技能提升三年行动，面向广大农村劳动力开展形式多样的技能培训，重点实施了农民工技能提升行动、农村实用人才培训计划、乡土人才培育行动、农民工“求学圆梦行动”等培训，为乡村振兴提供人才支撑。2019—2020年，我市共培训农民劳动力达7.7万人次以上。此外，大力开展农民工返乡创业培训，针对准备创业和创业初期的农民工，开展创办企业、创业实训、经营管理等培训，提升他们项目选择、市场评估、资金预测、创业计划等能力；针对新生代返乡创业农民工，开展大数据、人工智能、电子商务等新技术新领域创业培训，提高他们的创业质量和层次。', '三、落实相关补贴政策。加大支持力度，落实农村劳动力培训补贴政策，结合当地农民专业合作社和经营农业产品初加工的行业企业对技能人才的需求，对开展相关技能培训、考核合格的农村劳动力及时落实培训补贴，鼓励支持相关产业发展。', '下一步，我局将继续加大宣传力度，广泛动员广大农村劳动力参加技能培训，加大培训供给，提高培训质量，落实各项补贴政策，为乡村振兴战略实施提供强大人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>141</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>关于推进学前教育优质发展的几点建议</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-12-10</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67397061/content.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['自党的十九大以来，“幼有所育”被列入重大民生工程，国家将学前教育发展放在了前所未有的重要位置。随着城镇化进程加快、“二孩”政策的全面放开，群众对学前教育的需求不断增长，“让孩子接受更普惠更优质的学前教育”成为人民群众新的期待。在实现优质发展的过程中，提高幼儿教师素质和教育教学水平成为新的主要矛盾。', '1、在编幼儿教师数量不足，且男女比例失调。近年来，市县各级高度重视幼儿教育事业发展，不断加大幼儿教师招聘力度，但与日益增长的幼儿教育发展需求相比，在编幼儿教师数量仍严重不足，缺口较大，大部分幼儿教师需幼儿园自行聘用，且男少女多，比例严重失调。', '2、聘用教师工资待遇低，教育教学水平不高。大多自聘教师工资很低，福利待遇也低，没有缴纳医保、养老等社保，基本停留在全市最低工资标准左右，这样的待遇很难招聘到优秀的专业幼师，只能聘用附近的家庭妇女，学历也多是初中或高中毕业，教师素质堪忧，加之工作压力大，“同工不同酬”，自聘教师心理失衡，缺乏责任心，导致教育教学水平不高。', '3、幼儿园去小学化不到位，“幼小”衔接不够科学。部分幼儿园，尤其是农村、民办幼儿园，因家长观念落后，小学又未按要求实现“零起点”教学，一些家长迫于一年级压力，提前让孩子为上小学做知识储备，这种行为对幼儿教育的规范和普及带来不少障碍，致使幼儿教育还没有完全去小学化。公办小学附设园中，也有为了小学教育教学成绩，单方面要求附设园教授小学化内容，不进行科学的幼小衔接的现象，对孩子的成长造成了不可磨灭的影响，制约了学前教育的健康发展。', '一是建议有关部门积极争取上级政策支持，逐年增加幼儿教师招聘数量，且在政策上适当向招聘男性幼师倾斜，逐年补充农村学前教育师资，逐步改善农村幼儿教师师资短缺的局面。二是对于学前教育专业的高材生应当制定回乡就业优惠政策，提高回乡就业教师的福利待遇，吸引优质专业技术人员为家乡做贡献。对已招聘幼儿教师，在职称评聘制度上应有意识向幼儿教师倾斜，起码保证幼儿教师同义务教育学段教师同等待遇。三是实施城乡幼师结对帮扶计划。完善“市直园帮扶县直园，县直园帮扶乡镇中心园、乡镇中心园帮扶村镇幼儿园”帮扶模式，推动全市优质学前教育资源下沉。', '一是进一步规范和保障自聘教师的工资待遇，积极解决招聘教师的社保问题，建议政府支持，把自聘教师的工资和社保纳入财政统一管理，聘用教师工资全部提高至最低工资标准之上；二是对于自聘幼儿教师的招聘，教育主管部门应根据当地实际情况，制定招聘条件及招聘计划，采取合同制，在保证幼师的基本素质及水平的同时，不断加大对自聘教师规范管理；三是加大对自聘教师的培训力度，建议统一建立自聘教师培训制度，优先选拔学历高，能力强的教师进行培训，建立骨干教师团队，通过骨干教师搞好“传、帮、带”，全面提高自聘教师的专业化水平。', '一是成立家长课堂，通过家长会、家长访谈等形式告知家长幼儿园小学化的弊端，尽最大努力去除幼儿教育小学化，注重幼儿能力、兴趣的培养。二是保障和满足幼儿户外活动需求，真正让孩子们去体验、去感知，调动他们的抽象思维，增强儿童体质。三是义务教育阶段应当积极承担幼小衔接义务，严格按照省文件要求执行“零起点”教学，遵循儿童身心发展规律，保护儿童健康成长；四是加大学前教育宣传力度，建议有关部门密切配合，传播正确的保教方式，积极开展幼儿园“去小学化”专项整治、游戏化课程实施、城镇居住区配套园专项整治、无证幼儿园取缔等工作开展，激发全社会重视学前教育，为全市学前教育发展打下坚实基础。', '随着我国经济的不断发展，人民生活水平的不断提高，学前教育的缺口巨大，在我国“二胎”政策开放的背景下，对幼儿教育的需求日益增大，随着我市城市居民人口的增长，而公办幼儿园目前难以满足日益增长的需求，民办幼儿园如雨后春笋般的发展起来。', '目前，我市学前教育发展势头良好，幼儿园数量稳步提升，就总体数量而言，民办幼儿园占比已超公办幼儿园。而在不远的将来，民众对于幼儿教育的需求将达峰值，民办幼儿园势必将迎来新一轮的业务增长。民办幼儿园具有自身的优劣势，分析如下：', '民办幼儿园教育服务多样化，具备差异化竞争优势。民办幼儿园在关注3-6岁幼儿身心发展的同时，也积极探索0-3岁幼儿早期教育的开发。除此以外，民办幼儿园办学灵活，能及时关注幼儿家长的需求变化并做出反馈。教育行业属于第三产业服务业，客户体验是教育这一特殊产品的最终表现形式，而作为非直接教育接收者的幼儿家长又在教育服务实施的过程中扮演着极其重要的角色。民办幼儿园作为商业性机构，能够正视这一点，并积极地与幼儿家长进行沟通，实时把握幼儿家长的需求变化，并力求积极反馈，这些优势是大多公办幼儿园所忽视的。', '师资力量薄弱，后续培训及提升不足。由于幼教岗位缺口大，有限的幼教应届毕业生又倾向于供职公办幼儿园，民办幼儿园在师资招募时选择空间有限。且由于民办幼儿园缺乏后续培训及提升的资源和适当引导，其师资力量普遍低于公办幼儿园，且岗位人员流动性大，不利于管理。', '不仅如此，民办幼儿园以盈利为目的，又要面对较为激烈的竞争，这就对成本与利润的平衡有一定的要求。与公办幼儿园有国家财政支持不同，民办幼儿园自负盈亏，在保证一定收益的同时，又要进行较高的成本投入，这就对办学管理提出了较高的要求。', '另外，一些民办幼儿园的教室不规范。有的租用门市作为教室，无窗，长期靠灯光照明，影响幼儿视力；消防设施不具备，无消防通道；有的设在公路边，无防护栏等安全设施，存在严重安全隐患。课桌和凳子、活动设施、活动场所不规范，影响幼儿的身体发育。接送幼儿的车辆管理不规范。教师不具备从教资格，或者教师又充当保育员，没通过全面体检，没办健康证。同时幼儿园收费比较混乱。', '由于社会对幼儿园需求大，有些无证幼儿园还是大量存在。受经济社会发展条件限制，我市一下子要取缔这些无证幼儿园也存在现实困难，老百姓也不满意。但无证幼儿园在我市的大量存在，说明了我们的监管缺失，存在巨大的隐患。更为严重的是，互联网与自媒体的发展令个别民办幼儿园的负面新闻持续发酵，这对市场信心的建设十分不利。部分素质极差的幼教从业人员，部分管理极为混乱的民办幼儿园对整个民办幼儿园的口碑影响巨大，导致一段时间之内幼儿家长人心惶惶，对民办幼儿园产生了极大的不信任和质疑。因此，加强对民办幼儿园的监督管理不能忽视。', '一是市政府规划部门要科学规划，合理布局、合理设点，使幼儿园的数量与当地需求相匹配；需要建立幼儿园的，要提前留有专门用地。同时，鼓励社会资本参与公办幼儿园分校建设，建立公办民营模式的幼儿园，以满足广大群众需求。整合民办幼儿园资源，选出一些有办园实力的幼儿园，提高办学质量，强化办学特色，让小园并入大园。', '二是全市制定统一的实施办法，对民办幼儿园实行规范化管理。对不符合条件的幼儿园，按照《民办教育促进法》、《幼儿园管理条例》《国务院办公厅转发教育部等部门(单位)关于幼儿教育改革与发展指导意见的通知》等有关法律法规和文件精神，坚决予以取缔。对幼儿园师资进行培训，通过部门引导、市场调节的作用来监督管理和规范民办幼儿园市场，进一步发挥差异化竞争的优势，提供真正满足幼儿及家长需求的教育服务。每年的“区培计划”和“国培计划”都应考虑到民办幼儿园的教师，加强教师培训，提高民办幼儿园教师素质。', '三是加强对无证幼儿园师资力量的培训和考核，园长、老师、卫生条件不达到要求的，不给开办幼儿园，教育、卫生、消防等部门要联合对幼儿园进行统一监管，在管理过程中，还要多主动提供服务，让无证幼儿园了解补办证件手续的流程，争取规范化办园，有效助力解决入园难问题。', '您提出的《关于推进学前教育优质发展的几点建议》提案收悉，感谢您对教育工作的关心和支持。现将有关工作情况答复如下：', '一、突出抓好幼儿园教师补充招聘工作。市政府制定了《关于德州市学前教育攻坚的实施意见》（德政办字〔2021〕5号），要求加大幼儿园教师招聘力度。努力扩大公办幼儿园在编教师比例，提高幼儿教师整体素质和专业水平。各县（市、区）要根据国家幼儿园教师配备标准，按照公办园在园幼儿占比50%的标准，核定教职工编制，制定年度补充计划，在2至3年内配齐公办幼儿园在编教师。', '二、健全幼儿教师待遇保障机制。各县（市、区）政府（管委会）要把好师资队伍入口关，通过政府购买服务、动态调整幼儿园收费标准、统筹使用普惠性财政经费等措施，加强幼儿教师队伍建设。幼儿园须严格按照有关法律法规规定，与聘用教职工签订聘用合同或劳动合同。用人单位依法保障公办幼儿园未纳入正式职工管理人员和农村集体办、企业办、民办幼儿园教师工资发放，其平均工资不得低于本地区城镇职工平均工资水平，并按规定参加职工社会保险，足额缴纳“五险一金”。', '三、多形式强化教师队伍建设。一是核定编制补充新幼师。2019年，全市已招聘幼儿教师400多名；2020年，全市招聘公办幼儿教师760余人，2021年，全市共计划招聘公办幼儿教师818人，其中，德城区已组织完成面试，录取143人，超原计划106人。禹城市已发布教师招聘公告，计划招聘40人。齐河县已发布教师招聘公告，计划招聘391人，超原计划254人。陵城区已发布教师招聘公告，计划招聘102人。庆云县已发布招聘公告，计划招聘118人。夏津县已制定完成招聘简章，近期即将发布。二是加强在职教师培训。11月2日—6日，组织全市75名名师名园长赴北师大培训学习。邀请冯晓霞、钱志亮等多位专家，结合德州市学前教育发展现状，采取专题报告、案例研讨、参观考察等形式，对学前政策、游戏活动、集体教育活动、教师园本教研等方面进行了专业解读，推动学员在专家引领、同伴互助、个体反思的实践中实现深度学习，转变教育理念，开阔视野，提升了教育科研和教育管理能力。三是加强名师、名班主任建设工程人选培训。制定了《德州市第二期幼儿园名师建设工程培养方案》《德州市第二期幼儿园名班主任建设工程培养方案》及专业成长量化考核办法，为名师、名班主任建设提供政策保障。认真组织实施省培计划项目；组织学前教育第八批教学能手评选，教师之间相互观摩学习，增加交流，不断提高学前教育保育教育质量。', '四、坚持科学保育教育质量。一是创建德州市游戏教育实验区（园）。在全市范围内创建游戏教育实验区（园），以实验（园）为基地深入开展幼儿园游戏化课程建设，取得较好成效。我市齐河县入选省级学前教育游戏活动实验区，德州市直机关幼儿园等12所幼儿园入选省级游戏实验区，实验区（园）数量位列全省前八名。二是加强游戏教育培训。10月11日—13日，采取现场+视频的方式，组织我市游戏实验区教师参加省级游戏活动实验区（园）现场经验交流暨培训会议，组织全市幼儿教师通过钉钉视频方式观看现场会。11月3日，组织全市幼儿教师参加全省线上幼儿园环境创设专题培训。12月14日组织幼儿园教师参加全省线上幼儿园课程建设研讨会。这些活动进一步提升了我市幼儿园课程建设质量和教师专业化水平。三是开展课程游戏化建设。出台了《关于开展幼儿园课程游戏化建设的通知》（德托幼函〔2020〕1号），全面开展幼儿园课程游戏化建设项目。采用结对帮扶、多园共建的方式，从树立正确的教育理念、提升教师对游戏的支持能力、创建课程游戏化环境、构建游戏化课程体系四方面，深入开展课程游戏化建设，通过以点带面，整体推动提升我市学前教育质量。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>141</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>关于加快职业教育与企业需求深度融合的建议</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-12-16</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67684072/content.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['随着经济社会转型发展，我市职业教育发展一路向好，服务经济发展的能力逐年提升。通过调研走访不同地域的不同类型的职业院校，发现还存在以下问题：', '一、一些院校师资配置不强、资金不到位、基础设施建设不足，发展不平衡，专业优势不强、产教融合不深。对职业教育认识不足，一个能为经济发展服务的职教体系还远未建立。学校培养出的技能型人才，企业如何“留住”他们，特别是对德州这座要争创科技创新中心的城市而言，未来产业升级转型亟需两大类人才，一是新技术研发高端人才，二是新兴产业的高技能专业工人，两者缺一不可。', '二、目前仍存在线上线下职业技能培训积极性不高、接受培训劳动力偏少、培训资源供需不均等问题。受传统观念影响，学校在招生、生源数量、校际合作等方面还存在一些困难。而且职业学校学生的上升通道、发展空间比较狭窄。囿于教师招聘条件，工科类教师招聘进口不畅，有些中等职业学校专业教师绝大多数都是普通高中教师转型而来，学校急缺科班出身、有企业工作经验的专业教师。因此建议：', '需要建立健全“双培型”人才培养模式，加强“双师型”教师队伍建设，加强“双训型”基地企业合作“三个机制”。同时，坚持学历培养与技能培训并重，加快构建紧扣产业、错位发展的专业设置体系;坚持理论教学和实践教学并重，鼓励职业院校特聘高技能人才、能工巧匠兼职任教;引导企业与职业院校资源共享，把课堂办到工厂去、把车间引到学校来，让学生上学如上班、上课如上岗，促进教育链、人才链、产业链、创新链有机衔接。及时快速推进产教融合，不仅增强政府引导职能，提升行业评价权威，而且形成校企一体格局，降低校企合作成本。', '没有先进的教学设施，怎么能培养出高水平技能人才？职业教育专业在动态调整，但新的专业在教学质量、评测体系、教学实践等方面还处于起步状态，师资‘换血’应及时，需要在实践中予以完善，也需要政府、职业院校、企业建立联动机制，需要政府进一步落实“放管服”改革要求，鼓励行业协会、企业、职业院校等多方主体共同筹办线上线下职业技能平台，并给予一定职业资质认证权限，为其招生打开窗口。同时，需将补贴标准与市场培训成本挂钩，并在申领补贴流程方面，可进一步简化手续，缩短审批时长。', '希望相关部门加大政策支持和经费保障，同时还要加强项目的管理，包括考核、实施、验收等工作。加大产教园区项目支持力度，解决园区建设用地、资金需求。对产教融合型企业给予“金融+财政+土地+信用”的组合式激励，可按投资额一定比例抵免该企业当年应缴教育费附加和地方教育附加。进一步深化“引企入教”改革，促进企业的需求融入人才培养环节。健全学生到企业实习实训制度，推进实习实训规范化。鼓励区域、行业骨干企业联合职业学校共同组建产教融合集团（联盟），带动中小企业参与，进一步落实国家、省、地方关于职业教育发展的政策法规，扩大职业院校依法办学的自主权，包括在学校专业设置（包括专业命名）、师资引进等方面应赋予学校更大自主权，激发学校主动性和活力。为解决高技能人才短缺和生源不足现状，可以借鉴国外弹性学制先进经验，吸引在职员工进行学历提升。鼓励更多在岗工人、退役军人、下岗职工和农民工等报考职业院校。', '设立职业教育节不仅体现对职业教育的重视，并且将吸引更多社会力量参与职业教育的发展，职业教育节当天表彰对职业教育做出突出贡献者，更有利于激发职业教育师生的荣誉感。职业教育节的日期要与国家确立职业教育活动周相一致，建议将每年的5月10日作为职业教育节法定日期。', '近年来，中小民营企业“招工难”与大学生“就业难”已成为社会关注的热点难点问题。从产生原因上看，这两方面的问题并存并非单一因素造成的，但通过与民营企业、职业院校人员座谈和部分民企订单式培训班的尝试，建议大力开展“订单式”校企合作，以缓解我市“招工难”与“就业难”并存的问题。', '一是鼓励企业参与高校课程计划设置。高校主动与企业对接，针对行业发展趋势建立课题小组，制定培养计划，合理安排学生课程设置、教学进度、培养目标和学时学分以及考试要求，让学生课程与将来从事的工作贴合度更强。', '二是加强校企互动，校企双方互聘。由企业指派专业人员参与学校的专业教学，使学生就业前更早接受岗位知识训练；安排学校教师给企业员工培训，丰富教师的实践经验和案例素材，使教学不与社会脱轨。', '三是增强企业与学校间的合作互信。企业与高校共同出资建立符合企业生产实践的要求和行业发展需求的实验室，既可以增进企业与学校间的交流，又可以使学生就业前更早接受岗位知识训练，企业岗前培训前移，达到学校、企业、学生三方共赢的结果。', '您提出的《关于加快职业教育与企业需求深度融合的建议》《关于开展订单式校企合作的建议》收悉，现答复如下：', '根据职能分工，人力资源社会保障部门主要负责职业教育体系中的技工教育以及职业技能培训相关工作，您的提案分析非常符合我市职业教育发展现状，对发展我市职业教育具有很强的针对性和指导性。近年来，我市持续加大技工教育发展扶持力度，以立德树人和培育工匠精神为目标，坚持提高质量、促进就业、服务发展，推动技工教育取得长足进步。', '一是大力发展技工教育，培养技能人才后备力量。近年来，我市优化技工教育办学体制，推动多元化办学，积极鼓励个人、企业、社会组织等各种社会力量参与技工教育办学。同时，充分发挥技工院校专业设置对接市场灵敏度高的优势，对技工院校开设专业实行备案管理，加大技工院校专业设置自主权，技工院校可根据《全国技工院校专业目录》自主开设、调整和停办专业，推动技工院校结合本地产业开设特色专业，主动融入、支持地方产业。目前，我市建设各类技工院校22所，开设数控加工、机械制造、汽车维修、护理等80多个专业，全日制在校生约2万人，年均毕业生约6000人；另有各类职业培训机构112家，每年开展职业技能培训5.5万人次，目前已形成高中低、长中短、公办民办兼具的多层次、多元化技工教育格局，为我市经济社会高质量发展提供了充足的技能人才后备力量。', '二是加强“双师型”教师队伍建设。以学生数为基本参数，按教职工与学生比例确定教师编制数量。严格落实技工院校专任教师不低于教职工编制总数75％，教学辅助人员不超过教职工编制总数10％，管理人员不超过教职工编制总数15％的政策，确保专业专任教师不低于专任教师总数的60％，“双师型”教师比例不低于专业教师总数的60％。允许教学急需却没有教师资格证的专业人才参加学校招聘，合格的先作为兼职教师使用，待取得教师资格证后再转为正式教师，着力建设一支业务水平高、技能实践能力强的教师队伍。积极发动开展“三优”资源建设，组织各县市区、高校、技工职业院校及民办培训机构挖掘自身潜力、集中优势资源，积极投身优秀师资、优秀教材和优秀课件的评选、创建和制作，经过市级推荐，全省评选，我市取得了全省优质教材一本、优秀教师六名的好成绩，有效促进和鼓舞我市职业技能培训工作进一步提升培训质量和水平。', '三是广泛开展职业技能提升行动。我们按照“围绕重点行业、突出重点群体、增进社会效益”的工作思路开展职业技能培训。依据《关于推行终身职业技能培训制度的实施意见》《山东省就业补助资金管理办法》，利用省政府支持和鼓励规模以上企业在当地建立培训中心、职业院校、实训基地，承担培训任务的政策，联合高校人力资源优势，整合企业研发中心，成立人才校企合作培养协调指导委员会，制定高技能人才校企合作培养发展规划、搭建院校与企业对接平台，自主培养高技能人才。大力开展高校在校生“三个一”能力培养专项行动，2020以来全市培训高校在校生共计12898名，有效提高了就业创业意识和能力。面向全市各类企业全面推行“招工即招生、入企即入校、企校双师联合培养”为主要内容的企业新型学徒制培训，企业可结合生产实际自主选择承担培训的学校、培训内容、培训方式等，培训期满、考核鉴定完成后，可向人社部门申请培训补贴，截至目前已培养新型学徒1996人。2021年将进一步扩大培训规模，力争年培训2000人以上。同时，坚持技能培训跟着产业走，课程设置跟着岗位走，定期与企业进行对接，了解用工缺口，推行订单式培训、定岗培训、定向培训等与就业紧密相关的培训模式，把技能培训与推荐就业安置结合起来，促进我市居民更高质量的就业。2020年共完成培训14.5万人次（含以工代训7.18万人），有效促进广大居民提技能、稳就业。', '四是畅通技工院校毕业生成长成才通道。为适应职业资格改革，完善技能人才多元化评价模式，支持我市技工院校全面开展职业技能等级认定工作，截至目前，我市已有德州市技师学院、走四方高级技工学校等13家技工学校通过省人社厅备案，可以对本校学生开展职业技能等级认定。严格落实技工院校毕业生各项政策待遇，畅通技工院校毕业生的发展通道，技工院校毕业生参加公务员招考、应征入伍、企事业单位招聘、确定工资起点标准和职称评聘等方面，取得高级工、预备技师职业资格的高级技工学校或技师学院全日制毕业生，分别按照全日制高职(大专）或本科毕业生享受相应政策待遇及相关就业补贴政策。普通技工学校毕业生，按照普通中等学历教育毕业生享受相应政策待遇。技工院校中级工班、高级工班、预备技师（技师）班毕业，可分别按相当于中专、大专、本科学历申报评审相应专业职称。', '下一步，结合您的建议，我们将继续大力推动技工院校改革发展，从德州经济社会发展和就业创业对技能人才的需求出发，推动技工教育为经济发展服务、为促进就业服务、为培养生产一线技能人才服务。加强校企合作、专业建设、师资培养等内涵建设，积极承担各类职业技能培训，成为多功能、综合性培训载体和平台。', '首先，感谢您对教育和体育工作的关心和支持。您提交的《关于加快职业教育与企业需求深度融合的建议》收悉，现答复如下：', '从省职业教育创新发展试验区建设之初，我市就提出紧密对接十大产业集群和战略性新兴产业发展需要，强化市级对专业建设统筹，按照“一县一特色”和错位发展的专业布局设想，大力调整、优化专业结构，规范专业设置，支持特色、优势专业发展，限制和取消落后、过剩专业，形成了面向市场、优胜劣汰的专业设置调整机制。今年，市教体局出台并启动了“统筹优化中等职业学校专业设置暂行办法”，经省教育厅批准，我市职业学校撤销了一批招生人数少、就业困难的专业。截至目前，全市共有20个专业被认定为省品牌专业，德州交通职业中等专业学校汽车运用与维修专业被认定为国家职业院校道路交通类示范专业点。根据德州市人民政府《推进职业教育创新发展试验区建设打造职业教育创新发展高地的实施方案》（德政发【2020】5号）要求，我市将进一步大力调整、优化专业结构，规范专业设置，支持特色、优势专业发展，围绕实施新型工业化强市三年行动计划和新旧动能转换发展战略，每个县（市、区）主攻 2 个左右主导产业，打造一批与德州产业转型升级相适应的专业（群），重点扶持家政、养老等专业和先进制造业、现代农业、现代服务业、战略新兴产业等人才紧缺专业。建立三年一轮的专业评估长效机制，根据评估结果将专业认定为绿、黄、红牌专业，对绿牌专业给予支持，黄牌专业压缩招生规模，红牌专业逐步停止招生。到 2022 年，全市重点建成 40 个左右示范中职专业（群），15 个左右高水平中职专业（群），5 个左右高水平高职专业（群）。', '全市中等职业学校现有教职工3461人，其中专任教师2844人，任专业课、实习指导课的“双师型”专任教师共1305人，占专任教师的45.89%。自今年起，按市政府要求，我市职业学校将全面落实编制标准，落实中等职业学校教职工编制政策，以学生数为基本参数，根据学校类别综合考虑学校专业特点，按教职工与学生比确定；落实职业学校编制总数的20%用于自主聘用兼职教师，财政部门参照高级专业技术人员平均薪酬水平核拨经费的政策，确保专业专任教师不低于专任教师总数的 60%，“双师型”教师比例不低于专业教师总数的 70%。自 2020 年起，除“双师型”职业技术师范专业毕业生外，职业院校新进专业专任教师原则上应具有 3 年以上企业工作经历和相关专业技术资格。”同时规定“业界优秀人才担任职业院校专任教师可以通过直接考察的方式招聘。设置一定比例的特聘岗位，畅通高层次技术技能人才兼职从教渠道。实施现代产业导师特聘岗位计划，建设标准统一、序列完整、专兼结合的实践导师队伍，推动形成“固定岗+流动岗”、双师结构与双师素质兼顾的专业教学团队。”', '推进现代学徒制人才培养模式改革。我市现有国家首批现代学徒制试点学校一所，山东省现代学徒制试点学校2所。2017年5月，发起成立了京津冀·鲁汽车职教联盟组织，召开了现代学徒制校企合作人才培养模式论坛。通过实施现代学徒制试点，全市部分职业学校初步建立了“招生即招工、入校即入厂、校企联合培养”的技能人才培养模式； 2020 年，我们又要求每所职业院校至少有1个专业与区域内企业进行现代学徒制人才培养。同时，还启动多元投资主体依法共建职业教育集团改革试点，支持学校、行业、企业、科研机构、社会组织等共同组建覆盖全市主要产业集群的职业教育集团，职业学校已经和500余家企业组建了德州市职业教育集团及生物科技、制冷与空调、交通、机械、太阳能5家行业类职业教育集团。为做好产教融合工作，我们制定了新政策，对于被认定为产教融合型企业，享受国家支持企业参与举办职业教育的各项优惠政策，企业参与举办的校企合作实训基地项目，优先考虑纳入申报上级教育现代化推进工程产教融合工程资金支持范围，对产教融合型企业在新技术改造、新产品开发等方面给予支持，制定细化“金融+财政+土地+信用”组合式激励政策并落实相关税费政策。', '按照政府主导、企业参与、校校联合、社会力量举办的模式，开展职教园区发展。宁津电梯学校把课堂开设在车间，通过产教融合，有效的促进了教育链、人才链与产业链、创新链的有机衔接，让学生在生产一线学习技术和技能；德城区职教园已于2020年建成使用；乐陵民生职教园区正在论证中。同时，德州市政府明确支持德州学院和中北大学规划建设大学科技产业园，积极引导市场化投资基金支持科研成果在德州孵化转化，项目产业化优先在园区孵化落地。', '您建议设立职业教育节，我们认为很有意义，但设立职业教育节属于国家层面的立法事项，我们将向上级部门进行反映。', '下一步，我们将认真学习贯彻落实习近平总书记对职业教育工作作出重要指示和全国职业教育大会精神，结合您提出的建议，坚持职业教育发展立德树人、优化定位，加强管理，提升办学水平，加快职业教育与企业需求深度融合，为全市经济和社会发展提供人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>141</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>关于借鉴三涧溪村先进经验推动我市乡村高质量发展的建议</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-12-15</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67628375/content.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['济南市章丘区三涧溪村依托基层党建引领,通过四邻联动、强化党员领导班子建设、树文明村风家风等措施，推动产业发展，保护生态环境，汇聚人才资源,走出了一条由乱到治的乡村振兴新路子。我市农业是基础产业，农业农村的发展相比城市明显滞后，应借鉴三涧溪等模范乡村的先进经验,结合我市乡村实际探索适合本土情况的方法，大力发展农业农村，全面推进乡村振兴，实现乡村高质量发展。', '1、选好乡村党组织带头人。选拔政治立场坚定，有知识、有能力、顾大局、素质高的干部担任支部书记,带领群众脱贫致富奔小康。', '2、建强班子队伍建设。选拔责任心强，群众信任认可，懂农业农村工作的干部成为村集体班子成员。提高村干部劳动报酬，调动积极性，发挥村干部的带动力和影响力，在乡村发展中下功夫，出实招，得民心，强服务。', '3、招才引智汇聚人才。人才是乡村振兴的关键，完善乡村振兴人才引进和用人机制，使本地人才不外流，外地人才能够引进来，留得住，注重人才回流，吸引本地走出去的成功人士回家乡投资兴业，提供政策支持和良好的营商环境，为人才扎根乡村创造良好条件，发挥乡村致富人才的示范引领和模范带头作用。', '4、脱贫攻坚与乡村振兴有效衔接，实现乡村高质量发展。做好脱贫攻坚与乡村振兴有效衔接，重要的是在乡村振兴中千方百计巩固好脱贫成果，结合本乡、本村实际，培育和发展乡村产业，推动乡村生活富裕，以乡村经济、文化、社会的全面高质量发展巩固脱贫成果，让人民生活变得更加幸福美好。', '您提出的关于借鉴三涧溪村先进经验，推动我市乡村高质量发展的建议已收悉，感谢您对基层组织建设工作的关注、关心。近年来，市委组织部大力推进乡村组织振兴，着力优化提升农村带头人队伍，持续加强农村基层组织建设，发挥党建引领作用，为乡村振兴提供坚强组织保障。', '一、持续深化农村基层党组织标准化规范化建设。以提升组织力为重点，推动基层党组织进步过硬。一是基层党组织更加坚强有力。创新优化农村基层党组织设置，强化村党支部星级评定结果运用，规范落实“三会一课”、主题党日等制度，深化“灯塔—党建在线”平台建设使用，用好可视化党建管理服务系统，定期对基层党组织运行和党员作用发挥等情况进行在线“体检”。建立党支部建设定期梳理排查机制，深入推进软弱涣散村党组织集中整顿，严格落实“四个一”整顿帮扶措施，组织召开全市软弱涣散村党组织整顿提升现场观摩会，抽调精干力量开展拉网排查，市、县两级综合验收，逐村提出结论性意见，形成验收报告。制定《德州市农村软弱涣散基层党组织整顿工作规范》，建立健全定期排查、分类施策等6项机制，明确底线目标、定量要求等3方面要求，推进软弱涣散村党组织整顿规范化、常态化。目前，全市245个软弱涣散村、478个工作后进村党组织完成整顿。', '二、持续优化提升农村党组织带头人队伍。以村“两委”换届为契机，着力优化提升农村“两委”班子结构。今年，村“两委”换届以来，坚持把选好干部、配强班子作为换届核心任务。截至目前，班子结构明显优化、各项指标持续提升。一是强化制度供给。出台《关于优化提升村党组织书记队伍的若干措施（试行）》，从拓宽选人渠道、强化政治激励、落实待遇保障等6个方面提出19条具体措施。制发《关于做好全市村（社区）“两委”换届工作的意见》，明确选人用人导向，规范人选要求，以换届为契机优化农村干部队伍。二是严把质量标准。换届期间坚持强化分析研判，全面把握人选情况，结合换届工作进展和村情选情变化，进一步完善预判人选对象台账，调整预判人选160人。强化审查把关，督促县乡全面落实“两委”成员资格联审和村党组织书记县级备案管理制度，严格审查、细致考察，确保将存在“不得”“不宜”情形的拟任人选审查出来、排除出去。目前，全市已完成资格联审68726人，取消资格1703人、劝退87人。三是拓宽选人视野。2020年全市组织公开遴选村党组织书记，累计公开遴选378人，平均年龄39岁，大专及以上学历286人，3/4以上的人员有乡镇工作经历。今年，村党组织换届有310名遴选村党组织书记顺利当选。通过加大人才“回引”力度，积极引导流动党员在乡村振兴、产业发展、双招双引、志愿服务等方面参与家乡发展。研究制定回引政策，在北京召开全市驻京优秀人才返乡恳谈会，吸引在外人才返乡创业、回村任职。换届启动以来，回引在外创业、务工和大学生等优秀人才2494人参与“两委”换届选举，进一步充实了村级班子和后备人才队伍。', '三、着力提升基层党组织服务水平。一是在协同共治中实现共建共享。坚持以人民为中心的基层社会治理理念，创新构建“党建引领、服务为先、四治融合”工作模式，推行网格化管理和服务，实行“多网融合、一网统筹”，激活党建引领乡村善治“红色细胞”。严格落实小微权力清单、“四议两公开”等民主议事决策制度，修订完善村规民约，在“阳光”共治中不断提升群众的获得感、幸福感和安全感。二是在优化服务中传递为民情怀。致力于打造有温度、有色彩、有情怀的党群服务阵地，制定《德州市党群服务中心标识标牌规范指引》，统一建设要求、统一内外标识、统一验收标准，规范建成运行746个农村党群服务中心，管区干部到服务中心办公，整合1909个事业编制下沉基层，下放行政审批服务事项，打造“15分钟党群服务圈”，遍布乡间邻里的党群服务中心成为助力乡村振兴的红色地标。', '四、开展发展壮大村级集体经济专项行动。2020年全市3万元以下村实现全部清零，全市5万元以上村占比92.95%，10万元以上村4509个57.05%。一是加强统筹安排。制定《关于加强农村集体资产管理发展村级集体经济的实施意见》，县乡逐级传导压力。二是加大财政支持。市级财政列支8000万元村级运转经费，设立2000万元发展壮大村集体经济引导资金。147个中央财政资金扶持村级集体经济项目村年均收入全部超过3万元。三是加快工作推进。总结经验做法，印发《德州市发展村级集体经济典型案例》，各县（市、区）积极探索土地流转、边角经济、乡村旅游等多种务实管用的增收方式。2021年力争年底前全市村级集体经济收入低于5万元的村全部清零，力争超过10万元的村达到50%以上。', '五、探索建立农村区域党建联合体。树立“抓乡促村、整乡推进、整县提升”理念，探索建立农村区域党建联合体。2020年，全市成立党建联合体368个，覆盖原村级党组织3283个。高标准规划建设农村社区党群服务中心746个，配齐配强工作人员1864名下放行政审批事项120余项，打造“15分钟服务圈”。以党建联抓、产业联建、资源联享、多元联动四个方面为具体抓手，总结提炼可复制、可推广的经验做法，形成连点成面的新局势。按照资源禀赋、业态分布、主导产业、群众需求等，制定发展规划，通过合作联社、联合协会等形式，采取股份合作、劳务互助、利益补偿、民主协商等方式，优化资源配置，深挖发展潜力，集中连片推进，发挥规模效益，增强竞争优势，建立集体经济长效稳定的增收机制，打造区域共用品牌，助力实现集体经济两个“力争”目标完成。', '下一步，我们将按照上级部署要求，继续加强农村基层组织体系建设，夯实基层党组织战斗堡垒基础，切实发挥党建引领作用，以农村集体经济增收为着力点，拓宽增收渠道，提高群众收入，持续巩固脱贫成果，为我市在打造乡村振兴齐鲁样板中率先突破提供坚强组织保证。', '您提出的关于借鉴三涧溪村先进经验 推动我市乡村高质量发展的建议收悉，现结合我局职能答复如下：', '去年以来，我们认真学习贯彻习近平总书记关于“三农”工作重要论述，坚决落实省委、省政府决策部署，脱贫攻坚目标任务如期全面完成，乡村振兴实现良好开局。', '一、如期完成脱贫攻坚目标任务。实现100405名贫困人口全部脱贫，贫困人口人均纯收入达9091元，较2016年增长261%，分别高于国家、省定扶贫标准5873元、5203元。755个省定扶贫工作重点村全部摘帽，村集体资产增加12.28亿元，村集体收入增加1.12亿元。贫困群众生活质量明显提升，生产生活条件全面改善，“两不愁三保障”和饮水安全全面实现，获得感、幸福感、安全感显著增强。', '二、乡村振兴全面起势。聚集省委“德州要在打造乡村振兴齐鲁样板中率先突破”的要求，健全五级书记抓乡村振兴工作体制机制，强化责任担当落实，市里抓统筹，县乡两级抓具体，在工作谋划、项目安排、措施保障上目标同向，在工作推进上相互衔接、上下联动、整合力量、集中突破。构建起“1+1+5+N”规划体系【1号文件+实施乡村振兴战略规划+五个振兴专项规划+若干配套政策】，整合涉农资金49亿元支持475个乡村振兴项目，乡村振兴制度框架基本形成，乡村产业、人才、文化、生态、组织五个振兴都迈出新步伐。创建齐鲁样板省级示范区2个、市级4个、县级6个。经济日报头版刊发的《融合之道—山东德州乡村振兴的探索与实践》以长篇幅、多视角，从理论与实践结合的角度全面系统反映了我市乡村振兴工作实践经验，在全国引起良好反响。', '三、农村发展活力持续增强。农村改革步伐加快，全市农村承包土地“三权分置”改革不断深化，农村集体产权制度改革圆满完成，8331个村成立了新的集体经济组织并完成登记赋码，顺利通过省级验收。培育发展农民合作社1.26万家（清理后）、家庭农场5238家、农业社会化服务组织2425个，村党组织领办合作社占行政村总数的59.7%，土地流转面积390.7万亩，占承包地的47.9%。全市3万元以下村集体经济收入全部清零。武城县积极推进农村集体资产股权质押贷款试点，放贷量居全省首位；平原县探索形成了“一星四化”乡村治理新机制和党组织领导的“三治”相结合的乡村治理体系；禹城入选全国农村宅基地制度改革试点县，以上改革试点经验全国推广。农村人才支撑不断增强，建设乡村人才公寓883套，培育省、市级乡村振兴专家服务基地20家。', '四、现代农业质效明显提升。全市建成高标准农田607.7万亩，占耕地面积的63%，齐河县、禹城市入选2021年全省高标准农田整县推进示范县。2021年上半年，夏粮种植面积、总产量、单产呈现“三增”势头，总产量达380.1万吨；肉蛋奶产量70.3万吨，生猪产能恢复较快。非洲猪瘟、高致病禽流感等重大动物疫病稳定控制，没有发生区域性重大动物疫情。培育国家级农业龙头企业达9家、省级达67家，发展全国乡村特色产业十亿元镇2个、全国农业产业强镇5个、省级农业产业强镇11个，评选出20家市级现代农业产业园。确定了“德州味”市级农产品整体品牌形象并进行了注册。山东沿黄优质小麦产业集群（陵城、禹城、夏津）入选全国优势特色产业集群建设名单。', '五、农村人居环境持续改善。农村改厕、垃圾处理、生活污水治理、道路建设、饮水安全、村庄清洁、美丽庭院等农村人居环境整治三年行动各项目标任务圆满完成，全面通过国家、省验收。2020年完成农村无害化厕所改造13814户，建成配套公厕并投入使用454座；4413个行政村完成农村生活污水治理，均超额完成省定目标任务。创建7个省级美丽村居试点、30个省级美丽乡村示范村、35个市级美丽乡村示范村。', '六、农村精神文明建设成效显著。全市县级新时代文明实践中心、乡镇（街道）文明实践所实现全覆盖，村级文明实践站覆盖率达到91%，文明村达到6842个。组建各级文明实践志愿服务队8682个、设立志愿服务项目1350个，2020年累计开展志愿服务活动16万余次。新增“四德工程”示范单位341个，建成村级综合性文化服务中心2921个、贫困村综合文化活动室755个，覆盖率达100%。大力实施“一村一年一场戏”等文化惠民工程，2020年放映农村公益电影5.16万场。深入开展移风易俗，公益性公墓建设步伐加快。', '七、乡村善治迈出坚实步伐。农村基层党组织功能明显增强，回引在外优秀人才担任村党组织书记88人，公开遴选村党组织书记378名，成立党建联合体390个；整顿软弱涣散、工作后进村党组织723个。县乡综治中心规范化建设全覆盖，建设村（社区）综治中心4287个；全市所有村庄全部编制完成小微权力清单，健全落实了管理、运行、监督三项机制；农村网格化管理水平不断提升，初步形成了共建共治共享的乡村善治格局。', '下一步，我们将以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记关于“三农”工作和乡村振兴重要论述，立足新发展阶段、贯彻新发展理念、融入和服务新发展格局，以全面推进乡村振兴为总抓手，以高质量发展为主题，以农业供给侧结构性改革为主线，以科技创新为引领，以改革开放为动力，以工业化思维发展农业，创新实践乡村振兴融合化发展路径，加快农业农村现代化，促进农业高质高效、乡村宜居宜业、农民富裕富足，在打造乡村振兴齐鲁样板中实现率先突破，努力建设“富强、活力、幸福、美丽”的新时代现代化新德州！']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>141</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>关于搭建我市教师流动平台的建议</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67444612/content.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['近年来，随着教师招聘力度的加大，越来越多年轻人通过招考进入教师队伍，跨省、地市、县市入职的人员比例也不断攀升，很多人才在外地安家立业，有我市户籍人才在外地工作的，也有外地户籍人才在我市工作的，如禹城市连续三年招聘教师外地户籍老师均占在70%以上。', '一是新教师上岗后远离家乡，造成婚恋、生活、工作等方面诸多不便，难以安心扎根教学岗位，加速了教师人才流失。二是外地户籍教师因工作环境不熟悉，加之教育行业特有的交际面狭窄，生活中没有亲朋，使他们缺少执业信心，对现有岗位缺少归属感，三是这些新入职教师大多是独生子女，父母在老家，探亲路途遥远，加之很多学校周末也在补课，使他们无法照顾家乡父母，感受家庭亲情。以上均能导致新入职教师的职业稳定度低，教师流失严重。', '比如禹城市莒镇中学十年来共分配外地户籍教师27人，因学校地处偏远，远离城区，目前大部分外地户籍老师考走或辞职，流失率90%以上，主要流向原籍和交通生活条件较好的大城市。而根据事业单位“逢进必考”的规定，尽管这些教师入职前已经通过了招考，但是要想和他人对调存在着信息不对等、个人力量不足等现实问题，只能辞职另考，使流出地学校师资紧缺，严重影响教学。', '对人才调回问题，人民网2020-03-07“地方领导留言板”曾有江苏工作的德州籍在编人员给李猛书记留言，希望沿用类似政策调回德州。', '对异地人才回流问题，近两年来，浙江、湖北、河北、河南、安徽等多地推出新政，发布在外公职人员回乡工作公告！', '以本省来说，2019年淄博市发布并实施《进一步加强新形势下引才用才工作的若干措施》（人才金政37条），规定：毕业五年内全日制学士本科及以上学位学历，本人或父母目前户口所在地是淄博市，并有意向返回淄博工作的外地事业单位在编人员。按照“同级对口”的原则安置，可使用专项事业编，不受接收单位编制限制（责任单位：市委编办、市人力资源社会保障局）。5个工作日内完成申请初审，10个工作日内完成档案审核和面试考察，5个工作日内办理调配手续。', '菏泽、聊城、泰安，我市平原、武城、夏津，禹城、宁津等地都出台了类似的政策。只是这些政策都不是专门针对教师流动的。', '建议市教体局、人社局在充分调研，吸收已有经验的基础上，利用大数据，搭建市级教师流动平台，先从全市层面对教师流动诉求进行摸底调查，安排教师跨市县城对调交流，既能在某种程度上解决教师人才流失问题，保障学校特别是基层学校的教学秩序，又能使留职异地户籍教师人心稳定，安心教学。', '1．加强和规范教职工编制管理。全面落实中小学教师“县管校聘”管理改革，强化县级教育行政部门对教师资源的统筹配置和管理功能，加强县域内教师调配力度，适当向乡村学校倾斜。县（市、区）机构编制部门会同教育、财政部门根据生源变化和教育教学改革需要，定期核定教职工编制。严禁任何部门、单位以任何理由和形式占用或变相占用乡村学校教职工编制。', '2．完善教师招聘方式。从2016年起，按照事业单位公开招聘的有关规定，可以县（市、区）为单位，不分城区、农村学校岗位，统一招聘、统一分配，并向乡村学校倾斜，也可按学校组织招聘。针对城区和乡村不同的教学岗位，设置不同的招聘条件，防止招聘门槛过高，招聘计划落空。合理确定招聘时间，一般每年3月底前启动报名工作，6月底前完成招聘工作。有条件的县（市、区）可以采取先面试后笔试的方式招聘教师。2020年，全市招聘中小学教师3220名。', '3. 实施农村学校教师特设岗位计划。以农村义务教育学区为单位，每个学区设立1个特级教师岗位，实行任期制，在聘期内享受特级教师补贴待遇。目前，全市已设置农村特级教师岗位123个，聘任特级教师119人。', '4. 实施定向师范生免费培养计划。支持有条件的县（市、区）投入专项资金，定向招生、定向培养、定向就业，实现定岗到校。通过专项编制招聘教师和免费定向师范生在农村学校最低服务期为6年。未到农村学校任教的，要按规定退还师范生免费教育经费，并交纳该费用50%的违约金；服务期年限未满的，按比例退还师范生免费教育经费和交纳违约金。落实2020年山东省公费师范生需求计划203人。', '1．加大城乡学校教师交流力度。2020年结合西部经济隆起带人才支持计划和国家“三区”人才支持计划教师专项计划。近三年，全市中小学共安排校长交流轮岗569人次，教师交流6442人次，选派100名左右乡村学校中青年骨干教师到县直中小学跟班学习。', '2．优化乡村学校教师资源配置。按照国家有关规定，实行学区教师资源统一调配，实现优质师资共享。在学区内推行音乐、体育、美术、信息技术等乡村学校短缺学科教师走教，由学区统筹协调相关学校给予一定补助，所需费用纳入财政预算。', '1．创新教师培训模式。2019年，申报“硕师计划”研究生45人；9名教师入选山东省乡村优秀青年教师培养奖励计划。', '2．实施送教下乡培训计划。由市、县教育行政部门组织名师、名校长、特级教师等采取送教下乡、送培上门等形式，确保乡村学校校长和教师每学期接受两次以上的学习和培训。', '3．提升教师信息技术应用能力。适应“互联网+”新形势，加大乡村教师教育信息技术应用能力培训力度。加快中小学教育资源建设，推进城乡教师优质教育资源共享。', '4．建立城乡一体化教研制度。完善市、县教研员定点联系乡村学校教研制度，全面实施县（市、区）教研员包扶乡村学校制度。以学区为单位完善乡村学校集中教研制度，努力提高教研质量。引导城区学校与乡村学校组建教研共同体，支持乡村教师参与城区学校教研活动。', '5．建立城乡学校发展共同体。城镇学校和乡村学校采取1对1或1对多方式，形成城镇学校与乡村学校手拉手共同发展机制，城乡学校同学科教师建立教研、备课、上课、作业布置与批改、课外活动等协同教学与资源共享机制，实行捆绑式考核，切实提高乡村学校办学水平和教育教学质量。', '1．依法保障教师工资待遇。及时足额发放乡村教师工资，研究落实绩效工资总量向乡村教师倾斜政策，加大财政转移支付力度，确保乡村义务教育学校绩效工资足额发放。依法为教师缴纳各项社会保险费。落实到乡村学校任教的高校毕业生学费补偿和国家助学贷款代偿政策。', '2．增加乡村教师补贴。全面落实乡镇工作人员津贴补贴政策。到乡村学校交流轮岗的校长教师，符合乡镇工作补贴政策范围的，发放乡镇工作补贴。可根据教师居住地与执教的农村学校距离，由学校适当发给交通补助，纳入绩效工资总量，具体办法和标准由各县（市、区）制定。', '3．实施乡村教师健康体检制度。所需费用从学校公用经费中列支，有条件的可由同级财政单列资金予以保障。', '4．完善乡村教师职称（职务）评聘办法。乡村教师评聘职称（职务）要坚持育人为本、德育为先，注重师德素养，注重教育教学一线实践经历，不作发表论文的刚性要求。乡村学校教师和城镇学校教师分开评审，对长期在乡村学校任教的教师予以倾斜。在乡村学校任教（支教）3年以上、经考核表现突出并符合具体评价条件的教师，同等条件下优先评聘。在现有标准基础上，中学高级和中级岗位比例设置上限分别提高5个百分点，小学高级和中级岗位比例设置上限分别提高7个百分点。县级教育行政部门在分配专业技术中高级岗位时，要向农村学校、薄弱学校倾斜。', '5．实施乡村学校特级教师岗位计划。以农村义务教育学区为单位，每个学区设立1个特级教师岗位，实行任期制。鼓励符合条件的优秀教师竞聘上岗。用5年左右时间，为每个学区配备1个特级教师岗位。', '6．启动乡村教师周转宿舍建设工程。各县（市、区）结合实际建设乡村教师周转宿舍，纳入当地保障性住房建设范围。2020年全市累计完成周转宿舍套，进一步改善了乡村教师工作生活环境。', '因各地教师招考方式不尽相同，各地对教师的要求也不同，所以异地教师回流还存在很大困难，我们会积极反应此类问题。', '“人才回引”政策是各地优化干部队伍结构，引进急需紧缺人才的方式之一。根据事业单位人事管理权限，市、县事业单位实行分级管理，各县市区可根据编制空缺、紧缺人才需求情况，自主确定相应的人才引进政策。2020年，我市部分县市区发布了人才回引政策，如乐陵市发布《乐陵大学生人才就业安置办法》，将人才回引政策作为大学生人才就业安置的一个方面；齐河县发布面向教师的人才回引计划；禹城市、庆云县、平原县、武城县、宁津县、陵城区、夏津县也出台了各自的人才回引政策。总体来看，已发布人才回引政策的县市区，对于回引人才的学历、年龄、专业等都有具体要求，并且每年回引的计划数有限，若报名人员较多，还需要经过考试考察等方式确定人选。', '2020年9月，市委、市政府印发了《关于实施“人才兴德”行动建设新时代区域性人才聚集高地的若干措施》（德发〔2020〕13号），确定实施“人才回引计划”，我市以外机关事业单位在编在职人员和国有企业正式职工，具有全日制本科及以上学历，博士研究生45周岁以下、硕士40周岁以下、本科生35周岁以下，本人或配偶籍贯、出生地在德州，或曾在德州工作学习过，或父母（岳父母）具有德州常住户口，属我市急需紧缺人才的，按照“同级对口、全市统筹”原则予以回引安置。其中，博士研究生、高级专业技术职务人才、具有高级技师或同等职业技能等级证书的高技能人才、到乡镇（街道）工作人员，可放宽专业限制。', '目前我市各县市区出台的人才回引政策，涵盖了教师群体。市级层面因为涉及到事业单位管理权限问题，还未出台对于教师的专项交流政策，下一步人社部门将加强与教体部门的沟通对接，加强相关调查研究，积极向有关部门反映，探索解决问题的办法。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>141</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>关于让农民成为乡村振兴主力军的建议</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67505268/content.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['目前，乡村振兴在全省16个地市如火如荼展开，各级专家建言献策、百花齐放、百家争鸣。五级书记抓“乡村振兴”，他山之石，可以攻玉，但地域不同，资源禀赋不同，更多时候，需要主政者摸着石头过河。笔者参与实施了杨安镇王屯辣椒项目，深感离开农民的乡村，何谈振兴！特提出如下建议：', '（一）引领。政府必须规划引领到位，制定镇村发展的道路。党支部领办创办合作社，成立理事会、监事会，需广泛争取群众意见，多次召开会议凝聚共识，把老百姓的心拧到一起来。对于少数不理解的群众，党员带头，利用亲戚邻里的关系，再一对一做思想工作。让全村老少都认识到发展这个产业的必须性。', '（二）服务。政府服务不能缺位，更要全方面的补位。农民技术指导的问题；农产品的销售渠道是否畅通的问题；村落的人居环境的问题以及乡村治理的问题，都要通盘考虑，全部跟上服务，建议乡镇干部包村制。', '（一）人才技术。充分发挥自身职能，签约农科院专家全程指导，从优化育苗到移栽定植、开沟覆膜，再到后期的病虫害防治，靠上抓。确定专家指导时间，比如一周一次，指导到田间地头。局内部实行一人一项目，包包制，蹲下，俯下，和老百姓一起种地。', '（二）农艺农机。向上争取项目资金，安装水肥一体化，解决灌溉问题，节水，节肥，节成本，提高收益。提供优良品种方案、合理套种模式，又尊重群众意见，帮办不包办。辣椒成熟期，有的农民的辣椒卖到6，7千斤，有的4，5千斤；有的品质好，客户在地头收购，有的种植品质导致品质差，无人问津。农产品的参差不齐，让老百姓自己认识到科技的力量。', '执行力。党支部的执行力是能否成功的关键，特别是村支部书记，不仅仅自己带头干，还要做后进者的思想工作，只能种好，不能种孬。把政府的决策执行好，把科技种田的技术执行好，把全村老百姓的思想统筹好。', '实干兴邦。以上都是外因，真正想从土地里刨“金疙瘩”，关键是“内驱力”，老百姓真正愿意这么干，决定了这个致富模式是否可持续，是否可复制。自身要做到“听话”，听专家讲课传授技术，听政府规划设计，听党支部把政策执行到位。学到了本事，掌握了市场规律，小产业做起来，荷包鼓起来，乡村振兴起来。', '您提出的关于让农民成为乡村振兴主力军的建议已收悉，感谢您对基层组织建设工作的关注、关心。近年来，市委组织部认真贯彻落实上级部署要求，着力优化提升农村带头人队伍，持续加强农村基层组织建设，发挥党建引领作用，为乡村振兴提供坚强组织保障。', '一、持续深化农村基层党组织标准化规范化建设。以提升组织力为重点，推动基层党组织进步过硬。一是基层党组织更加坚强有力。创新优化农村基层党组织设置，强化村党支部星级评定结果运用，规范落实“三会一课”、主题党日等制度，深化“灯塔—党建在线”平台建设使用，用好可视化党建管理服务系统，定期对基层党组织运行和党员作用发挥等情况进行在线“体检”。建立党支部建设定期梳理排查机制，深入推进软弱涣散村党组织集中整顿，严格落实“四个一”整顿帮扶措施，组织召开全市软弱涣散村党组织整顿提升现场观摩会，抽调精干力量开展拉网排查，市、县两级综合验收，逐村提出结论性意见，形成验收报告。制定《德州市农村软弱涣散基层党组织整顿工作规范》，建立健全定期排查、分类施策等6项机制，明确底线目标、定量要求等3方面要求，推进软弱涣散村党组织整顿规范化、常态化。目前，全市245个软弱涣散村、478个工作后进村党组织完成整顿。', '二、持续优化提升农村党组织带头人队伍。以村“两委”换届为契机，着力优化提升农村“两委”班子结构。今年，村“两委”换届以来，坚持把选好干部、配强班子作为换届核心任务。截至目前，班子结构明显优化、各项指标持续提升。一是强化制度供给。出台《关于优化提升村党组织书记队伍的若干措施（试行）》，从拓宽选人渠道、强化政治激励、落实待遇保障等6个方面提出19条具体措施。制发《关于做好全市村（社区）“两委”换届工作的意见》，明确选人用人导向，规范人选要求，以换届为契机优化农村干部队伍。二是严把质量标准。换届期间坚持强化分析研判，全面把握人选情况，结合换届工作进展和村情选情变化，进一步完善预判人选对象台账，调整预判人选160人。强化审查把关，督促县乡全面落实“两委”成员资格联审和村党组织书记县级备案管理制度，严格审查、细致考察，确保将存在“不得”“不宜”情形的拟任人选审查出来、排除出去。目前，全市已完成资格联审68726人，取消资格1703人、劝退87人。三是拓宽选人视野。2020年全市组织公开遴选村党组织书记，累计公开遴选378人，平均年龄39岁，大专及以上学历286人，3/4以上的人员有乡镇工作经历。今年，村党组织换届有310名遴选村党组织书记顺利当选。通过加大人才“回引”力度，积极引导流动党员在乡村振兴、产业发展、双招双引、志愿服务等方面参与家乡发展。研究制定回引政策，在北京召开全市驻京优秀人才返乡恳谈会，吸引在外人才返乡创业、回村任职。换届启动以来，回引在外创业、务工和大学生等优秀人才2494人参与“两委”换届选举，进一步充实了村级班子和后备人才队伍。', '三、着力提升基层党组织服务水平。一是在协同共治中实现共建共享。坚持以人民为中心的基层社会治理理念，创新构建“党建引领、服务为先、四治融合”工作模式，推行网格化管理和服务，实行“多网融合、一网统筹”，激活党建引领乡村善治“红色细胞”。严格落实小微权力清单、“四议两公开”等民主议事决策制度，修订完善村规民约，在“阳光”共治中不断提升群众的获得感、幸福感和安全感。二是在优化服务中传递为民情怀。致力于打造有温度、有色彩、有情怀的党群服务阵地，制定《德州市党群服务中心标识标牌规范指引》，统一建设要求、统一内外标识、统一验收标准，规范建成运行746个农村党群服务中心，管区干部到服务中心办公，整合1909个事业编制下沉基层，下放行政审批服务事项，打造“15分钟党群服务圈”，遍布乡间邻里的党群服务中心成为助力乡村振兴的红色地标。', '下一步，我们将按照上级部署要求，全面完成村“两委”换届工作任务，扎实做好新一届“两委”班子培训工作，着力提升农村干部队伍整体素质，切实发挥党建引领作用，进一步增强农村基层党组织政治功能、服务功能，构建和谐干群关系，引导农村群众积极参与乡村建设发展，为乡村振兴贡献群众力量。', '一、做好人才培养工作。一是加大对我市现有的农业经理人、青年农场主等新型职业农民的培训，重点开展农业生产技术培训和经营管理培训，提升其专业技术水平。2020年全市遴选农业技术指导员741名，举办培训班10期，培育技术员及科技示范主体人次约6000人次，培训特聘农技员138人，乡土专家89人。今年，我们将总结经验，按照上级要求，结合自身实际情况，继续做好高素质农民培训工作，今年上级下达我市的任务数为3556人。二是做好基层农技推广人才培养工作。2021年，我市计划招收公费农科生97人，约占全省招收公费农科生总人数的四分之一，目前已获省厅批准。三是积极依托农业农村部“科企对接”平台、市委市政府举办的“智汇德州”活动等渠道加强技术人才交流，把经营主体的技术需求与大中专院校、科研院所积极进行对接，切实解决经营主体的技术瓶颈。', '二、做好农技推广工作。加强农业科技服务，2020年组织开展空中课堂培训186次，培训1.7万人次；科技人员下乡1.76万人次，指导农户30余万户，服务指导新型农业经营主体1885个。加强农技推广体系改革建设步伐，控肥控药，降低机械使用成本，推广良种良方，正常年景下, 产量提高10%左右。今年将继续推进农技推广工作，大力推动“互联网+农技推广”培养模式，在开展理论教学、实训教学、参观交流等线下培训的基础上，积极推广中国农技APP和云上智农APP等网络学习方式，全面提升农民的综合素质、职业技能和创业能力。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>141</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>第号关于开展民法典宣传活动的建议</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2022-06-27</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72587341/content.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['去年实施的《民法典》，被称为"社会生活的百科全书"，是新中国第一部以法典命名的法律，在法律体系中居于基础性地位，也是市场经济的基本法。目前大多老百姓只知道《民法典》的出台，还没有真正的了解与百姓息息相关的法律条文 。', '为了让人民群众了解和遵守《民法典》，发挥它的"最大公约数"作用，成为维护社会和谐稳定的重要保障，有关部门要积极宣传《民法典》，把这项普法工作做实做细。', '1.在全市开展利用各种假期，将普法活动融入到节日庆祝活动中去，以形式多样的方式来宣传《民法典》。', '2.本着"谁执法、谁普法"的精神，请公、检、法部门组织力量深入城、乡、街道、学校、社区开展《民法典》宣传活动。', '3.市、区电视台应选用专门频道，在固定时间聘请专家、教授、法官，用"以案说法"的方式，以《民法典》条文为据，为市民进行深入浅出的讲解。', '4.全市要把学习《民法典》纳入各级机关和国有企事业单位干部学习规划中，必要时进行检查、考核。', '5.采取在车站、火车站等交通沿线推出民法典宣传海报、发放宣传资料集中开展民法典专题宣传。', '首先，衷心感谢您对普法工作的关心和支持。您在建议中提出“有关部门要积极宣传民法典，把这项普法工作做实做细”，我们认为非常符合当前民法典普法工作需要，非常及时。“指导、监督全市‘谁执法谁普法’普法责任制落实工作，推进全民普法”，是我局的一项重要职能。自民法典颁布以来，我局围绕深化民法典宣传教育，加强统筹指导，强化措施，提高人民群众对民法典的知晓率，德州市各地各部门结合实际、突出重点、多措并举，迅速掀起民法典宣传热潮，帮助民法典走到群众身边、走进群众心里。', '加强统筹安排。市司法局积极发挥职能作用，将民法典学习宣传做为我市“八五”普法规划和年度普法依法治理工作要点的重点内容。指导各级各部门制定、公开年度普法计划和普法责任清单，将民法典学习宣传作为共性任务加以强调。市委依法治市办、市委宣传部连续两年制定方案，组织开展“美好生活·民法典相伴”主题宣传活动。今年按照上级要求，联合市农业农村局，以“民法典进农村”作为活动重点，在全市组织开展第二个“民法典宣传月”活动。市直各部门结合自身实际，以民法典普法进机关（单位）、进乡村、进社区、进学校、进企业、进景区、进网络、进宗教场所、进家庭、进军营“民法典十进”为活动载体，将开展民法典主题宣传活动作为5月份规定动作，开展至少1场民法典主题宣传活动，营造了浓厚的民法典宣传氛围。', '加强领导干部民法典学习。党员领导干部带头深入学，切实发挥“关键少数”带头作用。市委理论学习中心组、市政府常务会议等带头学习民法典。市委党校将民法典纳入干部教育培训重要内容，在主体班次安排民法典课程。全市年度普法考试中，增加对民法典知识掌握程度的考察。德城区、陵城区各部门将民法典学习内容纳入党委（党组）理论学习中心组重要内容，融入党员领导干部5月份“主题党日”学习，乐陵市各级党委(党组)把民法典列入理论学习中心组年度学习内容，平原县召开习近平法治思想专题辅导报告会，临邑县将民法典纳入“全县党务干部夜训班”、“全县驻村干部培训班”等干部培训活动，48个部门单位通过邀请公职律师授课、观看视频、交流研讨等形式组织开展民法典专题学习活动，实现民法典领导干部培训最大增量，夏津县出台《“学习民法典 传优良家风”活动实施方案》，将民法典带入干部职工家庭，充分发挥头雁效应，提升依法履职能力。', '加强青少年民法典普法教育。切实发挥法治副校长作用，广泛开展民法典进校园，配合有关部门认真贯彻落实《中小学法治副校长聘任与管理办法》，推动各县市区选优配强一批法律素质高、业务能力强的公检法司从业人员担任各中小学法治副校长，并力推民法典作为法治副校长“送法进校园”第一课。德城区、庆云县政法各部门联合县教育局积极与中小学校对接，开展“美好生活·民法典相伴”法治副校长进校园活动，法治副校长们结合青少年认知特点，精心制作图文并茂民法典PPT课件或生动活泼的民法典讲稿，通过主题班会、国旗下的讲话、民法典讲座等青少年听得懂、学得会、记得住的形式，深入浅出地剖析“见义勇为免责”“未成年人打赏”“自甘风险原则”等典型案例背后的法理知识，帮助广大学生体验民法典情境、学习民法典知识、传播民法典理念，争做民法典宣传的先锋。德州学校立足法学院，组建民法典学习宣讲团，利用开设“学民法一堂课”等形式，组织民法案例模拟法庭活动。', '市司法局统一印制民法典宣传册，图文并茂形象生动，受到群众欢迎。创作《德州100秒法律小课堂》民法典系列视频，以MG动画、情景剧等形式解读民法典重要条款，在学习强国、海报新闻等平台形成专栏，目前，节目已推出32期，累计点击播放量超千万次。以长河公园为基础，建成长河法苑法治文化阵地，专门设置“以民为本”民法典宣传区域。去年5月份在市中心广场组织15个与民法典实施密切相关的市直部门开展民法典宣传月集中宣传暨普法成果展示活动。今年5月，组织了“美好生活·民法典相伴——‘典’亮五月智勇闯关”线上有奖答题活动，先后上万人参与答题。市司法局创新“法治+金融”普法新模式，与建行德州分行开展法治共建，就法治宣传教育展开合作，在建行营业网点打造普法阵地，利用户外LED电子显示屏、室内多联屏、海报屏、电视等投放民法典普法教育视频、海报，设置法律图书角。市中级法院精心拍摄民法典系列微视频，加强以案释法、以案普法。', '各县市区丰富活动形式、拓展宣传渠道，形成了民法典宣传浓厚氛围。陵城区借助“百局帮百区”工作机制和“非重点人群常态化核酸检测”工作部署，各乡镇、各部门单位深入帮包小区，在核酸检测现场通过悬挂民法典海报、发放民法典宣传手册彩页、悬挂醒目横幅标语、播放民法典音频等形式，实现民法典宣传全方位全覆盖。禹城市统筹法律服务人员、普法志愿者等，组织11镇街司法所开展“美好生活·民法典相伴”走基层进农村主题宣传活动。宁津县通过融媒体中心制作“我为民法典发声”专题，扩大民法典影响力。平原县打造104个宪法、民法典专题法治公交站。临邑县结合正在开展的“临邑县优秀法学家走基层系列活动”，组织法学家、普法志愿者通过法律赶大集、法律大讲堂、调解矛盾纠纷、面对面交流座谈、观看微电影等形式，开展活动116场次，发放法治宣传资料5000余份，解答群众咨询400余人次。夏津县在微信公众号先后开辟“每日普法课堂”栏目，发布民法典漫画、视频、以案释法等内容23期，在夏津广播开辟《法在身边》栏目，解答民法典知识。', '以“民法典进农村”为契机，加大对乡村“法治带头人”、“法律明白人”的民法典培训教育，将培育工作与民主法治示范村（社区）创建、美丽乡村建设、市域社会治理现代化等重点工作紧密结合，促进乡村“法治带头人”“法律明白人”在法治宣传、矛盾纠纷处理、法治创建等各个方面发挥积极作用。乐陵市组织村（居）法律顾问开展“送法进乡村”活动。临邑县通过综治视联网，连线12个乡镇（街道）和438个村（社区）分课堂终端，由公职律师、村居法律顾问对全县村“两委”、基层人民调解员、学法用法示范户进行全覆盖式线上集中培训4期，累计培训6000余人次。平原县司法局与县融媒体共同邀请优秀农村基层党组织负责人参与线上普法，参与山东广播电台《乡村法治带头人》栏目。武城县邀请县法院网格微法庭庭长为部分乡村“法治带头人”“法律明白人”举办民法典专题讲座。庆云县司法局联合县妇联将各村妇女主任纳入“法律明白人”队伍，进一步充实队伍力量。', '今年民法典宣传月以来，我们坚持以人民为中心，不断丰富传播渠道，创新普法手段，根据不同群体的特点开展精准的普法活动和主题宣传，全市各级各部门共开展线上线下等形式多样的民法典主题宣传活动1500余场次，发放各类宣传资近10万份，切实营造了民法典学习宣传的浓厚氛围。', '您提出的加强民法典宣传的五项建议，我们认为切合实际，也非常有必要，下一步，德州市司法局将继续做好以下几方面工作：', '一是持续推动有关部门落实“谁执法谁普法”“谁管理谁普法”“谁服务谁普法”普法责任制，将民法典宣传教育融入到各个重要时间节点的普法宣传活动中，充分利用沿街融屏、户外条屏、橱窗海报等加强宣传，促进民法典宣传常态化。', '二是创新普法形式载体，积极探索“精准普法”。持续做好民法典宣传品牌节目《100秒法律小课堂》，把好节目质量关，加强推广和宣传，让更多群众从中认识民法典、了解民法典，从而运用民法典。', '三是加强对各级各部门及企事业单位学习、宣传民法典的指导监督，并在年度法治考核中侧重考核民法典相关工作开展情况。', '四是加强基层群众对民法典的了解。充分发挥“村（居）法律顾问”、各级调委会、司法所、乡村“法治带头人”“法律明白人”等普法队伍作用，主动利用重要时间节点，开展有针对性的民法典普法教育。', '非常感谢您对我市社会宣传工作的关心和支持！您提出的关于开展《民法典》宣传活动的建议已收悉，现答复如下：', '德州市将《民法典》的宣传作为法制宣传教育与法治实践的重要内容，加大社会主义法治文化建设力度，推动全社会树立法治意识、增强法治观念，形成守法光荣、违法可耻的社会氛围，推动全体人民成为《民法典》的忠实崇尚者、社会主义核心价值观的自觉践行者。', '一是每年年初制定下发《民法典宣传工作要点》，对全市民法典宣传工作作出安排，广泛宣传习近平法治思想、宪法、民法典、党内法规等重要内容，二是运用线上线下相结合、传统方式与新媒体结合等形式开展法治宣传。组织开展民法典主题宣传活动，组织线上有奖竞答活动。三是加大普法产品供给，统一制作民法典宣传册、《漫点普法》宪法宣传书、《八五”普法应知应会200条》口袋书、习近平法治思想宣传折页等多种普法产品。同时，广泛利用城区户外大屏、LED广告屏、公交站牌等一切公众宣传媒介加强《民法典》宣传教育，在全社会形成浓厚的学习《民法典》的浓厚氛围。四是加强以案释法工作，开展优秀法治宣传案例评选活动。', '一是以法治建设考核为抓手，督促指导全市各级各部门制定、公开具有部门行业特色的年度普法工作计划和普法责任清单，并按照计划开展形式多样的普法宣传活动，进一步落实公开报备、工作台账等工作制度。二是创新“普法提示函”做法，在重要节日、法律施行日等关键节点，向普法责任部门提前发出提示函，指导、监督其利用线上线下多种渠道开展形式多样的普法宣传。', '广大市民学习《民法典》等法律知识、感受法治氛围的重要法治文化阵地。庆云一中加强校园法治文化建设，入选齐鲁法治文化典型案例。', '深化全国、省、市三级民主法治示范村（社区）创建，明确创建标准，定期开展复核，对不符合创建标准的坚决予以撒销或注销，提高创建质量。乡村“法治带头人”法律明白人”、农村“学法用法示范户”培育初见成效，通过选拔、培训、使用，积极参与《民法典》等法治宣传，担任社情民意信息员、政策法规宣传员，矛盾纠纷调解员的角色，及时教育引导群众在法治轨道中化解矛盾纠纷，有效打通法律服务最后一公里。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>141</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>德州市全民科学素质行动规划纲要实施方案年政策解读及全国科普示范县创建工作新闻发布会</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2022-08-12</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c73730364/content.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['《德州市全民科学素质行动规划纲要实施方案（2021—2025 年）》政策解读及全国科普示范县创建工作新闻发布会 - 德州市人民政府', '《德州市全民科学素质行动规划纲要实施方案（2021—2025 年）》政策解读及全国科普示范县创建工作新闻发布会', '市政府于7月2日印发了《德州市全民科学素质行动规划纲要实施方案（2021—2025 年）》。今天，我们邀请市科协党组书记、主席苗晓钢先生，市委组织部党员教育中心主任李强先生，市教育和体育局党组成员、总督学吴海蓉女士，禹城市委常委、宣传部部长杨帆先生，齐河县委常委副县长葛富义先生出席发布会，向大家解读《实施方案》并介绍全国科普示范县创建工作的有关情况。', '为全面推进我市“十四五”期间全民科学素质建设工作，市政府2022年7月2日印发了《德州市全民科学素质行动规划纲要实施方案（2021—2025 年）》（以下简称《实施方案》德政发〔2022〕7 号）。现将《实施方案》起草的背景及意义、主要目标、提升全民科学素质的主要工作内容进行发布。', '近年来，我市科学普及工作取得长足进步，科普工作的影响力和社会效应稳步提升，“十三五”期间我市公民具备科学素质的比例逐年增长，但仍然存在县市区发展不平衡、科普经费不足、科普资源供给能力不强、科普基础设施建设落后等问题。对此，根据国务院《全民科学素质行动规划纲要（2021—2035年）》《山东省全民科学素质行动规划纲要实施方案（2021-2025年）》等文件要求，在对全市“十三五”时期全民科学素质工作全面自查总结、发现问题、查找差距的基础上，起草了《实施方案》，为今后五年我市全民科学素质工作制定了规划，明确了科普工作的任务目标，为全民科学素质提升提供了保障，这既是加快推动区域科技创新高地的重要举措，也对我市创建国家创新型城市具有重要意义。', '到2025年，全市公民具备科学素质的比例不低于16%。城乡、区域、人群科学素质发展不均衡明显改善；“科学普及与科技创新同等重要”的机制探索取得有效进展；科普主体多元化、设施体系化、手段信息化、活动品牌化的工作体系不断完善；科学精神在全社会广泛弘扬，崇尚创新的社会氛围日益浓厚；科普保障能力显著增强；科普公共服务能力有效提升；人的全面发展和社会文明程度实现新突破。', '本《实施方案》，是“十四五”时期我市全民科学素质建设总体方案，共分为目前现状和面临形势，指导思想、基本原则和工作目标，提升行动，重点工程，组织实施与保障五个部分：', '第一部分为目前现状和面临形势。重点列举我市“十三五”期间科学素质工作成绩和“十四五”公众科学素质提升的迫切需求。', '第二部分为总体要求。共3条，主要阐明了我市科学素质建设工作的指导思想、基本原则、工作目标，明确“十四五”时期我市公民具备科学素质的比例力争达到16%的目标。', '第三部分是五项提升行动。共设19条策略措施，主要阐明针对青少年、农民、产业工人、老年人、领导干部和公务员五大人群科学素质提升的具体任务。', '1、青少年科学素质提升行动。将弘扬科学精神和科学家精神贯穿于育人全链条，推进基础教育阶段和高等教育阶段科学教育水平，并通过校内外科教资源衔接融合，重点实施科技创新后备人才培养、教师科学素质提升行动等提升青少年科学素质。', '2、农民科学素质提升行动。通过实施高素质农民培育计划、乡村振兴科技支撑行动，引导科普资源向农村倾斜，培养高素质农民。', '3.产业工人科学素质提升行动。通过强化理想信念和职业精神宣传，实施技能兴德行动、职业技能提升行动，发挥企业家示范引领作用，打造高素质产业工人队伍。', '4.老年人科学素质提升行动。通过实施智慧助老行动、银龄科普行动，加强老年人健康科普服务等措施重点提升老年人信息素养和健康素养。', '5.领导干部和公务员科学素质提升行动。通过实施加强科学素质教育培训及录用考核中强化科学素质要求等措施提升领导干部和公务员科学素质。', '第四部分是四项重点工程。共设12条策略措施，主要从科技资源科普化、科普信息化、科普基础设施建设、基层科普能力提升等方面明确“十四五”时期我市全民科学素质建设的重点方向和任务。', '1、科技资源科普化工程。具体包括实施科技资源科普化专项行动、建立完善科技资源科普化机制、强化科技工作者社会责任等。', '2、科普信息化提升工程。通过实施繁荣科普文艺创作、全媒体科学传播能力提升计划、智慧科普建设等工程，建设信息化全媒体传播网络。', '3、科普基础设施工程。主要是推动现代科技馆体系及科普基地建设，实现资源合理配置和服务均衡化、广覆盖。', '4、基层科普能力提升工程。通过建立应急科普协同联动机制、加强基层科普服务体系和专兼职科普队伍建设等促进基层科普能力提升。', '第五部分是组织保障。共3条，主要包括加强组织领导、强化条件保障、完善工作机制等内容，确保《实施方案》的顺利实施。', '德州市科协将切实担起全民科学素质工作领导小组办公室责任，联合成员单位，全面贯彻落实习近平新时代中国特色社会主义思想，贯彻落实好习近平总书记关于“把科学普及放在与科技创新同等重要位置”重要论述，推动科普信息化水平再上新台阶，实现普惠共享的社会化大科普格局。不断完善科技志愿服务体制机制，切实增强科普公共服务能力，让科普资源更加丰富、科普队伍更加壮大、科学精神广泛弘扬、崇尚创新的社会氛围日益浓厚、社会文明程度不断提高，为建设富强、活力、幸福、美丽的新时代社会主义现代化强市提供科技支撑，以优异成绩迎接党的二十大胜利召开。', '你好，我是德州日报记者。《实施方案》专门提出领导干部和公务员科学素质提升行动，有何考虑？领导干部和公务员作为重要群体，如何提高科学素质？', '李强：关于领导干部和公务员为什么要提升科学素质，有以下几点考虑：首先，十四五时期开启了全面建设社会主义现代化国家新征程，在新发展阶段，国民素质全面提升已经成为经济社会发展的先决条件，领导干部和公务员作为社会层面普通一员，理应同全社会一道，为全民科学素质提升作出贡献。其次，领导干部的科学素质是科学执政的必要保证。领导干部只有具备科学素质，才能在协调各方意见和诉求并进行决策时，做出正确判断。第三，领导干部和公务员群体作为关键少数，在全民科学素质提升过程中，还起到示范引领、推动落实的积极作用，这个群体的科学素养应当在普通公民的科学素养基础上，具有与其领导职能相关的更高层次内容。', '关于领导干部和公务员科学素质内容，主要包括四个方面：一是具备与其工作内容相关的基本科学技术知识；二是理解科学原理，掌握科学方法，具备自我学习、自我完善知识结构的能力；三是崇尚科学精神，求真务实；四是具备科学决策的能力。', '关于如何提升领导干部和公务员科学素质，我市《实施方案》中作出明确部署：一是深入贯彻落实新发展理念，二是加大科学素质教育培训力度，三是强化公务员录用中对科学素质的要求。在实际工作中，重点做好以下三个方面：', '一是大力弘扬我党善于学习的优良传统和作风，开展组织监督下的自我学习。组织部门和宣传部门将协同配合，大力倡导领导干部和公务员主动学习、终生学习，并通过适当的监督、考核，帮助领导干部和公务员持续、系统地学习与其管理工作内容相关的科技知识和科学方法。', '二是通过干部教育培训提高领导干部和公务员科学素质。将科学素质内容列入各级党校（行政学院）教学计划，及时普及和提高与各级领导干部实际工作有关联性的科技发展前沿知识和理念，将科学精神、科学思想培养、增强把握科学发展规律的能力，作为领导干部和公务员教育培训的重要内容和长期任务。另外，利用好干部网络教育平台和资源，加强领导干部和公务员前沿科技知识和全球科技发展趋势的学习。', '三是不断加强公务员录用和领导干部任职考察对科学素质的要求。从干部队伍来源入手，完善对领导干部和公务员考察中对科学素质的了解和评价，确保干部队伍整体科学素质。', '吴海蓉：青少年时期是人生观、世界观、价值观形成的关键时期，提升青少年的科学素养对全民科学素质提升至关重要，我们主要进行了以下几方面工作：', '一、弘扬科学家精神。聚焦落实立德树人根本任务,将科学精神和科学家精神贯穿于育人全链条,开展科学大讲堂、优秀科技工作者进校园活动,向青少年宣传科学精神和科学家精神。推动科学家精神入脑入心,培养学生爱国情怀。', '二、加强青少年科学教育。鼓励启发式、探究式、开放式教学,培养青少年创新思维,引导学生个性化发展,培育更多有创新潜质的青少年。加强农村中小学科学教育基础设施建设,推进科学教育活动和资源配备向农村倾斜。', '三、加强科技创新后备人才培养。推荐优秀青少年参加省“英才计划”。举办青少年科技创新大赛、青少年科技节、青少年机器人大赛等系列活动。普及县级和学校选拔赛,为广大青少年参与科技创新活动搭建新平台。', '四、推动校内外科学教育资源有效贯通。实施馆校合作,利用科技馆、博物馆、科普教育基地等资源,引导中小学开展科学教育和实践活动。开展科普大篷车、科普巡展进校园、科学营、科学体验等科学教育活动,打造一批青少年校外科学研学基地。强化对家庭科学教育的指导,注重学龄前儿童科学启蒙教育。', '五、提升教师科学素质。将科学精神、新科技知识和技能作为教师培训的重要内容,加大对科学、数学、物理、化学、生物学、通用技术、信息技术等学科教师的培训力度。加强科学教师队伍建设。', '杨帆：以“三到位”为抓手，增强创建“组织力”。一是组织领导到位。坚持“政府主导、部门协作、社会参与”的原则，成立全民科学素质提升工作领导小组，形成党委统一领导、各级齐抓共管的领导体系，做到了上下联动、全民参与。二是经费保障到位。科普专项经费每年列入财政预算，保障科普工作经费足额到位、科普评价机制运作高效。三是制度机制到位。把创建工作纳入市委、市政府的重要议事日程，建立科普工作联席会议制度，加强对创建工作的统筹协调和督促检查，及时协调解决创建工作中的难题，扎实有效推进创建工作。', '以“三覆盖”为抓手，筑牢创建“硬网络”。一是阵地建设全覆盖。通过“政府主导+社会投入”模式，建成科技场馆23处，全市11个镇街、部门单位和重点企业均成立科普组织，在各重点学校建设“科普文化长廊”，在广场、公园、景观路段设置科普宣传栏，实现科普镇街、科普村（社区）全覆盖。二是科普队伍全覆盖。建立2000余人的科技人才库、28支300余人的科普志愿服务队，凝聚科普工作强大合力。三是挂职“三长”全覆盖。将乡镇医院（卫生院）院长、学校校长、农技站站长“三长”全部吸纳到科协队伍，挂职覆盖率达到100%。', '以“三平台”为抓手，优化创建“软环境”。一是依托媒体平台，全方位宣传教育。构建“线上+线下”科普传播矩阵，运用科普专栏、系列访谈、微视频创作等形式，提升市民的知晓率、参与率和满意率。二是依托户外平台，多形式宣传教育。利用户外大屏、宣传栏、横幅标语、文化墙、科普展览等阵地，让科学知识“飞入寻常百姓家”。三是依托活动平台，面对面宣传教育。紧扣“五个面向”，结合“全国科普日”、文化科技卫生“三下乡”、科学大讲堂等活动，常态开展科普“五进”工作，不断提升全民科学素质。', '你好，我是德州广播电视台记者。齐河再次成为全国科普示范县创建单位，在贯彻落实《德州市全民科学素质行动规划纲要实施方案（2021—2025年）》方面，有哪些突出的举措？', '葛富义：近年来，齐河县在省市科协的关心、关爱和大力支持下，积极探索科普工作新路径，充分发挥“四服务”工作职责，扎实开展富有成效的科学普及活动取得了一定成效，先后获得2016-2020年度全国科普示范县、2016-2020年度全国科普示范县总结评估优秀单位、山东省科普示范县、山东省2021年“全国科技工作者日”优秀组织单位等荣誉称号，2018、2019年连续两年被中国科协评为“全国科普日优秀组织单位”。', '今年，我县再次被中国科协批准为全国科普示范县（市、区）创建单位，围绕创建任务，我们认真筹备，精心部署。成立创建工作领导小组，召开推进会，下发两办《关于印发&lt;齐河县创建“全国科普示范县”实施方案&gt;的通知》，进行专项安排部署。目前，各项创建工作正在有序推进。', '（一）建立科普队伍。一是成立科普讲师团。建立了一支由省市县40余名专家组成的科普讲师团，广泛开展科普讲座、论坛、宣传等活动，服务五大重点人群素质提升。二是成立县级科技志愿服务队伍。目前科技志愿者在平台注册人数已达3000余人。三是建立科普中国信息员队伍。截至目前，科普中国信息员注册人数已达5000人。', '（二）完善壮大科协组织。一是完成县科协换届。县科协二大选举产生了第二届委员会，吸纳教育局局长、医院院长、农技协会会长、企业科技副总加入了科协组织，壮大了县级科协力量。二是建设基层“3+1”组织。目前，全县所属15个乡镇、街道已全部完成“3+1”组织建设，共吸纳“三长”44名。同时，在开发区、生态城、高新区，及981个村，43个社区全部健全科协组织。', '二、科普阵地全县覆盖。先后打造4处校园科普馆及5处社区科普馆，累计投资195万元。新建科普画廊20余处，实现科普阵地城乡均衡覆盖。培植3处省级科普教育基地、6处市级科普教育基地，10处县级科普教育基地。同时，统筹全县各类科技教育场馆，设置科普E站，将科普内容纳入新时代文明实践中心、复兴少年宫、图书馆、文化馆、博物馆等场所，为多元社会主体开展科普服务提供全县场景支撑。', '三、科普渠道全媒体传播。推进传统媒体与新媒体深度融合，先后在新齐河APP开设科普齐河；在齐河新闻频道电视台播放科普中国微视频；在齐河报开设科普之窗专栏；引导成员单位在官方网站及微信公众号转发科普内容；充分利用上级媒体，全国科技工作者日期间，在中国科协网站上传57项科普活动进行展示，全方位促进公民科学素质提升，助力全国科普示范县创建。', '四、科普品牌特色化。打造齐河科学大讲堂科普品牌。先后邀请中国老科协、省科协科普专家团及省青少年科普讲师团20余名专家教授深入乡村、校园、社区、机关、企业等地开展科普宣讲活动。截至目前，已开展42期，极大地提高了全县公民科学素质。', '下一步，我们将严格对照创建标准要求，认识上再提高，措施上再加强，责任上再压实，认真查漏补缺，精心培植亮点，举全县之力，确保全国科普示范县创建成功，为提升广大公民科学素质，全面完成十四五科学素质建设目标做出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>141</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>第号关于加强全市小学科学学科教育的建议</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72335450/content.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['大力培养科技创新后备人才，是我国在未来国际竞争中博得先机的重要保障。小学是培养科技创新人才的关键期，是公民科学素养提升和创新能力培养的关键环节。小学科学学科的重要性不言而喻。', '经调查我市小学科学学科教学普遍存在以下问题：一、大多数学校没有专任科学教师。科学课由数学或其他任课老师兼任，这样的师资现状不能保证科学课堂的质量和效果。二、教师专业能力较差。小学科学学科较其他学科内容稍显繁杂，涉及物理、化学或生物知识，有时还需要实验辅助，虽然知识点不难，但是专业性较强，这也是科学课堂教学效果差的原因之一。三、科学课堂枯燥乏味。科学是有趣的、神奇的，是让人愿意探索的。小学科学课堂，不要求学生记住深奥的知识，做会难做的实验，其主要目标是激发学生对科学的兴趣，建立学生后期科学探究的基础。当前大多科学课堂都以理论背诵为主，实践操作很少或是没有，这导致科学课堂的无趣和生涩难懂。这样的课堂不仅没有激起学生的兴趣，反而把学生对科学的兴趣扼杀在了摇篮。', '1.教育教学督导部门加大监管力度，保证小学科学课能开足开全，保证有专任的教师进行授课。2.引进物理或化学专业的教师进行科学学科的授课。3.对专任科学教师进行系统的、深入的专业知识培训，提高教师的专业知识水平。4.教育部门统一购置科学视频资源或科学小实验器材，将抽象的知识进行动画演示或操作体验，用符合小学生心理生理特点的方式授课。', '一、关于您反映的大多数学校没有专任科学教师。科学课由数学或其他任课老师兼任，这样的师资现状不能保证科学课堂的质量和效果问题。', '教育部、省教育厅、市教体局和各县（市、区）有关教育主管部门历来注重师资队伍的配备与建设问题，致力于师资队伍的培养和发展，2022年教育部印发了最新文件关于《教育部办公厅关于加强小学科学教师培养的通知》，明确提出了建强一批培养小学科学教师的师范类专业，通过师范生公费教育、', '“优师计划”等，从源头上加强本科及以上层次高素质专业化小学科学教师供给，提高科学教育水平，夯实创新人才培养基础。针对教师总量不足、结构性缺编、教师资源分配使用不合理等问题，我市多年来一直在加大创新力度，努力盘活事业编制存量，优先保障教育事业发展需要，多种形式增加教师总量；加大统筹调整力度，推动教师按需合理流动，保障师资队伍的优化分配。今后,市教体局也将进一步落实教育部和省教育厅的文件要求，继续扩大师资配备和储存量，制定相应措施保障各学科优质资源的合理分配与科学使用。', '（一）积极引进，科学分配。近年来，在政府对教育的大力支持下，全市教育稳健发展，教学质量稳步提升，同时为了保障教育健康发展，全市不断调整招聘政策，积极引进各学科专业人才，扩充队伍，壮大我市教师队伍力量，针对学科短缺且专业性不强的个别现象，在今后的教师招聘中，全市将有针对性的制定相应政策，如：侧重扩充科学学科专职教师的招聘比例，积极引导公费师范毕业生报考科学学科教师资格证培养计划，为当地教育培养一批科学专业人才，同时鼓励各县市区调整教师招聘政策，合理分配学科招聘计划，鼓励引进学科专业对口人才，尤其是鼓励积极引进科学相近专业教师队伍，提高考生对于该学科的正确认识，从根本上解决科学教师不专业的问题。', '（二）合理整合师资资源，优化师资队伍。在加大师资教师队伍建设投入的同时，科学地整合和优化师资队伍，重视科学学科教师的专业成长和发展，定期举行学科师资队伍培训，根据国家对于课程开设有关文件要求和学段特点，因地制宜地、逐步地固定科学学科教师队伍。有条不紊的解决“主科教师兼职科学”的现象。', '二、关于您反映的教师专业能力较差。小学科学学科较其他学科内容稍显繁杂，涉及物理、化学或生物知识，有时还需要实验辅助，虽然知识点不难，但是专业性较强，这也是科学课堂教学效果差的原因之一问题。', '我市一直致力于师资队伍建设和师资结构优化再升级，近年来全市各地区不断扩充师资队伍，增加师资队伍建设投入力度，同时对引进的师资通过各种培训和评比活动锻炼其教学能力，充分发挥其专业素养，通过建设 “名师工作室”“教研骨干团队”等形式培养一批又一批优秀教师。下一步，全市还将继续加强师资队伍专业性强化训练，提升教师的专业技能和专业素养，以适应教育形式和新教材的改革变化。', '（一）强化师资队伍建设，认真落实科学学科《义务教育课程方案》（2011年版）和《义务教育科学课程标准》（2022年版）要求。《义务教育科学课程标准》（2011年版）和《义务教育科学课程标准》（2022年版）都明确了科学学科的课程内容、教学理念、课程实施标准等问题，给科学学科教学提出了准确的要求和清晰的定位，指明了科学学科课堂教学的教学方向，近年来市教科院一直努力加强科学学科教师队伍对该学科课程标准的理解与应用方面的专业培训和广泛推广工作，提升科学学科教师对于该学科教学特点的理解与把握能力，通过多次举办《义务教育科学课程标准》（2011年版）解读培训活动加强教师队伍的专业性，提升课堂的教学质量。今后，市教科院将以《义务教育科学课程标准》（2022年版）为基准，继续加强加大教师对于科学学科新课程标准的解读与应用能力建设，努力提升教师课堂教学水平。', '（二）“教研”+“培训”双管齐下，提高教师专业水平，向老师要效率，向课堂要质量。1.近年来，市教科院通过举办线上和线下一系列学科培训和学科能力大赛，如“科学实验技能大赛”“科学学科优质课评选”“科学学科命题能力大赛”等活动加大科学学科教材、课堂教学、课程建设、新课标解读、命题等方面的培训力度，提升教师的授课能力和对教材、课标的解读能力，通过培养一批优秀的、专业能力过硬的科学学科教师骨干教师队伍，利用其影响力和辐射面推动科学学科专业教师队伍的发展。2.通过了解科学教师对培训工作的需求，丰富培训内容和形式，力争多开展一些专业技能方面培训。3.以《山东省教育厅关于举办第一届山东省中小学教师实验教学能力大赛的通知》为引领，举行科学教师实验技能大赛，以评促教。深化科学学科课堂教学改革，夯实科学教师教学功底，提高操作技能和业务水平。促进科学教师进一步改革教学方法，更新教学手段，积累教学经验，以提升教师专业水准。', '三、关于您反映的科学课堂枯燥乏味。科学是有趣的、神奇的，是让人愿意探索的。小学科学课堂，不要求学生记住深奥的知识，做会难做的实验，其主要目标是激发学生对科学的兴趣，建立学生后期科学探究的基础。当前大多科学课堂都以理论背诵为主，实践操作很少或是没有，这导致科学课堂的无趣和生涩难懂。这样的课堂不仅没有激起学生的兴趣，反而把学生对科学的兴趣扼杀在了摇篮问题。', '为推进“双减”工作落地见效，提质量、促增效，激发学生课堂兴趣，我市聚焦解决问题、锚定改革目标、遵循教育规律、促进师生发展，将一如既往关注学生的学习状态,全面优化课堂效率化教学。', '（一）丰富学生科学活动，提高学生科学学习兴趣。1.经常开展各类科学益趣活动，根据年级特点和教学实际需要，经常性开展一些科学知识类的比赛或观摩活动，以此促进学生科学学习兴趣和学习积极性的提高。通过各种途径，丰富学生科学积淀。 2.科学设计作业，帮助学生养成良好学习习惯。树立新的科学作业观，以学生为本，精心设计新颖多样、面向全体、取材方便、易于操作、实践性强、重视学以致用的科学作业，通过科学作业和习题的优化，让学生在丰富多彩的作业中，感到学习的乐趣、实践的充实、合作的愉快、成功的喜悦。', '（二）建立和完善实验教学的管理评价体系，加强对学校实验教学开展的指导、监督和管理，提升教师实验操作技能的能力，积极开展多种形式的实验课堂教学活动。1.要求学校要按照新课程的要求，开齐开足实验课，保证实验教学质量，切忌用信息技术手段和黑板取代学生动手实验。充分利用实验室开展实验教学，对学生进行基本技能训练。开展多种多样的实验教学教研活动，鼓励广大教师不断努力提高实验教学水平，总结和推广一批实验教学改革的优秀成果。2.切实加强实验教师队伍建设，培养教师对于新版教材实验的熟悉程度，了解每个实验的重点考察内容、操作流程等等。学校要鼓励教师把实验带到课堂，把实验仪器真正使用起来。学校也要充分挖掘、利用有限的教育资源，合理配置实验室和功能教室，进一步配备和完善教学仪器，以满足教育教学的需要，保证实验教学的正常开展。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>141</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>第号关于加大蔬菜专用品种种子创新尽快实现进口替代的建议</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72355699/content.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['种子是农业的“芯片”，种业是国家战略性、基础性核心产业。农业现代化，种子是基础，2021年初发布的《中共中央国务院关于全面推进乡村振兴加快农业农村现代化的意见》对打好种业翻身仗,进行了顶层设计和系统部署，要求加强农业种质资源保护开发利用，对育种基础性研究以及重点育种项目给予长期稳定支持。支持种业龙头企业建立健全商业化育种体系。2020年山东省农林牧渔业总产值突破一万亿元，成为我国首个农业总产值过万亿的省份。蔬菜产量连续6年超过8000万吨，稳居全国第一，堪称全国人民的“菜篮子”，在国计民生中，发挥了重要的作用。我市是典型的农业大市，其蔬菜产量在全省占据重要地位，是全国重要的蔬菜基地，相关的蔬菜种子外国价格普遍高于国产种子几倍甚至数十倍，我市的蔬菜亟待加大专用品种选育力度，尽快实现进口替代。', '（一）广泛调查，摸清底数。一是摸清全市蔬菜种质资源种类、数量、分布、主要性状等家底，发掘并鉴定一批新资源，保护好珍贵、稀有、濒危、特有资源，尽快开展新一轮地方品种资源搜集整理和评价工作，实现应收尽收、应保尽保。二是摸清全市蔬菜育种、育苗科研单位及企业的底数，对全省各个单位的当家品种及特性用途等关键指标进行统计，建立大数据库，对企业和种植户开放，加快新品种和特色专用品种推广应用。', '（二）产研合作，尽快突破。发挥市农科院、龙头企业的作用联合省农业科学院、农业大学等平台优势，强化种业企业合作，构建新的产学研紧密结合的商业化育种体系。全面实施遗传改良计划，鼓励农产品加工龙头企业积极参与和协助育种工作，提供地方品种种质资源和基因素材，协助培育具有突破性新品种。', '（三）设立专项，重点支持。2021年3月，财政部农业农村司发布的《全力做好“十四五”开局之年财政支农工作助力乡村全面振兴和农业农村现代化》对支持打好种业翻身仗做了明确部署。建议按照财政部通知要求，设立专项资金并长期稳定支持，重点扶持我市辣椒、番茄等特色蔬菜种业发展。', '（四）发挥企业创新主体作用。打好种业翻身仗，企业是重要一环。建议设立专项资金，进一步加强对种子企业的扶持力度,发挥其市场主体的作用。特别是对农民增收带动能力强、地方特色鲜明、具备农产品生产全产业链的企业给予重点支持。支持优势种业企业间实行联合，实现优势互补、资源聚集，支持种业企业牵头或参与组织实施种业应用研究和产业化等项目，引导企业建立新品种示范网络，加强售后技术服务，推动种业企业建立现代企业制度，加强品牌建设，打造一批在全省乃至全国具有市场竞争力的种业品牌。', '种子是农业的芯片，是国家战略性、基础性核心产业，是引领农业供给侧结构性改革和促进农业长期稳定发展的关键所在。党中央高度重视种业工作,习近平总书记指出“要下决心把民族种业搞上去”“保证粮食安全必须把种子牢牢攥在自己手中。要坚持农业科技自立自强，从培育好种子做起，加强良种技术攻关，靠中国种子来保障中国粮食安全”。近年来，我市不断加强农作物种业发展，目前全市持证农作物种子企业57家，其中育繁推一体化种子企业一家，经营范围涵盖小麦、玉米、棉花等大田作物种子和蔬菜种子。良星、德农、德发、银兴等大田农作物种子企业发展势头良好，良星系列小麦品种在全国大面积推广，德农公司研发的德麦008小麦种子今年在我市实打创造839.2公斤的好成绩。', '德州市背靠京津南邻济南，蔬菜产业市场巨大，在大力发展预制菜双重利好下，必将带动种苗产业发展。大力发展蔬菜种业和蔬菜种苗产业具有得天独厚优势，在希森、德高、英潮等企业带动下，我市优质高端蔬菜种业和种苗产业也逐步成为我市现代种业发展新的增长极。德高蔬菜种苗研究所培育的小白菜品种远销世界26个国家，小白菜育种达到世界先进水平，国内首台封闭式箱式种子干燥机落户德高蔬菜种苗研究所，种子加工设备达到国际先进水平，种子质量再上新台阶。乐陵希森产业集团有限公司加强耐盐碱品种研发和栽培技术集成创新，在东营农高区盐碱地示范推广耐盐碱马铃薯高产栽培技术。希森集团被评为全国种业头部企业，2020年商品种子销售总额全国前十强，马铃薯商品种子销售总额全国第一。英潮辣椒英潮辣椒价格指数成为全国首支辣椒价格指数。', '育种能力是企业科研创新的具体体现，近年来，我市启动了“主要农作物育种联合攻关”工程，在引导企业重视品种选育工作的同时，加强与高校及科研院所的交流合作，利用全市育种技术资源和种质资源开展新品种选育工作。鼓励企业坚持“引进来”和“走出去”相结合，在引进高端人才的同时，组织企业育种人员赴外地交流考察，向新品种选育工作突出的企业学习先进的育种方法和理念，把握正确的育种方向。根据德州市种业发展实际，助力企业自主创新，2021年联合市科技局按作物类别评审认定小麦、玉米、棉花、马铃薯、白菜五个协同创新育种中心。培育出德利农玉米、良星小麦、希森马铃薯、银兴棉花、德高白菜、英潮辣椒等系列知名优质高产新品种，全市科研育种水平显著增强，种业可持续发展势头良好，种子科研创新水平大幅提升，种业发展的内生动力明显增强。', '下一步工作中，我们将在推广应用新品种、新技术、新成果上不断发力。选育推广应用产量高、品质好、抗逆性强、适销对路的优质良种。大力推广配方施肥、水肥一体化、绿色防控、新型农业机械等，实现良种良法配套，农机农艺结合。在发展提高企业规模和效益的基础上，发挥其龙头示范带动作用，走“龙头企业+基地+农户”产业化发展模式，通过规模扩张和质量的提升，不断提高品牌市场竞争力和占有率。积极对接科研院所，促进新技术、新成果转化，坚持“引进来、走下去”的工作方法，积极对接大专院校和农业科研院所，引进前沿科技和新技术、新模式、新品种、新成果，整合优质资源，让最前沿的科技成果优先在德州转化，促进农业科技创新、成果转化、技术推广有机融合，推动蔬菜产业整体效益提升。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>141</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>关于推动义务教育均衡发展的提案</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2022-07-03</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n72880799/c72919154/content.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['教育部2022年工作要点提出，要推进义务教育优质均衡发展。早在2011年，山东省政府办公厅印发了《关于推进县域义务教育均衡发展的意见》，提出“认真落实各级政府尤其是县级政府推进义务教育均衡发展的法定职责，坚持以均衡配置教育资源为基本政策导向，以深入实施中小学办学条件标准化建设为载体，以提高薄弱学校办学水平为重点，下大力气解决县域城乡之间、学校之间发展差距较大的问题”。', '近年来，市、区两级共同研究、探索，针对教育均衡问题采取了一系列措施，取得了一定成绩，但仍存在一些问题和不足。一是发展不平衡问题比较突出，区际间、城乡间、学校间教育教学水平仍有较大差异，“好学校”和“差学校”的现象还较为突出。二是师资力量尚有不足，师资水平有待进一步提高，教师待遇应进一步提升。三是集团化办学和联合办学模式刚刚起步，如何真正实现以好带差、抱团发展，需要加强研判，及时完善和深化。四是应更加重视发挥校长“领头雁”的作用，进一步探究名校长培养和使用机制，使更多的名优校长脱颖而出、领头前行。', '一、改革运行机制，促进教育均衡发展。一是建立均衡化的教育经费保障机制。对义务教育学校实行平等化的财政投入制度，使不同区域和不同学校获得大体一致、并与教学实际相适应的教育经费。二是促进教师队伍均衡发展。尤其要加大薄弱学校教师培训力度，不断增加薄弱学校教师培训名额，尽快提升薄弱学校师资水平，实现学校师资队伍均衡化发展。', '二、深化集团办学及联合办学。打破现有行政区划限制，探索实施跨区域集团办学，在教育理念、学校管理、教育科研、师资队伍、信息技术、教育评价、校产管理等方面进行统一管理。开展优质学校与薄弱学校结对帮扶，通过校长轮岗、教师交流、开办分校，或通过缔结校际联盟等方式，形成多校联合办学、集团化发展模式。', '三、制定科学的生源调配制度。在坚持“就近入学”的基础上，建立更加科学的生源调配制度，可参考外地成功做法，着力解决好“择校”问题，力促校际公平竞争、和谐发展。要积极探索优质学校和薄弱学校的错位竞争、特色发展体制机制，逐步构建起中小学教育特色发展、品牌发展、内涵发展不同模式兼容并蓄的新格局。', '四、提高师资队伍整体素质。一是进一步加强教师队伍建设。从政策、经费等方面加大支持力度，强化教师培训，使每一位教师都能树立起科学的教育价值观、教学质量观、教育法治观和教育管理观，掌握和运用科学的教育教学理论、方法，不断提高教师队伍整体素质。二是推动校长和教师队伍交流。选择能力强、素质高、潜力大的校长、教师，按一定比例试行跨区交流、跟岗学习、挂职工作、轮岗授课等，并在职称评定和工资待遇上给予交流人员适当倾斜；鼓励名优校长和优秀教师跨区赴薄弱学校工作，带动薄弱学校的教育管理水平和教育教学质量提升。探索聘用退休或不在岗的名师、名校长到薄弱学校任职、任教。三是统筹完善教师工资制度。加快研究制定教师工资统筹发放标准，逐步实现教师“同工同酬”。', '首先感谢您对全市教育和体育工作的关心和支持，您提出的《关于推动义务教育均衡发展的提案》收悉。现答复如下：', '您提的问题很有现实意义，建议也很有针对性。近年来，我市在推进义务教育均衡发展方面不断努力，取得一定的进展，但仍存在县域、城乡及学校间，教育教学水平不均衡、师资不均衡等问题。为推动我市义务教育优质均衡发展，提升教育高质量水平，针对您提出的建议，经研究决定，采取以下具体措施：', '一、改革运行机制，促进义务教育均衡发展。一是建立均衡化的教育经费保障机制。我市建立统一的城乡义务教育学校生均公用经费标准，小学每生每年710元，初中每生每年910元，特教学生每生每年8000元。对小规模学校加强经费支持，规模较小学校不足100人的按100人核定公用经费，满100人不足200人的按200人核定公用经费。二是落实乡村教师支持计划，组织开展送教下乡、跟岗培训、挂职研修等培训项目，切实提高乡村教师教育教学能力。出台《德州市乡村青年教师培养奖励办法》，针对乡村教师实际需求，增加乡村学校教师学习机会，开展精准培训，提升乡村学校教育质量，缩小城乡差距，促进教育均衡化发展。', '二、深化集团办学及联合办学，推动区域协调发展。一是积极探索委托管理、城乡共建、校际联盟、项目合作等形式多样的集团化办学模式，在全市范围内推广义务教育“集团化”、“联合校”办学模式，采取优质学校一体化办学或委托管理方式，指导各县市区各学校开展区域、城乡和校际间教育结对协作，实现教、研、评一体化。二是广泛推动区域之间合作，大力推动中心城区优质教育资源向周边地区辐射，积极引进市外优质教育资源参与区域内集团化办学，鼓励各县市区开展区域间合作，组建跨区域教育集团。三是制定并实施教育集团发展规划及成员校发展规划，推进集团内部管理一体化、队伍建设一体化、教育教学一体化、考核评价一体化，构建更加开放、更加科学的现代学校制度。', '三、坚持“划片招生、就近入学”，制定科学生源调配制度。我市按照“划片招生、就近入学”的总体目标，为义务教育学校科学划定学区范围，保持各学区之间优质教育资源基本均衡。鼓励在居住密度大、学校相对集中区域探索推进“大学区”入学政策，多所学校联合划片，在满足固定学区入学需求后仍有空余学位的，由“大学区”范围内家长采取自愿抽签方式入学。小学入学一般采取登记入学，初中入学一般采取登记或学校对口直升方式入学，所有公办、民办义务教育学校严格遵守义务教育免试入学规定，不以任何形式的笔试、面试、面谈、考察等方式选拔学生或把竞赛成绩、考级证明、培训经历等作为入学门槛。按照便民、高效、公开的原则，进一步梳理明确义务教育入学工作流程、办理时限，在政府网站向社会公布招生入学政策、招生范围、招生程序、招生条件、咨询电话等信息，全面实行网上报名，实行电脑派位、阳光分班。', '四、创新培养培训模式，提高师资队伍整体素质。一是利用“互联网+教师专业发展”平台，进一步加强线上培训学习。开展一师一优课、网上晒课等活动，激发教师研究教育教学实现自我提高的需求，同时支持县市区开展以新录用教师为主的全员培训，建立线上教育资源。二是建立德州名师领航工作室，促进全市教师队伍建设。从全市特级教师、齐鲁名师名校长中遴选主持人，以全市优秀青年教师或校长为成员，创建德州名师领航工作室。实行名师带徒办法，按照特级教师、齐鲁名师名校长自身成长的经验经历，带领中青年教师，逐步达到特级教师或者齐鲁名师名校长的专业标准。三是开展多层次培训，提升教育队伍的素质和能力。2021年，我市积极落实中小学校长和教师“国培”、“省培”及“市培”等计划，先后开展全市中小学校长培训、班主任培训、骨干教师培训及学校党组书记培训等活动，共培训中小学校长和教师近3万余人次，全面提高中小学校长的教育管理能力和教师专业素养。四是组织名师名班主任名校长，开展送教活动。组织德州名师领航工作室、德州名师名班主任等，深入薄弱县域、乡镇中心校及农村学校开展送课、听课、评课等活动，促进全市教师队伍整体素质的提高。', '五、健全教师队伍管理机制，促进师资均衡发展。一是全市建立教师补充长效机制，通过引进人才、公开招聘、特岗计划、公费师范生、轮岗交流、业务培训等措施，不断改进教师队伍建设机制，提高教师素质。2021年，全市通过引进人才、公开招录、特岗教师计划、公费师范生等方式共补充教师3220名，其中乡村中小学补充教师1348名。二是教师职称评聘向农村中小学倾斜，建立“定向评价、定向使用”的基层中小学教师职称制度，对长期在乡村学校任教的教师予以倾斜，在乡村中小学从事专业技术工作20年以上申报副高级职称，从事专业技术工作30年以上申报正高级职称，可不受单位岗位结构比例限制。2021年度，基层中小学正高级教师职称评审通过28人，基层中小学高级教师职称评审通过1329人。', '百年大计，教育为本。相信通过以上这一系列措施，我市教育资源均衡配置工作将迈上一个新的台阶，为进一步推动全市义务教育均衡发展，办人民满意教育打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>141</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>关于推动普惠性托幼机构发展的提案</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-07-03</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n72880799/c72918928/content.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['党的十九大报告将“实现幼有所育”列为七大民生问题之首，体现了党和政府对学前教育的高度重视。随着全面实施二孩、三孩政策后，县级城镇和三线城市的0-3岁婴幼儿数量迅速增长，随之而来的，很多双职工小家庭对婴幼儿的照护服务需求日益增强。社会、家庭呼唤安全、普惠、优质的托幼服务。', '一是各县市依据城市规划，调整完善新的幼儿园布点规划，加大投入，增加公办幼儿园的数量和学位。鼓励有条件的优秀公办幼儿园试点增设3岁以下普惠托幼班。', '二是鼓励支持有资质的社会力量通过公建、民营、民办、公助等形式举办托幼机构，提供托幼服务体系，逐步构建主体多元、性质多样、服务灵活的托幼服务体系。', '三是启动示范性试点建设工作，政府可采取建设补贴、运营补贴或以奖代补等方式，发挥行业引导作用，优先支持承担一定指导功能的示范性婴幼儿照护服务机构。', '四是落实托幼机构的监管机制，做好托幼机构教学管理、卫生保健、疾病保健、场地安全等相关工作。', '五是增加幼儿园教师的事业编制数，提高招聘幼儿教师的门槛，确保师资的质量，推进教师队伍专业发展。', '非常感谢您对0-3岁婴幼儿教育和托护工作的关注。近年来，我局高度重视城镇居住区配套幼儿园建设工作，助力破解“移交难、入园难”难题。一是高质量完成幼儿园专项整治工作。2019年德州市人民政府办公室印发《关于印发&lt;德州市城镇居住区配套幼儿园专项整治工作方案&gt;》（德政办字〔2019〕16号），要求按照“规划不到位、建设不到位、移交不到位、使用不到位”四项问题开展配建专项整治。按照工作职责，我局牵头负责对建设不到位（施工进度慢）的专项整治，与教育部门共同牵头做好移交不到位的整治工作。为更好地履行自身职责，我局印发了《关于开展全市城镇居住区配套幼儿园专项整治工作的通知》（德建通〔2019〕63号），积极督促各县（市、区）住建部门开展城镇居住区配套幼儿园专项整治工作，建立了各县（市、区）住建部门共同参与的专项整治督导协调机制，按月调度各县（市、区）幼儿园专项整治工作进展情况，并进行现场督导。截至2020年底，全市25个建设不到位、110个移交不到位配建幼儿园全部整改完成，完成率100%。山东省城镇居住区配套幼儿园整治工作小组关于城镇居住区配套幼儿园整治工作的通报中，多次对我市进行通报表扬。二是积极开展配套幼儿园治理“回头看”工作。2022年5月底，省教育厅与省住建厅联合印发了《山东省教育厅 山东省住房和城乡建设厅关于开展城镇小区配套幼儿园治理“回头看”的通知》（鲁教基函〔2022〕37号），我局严格按照通知要求，认真履行自身职能职责，会同市教育和体育局印发了《德州市教育和体育局 德州市住房和城乡建设局关于转发&lt;山东省教育厅 山东省住房和城乡建设厅关于开展城镇小区配套幼儿园治理“回头看”的通知&gt;的通知》（德教体基函〔2022〕14号），明确了整治范围和工作要求，要求各县（市、区）制定工作方案，遵循“因地制宜、一园一案、分类指导、长效治理”原则，对纳入治理台账已完成整改的小区配套园和治理工作开展以来新建小区依标应配建的幼儿园认真开展“回头看”摸排整治工作，逐一核查是否整改到位、是否存在遗留问题、是否出现反弹等，针对摸排发现的问题，建立摸排整治台账，制定整改措施，明确整改期限。三是立足自身职能职责，做好配套幼儿园建设质量与安全监管。我局将严格履行自身职责，加强对县（市、区）的检查督导，强化对配套幼儿园质量安全监管监管，督促施工企业落实安全生产责任，压实各级责任，切实保证配套幼儿园安全建设。', '另外，根据《关于中心城区居民住宅区配套建设中小学校、幼儿园办法》（德财投〔2021〕1号）办法规定，中心城区政府（管委会）是中小学、幼儿园配套建设实施主体，负责各自区域居民住宅区中小学、幼儿园资金筹集及建设工作。中心城区出让居民住宅用地时，市自然资源局、市教育和体育局根据城镇控制性详细规划编制教育设施专项规划，规划教育用地，不再由开发企业捆绑代建。', '您的建议我们同市教育和体育局、市卫健委进行了沟通，他们将对您的建议给与答复。希望您一如既往关注我市住建领域工作，持续为我们提供更好的意见建议。', '一、突出抓好幼儿园教师补充招聘工作。市政府制定了《关于德州市学前教育攻坚的实施意见》（德政办字〔2021〕5号），要求加大幼儿园教师招聘力度。努力扩大公办幼儿园在编教师比例，提高幼儿教师整体素质和专业水平。各县（市、区）要根据国家幼儿园教师配备标准，按照公办园在园幼儿占比50%的标准，核定教职工编制，制定年度补充计划，在2至3年内配齐公办幼儿园在编教师。', '二、健全幼儿教师待遇保障机制。各县（市、区）政府（管委会）要把好师资队伍入口关，通过政府购买服务、动态调整幼儿园收费标准、统筹使用普惠性财政经费等措施，加强幼儿教师队伍建设。幼儿园须严格按照有关法律法规规定，与聘用教职工签订聘用合同或劳动合同。用人单位依法保障公办幼儿园未纳入正式职工管理人员和农村集体办、企业办、民办幼儿园教师工资发放，其平均工资不得低于本地区城镇职工平均工资水平，并按规定参加职工社会保险，足额缴纳“五险一金”。', '三、多形式强化教师队伍建设。一是核定编制补充新幼师。2019年，全市已招聘幼儿教师400多名；2020年，全市招聘公办幼儿教师760余人，2021年，全市共计划招聘公办幼儿教师818人，其中，德城区已组织完成面试，录取143人，超原计划106人。禹城市已发布教师招聘公告，计划招聘40人。齐河县已发布教师招聘公告，计划招聘391人，超原计划254人。陵城区已发布教师招聘公告，计划招聘102人。庆云县已发布招聘公告，计划招聘118人。夏津县已制定完成招聘简章，近期即将发布。二是加强在职教师培训。2021年11月2日—6日，组织全市75名名师名园长赴北师大培训学习。邀请冯晓霞、钱志亮等多位专家，结合德州市学前教育发展现状，采取专题报告、案例研讨、参观考察等形式，对学前政策、游戏活动、集体教育活动、教师园本教研等方面进行了专业解读，推动学员在专家引领、同伴互助、个体反思的实践中实现深度学习，转变教育理念，开阔视野，提升了教育科研和教育管理能力。三是加强名师、名班主任建设工程人选培训。制定了《德州市第二期幼儿园名师建设工程培养方案》《德州市第二期幼儿园名班主任建设工程培养方案》及专业成长量化考核办法，为名师、名班主任建设提供政策保障。认真组织实施省培计划项目；组织学前教育第八批教学能手评选，教师之间相互观摩学习，增加交流，不断提高学前教育保育教育质量。', '四、坚持科学保育教育质量。一是创建德州市游戏教育实验区（园）。在全市范围内创建游戏教育实验区（园），以实验（园）为基地深入开展幼儿园游戏化课程建设，取得较好成效。我市齐河县入选省级学前教育游戏活动实验区，德州市直机关幼儿园等12所幼儿园入选省级游戏实验区，实验区（园）数量位列全省前八名。二是加强游戏教育培训。2021年10月11日—13日，采取现场+视频的方式，组织我市游戏实验区教师参加省级游戏活动实验区（园）现场经验交流暨培训会议，组织全市幼儿教师通过钉钉视频方式观看现场会。11月3日，组织全市幼儿教师参加全省线上幼儿园环境创设专题培训。12月14日组织幼儿园教师参加全省线上幼儿园课程建设研讨会。这些活动进一步提升了我市幼儿园课程建设质量和教师专业化水平。三是开展课程游戏化建设。出台了《关于开展幼儿园课程游戏化建设的通知》（德托幼函〔2020〕1号），全面开展幼儿园课程游戏化建设项目。采用结对帮扶、多园共建的方式，从树立正确的教育理念、提升教师对游戏的支持能力、创建课程游戏化环境、构建游戏化课程体系四方面，深入开展课程游戏化建设，通过以点带面，整体推动提升我市学前教育质量。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>141</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>第号关于建立大运河德州段保护利用机制推进高质量发展的建议</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-06-27</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72585773/content.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['2017年6月4日，习近平总书记对综合保护利用大运河作出重要批示：大运河是祖先留给我们的宝贵遗产，是流动的文化，要统筹保护好、传承好、利用好。2019年2月，中共中央办公厅、国务院办公厅印发了《大运河文化保护传承利用规划纲要》，明确提出坚持以文化为引领，坚持以人民为中心，共抓大保护，不搞大开发，打造大运河璀璨文化带、绿色生态带、缤纷旅游带。2020年3月，山东省政府发布了《山东省大运河文化保护传承利用实施规划》，将我市等运河主河道流经的18个县（市、区）作为规划核心区，要求尊重古运河原始自然风貌，建设运河自然风貌展示区。', '运河德州段是大运河黄河以北段的重要组成部分，全长141公里，由卫运河和南运河组成，从德州市区及武城、夏津境内穿过，是大运河沿线城市中保存最好、最具原生态的古运河河道，也是山东段中唯一一段千年运河，承载了厚重的历史底蕴，保留了良好的生态面貌。作为联合国世界文化遗产，其保护、开发和利用价值极大，对于我市经济文化社会发展能够起到积极的推动作用。', '我市保护开发大运河资源有着独特的优势：一是原真性的运河沿岸风貌。河道在平面布局上设计众多弯道，建造各种形式的堤坝，至今保留着“九龙十八弯”的原生古河道形态；堤防植被草木繁茂，古树交荫，至今仍完整地保留着运河古韵和原生态特色，是大运河沿线原生态面貌保持最好的河段之一。二是延续至今的全国主要仓储区。我市曾为大运河历史上漕运“四大仓”之一，当前高速铁路、普通铁路、高速公路、国道省道密集汇聚，仍然是全国重要交通枢纽和货物商品的重要仓储集散地。三是文旅资源丰富。大运河德州段文物遗产众多，全国唯一的有守陵村落的外国帝王墓—独特的苏禄王墓坐落于此，运河码头、仓储群、北厂漕仓遗址、老城墙、窑上窑址等10处省级以上文物保护单位均分布于大运河沿岸。', '为进一步加强大运河保护利用，我市成立大运河保护利用指挥部。2021年8月18日，指挥部召开《大运河德州段保护利用总体规划编制流程工作方案》汇报会，要求坚持规划先行，突出德州特色，高起点高标准高质量完成规划编制工作。结合彰卫河（德州段）防洪综合治理等工作，统筹推进文化遗产保护传承、河道水系治理管护、防洪排涝保障功能完善、生态环境保护修复、文化和旅游融合发展，切实把大运河文化保护好、传承好、利用好。', '《德州市国民经济与社会发展第十四个五年规划和 2035 年远景目标纲要》中先后19次提到大运河保护利用：在第七章“深入落实黄河流域生态保护和高质量发展战略”中，提出依托运河等建设一流生态空间，打造黄河中下游最佳的生态宜居高铁新城。在第十二章“做优做强十大产业”中，提出培育国家 5A 级旅游景区，促进大运河国家公园建设，打造黄河、运河融合交汇文化圣地、文化旅游高质量发展新高地。在第四十章“打造综合交通体系”中，提出积极协调推进京杭运河黄河以北段复航。在第四十五章“传承弘扬优秀传统文化”中，提出挖掘运河文化内涵，积极打造运河文化旅游融合发展品牌，推动运河文化资源的有效利用和高效运营。', '这些都为我市把握当前国家、省全面建设大运河国家文化公园的重大历史机遇，提升大运河德州段儒风水韵、厚德载物的形象，保护利用大运河资源，推进全市经济社会文化高质量发展提供了政策依据和行动指南。', '1.强化宣传引导。充分借助5G、大数据、云计算、人工智能等技术，采用微博、微信、微电影、短视频等新媒体手段，搭建宣传展示平台，拓展宣传推广渠道，切实提升运河文化的知名度和认可度，让运河保护利用成为广泛共识和自觉行动。', '2.统筹项目实施。搬迁运河沿线部分影响景观的“城中村”，需要系列的保障措施统筹推进。要科学划定大运河保护利用区域范围，准确梳理征迁对象基本情况，合理设计安置政策和方案，尊重古运河原始自然风貌，挖掘漕运仓储文化，保护和修缮重要文物及周边区域景观风貌。', '3.推进复航利用。目前大运河德州段航道保存完整，两岸防堤塑整完好，河道间距开阔，淤积较少，除水源短缺外，基本满足三级通航的标准要求。要结合沿线水资源条件，科学实施必要的航道疏浚、边坡护岸处理、碍航设施改造等，推动大运河黄河以北段优先实现旅游通航，在此基础上远景实现全线通航。', '4.开发文化旅游。积极争取承办京杭大运河沿线城市经济文化交流活动，借鉴杭州、苏州、扬州、济宁等地市经验，依托现有文化旅游产业基础，统筹资源、培育典型，突出德州特色，开发文化旅游项目，打造德州城市文化地标。', '您提出的《关于建立大运河德州段保护利用机制推进高质量发展的建议》收悉，现答复如下：', '京杭运河是我市重要的河流，也是我市文化底蕴的体现。德州因黄河而生，因运河而兴，大运河对德州的发展历史影响深远，已成为德州不可替代的地域文化标志。大运河沿途有着众多的历史文化和独特景点，发展旅游通航有着广阔前景。', '2022年，市委党代会工作任务下达，要求积极推进京杭运河德州段复航，超前谋划建设内河港口，实现城区水系通航。因京杭运河德州段复航是属于国家层面推动的“京杭运河黄河以北段适宜河段通航”的一部分，项目涉及山东、河北、北京、天津等多个省份，以及发改、水利、环保、文旅、交通运输等众多部门，且工程技术复杂、投资规模巨大，需要国家层面统筹协调推进，非一市能完成，故德州市应优先发展旅游通航。根据省政府出台的《山东省“十四五”综合交通运输发展规划》（鲁政字〔2021〕127号）所确定的“推进京杭运河黄河以北段航道前期研究”工作任务，结合德州市实际情况，我局2022年度工作目标为开展京杭运河旅游航道规划的前期研究工作。开展实地考察、调研南运河航道情况，汇总资料，并和市发改委、水利局、自然资源局、文旅局、漳卫南局等单位沟通座谈，掌握河道相关的基本数据，探讨旅游通航可行性，年底前拿出基本情况调研报告初稿。', '5月份，市交通运输局组织人员前往南运河段进行现场查看，此次实地勘察的河段为京杭运河S516大桥至驸马营路大桥河段，对此段的河道、沿途桥梁、跨河管廊等进行了现场查看，因水利部门对京杭运河进行全线通水，水流较急，水位较高，河床情况无法看到。近期将根据市大运河保护利用指挥部办公室的工作部署，对南运河进行试航调研，进一步论证旅游通航的可行性，为调研报告的起草收集第一手资料。', '下一步，我局将在市委、市政府的领导下，充分发挥政府主导和部门联动、政策引导，按照责任分工，积极做好相关工作。', '加强大运河文化保护传承利用工作，是新时代党中央、国务院作出的一项重大决策部署。2021年8月，按照市委重点项目挂图作战工作安排，组建大运河保护利用指挥部，全面启动大运河德州段保护利用工作，主要开展了以下工作：一是高水平高标准编制总体规划和城区段城市更新规划，委托中国工程院崔愷院士领衔的中建院规划设计团队进行编制，目前已基本完成。二是注册成立德州大运河集团公司，全面负责大运河保护利用项目的策划推介、建设运营，与西安曲江文投中签订战略合作协议、与中建八局达成合作协议，已构建多元化融资渠道。三是根据前期规划设计成果，细分出今年计划动工的九龙湾、生态廊道、九龙湾配套设施（运河大道改造升级）、运河宜养社区、苏禄王御园改造提升5个节点项目，目前5个项目都处于施工图设计、手续办理阶段。四是加大宣传力度，编印《德州运河文化丛书》，从德州运河城市发展、文化遗产、民风民俗、世家名人、文学艺术、德名镇名等方面多角度、多层次展示德州运河文化底蕴、特点与流脉；并将统筹市级媒体载体，通过定期举办各类展览活动、体育赛事、主题论坛，通过视频、公众号等多媒体方式进行广泛宣传、讲好运河故事。', '大运河（德州段）的保护利用主要是围绕“千年运河古貌原真城市、国际文化融合典范城市、世界文化遗产展示优秀城市”功能定位，按照河道管理区、文化遗产保护利用区、建设引导区、风貌管控区、环境协调区5类保护利用分区，做好三篇文章：一是做好“河”文章，修复滨水生态景观，搬迁堤内及两侧管控区村落民居；二是做好“古”文章，保护好水工、工业、国际交往遗产遗迹设施，展示世界文化遗产；三是做好“城”文章，开展景观设施、老城忆记等建设，重塑城市中心活力。整体形成“一廊（运河遗产生态景观廊道）、六片（漕仓文化园、东盟文化园、小锅市运河聚落、滨水商业区、九龙湾文旅融合园、四女寺风景旅游区）”的总体布局。', '（一）运河遗产生态景观廊道项目。生态廊道一期项目，主要建设南运河段45公里，两侧规划控制范围2-3公里。主要有四个方面建设内容：拆除沿线违规建筑、临时建筑，进行植被恢复及岸线恢复；改善沿岸堤顶路断面，提高景观可达性和步行友好性；保护修复湿地生态系统，提高已有湿地的保护管理和综合利用水平，进行严格保护，修复河湖湿地生态系统；保护培育森林生态系统，实施滨河防护林生态屏障工程，推进运河两岸绿化提升，打造由北部二屯镇、南部黄河涯镇、四女寺镇向中心城区形成的阶梯式景观序列。近期正在实施德城区段生态廊道工程，远期结合南水北调东线二期工程考虑通航功能。', '（二）北厂漕仓遗址片区。基于“遗址保护”与“乡村振兴”并重的思想，利用生态文化基底，打造都市微度假休闲旅游目的地。设三大功能区：“十二连营”军事主题体验区，设置小英雄童军营地，落实国家倡导的国防教育和研学活动，激发青少年爱国之情；漕运生活体验街区，以原有废弃民居改建，主要包含研学课本剧场、历史禅观、军营主题民宿餐饮等，再现北厂村历史生产生活场景，复兴传统宜商宜居的人居环境；漕仓文化展示园区，包括漕仓文化展示园和漕仓遗址公园两个片区，为漕仓文化的研究提供了更多的内容与不同的视角。', '（三）东盟国际文化交流示范园片区。更新思路是搬迁工业企业，提升神道及陵墓周边环境，整治守陵村落风貌，建设文创工美基地和融合合作平台（包括电商中心、文创产品展示中心、物流中心），配套建设停车场等设施，自北向南布局“清真特色商业街（家园中心）、苏禄古村、苏禄御园遗址公园、文化创意产业园、山东东盟融合交流合作服务平台”，建设见证国际文明对话的历史街区。', '（四）小锅市运河聚落片区。更新思路是交通贯通管线进入，村庄更新补齐短板，面向运河打开空间，联通绿地自成系统，恢复历史突出特色，建设集聚落文化和运河景观的综合性运河聚落文化街区，打造运河沿线渐进式更新的山东样板。包括两带（南运河景观带、运河故道景观带）、两道（小锅市街历史文化道、桥口街历史文化道）、三区（德州文化民俗展示区、运河故道文化旅游服务区、城郊休闲农场区）、多点（董子书院、稻香菊园、清真古寺、多彩民俗、河神趣游、堰工访怀、桥口寻古、钞关商贸、御道桥口、行宫探幽）。', '（五）老电厂片区。主要包含三个部分：滨河带状公园区，沿运河两岸打造观景平台、慢跑路径等多个节点，全方位营造亲水和互动空间；老电厂文化公园区，主要依托老电厂遗址，在继承和梳理原有城市记忆和场地文化内涵的基础上，补充和完善城市绿地功能和设施；配套商业区，通过特色餐饮、主题商业等商业、文化功能的方式提升区域活力。', '（六）九龙湾文旅融合园片区。建设近现代工业文化与运河河湾文化为主题的市民文体休闲和旅游文化融合园。主要建设内容：逐步更新德工机械厂、造船厂等工业遗产，挖掘城市工业文化、运河历史，营造“文化+场景”的获利空间；置入运河博物馆、青少年科普中心等新功能模块，促进向文化活力中心转变；建设运河绿道、运河景观塔、体育公园、生态湿地公园等城市开放空间，将城水空间关系从单调剥离转向有机互动，再现运河两岸繁华。', '（七）四女寺风景旅游片区。主要是改造和提高乡村景观资源、环境及设施，将水利枢纽与临近景点进行有机整合。突出一个方向：建设特色文旅带动、服务乡村振兴的文孝工农主题文化旅游区。聚焦四个主题：美丽乡村项目（四女寺槐花小镇、吕庄子槐花小镇、槐花祭文创乡创大赛、槐花大集）；水利兴农生态田园项目（渔：运河垂钓园，樵：运河植物园，耕：运河生态农场，读：运河董子书院）；水工文化研学基地（四女寺水闸分流、减河岔河倒虹吸、古代滚水坝、古代水利灌溉、南水北调穿黄入德）；中华孝道文化园（四女河、中华孝道文化论坛、四女寺孝道文化庙会）。建设三大功能区域：四女寺水利枢纽景区、四女寺风景区、四女寺聚落文化景区。', '中长期目标：至2025年，大运河德州段文化遗产系统得到保护与初步呈现；流域治理工程得到有效实施，沿运河生态廊道基本建成；教育、颐养等公共服务设施基本达标建设；交通、游憩基础设施和公共服务保障能力显著改善，游赏路线基本形成；共管共建机制运行良好。至2035年，大运河德州段文化遗产系统得到整体保护与全面呈现，为国家大运河文化带建设提供有力支撑；生态环境系统得到根本改善；社会事业保障切实加强；文化旅游品牌影响力显著提升，城乡区域统筹发展。', '您提出的《关于建立大运河德州段保护利用机制推进高质量发展的建议》收悉，现答复如下:', '为保障大运河保护利用项目顺利实施，市政府专门成立了大运河保护利用指挥部负责协调推进，同时市城投集团成立了德州大运河文化公园建设发展集团有限公司负责具体组织实施大运河开发利用项目。', '针对您提到的“搬迁运河沿线部分影响景观的城中村”问题，我局进行了认真研究，并与大运河指挥部进行了沟通交流。经了解，目前大运河保护利用区域范围已确定，范围区域为北起冀鲁交界的二屯镇第三店，南至四女寺水利枢纽，途径德州市区与武城县，全长共计45公里。当前的拆迁任务是对九龙湾片区杨家圈地块、九龙湾片区南陈庄地块和木材公司片区范围内房屋进行征收拆迁。', '根据《德州市人民政府关于修改&lt;德州市国有土地上房屋征收与补偿办法&gt;的决定》规定，市住建局负责组织实施由市人民政府负责的房屋征收和与补偿工作，并对本市房屋征收与补偿工作进行业务指导；县（市、区）人民政府确定的房屋征收部门负责组织实施本行政区域的房屋征收与补偿工作。德城区建设局负责组织九龙湾片区杨家圈地块、九龙湾片区南陈庄地块和木材公司片区范围内房屋的征收工作。', '针对上述地块的征收问题，我局与德城区建设局进行了沟通了解。经了解，目前上述三个地块均已作出房屋征收决定，杨家圈地块已签约728户、南陈庄地块已签约972户、木材公司片区已签约3户，工作正在顺利推进过程中。', '下一步，我局将积极对接大运河开发利用指挥部，根据指挥部工作安排，依据自身职能职责做好沟通协调。', '您提出的《关于建立大运河德州段保护利用机制推进高质量发展的建议》提案（第90号）收悉。现答复如下：', '加强大运河文化保护传承利用工作，是新时代党中央、国务院作出的一项重大决策部署。近年来，市委宣传部协同有关部门积极开展大运河文化宣传推介工作，取得一定成果，现将有关情况说明如下。', '一是组织媒体配合开展运河文化宣传推介活动。积极开展“我为大运河保护利用建言”、“发现德州运河文化之美暨标志性宣传语征集”“因运河生·因运河兴——德州运河文化摄影摄像展”等运河文化宣传推介活动。收集社会各界意见建设60余条，标志性宣传语650余条，并通过网络投票、专家评审评选出优秀作品。摄影展分两个阶段，分别在会展中心一楼大厅、中心广场展出优秀作品120余幅。通过大美运河、文化遗存、人文风情、因运而兴四个版块，从不同视角，不同空间，不同历史层面，全景呈现风光汇聚、风土丰厚、维度多元的悠悠古河。《德州日报》《德州晚报》同步刊发活动报道，广大群众积极踊跃参与。', '二是全面打造德州运河文化宣传矩阵。组织媒体开设“保护大运河 德州在行动”等专题专栏，通过报纸、电视台、广播、新媒体等多种手段，及时反映有关工作举措成效，营造关注支持参与大运河保护利用工作的良好舆论氛围，《京杭大运河全线通水》等报道在央视《新闻直播间》、北京日报等刊发；深入挖掘我市大运河历史文化资源，发动运河沿线文化爱好者，通过小说、诗歌、杂技、情景剧等多种形式，寓教于乐讲好运河故事；委托名家进行文艺创作、编写剧本的方式，拍摄关于苏禄王、董子、田雯、卢见曾等德州历史名人和乾隆下江南等经典故事题材的电影、戏曲，打造运河文化宣传矩阵。', '三是编印出版德州运河文化系列丛书。组织德州市历史文化专家学者，编印《德州运河文化探微》《德州运河文化丛书》等书籍，从城市发展、文化遗产、民风民俗、世家名人、文学艺术、名镇名村等多角度，多层次展示德州运河文化底蕴、特点与流脉，对研究利用我市历史文化资源具有积极的借鉴和指导作用。', '我市宣传推介运河文化取得一定成效，同时，也存在媒体宣传形式较单一，传播力、影响力有限等问题。今后，市委宣传部将积极吸取您的宝贵建议，充分发挥媒体融合优势，加强统筹指导和组织协调力度，通过微博、微信、微电影、短视频等多种方式宣传推介运河文化，切实提升运河文化的知名度和认可度，让运河保护利用成为广泛共识和自觉行动。', '为进一步落实国家、山东省针对大运河文化保护传承利用工作的规划思路，高质量统筹德州大运河文化保护传承利用，按照市委、市政府统一安排部署，2021年8月我市启动了大运河规划项目的编制工作，邀请中国工程院院士、中国建筑设计研究院名誉院长崔愷领衔的设计团队担纲负责。目前，该规划正在进一步深化完善中，对于您提出的意见建议我们将在规划成果中进一步吸收落实。', '本次大运河规划项目范围是根据《大运河文化保护传承利用规划纲要》规定的大运河河道管理范围及其外2000米的核心监控区的空间界定要求以及由《大运河山东段核心监控区国土空间管控导则》及《大运河德州段核心监控区国土空间管控细则》落实划定的德州大运河段核心监控区范围，规划总面积约87.88平方公里，北起德城区二屯镇第三店村（山东省界），南至武城四女寺水利枢纽，全长45公里，两侧规划控制范围2-3公里（不包括河北境内）。', '对于规划范围内涉及的城中村、乡镇村庄按照区位条件、资源禀赋、交通条件等进行分类引导规划建设。对于历史资源较为丰富的城中村，以“小微式、渐进式”的方式进行改造提升，适当恢复历史景象，保护传承优秀历史文化资源，加强资源的活化利用，促进历史文化资源与城市功能的深度融合，以改善居民生活环境。如经考证小锅市街是德州老城与北厂官仓主要交通运输线，桥口街是德州老城与北京御道粮运商贸运输线，历史上两个城中村周围有诸多名胜古迹，如明皇殿、九达天衢牌坊、文庙、慈氏寺（银瓦寺）、晏公庙、董子读书台、安德水馆驿等。对于重点打造片区（节点）内涉及的城中村（如杨家圈、南陈庄等）逐步搬迁腾退，优先选址城区良好地段进行安置。对于历史资源较为丰富的乡镇村庄，如丰乐屯村、北厂村、窑上村、闸子村、四女寺村、吕庄子村等，通过实施运河文化展示阐释、参观游览、文化体验、民俗体验等形式引导特色保护类村庄发展。', '目前，南运河德州段承担着南水北调二期输水河道功能，具备一定的水上交通能力。规划通过上下游设置橡胶坝和协调上游调水等措施，在非南水北调工程使用时期的三弯段（北起丰乐屯、南至杨庄村）及活力运河区段（北起小锅市、南至九龙湾公园）开设水上体育活动、观光游船等游憩项目，设置小型游船码头及水上游览路线，满足市民及游客游赏需求。', '本次大运河规划项目本着文旅融合、规划项目化的原则开展规划设计编制工作，规划基于大运河遗产整体价值特征，通过大运河沿线遗产资源精细化梳理和现状综合系统化评估，确定了重点打造的六大片区，各片区中均考虑了一定量的文旅融合项目，以确保片区规划建设的可持续性。如以亲子家庭为核心，以见学为特色的城市微度假目的地北厂漕仓文化展示园；以文旅带动、乡村振兴的文孝工农为主题的四女寺风景旅游区；以近现代工业文明与运河河湾文化为主题的市民文体休闲和旅游文化九龙湾文旅融合园等等。', '感谢您对我市大运河保护利用工作的关心和支持，您提出的关于建立大运河德州段保护利用机制推进高质量发展的建议收悉，现答复如下：', '近年来，市文化和旅游局在市委、市政府的坚强领导下，积极致力于大运河遗产保护传承利用工作。认真学习习近平总书记关于大运河遗产保护利用有关工作要求，深入贯彻落实党中央、国务院关于加强大运河遗产保护工作的决策并部署，着力构建依法保护、合理利用、传承发展的大运河遗产保护利用体系，积极贯彻执行《文物保护法》《山东省文物保护条例》《大运河遗产保护管理办法》《山东省大运河遗产山东段保护管理办法》等大运河遗产保护法律法规，积极推动我市大运河遗产保护利用工作。', '一、加强大运河巡查监测，坚守遗产安全底线。切实履行大运河遗产保护责任，动员全市上下，切实提高政治站位，齐心协力、齐抓共管，联合漳卫南局、大运河沿线县、区政府文物行政部门积极开展大运河巡查监测，实现市、县、乡三级联动巡查机制，切实做好大运河遗产本体保护，强化安全防护，及时消除安全隐患，守好大运河遗产安全底线。', '二、推进大运河遗产保护利用项目实施。结合后申遗时代德州城市经济社会发展和文旅融合发展需求，依托南运河世界文化遗产，制定了“一线三段一点”的遗产保护工作思路，自南向北打通了南运河右岸堤顶路，依次打造四女寺片区的“科技运河”、主城区的“文化运河”和二屯镇“生态运河”，重点实施完成苏禄王墓保护展示和环境整治六大提升工程、四女寺枢纽船闸保护维修工程、四女寺孝文化馆内的水利科技展示场馆建设、德州码头仓储、黄河涯礼堂保护维修工程等工作。', '三、积极开展我市大运河宣传活动。为积极做好我市大运河宣传工作，近年来，我局通过文化与自然遗产日、法制宣传日等积极与德州电视台、报社、奏嘛新闻等媒体合作，推进大运河宣传工作。开展“发现德州运河文化之美暨标志性宣传语”建言征集活动、筹办“因运而生 因运而兴”德州运河文化摄影展、承接“千年运河、齐鲁华章”大运河国家文化公园文旅融合媒体采风等活动，取得了良好的社会宣传效果。', '2021年7月份，中共德州市委十五届十次全会作出了“建好新城、做强德城、突破陵城，东靠新区引领、西靠运河引爆”的战略决策部署。8月我市成立了大运河保护利用指挥部，组建了大运河地域文化专家、国内运河专家、文物调查保护三支队伍，深入挖掘我市大运河文化资源，组织国家顶级专业团队编制《大运河（德州段）文化和旅游融合发展规划》、《大运河（德州段）保护利用总体规划》，研究谋划了一批文旅融合项目，为我市大运河保护利用各项工作的开展奠定了基础。', '您的《建议》对德州大运河遗产保护工作定位准确，对于我市开展大运河遗产保护传承利用具有极高的指导意义。在今后的大运河遗产保护利用工作中我们将逐步纳入，下一步，我们将继续秉承“保护为主，抢救第一，合理利用，加强管理”的文物保护方针，深入挖掘大运河文化资源，认真实施《大运河（德州段）保护利用总体规划》，推进做好南运河德州段生态廊道建设，加快实施漕仓遗址、运河聚落、东盟国际文化产业园、九龙湾文旅园、近代工业遗存展示区、四女寺水利风景区等重点工程，打造“一廊六片”文化景观带，为我市大运河保护利用高质量发展奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>141</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>第号关于加大基层普法力度提高全民守法意识的建议</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-07-03</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72923744/content.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['2021年，中央宣传部、司法部印发《关于开展法治宣传教育的第八个五年规划（2021—2025年）》，其主要目标任务是到2025年，公民法治素养和社会治理法治化水平显著提升，全民普法工作体系显著提高，八五普法致力于全面推进依法治国，加快建设法治中国。', '全民普法是全面依法治国的长期基础性工作，只有把基础性工作压紧压实压牢，把法律交给人民，提升全民尊法、学法、守法、用法意识，持续提升公民法治素养和社会治理法治化水平，才是建设法治中国的题中之义、应有之义。', '当前，全市七五普法工作已实施完成，八五普法已全面开展，综合来看取得一定成效，特别是在法治政府建设、普法宣传工作等方面都有新进展、新成绩，但是在全市普法宣传工作与新时代、新形势、新要求方面还存在一定差距，在部分基层干部群众中还未形成共识，重视不够，全社会全民守法氛围还不够浓厚，全民普法工作任重而道远。', '经过调研，我认为全市普法工作存在一些问题：一是普法机制不够完善。各级政府，特别是县级部门、乡镇政府对法治工作重视程度有待提高，侧重经济发展，忽略普法宣传，普法力度不够到位、范围不够广泛、措施不够有力，暂未形成全覆盖、全领域、全方位的法治宣传体系。二是法治文化建设相对滞后。当前，全市法治文化建设仍然存在不重视、不平衡、不突出等问题，主要表现在，法治文化宣传阵地尚未建立，法治文化宣传形式单一缺乏特色，法治文化建设缺乏硬件设施和经费保障等等。三是特殊群体亟需加强普法宣传。经过调研，大多数群众尊法、学法、懂法、守法、用法的意识仍然不够强，特别在两类群体较为突出，一类是农村村民群体。近年来，农村虐待老人、家庭暴力、醉酒驾驶、聚众赌博、非法邪教组织等违法行为屡见不鲜，个别村民处理纠纷、解决矛盾仍然倾向使用暴力，打架斗殴时常存在，对社会和家庭造成极大危害，对乡村振兴实施也百害而无一利。另一类是青少年群体。青少年现处于学生时期，文化学习为主，往往忽视法律学习，校园暴力、校园欺凌频频出现，给社会带来不稳定因素，亟待解决。', '全市各级政府、部门在贯彻落实“八五”普法规划上再下功夫、加大力度，进一步精制方案，优化措施，创新形式，力求普法工作全面覆盖、整体铺开，努力营造全民尊法学法守法的浓厚氛围。', '1.建议进一步提高普法思想共识。一分部署，九分落实。为进一步推动普法宣传工作取得实效，建议进一步健全党委领导、部门协调、人民群众为主体的法治宣传工作体制，形成普法工作大格局。建议各级党委政府发挥表率、标杆、引领、引导作用，深入贯彻落实习近平法治思想，纳入学习范畴，牵头成立党委政府主导、公检法司等部门协调的工作领导小组，落实国家机关“谁执法谁普法”普法责任制,出台实施方案，完善相应措施，加强组织保障，确保普法工作有成果、出亮点、见真效。', '2.建议进一步加强法治文化建设。法治文化建设是推进法治建设的关键环节。建议各部门结合自身实际，创新载体，打造法治文化建设新品牌，如建立法治教育培训基地、法治教育实践基地；结合3.15消费者权益保护日、12.4宪法宣传日等重要节点认真开展主题宣传活动；组建法治文化宣传队、开设“法治讲堂”，推动公检法司部门以案释法，把每一个典型案例开成一堂生动的“公开法治课”；充分利用报纸、媒体、网络等多种媒介创新性精准普法；注重加强普法志愿队伍建设，吸纳公检法司干警参与普法，同时组织社会力量开展公益普法等等。', '3.建议进一步加强乡村普法和青少年普法教育。乡村法治宣传和青少年法治教育是普法的重点和难点。关于乡村普法工作，一方面加强农村内部普法宣传工作。重点抓好农村骨干份子的学习，特别是加强村两委班子、党员骨干的法治宣传教育，以点带面，以上率下，重点学习与农村、农民相关的法律法规，加快普法宣传栏、“法治广场”建设，广泛开展“贴近农村、贴近群众”的新形式、新模式普法教育，全力打造农村基层法律服务力量。另一方面长期开展法治文化送下乡活动，司法所、人民法庭更要发挥前沿阵地建设作用，落实“巡回法庭”制度，把庭开到田间地头，开到寻常百姓家，尽量组织更多村民参加，让村民在案件审理中受到教育。关于青少年普法工作，建议进一步建章立制，构建青少年普法教育长效机制，不仅要发挥学校法治宣传教育主导功能，加强师资保障，完善教育课程，还要构建起学校、家庭、社会三位一体的法治教育新格局，三方共同维护，合力推进，特别是政法部门应定期开展法治宣传进校园活动，以正面教育、警示教育为主，让广大青少年更直观、更深刻受到法治教育，不断增强青少年法治意识和维权意识，有效预防和减少青少年违法犯罪。', '首先，感谢您对普法工作的关心和支持。您通过调研，发现我市当前普法工作还存在普法机制不够完善、法治文化建设相对滞后、特殊群体亟需加强普法宣传三方面问题，并且提出进一步提高普法共识、进一步加强法治文化建设、进一步加强乡村普法和青少年普法等建议。我们认为您的建议非常中肯、切合实际，有助于我们进一步提升工作。', '“指导、监督全市‘谁执法谁普法’普法责任制落实工作，推进全民普法；指导全市社会主义法治文化建设工作”，是我局的重要工作职能。多年来，市司法局坚持以提高广大干部群众法治观念和法律素质为重点，坚持典型引路、创新载体，不断完善工作体制机制，紧紧抓住“两个关键”，深化基层普法依法治理，全民守法普法工作取得明显成效，法治宣传教育在推进全市经济社会高质量发展中发挥了重要作用。经过“七五”普法全面总结验收，2021年市司法局被中央宣传部、司法部评为“2016-2020年全国普法工作先进单位”。', '建立健全协调小组领导体制和运行机制，坚持把建章立制作为基础工作、基本任务，为全民守法普法工作提供有力支撑。一是完善领导体制。2019年底，根据全面依法治市工作要求，成立了由市委宣传部部长任组长，市司法局、市委网信办主要领导任副组长，市委组织部、市委宣传部、市委政法委、市委网信办、市人大监察和司法工委、市政协社会法制联谊委、市法院、市检察院、市总工会、团市委、市妇联、市教体局、市司法局等单位相关负责同志为成员的市委全面依法治市委员会守法普法协调小组，小组办公室设在市司法局，指导各县市区成立全面依法治县（市、区）委员会守法普法协调小组，理顺守法普法工作领导体制。二是健全工作推进机制。根据委员会和协调小组工作规则，研究制定守法普法协调小组工作细则,明确工作职责和工作任务。定期召开小组工作会议，总结工作开展情况，研究部署守法普法重点工作任务，截至目前已召开小组会议5次。三是加强督导考核。将守法普法工作纳入市直机关绩效考核，充分发挥考核指挥棒作用，增强部门工作积极性、主动性。2021年底，组织部分执法部门开展“谁执法谁普法”履职报告评议活动，并将评议结果作为年底法治考核重要参考。', '2016年3月31日，市委、市政府两办下发《关于落实“谁执法谁普法”普法责任制的通知》，对普法责任制提出了明确要求。随后，市普法办（现职能已划转到守法普法协调小组办公室）印发具体落实意见，将400多部法律法规细化到79个职能单位，并制定详实的考核办法。各县市区也相继印发落实普法责任制的文件。2020年根据机构改革实际，进一步梳理普法责任主体及普法责任清单，将近500部法律法规细化到各职能部门，印发《关于进一步落实国家机关“谁执法谁普法”普法责任制的意见》，明确普法责任，进一步健全公开报备、工作台账、工作会议、报告总结、评价通报等工作机制。多次召开市委全面依法治市委员会守法普法协调小组暨国家机关“谁执法谁普法”工作推进会，对全市“谁执法谁普法”工作落实情况进行总结通报，有效提升各级各部门对守法普法工作重视程度。', '2021年市委、市政府转发《市委宣传部、市司法局关于在全市开展法治宣传教育的第八个五年规划（2021—2025年）》（德发〔2021〕28号），明确提出要全面推进落实“谁执法谁普法”“谁管理谁普法”“谁服务谁普法”普法责任制，完善国家机关普法责任清单制度，细化普法内容、普法责任、普法措施和普法标准。指导、督促市直各部门、各县市区制定、公开普法工作计划和普法责任清单并组织实施。2022年，创新“普法提示函”工作制度，市委全面依法治市委员会守法普法协调小组办公室在重要节日、法律施行日等普法节点期间，向相关普法责任部门发出“普法提示函”，提高普法针对性和时效性，进一步推动“八五”普法规划实施，全面落实普法责任制，目前已发出5份提示函。', '从实施效果看，各级各单位对普法工作重视程度、参与程度都明显提高，法官、检察官、行政执法人员、律师以案释法制度，媒体公益普法制度进一步实施，法治宣传教育正从“主管部门独唱”变为“全社会合唱”，普法力量、资源进一步整合，大普法工作格局逐步形成。', '充分发挥法治文化的引领、熏陶作用，大力实施全市法治文化阵地拓展、精品创作、品牌创建、活动惠民、媒体传播和理论创新“六大工程”，打造法治文化德州品牌，将社会主义核心价值观融入法治建设全过程，实现法律和道德相辅相成、法治和德治相得益彰。', '一是加强阵地建设，完善市县乡村四级法治文化广场、宪法主题公园、法治教育基地。2021年，以长河公园为基础打造长河法苑市级法治文化公园，设置主题引领、以史为鉴、良法善治、以宪为纲、以民为本五个区域，让广大群众在游玩的同时学习法律知识、感受法治文化氛围。各县（市、区）打造法治文化广场（公园）、法治文化长廊、村居法治宣传教育中心，设置户外宣传栏、广告牌，户外普法阵地建设覆盖率95%。26个基地被评为全省“法治文化建设示范基地”和“法治宣传教育示范基地”。全市检察系统广泛建成法治教育基地。市黄河河务局建设黄河法治文化公园。庆云一中加强校园法治文化阵地建设，入选齐鲁法治文化典型案例。特别是在民主法治示范村（社区）创建工作中，特别注重考察法治文化阵地建设情况。', '三是组织、挖掘、整理具有地方特色的法治文化资源，创作大量优秀法治文艺作品。2019年以来，为弘扬主旋律、传播正能量，推动全市法治文化创作繁荣发展，德州市司法局深入实施“一文一剧一画一视频”工程，增强社会各界群众对法治建设的参与和认同。“一文”即“我与普法”征文，收到社会各界作品525篇，优秀作品编辑整理成册印发，让活动的“仪式感”激发参与者的普法“责任感”。“一剧”即“优秀法治短剧（曲艺）作品征集大赛”，组织创作一批主旨鲜明突出、形式生动多样的法治文艺作品，在全省斩获荣誉。“一画”即“12·4”国家宪法日主题书画展。2019年底，以“12·4”国家宪法日集中宣传活动为契机，以宪法为主题，面向全社会书画爱好者征集作品418幅，优秀作品在市行政中心大厅集中展出，并汇总编辑整理、影印成册，使整个活动效果发挥到最大最优。“一视频”即普法微视频作品征集。连续多年组织“我与宪法”微视频及法治动漫作品征集活动，涌现出一批像《宪法·信仰·传承》《我与宪法的故事》、公安局禁毒宣传片《破冰》、临邑县反家暴微电影《不再沉默》等优秀作品。2021年市司法局创办《100秒法律小课堂》民法典系列节目，在学习强国、海报新闻形成专栏，以MG动画、情景剧等形式解读民法典重要条款，目前已播放32期，累计点击播放量超千万次。法治文化作品丰富多彩，在全社会营造了浓厚的法治氛围。', '一是紧抓“关键群体”，加强青少年普法教育。大力推进法治副校长工作，市教体局、市中院、市检察院、市公安局、市司法局联合出台《关于建立法治副校长联合工作机制的意见》，各县市区开展新一轮“法治副校长”聘任，法治副校长实现全覆盖，切实推进依法治校。落实《青少年法治教育大纲》，抓好教学计划、师资、教材、课时“四落实”，将“道德与法治”课程作为中小学生的必修课，开展有针对性的校园法治教育。创新法治教育授课形式，通过“引进来、走出去”的方式，将单一的法治课堂授课模式转变为多形式、多手段的法治实践教育，以青少年法治教育基地为引领，通过“模拟法庭”“检察官进校园”“宪法晨读”“参观少审室”等项目开展各具特色的普法教育，根据学生年龄、普法需求，订制特色普法课程，有针对性地进行法治宣讲和授课。连续举办六届全市中小学生“学宪法讲宪法”演讲暨知识竞答活动。2020、2021年先后在市实验小学、德州学院以“宪法进校园”为主题启动宪法宣传周，提高全社会对青少年法治教育的关注。强化校园法治教育与心理健康教育、家风家教相结合，切实增强育人实效。目前，全市11个县（市、区）都至少建设一处青少年法治教育基地，法律知识竞赛、法治夏令营、法治手抄报等丰富多彩的普法和法治实践活动日趋常态化。充分发挥长河法苑普法教育主题公园作用，专门设置未成年人权益保护宣传板块，并以“户外法治课”形式专题组织青少年学生进行参观学习。今年以来，全市各中小学开展法治教育专项活动600余场，教育青少年学生40万余人次。', '二是“热”在基层，大力推进法治乡村建设。近年来，我们全面落实普法规划和市人大常委会决议，立足促进农村经济发展和维护社会稳定，加强乡村普法工作。一方面，加强农村“两委”成员法律知识培训和普法考试，健全完善工作机制，引导农村“两委”成员牢固树立社会主义法治理念，使他们成为农民学法尊法守法用法的带头人和农村民主法治建设的实施者。2021年以村“两委”换届为契机，指导有关部门建立村“两委”成员预警研判机制，严格落实村“两委”换届联审制度，加大《选举法》《村民委员会组织法》等宣传力度，进一步提升基层党组织的组织力，通过党组织的法治化发展引领乡村治理的法治化发展。另一方面，部署开展乡村“法治带头人”“法律明白人”以及“农村学法用法示范户”培育工作，切实满足广大群众对法律知识和法律服务的需求，教育引导农村干部群众办事依法、遇事找法、解决问题用法、化解矛盾靠法，着力打造一支农村群众身边的基层法治人才队伍。各县市区普遍建立了工作台账、人员信息库，“法治带头人”“法律明白人”积极参与法治宣传，担任社情民意信息员、政策法规宣传员、矛盾纠纷调解员的角色，及时教育引导群众在法治轨道中化解矛盾纠纷，有效打通法律服务最后一公里，不断提升乡村治理法治化水平。目前，全市共初步培育乡村“法治带头人”4944人，“法律明白人”13699人，覆盖全市4973个村（社区）。县级农业农村部门、司法行政部门联合培养“农村学法用法示范户”1473户。各县市区结合自身实际，制定线上线下相结合的培训方案，分期分批对“法律明白人”进行培训、轮训；利用新媒体建立“法律明白人”法律知识学习群；依托“学习强国”、“灯塔—党建在线”、山东广播电视台乡村频道“山东省乡村振兴普法宣传站”组织开展“法律明白人”法治培训；适时组织“法律明白人”参加学法考法；组织“法律明白人”参观“民主法治示范村（社区）”、法治教育基地，观摩庭审旁听、法律宣讲、现身说法等活动，促进提升“法律明白人”的法治素养和法治实践能力。', '同时，不断深化“法律进乡村（社区）”活动，加大涉农法律法规宣传力度。印发《法律六进明白纸》，为深化“法律进乡村（社区）”活动目标任务的落实提供了有力指导。发挥乡镇司法所、村居法律顾问作用，利用“3·8”妇女节、“3·15”消费者权益保护日、“12·4”国家宪法日等时间节点，通过举办法治讲座、赶法治大集、送法进村入户等形式，大力宣传宪法、土地管理法、农村土地承包法、村民委员会组织法、劳动合同法、农业法、妇女保护“一法一办法”等与农村群众生产生活密切相关的法律法规，提高农民群众对相关法律的知晓率。强化农民工学法用法工作，连续多年组织“尊法守法·携手筑梦”“依法治欠·温情护薪”服务农民工法治宣传行动，及时掌握农民工学法用法需求和依法维权情况，结合关注的热点、难点问题，组织开展送法进企业、进工地等活动。', '经过“一五”至“七五”三十多年的普法历程，全市法治宣传教育工作取得一定成效。但是，与法治德州建设的新任务相比，与人民群众的新期待相比，守法普法工作还存在一定差距。下一步，我们将认真贯彻落实习近平法治思想，立足职能，进一步加强对全市守法普法工作的指导监督，不断完善体制机制；指导全市各级各部门广泛开展法治文化建设，丰富法治文化产品供给；重点向农村基层、向校园青少年倾斜，创新工作举措，确保工作实效。', '首先非常感谢您对我市社会宣传工作的关心和支持！您提出的关于加大基础普法力度，提高全民守法意识的建议已收悉，现答复如下：', '市委宣传部紧紧围绕市委市政府中心工作，认真贯彻中央、省关于普法依法治理工作的重要决策及部署，强化舆论引导，深化开展法制宣传教育，法治宣传工作取得显著成效。', '各级党委（党组）中心学习组都按要求制定了法律法规的学习计划并认真抓好落实，领导干部带头学法、用法，各县市区共开展法律法规理论学习30余次。深入学习宣传党内法规，大力宣传党章、《中国共产党廉洁自律准则》《中国共产党纪律处分条例》等各项党内法规,注重党内法规宣传与国家法律宣传的衔接和协调,坚持纪在法前、纪严于法,把纪律和规矩挺在前面,教育引导广大党员做党章党规党纪和国家法律的自觉尊崇者、模范遵守者、坚定捍卫者。', '在市属媒体重要版面、重要栏目开设专题专栏，深入宣传以宪法为统帅的中国特色社会主义法律体系，刊发稿件1.2万余篇，进一步增强公民的宪法意识和社会主义民主法治观念。注重发挥短信、微信、微博、网络论坛等新兴媒体快捷便利优势，通过以案说法、互动答疑、在线普法等方式，增强覆盖面和影响力。', '开展多种形式的社会宣传，尤其是在广大农村和学校，不断加大整合法制宣传教育资源，充分利用“全国法制宣传日”“三下乡”“法制集中宣传月”等重大活动，发放宣传单3万余份，让法律真正走进老百姓生活；利用城区广场、公园、汽车站、高铁站等公共场所的23块LED大屏播放宣传海报及视频，各大商场、宾馆等门厅130余块滚动字幕播放普法内容，有力地促进了“法治德州”建设。', '（一）深入开展法治宣传教育。结合实施“八五”普法规划,组织开展社会主义核心价值观法治宣传教育主题活动。深入开展宪法宣传教育,组织开展“12·4”国家宪法日宣传活动,落实国家工作人员宪法宣誓制度。推动法律进机关、进乡村、进社区、进学校、进企业、进单位,在全社会形成办事依法、遇事找法、解决问题用法、化解矛盾靠法的法治环境。坚持从青少年抓起,加强青少年法治教育实践基地建设,开展形式多样的青少年法治教育社会实践活动,使青少年从小树立宪法意识、国家意识和法治观念。', '（二）健全普法宣传教育机制。认真落实国家机关“谁执法谁普法”的普法责任制,健全大普法工作格局。把法治教育纳入文明城市、文明单位等创建活动,强化基层党组织开展法治宣传教育职责,广泛开展普法益民和公益广告宣传活动。制定德州市法治宣传教育条例,为全市法治宣传教育工作深入开展提供法制保障。', '(三)增强法治的道德底蕴。深入实施“四德工程”,大力弘扬爱国主义、集体主义、社会主义思想,以道德滋养法治精神。深化社会主义核心价值观学习教育实践，深化群众性精神文明创建活动,广泛开展德州时代相模、道德模范、德州最美人物和德州好人等学习宣传活动,积极倡导美德善行。发挥德州文化资源丰富的优势,积极构建道德文化高地,厚植法治的道德根基。', '(四)大力推进法治文化建设。坚持以法治文化引领法治实践,深入挖掘德州优秀传统文化的法治元素,发挥法治文化涵育社会主义核心价值观的积极作用。实施法治文化阵地拓展工程、法治文化精品创作工程、法治文化品牌创建工程、法治文化活动惠民工程、法治文化媒体传播工程、法治文化理论创新工程“六大工程”。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>141</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>关于加强小散乱污企业深度治理的提案</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n72880799/c72899199/content.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['2021年山东省工作动员大会指出，要实现“七个走在前列"和"九个强省突破”的奋斗目标，总抓手是新旧动能转换，要落实”三个坚决"行动方案，聚焦钢铁、水泥等七个重点行业，坚持“三去一降一补”，腾出更多能耗空间和环境容量，更好地保障民生刚需和新动能发展。', '《德州市“十四五”生态环境保护规划》中指出，“绿色低碳发展亟需进一步破题。结构性污染问题依然存在，企业规模小，相当数量企业处于产业链的中低端，不利于经济的绿色高质量发展”。目前阶段，我市产业结构仍以传统产业为主，资源环境代价偏高，安全生产事故多发，可持续发展受到严峻挑战，高耗能、高污染企业亟需有效管控。', '为加快实现我市绿色高质量发展和生态环境高水平保护，建议以“双碳”排放指标为抓手，推动形成有利于节约资源和保护环境的新格局、新结构。', '一是全面排查摸底，分类建立整治台账。根据责任片区，对“小散乱污”企业进行全面排查，彻底摸清底数，特别是手续不全、规模小、工艺差、环保设施不全、违法违规经营污染排放严重的小企业、小作坊，分类建立整治台账(包括关停取缔清单、限期搬迁清单、停产整治清单)并实时更新，确定整治措施、整治时限、责任单位。', '二是加快产业结构调整，淘汰落后低效和过剩产能。鼓励传统产业改造提升，推广先进适用、绿色工艺技术，促进传统产业安全、绿色、高效发展和智能化升级。严格落实《产业结构调整指导目录》，制定年度落后产能淘汰计划，明确淘汰设备名单和时间进度要求，加强常态化执法和强制性标准实施。', '三是严格环境准入。根据国家（供给侧改革，去产能、去杠杆、去库存）、山东省（新旧动能转换）、德州市（化解过剩产能）等相关政策，严格落实产能、能耗、煤炭、碳排放和污染物排放减量“五个减量”替代，对不符合政策精神的新增项目予以关停。', '四是加快“亩产效益”评价制度实施。建立切实可行的企业分类评价机制，对不同类别企业制定实施差别化的价格、用地、用能、排放、产能利用、信贷等政策，推动资源要素向高产区域、高端产业、优质企业集聚，倒逼低端低质低效企业加快转型升级。', '十三五以来，市工信局认真贯彻落实国家、省退出落后产能政策，健全淘汰落后产能工作机制，严格常态化排查和强制性标准实施，依法依规推进落后产能退出。', '一是制定出台全市推动落后产能退出工作实施方案。2018年10月，为加快推进产业结构调整，促进全市工业实现高质量发展，市工信局代市政府拟定了《德州市利用综合标准依法依规推动落后产能退出实施方案》，以德政办字〔2018〕92号印发。明确了各级政府、各职能部门开展淘汰落后产能工作的职能职责，建立了各部门之间的分工合作机制，明确了工作目标、工作任务和工作措施。', '二是常态化开展落后产能排查行动。依据《产业结构调整指导目录》等政策规定，每年市工信局均督导各县（市、区），对辖区内重点行业企业进行落后产能摸底排查，发现问题列出清单，制定年度工作计划，加强部门联动，综合运用环保、安全、质量等标准倒逼落后产能退出，没有落后产能的县（市、区）也提报了情况说明。畅通举报渠道，持续加强监管，严格按照时序进度推进落后产能淘汰退出，防止死灰复燃。', '三是狠抓落实，严格执行淘汰落后工作新标准。《产业结构调整指导目录（2019年本）》公布施行后，市工信局将新旧两版《目录》进行核对，对限制类和淘汰类修订和增减内容，按照行业、条目顺序，逐一列出，形成书面比对材料作为参考，转发各县（市、区），全面细致开展新一轮落后产能退出排查工作，突出重点、严格排查、协调联动、强化监督，推动落后产能依法依规关停退出。', '四是推进砖瓦轮窑产能退出，助力打赢蓝天保卫战。2020年，通过排查反馈，发现部分企业存在使用明令淘汰的砖瓦轮窑的情况，市工信局联合市生态环境局开展联合调研，宣贯《目录》新要求，指导督促砖瓦窑企业加快转型。经多次与市生态环境局协商研究，制定了《关于推动全市砖瓦轮窑产能退出的实施意见》，明确任务目标、时间节点、工作措施和职责分工。加大工作力度，对三县市砖瓦轮窑退出情况定期进行调度和督导，于2020年底完成全部17座砖瓦轮窑淘汰任务目标。', '2017年以来，市工信局认真贯彻落实国家、省退出落后产能政策，健全淘汰落后产能工作机制，严格常态化排查和强制性标准实施，依法依规推进落后产能退出。一是制定出台全市推动落后产能退出工作实施方案，建立了各部门之间的分工合作机制，明确了工作目标、工作任务和工作措施。二是常态化开展落后产能排查行动，依据《产业结构调整指导目录》等政策规定，每年市工信局均督导各县（市、区），对辖区内重点行业企业进行落后产能摸底排查，发现问题列出清单，制定年度工作计划。三是狠抓落实，严格执行淘汰落后工作新标准，新公布的《产业结构调整指导目录（2019年本）》施行后，市工信局组织开展新一轮落后产能退出排查工作，突出重点、严格排查、协调联动、强化监督，推进砖瓦轮窑产能退出，于2020年底完成我市全部17座砖瓦轮窑淘汰任务目标。', '今年，为进一步落实山东省“三个坚决”工作部署和市新一轮“四减四增”方案要求，依法依规推动我市落后产能关停退出，根据省工信厅等6部门《关于印发〈2022年山东省利用综合标准依法依规推动落后产能退出工作方案〉的通知》（鲁工信产〔2022〕124号）文件精神，联合市发改委、市生态环境局5等部门制定《2022年德州市利用综合标准依法依规推动落后产能退出工作方案》，在省文件基础上，根据我市实际，提出具体工作要求。', '下一步，市工信局将继续严格执行政策法规和综合标准体系，对照《产业结构调整指导目录（2019年本）》等产业政策规定，依法依规关停退出落后产能，并及时在市政府和市工信局网站公告淘汰落后产能政策和淘汰落后产能企业、工艺设备名单、淘汰时间，接受社会监督。同时，积极推动形成长效工作机制，同市政府有关部门，加强淘汰落后产能工作协同交流，确保淘汰落后产能工作有序推进。', '“亩产效益”评价改革是省委、省政府部署的重要改革事项，市委、市政府高度重视，进一步健全工作机制、完善工作方案、深化部门协同，切实抓好数据采集、综合评价、差别化政策落实等工作。', '一是“走出去，请进来”，对标对表学先进，推动工作见实效。2021年，由市工信局主要负责同志带队，市县工信系统组成学习考察组，赴“亩产效益”评价改革的发源地-浙江省绍兴市专程学习先进经验做法。邀请省厅领导，对全市“亩产效益”评价改革工作的具体负责人员进行业务培训，面对面请教有关问题，提升业务水平。', '三是倒排工期，挂图作战，严格按照时间节点完成评价工作。市政府高度重视，多次召开全市推进会议，逐项厘清市直有关部门和县（市、区）责任分工和时间完成节点，制定《“亩产效益”评价改革工作任务分工配档表》，各职能部门对标对表开展工作，严格按照时间节点高质量完成评价工作。', '四是制定“1个图谱+3张清单”，为企业精准画像。“1张图谱”是指绘制企业发展图谱，将评选出来的规上、规下ABCD类企业标注不同颜色，让企业一目了然在区域内的发展位置。A类为绿色、B类为蓝色、C类为黄色、D类红色，“3张清单”即D类企业名单、低效用地清单、烂尾工程闲置厂房清单，并制定相应的推进措施。', '五是出台1个政策支撑，打好奖惩“组合拳”。深化评价结果运用，坚持“亩产论英雄”导向，科学调整资源要素配置，研究出台《德州市关于“亩产效益”评价改革资源要素差别化配置政策的指导意见》，加大A类企业激励力度，倒逼D类企业提升资源要素利用效率或腾笼换鸟，引导社会资源向优势高效领域集中。', '六是加强对“亩产效益”评价工作的宣传。为确保企业“应知尽知”、“应评尽评”，营造浓厚的工作氛围，充分利用电视台、报纸等媒体，适时进行宣传。另外，印发《2021年“亩产效益”评价改革工作明白纸》；制作企业喜闻乐见的短视频，在微信公众号、视频号广泛宣传，真正让”亩产效益“评价工作家喻户晓。', '今年，按照省十二部门联合下发的通知要求，我市工业企业“亩产效益”评价工作正在有序推进。一是联合市发改委、市财政局等11个部门印发通知，安排部署我市2022年亩产效益评价改革工作。二是指导县市区梳理拟采集数据企业名单，全市共梳理规上工业企业1685家，占地3亩以上的规下工业企业3322家，报省工信厅。税收实际贡献、销售收入、研发经费支出等三项数据已由省工信厅商省税务局提供，并于6月21日反馈至各县市区。三是协调各有关部门结合职责分工，提出资源要素差别化配置条款。截至6月底，10个县市区已完成数据采集工作。', '下一步，市工信局将严格按照时间节点，确保完成各项任务目标。指导各县市区做好数据核实、综合评价工作，及时做好分析。指导各县市区科学运用评价结果，加大龙头骨干企业扶持力度，引导各类资源要素向优质企业倾斜，加快低效用地和闲置厂房再开发利用，落实好差别化配置政策，推动工业经济高质量发展。', '一是查处“散乱污”企业首先是摸清底数建立台账，实行台账式管理。其次是分门别类避免出现“一刀切”。对“散乱污”企业实行分类指导，采取综合整治。对符合产业政策土地规划手续齐全的企业，补办环评、安评等手续，完善污染防治设施进行整治提升。符合入园条件的搬迁入园；对不符合产业政策规划，且污染严重，污染物不能达标排放的，坚决依法关停取缔。二是压实属地责任，明确当地政府是取缔“散乱污”企业的责任主体，环保、公安、市场监管、电力等部门各司其职，密切配合，推动工作落实。', '随着执法力度的加大，2019年至今“散乱污”企业呈明显下降趋势。今后，我局将继续加大对“散乱污”企业的查处打击力度，强化舆论宣传，实行举报奖励，进一步加强政府及相关部门的配合，形成合力。对“散乱污”企业以零容忍的态度，发现一处取缔一处，实现动态清零。', '谨此回复。感谢您对德州市生态环境工作的关心和支持，欢迎您继续提出好的建议和意见，以便我们今后工作的改进和提高。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>141</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>关于帮扶救助农村低收入困难人口灵活就业的提案</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-07-03</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n72880799/c72919414/content.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['为深入贯彻落实中央、省市关于巩固脱贫攻坚成果与乡村振兴有效衔接，推进共同富裕的部署要求，按照“十四五”期间，确保低收入者人均可支配收入增速高于全市农村人口平均水平的要求，应聚焦群众“需求侧”，促进低收入者物质精神共同富裕，获得更多安全感、获得感、幸福感，和全国人民一起实现“共同富裕”。', '农村低收入人口是一个特殊群体，如何激发这类群体内生动力，提升自我发展能力是实现共同富裕的关键性措施。目前，我市存在农村劳动力就业扶持管理分散，分属不同部门，缺乏合力以及部分就业扶持政策得不到落实、保险政策缺位等问题。必须处理好外部帮扶与自身努力的关系，充分调动帮扶对象的主动性、积极性和创造性，激发低收入者的内生动力，增强自我发展能力，立足自身实现增收致富。建议：', '一是坚持党委领导，构建大帮扶格局。充分发挥党委总揽全局、协调各方的领导核心作用，强化政府责任，引领市场、社会协同发力，形成专项帮扶、行业帮扶、社会帮扶互为补充的大帮扶格局。各责任单位要细化落实措施，加强对农村低收入人口常态化帮扶工作的统筹、协调、督促和指导，确保低收入人口摸底排查、监测预警和救助帮扶工作取得实效，形成共同推进的强大合力。', '二是激发困难群众内生动力，创新推进发展型救助。以教育引导、劳动参与和社会联动为手段、更多利用社会力量实施帮扶，帮助困难群众提高内生发展能力，有效防止返贫致贫。增加现有农村公益性岗位数量，增设一批新型乡村公益专岗，优先安置符合条件的低收入者特别是其中的弱劳力、半劳力。发展就业帮扶车间等就业载体，扶持低收入者采取灵活渠道就业。聘请有劳动意愿和劳动能力的困难群体，就地就近帮助“老弱病残幼孤”等特困群体。', '三是加强就业扶持政策。综合发挥财政、保险支持作用，为低收入者发展解除后顾之忧。发挥政府投入在低收入者帮扶工作中的主导作用，确保财政资金投入力度与低收入者帮扶任务相适应。各级财政安排资金重点扶持低收入者产业发展项目。各项惠民政策，要最大限度向低收入者倾斜，同时整合目标相近、方向类同的涉农资金，提高使用效益。', '四是开展金融创新，加大保险政策支持。鼓励各银行业金融机构对有贷款需求的低收入者出台金融政策，开发金融产品，提供金融服务，引导低收入者从事加工、种植、养殖等产业。鼓励各保险公司对低收入者开发防贫保等创新型保险产品，借助保险手段提供风险保障和实施经济补偿。', '五是建立“技能培训+互助公益性”岗位开发相结合的体系。低收入人群的整体就业能力较弱，缺少学历、技能、机会等，应建立公益性技能培训提高专业技能，互助性公益性岗位开发提高就业能力的模式。按照互助性公益性岗位开发，开展低收入人员的技能培训力度，建立“技能培训+互助公益性”模式。', '六是强化宣传教育，培树先进典型。突出正向激励，弘扬自力更生、艰苦奋斗的优良传统，鼓励其通过勤奋劳动实现增收致富。全面宣传农村低收入帮扶工作取得的成就，生动报道精准帮扶的丰富实践，培树一批低收入者勤劳致富的先进典型，对在低收入者帮扶工作中作出突出贡献的组织和个人给予表扬奖励。', '就业是民生之本，发展之基。让农村低收入困难群众有活干、有收入，是巩固脱贫攻坚成果、实现共同富裕的题中要义。去年以来，我市围绕破解农村低收入群体就业难题，在全省率先开展扩大农村劳动力就业集成改革试点，在公益性岗位扩容提质、技能型劳动力培育、农村大龄劳动力信贷保险支持等多方面开展积极探索，推动政府扶持与市场运作相结合，公益性保障与灵活就业相结合，促进就业与维护权益相结合，今年全市新增扩大劳动力就业帮扶项目672个，累计投入资金60余亿元，市外务工农村劳动力回流现象明显，带动本地就业或灵活就业30余万人，让更多农民群众在家门口端上“薪”饭碗，有关做法得到省委、省政府主要领导批示肯定。', '一、统筹顶层设计，构建农村大就业格局。充分发挥党委统筹作用，成立由市委市政府主要负责人任组长、29个相关部门组成的德州市扩大农村劳动力就业集成改革领导小组，全面协同推进相关工作。市委常委会审议通过了《开展扩大农村劳动力就业集成改革试点方案》《城乡公益性岗位扩容提质实施方案》以及15个配套方案，形成“1+1+N”系列工作方案，推出公岗扩容提质、技能培训、镇级聚集吸纳就业、基层就业服务体系等24项改革举措，召开市委农村工作会议、全市重点改革推进会议、全市稳就业工作会议等进行安排部署，构建起“党委统筹协调、政府服务兜底、市场主导引导、群众自主自愿”的农村大就业格局。', '二、强化兜底保障，推进城乡公岗扩容提质。把公岗扩容提质作为扩大农村劳动力就业、助力乡村振兴、实现共同富裕的重要抓手，尊重基层需求和群众期盼，因地制宜设立防疫员、护林员、快递代办员等“五大类”30余种特色岗位。截至8月底，全市已开发城乡公岗31626个，完成年度计划的125%，已上岗人员28140人，完成111.23%，争取上级补助资金1.05亿元，乡村公岗月人均补贴达到545.3元，初步形成以大龄剩余劳动力为主体，覆盖“贫”“弱”“残”、城镇“零就业”等各类帮扶对象的安置格局，在安置一大批农村弱劳动力就近就业的同时，在疫情防控、乡村振兴、基层社会治理等方面也发挥了重要作用，先后被《光明日报》《农民日报》《大众日报》等宣传报道，烟台、临沂等多地来我市考察学习，有关经验做法得到李干杰等省领导批示肯定。', '三、整合培训资源，优化提升职业技能。整合汇聚培训资金，统一编制培训计划，实现“一张网上收、一个口对下”。一是紧密贴合农村劳动力培训需求。组织开展农村技能培训需求摸底调查，根据低收入困难人员培训需求，调整增加育婴员、生活照料员、农机维修等相关工种技能培训。全面加强城乡公益性岗位岗前技能培训，实现岗前培训全覆盖。二是加大电子职业培训券推广力度。依托电子社保卡发放电子培训凭证，创新设置“通用券”和“定向券”，“学什么、在哪学”让群众在手机上像“点菜单”一样选择，变“培训找人”为“人选培训”，前8月共发放电子培训券3.47万张，完成农村劳动力补贴性职业技能培训3.1万人次，有力提升了农村劳动力技能水平。三是探索“农民工免费上大学”新路径。确定德州职业技术学院和县（市、区）电大教学点开设提升农民工就业能力专业课，今年招收260名农民工免费上大学，10月份正式入学，三年内帮助1000名农民工实现“大学梦”。', '四、创新金融扶持，加大配套保障力度。一是深化农村低收入人群金融帮扶。落实对脱贫享受政策以及即时帮扶人群继续给予免担保免抵押、财政贴息的脱贫小额信贷支持政策。对脱贫人口实行名单制管理，加大政策宣传和走访对接，积极满足脱贫人口信贷需求，努力实现“应贷尽贷”。截至8月底，全市银行机构累计发放扶贫贷款10.4亿元，带动帮扶全市1446户脱贫人口生产就业。二是创新产品满足农村低收入群体融资需求。优化“三农”金融服务体制机制，积极开展银担“总对总”批量担保、“鲁担惠农贷”“强村贷”“农业保险贷”等政策性惠农信贷，今年累计发放“鲁担惠农贷”“强村贷”等12.3亿元，带动农民创收就业。三是优化保险服务保障水平。加大低收入群体人身保险保障，指导保险公司深入挖掘农村低收入群体的保障需求，探索政府兜底为主体、市场参与为补充的帮扶模式。全市31家保险公司推出适合农村劳动力就业的保险产品，如国寿财险2022年3月起将雇主及团体意外险年龄放宽至16-80岁。持续推动银龄安康工程，积极为60岁以上的老年人提供因意外导致的伤残身故及意外医疗保险保障，有效扩大农村人员意外伤害保险覆盖面。', '五、做强就业服务体系，提升服务供给能力。大力推动就业服务向农村延伸，打通服务农民“最后一公里”。一是做强三级服务体系。在市县，强化就业机构职能设置和人员配备，通过公开招聘、青年人才引进、服务专员等形式，壮大服务力量。在乡镇，建立134个乡镇就业创业服务中心。在村级，组建4180个村（社区）就业服务站，招募5920名就业信息员，把岗位推荐、需求收集等服务送到群众家门口，加快破解基层人员少、载体弱的难题，直接促成2.7万人就业。二是优化信息化服务。开发智慧劳务平台，建设“灵零发”“薪百灵”等线上零工市场，建立动态更新的人力资源供求数据库，先后汇集210万条劳动力信息，促成16.2万人次“人岗对接”。调动市场化机构积极性，发布人力资源服务机构“促就业奖”“服务乡村振兴奖”招募令，最高给予20万元奖补，线上线下齐发力，共同帮助农民工找活。三是加强宣传引导。突出正向激励，加大农村劳动力就业宣传推介力度，4月份连续召开三场“德州市开展扩大农村劳动力就业集成改革试点”新闻发布会，对相关工作进行宣传解读。充分利用新媒体、报纸、电视等各类渠道，深入挖掘农村就业领域典型案例，先后在国家、省市级媒体等刊发报道220余篇，如《山东德州：公益岗助力农民增收》被《光明日报》专题报道、《深挖“蓄水池”、集成“新动能”--山东德州深入推进农村劳动力就近就地转移就业》被《中国劳动保障报》专题报道等。6月份，组织开展德州市第二届“十大返乡创业之星”选树活动，营造支持创业带动就业、助力乡村振兴的浓厚氛围。', '尽管在促进农村低收入困难人口就业方面推出了一系列举措并取得一定成效，但受新冠疫情和经济增速放缓等多重因素影响，农村劳动力就业将持续承压，要构建有力有效的城乡统筹就业制度体系，还有不少短板要补，还有大量工作要做。下一步，我们将根据贵委提出的意见建议，坚决扛牢推进乡村振兴、促进共同富裕的重大政治任务，在更大范围、更高层次、更深领域上强力推进扩大农村劳动力就业集成改革工作，不断健全完善基层就业服务体系，优化企业用工供需对接，提高政府补贴性技能培训效果，加大各项惠农政策落实力度，强化困难群众发展型救助、技能培训与公岗开发融合发展等方面的研究创新，以更大的力度稳定农村困难群体就业，为探索共同富裕有效路径贡献德州力量。', '宋伟委员提出的关于帮扶救助农村低收入困难人口灵活就业的提案收悉，现结合德州银保监分局监管职责，对其中关于“开展金融创新，加大银行保险政策支持”的建议答复意见函告如下：', '一是持续深化对农村低收入困难人口的金融帮扶。为深入贯彻落实党中央、国务院关于巩固拓展脱贫攻坚成果同乡村振兴有效衔接的决策部署，2021年银保监会、财政部、中国人民银行、国家乡村振兴局等四部委联合出台《关于深入扎实做好过渡期脱贫小额信贷工作的通知》（银保监发〔2021〕6号），对脱贫享受政策以及即时帮扶人群继续给予免担保免抵押、财政贴息的脱贫小额信贷支持。德州银保监分局与市乡村振兴局（原扶贫办）印发《关于做好过渡期脱贫小额信贷工作的通知》（德银保监发〔2021〕10号），建立银行包干服务对接机制，要求机构严格落实过渡期内“四个不摘”工作要求，保持现有帮扶政策、支持力度总体稳定。在分局督促指导下，我市银行机构主动对接地方主管部门，对脱贫人口实行名单制管理，加大政策宣传和走访对接，积极满足脱贫人口信贷需求，努力实现“应贷尽贷”。截至2022年8月末，全市银行机构累计发放扶贫贷款10.4亿元，带动帮扶全市1446户贫困户生产就业。', '二是创新产品服务满足农村低收入群体融资需求。指导银行机构完善优化“三农”金融服务体制机制，立足我市农业产业特色及涉农经营主体发展特点，创新融资模式，研发具有针对性、特色化的信贷产品。我市银行机构积极开展银担“总对总”批量担保、“鲁担惠农贷”“强村贷”“农业保险贷”等政策性惠农信贷业务，利用财政贴息、保费补贴、担保增信等方式，满足有贷款需求的农村低收入群体资金需求，降低信贷融资成本。丰富涉农主体融资渠道，我市建设银行、人保财险、中华联合保险创新“裕农快贷+保险”业务模式，以农业保险保单增信方式为种植农户提供免抵押无担保、线上支用、随借随还的经营贷款。今年以来，已为2758 户农户办理授信3.5亿元，贷款发放1.97亿元。指导农商行建立和完善适合农村劳动力就业创业特点的评级和授信制度，积极推进信用村、信用户评定和整村授信工作，大力开展农村小额信用贷款业务。截至2022年8月末，我市农商行已累计完成“整村授信”村庄6396个、授信农户30.99万户、授信金额347.73亿元，为11.48万户农户发放贷款198.93亿元。', '三是优化保险服务提升保险保障水平。加大低收入群体人身保险保障，指导我市人身保险公司深入挖掘社会大救助群体的保障需求，探索政府兜底为主体、市场参与为补充的社会救助模式，为社会救助群体植入商业保险，实现有效防贫，避免返贫。如，中国人寿德州分公司联合夏津县政府率先开展了“大爱同行”慈善救助项目暨“特困人员医疗保险全额兜底项目”，目前已投保3756人，每年提供风险保障7.69亿元。另外，我市12家保险机构联合市医保局推出“德州惠民保”城市定制型医疗保险，有效解决居民重特大疾病的大额医疗费用难点和痛点，降低“因病返贫、因病致贫”风险。自2022年1月1 日承保日起，我市保险机构已累计理赔871人，赔付金额1379.17万元。针对农民生产种植风险，分局积极推动落实主要粮食作物完全成本保险政策，保障金额较传统物化保险增加500元，更大程度保障农民种粮收益。今年，我市小麦完全成本保险实现11个县（市、区）全覆盖，承保面积675.67万亩，承保覆盖率86.26%；玉米完全成本保险承保覆盖率86.69%，为近640万亩玉米提供风险保障60亿元。', '除此之外，德州银保监分局坚持扶贫、扶智、扶志相结合，连续5年派出“第一书记”驻村帮扶，提升基层党组织战斗力、凝聚力，带动乡村共同致富。整体来看，虽然我市银行保险机构在服务农业农村方面做了大量工作，农民可支配收入不断增加，但与当前人民群众对美好生活的期盼相比还存在差距，巩固拓展脱贫攻坚成果同乡村振兴有效衔接将是一项长期性工作。下一步，德州银保监分局将持续完善金融帮扶的长效机制，指导银行保险机构精准聚焦农村低收入困难群体金融需求，加大信贷产品创新，不断优化保险保障，促进低收入群体获得更多安全感、获得感、幸福感，和全国人民一起实现“共同富裕”。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>141</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>第号关于进一步扶持实体经济稳定健康发展的建议</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72337320/content.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['实体经济是国民经济的基石和命脉。近年来，各级政府围绕促进实体经济持续健康发展做了许多卓有成效的工作。但是从目前来说，经济下行压力仍然较大，不确定因素较多，实体经济的发展依然面临着不少的困难。为此，就进一步扶持实体经济稳定健康发展提出以下建议：', '一、继续优化营商环境，围绕产业培育、企业发展、项目建设等重点，推出政策包，全面提升服务效能。对标学习先进，进一步细化工作措施，推动营商环境持续优化提升。加强政策宣传推广，不断提高企业知晓率，努力做到惠企政策精准推送、直接享受，让政策红利不断释放。', '二、强化金融输血功能，充分掌握市场主体金融需求，深化政银企合作成效，鼓励金融机构支持扩大小微企业信用贷款、动产抵押贷款、知识产权质押贷款等，推动融资成本进一步降低。大力发展多层次资本市场，鼓励更多的企业进行股权融资。同时，要将服务实体经济与防范化解金融风险相结合，实现金融和实体经济的良性循环。', '三、推动传统产业创新发展，充分发挥各类创新平台载体对传统产业转型升级的支撑作用，承载传统产业升级所需的创新要素。加强各产业的典型创新平台建设，激发市场主体活力，推动传统产业通过创新平台集聚，建立健全有利于科技成果产业化的服务体系。着力搭建传统产业转型升级的公共服务平台，提供传统产业转型升级所需的技术、信息、人才、培训等优质公共服务。', '市发展改革委与市政府办公室自2020年开始“双牵头”共同负责全市优化营商环境推动工作。2021年4月份，德州市“政策通”平台上线，通过搭建“文件库、政策库、事项库、企业库、自然人库、信用库”6个数据库，形成资源库体系，现已收录国家、省、市、县四级出台的872个文件、2802项政策，按照制造业、金融业等20个国民行业和产业扶持、六稳六保等14个专业智能化、条目化分类，为用户提供“政策全量查询，应用智慧检索”服务。', '2022年为进一步推动优化营商环境工作，市营转办结合《山东省人民政府办公厅关于印发“十大创新”“十强产业”“十大扩需求”2022年行动计划的通知》（鲁政办字〔2022〕28号）中“营商环境创新2022年行动计划”任务要求，《&lt;德州市优化营商环境十条措施&gt;任务分工方案》和《德州市2022年营商环境创新提升工作方案》部署的改革任务，将239项营商环境改革任务建立工作台账，逐一明确任务完成时间节点、责任部门（单位）等，实行一本台账监测、动态调整清单、任务销号管理、定期调度督办。同时，为深入了解任务进展情况，抓好改革举措落实，市营转办分组开展实地督导，5月以“四不两直”形式，深入市财政局、市市场监管局等工作任务较多的市直部门，查看资料、现场座谈，掌握改革任务进展，收集部门意见建议等。', '衷心感谢您对我市营商环境建设工作的关注和支持，我们将继续努力，久久为功，立足自身职能，为营商环境优化提供助力，也请您持续关注我市营商环境建设，对我们的工作提出宝贵的意见建议。', '一、加强对民营经济的组织领导。2021年，我市成立了以市政府主要领导为组长，市委副书记、有关副市长为副组长，市直有关部门为成员的市促进非公有制经济发展领导小组，领导小组下设办公室，办公室设在市工业和信息化局，由分管副市长为办公室主任、市工信局局长为办公室常务副主任。统筹指导各级、各部门促进非公有制经济和中小企业发展任务落实，协调解决非公有制经济和中小企业发展工作中的重大问题。', '二、开展中小微企业问卷调查。为全面了解我市中小微企业在发展过程中存在的困难和问题，进一步加大改革创新力度，降低市场运行成本，努力打造“四最”（政策最优、成本最低、服务最好、办事最快）企业发展环境，4月20日，按照市委主要负责同志要求，市工业和信息化局开展了中小微企业发展环境问卷调查。', '三、加大政策支持力度。加强国家、省、市中小企业惠企政策宣传，特别是国务院“1+2”政策的宣贯。制定《德州市民营经济高质量发展三年行动计划》2022年度任务清单，将《行动计划》所涉及工作任务分解到县市区和市直有关部门。积极争取国家、省“专精特新”中小企业支持政策，落实市级财政奖补措施，加大对中小企业支持力度。', '四、加强企业家培训。以德州市现代产业商学院为依托，借助国内知名高校和第三方机构资源优势，计划围绕提升企业家综合素质、提高企业管理水平、帮助企业开拓市场3大板块，采用线上与线下相穿插，集中培训和对标游学相结合方式，深入开展企业家培训，全年计划举办线下培训6-7期、线上培训9-10期，力争培训企业突破500家次、人员1000人次。', '五、大力开展融资服务。发挥国家产融合作试点城市试点示范作用，扩大“主办行+中期流动资金贷款”覆盖面。加强应急转贷服务，引导空白县应急转贷机构到省基金备案。积极运用中央财政降费奖补资金鼓励支持担保机构服务中小微企业。实施“专精特新”中小企业上市培育工程，提高企业资本市场融资能力。', '六、完善“首席政府服务官（CGO）”服务机制。推动工信系统市县两级首席政府服务官（CGO）联动机制建设，在县级领域成立CGO工作管理专班，并派驻业务骨干作为CGO服务企业，扩大CGO队伍规模、服务企业覆盖面。完善7198“企业有话说”诉求平台和线上CGO服务体系，加强产业集群（产业联盟）CGO建设，构建“线上线下”双轮驱动、全闭环服务体系。推动稳工业开门红、开展CGO“企业行”活动，通过面对面沟通、点对点施策的方式推动企业对市委、市政府的惠企政策直达和落地实施。开展灵活多样的对接服务活动，通过构建亲清政商关系，使首席政府服务官（CGO）工作走在全国前列。', '一是建强创新平台载体。加快推进齐鲁工业大学（省科学院）德州研究院、科技成果转化（中试）基地、齐鲁工业大学（省科学院）国家大学科技园建设。积极推动山东省新型纱线及面料制造业创新中心、山东省体育产业制造业创新中心建设。组织企业、院校积极参加第四届“省长杯”工业设计大赛，加强企业工业设计中心建设，谋划开展首批市级工业设计中心认定工作，新认定市级工业设计中心20家以上，争取认定省级工业设计中心4家以上。二是推动关键技术攻关突破。征集重点领域企业攻关需求，组织实施两批次技术创新项目，全年争取达到100项以上。三是发挥标杆示范引领作用。加强研发平台和示范企业建设，争取新认定“一企一技术”研发中心20家，新培育省级以上技术创新示范企业、质量标杆5家。四是强化高层次人才引育。支持企业全职引进能够突破“卡脖子”问题的高水平人才，组织实施新一期泰山产业领军人才工程，认真落实重点产业链尖端技术人才奖励《办法》，争取海外高层次人才引进“零”的突破。深化运用评选表彰优秀企业家成果，大力弘扬企业家精神。组织开展新一轮公共实训基地申报，今年力争1-2家企业或高校获批。', '根据您的建议，我们将进一步完善政策扶持，优化营商环境，常态化开展民营企业帮扶工作，在全市工业和信息化系统积极开展“以企业为中心，精准服务企业”活动，把国家政策与德州市情进行“对接”，用好、用足、用活各类政策，破解我市民营经济发展面临的难题，全力解决企业存在的问题，促进民营经济健康、高效发展。', '近年来，市地方金融监管局围绕推动产业发展、优化营商环境等方面，创新工作举措，不断增强金融服务实体经济能力，破解实体企业融资瓶颈，助力社会经济高质量发展。主要工作有：', '一、搭建银企对接平台。一是召开智慧金融综合服务平台专题座谈会，研究平台提升工作措施。持续优化智慧金融综合服务平台服务功能，在宁津县启动开展智慧金融综合服务平台县域宣传推广活动，积极推进企业注册入驻平台并发布融资需求。推动智慧金融综合服务平台与省金融辅导系统实现互联互动，梳理各银行机构特色信贷产品在智慧金融综合服务平台展示推广，扩大金融产品知晓度。截至4月末，平台已入驻金融机构47家，发布金融产品和服务124项，累计完成企业融资服务22.5亿。平台与农商行创新推出纯线上信贷产品—“慧德e贷”，实现“扫码即贷”，累计办理授信服务95619笔、金额60.6亿元，在途授信业务27387笔、16.46亿元。二是加强线下银企对接力度。会同市发改委，摸排全市省级、市级重点、重大项目融资需求，2022年2月，召开全市重点项目融资对接会，推介包含中德（济南大学）工业设计创新园、中科院（鲁北）科教融合园等产业园建设项目。会后，落实重点项目融资对接调度机制，截至4月末，新增授信21.58亿元，已投放到位11.66亿元，发挥重大项目带动作用。', '二、金融服务传统产业转型升级。为推动传统产业转型升级，2022年2月，市地方金融监管局会同市工信局调度摸排2022年市级工业技改项目企业融资需求，组织市内银行机构开展对接活动，截至4月末，新增授信13.03亿元，新增投放贷款9.33亿元。2022年3月，市地方金融监管局会同市人行、德州银保监分局出台《关于金融赋能“专精特新”中小企业专项行动的指导意见》（德银发〔2022〕31号），建立定期调度机制，截至4月末，“专精特新”企业新增授信9.28亿元，投放贷款7.45亿元，“小升规”企业新增授信9.15亿元，投放贷款6.85亿元。', '三、大力发展资本市场。抢抓资本市场改革机遇，组织实施上市公司数量和市值双翻番行动，建立企业上市全周期全链条服务机制，强化政策扶持，加强培训宣传，精准服务指导，全力推动企业上市挂牌。今年以来，德石股份举行创业板上市首发仪式，3家企业挂牌（3家待出函）、9家企业启动挂牌程序。一是落实扶持政策。2020年，市政府在全省率先出台《关于推进全市区域性股权市场创新发展的意见》，鼓励小微企业在四板挂牌。各项扶持政策及时落实，近年来市政府累计兑现上市挂牌补助5040万元。二是完善上市后备资源库。深挖上市“潜力股”，建立全市上市挂牌后备资源库，实行动态管理。全面摸排“专精特新”企业情况，将142家企业纳入市级上市后备资源库，其中43家为近三年重点培育对象，北交所上市资源24家。三是加大企业上市指导服务力度。制定企业上市全链条服务机制， 采取召开协调会、现场办公、实行“一事一议”、开辟“绿色通道”等方式解决企业上市过程中遇到的困难和问题。组织证券公司走访上市资源，为企业出谋划策。邀请省地方金融监管局、证监局领导、交易所专家到企业指导，为企业上市把脉问诊。四是持续推进企业挂牌。细化挂牌任务，组织齐鲁股权交易中心开展县域资本市场培训指导活动，引导小微企业挂牌规范。五是发展股权融资。鼓励上市公司和新三板企业用好再融资工具，推动拟上市企业对接引进股权投资机构，构建多元化的直接融资体系。德石股份在创业板上市首发融资5.88亿元，成功帮助长信化学、鸿泰鼎引进股权投资资金6.3亿元。另通裕重工15亿元上市公司可转债通过证券交易所审核待注册发行。', '五、持续优化营商环境。一是做好获得信贷工作。实施制造业普惠小微贷款贴息补助，对新增普惠型小微企业贷款中的制造业企业贷款、单户授信不超过1000万元的，按照贷款发放日一年期贷款市场报价利率（LPR）的35%给予贴息，贴息期限6个月，单个企业最高贴息补助额度不超过10万元；加强中小微企业续贷服务，完善银行机构考核机制，推动银行机构在符合授信管理和风险可控的前提下，大力推广中期流贷、无还本续贷、年审制贷款等业务，支持中小微企业融资周转无缝衔接，提高续贷办理效率；对标学习先进，建立信贷政策优秀案例简报制度，向市级银行机构转发临沂市金融改革试验区典型案例，由各银行机构整理对我市各县（市、区）重点项目、企业信贷支持的创新典型案例，经评选后以简报的形式发布，营造创新、学习、发展的信贷环境。二是保护中小投资者合法权益。持续增强公司信息披露透明度，多次印发通知引导上市公司提升信息披露质量，举办全市上市公司法律知识培训会，2021年，3家上市公司被证券交易所评委信息披露A类最优评级；持续提高公司治理水平，举办全市上市公司市值提升培训座谈会和上市公司董秘闭门会，引导公司依法依规用好资本市场平台；持续开展投资者普法宣传，设立“保护中小投资者”专栏，在公招好发布投资者保护知识和典型案例百余条，编印宣传手册，开展进社区宣传活动30余次，指导辖内证券公司开展投资者保护宣传月活动，提高投资者风险防范意识。', '一是强化重点领域信贷融资服务。落实《关于金融服务制造业高质量发展的实施意见》，建立金融管理部门协作以及金融服务工业经济、乡村振兴、商务及招商、城市建设、金融-财政-国资-科技五个协作机制，推动银行机构与工业技改重点项目、天衢新区建设、吨半粮生产能力建设、城市更新等重点领域加强对接，及时回应和解决项目融资中存在的难点问题，提升银企对接有效性，持续扩大贷款投放规模。', '二是稳定信贷融资预期。落实《关于推进无缝续贷工作增量扩面进一步优化企业融资服务的通知》，建立动态性续贷企业白名单，努力实现符合条件的企业到期续贷“应续尽续”，力争续贷获贷时间在3个工作日内的笔数及金额均不低于80%，贷款收回当日获贷比例不低于35%，稳定企业资金预期，保障企业资金链安全。', '三是提升普惠金融服务水平。完善市智慧金融综合服务平台功能，创新实行资金供需实行“抢单制”，组织银行快速响应企业需求，便捷企业获得信贷。落实制造业普惠小微贷款贴息补助政策，帮助制造业小微企业降低融资成本，促进提高企业投资积极性。引导金融机构创新开发适合德州产业和企业发展特点的普惠金融信贷和保险产品，积极推广知识产权质押贷款、应收账款质押贷款等信贷产品，提高普惠金融重点领域贷款规模。', '四是着力推进资本市场建设。加快企业上市步伐，完善和落实扶持政策，加大培训宣传力度，持续组织券商走访上市资源企业，加强与沪深北证券交易所的沟通联系邀请到德州考察指导，推动拟上市企业上市。扎实推进企业挂牌，加大新三板挂牌推进力度，引导“专精特新”、科技型企业挂牌新三板。用好齐鲁股权交易中心德州运营中心，推进企业在四板挂牌、融资。持续发展直接融资，支持上市、新三板企业用熟再融资工具，鼓励符合条件的企业用好债券融资平台，扩大直接融资规模。稳步发展基金产业，成立上市培育促进基金，积极对接股权投资机构，为企业全生命周期提供股权资金支持。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>141</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>第号关于建设食品名市助力乡村振兴的建议</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n72323206/c72913736/content.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['近年来，在德州市委市政府的坚强领导下，我市持续把招商引资作为促进全市经济高质量发展的“首位工程”，扎实推进“招大引强”与“延链补链”相结合，带动我市城市面貌、经济发展取得了长足进步。实施乡村振兴战略是以习近平同志为核心的党中央着眼实现“两个一百年”奋斗目标做出的重大决策。高质量全面推进乡村振兴，要努力拓展乡村产业的边界，促进农村一二三产融合发展；兼顾当前和长远，有效实施乡村建设行动；坚持农业现代化与农村现代化一体设计、一并推进，抓好农业产业、生产、经营现代化和农村物、人、治理现代化；促进农民农村共同富裕，走城乡融合发展之路。为高质量全面推进乡村振兴农产品大市向食品名市跨越。', '一是搭建服务全市招商引资平台，统一统筹，统一部署，统一调动。进一步完善体制机制，整合全市资源，加强市县、部门间联动，内部竞争有序，外部竞争有力，营造全社会关心、支持、服务、参与产业招商的良好氛围，构筑“政府带动、部门联动、企业主动、社会推动”的产业“大招商”格局。统一整理全市、各县市区的招商引资政策，全市对外推介项目和可利用地块（厂房）等资源，加大全市低效土地、僵尸企业等盘活力度，建立台账，形成汇编，对外发布；进一步完善市级层面的产业招商政策支持力度，可在产业基金、税费、贷款、土地供给等方面加大扶持，形成全市“政策有统一、资源有共享、各县区有特色”的格局。', '二是加强专业园区建设。聚焦延链补链强链开展招商，聚焦头部企业开展招商，建设一批专业特色产业园区。园区化、集群化、集约化能够有效促进现有产业集聚和培育壮大。', '三是加强专业化产业招商的保障，建立产业招商信息化工作机制，加强产业招商专业能力建设，培育专业能力强的产业园区运营商。', '一是优化流通网络布局，织密流通网络。实施“干支配仓”衔接五年行动计划，构建干线、支线和末端配送紧密衔接的流通网络。推进干支衔接，依托市内主要运输干线，加快跨区域流通支线建设，密切与周边城市之间的联系。统筹抓好县乡村道路建设，打通城乡“断头路”，保障城乡物流“最先一公里”和“最后一公里”衔接到位、畅通无阻。', '二是提升流通设施水平，补齐物流设施建设短板。实施“一县一园”行动计划，鼓励和支持各县（市、区）结合自身经济体量和产业特色，谋划建设一批集多式联运、城乡配送、分拣中心、智能仓储、冷链物流、特色产业供应链等业态于一体的综合性物流园区。', '三是促进城乡流通一体化，推动农产品出村进城。加快建设京津冀鲁优质农产品及食品供应基地，大力提升“德州味”品牌效应，积极发展订单农业、农村电商，推动农商互联，加强农产品供应链建设。重点支持农产品批发市场升级改造，农产品冷链物流、产地流通设施、农产品零售网点建设。', '一是打造职业教育品牌，挖掘潜在形成整体优势。建立健全“双培型”人才培养模式，加强“双师型”教师队伍建设，加强“双训型”基地企业合作“三个机制”。 引导企业与职业院校资源共享，把课堂办到工厂去、把车间引到学校来，让学生上学如上班、上课如上岗，促进教育链、人才链、产业链、创新链有机衔接。二是加快统筹推进产教园区建设，推进实体化运作。希望相关部门加大政策支持和经费保障，同时还要加强项目的管理，包括考核、实施、验收等工作。加大产教园区项目支持力度，解决园区建设用地、资金需求。', '首先，感谢贵单位对我市招商引资工作的关心、支持与建议！收到您的提案后，我局高度重视，组织专人认真学习研究，您的提案建议切实可行，对推动工作有很强的指导性。', '去年以来，积极响应党中央、国务院号召，在农业农村部、山东省政府支持下，我市立足京津冀“优质农产品供应基地”建设中国（德州）农业食品创新产业园区，赋予园区“中国（德州）国际食品谷”的全新定位，真正形成“南有深圳、北有德州”农业食品创新产业发展格局。2022年3月在中共德州市委第十六次党代会和市十九届人大一次会上，市委、市政府分别向全体党代表和全市人民作出庄严承诺：“要将建设‘中国（德州）农业食品创新产业园区’作为打造中国食品名市的强力引擎，予以重点推进”。', '今年，我局将以建设“食品名市”为契机，以推进预制菜产业供给侧改革为主线，发挥我市产业基础优势，依托中国（德州）食品产业园和各县市区食品专业园区，重点瞄准食品知名（上市）企业，加大招引力度，引进一批预制菜产业项目，推动传统产品加工向现代预制菜制造转型。力争各县市区每年至少引进预制菜产业项目和产业链上下游配套项目2个，到2025年，至少引进预制菜产业相关项目100个，助力建设食品名市。', '一、深化产业链顶层招商分析。依托“大数据”谋划建设“产业发展数字化平台”，加大预制菜产业研究，精准分析链条上下游企业，精准捕捉招商信息，精准对接资源，提高招商效率，降低招商成本。重点瞄准上市公司，列出需求清单，分类定向招商：紧盯专业预制菜企业，积极引进味知香、知味观、盖世食品等企业；紧盯上游农牧水产类企业，积极引进圣农发展、国联水产等企业；紧盯传统速冻食品企业，积极引进三全食品、海欣食品、思念等企业；紧盯餐饮零售企业，积极引进同庆楼、广州酒家、海底捞等企业。同时，加大冷链物流配套企业引进力度，加快推进重点在谈的国际稻都智慧农贸市场、新发地农批市场、伟业控股全球采购中心、蓝田冷链物流产业园等项目，力争早日落地见效。', '二、高位推动“一把手”招商。树立领导干部带头抓招商的鲜明导向，制定出台《2022年度市级领导招商引资指导计划》，力争招引更多预制菜产业企业和产业链上下游配套企业。瞄准食品知名（上市）企业大力招引，定期组织开展市党政“一把手”外出招商活动，择优安排一批重点在谈预制菜产业项目，适时举办预制菜产业专题招商推介、集中签约、集中开工等系列活动，高位推动预制菜产业项目落实落地。', '三、突出园区招商主阵地。以建设中国（德州）农业食品创新产业园为契机，采取“园中园”方式规划建设市级预制菜产业园，鼓励各县市区建设预制菜产业专业园区。充分依托乐陵市星光食品产业园、运河食品产业园、天衢健康食品产业园、武城食品工业产业园、齐河焦庙镇食品产业园等现有园区开展招商，特别是引进知名电商营销、品牌设计等公司，探索开展园区内“新兴营销+招商”“电子商务+招商”“网红产品+招商”等模式，加大园区招商推介力度，力争“链式”引进一批项目。', '四、用好用活委托招商。整合调动社会各界招商积极性，与个人（自然人、离退休老干部等）、单位（“德商”、商协会、大院大所等）、第三方机构（专业咨询、投行、中介公司等）开展全面合作。积极对接中国预制菜产业联盟、山东健康肉产业联合会等行业商协会，开展“百企联姻”行动；对接中国农业大学、中国农业科学院、江南大学、齐鲁工业大学等大院大所，聘请一批预制菜“产业顾问”“招商大使”，开展系列活动，引进一批项目；加大我市现有预制菜企业走访服务力度，结合企业需求、配套和短板，开展以商招商。', '五、破题产业基金招商。树立“投行思维”，积极引进中金公司、梅花创投、远洋资本等相关基金机构，合作设立德州市农业食品（预制菜）产业投资基金，鼓励各县市区设立配套基金，吸引项目来德投资。同时，加大现有产业基金运作和投放力度，支持预制菜产业招商项目发展，对新设立投资规模2000万元实体项目、预制菜产业科技研发项目、配方型“潜力”项目等，按市场化原则给予重点扶持。', '衷心感谢您在百忙之中关心和支持我们的工作，恳请一如既往地关注和指导我市投资促进工作，多提宝贵意见建议。', '您好！感谢您对教育和体育工作的关心和支持。您提出的《关于建设食品名市，助力乡村振兴的建议》收悉，现就涉及教育和体育方面的建议答复如下：', '德州市教体局按照建设“省职业教育创新发展试验区”的工作目标，深入推进产教融合，突破人才培养“瓶颈”，为形成政府、企业、学校、行业、社会共同推进人才培养、共同治学注入强大动能。', '深化校企合作，激活职教发展“生命力”。推行校企一体化育人模式，为企业“量身打造”专业型人才，促进人才培养供给侧和产业需求侧全方位融合。一是“集团化”办学。以行政区域或行业领域为主导，由职业院校与企业联合组建职业教育集团，充分发挥集团主导、带动、示范、辐射作用，实现产业发展和专业建设相结合，培强职业教育综合实力，推动职业院校内涵提升。目前，全市职业院校和500余家企业组建了德州市职业教育集团和生物科技、制冷与空调、交通、机械、太阳能五大行业类职业教育集团，涵盖全市职业院校所有主流专业，推动职业教育资源整合。二是“订单式”培养。校企双方紧扣“学校、学生、企业”三者需求，以企业冠名模式开展联合招生，成立“订单班”，通过课程目标、课程模式、教学内容、教学管理、德育教育、考核评价“六融通”合作，使人才培养深度融入企业生产服务流程和价值创造过程，促进校企合作、优势互补。德州交通职业中专长期与上汽通用、一汽大众、一汽丰田等100多家企业签订校企合作协议，组织现代学徒制试点，通过“订单式”培养人才，拓展校企合作共同利益链。三是“厂中校”实践。通过“政府主导、学校主体、企业主动”的合作模式，建立“产教融合、工学结合、知行合一”的“厂中校”，校企共同制定专业人才培养方案和教学实施方案，在学校开展理论基础课程的同时，由企业为学生配备专门“师傅”，以企业生产场所为教学主阵地，实行工学交替教学模式，促进学生知识学习、技能训练、工作实践深度融合，实现产业链、创新链、教育链、人才链“四链贯通”。宁津县职业中专与山东博尔特电梯有限公司共同成立宁津电梯学校，齐河县职业中专与企业共建厂内实训基地26个，全市校企人才培养 “一体化”持续加深。', '加快扩容提质，增强服务发展“支撑力”。坚持职业教育办学与服务城市发展相结合，瞄准技术变革和产业优化升级方向，深入推进校地融合，促进职教扩容提质，实现校地互动互促、合作共赢。一是错位互补，搭建公共实训体系。围绕“十大产业集群”发展战略和我市职业院校重点专业，投资1.8亿元，在主城区建设占地100多亩的职业教育发展中心，规模省内领先、档次全国一流，成为推动德州及周边地区经济社会发展的高技能人才培养基地。同时遵循错位互补原则，在具备条件的职业院校建立若干分中心，实施主中心专业覆盖面之外的公共实训。截至目前，共在山东华宇工学院、德州科技职业学院、德州交通职业中专等院校认定挂牌公共实训分中心10个，形成“一主多辅”公共实训体系。二是以赛促学，擦亮职教特色招牌。举办技能评比竞赛，促进学生素质提升，增进行业交流合作，集中展示职业教育改革发展成果，扩大德州职业教育知名度。2015年以来，德州市先后6次承办全国职业院校技能大赛相关赛事，我市选手共荣获全国冠军10个、一等奖41个、二等奖48个、三等奖17个。举办“鲁冀职业院校毕业生大型招聘会”，吸引京津冀鲁等地近千家大型企业参与。去年提供就业岗位3万余个，约1万余名毕业生参加招聘，现场签约4千余人。三是扣紧需求，建设现代产业学院。德州市深入贯彻落实教育部办公厅、工信部办公厅《现代产业学院建设指南（试行）》（教高厅函【2020】16号）、《山东省教育厅 山东省财政厅关于推进应用型本科高校建设的指导意见》，推动学校转型发展。依托德州学院等高等院校，以区域产业发展急需为牵引，面向行业特色鲜明、与产业联系紧密的专业，建设现代产业学院，培养适应和引领现代产业发展的应用型人才。目前，已建设扒鸡产业学院、半导体产业学院、泰山体育产业学院、互联网产业学院4所现代产业院校。', '织密制度体系，凝聚职教改革“推动力”。深入推进育人方式、办学模式、管理体制、保障机制改革，形成服务需求、开放融合、纵向流动、双向沟通的现代职业教育体系。一是强化顶层设计，要素汇聚有“速度”。将职业教育纳入市“十四五”发展重要内容，“一揽子”政策为职业教育改革提供有力制度保障。成立城区教育重点项目建设指挥部，将德州交通职业中专创建专科层次职业院校、德州科技职业学院新校区建设纳入挂图作战体系。完善公办职业院校绩效工资管理办法，落实职业院校用人自主权，完善人才激励政策。出台《推进职业教育创新发展试验区建设 打造职业教育创新发展高地实施方案》，落实教育费附加不低于30%用于职业教育政策。二是深化职普融通，人才成长有“通道”。探索建立德州市职业教育与普通教育统一的高中阶段招生平台，在中职学校和普通高中之间开展“学籍互转”试点，建立普通高中教育和中等职业教育融合衔接培养机制。在中高职对接“3+2”、五年一贯制基础上，全省首批开展中职与本科院校“3+4”对口贯通分段培养试点，实现现代职业教育体系“上下贯通”重大突破，打破中职学生成长“天花板”。三是引入社会资本，办学力量有“保障”。鼓励各类办学主体通过独资、合资、合作等形式举办民办职业教育，探索发展股份制、混合所有制职业院校，允许以资本、知识、技术、管理等要素参与办学并享有相应权利。探索公办和社会力量举办的职业院校相互委托管理和购买服务机制。目前，乐陵市职业中专新校、庆云县渤海经济发展中等专业学校、德城区创业孵化职教园区等项目均已完成建设并投入运行，齐河民生集团投资新建的德瑞职业中等专业学校今年正式招生办学，社会资本办学成为我市职业教育扩充资源的重要增长点。', '加强“双师型”教师建设，优化教师队伍结构。截至2021年，我市中等职业学校有专任教师3049人，其中任专业课1942人、 “双师型”教师共1064人，占专业专任教师比例为54.79%。我市中职教师队伍基本达标，但专业课、实习指导课的“双师型”专任教师存在校校之间的不均衡现象，且总体数量也越来越跟不上职业教育发展需要。为此，德州市政府出台的《推进职业教育创新发展试验区 建设打造职业教育创新发展高地的实施方案》（德政发【2020】5号）对我市职业教育教师队伍建设提出了以下方案：“全面落实编制标准。落实中等职业学校教职工编制政策，以学生数为基本参数，根据学校类别综合考虑学校专业特点，按教职工与学生比确定；落实职业学校编制总数的20%用于自主聘用兼职教师，财政部门参照高级专业技术人员平均薪酬水平核拨经费的政策。确保专业专任教师不低于专任教师总数的 60%，“双师型”教师比例不低于专业教师总数的 70%。自 2020年起，除“双师型”职业技术师范专业毕业生外，职业院校新进专业专任教师原则上应具有3年以上企业工作经历和相关专业技术资格。”同时规定“业界优秀人才担任职业院校专任教师可以通过直接考察的方式招聘。设置一定比例的特聘岗位，畅通高层次技术技能人才兼职从教渠道。实施现代产业导师特聘岗位计划，建设标准统一、序列完整、专兼结合的实践导师队伍，推动形成“固定岗+流动岗”、双师结构与双师素质兼顾的专业教学团队。', '对您提出的关于建设食品名市，助力乡村振兴的建议我们非常赞同。实施乡村振兴战略，是党的十九大作出的重大决策部署，是决胜全面建成小康社会、全面建设社会主义现代化国家的重大历史任务，是新时代“三农”工作的总抓手。近年来，市商务局立足自身职能，从发展电商产业、大力招商引资、延伸产业链等多个方面着手推动我市实现乡村振兴工作不断发展。', '（一）搭建招商引资平台。市商务局结合省连线世界500强系列活动、跨国公司领导人青岛峰会、进博会等重大活动，充分利用这一系列对外开放平台，展示德州特色和优势，推介德州名优产品，紧盯世界500强、跨国公司，借势开展高质量“双招双引”活动，积极推动外资项目在我市落地投资，为我市经济社会高质量发展注入新动能。2021年共参加连线世界500强系列活动、重点港澳台项目签约仪式、青岛峰会重点外资签约仪式、进口博览会重点外资项目签约仪式等活动8场，签约外资合作项目16个，涉及高端装备制造、医养健康、现代高效农业、食品加工、新能源新材料等众多领域，投资总额13.9亿美元，合同外资4.32亿美元。2022年第三届跨国公司领导人青岛峰会期间，我市有5个外资项目参加签约，涉及高端装备制造、新能源新材料、医养健康等领域，投资总额3.58亿美元，合同外资1.32亿美元。', '（二）汇集整理重点对外推介项目。2021年5月份，通过调度各县市区报送重点对外推介项目，最终汇集整理《德州市2021年度重点对外推介项目汇总表》，涵盖13个县市区各类项目23个，涉及高端装备制造、医养健康、现代高效农业、食品加工、新能源新材料等众多领域，在鲁港经济合作论坛期间由活动组委会统一对外发布。今年，充分利用“选择山东”云平台，发动各县市区认真填报对外合作推介项目，共填报并对外推介项目23个，已有2各项目开始对接。', '（三）完善出台双招双引鼓励政策。会同市投资促进局出台了《德州市招商引资激励办法》、《德州市总部经济招商引资激励办法（试行）》、《德州市招商引资工作攻坚行动实施方案》等一系列激励政策，通过制度激励凝聚招商引资合力、拓展招商引资渠道、优化招商引资环境，有效激发招商引资工作活力，提升招商引资工作质量。', '今后我们在对外招商工作中，将进一步结合跨国公司领导人青岛峰会、进口博览会、儒商大会等重大活动，聚焦头部企业开展招商，主动与世界500强企业对接，积极招引世界500强、行业龙头企业来我市投资。', '近年来，电商发展势头良好，尤其是疫情发生以来，网购成为居民消费的重要渠道，加快了直播电商等新业态新模式发展。市商务局聚焦实施乡村振兴战略、城市消费升级等工作主线，积极推进全市电子商务健康发展。在推动实施乡村振兴战略方面，加快培育农村电商龙头企业，扎实推动新零售、新媒体电商发展，取得明显成效。2021年，全市累计网络零售额145亿元，同比增长16.6%，其中农村网络零售额81.5亿元，同比增长17.1%。目前，全市拥有电商店铺75666家，电商企业4677家，直接从业人数32641人。为进一步推动农村电商发展，助力乡村振兴，我们拟加强以下措施：', '（一）持续开展系列线上促销活动。围绕扩大内需战略基点，聚焦双十一、春节等重要消费节点，继续组织筹办“礼惠双节直播周”“乐购促消周”“网上年货节”等线上活动。动员各县市区围绕优势产业开展平台对接，组织举办线上促消费活动。在“好品山东·嘉味年货”2022网上年货节活动中，德州扒鸡招牌公鸡、枣粮先生巴旦木奶枣、圣喜酱牛肉等5款产品获评“必买100款山东好年货”。根据商务大数据监测，全国“网上年货节”期间，我市实现网络零售额9亿元，同比增长4.6%。举办了2022“德州味”带货达人选品会暨地标之都春季高端果品产销对接会，活动在线观展人数达3万人，现场达成交易额82万元，意向订单200万元，拓宽了农特产品上行渠道。指导夏津县与京东集团联合举办“夏津‘椹’好 京东‘鲜’到”电商直播节活动，推动农产品直播电商发展。组织开展“双品网购节暨非洲好物网购节”系列活动，期间，德州市实现网络零售额8.4亿元，增长13%，活动中德州扒鸡品牌入选十大网红好物名单。', '（二）强化电商主体培育力度。以农村青年致富带头人、返乡创业青年、创业妇女等为重点，持续联合县市区开展电商培训，积极培育一批农村电商创业带头人。加大宣传力度，营造电商创业发展浓厚氛围。3月份，联合德城区商务局举办了电商直播职业技能培训会，部分电商企业、合作社、非遗传承人等近百人参加。培训围绕如何利用直播电商创业就业、促进农产品线上销售等内容进行教学，提升了学员短视频运营能力，激发了本土特色产品新活力。截至目前，庆云县、德城区、乐陵市共组织培训活动5场，培训400余人。2022“德州味”带货达人选品会上，为宁津90后李支书、闫庄村杜丹等6位本土抖音主播颁发“德州味特约直播带货达人”证书，下一步，以百仕达签约“德州味特约直播带货达人”为突破口，建立并逐步扩充我市本土“网红”种子队伍，从中筛选优质主播对接电商园区，解决主播无货可卖、产品缺销路难题，畅通农特产品线上销售渠道。加大电商创就业典型宣传力度，切实发挥好身边电商创就业典型示范引领带动作用。', '（三）完善生态强化载体支撑。深化与京东、阿里巴巴等大型电商平台企业对接合作，争取平台优惠政策等便企惠企措施，推动更多中小商户上线电商平台。邀请电商企业（平台）的专家进行点对点、线上和线下等多种方式的培训，帮助培养一批精通电商网络销售的实用人才，提升实体店铺线上运营能力。丰富园区仓储物流、产销对接、品牌孵化等电商公共服务功能，提升产业集聚度和供应链整体协作水平，推动形成规模化电商品牌效应，提升完善园区生态，强化服务水平，吸引电商创业人员、团队集聚。4月份，在百仕达地标之都揭牌成立“德州市电子商务产业园”，目前已推动对接有赞、抖音农产品产业带、天猫、1688相关负责人，园区多次与电商平台洽谈农产品线上产销对接事宜，沟通落地方案。下一步，将重点推动与有赞平台合作，发展农特产品社区团购、直播销售等，打造电商供应链基地。', '根据《财政部办公厅 商务部办公厅关于进一步加强农产品供应链体系建设的通知》（财办建〔2021〕37号）、《山东省商务厅 山东省财政厅关于做好加强农产品供应链体系建设有关工作的通知》（鲁商字〔2021〕103号）要求，我局积极做好我市农产品供应链建设工作。2021年，我市农产品供应链体系建设方案通过省商务厅评审和公示，获得中央财政资金支持2125万元，重点支持公益性农产品批发市场升级改造、农产品冷链设施设备应用、农产品产地商品化处理设施建设、支持供应链末端惠民网络建设四个方面内容，更好地推进我市乡村振兴，为农产品供应链体系建设注入强大动力。经企业申报、第三方机构评审，全市共有6家企业的6个项目入围。目前，正全力推动6个建设项目进度，其中4个已完工，2个项目接近尾声，即将进入项目建设验收阶段。', '近期，省商务厅、省财政厅联合下发《关于做好2022 年度加强农产品供应链体系建设有关工作的通知》，我市获得2022年度中央财政支持农产品供应链体系建设资金1550万元，支持方向和支持对象与2021年度一致，资金总额 60%以上用于支持冷链物流设施建设，其余资金用于支持公益性农产品批发市场升级改造、农产品产地商品化处理设施建设（不支持粮食深加工、农产品深加工等工业类项目）、供应链末端惠民网点建设。', '我们将立足新发展阶段，完整、准确、全面贯彻新发展理念，构建新发展格局，按照“强节点、建链条、优网络”工作思路，进一步聚焦补齐冷链设施短板，提高冷链物流质量效率，建立健全畅通高效、贯通城乡、安全规范的农产品现代流通体系。同时，改造提升农产品批发市场，完善产区“最初一公里”初加工设施设备，提升农贸市场、菜市场“最后一公里”惠民功能，畅通农产品流通“微循环”。', '自2021年4月10日，在北京成功举办德州市对接京津冀优质农产品供应展销洽谈暨“德州味”品牌发布会以来，“德州味”宣传平台和运营平台同时启用，在线上线下均起到了很好的宣传及运营效果，同时市局积极组织授权企业参加国内大型农产品展会并开展专场推介活动8场，为授权企业提供展示平台，促进企业与采购商交流洽谈，提升“德州味”品牌品牌核心价值和知名度。', '下一步将继续开展各项活动，把德州味”品牌做大做强，将农产品资源优势转化为产业优势、经济优势、市场优势，真正实现“叫响一个品牌，带动一方产业，富裕一方经济”。', '自2020年以来，我市根据《山东省农业农村厅关于印发山东省农产品仓储保鲜冷链设施建设工程实施方案的通知》（鲁农市信字〔2020〕12号）要求，积极开展农产品产地冷藏保鲜设施建设，目前已连续开展两年。2022年，市局按照省厅通知要求，积极组织开展农产品产地冷藏保鲜设施建设项目申报工作。支持家庭农场、农民合作社等新型经营主体建设农产品仓储保鲜设施。2020、2021年，全市共建设仓储保鲜冷链设施200余个，有效解决了鲜活农产品流通出村进城“最先一公里”问题。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>141</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>大运河保护利用情况专场新闻发布会</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c73047810/content.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['按照市委重点项目挂图作战工作安排，去年8月，我市组建大运河保护利用指挥部，全面启动大运河德州段保护利用工作。今天我们邀请大运河保护利用指挥部办公室主任、市发改委主任王大山先生，大运河保护利用指挥部规划设计组组长、市自然资源局副局长庞云冲先生，大运河保护利用指挥部文旅组组长、市文化旅游事业发展中心副主任范军先生，大运河保护利用指挥部融资建设组组长、市城投集团董事长王瑜先生出席发布会，向大家介绍关于大运河保护利用规划设计、融资建设等相关情况及下一步工作打算。', '大家好！首先，向一直以来关注和支持大运河保护利用工作的新闻界朋友们，表示衷心的感谢！下面，我把我们德州市大运河保护利用工作的总体情况，给大家作个简要介绍。', '加强大运河文化保护传承利用工作，是新时代党中央、国务院作出的一项重大决策部署。2021年7月，中共德州市委十五届十次全会作出了“建好新城、做强德城、突破陵城，东靠新区引领、西靠运河引爆，打造有吸引力、年轻人喜欢的城市”的战略安排。今年2月，市委十六次全会上又提出“打造千年运河古貌原真城市、世遗文化展示优秀城市、国际文化融合典范城市，让德州在大运河国家文化公园中占有一席之地，让‘大德之州·好运之河’成为城市新名片”的目标要求。', '2021年8月，按照中共德州市委重点项目挂图作战工作安排，德州市组建大运河保护利用指挥部，全面启动大运河德州段保护利用工作。10个月来，围绕规划编制、融资平台组建、文化挖掘、项目建设等，完成了一系列管总管长远、奠基搭框架的工作。', '一是高起点定位、高标准编制项目规划。为强化顶层设计，在项目规划初期，就确定了“引入名家大院，高水平高标准编制总体规划”的思路，经过多轮论证，最终确定由中国工程院崔愷院士领衔的中国建筑设计院规划团队完成规划设计。目前，《大运河德州段保护利用总体规划》《城区段城市更新规划》《重要节点详细设计》三个层次的规划均已基本完成，明确了打造“一廊六片”大运河文化景观带的保护利用思路。市委全委会、市“两会”召开期间，代表委员对规划设计进行了分组讨论。同时，聘请山东旅游职业学院陈国忠书记领衔的专家团队编制了《大运河（德州段）文化和旅游融合发展规划》，聘请北京北林地景园林规划设计院有限公司编制了《生态廊道项目方案设计》。', '二是突出专业精干，搭建融资建设平台。我们注册成立了德州市大运河国家文化公园建设集团公司，专业的事情交给专业的人，全面负责大运河保护利用项目的策划推介、建设运营。积极争取国家政策性贷款支持，多次深入对接农发行、国开行等，农发行第一批融资已于4月底批复到位。扎实做好大运河专项债券项目争取工作，按照“谋划一批、储备一批、申报一批”的原则，大运河项目获批地方政府专项债总额度70亿元，今年10.2亿元已到位，在招商引资方面，多次与中建八局、西安曲江等市外国企名企对接，沟通项目投融资及合作模式，已经与西安曲江、中建八局分别达成合作协议。', '三是做好宣传推介，深入挖掘德州运河文化。去年以来，我们开展了“我为大运河保护利用建言”“发现德州运河文化之美暨标志性宣传语征集”“因运河生·因运河兴——德州运河文化摄影摄像展”等多项活动，《德州日报》《德州晚报》同步刊发报道，广大群众积极踊跃参与，大运河保护利用项目社会关注度与日俱增。组织德州市历史文化专家学者，编印《德州运河文化丛书》一套六卷，从城市发展、文化遗产、民风民俗、世家名人等多角度，多层次展示德州运河文化底蕴、特点与流脉。收集整理有关德州大运河诗集94首，划分为“自然风景、运河景观、人文风情、人文景观”4大类别。研究制定我市大运河宣传工作实施方案，通过举办各类展览征文、委托名家创作等多种方式，通过电影、戏曲、小说、诗歌、情景剧等多种形式，寓教于乐讲好德州大运河故事。', '四是紧盯目标任务，全力推进项目建设。根据“一廊六片”规划设计成果，今年计划动工6个节点项目，按照压茬推进、并联推进的原则，施工图设计、考古勘探、地质勘测、拆迁安置、手续办理等工作正在同步推进。目前，生态廊道项目完成方案设计、考古勘探、河岸清表等工作，施工单位已进场；九龙湾文旅融合园初步完成方案设计；德工文创园完成考古勘探、危房鉴定工作，部分设施开工建设；运河大道改造升级项目、运河宜养社区项目正在开展施工图设计；苏禄王御园改造提升项目按照扩大规划范围、统筹规划推进的原则，正在调整规划设计方案，力争年内基本具备开工条件。', '您好，我是德州日报的记者。刚才听了大运河保护利用工作的基本情况，能不能详细给我们介绍一下大运河保护利用的规划设计方案？', '大运河德州段位于京杭大运河中部，全长127.8公里，由南运河德州段和卫运河德州段两部分组成，北起德城区第三店村，南至夏津县白庄村，由北向南依次流经德城、武城、夏津3个县市区。其中，南运河段45公里，卫运河段82.8公里，两岸都在德州市的有5.3公里，位于德城区内，其余部分东岸在德州，西岸属河北省。我们规划的重点区域主要是指南运河段45公里。', '基于南运河（德州段）遗产整体价值特征，以南北向蜿蜒的运河主干、沿河分布的系列漕运集聚组团、运河东岸蔓延生长的服务型城乡聚落为原型，规划“主干、集聚、蔓延”式发展布局，整体形成“一廊（运河遗产生态景观廊道）、六片（漕仓文化园、东盟文化园、小锅市运河聚落、滨水商业区、九龙湾文旅融合园、四女寺风景旅游区）”的总体布局。', '“一廊”，即运河遗产生态景观廊道项目。主要建设南运河段45公里，两侧规划控制范围2-3公里。通过实施河道生态空间保护管控，优化调整交通系统，加强水系治理与改造，加强两岸生态修复和岸线景观建设，规划休闲体育公园和活动场地，打造运河慢行步道，用运河片区带动整个德州市域，建立贯通城市和郊区的生态廊道。主要有四个方面建设内容：拆除沿线违规建筑、临时建筑，进行植被恢复及岸线恢复；改善沿岸堤顶路断面，提高景观可达性和步行友好性；保护修复湿地生态系统，提高已有湿地的保护管理和综合利用水平，进行严格保护，修复河湖湿地生态系统；保护培育森林生态系统，实施滨河防护林生态屏障工程，推进运河两岸绿化提升，打造由北部二屯镇、南部黄河涯镇、四女寺镇向中心城区形成的阶梯式景观序列。近期正在实施德城区段生态廊道工程，横跨天衢路、三八路、东风路城区三条主要干道，沿岸划分烟波浩渺、芳树晴雪、翠堤春晓、花洲夜月四个景观区，改造堤顶路，建设沿河慢步道、立体式景观植被，建设小锅市码头、忆城公园、文化广场等12处休闲文化景观。', '（一）北厂漕仓遗址片区。德州北厂漕仓是漕运文化的集中体现。金天会七年（1129年），德州城北约三里处设置“将陵仓”；元代改称“陵州仓”；明代升为“德州水次仓”，为运河沿线五大水次仓之一、四大漕运粮仓之一。规划区位于德州城西北的北厂村，南运河与京沪铁路之间，总用地面积约为69.73公顷，区域内多以村庄、农田为主，有漕仓遗址和运河景观。节点设计方案为，基于“遗址保护”与“乡村振兴”并重的思想，利用生态文化基底，打造都市微度假休闲旅游目的地。设三大功能区：“十二连营”军事主题体验区，设置小英雄童军营地，落实国家倡导的国防教育和研学活动，激发青少年爱国之情；漕运生活体验街区，以原有废弃民居改建，主要包含研学课本剧场、历史禅观、军营主题民宿餐饮等，再现北厂村历史生产生活场景，复兴传统宜商宜居的人居环境；漕仓文化展示园区，包括漕仓文化展示园和漕仓遗址公园两个片区，为漕仓文化的研究提供了更多的内容与不同的视角。近期开发项目：“十二连营”军事主题体验区内室内接待场所及室外营地、漕仓文化展示园区建筑复建等。', '（二）东盟国际文化交流示范园片区。德州是见证“中国—东盟”国际友谊的传统圣地，有着服务“一带一路”的双向交流窗口的作用，有全国唯一的驻有外国王室后裔守陵村落的异邦王陵。1988年1月13日，苏禄王墓被国务院公布为第三批全国重点文物保护单位。本片区规划总建筑面积77万平方米，涉及北营、荣庄两个社区。本节点规划设计方案，搬迁工业企业，提升神道及陵墓周边环境，整治守陵村落风貌，建设文创工美基地和融合合作平台（包括电商中心、文创产品展示中心、物流中心），配套建设停车场等设施，自北向南布局“清真特色商业街（家园中心）、苏禄古村、苏禄御园遗址公园、文化创意产业园、山东东盟融合交流合作服务平台”，建设见证国际文明对话的历史街区。近期实施化机厂改造和御园御道环境整理项目。远期将实施东盟合作服务平台、御道东侧危房改造、守陵村庄提升和清真特色商业街（家园中心）、周边社区环境提升项目。', '（三）小锅市运河聚落片区。小锅市是明清德州古城消失后，相对最完整的历史遗迹片区，保留下的小锅市街是德州古城与北厂官仓的主要交通运输线，桥口街是德州古城与北京御道的粮运商贸运输线，小锅市街至今仍是民俗活动的主街，桥口街周边分布着重点遗址遗迹。本节点设计，涉及47.8公顷，更新思路是交通贯通管线进入，村庄更新补齐短板，面向运河打开空间，联通绿地自成系统，恢复历史突出特色，建设集聚落文化和运河景观的综合性运河聚落文化街区，打造运河沿线渐进式更新的山东样板。小锅市片区规划结构为两带（南运河景观带、运河故道景观带）、两道（小锅市街历史文化道、桥口街历史文化道）、三区（德州文化民俗展示区、运河故道文化旅游服务区、城郊休闲农场区）、多点（董子书院、稻香菊园、清真古寺、多彩民俗、河神趣游、堰工访怀、桥口寻古、钞关商贸、御道桥口、行宫探幽）。近期将实施贯通青年路、打开清真寺界面、建设德州文化民俗展示区（家园中心）和梳理产权，收储闲置房屋四项工程。远期实施整理桥口街和小锅市街、历史建筑恢复、民居自主更新、恢复行宫（西南角）和改造焊接厂及周边（东南角）四项实施难度较大的工程。', '（四）老电厂片区。位于运河德州城区中段，北至天衢西路、南至黑马商贸市场、西至南运河、东至商贸大道，与老城市中心隔铁路相望。该项目近期规划总用地面积8.7公顷、130.5亩，远期研究范围123.59公顷、1853.85亩。现状内部主要为老电厂旧址及部分农贸市场，规划区周边建设以商业及住宅为主。主要包含三个部分：滨河带状公园区，沿运河两岸打造观景平台、慢跑路径等多个节点，全方位营造亲水和互动空间；老电厂文化公园区，主要依托老电厂遗址，在继承和梳理原有城市记忆和场地文化内涵的基础上，补充和完善城市绿地功能和设施；配套商业区，通过特色餐饮、主题商业等商业、文化功能的方式提升区域活力。近期主要整饬电厂南侧场地及部分黑马商贸市场临时建筑，打通绿化步行通廊，拓宽滨河带状公园，改善局部道路交通微循环；中期腾挪电厂宿舍用地，形成文化公园与部分配套商业设施；远期条件成熟后通过腾退增加公共管理与公共服务用地，弥补民生短板，恢复历史水系，形成新的城市界面。', '（五）九龙湾文旅融合园片区。位于东风西路城市发展轴线南侧，距德州火车站1公里，紧邻运河大道城市快速路，南运河流经该片区。现状用地功能多为未利用地、村镇建设用地、仓储用地等，是运河沿岸的价值洼地。片区内部道路路面质量不佳、连通性差。沿南运河2公里无道路、无桥梁。节点设计方案中，挖掘运河历史、工业文化、生态资源，营造“文化+场景”新城市空间，从城市低洼边缘空间向商业文化活力中心转变，建设近现代工业文化与运河河湾文化为主题的市民文体休闲和旅游文化融合园。主要建设内容：逐步更新德工机械厂、造船厂等工业遗产，挖掘城市工业文化、运河历史，营造“文化+场景”的获利空间；置入运河博物馆、青少年科普中心等新功能模块，促进向文化活力中心转变；建设运河绿道、运河景观塔、体育公园、生态湿地公园等城市开放空间，将城水空间关系从单调剥离转向有机互动，再现运河两岸繁华。近期实施项目：游客服务中心、运河博物馆、老船厂、湿地公园。', '（六）四女寺风景旅游区片区。规划区位于德州市德城区、武城县和河北故城县的两省三县（区）交界处，总规划用地面积约310公顷。现状以水工建筑、村庄、林地、水浇地等郊野风貌为主，为南运河、岔河、四女寺减河、卫运河水工枢纽交汇。本次节点设计方案中，主要是改造和提高乡村景观资源、环境及设施，将水利枢纽与临近景点进行有机整合。突出一个方向：建设特色文旅带动、服务乡村振兴的文孝工农主题文化旅游区。聚焦四个主题：美丽乡村项目（四女寺槐花小镇、吕庄子槐花小镇、槐花祭文创乡创大赛、槐花大集）；水利兴农生态田园项目（渔：运河垂钓园，樵：运河植物园，耕：运河生态农场，读：运河董子书院）；水工文化研学基地（四女寺水闸分流、减河岔河倒虹吸、古代滚水坝、古代水利灌溉、南水北调穿黄入德）；中华孝道文化园（四女河、中华孝道文化论坛、四女寺孝道文化庙会）。建设三大功能区域：四女寺水利枢纽景区、四女寺风景区、四女寺聚落文化景区。谢谢！', '您好，我是大众日报记者。听了“一廊六片”项目的具体规划，满怀憧憬，非常期待，到目前为止，项目的具体推进情况怎么样？', '王瑜：好的，大运河保护利用项目的整个规划是由中建院规划团队承担的，根据规划方向和相关要求，2022 年我市计划先期启动 6 个项目，计划投资约 20 亿元。这 6 个项目中主要包含 3 个片区项目， 分别为九龙湾、德工文创园片区及苏禄王御园片区;景 观及交通设施项目 2 个，分别为生态廊道和九龙湾配套 设施项目，拆迁安置项目 1 个，为运河宜养社区项目。 按照重点项目挂图作战部署要求，城投集团倒排工期、 压茬进行，全力以赴推进项目建设，做好融资保障、施 工组织、策划运营等工作，现具体介绍下项目情况。', '一是生态廊道项目。项目全长约 3.3 公里，通过建设绿树成荫的生态廊道、市 民休闲娱乐的滨河公园、展示特色的文化长廊，打造“春 花、夏绿、秋韵、冬景”的四季景观。项目分两期建设， 一期工程南起东风路胜利桥，北至三八路桥，已于 6 月 份开工，计划今年年底前完工;二期工程南起三八路桥， 北至小庄省界，计划今年 8 月份开工，2023 年上半年完 工。同步实施游船运营，进一步实现大运河(德州段)水岸互动的文旅融合，提升游客体验幸福感。 二是九龙湾配套设施项目。项目北起德石铁路地道出入口，南至东风路南约 800 米，改造长度约 3.36 公里， 涉及道路、桥梁、安全设施等工程，建成后将充分完善 南运河项目交通体系，进一步方便城市居民的出行。目 前，一期项目地质勘察、施工图设计工作已完成，正在进行施工图送审工作。力争今年 8 月组织施工流水、交叉作业。', '三是九龙湾文旅融合园项目。项目主要由九龙湾现 状公园和西侧苗圃等构成。通过提升水厂原有景观氛 围，完善园区功能，有序组织空间，打造满足市民多种 活动需求的综合性城市公园。目前，项目已完成考古勘 探现场作业，正在编制考古勘探报告、文物影响评估报 告及文物保护方案，同步进行施工图设计。计划今年 8 月进场施工，2023 年 10 月完成建设。', '四是德工文创园建设项目。项目主要对德工机械厂 现有厂房进行加固、改造、装修，建筑面积约 3.8 万平 方米。通过打造具有工业风、花园式、情景式的开放活 力街区，为本地居民及游客提供开阔的游乐空间，切实 补齐城市短板。目前已完成原有厂房安全性鉴定及部分 厂房抗震鉴定，正在进行施工图设计，计划今年年底前 完成加固工程量的 60%，2023 年 12 月完成建设。', '五是苏禄王御园改造提升项目。项目主要对苏禄王 御园及周围片区进行改造提升，总占地面积约 1000 亩。 项目分为两期建设。一期项目一方面对苏禄王御园的神道和南侧公园进行改造，塑造庄重、肃穆、幽静的空间氛围;另一方面是对化机厂进行改造，将该片区打造成 为集文化、休闲、娱乐、餐饮于一体的多功能文化创业园区。二期项目对周围片区进行更新改造提升。目前，正在对方案设计进行修改完善，计划下半年进场施工。', '六是运河宜养社区项目。项目主要对大运河保护利 用项目中部的杨家圈村、南陈庄村、木材公司地块等居民进行安置，选址在木材公司地块，建设安置房 3000 余套，总建筑面积约 50 万平方米。安置区建设方面， 我们始终秉持“以人民为中心”的发展理念，按照“最好的地段、最好的规划设计、最好的建筑质量、最好的配套设施”这个原则进行设计施工。目前，项目方案设计已通过规委会审议，开始进行地质勘察、施工图设计。 下一步，我们将合理组织施工，盯紧工程质量，进一步加速项目建设，确保按期交付使用。', '您好，我是德州晚报记者。德州因黄河而生，因运河而兴，大运河可以说是德州的文脉，在文化传承保护利用方面，咱们做了哪些工作？', '范军：南运河（德州段）开凿于隋唐时期，作为京杭大运河的重要组成部分，绵延着德州千年的历史文脉，是流淌千年的活态文化遗产和德州记忆。运河沿线村镇根植于齐鲁文化，融合吸纳南北文化、中外文化，形成了诚信、仁义、包容、开放、多元的鲁风运河文化特质。沿线遗产众多、类型多样，涉及河道、工程、附属建筑诸多方面，拥有全国重点文物保护单位3处、省重点文物保护单位3处，2014年6月，南运河德州段被列入《世界遗产名录》。', '大运河德州段在大运河山东段中开挖最早、历时最长，是山东段名副其实的千年运河；拥有大运河沿线城市中保存最好、最具原生态的古运河河道风貌；独特的漕运仓储与商贸文化在全国占有重要地位，明清时期因漕运发达，曾是全国33个工商重镇之一；拥有国内唯一、国际影响深远的外籍王陵一一苏禄王墓及其守陵村落，已有600多年的人文历史；积淀了深厚的文化底蕴，齐鲁文化和燕赵文化交相辉映，董仲舒、东方朔、窦建德等历史名人都诞生在这里。', '去年以来，为了深入挖掘大运河文化资源，大运河保护利用指挥部组织实施了多项大运河文化传承保护活动。', '一是开展了“我为大运河保护利用建言”、“发现德州运河文化之美暨标志性宣传语征集”、“因运河生·因运河兴——德州运河文化摄影摄像展”三项活动。收集社会各界意见建设60余条，标志性宣传语650余条，并通过网络投票、专家评审评选出优秀作品。摄影展分两个阶段，分别在会展中心一楼大厅、中心广场展出优秀作品120余幅。通过大美运河、文化遗存、人文风情、因运而兴四个版块，从不同视角，不同空间，不同历史层面，全景呈现风光汇聚、风土丰厚、维度多元的悠悠古河。《德州日报》《德州晚报》同步刊发活动报道，广大群众积极踊跃参与。', '二是编印出版《德州运河文化丛书》。组织德州市历史文化专家学者，编印《德州运河文化丛书》一套六卷，从城市发展、文化遗产、民风民俗、世家名人、文学艺术、名镇名村等多角度，多层次展示德州运河文化底蕴、特点与流脉，对研究利用我市历史文化资源具有积极的借鉴和指导作用，是我市文化建设的一项重要成果。同时，收集整理康熙、乾隆时间有关德州大运河诗集94首，划分出“自然风景、运河景观、人文风情、人文景观”4大类，整理成册以备研究学习。', '三是全面打造德州运河文化宣传矩阵。深入挖掘我市大运河历史文化资源，发动运河沿线文化爱好者，通过小说、诗歌、杂技、情景剧等多种形式，寓教于乐讲好运河故事；定期举办各类展览活动、体育赛事、主题论坛，通过视频、公众号等多媒体方式广泛宣传；委托名家进行文艺创作、编写剧本的方式，拍摄关于苏禄王、董子、田雯、卢见曾等德州历史名人和乾隆下江南等经典故事题材的电影、戏曲，打造运河文化宣传矩阵。正在有序推进德州市大运河民俗文化展筹备工作，积极搜集反映大运河沿线各时代社会生产生活、文化艺术、非遗传承、民俗文化、宗教信仰、重大历史事件和著名人物的具有史料价值的实物及资料。', '四是积极筹建大运河研究图书馆和大运河讲堂。通过网络搜索、电话联系，整理大运河图书书目计277套（册），实地考察红旗宾馆的图书馆拟选址情况，并实地查看德州学院图书馆大运河书籍182册馆藏。积极筹备举办“大运河讲堂”。从国内、江浙、省内知名三个维度选取了部分大运河文化研究专家，选取了部分水利技术专家，增列了我指挥部建立的运河文化名家队伍，形成了61人专家名单，按照“挤时间多安排”的原则，拟分批次邀请专家学者对指挥部进行业务知识培训。', '五是准备召开德州市大运河论坛。计划七月中旬组织召开“运河之旅·德州有约”德州市大运河论坛。拟邀请省委宣传部、省文化和旅游厅领导同志，山东省4个大运河沿线城市市政府分管领导及文化和旅游部门主要负责人，省外22个大运河沿线城市文化和旅游部门主要负责人，原文化和游泳部党组成员、故宫博物院院长、中国文物学会会长单霁翔等国内外知名大运河专家7人参加。谢谢！', '您好，我是大众网记者。大运河保护利用工作，涉及面广，影响群体大，社会关注度高，将来的大运河是个什么样子，请简要介绍一下下一步的总体目标。', '王大山：下一步，在国家大运河文化保护传承利用规划纲要、国家文化公园建设方案等顶层设计的统领下，严格落实山东省大运河文化保护传承利用、国家文化公园建设等有关要求，以打造“有德之州，好运之河”名片为目标，统筹德州大运河文化保护传承利用，扎实推进重大工程与项目建设，促进民生改善，支撑德州城乡统筹、可持续发展。', '一是把握好大运河保护利用的基本原则。一是坚持以文化为引领。深入挖掘大运河优秀传统文化精神内涵，加大文化遗产认知与保护展示力度，不断提升价值引导力、精神原动力、文化软实力。二是坚持以人民为中心。关注人民群众美好生活需要的多样性、广泛性和高质量要求，始终尊重民意、关注民情、致力民生，让保护利用和城市更新、乡村振兴成果公平惠及人民。三是坚持可持续发展。小规模、渐进式科学更新与建设，保护传承遗产系统与提升生态、生产、生活条件并行，创造可持续的经济、文化、生态效益。', '二是抓好“一廊六片”发展布局的落地实施。结合历史文化、自然生态、现代文旅优质资源，落实好“一廊六片”发展布局，建设以运河河道为核心的生态绿色廊道，沿运河两岸发展一系列特色文化、休憩公园，在德州码头区域建设标志性景观构筑物，更新改造或建设与运河系列公园便利联通、功能互动的一系列“运河新街坊社区”和“运河人家村舍”，高标准规划建设教育、颐养、市民中心等公共服务设施，全面展示“生态运河、文化运河、活力运河、科教运河”。', '三是进一步加强河道水系治理管护。加强水污染防治，建设防护林等生态隔离保护带，确保南水北调工程供用水安全。提高湿地的保护管理和综合利用水平，推动人工湿地建设、开展退化湿地修复，推进规划区内小微湿地建设。强化生态环境修复和水系连通，建立健全运河水系河网湿地生态功能。', '四是构建“城乡道路系统+旅游线路+绿色生态廊道”复合型交通网络。优化完善交通基础设施，高标准规划设计运河沿线与主城区、与德州市外的交通优化方案，完善机动车道、慢行系统等交通网络，建设开放遗产点和景点间的连接路、自行车道、风景道、游客驿站等，构建通达、便捷的交通网络。在九龙湾等条件成熟的城区滨水地带建设健身步道，提高居民运动科学性和积极性。', '2022年，启动九龙湾文旅融合园、东盟经济文化产业融合发展示范园区建设，开工建设一个安置区项目。后续陆续开工文旅、生态、交通、社会事业等相关重点规划设计项目建设。', '至2025年，大运河德州段文化遗产系统得到保护与初步呈现；流域治理工程得到有效实施，沿运河生态廊道基本建成；教育、颐养等公共服务设施基本达标建设；交通、游憩基础设施和公共服务保障能力显著改善，游赏路线基本形成；共管共建机制运行良好。', '至2035年，大运河德州段文化遗产系统得到整体保护与全面呈现，为国家大运河文化带建设提供有力支撑；生态环境系统得到根本改善；社会事业保障切实加强；文化旅游品牌影响力显著提升，城乡区域统筹发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>141</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>关于建设资源信息云服务平台实现共享制造的建议</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-12-20</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n66411375/c67850921/content.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['2020年6月德州市出台了《德州市新型工业化强市建设三年行动计划》，致力于打造京津冀鲁区域的“活力德州 智造名城”，坚持“紧盯前沿、打造生态、沿链聚合、集群发展”的思路，提出沿产业链汇聚关键要素，通过龙头带动，补链延链强链，全面配套发展方式。不断提升巩固我市产业链、供应链竞争力。', '在信息技术高速发展的今天，借助“互联网+”，实现制造业的共享经济，产能共享将成为制造业发展新趋势。据国家信息中心发布的《中国共享经济发展年度报告（2019）》显示，2018年我国共享经济交易规模 29,420亿元，比上年增长41.6%；直接融资规模约 1490 亿元。其中，2018年我国制造业产能共享市场规模约 8236亿元，较上年增长 97.5%。制造业生产能力共享出现加速发展态势，其市场规模在共享经济总体中比重较上年提高了8%。', '企业发展面临复杂多变的市场环境，唯有科技创新才是发展的不竭动力，这又涉及到相关专业技术人才招聘引进、加工设备和检测设备、试验设备的投入，创新成本居高不下。同时创新的过程又是伴随着风险的过程，往往会造成资源的闲置和浪费。', '由于本区域内信息不对称，有的时候本区域内有该方面的资源，而且资源利用率低，尤其是试验和检测设备利用率极低，所以很有必要利用互联网平台实现这些资源信息的共享利用，打破区域内“信息孤岛”，实现区域内产业上下游、科研院所以及跨领域各类人才、生产设备、检测设备和试验设备信息系统的互联互通，促进资源共享。这可借鉴浙江、江苏一带产业链上下游密切合作的经营模式，形成上下游产业链集群发展。这既有利于企业减少投资，还可使现有资源发挥最大价值和效益，但是这必须有一个前提就是打破信息壁垒，实现信息互通。', '1.建设资源信息云服务平台，由信息服务机构牵头策划，各行业企业和科研院所参与提供相关技术、人才、设备及服务等。', '2.实现云平台的对外开放，打造人人可登陆可查询的信息共享平台，实现资源的利益共享。', '在市委市政府的正确领导下，市工信局以新型工业化强市三年行动计划为契机，以“紧盯前沿、打造生态、延链聚合、集群发展”为思路，借助“互联网+”在产能共享方面积极探索，取得了一定的成效。', '（一）强化顶层设计，明确推进重点。以推进新型工业化强市战略为契机，聚焦“541”产业体系，出台了《德州市推进智能制造和工业互联网发展三年行动方案（2020-2022年）》，制定了配套的政策措施，推动新兴产业快成长、上规模，促进传统产业提层次、强实力，为建设“活力德州、智造名城”注入新动能。', '（二）完善平台体系建设，强化转型支撑。积极参与省“个十百”工业互联网平台体系建设，培育和引进一批先进的工业互联网平台。腾讯（德州）工业云基地平台上线运行，忽米网环境治理行业标识解析二级节点、海尔中央空调行业工业互联网平台等一批项目成功签约。奥链工业互联网平台入选工信部工业互联网集成创新试点示范项目，莱钢永峰的智慧能源大数据管控平台入选工信部制造业与互联网融合发展试点示范项目，禹王非转基因大豆产业互联网平台等3个平台入选山东省产业互联网示范平台。推进企业上云上平台，目前160家企业领取云服务券补贴，格瑞德等3家企业入选省上云标杆企业。', '（三）推进产业共享工厂模式，取得初步突破。征宙机械牵头成立了鑫盛精密智能共享工厂公司，采用C2C模式，成立了“原材料和标准件共享仓库”对产业集群开放，极大提升了产业集群共享的广度和深度。通过盘活闲置资源，有偿与他人分享，来提高社会资源的利用效率，实现从制造共享向服务共享延伸，改变传统“整租零用”模式，实现从原料、员工、设备、订单、品牌、库存、物流、检测八个方面的共享。按照“政府引导助推、行业协会搭台、工业互联赋能、企业广泛参与”的工作指引，组建了平原机床附件互联网平台，将“集采、集售、共享、统一”四大产业链要素整合，帮助产业集群与国际工链条接轨，目前已有多家企业接入平台，大大提高了资源配置效率。', '总体上我市制造共享、服务共享模式仍处于探索和起步阶段。您提出的建议很有针对性，下一步工信局将结合职能重点做好以下几项工作。', '（一）加强本地平台培育。支持生物技术、新能源汽车等行业龙头企业搭建企业级工业互联网平台，加快企业研发设计、生产过程、企业管理、营销服务等信息化应用系统的的综合集成和云化改造迁移；支持纺织、中央空调、机床附件等优势行业龙头企业，与通信运营企业、互联网企业开展合作，建设面向行业的工业互联网平台，培育新型生产组织模式，促进制造资源优化配置；支持奥链工业互联网平台、不断完善平台功能，提升服务能力，尽快形成企业规模入驻效应。总结本地平台成功经验做法，形成可复制、可推广的案例，打造成区域标杆，充分发挥示范引领作用。', '（二）加大先进平台引进力度。结合德州优势产业集群，积极招引国内著名平台落地德州。支持腾讯（德州）云基地、忽米网环境治理行业标识解析二级节点、海尔中央空调行业工业互联网平台等优质项目加快建设进度和推进力度，尽快形成服务能力。', '（三）强化对标学习。瞄准京津、长三角、珠三角、胶东半岛等区域，组织本地企业实地考察，学习企业先进经验。在充分调研的基础上将先进模式与本地实际相结合，助力德州工业发展。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>141</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>德州市一把手营商环境项目主题系列新闻发布会第二场</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c71990651/content.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['今天，继续举行德州市“一把手营商环境项目”主题系列新闻发布会第二场。我们邀请市委政法委主持日常工作的副书记李俊杰先生，市中级人民法院党组成员、副院长李文铎先生，市人民检察院党组副书记、副检察长、新闻发言人石青先生，市公安局党委委员、副局长、新闻发言人兰善文先生出席发布会，向大家介绍我市“一把手营商环境项目”相关内容，并回答记者提问。', '很高兴参加今天的新闻发布会，感谢大家多年来对全市政法工作的关心支持。近年来，在市委坚强领导下，全市政法机关提高政治站位，强化责任担当，服务中心工作，采取务实举措，持续优化营商环境，群众获得感、幸福感、安全感和满意度不断提升。但我们也清醒的认识到，对标高质量发展，对标市委的要求、对标群众的期盼，工作还有很多不足。我们要时刻保持清醒头脑，以时不我待的精神状态，进一步提升工作水平。', '按照疫情要防住、经济要稳住、发展要安全的总体要求，紧紧围绕企业急难愁盼的问题，市委政法委根据市委的要求确定了“一把手”营商环境项目。下面，围绕项目内容向各位媒体朋友作一简要介绍。', '实施“助企安商护航”工程，打造“德政法·办德好”法治营商品牌。实施“助企安商护航”工程，是落实市第十六次党代会确定的在建设国家营商环境创新（试点）城市走在前的具体举措，是激发企业创新创造活力，提升企业获得感，营造全市政法机关尊商、重商、亲商、安商服务环境的需要。市委政法委成立了优化法治营商环境专班，推出政法各单位与重点项目、骨干企业建立联系机制，打造政企“连心桥”平台，为企业提供更加精细的服务。依托市法学会1300名个人会员，5个团体会员和政法智库，打造“德政法”普法平台，通过开展法治宣传、普法讲座和法治体检等活动，提升民营企业依法经营、依法管理、依法维权的能力和水平。联合市委统战部、市工商联建立经济领域司法突出问题协同解决工作机制，打造“面对面”协商平台。健全服务保障民营企业发展联席会议制度，畅通企业信息沟通渠道，为企业提供专业、优质服务。认真落实好《德州市政法机关发挥司法职能作用服务保障中小企业发展“十八条”措施》。常态化开展涉企案件执法监督专项行动，积极开展涉企案件评查活动。', '建立中小企业“要账难”跨部门联动机制。在经济下行和疫情防控叠加影响下，中小企业在发展中遇到一些困难和问题，特别是机关单位和国有企业拖欠中小企业账款问题，对企业的资金周转、经济效益带来负面影响，成为企业反映的突出问题。为保市场主体、促群众就业、纾企业困局，为中小企业的发展创造良好的法治环境，市委政法委在充分调研，听取企业诉求的基础上，制定了《集中解决中小企业“要账难、要账贵”问题工作方案》，对清欠工作做出安排：一是组建工作专班。市委政法委设立中小企业款项支付协调办公室，公开热线，倾听诉求，收集意见。建立健全中小企业账期问题跨部门联动机制，努力实现源头治理、综合施治。二是开展涉中小企业审计和财务监督专项行动；对市属国有企业和建筑工程领域拖欠中小企业账款问题专项排查；中小企业诉源排查治理；涉金融案件和涉党政机关、国有企业拖欠中小企业债务案件专项执行行动。三是提供法律服务。搭建“德法通”惠企服务平台，组织律师参与企业法治体检，为中小企业提供一站式、低成本、高效能的法律服务。', '今年以来，全市法院深入贯彻习近平法治思想，坚持“法治是最好的营商环境”，把优化营商环境作为“一把手工程”， 树牢“人人都是营商环境、案案都是营商环境”理念，充分发挥审判执行职能作用，依法平等保护各类市场主体合法权益，服务保障德州经济社会高质量发展。1-5月，全市法院结案率78.20%、结收比99.06%，一审服判息诉率89.91%，首次执行案件实际执行到位率41.32%，首次执行案件执行完毕率25.54%，5项指标均位列全省第2。结案均衡度0.78，正常审限内结案率99.77%，执行案件执结率73.20%，3项指标均位列全省第3，审判执行工作走在全省前列。', '按照市委部署，市法院研究制定“一把手营商环境项目”四项，其中，争先项目、补短板项目各2项。', '为助力中小微企业纾困解难，破解陷入困境中小微企业案件执行僵局，充分发挥破产制度功能，全市法院探索构建涉中小微企业“执转破”案件的简易、快捷、高效审理机制，努力打造中小微企业债务纾困新模式。一是规范案件审查机制，对符合破产条件的执行案件实现精准识别、工作前置、快速衔接、高效办结。研究制定《加强中小微企业“执转破”工作指导意见》，切实提高中小微企业“执转破”案件审查、移送及审判效率。二是强化执行与破产协作配合。执行查控措施和破产财产处置相配合，执行法官与破产法官联合办案，执行工作与破产工作优势互补，利用破产功能解决执行难题，努力实现陷入执行困境的中小微企业及时得到法律“救治”或“出清”。三是完善案件快速审理机制。鉴于陷入执行困境的中小微企业债权债务较为清晰、企业资产总量较小、企业职工人员不多等特点，适用简易快速审理机制，简化审理程序、优先线上办理、管理人费用及诉讼费用适当减免，打造低成本、快办结的中小微企业“执转破”绿色通道，助力德州困境中小微企业纾困解难。', '针对全市法院涉法涉诉信访案件较多等问题，市法院坚持问题导向和目标导向，将强化服判息诉工作作为优化营商环境的重要内容，出台《关于强化服判息诉工作持续优化营商环境的实施方案》《关于全市法院强化诉源治理和衍生案件治理推动多元实质化解矛盾纠纷的实施意见》，实施“诉讼引导+风险评估+诉中释明+判前评断+判后答疑+执行和解”全流程服判息诉“一条链改革”。一是健全诉讼引导和风险评估机制，建立“法官+法官助理+书记员+特邀调解员”办案模式，提升诉讼服务能力与水平，推行诉前风险评估及风险提示，防范虚假诉讼，当事人诉讼风险预知，诉求事先得到合理预期。二是健全诉中释明和判前评断机制。诉中突出庭审查清事实和化解矛盾“主阵地”作用，强化法官行使释明权，保障当事人的知情权；对重大分歧案件宣判前公开进行判前评断，消除当事人对裁判公正的误解或猜测怀疑。三是健全判后答疑机制，提升裁判文书质量与水平，增强法官辨法析理能力，做好结案后的信访投诉答疑工作，增强当事人对法官工作的理解和对案件裁判结果的认同感。四是健全执行和解机制，加大执行和解力度，缓解执行对立，促使当事人主动履行法律义务，及时兑现当事人的胜诉权益。通过全流程“一条链改革”，提升当事人满意度，增加群众司法获得感。', '针对我市办理破产用时较长、个别案件长期不能审结的问题，全市法院将开展破产积案清理集中攻坚行动。一是落实院领导包案制，对超1年以上未结破产案件，确定院长为责任人，加大清理力度，确保年底前清结破产积案。二是强化府院联动机制实质运作，破解制约破产积案清理进展的障碍及瓶颈难题，合力攻坚，实现破产积案清零。三是强化业务指导和工作调度。中院将逐案研究法律适用难点，完善督办台帐。强化业务指导和工作调度，强力推进破产积案清理工作。四是强化总结分析研判。在破解难题工作中总结经验，在解决障碍及瓶颈工作中创新机制，认真总结有效化解企业破产衍生诉讼、资产处置、职工权益保障、涉税处理、刑事民事交叉、信访维稳等难题的制度性、机制性经验及创新做法，为降低企业破产成本、提高债权回收率、缩短办理破产时间建全制度、完善机制，打造德州办理破产“快车道”。', '今年以来，德州法院在优化营商环境工作中，多项重点工作和典型案件被各大媒体宣传报道，借此机会，向长期以来关心关注法院工作的媒体朋友表示感谢！下一步，我们将紧紧围绕市委决策部署和全市发展大局，以更高的站位、更大的力度、更实的举措，充分发挥司法职能，持续推进优化营商环境工作，以优异成绩迎接党的二十大胜利召开！谢谢大家！', '全市检察机关认真落实市委、市府要求，树牢“法治是最好的营商环境”理念，将“涉案企业合规”“检察护企绿色直通车”作为“一把手营商环境项目”，充分发挥检察职能，服务优化营商环境，为全市经济社会高质量发展保驾护航。', '2021年9月以来，在市委坚强领导下，在市工商联等部门大力支持下，全市检察机关依法能动履职，深入推进涉案企业合规工作，目前共办理合规案件15件，帮助15个涉案企业开展合规建设，其中注册资金千万级以上企业9个，助力“带病”企业实现“司法康复”。近期，市检察院在全省工作推进会上作典型发言，宁津县院获评全省优秀试点院。', '（一）提高政治站位，深化思想认识。企业合规改革试点工作，是检察机关贯彻习近平法治思想、服务新发展格局的重大创新举措。全市检察机关把开展涉案企业合规改革试点作为服务重点项目建设、护航经济社会发展和平等保护民营企业的有力抓手，依法督促涉案企业作出合规承诺、积极整改落实，促进企业合规守法经营，为全市营商环境提供更优质的法治保障。', '（二）主动请示汇报，争取工作支持。宁津县检察院被省院确定为试点院后，市检察院和宁津县院第一时间向党委政府全面汇报、争取支持。田卫东书记、朱开国市长分别批示肯定，市政协副主席、工商联主席康志民担任第三方监督评估机制管委会主任，两级工商联等单位迅速跟进、大力支持。市检察院及时向省检察院汇报，组织非试点院在法律框架内同步开展相关工作。', '（三）细化责任分工，严密部署落实。市检察院先后组织召开专题党组会3次，成立由检察长任组长、分管检察长任副组长、9个内设部门负责人为成员的领导小组，制定《关于开展涉案企业合规改革试点工作方案》，实行“挂图作战”。组织到先期试点院临沂市院考察学习，举办专家培训等300余人次。', '（一）成立第三方监督评估机制管委会。涉案企业合规整改是涉及司法、执法、行业监管等多方面的社会综合治理问题，建好用好第三方监督评估机制是关系改革成败的基础工作。在市委、市府的大力支持下，市检察院与市生态环境局、市应急管理局等18家单位联合会签《关于建立涉案企业合规第三方监督评估机制的实施办法（试行）》，成立第三方监督评估机制管委会。', '（二）建立第三方机制专业人员名录库。市工商联作为管委会办公室主任单位，牵头面向社会选任第三方机制专业人员，在市级层面组建了涵盖政府机构专业人员、律师、注册会计师、注册税务师、专家学者、企业家代表等在内的66人专家名录库；宁津县级层面组建38人专家名录库。', '（三）全面规范适用第三方机制。积极借助第三方机制，由客观、专业的第三方对企业合规整改情况开展监督评估，确保企业整改方案“真合规”“真管用”。严格落实巡回检察、第三方组织组成人员利益回避、涉案企业合法权益保障等制度，各非试点院办理涉案企业合规案件统一适用市级第三方机制，确保合规审查的公正性与中立性。', '（一）拓展案件线索。全面梳理全市三年来办理的涉企案件情况，加强与公安机关沟通，引导对尚未进入检察环节、可能涉及企业合规案件线索逐一排查。共筛查案件211件，发现涉企线索34件。我市办理涉案企业合规案件涵盖罪名广，走在全省前列。如乐陵市院办理的某公司逃税案等6个案件，均为相关罪名全省首例合规案件。', '（二）严把合规审查。贯彻落实少捕慎诉慎押刑事政策，对涉案企业是否适用企业合规及合规效果开展综合评估、跟踪考察，在做好“合规不起诉”工作的基础上，对三年以上有期徒刑案件探索适用合规程序，提出轻缓量刑建议。所办案件涉及罪名11个、缴税数额百万元以上企业5个，健全完善企业管理制度100余条，实现“办理一个案件，挽救一个企业”的效果。如临邑县院办理的某公司污染环境案，依法启动刑事附带民事公益诉讼程序，督促企业对案发现场环境修复后，对企业作出从宽处理决定。', '（三）治“已病”更治“未病”。做好行政执法和刑事司法双向衔接，对依法可以不起诉但需在经济上、行政上追责的，及时向主管部门提出检察意见。从类案中发现共性问题，向主管部门、行业协会制发检察建议10份，帮助企业排查风险点98项，防范相关案件反复发生，促进行业治理、诉源治理。', '检察机关12309检察服务中心设立民营企业法律服务“绿色通道”，为民营企业提供“一站式”法律服务，对涉企案件优先办理、快速审查、快速流转、重点监督。今年以来，全市检察机关受理涉及民营企业信访诉求69件，其中民事申诉类48件、刑事申诉类4件、控告举报类7件、其他咨询建议类10件。办理涉企不服法院生效民事裁判监督申请39件，涉企申请执行监督申请9件，其中提请抗诉4件、提出抗诉1件、向法院制发再审检察建议6件。', '下一步，检察机关将聚焦企业家所想所盼，做到“企业有所需，检察有所应”，全力打造“检察护企绿色直通车”品牌项目，积极延伸检察职能，为民营企业提供更加及时、精准、高效的检察服务。一是领导包案首办。对首次到检察机关信访的涉民营经济案件，一律纳入检察长包案范畴。对民营企业来信来访，检察长靠前指挥、实地调度，一律建立工作台账、全程深度参与、压实办理责任，每季度进行跟踪问效。对检察机关管辖范围之外的重要涉法涉诉问题，主动向市委政法委请示报告，必要时协调相关司法部门予以解决，实现“以我管促都管”。二是畅通“专门通道”。在12309检察大厅设立企业信访专门窗口和企业涉诉纠纷绿色通道，及时受理督办民营企业和民营企业家控告、申诉，原则上当日完成程序性审查并回复审查结果，为代理涉企案件律师开辟在线预约、电子卷宗、异地阅卷等便捷通道，已为涉企案件代理律师提供优质阅卷服务5次。三是深化检企互动。充分发挥派驻工商联（总商会）检察工作站法律服务功能，畅通拓宽企业反映渠道，依法接收、办理案件。建立检察机关企业联系人制度，定期走访各商会和行业协会，邀请企业家代表参加公开听证、检察开放日等活动，听取行业监管部门、工商联、工信局、行业协会和商会的意见，积极回应企业关切，问需于企、问效于企。', '各位媒体朋友、同志们，下一步，全市检察机关紧紧围绕全市工作大局，切实履行好检察职能，细化实化措施，全力上赶争，严真细实快，为营造我市安商惠企法治化营商环境贡献检察力量。', '营商环境是一个地方发展的生命线。近年来，省委、省政府和市委、市政府对优化营商环境工作高度重视。为贯彻落实省委、省政府决策部署和市委、市政府工作安排，进一步提振企业家信心，德州市公安局牵头了“创新‘四个一’举措 锻造政务服务红旗窗口”和“保路畅、护平安、惠企业 优化提升涉企交通运输管理服务”两项“一把手营商环境项目”。下面我向大家作一个简要的介绍。', '“创新四个一举措，锻造政务服务红旗窗口”是市公安局为企业群众纾困解难的创新性项目，相关工作做法先后在新华社、《人民公安报》等省以上主流媒体刊发。现面向社会郑重承诺，将进一步聚焦企业、群众新期盼，坚持流程再造、制度创新，统筹优化警力资源，最大程度惠企惠民，优化法治营商环境。', '一是以“一个品牌”（忠诚哨上党旗红）擦亮窗口形象。以党建带队建，以队建促提升，精准聚焦群众和企业办事需求，全面落实“严真细实快”要求，靠前一步、主动作为，不断提升政务服务窗口行政效能，积极争做群众和企业的“贴心人”。', '二是以“一个部门”（行政审批服务处）统筹公安政务服务。按照“应尽必进、应尽全进”原则，市公安局7个警种110余项业务整体授权进驻市政务服务中心，统一市、县和基层所队进驻事项标准，全面实现政务窗口“前台统一受理、后台分类审批、统一窗口出件”。', '三是以“一窗通办”（政务服务公安窗口）培树改革品牌。坚持科技引领，实现多个放管服系统“一套设备采集、一台电脑审批”，办事效率提升45%。推行“户籍+、车管+、出入境+”全科通办模式，最大限度便民利企，推进惠企惠民服务“一门”到“一窗”迭代升级。', '四是以“一个平台”（政务服务平台）提升服务质效。在实现网办事项95项、累计办件25万件次的基础上，继续强化微警务网办功能，坚持“应上尽上，能上尽上”，将更多事项纳入网办清单，使网上办、掌上办、指尖办成为惠企惠民主阵地。', '德州市公安局践行“靠前一步，主动作为”警务服务理念，深入推进优化营商环境创新提升行动，精准提供便捷高效服务，助力企业高质量发展。', '一是建立警企常态沟通协调机制。公安交警部门建立同辖区机动车生产、销售、客货运、检验机构等企业之间的“情况通报、信息共享、助力发展”警企协作机制。', '二是提升高层次人才服务质效。各级车管业务窗口设置“高层次人才服务绿色通道”标识，设立优先办理绿色窗口，对持“山东惠才卡”的高层次人才，在办理机动车查验登记、驾驶证申领审验等业务时，予以优先。', '三是提供交通安全风险提醒服务。运用大数据分析、人工智能等新技术，为重点运输企业提供交通安全风险提醒服务。通过发送短信、手机APP自助查询或书面告知等方式，提出相应整改措施建议，及时消除安全隐患。', '四是实施注册登记上门服务。实施惠企绿色通道“上门办”，对辖区内出租、公交等运输企业批量购置车辆，需要上门查验的，备案后组织查验员上门查验机动车。', '五是做好涉企接诉即办。全面落实“企有所诉、我必有应、接诉即办”要求，建立迅速响应机制。', '我们注意到，在实施“助企安商护航”工程中提到了建立经济领域司法突出问题协同解决工作机制，请具体介绍一下。', '李俊杰：感谢记者朋友的提问。为进一步畅通民营企业诉求反映渠道，及时解决民营经济领域司法突出问题，切实维护企业家合法权益，市委政法委联合市委统战部、市工商联建立了民营经济领域执法司法突出问题协同解决工作机制。市委统战部负责工作机制牵头协调，指导工商联做好案件线索、诉求和举报移送工作。市工商联负责依法收集、梳理民营企业关于可能存在司法问题或政法干警可能存在违纪违法情况的反映，定期向市委政法委移送需要协调解决的事项。市委政法委负责梳理分析、分类登记、建立台账，向政法各单位进行交办、督办。市政法单位对反映的案件和问题依法依规进行处理，及时向市委政法委反馈办理结果。市委政法委定期汇总整理案件办理情况并向市工商联反馈。谢谢！', '石青：感谢记者的提问。涉案企业合规改革是检察机关贯彻习近平法治思想，充分发挥检察职能，服务保障经济社会高质量发展的创新举措。为落实“少捕慎诉慎押”刑事司法政策，引导企业守法经营，2020年3月，最高检启动涉案企业合规改革试点工作，提出检察机关办理涉企案件时，督促企业作出合规承诺，由第三方组织评估合格后，对涉案企业作出不捕、不诉、轻缓量刑建议等宽缓处理。', '企业合规适用于公司企业等市场主体在生产经营活动中涉及的各类犯罪案件。启动合规程序的条件是涉案企业、个人认罪认罚，企业能够正常生产经营，承诺建立或完善企业合规制度，自愿适用第三方机制。检察机关通过商请第三方机制管委会启动合规程序，从专业人员名录库中抽取人员组成第三方组织，确定合规考察期，由第三方组织对涉案企业合规计划履行情况进行评估，评估结果作为检察机关处理案件的重要参考。对涉案企业完成合规整改、形成长效管理机制的，根据案件情况依法作出不捕不诉或提出宽缓处罚的量刑建议；对整改未达有效性标准的，作出批捕起诉决定；对弄虚作假或存在其他不当行为的，依法从严处罚。', '现全市已全面铺开涉案企业合规改革，在疫情期间，为15家涉案企业依法适用合规程序，避免了企业一旦涉嫌刑事犯罪，将无法正常经营的情形，帮助企业纾困解难，为优化我市营商环境贡献检察力量，谢谢。', '兰善文：交警支队与交通局协商建立信息共享机制，结合网格化勤务，实行网格民警分包企业制度，实施重点企业“一对一”包联服务措施，目前德州市辖区大队对企业包联数达到97%以上，通过明确包联领导和民警的方式，进一步开展走访调研，针对性帮助运输企业破解生产经营活动中的难点堵点痛点。德州市范围内的重点运输企业已经实现每月平均走访调研一次，并且有针对性的开展警企恳谈会。下一步我们将设立企业服务热线，畅通沟通联系渠道，第一时间协助解决困难问题。', '兰善文：对“12345”政务服务热线等渠道收到的企业诉求，1个工作日内启动核实程序，3个工作日内答复，15个工作日内解决或服务确认。对重点事项专人办、马上办；对跨区域、跨部门、跨行业的办理事项，协调办、联动办。加强分析研判，向前一步主动发现问题，提出解决方案。', '“一条链改革”是法院为提高群众司法获得感，提升当事人对案件裁判满意度而进行的涉及“立案、审判、执行、信访”全过程、案件“诉前、诉中、诉后”全节点的“审判理念、审判模式、审判方式”综合改革的简称，也是“诉讼引导+风险评估+诉中释明+判前评断+判后答疑+执行和解”全流程服判息诉六项改革工程的总称。', '德州法院坚持以人民为中心，努力实现让人民群众在每一个司法案件中感受到公平正义的目标，进一步转理念、转模式、转作风，深化审判执行工作体制和机制改革。', '一是强化诉前服务工作，为当事人提供全方位的诉讼服务和诉讼引导。加强诉前调解工作力度，引导当事人进行诉前风险评估，诉讼风险提前告知并进行提示。在立案前，使当事人对自己的诉求有一个合理预期。', '二是完善诉中释明和评断机制。当事人的合法权益要通过合法途径主张，诉讼主张要符合法律规定。强化法官在诉讼中根据查明的事实，及时对当事人进行法律释明。防止当事人的诉讼主张不符合法律规定而导致衍生诉讼或走诉讼弯路。同时，对重大分歧案件宣判前进行公开评断，证据要摆在庭上、理也要讲在庭上，公开促公正，消除当事人误解或猜测。', '三是健全判后答疑及执行和解制度。法官要辩法析理，提高裁判文书质量与水平。宣判后也要及时回应当事人的质疑。法院畅通信访渠道，针对当事人信访及投诉，实事求是、依法依规及时答疑并及时处理。同时，加强执行和解工作，及时督促当事人自动履行生效判决，力争案结事了。', '通过“一条链改革”，充分保障当事人的知情权、参与权和表达权，努力提升法官办案水平与群众工作能力，改革成效体现在每一件具体案件的审判执行工作之中。通过此项改革工作，变“短板”为“强项”，降低信访投诉率，提高当事人满意度，提升群众司法获得感，为党的二十大胜利召开营造和谐稳定的社会环境。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>141</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>关于将功能食品产业发展列入德州十四五规划的建议</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n66411375/c67966129/content.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['（案由）国家“十四五”规划提出加快生物技术产业发展，山东省“十四五”规划强调，加快发展新动能主导的现代产业体系,医养健康产业位列“十强”之中。《德州市新型工业化强市建设三年行动计划》中，将医养健康产业作为着力做大的五大战略新兴产业之一。', '（案据）功能食品隶属生物技术产业，又是医养健康产业的基础部分。德州是全国23个高技术生物产业基地之一，目前形成以生物制造、生物农业、生物医药为主体的特色产业体系，涌现出保龄宝、禹王、福洋、中谷等龙头企业。在健康消费趋势下，功能食品产业发展已迎来黄金机遇期。借助“十四五”实现跨越新发展，对我市功能食品产业巩固放大优势，抢占国内领军位置，助推全市经济发展非常关键。', '我市在“十四五”规划中将扶持功能食品产业发展作为重点内容，全力实施产业链延伸工程、新产业培育工程、新业态创新工程、新模式发展工程，把德州建设成为全国规模最大的生物技术产业基地、全国生物制造产业示范基地。', '一是扶持领军企业单体规模膨胀。在全市功能食品产业中选取5到10家领军企业进行重点培植，给予资金补助、贷款贴息、课题攻关等支持，集中全力促其上项目、扩规模、增效益，形成产业“领头雁”，使一个企业带动一个产业，激活一个区域。', '二是基于产业现状延链补链强链。围绕产业链上下游精准招商，精准发力，打造上下游产业链互补、互联、互动的集群发展模式。通过合作、合资及产权转让等方式，引进行业龙头企业和科技型企业，打造“雁阵形”集群，实现产业链高效协同发展。', '三是支持企业柔性招才引智。通过补贴、补助等方式，支持企业在济南等发达地市注册子公司，或设立研发中心、销售中心等分支机构，吸引当地大学毕业生和高层次人才。支持企业在高校院所建立联合实验室，打造外部研发基地。', '四是支持各地加快产业转型升级，打造产业特色发展新增长极。比如：禹城市以中国功能糖城通过复审为契机，开启二次创业，建议在德州层面给予重点扶持。同时，支持我市符合条件的企业寻求上市，支持上市公司开展定增。', '五是支持各地开展对外交流和区域品牌推广活动。积极支持各县市区围绕主导产业承办全国行业年会、全球行业论坛等具有较大影响力的行业活动，不断擦亮区域品牌。', '您提出的关于将功能食品产业发展列入德州“十四五”规划的建议收悉，针对“支持我市符合条件的企业寻求上市，支持上市公司开展定增”，现答复如下：', '近年来，我市高度重视资本市场工作，抢抓资本市场改革窗口期，创新工作举措、落实扶持政策、强化服务指导、加强培训宣传，全市企业对接资本市场成效显著。目前，全市境内上市公司10家居全省第7位、报审辅导企业4家居全省第8位，累计实现上市融资183.49亿元。5家上市公司实现定向增发融资69.21亿元。', '一、完善工作机制。成立德州市企业上市专项工作小组，由市政府分管领导任组长，统筹推进企业上市挂牌。坚持高标准定位、高质量发展，印发《德州市上市公司数量和市值三年双翻番行动实施方案》，明确目标，落实措施，强化保障。通过召开专题调度会和协调会、进行现场办公、实行“一事一议”、开辟“绿色通道”，帮助企业解决有关困难和问题，清除上市障碍。', '二、落实扶持政策。2015年市政府出台了《关于进一步推进企业对接资本市场的意见》，对在境内外上市和“新三板”挂牌企业由给予300万元、150万元、80万元奖励，截至目前，市政府已累计兑现上市挂牌补助资金4980万元，极大地提升了企业家对接资本市场的信心。', '三、加强资源培育。深入发掘资源企业，建立全市上市挂牌后备资源库，实行动态管理。梯次推进工作，对企业全程提供“保姆式”服务，并按“确定券商、股改、辅导、报会、上市”等阶段给予精准化指导。每年到拟上市企业调研不少于3次，并邀请省地方金融监管局、山东证监局和沪深证券交易所的领导专家到企业考察指导。发挥齐鲁股权交易中心德州运营中心上市孵化器作用，联合市金融服务联盟到各县市区开展县域资本市场巡回培训活动。组织业内名气大、执业水平高的证券公司分片区对后备资源逐企走访，把脉问诊。', '四、强化培训宣传。坚持“请进来授课”与“走出去取经”相结合，努力提高企业家对资本市场的认识，转变思想观念。每年开展资本市场专题培训活动不少于10次。举办“走进上交所”、“走进深交所”，组织企业到交易所参观学习，感受资本市场魅力。', '五、加强沟通汇报。带领重点拟上市企业到省地方金融监管局、山东证监局、沪深证券交易所汇报上市情况，争取上级支持。协调山东证监局为拟上市企业开辟绿色通道，确保企业上市顺利推进。', '下一步，我局将结合您提出的意见建议，进一步加大上市和上市公司定向增发工作推进力度，落实市委、市政府关于上市公司数量和市值三年双翻番行动的决策部署，深入挖掘上市资源企业，落实完善扶持政策，强化资源培育和服务指导，加强培训宣传，推动更多企业上市、更多上市公司定增。', '按照市委建议内容，《德州市国民经济和社会发展第十四个五年规划和2035年远景目标纲要》（以下简称《规划纲要》）中提出，集中培育高端装备、新能源与节能环保、新材料、医养健康、新一代信息技术、绿色化工、纺织服装、现代高效农业、现代物流、文化旅游等十大产业，加快形成以新动能为引领的现代产业体系。', '功能食品产业作为医养健康产业的细分产业，我市发展基础良好，目前形成以生物制造、生物医药、生物农业等为主体的特色产业体系，涌现出一批细分行业的龙头企业，如保龄宝、福田药业、百龙创园、禹王、谷神、福洋生物等，打造了国家高技术生物产业基地、“中国功能糖城”等知名区域品牌。为扶持我市功能食品产业发展，在《规划纲要》的医养健康产业部分明确提出，“重点发展体育器材、医药与医疗器械、功能食品与保健品等领域，完善全周期健康服务产业链，推动医疗、医药、养老、功能食品、体育等多业态融合发展，打造生物医药产业基地、国内一流的医养健康名城”。', '2020年市委、市政府印发《德州市新型工业化强市建设三年行动计划》，全力构建“541”产业体系，做大战略新兴产业，做优传统优势产业，做强生产性服务业，其中将以禹城功能糖行业为核心的功能食品与保健品产业列入了医养健康产业，是我市着力做大的五大战略性新兴产业之一，目前正在制定《德州市医养健康产业专项发展规划（2021-2025）》，《德州市产业集群及园区布局规划（2021-2025）》，坚持“一业一规划”、顶层设计，高水平定位、引导我市功能食品产业集群发展方向。您提出的建议与我市功能食品与保健品产业发展方向和目标高度契合，是进一步推动产业发展的关键举措。', '功能食品与保健品产业是我市特色食品产业，2020年，规上企业23家，实现营收117.34亿元，同比增长13.4%。我市功能糖综合产能超过100万吨，规模位居全国前列，约占全国市场的70%，国际市场的30%。大豆蛋白深加工产业省内位列第一，占全国市场份额的15%以上。我市功能食品与保健品产业集群效应显现，产业相对集中，产业配套不断完善。现与中科院、山东大学、江南大学等40多家国内外高等院校、科研院所建立技术合作关系，拥有省级以上各类创新平台29个，博士后科研工作站6个，院士工作站2个，已建立各类公共服务平台40多个，涵盖技术研发、质量检测、产业孵化、法规标准、信息咨询等服务功能。“十四五”期间，我市将全力推动新型工业化强市建设，以专业规划为蓝本，结合您的建议，坚持产业链建设工程，培育新产品、新业态、新模式，大力推动以功能糖为核心的生物技术产业发展。', '一是立足产业链发展，不断延链补链强链，推进特色产业集群发展。立足我市功能糖和大豆蛋白产业发展优势，以禹城市、陵城区为核心，以沿链聚合为导向，以产业园区建设为平台，优化区域要素资源配置，以禹城市再次荣获“中国功能糖城”称号，成为全国唯一的“中国功能糖城”为契机，加大产业整合力度，推动优势资源和规模企业向专业产业园区聚集，加强产业协作配套，增强规模效应，全力打造我市功能糖和大豆蛋白两大功能食品与保健品产业集群。', '二是以优化产业生态为目标，扶持产业链核心企业做大做强。坚决落实《德州市支持新型工业化强市20条意见》等政策，重点支持保龄宝、福洋生物、禹王、百龙创园、谷神等“工业50强”企业做大做强，坚持政策优先倾斜、要素优先供给、服务优先保障、难题优先解决，集中力量，重点突破，支持龙头企业加强核心能力建设，扩大企业规模，增强企业实力，推动形成一批主导产业链发展、优化产业发展生态的产业链“链主”企业。', '三是实施沿链精准招商，加快提升产业链现代化水平。坚持“四图作业”，制定功能食品与保健品的产业链图、技术路线图、应用领域图、区域分布图等，明确产业链招商方向，推动以企引企、以商招商，吸引功能食品与保健品产业下游企业落户德州，统筹推进产业链企业发展、招商引资、项目建设、人才引进、技术创新等重大事项，积极招引带动性强、经济效益优的功能食品与保健品产业重点项目。', '四是积极支持企业开拓市场。认真落实好全省“展会+”开拓市场行动，全面梳理、分批推介国内优质重点展会，积极组织企业参展观展，引导全市工业企业加强对外交流合作，开拓国内外市场，集中优势资源提高我市产品市场占有率，积极引导支持全市工业企业加强与国内重点组织、行业协会及科研院所对接交流。', '五是加强“智慧赋能”，推动数字化转型发展。研究制定《德州市推进制造业+人工智能和工业互联网发展的实施方案》，推动新兴产业集群快成长、上规模，进一步推动保龄宝生物股份有限公司的基于工业互联网的生物产业全过程智能制造研究与示范项目建设，实施传统产业智能化改造升级计划，进一步提升我市功能食品与保健品产业智能制造水平和应用能级。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>141</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>中共德州市委德州市人民政府关于印发德州市黄河流域生态保护和高质量发展实施规划的通知</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n54763497/n54763526/n66328654/c73567640/content.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['中共德州市委 德州市人民政府关于印发《德州市黄河流域生态保护和高质量发展实施规划》的通知', '各县市区党委（党工委）和人民政府（管委会），市委和市政府各部门单位，各人民团体，各高等院校：', '现将《德州市黄河流域生态保护和高质量发展实施规划》印发给你们，请结合实际认真贯彻落实。', '黄河是中华民族的母亲河。黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，是事关中华民族伟大复兴的千秋大计。', '党的十八大以来，习近平总书记多次考察黄河流域生态保护和经济社会发展情况，强调要共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。', '德州因水而名、因水而兴、因水而灵。德州之名源自黄河、来自德水，黄河之水滋润着德州。抓住用好黄河流域生态保护和高质量发展重大战略机遇，必须遵循重在保护、要在治理的总要求，咬定目标、脚踏实地，埋头苦干、久久为功，在黄河流域生态保护和高质量发展中协同行动、率先突破，切实肩负起保护母亲河的使命和担当。', '为深入贯彻习近平总书记深入推动黄河流域生态保护和高质量发展座谈会重要讲话和一系列指示批示精神，全面落实省委提出的“六个一”发展思路、“六个更加注重”策略方法和“十二个着力”重点任务，根据《黄河流域生态保护和高质量发展规划纲要》《山东省黄河流域生态保护和高质量发展规划》，编制本规划。', '规划范围覆盖德州市全域。规划期至2030年，中期展望到2035年，远期展望到本世纪中叶。本规划是指导当前和今后一个时期德州市推动黄河流域生态保护和高质量发展的指导性文件，是编制专项规划、制定相关政策、实施重大工程的重要依据。', '国家推进实施黄河流域生态保护和高质量发展战略，为德州市坚决贯彻新发展理念，服务和融入新发展格局，拓展发展新空间，厚植发展新优势，释放发展新活力，坚定不移走生态优先、绿色发展的现代化道路，开创高质量发展新局面，提供了前所未有的历史机遇。', '有利于优化水系生态大格局，提高水资源高效利用水平。德州资源型缺水特征明显，优化水源配置、保障水源供应、节约集约用水迫在眉睫，亟需实施严格的水资源保护利用制度，全面实施节水控水行动，增强水源涵养能力，提升国家节水型城市建设水平，形成“水系连通、水源安全、水质保障、水韵灵动”新局面。', '有利于融入绿色生态大廊道，提升黄河下游生态功能。推进黄河下游绿色生态廊道建设，为我市大力实施大运河生态保护修复治理工程、协同建设济南—德州—聊城沿黄百里绿色长廊及打造沿黄生态保护带样板提供了难得契机，将有力推动生态修复、加快提升生态功能、促进生态环境与经济发展良性互动。', '有利于融入黄河文化旅游大长廊，促进黄河文化繁荣发展。德州文化底蕴深厚，文旅资源丰富，挖掘阐发黄河文化的深刻内涵和时代价值，将有助于加快融入全省黄河文旅大长廊和文化“双创”大平台建设，推动文化资源共建共享，培育“文旅+”新产业新业态，开发富有德州元素的文创产品，打造黄河下游重要文旅康养融合发展示范城市。', '有利于构建沿黄达海大通道，主动服务融入新发展格局。德州枢纽功能地位突出，大力发展通道经济，能够有效解决通道不畅通、物流成本高、要素集聚能力弱等问题，向西打开能源供应市场，向东打通海上物流通道，加快建设RCEP经贸合作示范区，打造中国北方对接东盟的重要支点城市，提高服务融入新发展格局的嵌入度和贡献率。', '有利于融入黄河流域科创大走廊，增强高质量发展源动力。全省统筹推进科技创新前瞻布局和资源共享，携手打造黄河流域科创大走廊，我市主动加强与山东半岛、郑洛新、西安等国家自主创新示范区以及济南新旧动能转换起步区的协同协作，将大幅提升创新能级、有效汇聚创新资源，把科技创新“关键变量”变成推动高质量发展的“最大增量”。', '交通区位优势明显。德州地处黄河流域生态保护和高质量发展、京津冀协同发展两大国家战略黄金交汇区，战略地位重要。境内形成了“三纵三横”铁路网、“三纵三横”高速公路网，通达全国16个省200多个城市，与北京、天津、济南、石家庄形成半小时至1小时交通圈，是全国交通主枢纽城市和区域物流节点城市，交通枢纽地位日益凸显。', '生态功能地位重要。德州属于京津冀大气污染传输通道“2+26”城市，是京津冀南部重要生态功能区。河流水系众多，黄河、卫运河、漳卫新河、徒骇河、马颊河等穿境而过，拥有夏津黄河故道国家级森林公园，国家级湿地公园5处、省级湿地公园8处，建成人工湿地23处，创建水利风景区17处。大气、水、土壤环境质量持续向好，水生态功能初步得到恢复，齐河县、乐陵市分别获评第五批国家级生态文明建设示范区和“绿水青山就是金山银山”实践创新基地。', '黄河文化底蕴厚重。德州拥有黄河国际生态城、黄河故道森林公园等文化资源。文旅融合趋势明显，现有国家A级旅游景区60家，其中，4A级8家，齐河县成功创建国家全域旅游示范区，庆云县、夏津县、齐河县被评为山东旅游强县。全市现有市级以上文物保护单位105处，其中，世界文化遗产1处，全球重要农业文化遗产1处，国家级文物保护单位4处。', '新旧动能加快转换。新旧动能转换初见成效，高质量发展积厚成势，呈现由量到质、由形到势的趋势性转变，“四新”经济占比提升到28.2%，高新技术产业产值占比达到43.4%，分别较2018年提高9.9个、12.5个百分点。在全省率先实行链长制，以制造业为主体的实体经济持续向好，德州高新技术产业开发区入选国家高技术生物产业基地、绿色产业示范基地，乐陵入选国家体育产业示范基地。能源结构持续优化，2020年万元GDP能耗0.64吨标准煤，较2017年下降5.6 %。', '农业发展基础良好。德州是全国重要的粮食、畜牧、蔬菜主产区，粮食年产量稳定在150亿斤以上，占全省的14%、全国的1.1%，各类农产品京津冀鲁市场占有率达到30%以上。现代农业加快发展，拥有国家级农业产业化龙头企业9家。品牌价值持续提升，成功创建省级农产品质量安全市，陵城、宁津入选国家良种繁育基地，禹城入选国家级农业产业融合发展示范园，涌现出乐陵小枣、夏津椹果等一批省级知名品牌，“德州味”农产品品牌建设走出新路子。', '水资源供需矛盾突出。德州水资源极其匮乏，人均水资源占有量211立方米，仅为全省人均的61%、全国的10%，低于500立方米的国际严重缺水线。正常年份缺水量7.6亿立方米，缺水率达29％。2020年12月被列入黄河流域水资源超载区，加之由于未来地下水超载综合治理产生的新增地表水需求量0.5亿立方米，水资源供需矛盾持续加剧。农业生产用水量大、回报率低，全市以80%以上的水资源量灌溉了全省8.2%的耕地，生产了全省17%的粮食，但对全市GDP的贡献仅占10.6%；农田灌溉水利用系数仅0.63左右，近40%的灌溉水渗漏损失，成为制约高质量发展的重要因素。受土壤条件限制被动用水现象十分突出，作为北方土壤盐碱化和次生盐渍化分布最典型的地区之一，每年需要1—2次大水压碱。工业用水效率和中水回用率偏低，城镇居民节水意识不强，节水型社会建设任重道远。', '生态保护治理任务艰巨。在“碳达峰、碳中和”大背景下，节能减排压力较大。德州处在交通大通道，每天过境车辆20万辆以上，对PM2.5贡献率接近40%。中小企业挥发性有机物治理难度较大，臭氧超标天数比例达到全年超标天数的50%。水生态环境问题突出，雨污分流改造任务较重，农灌季节水位波动剧烈，导致水生态功能不稳定。夏津黄河故道仍有10万亩荒漠化土地亟需治理。', '防洪减灾体系存在短板。黄河干流德州段河道槽高、滩低、堤根洼，部分险工及控导工程老旧失修，部分引黄涵闸等穿堤建筑物存在安全隐患。马颊河等内河防洪减灾能力有待提升，部分河道防洪隐患较大，农村河道缺乏有效管护，洪涝灾害形势依然严峻。', '文旅资源有待深入整合。黄河文化与非物质文化遗产资源挖掘不足，文化旅游产品的丰裕度与文化旅游资源的影响力尚不匹配。文旅产业存在“小、散、低、慢”等问题，文旅产业与其他产业融合深度不够、力度不大。文化旅游数字化、智慧化建设缓慢，文化创意、动漫设计等新业态较少，智慧文旅服务体系建设有待加强。', '产业结构层次不高。传统产业占比高，新兴产业势强力弱，“四新”经济占GDP比重低于全省2个百分点，高新技术企业数量仅占全省的2.5%。产业发展集中度、链条延伸度、企业紧密度、链长首位度不高。产业有集中缺集群、企业有群山缺高峰、产业链有链节缺链条现象突出，全市营业收入过百亿元企业仅有3家。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，深入贯彻习近平总书记关于黄河流域生态保护和高质量发展的重要讲话、重要指示批示精神，以“三个走在前”为根本遵循，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，科学把握新发展阶段，坚定贯彻新发展理念，服务和融入新发展格局，遵循重在保护、要在治理的战略要求，统筹推动生态环境高水平保护、经济社会高质量发展，努力建设黄河流域水资源高效利用试验区、文旅融合发展示范区、乡村振兴引领区、黄河下游重要生态功能区和高质量发展增长极，在新时代“黄河大合唱”中谱写德州篇章、贡献德州力量。', '坚持生态优先、绿色发展。牢固树立“绿水青山就是金山银山”理念，以碳达峰目标和碳中和愿景为引领，坚持走生态优先、绿色发展之路，充分发挥生态环保对经济发展的优化促进作用，加快推动产业绿色化、绿色产业化，以生态环境高水平保护推动经济社会高质量发展。', '坚持量水而行、节约利用。把水资源作为最大的刚性约束，坚持以水定城、以水定地、以水定人、以水定产，合理规划人口、城市和产业发展，着力优化生产生活生态用水结构，深化用水制度改革，用市场手段倒逼水资源节约集约利用，推动用水方式由粗放低效向节约集约转变。', '坚持动能转换、创新驱动。认真落实“三个坚决”，大力发展“四新”经济，系统强化科技引领、数字赋能、产业生态、支撑保障，着力推动经济发展质量效益“双提升”，以加速度彰显高质量发展，以强动力助推高质量发展，以新增量赋能高质量发展，以获得感诠释高质量发展。', '坚持集成改革、扩大开放。更大力度解放思想、更新观念，敢于用改革破解发展中的矛盾和困难，善于用开放拓展经济社会发展新空间，聚焦改革攻坚，提高开放水平，以开放促改革、促创新、促发展，构建沿黄达海开放大通道，打造内陆对外开放新高地。', '坚持系统思维、统筹推进。树立“一盘棋”思想，增强系统思维，坚持顶层设计，统筹推进重大生态保护、水网体系、交通能源和产业体系建设，筑牢底板、补齐短板，实现“生态、生产、生活”协调发展、人与自然和谐发展、区域经济社会可持续发展的治理目标。', '坚持问题导向、精准施策。加强生态环境问题分析研判，抓住问题根源及变化趋势，以群众身边的突出生态环境问题为重点，因地制宜，精准施策，防止“一刀切”，充分运用信息化、智能化科技手段，加快推动生态环境由经验治理向精准治理转变。', '打造国家战略对接融合桥头堡。抓住用好黄河流域生态保护和高质量发展与京津冀协同发展两大国家战略叠加机遇，充分利用京津冀在科技创新能力强、产业层次高、服务经济发达等优势，瞄准黄河流域的重大需求和广阔空间，搭建对接合作平台，完善利益分享机制，建设推动两大区域科技协同创新、要素资源共享、产业链共育、供应链共建的先行区。', '黄河流域水资源高效利用试验区。实施最严格的水资源保护利用制度，全面实施深度节水控水行动，统筹地表水与地下水、天然水与再生水、当地水与外调水、常规水与非常规水，优化水资源配置格局，提升水资源配置效率，加快形成节水型生产生活方式，以节约用水扩大发展空间，建设水资源高效利用试验区。', '黄河流域文旅融合发展示范区。坚持法治化保护、活态化传承、现代化发展、国际化交流，突出黄河文化、运河文化、大禹文化，讲好“德水安澜”“大禹治水”“导河入海”德字号黄河故事，积极推动“文化+”“旅游+”跨产业融合，大力实施文旅融合产品开发工程，实现空间融合、功能融合、市场融合、服务融合，塑造黄河文化旅游特色品牌。', '黄河流域乡村振兴引领区。充分发挥农业资源禀赋优势，深入实施乡村振兴战略，稳步推进沿黄特色美丽宜居乡村建设，努力在打造乡村振兴齐鲁样板中率先突破。不断提升国家优质粮食和绿色农产品供应基地建设水平，促进农产品就地加工、消化、增值，扩大“德州味”公共品牌影响力，推动德州由农业大市向食品名市转变。', '黄河下游重要生态功能区。遵循自然生态原理，运用系统工程方法，统筹推进黄河故道生态修复、百里生态长廊建设，塑造以绿色为本底的城市风貌，建设“水—人—城”和谐统一的生态廊道，构建绿网交织、绿廊串联的生态格局，探索形成平原地区生态文明建设新路径、新模式。', '黄河下游高质量发展增长极。充分发挥生态保护在优布局、转方式、增动力中的积极作用，充分发挥国家战略交汇叠加的发展优势，把科技创新作为绿色低碳循环发展的关键引擎，以先进制造业强市为发展目标，优先抓好生物医药、食品加工、高端装备三大优势骨干产业，新材料、新能源、电子信息三大战略先导产业，现代物流、会展经济、医养健康三大新兴服务业，以强势产业崛起打造新的发展增长极。', '到2030年，黄河流域生态保护和高质量发展取得重大进展，基本形成节约资源、保护环境的空间格局和高质量发展的产业体系、生产方式、生活方式，服务国家战略能力全面增强。', '生态环境质量显著改善。生态空间布局不断优化，生态保护修复、污染综合治理取得显著成效，京津冀南部、黄河下游重要生态功能区作用更好发挥。产业发展规划、重点项目建设与国家、省产业政策和能耗双控目标充分衔接，能源利用效率显著提高，主要污染物排放总量持续减少。', '水资源利用效率显著提高。水资源科学配置和调度机制不断完善，节水型社会建设取得显著成效，基本构建起河库串联、水系联网、城乡结合的供水保障网络。', '防洪减灾能力显著增强。黄河防洪工程体系更加完善，徒骇河、马颊河、德惠新河等骨干河道治理取得明显成效，河道行洪及排涝能力不断增强，城市排涝减灾能力显著提升，灾害应急处置机制不断健全，筑牢沿黄人民生命财产安全的稳固防线。', '黄河文化影响力显著扩大。黄河文化不断焕发新的生机活力，黄河国家文化公园、黄河文化遗产廊道、大运河国家文化公园等标志性项目建设取得突破性进展，文明交流互鉴的广度和深度进一步拓展。黄河文旅资源深度整合，黄河特色旅游产品体系不断健全，建成黄河文旅亮点城市。', '双向开放格局显著优化。区域间开放合作机制更加完善，对外经贸合作领域进一步扩展，互联互通能力进一步增强，黄河下游重要生态功能区、京津冀“一区四基地”、济南新旧动能转换起步区联动区等重点协同协作平台的开放能级大幅提升，高水平开放格局基本形成。', '高质量发展水平显著提升。新动能成为引领经济发展主引擎，“四新”经济占比大幅提升，产业智慧化、智慧产业化、跨界融合化、品牌高端化取得新成效。传统动能焕发新活力，产业基础高级化、产业链现代化水平显著提升。在装备制造、新能源新材料、现代物流等更多领域发力冲刺，建成先进制造业强市、食品加工名市、区域性现代物流节点城市。', '农村人居环境显著改善。乡村振兴取得显著成效，在打造乡村振兴齐鲁样板中率先突破，现代乡村产业体系不断优化，实现农业大市向食品名市转变。农村教育、医疗卫生、社会保障、养老、文化体育等公共服务水平明显提高，人民群众获得感、幸福感、安全感大幅提升。', '到2035年，生态环境质量和生态服务功能全面改善，生态宜居德州建设目标基本实现。黄河防洪减灾能力显著提升，水资源节约集约利用水平和能源利用效率大幅提高。建成高水平国家创新型城市，绿色低碳循环发展经济体系基本形成。开放合作水平全面提升，黄河文化大发展大繁荣，人的全面发展、人民共同富裕取得明显进展。到本世纪中叶，黄河治理体系和治理能力实现现代化，生态环境优美和谐，发展质量大幅提升，建成新时代社会主义现代化强市。', '坚持“节水优先、空间均衡、系统治理、两手发力”治水思路，系统优化水资源配置，加快建设节水型社会，提升水资源利用效率，大兴水之利，优化水之用，彰显水之善，确保有限的黄河水资源发挥最大效益。', '实施水系连通工程。编制实施《德州市城区水系连通规划》，打通水系脉络。东西贯通岔河、减河、南运河、马颊河4条南北走向骨干河道，新扩挖骨干河道98公里，扩挖疏浚支流渠系150公里，构建以岔河为中枢，南运河、减河、马颊河为骨架的“四纵三横”水系循环网络。统筹黄河水、长江水、地表水和非常规水等各类水资源，加快完善市县水网体系，以两大灌区和31处中型灌区为核心，推动从灌区、水库到县乡沟渠、坑塘局域水系连通，完善水资源调配机制，实现整体连通统一调度，分区管理按需调配。打造精品水利，尽快实现“碧水润城”效果，筑牢城市特色的水利根基。加快南水北调二期配套工程建设，重点建设引蓄供一体化配套工程。', '有效利用非常规水源。加强再生水、雨水等非常规水多元、梯级和安全利用，将非常规水纳入水资源统一配置，逐步提高非常规水利用比例。鼓励有条件的县（市、区）因地制宜建设人工湿地水质净化工程，对处理达标后尾水进一步净化。鼓励将再生水用于区域内工业用水、市政杂用和生态补水等，争创污水资源化利用示范城市。到2025年，城市和县城再生水利用率达到35%。加快建设海绵城市，实施城市合流管网雨污分流改造工程，提高雨水资源化利用率，到2025年，所有县（市、区）城市建成区完成雨污分流改造任务，至少35%的降雨实现就地消纳和利用。', '保障城乡供水安全。实施城区供水提升工程、临邑县第二水库、宁津县第二水库等调蓄工程和禹城如意湖水库增容工程。优化城市供水水源布局，实施供水系统连通、互为备用，提高供水保证率和应对突发性水安全事件等应急能力。健全完善应急备用水源体系，加快城乡供水一体化、农村供水规模化建设，实施农村供水规范化改造提升工程，升级改造输配水管网，建设自动化监控系统，打造全省农村饮水安全示范样板，到2025年，农村集中供水率达到99.5%，自来水普及率99.2%，规模化供水工程覆盖人口99%。', '实施水资源双控制度。严格实行水资源消耗总量和强度双控制度，建立各县（市、区）用水总量、用水强度控制指标体系，实施差别化管控措施，制定实施超载地区用水总量削减计划。严控水资源开发利用强度，强化水资源承载能力在区域发展、产业布局等方面的刚性约束。落实省级农业、工业、服务业以及非常规水利用等各领域节水标准。严把引黄调蓄项目准入关，加强重点监控用水单位取用水情况监管，将节水作为约束性指标纳入当地党政领导班子和领导干部政绩考核范围，坚决抑制不合理用水需求，坚决遏制“造湖大跃进”，建立排查整治各类人造水面景观长效机制。', '推动农业节水增效。扩大节水灌溉规模，推进潘庄、李家岸、韩刘、豆腐窝等引黄灌区续建配套与现代化改造，实施引蓄黄河水小型水库改造提升工程，打造高效节水灌溉示范区。加强县级以下农村干支渠的衬砌，减少灌溉水渗漏。完善引黄灌区骨干灌排工程及田间节水工程体系，配套计量基础设施，实行单元化、网格化、全程化用水计量，推进水源、输水、配水、灌水数字化高效节水工程建设，实现灌溉用水自动化、数字化、智慧化管理。推进农业灌溉定额内优惠水价、超定额累进加价制度，建立农业用水精准补贴和节水奖励机制。大力发展农业节水技术，实施管灌、滴灌、喷灌、微灌、水肥一体化等高效节水工程。到2025年农业灌溉水利用系数提高到0.6395。抓好示范区高标准农田建设，到2025年建成高标准农田775万亩。发展旱作农业，优化农作物种植结构，选育推广耐旱农作物新品种，提高低耗水、高耐旱作物种植比例。', '推动工业节水减排。严格高耗水行业用水定额管理，限制新增高耗水工业项目，对超过取水定额标准的企业实施分类分步限期节水改造，倒逼高耗水项目和产业有序退出。大力推广节水技术、设备和工艺，加快节水及水循环利用设施建设，促进企业分质用水、一水多用和循环利用。推进钢铁、火电、化工等高耗水行业企业废水深度处理回用，提高工业废水资源化利用率。推广园区串联用水和企业中水回用、废污水“零排放”等循环利用技术，全面提升工业用水重复利用率，建设节水标杆企业和园区。到2025年，万元工业增加值用水量降低5%，规模以上工业用水重复利用率达到92.5%。', '推动生活节水降损。巩固深化国家节水型城市创建成果，将节水落实到城市规划、建设、管理各环节，实现优水优用、循环循序利用，县域节水型社会达标率提高到70%以上。实施城镇供水体系和供水管网改造提升工程，加快构建安全可靠的水源体系和规模高效的供水体系，降低供水管网漏损率。鼓励中水产业化发展，工业、环卫、绿化等领域优先使用再生水。大力推广绿色建筑，在公共区域和城镇居民家庭推广普及节水型用水器具，新建、改建、扩建工程必须安装节水型器具。推广节水产品认证制度，落实水效标识管理制度。', '激发节水内生动力。落实国家和省节能节水税收优惠政策，鼓励金融机构对符合贷款条件的节水项目优先给予支持，引导社会资本通过合同节水等方式参与节水项目建设和运营。完善居民阶梯水价制度，全面推行城镇非居民用水超定额累进加价制度。推动企业、单位开展水效对标达标活动，探索将节水型单位建设结果与创建文明城市、文明单位等挂钩。实施水效领跑者计划，开展合同节水试点，推广宁津县“互联网+水权+水市场”经验。探索水生态产品价值实现机制，发展依托洁净水源、清洁空气等自然本底条件的环境敏感型产业。加强节水宣传教育，建设节水教育基地，进一步增强全社会节水意识。', '农业节水增效工程：灌区农业节水改造工程以及水肥一体化、滴灌、高标准农田等技术应用工程。实施潘庄、李家岸灌区续建配套与现代化改造项目，韩刘、韩家、张龙等中型灌区续建配套节水改造项目。', '工业节水减排工程：推动高耗水低收益项目淘汰工程，研究适于本市工业节水技术改造投资导向目录；研究推动工业节水激励机制；建立节水标准体系。实施乐陵市中水回用工程。', '海绵城市建设工程：城市雨污合流管网改造工程；建设海绵型建筑和小区、海绵式道路和广场；海绵型公园和绿地雨水消纳系统。', '城乡供水保障工程：实施城区供水提升工程、施女湖水源工程、宁津县第二水库、齐河县水库、临邑县第二水库、庆云县昌盛水库、夏津县北城水库、陵城区王解供水水库、中心城区新水源地工程（杨庄水库）等调蓄工程和李三尖水库增容工程；实施宁津县大柳水厂提升改造工程、武城县瑞丰水厂及农村供水管网提升改造工程、夏津县第二水厂新建等水源工程；实施宁津县两库连通引调水工程、临邑县农村供水基础设施改造项目、庆云县城乡供水一体化提升项目、庆云县引调水工程等供水保障工程。', '水库移民后期扶持项目：乐陵市移民美丽家园基础设施项目、夏津水库移民后期扶持项目、平原县大中型水库后期扶持项目、武城县大中型水库后期移民扶持项目。', '坚持以改善环境质量为核心，突出精准治污、科学治污、依法治污，纵深推进蓝天、碧水、净土保卫战，统筹推动水污染、大气污染、土壤污染综合整治，促进生态环境质量持续改善。', '实施生态环境分区管控。严格落实“三线一单”生态空间管控机制，完善沿黄环境分区管控体系，将“三线一单”作为区域资源开发、产业布局、城镇建设、项目选址的重要依据。优先开展齐河黄河水乡国家湿地公园、夏津黄河故道森林公园、徒骇河国家湿地公园、黄河故道百万亩千年枣林湿地公园等生态保护红线区域的生态修复，严禁实施不符合主体功能定位的各类活动。生态保护红线以外的生态空间按照限制开发区域进行管理，以保护为主，严格限制区域开发强度。严格落实生态环境准入清单，加快构建以产业生态化和生态产业化为主体的生态经济体系。禁止规划建设列入环境准入负面清单项目。建立跨行政区生态环境基础设施建设和运营管理的协调机制，推进生态环境数据共享和联合监测。', '实施生态修复治理工程。加快推进黄河故道生态修复，推广夏津县双庙镇、苏留庄镇治沙经验，因地制宜推动防沙治沙生态建设。恢复提升大运河生态、文化、景观等多重功能，保证大运河基本生态用水。拓展齐河黄河国际生态城绿色空间，改造提升保护区和原生态保育区，构筑“蓝绿空间70%以上、建设空间30%以内”生态格局。以乐陵市、庆云县为重点区域，加大黄河三角洲生态保护修复力度。推进黄河涯生态修复、马颊河湿地生态修复工程，建设千年枣林生态湿地公园、徒骇河湿地（南区），推动湿地面积稳中有增，到2025年，全市湿地保护率达到60%。', '共建黄河下游绿色生态廊道。积极开展国土绿化行动，协同打造济南—德州—聊城百里黄河生态廊道，共建黄河国家湿地公园，先行试点济南—齐河黄河湿地一体化保护利用模式，增强黄河下游生态屏障功能。实施鲁冀边界防护林、沿黄防护林、农田防护林、城乡绿网等工程，系统增补森林、植被等生态空间。建立健全“分类设置、分级管理、分区管控”的自然保护地管理机制，形成以省级以上自然公园为主体、各类自然公园为基础的自然保护地管理体系。加强生物多样性保护，实施重点湿地保护区生态补水、野生动植物保护等工程。推进邱集、赵官等采煤塌陷地综合治理，建设济南—德州土地复垦与城市功能开发治理区。', '综合整治河湖污染。实施优先保护区、重点管控区、一般管控区水环境分区管控，坚决守住水生态环境质量“只能更好、不能变坏”的底线。打造升级版河长制、湖长制，以全域美丽幸福河湖建设为抓手，严格落实“一河（湖）一策”目标任务，加强境内徒骇河、马颊河、德惠新河、南运河、漳卫新河等河流生态环境综合治理与修复，深入开展入河湖排污口精准溯源，制定“一口一策”整治方案，完善河湖岸边、农村河沟垃圾打捞处置体系，持续增强水体环境容量和自净能力，有效控制河道内源污染。', '严格管控工业水污染。严控新上或扩建高耗水项目，加快淘汰高耗水工艺和高耗水设备。鼓励农副食品加工、化工、印染等企业清洁化改造，加强高氟、高盐和涉重废水分质深度治理和日常监管。加快推进工业集聚区污水管网、废水集中处理设施升级改造和污水处理厂建设，严控工业废水未经处理或未有效处理排入城镇污水处理系统。实施石化、化工、制药、印染等高污染企业搬迁入园计划，推进华鲁恒升、乐陵、禹城、临邑、平原等5个省级化工园区“智慧管网”建设。', '全面治理生活污水。加快城镇污水收集处理设施及管网配套建设与改造提升，基本实现城镇污水管网全覆盖，有效解决污水直排问题，到2025年，城市生活污水集中收集率力争达到70%以上，县城污水处理率达到95%以上。推广污泥集中焚烧无害化处理和资源化利用，到2025年，城市污泥无害化处置率达到90%。在中心城区、乐陵市、宁津县、武城县、平原县等高氟区域实施除氟工程，减少生活污水氟浓度。实施城市雨污合流管网、黑臭水体“两个清零”工程和污水处理厂提标改造工程，重点打击私设暗管或利用渗井、渗坑排放，倾倒含有毒有害污染物废水、病原体污水，不正常使用水污染物处理设施等违法行为。', '推进农业面源污染防治。围绕“控肥增效”，全面推行测土配方施肥，推广应用水肥一体化技术12万亩。围绕“控药减害”，全面实行“一物一码”全程可追溯，推进绿色防控和统防统治基地建设，实现农药施用量负增长。围绕“控水降耗”，建设2个沿黄农业节水示范区，引导农民种植低水肥作物。', '加快推进碳达峰进程。制定实施二氧化碳达峰行动方案，明确重点行业二氧化碳排放达峰目标。严格落实能耗双控措施，坚决遏制“两高”项目盲目发展，加快调整能源生产结构，淘汰碳排放量大的落后产能和生产工艺。加强能源、工业、交通、建筑等领域二氧化碳排放控制，争创碳达峰改革试点，探索建立碳中和示范区。开展夏收、秋收和冬季重污染天气应急期间等重点时段秸秆禁烧行动。加强达峰目标过程管理和考核监督，将达峰行动相关工作纳入全市生态环境保护督查。到2025年，单位国内生产总值二氧化碳排放降低18%。', '强化污染源头防治。实施新一轮“四减四增”行动计划，调整优化产业、能源、运输、农业投入与用地结构，打赢蓝天保卫战。坚决淘汰低效落后产能，推动钢铁、焦化等高耗能行业转型升级，推进各类园区循环化改造和生态工业园区建设，实施恒源石化退城入园转型升级、华鲁恒升绿色化工新材料、阳煤化工升级搬迁改造工程。落实新上“两高”项目“五个减量替代”政策，严格区分“两高”项目和“非两高”项目、“两高”行业的上游和中下游、技术改造还是新建、增量还是存量，淘汰关停德州凯元热电有限公司等企业落后燃煤机组，提高工业炉窑清洁能源替代比例。开展企业清洁生产领跑行动，依法实行强制性清洁生产。持续推进煤炭消费压减，加大清洁能源替代力度，逐步实现新增能源需求主要由清洁能源供给。加快燃煤小锅炉淘汰，推进清洁取暖改造。到2025年，基本完成生活和冬季取暖散煤替代，农业种养殖业及农副产品加工业燃煤设施清洁能源替代。大力发展以太阳能、风能、地热能为重点的新能源产业，全力推进临邑、禹城、宁津、平原、齐河等整县（市、区）屋顶分布式光伏开发试点建设，打造禹城风电基地。到2025年，单位国内生产总值能耗降低13.5%。提升综合运输效能，减少公路货物周转量，加快铁路专用线建设，着力推动远距离大宗货物运输“公转铁”。建设绿色低碳交通综合体系，大幅提高新能源汽车比例，加快发展轨道交通，提升公共交通出行比重。提高绿色生态用地质量，加快荒山荒滩荒地、未利用土地、沙化地、道路两侧造林绿化。', '推进重点领域污染治理。实施钢铁、焦化、建材等行业污染全过程治理。2022年年底前，完成焦化、水泥行业超低排放改造。强化工业炉窑和重点行业挥发性有机物综合治理，协同治理氮氧化物和挥发性有机物污染，实施细颗粒物和臭氧协同控制。全面治理扬尘，开展建筑工地扬尘、工业企业堆场扬尘综合治理，有效降低区域降尘量。大力推进移动源污染综合治理和淘汰更新，推动柴油货车、非道路移动机械的清洁化，加强油品监管执法，确保城市各污染物浓度达到“三线一单”空气质量底线要求。实行环境污染第三方治理、环保管家等生态环境治理模式。继续深化化工园区安全生产和环保整治。', '深入实施土壤污染防治行动。完善土壤环境质量监测网络，建立土壤生态环境观测研究基地，实现土壤环境质量监测点县（市、区）全覆盖。推进耕地分类管控，实施农用地节水、减肥、控药一体推进综合治理工程。加快发展种养有机结合的循环农业，提升畜禽粪污利用水平。健全农药包装废弃物等回收利用体系和长效机制。以标准地膜推广、废弃农用薄膜回收、全生物降解地膜替代为主要途径，统筹推进农用薄膜污染治理。有序推进建设用地土壤污染风险管控和修复，重点解决人口密集区化工企业腾退土地安全利用。', '开展固体废物和地下水综合整治。开展危险废物环境安全暨风险隐患大排查大整治专项行动，加强危险废物、医疗废物收集处理，完善危险废物收集贮存运输处置全链条监管措施，着力降低危险废物输入风险，加强工业固体废物风险管控，依法严厉打击非法收运、转移、倾倒、处理处置等行为。加快推进垃圾分类处理和资源化利用，有序发展垃圾焚烧发电，提升农村有机废物收集、转化、利用水平。实行地下水水位水量双控制度，推动乐陵、齐河、禹城、平原、临邑等区域地下水超采综合治理工程，开展地表水与地下水联合调蓄试点。实施湿地、坑塘、河道拦蓄、地下水库等回灌补源工程建设，增加地下水补给量。', '水污染治理：（1）工业污染深度治理工程，实施工业企业、园区污水处理设施提标改造等项目；（2）城镇环境基础设施建设工程，实施污水处理厂改扩建工程、人工湿地水质净化工程及管网配套设施项目；（3）农村环境综合整治工程，实施农田退水治理、农村生活污水治理、生产生活垃圾处理、畜禽养殖污染治理等项目。', '大气污染治理：（1）源头污染防控工程，实施清洁原料替代、燃煤污染控制等项目；（2）重点领域污染治理工程，实施重点工业源提标改造、扬尘污染综合整治、移动源污染防治等项目；（3）煤改气、煤改电等清洁取暖工程；（4）信息化能力建设项目；（5）碳排放交易体系。', '土壤污染治理：（1）实施土壤环境监测评估、土壤污染分类管理；（2）固体废物和地下水治理工程，实施固体废物资源化利用及处置、地下水环境监管能力建设、地下水超采综合治理等项目。', '坚持统筹治理、疏蓄结合，以黄河干流及境内重要河道、水库为架构，提高洪凌灾害智能化预警应急管理水平，建设一流应急物资供应基地，全面提升防洪减灾能力，确保黄河德州段长治久安，加强城市防洪安全保障，筑牢沿黄地区人民生命财产安全的稳固防线。', '改造提升引黄涵闸。依据国家发展改革委批复的黄河下游十四五防洪工程及黄河下游涵闸改建工程建设项目，积极推进德州段防洪工程建设以及引黄涵闸的改造提升，加快黄河流域治理调控工程建设。', '加强骨干河道治理。推进以徒骇河、马颊河、德惠新河等3条骨干河道，老赵牛河、宁北河、笃马河等主要支流河道为主体的防洪体系改造提升，实施河道堤防加固、排水涵闸建设、排污口整治、节制闸加固、险工防护提排站维修、河堤护坡修缮及堤上道路建设等工程，恢复河道行洪及排涝能力。', '加强病险水库治理。实施水库除险加固工程，全部完成已鉴定病险水库和已到安全鉴定期限、经鉴定后新增病险水库的除险加固任务。每年按期开展水库安全鉴定，对于新增病险水库及时实施除险加固。健全水库运行管护长效机制，提高联动抗洪能力。', '筑牢黄河岸线堤防。实施黄河安防综合提升工程，配合国家水沙调控体系和机制建设，实施淤填河堤、险工加高、控导加固等改建续建工程，提升河势控制能力，逐步缓解“二级悬河”不利态势，实现河槽不抬高。加强堤岸背水侧护堤地范围内护堤林带建设，防止风蚀对堤岸工程的危害。', '提升城市防洪排涝保障。按照“源头减排、过程控制、系统治理”的原则进行系统策划。新建城区要从雨洪管理的理念开展顶层规划设计，以多尺度、大尺度的条件对相关因素加以分析、利用与控制，反馈到城市建设的各个方面，以求恢复雨水的自然积存、自然渗透、自然净化，减少径流，降低城市雨洪灾害发生频率；对于城市已建区域，深化隐患调查，对主要的内涝隐患区域，合理构建源头控制、中途和终端控制相结合的内涝防治系统方案，从而为德州城市的可持续发展提供强有力的市政设施安全保障。', '完善水文监测设施。加强骨干河流及重要河道水文监测设施建设，完善大中型水库及入库河流水文监测网络，改造提升老旧站点、水情中心，不断增强水文检测能力。加快推进智慧水利建设，建设水利感知网和水利信息网，搭建水利大数据中心，全面提升水利现代化水平。', '健全灾害应急预案。定期修订完善黄河防汛抗旱应急预案、工程抢险方案，健全洪灾预警发布、救援队伍、物资储备、灾民转移等应急救援体系。完善城乡排水防涝等公共基础设施，增强抵御洪水灾害的能力。修订完善德州黄河防凌预案，认真组织防凌工作检查及冰凌普查，确保黄河凌汛期安全。', '提升灾害应急能力。完善堤防及重点险工、控导视频监控系统，运用物联网、卫星遥感、无人机等技术手段，加强对雨情、水位等状况的动态监测和科学分析。完善全域雨情水情监测网络，提升防汛重点区域雨情水情视频图像监控密度，新建乡镇视频、图像监测站点。完善应急物资储备制度，规划建设包括洪水灾害应急救援服务能力的国家级应急产业园。', '黄河下游防洪工程：依据国家发展改革委批复的黄河下游十四五防洪工程及黄河下游涵闸改建工程建设项目，积极推进德州段防洪工程建设以及引黄涵闸的改造提升，加快黄河流域治理调控工程建设。', '洪凌灾害智能化预警应急管理体系链接与建设：打通与黄河洪凌灾害智能化预警应急管理平台连接，完善感知监测系统建设、信息传输网络升级改造。', '应急产业示范基地建设：设立应急技术研究院，建设应急产业装备生产基地、应急产品孵化基地、应急培训基地和区域应急产品储备中心、区域救援服务中心、应急装备检测认证中心、国际应急产业研讨会会展中心。', '坚持法治化保护、活态化传承、现代化发展、国际化交流，实施黄河文化保护传承工程，讲好新时代“黄河故事”，塑造文旅融合新品牌，谱写文明交流互鉴新篇章，让黄河水之灵、水之韵、水之融在德州充分彰显。', '深挖黄河文化资源。建立黄河文化资源数据库，加强黄河文化、龙山文化、运河文化、大禹文化、董子文化、邢侗文化、红色文化、民俗文化、农耕文化系统研究，丰富治黄历史、历史遗迹、民俗节庆、名优特产、文化遗产、艺术瑰宝等文化遗产内涵。挖掘黄河民间文学、传统工艺、地方戏曲、风土人情、餐饮文化、民间故事等非物质文化遗产，完善黄河流域非物质文化遗产名录。融合历史文化资源和现代科技艺术，创作一批黄河文化作品，传承黄河优秀文化。', '保护黄河文化遗产。统筹推进黄河文化遗产保护传承、河道水系治理管护、防洪排涝保障功能完善、生态环境保护修复、文化和旅游融合发展，切实把黄河文化保护好、传承好、利用好。加强黄河流域国家级、省级非遗项目申报，健全市级非遗代表性传承人认定管理制度，完善非遗保护项目、传承人、传习所、生产性保护基地“四位一体”保护传承体系，推动非遗传承人培养。支持宁津杂技和临邑一勾勾等创建省级、国家级非物质文化遗产传承教育实践基地，支持德州黑驴申请德州驴地理标志。', '培育壮大文化产业。实施文化产业数字化战略，推动物联网、大数据、虚拟现实、5G+8K等新技术赋能黄河文化创作、生产、传播、消费等各个环节，加快发展新型文化企业、文化业态、文化消费模式。引导新闻出版、广播影视、文化演艺、休闲娱乐、工艺美术等传统文化企业转型升级，加强黄河文化主题艺术创作，创新推出一批有情怀、有品味、有温度的艺术精品。大力发展创意设计、网络视听等新兴文化创意产业，探索举办黄河文化创意大赛，实施黄河文化IP开发工程，打造黄河文化创意产业链。', '推动文旅深度融合。优化文旅产业布局，重点发展文化旅游、红色旅游、乡村旅游、工业旅游，培育精品旅游线路和主题游乐园，串点成线，串珠成链，推动文化旅游由“景区旅游”向“全域旅游”转变。突出“一线一景一品牌”，共建旅游路线，共讲黄河故事，共创旅游品牌，支持齐禹夏文旅资源共享发展。齐河县重点推进黄河文化博物馆群建设进度，讲好“黄河号子”故事，建设全国文旅名县，打造“黄河水乡·生态齐河”。夏津县重点开发黄河故道古桑树群、德百旅游小镇等景点，讲好“黄河故道”故事，打造“椹果之乡·生态夏津”。禹城市重点开发大禹文化，建设大禹文化产业园，谋划大禹治水功成名就之地主题公园，讲好“大禹治水”故事，打造“大禹圣地·水韵禹城”。串联发展乐陵百万亩枣林、临邑红坛寺森林公园、宁津杂技蟋蟀谷、庆云金山寺等，推动旅游资源共建共享。', '融入黄河文化旅游长廊。积极加入黄河流域各类旅游联盟，参与策划设计黄河文化旅游品牌标识系统，协同推进黄河文化旅游标准化服务体系建设，共同打造具有国家影响力的黄河文化旅游长廊。积极参与全省黄河文化旅游节、黄河文化论坛、齐鲁文化丝路行、黄河文化遗产国际交流展等活动。持续举办全市旅游发展大会，提升文化旅游产业影响力和知名度。联合大运河沿线城市，共建运河文化资源、信息、产业平台。依托运河小镇建设中国大运河漕运文化博物馆和运河文化国际交流基地，开展多层次文明对话。依托苏禄文化博物馆建设中国—东南亚国际文化交流中心，展现“一带一路”文明交流成果，加强与东南亚国家的民间文化交流。加强齐文化代表人物晏婴等历史名人研究。定期举办海峡两岸八极拳技艺交流大会，与国外友好城市互办文化旅游推介会。', '做强中国体育名城建设之“核”。建设更强实力的现代体育产业体系，构建“一带引领、三核发力、一圈覆盖”发展格局，实现由模仿制造向品牌创新转型、由传统制造向智能制造转型、由单纯制造向服务延伸转型、由竞技体育向竞技+大众体育转型。推动体育产业与新一代信息技术、新材料等产业协同发展，打造“体育+”产业生态。启动上市公司培育计划，重点支持骨干企业做大做强，扶持一批掌握核心技术、创新能力强、成长性高的中小企业走“专精特新”发展之路。组建德州体育产业基金，通过“国资平台+产业基金+上市公司”方式推动骨干企业开展省内、国内国际并购。合理规划建设体育产业基地（园）和体育特色小镇。全面提高体育产业的研发投入占比，支持企业与高等学校、科研院所共建创新平台，积极创建国家体育技术创新中心。', '夯实中国体育名城建设之“基”。构建更高水平的全民健身公共体育服务体系，完善市、县、乡、村四级全民健身设施网络，重点建设体育公园、健身步道、全民健身中心、足球场等便民惠民的全民健身设施。加快推进市体育中心一期工程升级改造、城市体育展厅建设，融合会展、商业、文化、教育等多种业态，高水平打造城市体育综合体。高质量打造“十五分钟健身圈”，鼓励社会力量参与公共体育设施的建设、运营和管理。办好“全民健身运动会”“百千万三大赛”系列活动，推进全民健身活动经常化、生活化。全面提升竞技体育综合实力，积极推进传统县级体校向新型体校办学模式转变。实施县级“三个一”和乡镇（街道）“两个一”全民健身工程补短板计划。', '塑造中国体育名城建设之“魂”。营造更具魅力的体育文化氛围，贯通体育产品—体育赛事—体育名城的链条。加大太极拳、八极拳、板式网球等项目在不同人群中的推广力度，持续扩大海峡两岸八极拳技艺交流大会、全国板式网球巡回赛等品牌赛事影响力，带动“一县一品”再上新水平。挖掘大运河、黄河体育文旅资源，打造沿黄河、大运河区域体育特色品牌活动。创建一批能代表市级参加省级竞赛争金夺银的市级体育特色学校，推动县级体育特色学校全覆盖，形成县县有亮点、校校有特色、人人有特长的良好生态。统筹发展竞技体育，围绕“优秀竞技人才输送、高水平特招生培养、职业技术人才打造”三位一体模式，构建新型复合型体育人才培养格局。', '黄河文化资源普查：开展与黄河文化有关的重要自然遗产、物质文化遗产和非物质文化遗产等资源普查，更新档册文案，建立健全并不断更新黄河文化媒资库和时空大数据平台。', '文物保护展示利用：（1）神头汉墓群强险加固；（2）平原郡故城强险加固；（3）徽王石桥修缮保护；（4）苏禄王墓展示区建设与提升改造；（5）赵虎镇孙公庙及孙膑墓修缮保护。', '非物质文化遗产传承发展：（1）非物质文化遗产传承人工程；（2）中国（齐河）黑陶艺术馆；（3）王家园子黄河文化非遗传承基地；（4）平原县百里马颊河文化生态产业带项目；（5）中国（德州）黑陶文化传承与创新发展平台；（6）夏津县德百旅游小镇非遗一条街项目；（7）夏津县德百旅游小镇非物质文化遗产展馆项目；（8）夏津县古桑文化博物馆建设项目；（9）夏津齐鲁棉花博物馆改造提升工程；（10）夏津老榆木家具博物馆；（11）古贝春酒厂旧址保护与展示工程;（12）平原县通德酿造技艺传承工程；（13）夏津县马堤吹腔戏曲博物馆;（14）夏津黄河故道小调博物馆；（15）德州扒鸡文化博物园。', '“黄河故事”文艺精品创作：策划、推出一批黄河故事选题，充分调动社会力量参与黄河故事创作，举办文艺精品创作生产研修班，创作一批有筋骨、有道德、有温度的戏曲、歌舞剧、话剧、歌曲等艺术精品。', '黄河国家文化公园建设：（1）齐河博物馆群；（2）齐河黄河国际生态城；（3）夏津黄河故道古桑树群世界农业文化遗产公园；（4）黄河故道百万亩千年枣林生态旅游目的地；（5）中国驿·泉城中华饮食文化小镇项目；（6）中国黑陶城建设项目；（7）黄河故道·鲁北槐乡旅游基础设施建设提升项目。', '黄河文旅融合IP工程：开展黄河文旅融合IP项目的基础调查，培育并认定一批发展后劲强、综合带动大、市场前景好的文旅融合示范IP项目，做好知识产权保护、IP视觉包装设计、挖掘背后故事、营销推广、产业发展等工作，以文旅IP引领文旅产业发展。', '文化交流合作：（1）中国德州董子文化节；（2）中国德州黑陶文化节；（3）京津冀鲁（德州）文化旅游产业融合发展论坛；（4）中国（夏津）黄河故道椹果生态文化节；（5）好客山东国际大学生文化旅游节；（6）德州运河文化艺术节；（7）中国德州黑驴文化节；（8）平原盛堡啤酒音乐节。', '优化体育产业空间布局：打造形成一带引领、三核发力、一圈覆盖的体育产业发展格局。“一带”即以乐陵市、宁津县、庆云县为核心，发挥各县（市、区）的特点和优势，形成相互协作、互为支撑的体育器材制造带，打造世界级体育器材制造基地。“三核”即以中心城区、乐陵市、齐河县为核心，基于市场和骨干企业基础，鼓励骨干企业向体育服务业拓展。“一圈”即以主城区为核心，全面覆盖德城区、陵城区、德州经济技术开发区、德州新旧动能转换示范区，不断辐射禹城市、平原县等周边地区，打造“体育+”产业生态，融合大数据、互联网、人工智能等前沿科技，营造体育生态圈。', '充分发挥交通枢纽功能，加快战略融入，促进协同联动，积极构建融合联动发展格局，大力发展双向开放通道经济，倾力打造区域战略节点城市，全面提高服务融入新发展格局的贡献度。', '向西联接沿黄城市。积极融入黄河中下游协同创新共同体，加强与郑洛新、西安等国家自主创新示范区的合作，聚焦新能源研发、新材料应用、高端装备制造、电子信息技术等关键领域，支持企业共建新型研发机构、联合实验室或研发中心，构建资源优势互补、产业配套衔接的科技创新链。加强与山西、内蒙古等省份能源合作，建设全国煤炭储备基地。', '向东打通出海通道。畅通陆上出海通道，加强与青岛港、黄骅港等沿海港口对接，深化与山东省港口集团合作，推动公路、铁路、海运多式联运发展，打造内陆—港口合作新模式。拓展海上物流通道，依托东盟国际生态城，加强与东盟十国合作，主动对接日韩，拓宽科技创新、服务业开放、数字经济、科技金融等合作领域，打造中国北方对接东盟的重要支点城市。搭建高能级开放平台，加快申建鲁北乐陵保税物流中心，积极争创德州综合保税区，加强与山东自贸区（济南片区）的合作，积极对接中韩（威海）地方经济合作示范区、中韩（烟台）产业园、中日（青岛）地方发展合作示范区，大力发展跨境电子商务集货分拨、展示交易、保税加工及增值服务。', '向北对接京津冀协同发展。发挥对接京津冀协同发展门户作用，打造“一区四基地”升级版。推动产业承接基地向先进制造业基地升级，规划建设20平方公里的京津冀产业承接基地与100万平方米标准化厂房，全力打造新能源、高端装备、新材料、电子信息等先进制造业基地。推动科技成果转化基地向高新技术产业化基地升级，紧盯产业中试、检验检测、成果熟化、技术产业化，推动项目、技术、人才、资金一体化配置，争创健身器材、集成电路等高新技术产业化基地。推动优质农产品供应基地向食品保障供应基地升级，加强与首农集团、（北京）新农创、天津食品等食品保障企业合作，大力发展食品深加工，打造京津冀鲁“食品谷”。推动优质劳动力输送基地向高素质技能人才培训基地升级，加快建设山东省职业教育创新发展示范区，打造产业人才培训基地，每年培育10万名高素质技能人才。推动京津南部生态功能区向绿色生态示范区升级，加强通道城市大气污染防治协同治理和联防联控，率先建设国内领先的碳达峰、碳中和示范区。', '向南融入省会经济圈。构建融合联动的基础设施体系，推动公路交通、轨道交通、航空航运、数字基建等与省会经济圈深度融合，促进基础设施互联互通。构建融合发展的现代产业体系，积极融入黄河流域现代产业合作带，率先创建“吨半粮”示范市，一体打造“北京—济南”医药产业走廊，推动共建“黄河故道”生态文化旅游协作区。构建融合创新的开放平台体系，共建协同创新研发、双招双引合作、“双飞地”园区共建等开放平台，以开放促改革、促创新、促发展。构建融合高效的市场服务体系，建设全市统一的数据交易平台并接入省平台，推动实现市场主体基础信息互联互通，建立与省会经济圈信用联动机制，支持政务服务“跨域通办”。构建融合衔接的社会治理体系，加强济德在教育、文化、医疗、社保等领域的共建共享，推动我市与省会经济圈内城市联合开展生态环境协同监管，共建污染联防联治机制。', '提升通道辐射能级。对外打通“大动脉”，积极推进京台高速齐河至济南段、高武高速商河至平原段、庆云至章丘、济南至宁津等高速公路建设，服务好郑济高铁（齐河段）、天津至潍坊铁路（庆云段）、德州—商河铁路等铁路项目，布局建设铁路货运枢纽。对内畅通“微循环”，优化城乡骨架路网和干支路网，加强内部道路建设，保障城乡物流“最先一公里”和“最后一公里”衔接到位、畅通无阻。立体拉近“时空感”，打造德州到济南遥墙机场快速通道，加快推进庆云、齐河、临邑等通用机场建设，规划建设德州机场。出行进入“快时代”，争取接入京津雄半小时通勤圈，打造周边大中城市1小时交通圈，实现从中心城区15分钟进入高速公路，加快建设连通中心城区四区的快速路。', '加强通道产业合作。积极对接胶东经济圈，加强东西产业协作，承接东部产业转移。深化与郑州、西安、太原等黄河中上游城市合作，建立科技协同创新、产业协作联动、文旅融合发展等战略合作机制。支持骨干企业、科研机构深化与山东大学、中北大学、郑州大学等高校与科研院所合作，推动科技成果交易转化、农业科技创新、科教联动发展，服务融入黄河中下游协同创新共同体。聚焦现代农业、文化旅游、电子信息、新能源汽车、生物医药、智能装备等优势产业，积极参与区域性行业协会、产业创新联盟、人才联盟、开发区联盟等社会团体，协同打造装备制造、健康休闲等区域产业合作链条，共建黄河流域现代产业合作示范带。', '拓展通道物流容量。充分考虑物流设施的辐射力、影响力、功能设置、物流强度及规模大小，优化布局物流园区，围绕交通枢纽建设济铁物流等综合物流园，围绕重点产业建设医药物流等工业物流，围绕重点企业建设智慧物流，围绕城乡融合建设农产品冷链物流。大力发展多式联运、冷链物流、保税物流、商贸物流、电商物流、智慧物流等业态，培育壮大一批实力强、规模大、业态新的综合性物流企业。到2025年，全社会物流总额达到1.39万亿元，力争突破1.5万亿元，实现货运量2.27亿吨、社会货运周转量470亿吨公里，交通运输、仓储及邮政业增加值年均增长6%以上，打造区域性现代物流节点城市。', '优化城市功能布局。按照“建好新城、做强德城、突破陵城”的思路，创新“东靠新区引领、西靠运河带动、德陵一体发展”的路径，高水平提升德城功能，高标准推进德陵融合，形成“一轴四心、三区三廊”的中心城区发展布局，打造富有吸引力、年轻人喜欢的城市。完善中心城区、县城、乡镇、社区四级城镇体系，加快构建“一核聚能、一轴隆起、双翼联动、多点支撑”的城镇空间布局。', '“一轴四心、三区三廊”中心城区发展布局：“一轴四心”，沿东风路打造德陵一体化发展主轴，重点建设德城商业中心、行政文化中心、商务科创中心、陵城商业中心。“三区三廊”，依托行政区划和河流分布，自西向东重点打造德城片区、高铁片区和陵城片区，建设运河、减河、马颊河三条城市滨水生态廊道。', '“一核聚能、一轴隆起、双翼联动、多点支撑”城镇空间布局：“一核聚能”，实现中心城区功能和空间有效衔接、一体发展。“一轴隆起”，以京沪高速高铁线为发展轴线，以中心城区、平原县、临邑县、禹城市、齐河县为重点，打造京沪高铁交通主干线上的经济隆起带。“双翼联动”，沿鲁冀边界以中心城区为中心，一“翼”以宁津县、乐陵市、庆云县为重点向东北延伸，一“翼”以武城县、夏津县为重点向西南延伸，双翼发力形成民营经济和特色产业发展带。“多点支撑”，加快发展中心镇，争取将鲁权屯镇、糜镇、杨安镇、房寺镇、恩城镇、尚堂镇等特色镇发展成县域次中心。', '拓展城市发展空间。抢抓新时代省级新区建设机遇，高起点定位、高标准建设、高效能推进天衢新区建设，拓展城市发展新空间，释放发展新潜力，打造山东新的经济增长极和区域融合发展战略支点。发挥对接京津冀协同发展门户作用，主动服务雄安新区建设，推动德州由服务保障转变为双向流通，打造“一区四基地”升级版。对标国内一流新区，探索生产、生活、生态“三生融合”的新型城市发展路径，建设鲁北智慧活力新城区。创新产业融合发展新路径，延伸产业链，提升价值链，培育壮大新动能，构建现代产业发展新高地。主动融入和服务新发展格局，加快建设更高水平开放型经济新体制，打造双循环节点城市核心区，推动形成优势互补、协同发展的新区开放新格局。', '建设精致美丽城市。按照“精美化设计、精细化治理、精准化服务、精致化生活”理念，制定实施精致美丽城市建设行动方案。加强精美化设计，遵循现代城市建设规律，突出空间立体性、平面协调性、风貌整体性、文脉延续性，注入地域环境、文化特色、建筑风格等个性化“基因”，营造别致精巧的城市空间。加强精细化管理，注重城市规划建设管理全过程的公众参与，形成多方参与的城市治理格局，提高城市治理科学化、精细化、智能化水平。加强精准化服务，围绕市民医疗教育、文化休闲、交通出行、公园绿地、便民配套等需求，打造中心城区“15分钟生活圈”。开启精致化生活，提高城市居民收入水平，打造宜居美丽生活空间，让城市生活更有温度、更有品味、更有吸引力。', '打造新型智慧城市。积极融入黄河流域数字同城超高速枢纽工程建设，实施德州经济技术开发区数据枢纽京津冀节点及区域重大示范应用等项目。加快建设城市大数据中心、共性支撑中台、智慧城市运行管理中心，完善城市“物联感知”网络，打造全域感知、高速传输、算力强大、安全可靠的新一代智慧城市数字底座，构建以“城市大脑”为核心的运行管理体系，形成“一脑慧治”的城市治理和民生服务格局，打造全国新型智慧城市建设的示范标杆。围绕城市管理、社会治理、公共服务等需求，提供智慧、智能、智造的解决方案，实现科技创新在居住、商业、健康、政务、安防、金融、交通、教育、休闲等领域的广泛应用，创建“智慧生产、智慧生活、智慧生态”的共生家园。', '塑强时尚活力城市。创新发展年轻化、时尚化、品质化新业态，提升城市现代气息、时尚气质和活力指数。启动城市规划馆、科技馆、党史馆、美术馆、图书馆新馆、文化馆新馆、体育公园、国际会展中心、未来科技馆、青少年活动中心等场馆建设，打造城市对外展示窗口。建设创意独特的时尚街区，举办特色艺术节、文艺体育演出活动，开展多彩活力周、青年创业周等系列活动，打造具有浓厚德州风情和民俗特色的文化商业集聚区。策划开展龙舟、马拉松、自行车等高端体育赛事。布局艺术酒吧、休闲咖啡、健身空间、城市书房等休闲空间，打造活力时尚“空间站”。', '以深化供给侧结构性改革为主线，以改革创新为根本动力，以先进制造业为核心选项，坚定不移推进新旧动能转换，为黄河流域生态保护和高质量发展增添动力和活力。', '优化产业发展布局。实施先进制造业“三三倍增”行动，优先发展生物医药、食品加工、高端装备三大优势产业，新材料、新能源、电子信息三大战略先导产业，前瞻布局新一代人工智能技术，重点发展智能机器人、虚拟现实与增强现实等领域。实施产业融合发展行动，顺应制造服务化和服务制造化发展趋势，支持高端装备、医养健康、纺织服装等优势产业与信息、科技、金融、物流等现代服务业融合共生，持续提升“共享经济”“流量经济”“会展经济”发展水平。实施特色差异发展行动，坚持有所为、有所不为，每个县（市、区）重点培植2—3个具有较强竞争力和高成长性的特色产业集群，努力在全省乃至全国打造亮点。', '推动产业转型升级。坚决淘汰落后动能，研究制定全市碳达峰总体实施方案，细化建材、钢铁、化工等重点行业具体方案，加严环保、质量、技术、能耗、安全等标准，严格控制新增过剩产能，严控“两高”项目。改造提升传统动能，推进实施工业企业技术改造三年行动计划，滚动实施“千项技改、千企提升”，抓好100个市级、1000个县级工业技改项目，2022年力争80%以上的重点企业技术装备达到国内先进水平。加快壮大新动能，实施战略性产业培育和产业链提升工程，培育壮大新能源装备及应用、加强型工程塑料等省级产业集群，争取2—3个重点产业集群纳入省级雁阵型产业集群范围，2022年“四新”经济增加值占地区生产总值比重达到32%以上。', '提升协同协作水平。以齐河、禹城、临邑为重点，以“五个融合体系”为突破口，规划建设济南新旧动能转换起步区的联动区。支持齐河县与济南新旧动能转换起步区产业链、创新链、人才链深度融合，打造分工合理、协作联动、优势互补的区域发展共同体；支持临邑县建设数字产业基地、济南北部医养康复产业基地；支持禹城市调整完善德州高新区“一区两园”扩区调区方案，打造科技成果转化基地、产业协同配套基地、资源（环境）生态保障基地。', '建设高能级创新平台。加快推进山东产业技术研究院德州分院、高新区中央创新区等科创平台建设，提升创新平台研发产出率、技术转化率、成果落地率。聚焦高端装备、新能源、新材料、医疗康养、电子信息、现代农业等领域，主动对接中科院、山东大学、齐鲁工业大学（山东省科学院）、中北大学、杨凌农业高新技术产业示范区等创新源头，建设一批国家级和省级制造业创新中心，打造一批重大创新载体和公共服务平台。高水平规划创建黄河流域（山东）现代农业科学城。创新孵化器、众创空间、“农科驿站”、院士工作站等孵化平台培育机制，建立绩效评价和动态管理机制，提升服务科技创业企业能力。到2025年全市建成新型研发机构18家以上，省级以上孵化器和众创空间25家以上。', '聚焦重大技术瓶颈联合攻关。围绕水安全、节水农业、黄河故道修复、盐碱地治理等领域，开展科学实验和技术攻关，推动黄河生态环境保护科技创新。建立重点产业关键核心技术攻坚和创新科研项目生成机制，推行科技攻关“揭榜制”、首席专家“组阁制”、项目经费“包干制”等方式，在高端装备、新能源、新材料、医养健康、新一代信息技术、现代高效农业等重点领域组织实施10项左右省级重大关键技术攻关项目。推进本地企业、学校与科研机构间的创新合作，主动对接京津、济南、郑州、西安等地科研院校和创新企业，积极搭建跨区域技术研发合作平台。实施科创型领军企业培育计划，力争到2025年全市高新技术企业突破500家、科技型中小企业达到600家以上。', '吸引集聚各类创新人才。推进鲁北人才改革试验区建设，积极承接济南、京津人才资源外溢辐射，支持企业采取双向挂职、顾问指导、技术合作、委托开发、成果转化等柔性引进方式引进人才。实施新一轮现代产业领军人才工程，创新“领军人才+创新团队+优质项目”模式，鼓励领军人才打包技术团队、专利成果等资源“带土移植”。实施“3年十万大学生兴德计划”，开展“百企校园行”“名校人才直通车”等各类活动。建立高品质、高效率、有温度的人才公共服务体系，擦亮“人才德州”服务品牌。深入实施“德州工匠”工程，建立和完善新型学徒制和首席技师制度，发挥领军型技能人才的“头雁效应”。实施职业教育提质培优高质量发展行动计划，完善产教融合人才培养体系，加强高技能人才培养，打造职业教育创新发展高地。支持本地职业院校与骨干企业参与共建黄河流域产教联盟。落实支持社会力量兴办职业教育的各项政策措施。', '推进创新创业共同体建设。围绕现代农业、新一代信息技术、医养健康、新能源、新材料、应急产业、生态环保等产业领域，鼓励龙头企业联合高等院校和科研院所面向市场需求共同开展技术定制、测试检验、中试熟化、产业化开发等活动，加快产学研深度融合，在全市布局建设一批集技术研发、成果转化、企业孵化、人才培养、科技融资等功能于一体的创新创业共同体。主动对接全省、沿黄省市产业链条上下游企业，打造跨区域创新合作网络，支持骨干龙头企业牵头组建或参与打造省级创新创业共同体、国家级战略性新兴产业集群。深化与全省、沿黄省市和京津等地高校院所合作，拓展产业链、资本链、创新链招商路径。', '高能级科创载体：（1）山东产业技术研究院德州分院；（2）山东省大豆技术创新中心；（3）功能性生物配料国家工程实验室；（4）国家体育用品工程技术研究中心；（5）国家新型健身体育器材产业技术创新战略示范联盟；（6）山东省马铃薯技术创新中心；（7）山东省体育器材制造技术重点实验室；（8）山东省射箭器材工程研究中心；（9）健身器材省级工业设计中心；（10）北方应急（医疗）救援综合示范区；（11）山东福洋生物葡萄糖酸衍生物发酵与智能制造技术中心；（12）辐射防护与核安全实验产业园；（13）“中国大豆”创新示范区；（14）齐鲁工业大学（山东省科学院）德州研究院；（15）国家体育技术创新中心。', '协同创新推进工程：（1）高新技术企业助力工程；（2）中小企业创新工程；（3）黄河流域高校重大科研攻关项目；（4）黄河流域高校科研创新平台提升工程；（5）京津冀鲁协同创新联盟。', '新领域人才繁星工程：聚焦新基建、新消费、新制造、新电商、新健康、新治理等新领域、新行业、新业态人才引育，搭建新领域人才发展平台。', '应用型人才培养体系：推动本科高等学校向应用型转型发展，深化应用型人才培养模式改革，推动校校协同和校企合作，构建应用型人才培养评价和质量保障机制。', '科教产教融合：（1）工匠锻造；（2）职业教育创新发展试验区；（3）中国高校技术转移联盟；（4）黄河流域产教联盟；（5）黄河流域高校创新发展联盟；（6）省部共建职业高地。', '实施数字化赋能工程。推动制造业智能化转型，运用智能技术改造提升实体经济，支持企业“上云用数赋智”，加快实现装备换芯、生产换线、机器换人、园区上线、产链上云、集群上网，打造一批智能工厂、智能车间，重点加快装备制造产业向智能化转型、体育器材制造业向智能产品生产转型。围绕工业互联网平台集聚发展以工业机器人、数控机床等为核心的硬件设备，助推智能装备产业跨越发展，重点建设智慧化工园、京鲁数谷、京德数谷、腾讯云工业云基地以及精益云、忽米网、腾讯云德州纺织工业互联网项目等工业互联网平台。', '实施低碳化转型工程。推广国家工业节能技术装备及“能效之星”产品，大力发展高效工业锅炉、高效电机系统、余热余压余气回收利用、绿色环保建材等节能产业，开展工业节能诊断服务行动和能效对标达标活动，全力助推国家绿色产业示范基地建设。加强工业绿色低碳微电网建设，鼓励工厂、园区发展厂房光伏、分布式风电、多元储能、高效热泵、智慧能源管控系统，培育发展氢能产业，开展绿色制造示范单位“五个一批”（开发一批绿色设计，培育一批绿色产品，建设一批绿色工厂，发展一批绿色园区，打造一批绿色供应链）活动，到2025年，建设绿色低碳工厂80家以上。着力削减建材、化工、煤电等重点行业工业固废产生量，推动水泥窑协同处置生活垃圾、污泥等城市固废，促进废金属、废塑料、废旧动力电池、废弃电子产品等再生资源高值化回收利用，加快可循环、可降解材料及产品开发推广应用。', '实施园区化发展工程。发挥园区对产业的核心承载作用，集聚高端要素资源，推进德州经济技术开发区“德州创新谷”、德州高新技术产业开发区中央创新谷、齐河中关村海淀高新园等园区可持续发展，提升园区运营品质和产业能级，形成品牌园区、特色园区的建设体系。突出特色园区特定产业方向、特优园区主体和特强产业生态，优化园区管理机制，完善配套功能服务，在空间规划、审批流程、存量盘活、环境评价等方面，优先给予政策试点。提升园区服务水平，鼓励园区搭建集研发设计、中试孵化、检测认证、知识产权、品牌管理、金融服务等功能于一体的集群组织和公共服务平台，发展众创空间、科技企业孵化器等创业服务平台。', '实施品牌化建设工程。鼓励和支持企业重视以质量为基础的品牌建设，发挥工业设计的引领作用、质量标准的支撑作用、优秀文化的基础作用，在扩大对外开放、积极参与国际竞争中锤炼品牌，在重点先进制造业集群设立品牌培育指导站，打造更多的“德州精品”“德州优品”区域品牌，提升德州制造区域品牌的影响力和美誉度。加强经典品牌创新，推进轻工、纺织等品牌与文化创意、时尚设计相融合，提升文化内涵和附加值，打造国货精品。聚焦健康、时尚、创意等创造新供给的领域，培育一批引领需求的新锐品牌。', '实施精准化服务工程。持续深化业务关联、链条延伸、技术渗透，推动先进制造业和现代服务业相融相长、耦合共生，培育一批服务型制造示范企业，壮大服务型制造产业规模，重点加快节能环保产业向提供环保解决方案服务转型。完善涉企政策实施机制，推广应用“企业码”，推动制造业惠企政策的精准筛选、主动推送和线上办理。加强政企互动对接，完善企业家参与涉企政策制定制度，不断提高政策制定的针对性和有效性。健全企业维权投诉渠道，形成诉求响应闭环管理工作机制，及时精准帮助企业纾困解难。', '传统产业改造提升工程：（1）德州高新技术产业开发区北展区产业园；（2）黄河三角洲（乐陵）化工产业园清洁提升工程；（3）联化科技精细化工产业园；（4）夏津绿色纺织产业园；（5）恒源石化退城入园项目；（6）平原县军粮食品产业园。', '战略性新兴产业集群发展工程：（1）山东中科生物创新产业基地；（2）国家级绿色智能装备产业园；（3）齐鲁制药乐陵医药产业园；（4）齐河县高端多肽生物药产业基地；（5）平原信谊医药产业园；（6）山东省智能健身康复工程技术研究中心及健康养老示范；（7）庆云智慧颐养健康谷；（8）泰山体育国际产业园；（9）华北医疗防护产业基地；（10）恒升新材料产业园；（11）中国特色碳材料产业园；（12）中天泰和特种能源装备制造基地；（13）夏津县智能装备制造产业园；（14）松果新能源汽车零部件产业化；（15）齐河德瑞智能制造产业园；（16）恒力电机特种机电产业园；（17）格瑞德新能源装备及应用产业示范园工程；（18）中国新风净化产业园；（19）有研新材料创新及成果转化基地；（20）平原新材料产业园；（21）城投柒零新材料产业园；（22）微电子配套材料及配套设备生产基地；（23）省级环保产业基地；（24）临邑医疗防护产业园；（25）临邑高端装备制造产业园；（26）国家北方应急（医疗）救援综合示范区。', '产业基础再造和产业链提升工程：聚焦全市“541”产业体系33个重点产业链，以数字化、高端化、全球化、市场化为导向，以国内大循环为主体与国内国际双循环相促进，补短板与锻长板相结合，全链条防范产业链供应链风险，全方位推进产业基础再造和产业链提升，全力建设黄河流域先进制造业基地。', '龙头企业培育工程：大力实施“工业企业50强”和“创新型高成长企业50强”培育三年行动，动态建立龙头企业培育库。', '深入实施乡村振兴战略，发挥农业特色优势，打造食品名市，扩大优质食品供给，建设生态美丽宜居乡村，全面提升农业农村现代化水平，努力在打造乡村振兴齐鲁样板中率先突破。', '构建“优种+优产+优供”新赛道。实施“吨半粮”创建工程，到“十四五”末，力争在全国率先建成大面积“吨半粮”生产能力建设示范区。加大优质种源供应，着力推进良种繁育基地建设，加快构建育繁推一体化现代种业体系。面向市场调优种植结构和品质结构，增加高筋麦、鲜食玉米、特色果蔬、杂粮杂豆等特色作物基地面积。', '构建“特色+特产+特味”新赛道。培育“中国驿”等一批食品特色小镇。开发德州扒鸡、乐陵小枣、夏津椹果、黄河锦鲤、宁津驴肉等特色产品和特色小吃。支持特色食品产业园区和企业在大中城市繁华地段和高端人群聚集的区域开设标识明显、装饰统一的旗舰店、连锁店，在机场、高铁站建设特色形象展示店。启动开展“德州味”区域公用品牌评选推介活动，鼓励引导企业开发旅游特色产品、地方特产、风味产品。大力发展生态农业，增加绿色优质农产品供给，打造绿色健康品牌。支持各县（市、区）举办或参加国内外特色食品展会，扩大“德州味”市场知名度和影响力。', '构建“新技术+新业态+新组织”新赛道。鼓励支持龙头企业联合大专院校、科研院所开展食品生产技术研发，加速成果转化应用，提高食品工业附加值。推动绿色食品产业链与5G、物联网、人工智能、区块链等新一代信息技术融合，开发推出一批绿色、安全、健康、营养新型食品，激发产业链发展活力。推动实施智慧农业示范工程，建设一批智慧农业园区和示范应用基地。积极发展多种模式的农民合作社和社会化服务组织，加快发展壮大一批生产规模大、带动能力强的新型农业经营主体，夯实乡村振兴基层组织基础。', '构建“名企+名牌+名品”新赛道。规划建设中国（德州）农业食品创新产业园区，争取打造成为第2个国家级农业食品创新产业园区。实施名企培育战略，支持农业全产业链龙头企业、链主企业实现原料—生产—销售产业链条延伸拓展，加强与中粮集团、首农集团等行业龙头战略合作，积极培育农业龙头企业。实施名牌引领战略，支持优势企业申报国家地理标志保护产品、农业区域公用品牌和产业集群区域品牌试点，到2025年，实现规模以上企业品牌设计培训全覆盖。', '科学推进乡村规划建设。充分尊重乡村发展规律和农民意愿，统筹县域城镇和村庄规划建设，加强分类指导，完善村庄分类，注重保护传统村落和乡村特色风貌，规划构建以“县城中心城区—镇街驻地—拟长久保留特色产业中心村”为格局的新型城镇化建设体系。优化乡村生产生活生态空间布局，集中实施市县乡美丽示范村居三级联片治理建设，打造一批美丽宜居乡村示范片区。以实际条件和需求为导向，实施“一村一策”科学确定村庄发展方向，有序推进村庄规划编制。', '加快美丽乡村建设进程。实施农村人居环境整治提升五年行动，分类有序推进农村清洁取暖、厕所革命、垃圾处理、污水治理、绿化美化五大攻坚工程，建立健全农村人居环境管护长效机制。推进绿色乡村建设，积极创建国家森林乡村、省森林乡镇、省森林村居，持续开展美丽庭院创建活动。实施乡村记忆工程，挖掘乡村特色文化符号，加大传统村落保护力度，培育一批田园农耕型、生态休闲型、民俗文化型“黄河风情”村。', '健全农村基础设施建设。坚持先建机制、后建工程，推动基础设施建设向农村延伸，逐步实现城乡“路网、水网、管网、气网、互联网”一体化，做到城乡统一规划、统一建设、统一管护。加快农村公路改造提升，推动“四好农村路”高质量发展，到2025年完成2000公里农村公路新改建任务。加快实施农村饮水安全工程，逐步实现城乡供水同网、同源、同质。持续推进农村电网改造升级，推动城镇集中供气、供热设施向农村延伸。推进5G网络布局，开发面向“三农”的信息产品和服务。', '探索创新乡村治理模式。着力推进城乡融合，开展“双镇百村”建设工作。推广平原“一星四化”、武城“一核多元”等乡村治理模式，构建多元共治的乡村治理格局。推动网格化管理向农村延伸，打造乡村治理服务平台和社区信息系统。探索打造新型乡村治理信用体系，建立村民个人诚信档案，将“信用”深度融入农村经济社会各领域，建立人人有责、人人尽责、人人享有的乡村治理共同体。', '拓展农民增收渠道。加快培育合作社、家庭农场等农业经营主体，发展壮大农村集体经济。大力发展农村电商、乡村旅游和农村服务业，带动农民就业创业。支持发展农业产业园区、农业龙头企业，带动农民就地就近转移就业，增加工资性收入。大规模开展农村职业技能教育培训，健全促进农村就业机制，拓宽农民工等重点群体就业创业渠道。深化农村集体产权制度改革，推动资源变资产、资金变股金、农民变股东，增加农民财产性收入。允许本地居民利用自有住宅依法从事休闲、旅游经营。积极稳妥引导土地经营权流转，发展多种形式的农业适度规模经营。', '提高农村服务水平。适应农村人口结构和经济社会形态新变化，强化基本公共服务供给县乡村统筹提高城乡基本公共服务均等化水平。加强医疗卫生服务体系、重大疫情防控体系和全科医生队伍建设，乡镇卫生院和社区卫生服务中心全部达到国家基本标准要求。加快“互联网+医保”综合服务体系建设，推进异地就医联网结算。积极应对人口老龄化，提高生育意愿，降低生育养育教育成本，提高人口素质。推动城乡养老事业和养老产业协同发展，多渠道增加养老服务供给。到2025年，全市养老机构护理型床位达到60%，二级以上综合性医院设立老年医学科（老年病专科）的比例不低于85%。调整完善转移支付体系，将基本公共服务更多投向薄弱环节、重点人群。', '激发农村集成改革活力。深化农村土地制度、集体产权制度改革，稳妥推进农村集体经营性建设用地入市、农村宅基地制度改革试点，总结推广“禹城模式”。推进农村产权交易中心建设，实现县（市、区）产权交易服务范围全覆盖。完善农村承包地所有权、承包权、经营权分置制度，探索宅基地所有权、资格权、使用权分置有效实现形式，有效盘活利用闲置宅基地和闲置农房，广泛推广平原县宅基地“三权分置”试点经验。创新农村集体经济实现形式和运行机制，推广农村党支部领办合作社经营模式，发展新型村级集体经济，完善农民对集体资产股份占有、收益、有偿退出及担保、继承权。实现巩固脱贫攻坚成果同乡村振兴有机衔接。争取黄河流域（德州）粮食安全及全产业链高质量发展示范区建设专项债券项目，支持核心区“吨半粮”生产能力建设工程、中国（德州）农业食品创新产业园起步区建设工程、中心镇基础设施配套建设工程。', '绿色农田建设：在基础条件好、积极性高的县区选取1—2个高标准农田建设项目区，开展绿色农田建设试点。每个示范区核心示范面积3000亩—5000亩。2025年，全市力争建设5—10处绿色农田创新建设示范区。农作物秸秆、尾菜等农业废弃物循环利用率达到100%，农田生态廊道覆盖率100%，林网覆盖率达到40%以上；土壤有机质含量达到20g/kg以上，耕地质量等级达到4.5等以上。', '农业科技创新：（1）中国德州农业食品创新产业园区；（2）国家良种繁育基地；（3）齐河县现代农业产业园；（4）临邑县现代高效食品产业园；（5）平原县农村产业融合发展示范园；（6）夏津现代化食品加工产业园；（7）禹城市农村产业融合发展示范园；（8）a1德州食品智慧科技产业园项目。', '城乡基本公共服务均等化：加快补齐农村义务教育、医疗、社会保障、文化体育等基础设施和公益设施短板，推动城乡基础设施互联互通，促进农村公共服务设施提档升级，广大农民共享改革发展成果的获得感显著增强。', '美丽乡村建设：全域推进美丽乡村规划建设，开展乡村风貌建设提升行动，加强黄河传统村落保护，延续村庄传统文脉，力争实现美丽乡村全覆盖。', '黄河流域生态保护和高质量发展是党中央、国务院确定的重大国家战略，要提高政治站位，抢抓战略机遇，强化责任担当，开拓创新、攻坚克难，努力开创黄河流域生态保护和高质量发展新局面。', '深入学习贯彻习近平新时代中国特色社会主义思想，增强“四个意识”、坚定“四个自信”、做到“两个维护”，从讲政治的高度、抓重点的精度、抓到底的深度，全面落实党中央、国务院和省委、省政府对黄河流域生态保护和高质量发展的战略部署，不折不扣推动各项目标任务和政策措施落地见效。市推进黄河流域生态保护和高质量发展领导小组要加强领导，统筹协调推进重点工作。领导小组办公室设在市发展改革委，承担领导小组日常工作，负责推动规划实施和重大政策事项的组织协调、督导落实等工作，确保在2025年前取得明显进展。加强对黄河流域生态保护和高质量发展情况的分析调度，重大事项及时向市委、市政府报告。', '围绕贯彻落实本发展规划，研究出台配套政策和综合改革措施。各县（市、区）党委、政府要制定本地黄河流域生态保护和高质量发展实施方案，建立工作推进机制，全面落实工作责任，把规划确定的各项任务落到实处。市有关部门单位要落实分工责任，加强指导服务，推动完成相关目标任务。市级层面建立与沿黄市县交流合作机制，协商解决跨区域重大问题。建立健全市县协同推进机制，定期召开专题会议，合力推进规划顺利实施。', '统筹整合国土治理、环保、科技、水利、基本建设、文化等相关领域资金，支持黄河流域生态保护和高质量发展。建立市场化、多元化投融资机制。实行“标准地”供给改革，深化“亩产效益”评价改革。建立健全符合科技创新规律、突出贡献绩效导向的科技评价体系，在平台建设、科技专项、人才培养等方面给予倾斜和支持，为推动黄河流域生态保护和高质量发展提供科技支撑。', '落实用水权、排污权、碳排放权、用能权等改革举措，完善公共资源交易平台功能。依法开展水资源使用权确权登记，探索地区间、行业间、用水户间等多种形式的水权交易模式。加快要素价格市场化改革，推动政府定价机制由制定具体价格向制定定价规则转变。探索建立生态产品价值实现机制，因地制宜实施差异化考核。完善环保、能耗、行业准入等标准体系，加快社会信用体系建设，开展数字经济营商环境研究。', '建立健全目标责任制，制定推进黄河流域生态保护和高质量发展的时间表、路线图，确保规划顺利实施、任务如期完成。发挥重大项目的关键支撑作用，实施重大工程挂图作战机制，实现“竣工一批、开工一批、储备一批、谋划一批”。 建立水资源督察和责任追究制度，严格开展节水评价，全力推进节水行动落地见效。及时总结、宣传、推广先进经验典型，引导各类市场主体和社会力量积极参与黄河流域生态保护和高质量发展，努力营造全社会共同抓好大保护、协同推进大治理的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>141</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>关于进一步优化营商环境的建议</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-12-19</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67834085/content.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['城市的经济活力、发展动能是否强劲，企业发展情况最具有说服力，近几年，我市也采取多种措施加强优化营商环境的建设，促进企业加速发展，加强优势企业的落户，在财政、金融、创新和服务方面为企业提供了更多的便利。在政府职能部门“店小二”精神、“最多跑一次”各项行政效能的提升，极大促进了企业的发展和鼓舞了企业的热情。进一步提升营商环境，还有很多工作要做，行政效能突出政府的服务职能仅仅是优化营商环境的一部分，还需要在以下几个方面提升：', '1、政府部门切实放低姿态、树牢“店小二”的服务意识。继续深化“放管服”改革，补贴该给企业的给企业、税收该减免的减免、程序该简化的简化，真正给企业营造一个舒心的且充满活力的发展环境。杜绝多部门执法、重复执法的情况。', '2、强化涉企部门的服务意识。近年来，政府各级各部门不断推出“一站式办公”平台及网上办公平台，但满足企业的发展需求还是远远不够。市委市政府倡导的“店小二”精神、推出的“最多跑一次”改革，让数据多跑路，让企业少跑腿，优越的营商环境能够为企业提供良好的环境和氛围。涉企部门要切实改进服务质量，真正树立“让企业办事更顺利，让企业家做事更顺心”的服务理念。主动帮扶企业，让企业办事不求人，让企业办事更便捷。', '3、建立信息长效沟通机制。在各行各业创新转型发展中，政策的保障、信息的通畅尤为重要。建立政府联系企业的长效机制，保障政府与企业、企业与企业之间信心畅通、资源共享。大力发展政企合作、校企合作、企企合作等众创形式，将有力解决各企业的瓶颈，能充分发挥双方优势，能够有效利用资源与生产力的孵化作用。使双方互相支持、互相渗透、双向介入、优势互补、资源共用、利益共享，这也是成为未来发展的方向，也是加快企业自有繁衍能力提升的重要途径。', '在对企业检查过程中，政府相关部门应制定检查指导等各项规章制度，各类检查应该有充分依据，杜绝检查的随意性和不规范性。借鉴发达国家和地区的做法，对企业的检查应通过工商联或第三方机构进行，提高检查的透明度和精准率，提高检查效率。慎重使用大额罚款、停产、停业等强制措施，可以先下发检查指导意见，企业参照指导意见进行自查，在检查过程中发现问题先进行整改，并提出整改意见，积极促进企业尽快达到标准。', '积极响应和贯彻落实国家对中小企业融资政策支持及配套措施，制定并落实具体的实施办法，从税收优惠等方面为中小企业提供各项政策扶持。积极引进急缺人才，为企业发展提供知识的支撑，政府可以把急缺人才引进到涉企的行政事业部门，让高端人才为更多的企业进行指导和服务。鼓励企业持续推进产品创新、技术创新，对企业研发平台升级为国家级的企业，市级领军企业和培育实施重大项目的企业，均给予较大数额的补贴。涉企事项，尽量少费收、不收费，即使收费也要经过调研，明确标准。推进对中介服务机构的监督管理，制定中介服务机构的管理制度，严格规范中介服务机构的经营行为。', '加大城市建设、规划方面的投入，打造城市整洁，空气清新的环境氛围；加大城市管理的投入，使马路更整洁、设施更配套、绿化更优美。加大物流建设的投入，让企业的产品运输更通畅、更便捷。', '首先感谢您对审批服务工作的重视和支持。您提出的关于进一步优化营商环境的建议收悉，现就提案涉及我单位相关工作答复如下：', '今年来，德州市行政审批服务局认真贯彻落实市委、市政府“放管服”改革决策部署，坚持“效率优先、体验至上”服务理念，着力创新审批模式、规范审批方式、优化公共服务，推出了“惠企惠民政策平台”“一业一证四级通办”“企业证照三联办”“全链条智能审批”等一大批省内领先的改革举措，不断提升企业和群众办事便利度、快捷度、满意度，用政务服务环境的“软实力”努力营造德州经济社会发展的良好营商环境。', '二、抓“优化”，以流程再造发挥审批体制优势。一是强力推进市场准入便利化。企业开办6个事项（营业执照申领、社保登记、医保登记、住房公积金、公章刻制、涉税办理）合并为“一件事”，目前全市一般性企业开办2小时，最长不超半天完成，全省领先。新开办企业可免费领取包含营业执照、光敏印章、电子印章（一套五枚）、发票、税控设备及惠企政策包在内的企业开办千元大礼包，打造了“零成本”创业之城。良好的创业环境促成去年全年新登记市场主体8.8万个，增长32%、居全省第1位， 其中新增企业3.03 万家，增长19.8%、居全省第2位，《全国地级市营商环境热力指数报告》发布我市在全国261个地级市中企业数量增存比排名前列。二是强力推进一业一证拓面升级。通过“一次告知、一表申请、一窗受理、一同核查、一并审批、一证准营”的“一业一证”改革，整合一个行业内多个许可证件为一张《行业综合许可证》，并在全省实现了“两个率先突破”（率先实现市县联办出证、率先在市县两级全面铺开）。药品经营许可、食品经营许可等28个基础民生事项，下沉至乡镇（街道）、社区便民中心受理，市、县、乡镇（街道）、社区“四级通办”案例作为山东营商环境的品牌，上报中央审改办。统一许可条件、申请材料、办理流程、审批时限等11个要素和行业综合许可申请表、承诺书等4套表格，全程参与了省级“一业一证”地方标准制定评审，并被省标准化院指定为全省审批服务系统唯一专家单位。上海国家课题组专程来我局学习调研，先进做法被上升成国家政策。目前行业综合许可范围扩展至56个行业，许可环节平均压减70%，申报材料压减50%，审批时间压减70%，出证8000余张，出证总量和网办率位居全省前列。三是强力推进工程建设项目审批制度改革。创新实施项目审批“双线并行”，前期开展联合预审、多图联审，协调各部门提前介入，将联审联办会议纪要作为容缺审批的“绿色通行证”，实现“拿地即开工”；后期组织联合验收、跟踪保障，实行“统一时间、集中组织、一次通关”，彻底改变了原验收方式“部门费时费力、企业费心费劲”的局面。建成横向覆盖26个部门、纵向贯通13个县市区，集“一张蓝图”、策划生成、多图联审、综合受理、并联审批、效能监督、统计分析等多种功能于一体的工程建设审批管理系统，76个标准事项全部纳入系统运行。截至目前，全市共上传省监管系统项目3627个，办理事项8871个，位居全省前列。在全省率先压缩简易低风险项目审批流程，取消施工图审查、施工许可告知承诺，办理时限由45天压缩到7天，900个项目享受改革红利，平原碧桂园项目仅用时1天办结发9证，26天完成从项目立项到施工许可核发，刷新审批新速度。', '三、抓“创新”，以提升体验感打造德州特色模式。一是创新打造“政策通”惠企惠民政策平台。开发上线全省首家集“政策查询”“精准推送”“不来即享”“免申即享”“评价督查”“评估分析”6大功能于一体的综合性惠企惠民“政策通”平台，开创了企业用户、个人用户共享一平台、身份关联有认证的全国先例。平台现已收录497个文件、2177项政策，年度新增“小升规”企业资金奖励、德州市公益性岗位补贴申领等720项政策可在平台完成全程网上办理，国家专精特新“小巨人”企业奖励等22项政策在实现“免申既享”。上线首日就有11家企业650万元“免申即享”财政奖补资金获得批复。二是创新证照“三联办”。聚焦企业“准入易、准营难”这一矛盾，实施营业执照和相关许可证的联合办理、变更、注销，首批选择了营业执照和涉及食品、药品、文广旅、卫健、发改、民政、财政、人社、教育等领域 27种经营许可证件，按照“1+X”模式，实行市场主体“整体”“一次性”地开办、变更和退出联合办理，被省工商局确定为全域试点。试点实行以来，3个试点县（市）共办理联合办理116件，联合注销84件，联合变更16件。三是创新智能审批助力全流程提速增效。通过运用“AI+RPA”技术（人工智能+机器人流程自动化技术）和大数据应用，实现智能比对、智能秒批、跨网抓取数据、远程踏勘，减少人工干预，提高审查效率和质量，提升了企业办事体验感。首批水土保持方案审批、企业投资项目核准等12个事项、26种情形（4种全过程无感审批，22种智能化辅助审批）已经完成部署，第二批19个事项、43种情形（6种全过程无感审批，37种智能化辅助审批）也已进行论证。国家工改领导小组现场考察该项改革，并要求形成经验，全国推广。全国首创“工程建设项目审批流程定制系统”，参考淘宝购物车模式，帮办人员根据项目类型和进展阶段勾选审批事项，为企业精准定制审批流程，二维码扫描打印，目前已通过该系统为156个项目提供了流程定制服务，平均为项目落地提速23％。四是创新构建“失信制约人”管理机制。出台“信易批”极简审批、“失信制约人”工作方案，对照《德州市市级容缺受理事项清单（508项）》，开展容缺型（容缺受理、办理）、承诺型（承诺即可开工、承诺即可经营、承诺即可换证、承诺即免现场、承诺即可备案）、绿色通道型服务。在申请人认可的情况下，通过数据共享获取证照证明，容缺办理，无法通过数据共享验证的，申请人可选择书面承诺，部门先予受理审查，按承诺补齐材料后，审批服务部门规定时限内出具办理结果，为打造无证明城市奠定基础。划定企业信用等级，对于违法失信、风险较高的企业，实施信用惩戒，制约承诺审批。五是创新探索“全域通办”。在去年实现京津冀鲁全省率先突破的基础上，全面搭建通办机制，全市设置通办专窗95个，通办事项875项，今年来共办理跨省通办件1000余件，全省通办办件79000余件，市域通办办件30000余件，累计11万件。全省率先发布申请人、办理人双向同标准通办服务地方标准《德州市跨域通办服务规范手册》，填补通办服务领域标准空白。实施的跨域通办事项1086项，其中国家部署首批跨省通办事项140项，另开辟跨省通办事项155项，全省通办事项301项，本地特色市域通办事项490项。办事群众可以就近委托全市区域内任一政务服务点网点完成申请、递交、领证等审批全环节。', '四、抓“提升”，以严格监管规范行政权力运行。一是开展“四减”。严格落实清单动态管理制度，大力推行“减事项、减环节、减材料、减时间”，以工匠精神再造审批流程，以制度刚性约束权力任性。连续两年实现事项、环节、材料压减一半的目标，累计取消减少256个环节、407份材料，压减办理时限2598个工作日，104份表格、材料实现共享合并，如教师资格认定在全省率先由原来20个工作日改为即时办理，普通话水平测试成绩、学历证书、个人承诺书等材料一律减掉。二是推行市县乡审批一体化。强化基层办事能力建设和管理，在市县同权的基础上，在全省率先试点了“县乡同权、双重管理”改革，探索乡镇政务服务“3+1”模式，将乡镇（街道）民生民政办公室、党群服务中心与下放的政务服务事项业务一个大厅、统一管理。首批将县乡办理的医保、民政等社会民生事项和个体工商户登记、环评备案等经营性事项 128项，纳入“镇村通办”清单，下沉到 158个城市社区和847个农村社区办理，权力运行通过平台全面督导。', '营商环境是投资兴业的土壤，也是一个地方核心竞争力的重要指标。我市自优化营商环境工作启动以来，一直坚持“市场化、法治化、国际化”的原则，进一步深化“放管服”改革，持续深入优化营商环境，在财政、金融、创新和服务方面为市场主体提供了更多便利。不断优化我市营商“软”环境，持续提升德州发展“硬”实力，给全市经济发展带来了稳定预期和重要机遇。在进一步优化营商环境方面，我们主要采取以下措施：', '（一）建立高规格领导机制推进工作开展。一是成立领导小组。在市级层面成立了由市委书记任组长、市长任第一副组长的市持续深入优化营商环境和推进政府职能转变领导小组，小组下设办公室，由市政府办公室主任、市发展改革委主任担任办公室主任。各县（市、区）均参照市级标准，高规格成立了领导小组及办公室，18项指标的牵头部门均成立了由部门一把手任组长的领导小组。形成了由市领导小组为统领，各县（市、区）、市级各部门（单位）密切配合的工作推进机制。二是组建工作专班。从市委编办、市政府办公室、市司法局等部门和德城区点名抽调具备综合协调、会议组织、法律法规、综合材料能力突出的精兵强将，组建市优化营商环境工作专班，负责传达上级文件、落实领导要求、调度日常工作、筹备会议活动等具体工作，确保全市各项工作任务专人研究、专人督导、专人落实。三是健全工作体系。印发《德州市人民政府关于持续深入优化营商环境的实施意见》（德政字〔2020〕14号），将提升企业便利化水平、打通企业难点堵点痛点、提供便捷高效政务服务、打造透明稳定政策环境4个领域的21项改革要求进行细化分解，分别由市领导小组下设的政府职能转变组、政务服务环境优化组、投资环境优化组、监管环境优化组4个专项工作组牵头推进，并制定了由62个市级部门（单位）参与的《德州市优化营商环境工作台账》，形成了“1+N”工作体系，有力保障了各项工作任务的落实落细。', '（二）建立多领域宣传机制营造工作氛围。优化营商环境的工作举措不仅需要政府贯彻落实，也需要加大宣传力度让企业知晓。为切实加强营商环境宣传，营造良好的舆论氛围，去年7月2日，市领导小组研究决定增设宣传专项工作组，由市委宣传部副部长任组长，市委网信办、德州日报社、广播电视台等媒体负责同志为成员。同时，市优化营商环境专班通过定期调度，汇总全市优化营商环境工作进展、典型经验等内容，并编制《德州市持续深入优化营商环境和推进政府职能转变工作专报》，呈报市委、市政府各领导同志阅览，并下发至各县（市、区）和市级各部门（单位）。', '（一）做好“放”的文章，最大限度简政放权，更好激发市场活力和社会创造力。一是积极推进“市县同权”改革，采用直接下放、县审市办、服务窗口前移的方式，进一步扩大199项市级行政许可事项的县级办理权限，提升县域经济发展的要素聚集能力。二是积极推进相对集中许可权改革，将179项市级行政许可及其关联事项划转至市审批服务局集中行使，同时，按照“三集中、三到位”原则要求政务服务事项全部进驻市政府服务大厅行使，18个部门693项事项通过进驻窗口的形式进驻，26个部门258项事项通过收件的形式进驻，基本实现了“应进必进”。三是积极承接省级下放行政权力事项，市直有关部门承接60项省级行政权力事项，其中，直接承接5项，并“一步到位”同步下放至县（市、区）实施；与省级主管部门签订委托协议后承接55项。德州经济技术开发区管委会、德州高新技术产业开发区管委会结合各自开发区体制机制改革进展情况，分别承接省级行政权力事项51项、63项。四是积极稳妥推进开发区赋权，对经济技术开发区管委会实行“点菜单”式赋权，赋予其14个领域，共计1217项行政权力事项，聚焦主责主业，激发发展活力，全力打造全市新旧动能转换引领区。', '（二）做好“减”的文章，最大限度减环节、减材料、减费用，进一步提高服务效能。一是环节能减则减，能并则并。公共资源交易方面，在全省率先取消投标报名环节，进场交易项目全部实现网上受理、一链办理、即提即办。在全省率先完成与省中心的电子保函平台对接，为企业释放保证金811.3万元，降低企业投标成本和资金压力。加快推进工程建设项目审批制度改革方面，推出“允许桩基工程单独发包，试桩工程可在施工许可前进行”两项改革措施，即将桩基工程从项目中分离出来，在施工总承包发包前，建设单位可先行实施桩基工程发包、施工；试桩工程不需要再执行施工许可这一前置条件，施工单位在拿到施工许可证之前，可以提前进行试桩施工。目前，德州市有160多个项目享受改革红利，项目从立项到建成平均用时缩短三个月。二是材料能减则减，能省则省。登记财产方面，临邑县推行“四项四页”办结抵押登记制定，将抵押登记申请材料压缩为“不动产登记申请书（一页）、抵押合同（一页）、抵押人身份证明材料（一页）、抵押权人授权委托书（一页）”四项四页，大幅减少收件材料，提高登记财产便利度。三是费用能减则减，能免则免。公共资源交易方面，在全省试点率先完成与省电子保函平台对接，实现电子保函从申请、标段选择、审核、保费缴纳、保函生成、退还等环节全流程电子化办理，办理结果在线核查，真正做到让数据多跑路，投标企业少跑腿，有效规避了投标企业信息泄露风险，实现了公共资源交易全过程留痕可追溯，极大降低了企业交易成本。', '“法治是最好的营商环境”，《德州市优化营商环境条例》是2021年市人大常委会重点立法项目。为有序推进、顺利完成立法任务，经市人大常委会、市政府分管领导同意，我市已成立优化营商环境立法工作协调机制工作专班，市发展改革委牵头起草《德州市优化营商环境条例（草案）》，现已公开征求社会意见，并邀请公众（公民、法人和其他组织，特别是政府立法涉及的企业和行业协会商会等利益相关方，以及相关领域的专家、学者、法律工作者，人大代表、政协委员，民主党派、无党派人士等。）就该《德州市优化营商环境条例（草案）》进行了讨论研究。', '为持续深入做好优化营商环境工作，经市委、市政府研究决定，成立德州市持续深入优化营商环境和推进政府职能转变领导小组，作为市委议事协调机构，由市委书记任组长，市委副书记、市长任第一副组长，相关市级领导同志为副组长，相关市直部门主要负责人为成员，负责全市优化营商环境和推进政府职能转变工作的组织领导；领导小组设立政府职能转变组、政务环境优化组、投资环境优化组、监管环境优化组、考核评价组、综合协调组和宣传组等7个专项工作组，确保各领域决策措施落到实处；领导小组下设办公室，由市政府办公室主任、市发展改革委主任任办公室主任，负责领导小组及其办公室的日常工作。', '贯彻落实国务院、省政府优化营商环境工作部署，结合德州实际情况，全面发动、全程发力、全年抓紧，切实提升市场主体和人民群众满意度，打造稳定公平透明可预期的营商环境。印发《德州市人民政府关于取消、承接、调整和下放一批行政权力事项的通知》（德政发〔2021〕3号），深化简政放权，全面做好2021年第一批行政权力事项调整工作；印发《德州市人民政府办公室关于进一步优化营商环境更好服务市场主体若干措施的通知》（德政办发〔2021〕1号），部署推进投资项目前期审批流程再造、大力提升工程建设项目审批效率等15条主要改革举措，更好服务市场主体激发市场活力；印发《德州市人民政府办公室关于印发深化“放管服”改革优化营商环境2021年重点任务分工方案的通知》（德政办发〔2021〕2号），部署实施5个方面的24项任务目标和68条具体措施，将营商环境各项改革措施落实落细落地；印发《德州市人民政府关于印发德州市优化营商环境创新突破行动实施方案的通知》（德政发〔2021〕5号），配套制定开办企业、工程建设项目审批制度改革、获得电力、登记财产等17个领域的配套措施，力争实现创新突破；制定《2021年德州市对标学习无锡市优化营商环境专项行动方案》，对标无锡市先进理念和最佳实践，找差距、定目标、促提升。', '为进一步深化相对集中行政许可权改革，合理界定行政审批部门与监管部门的职责边界，确保行政审批与监管工作无缝衔接，健全完善审批监管协调机制，制定《德州市人民政府办公室关于印发德州市行政审批与监管协调联动实施办法的通知》（德政办字〔2021〕30号），明晰审管分离事项中审批部门与监管部门各自职责，建立信息互动、审批流畅、监管到位、运转协调的政务服务环境。一是明确各自职责。行政审批部门履行行政审批职责，对行政审批行为、过程和结果负责。监管部门依法履行事中事后监管职责，承担监管责任。按照“谁审批谁负责，谁主管谁监管”原则，切实履行各自职责，防止出现监管真空。二是建立会商制度。行政审批部门与监管部门根据行政审批、监管需要，通过组织召开相关会议，研究解决需要双方协调互动的有关问题。三是加强业务协同。对由行政审批部门负责实施的勘验、听证、专家评审等程序，监管部门根据需要积极提供支持。四是信息高效推送。依托一体化在线政务服务平台中的德州市审批监管互动系统，实现行政审批和监管信息1个工作日内推送与接收。', '最后，十分感谢您对我们工作提出的宝贵建议，还请您对我们今后的工作继续予以关注和支持。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>141</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>关于大力推进德州市服务业高质量发展的建议</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67821002/content.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['服务业是实体经济的重要组成部分，加快发展服务业，对推进“六保”“六稳”工作具有重大现实意义，是推动德州经济长期健康发展的新引擎。德州市服务业发展具有得天独厚的区位交通优势，在商贸服务业方面也有比较好的基础，但多年来发展成效并不明显，特别是现代化大物流、现代服务业发展没有根本破题，在一定程度上已经落后于周边城市。总体上看，服务业仍是我市经济发展的“短板”，总量规模偏小、结构层次不优、创业创新活力不足、市场竞争力不强。主要表现在一是经济占比中，与全省平均水平有很大差距，我市服务业各项数据在全省排名靠后，且呈现总量小、占比低、增速慢的现状，服务业综合竞争力不强。二是各级重视程度还不够，特别是从市级层面缺乏统筹规划，缺乏组织推动，长期以来没有一个强有力的部门专责服务业发展推动工作（市发改委机构改革前设有一个四五个人的副县级服务业办公室，现在只有一个服务业科）同时也缺乏强有力的推进措施。三是现代服务业发展滞后，互联网和相关服务行业单位数量少，经营规模偏小，新业态、新模式没有成型。可以说我市服务业发展潜力还未充分挖掘,发展动力还未充分激活,发展空间还需深度拓展。因此，“十四五”期间，我市要把服务业发展提到更加突出的位置，适应新形势、新需求，采取有效举措推动服务业扩容提质、转型升级。', '一、提升认识，科学规划。从战略和全局的高度充分认识发展服务业的重大意义，把发展服务业摆在更加突出的位置，努力营造服务业加快发展的氛围。以德州市“十四五”服务业发展规划编制和实施为契机，积极打造德州服务业发展新高地。要深化服务业发展问题研究，充分摸清德州市服务业发展实际，深入研究现代服务业发展趋势和业态创新、模式创新情况，编制出特色鲜明、重点突出、具有实际指导意义的服务业发展规划，同时明确每一阶段的重点工作和发展思路，增加推进服务业发展的刚性目标，并作为今后一段时期的重点考核指标。', '二、统筹组织领导，健全推进机制。建议成立德州市服务业发展领导小组，切实加强服务业发展的统筹谋划和顶层设计，明确相关部门职责，充实专职人员，形成推进我市服务业发展的强大合力。我市一直没有促进服务业发展的相关政策措施,建议根据国务院和山东省关于加快服务业发展的有关意见，学习借鉴先进地区经验做法，紧密结合我市实际,制定我市关于加快建设现代服务业强市的实施意见，建立推进工作机制，落实工作举措，务求工作实效。加强服务业运行情况动态监测，加强省内外相关地区比较分析，及时掌握我市重点企业发展现状，查找差距、补齐短板，使产业政策的制定与贯彻更具针对性和操作性。', '三、强化项目支撑，增强发展后劲。一是抓好服务业发展重大项目谋划，以重点项目带动服务业加快发展。立足做大做强优势产业，依托我市产业基础和资源优势，着力在体育制造、医养健康、文化旅游等特色产业上下功夫，着力策划、培育服务业重点项目（企业），建立全市服务业重点项目。二是建立服务业重点项目推进和跟踪服务机制，大力推动项目前期工作，促进项目加快落地建设，加强在建项目协调调度，及时解决项目建设中困难和问题。积极推动规上服务业项目新增入库，重点项目库适时滚动更新，库内项目优先推荐纳入省重点建设计划，优先推荐PPP项目，优先申报预算内资金和专项建设资金。', '四、加大政策扶持力度，强化人才保障。一是加强政策性支持。充分利用好服务业税收激励政策，通过贴息、奖励等方式引导社会资金投入，放宽服务业投资领域，培育多元化投资和运营主体。全面梳理服务业审批事项，规范优化审批流程，提升审批效能。积极推进服务业用电、用气、用水、用热与工业同价政策。二是重视服务业人才队伍建设，加大对服务业人才技能培训政策性补贴，提高从业人员的业务水平、服务意识和职业素质。大力引进高层次、高技能现代服务业紧缺人才，落实德州市人才政策“黄金30条”升级版，让服务业人才享有同等待遇，通过有力的措施吸引、留住、用好人才，为服务业发展提供智力保障。', '五、优化提升产业机构，培育服务业新模式。一是设立现代服务业发展专项资金，发挥专项资金的政策导向和激励作用，围绕服务业新业态、新领域、新热点，加大新兴服务业投资力度。借助互联网、云计算、大数据等现代信息技术，积极推进信息技术、文化创意、医养健康、融资租赁、会议展览等现代服务业发展，大力提升服务业层次和水平。二是支持生产型服务业做大做强。加快服务业结构优化调整，通过政策和资金支持，积极推动信息技术、现代物流、现代金融、现代商贸、人力资源服务业等生产性服务业发展，结合生产性服务业发展瓶颈出台相关政策文件。学习借鉴东莞等地经验做法，推动生产性服务业集聚发展，培育龙头企业带动相关产业的发展，把扩大有效投资作为拉动服务业持续增长的重要动力，通过德州新区等新发展平台的建设，引进重大项目，带动相关产业发展。发挥生产性服务业在优化产业结构，推动产业融合，推动城市经济转型和发展中的重要作用。', '近几年，在市委、市政府的坚强领导下，持续推进服务业供给侧结构性改革，坚持规划引领和政策驱动双动力，实现服务业总量提升、增量提优。重点推进现代物流、医养健康、科技服务、现代金融、软件和信息技术、文化旅游、电子商务、人力资源等现代服务业产业，新业态、新模式不断涌现，打造全市现代服务业新高地。2020年全市实现第三产业增加值1516.11亿元，增长3.3%。三次产业比例调整为10.6:40.2:49.2，与上年相比提高1.3个百分点，对经济增长的贡献率为42.7%。全年全市第三产业投资增长0.8%，增速同比提高4.3个百分点，占全部投资的比重为63.2%。', '2021年按照市委、市政府部署，更大力度发展现代服务业，推动生产性服务业向专业化和价值链高端延伸，推动生活性服务业向高品质和多样化升级。提案中提出的科学规划、健全推进机制、强化项目支撑、加大政策扶持力度、强化人才保障、培育服务业的新模式等措施，我们积极研究，结合工作职能和工作计划，确定重点推进服务业十大产业方向，推动六项重点工程，加快建设现代服务业高地，全力推进服务业高质量发展。', '以产业转型发展需求为导向，着力发展生产性服务业，积极培育新型服务业态，促进生产性服务业向专业化发展、向高端价值链延伸。推动现代服务业与先进制造业、现代农业深度融合。重点推进现代物流、现代金融、科技服务、电子商务、软件与信息技术服务等方向。以消费结构升级为导向，着力发展生活性服务业，创新服务方式和内容，推动生活性服务业高品质和多样化升级。重点推进文化旅游、医养健康、教育体育、商务会展服务和人力资源服务等方向。', '（一）改革创新发展工程。继续抓好《山东省服务业创新发展行动纲要（2017-2025年）》等若干政策的贯彻落实。坚持创新发展与转型升级双项联动，着力构建服务业创新发展的体制机制。在规上服务业企业中，培育建设省级服务业创新中心，促进移动互联网、大数据、云计算、人工智能、物联网等新技术在服务领域转化应用，加快新业态新模式规模化发展。积极申请国家、省服务业综合改革试点，推进禹城市科技服务业和齐河县旅游业综合改革试点验收工作。', '（二）产业融合发展工程。贯彻《山东省生产性服务业发展布局规划（2018-2028年）》落实，鼓励制造业由生产制造型向服务型转变，以泰山体育集团省级先进制造业和现代服务业融合发展试点为重点，依托全市“541”工业体系，培育一批先进制造业与现代服务业融合发展试点。推进服务与农业在农业技术、信息、金融、流通方面布局，健全农业生产性服务业体系，促进农村一二三产业深度融合。', '（三）培育产业载体工程。坚持项目谋划与项目建设滚动推进，着力发挥服务业拉动投资的引擎作用。持续推进10个省服务业载体项目，重点推进50个服务业储备项目，年度计划投资118.5亿元。培育壮大一批服务业重点园区、重点镇、重点企业，发挥示范带动作用，推进服务业重点行业的转型升级。', '（四）产业集聚发展工程。加快中心城区现代服务业集聚区建设，大力发展服务业新兴业态。在全市打造一批布局合理、定位准确、发展集约、辐射力强的商贸流通、文化旅游、现代物流业、电子商务、信息技术、科技创业、医养健康等服务业集聚示范区（产业集群）。做好9个省级服务业特色小镇建设，争取顺利通过验收授牌，推广现有服务业特色小镇创建模式，深入挖掘小镇资源，促进县域服务业集聚创新发展。', '（五）品牌和标准化建设工程。积极培育山东省服务品牌，加大品牌宣传和推广力度，提升品牌价值和竞争力。鼓励企业引入先进质量管理模式，加强质量管理。总结推广标准化程度较高的企业的标准化发展经验，推动家政、养老、健康、体育、文化、旅游、法律、教育等领域的关键标准研制与推广，推动服务产品安全标准化，促进企业服务标准化发展并带动相关领域产业化发展。', '（六）人才队伍建设工程。完善人才培养机制。精准实施人才工程，支持创新团队的培养，围绕科技服务、现代金融、创意设计等重点产业发展和现代管理需要，面向海内外集中遴选一批“高精尖缺”人才。积极争取服务业人才奖励，鼓励申报“泰山产业领军人才”工程（现代服务业及社会民生创新类），柔性引进、灵活使用留住各类人才。推动高校、科研机构与企业联合定向培养产学研融合型人才，推广校企合作操作型人才培养模式。', '您委提出的《关于大力推进德州市服务业高质量发展的建议》的提案收悉，结合我部门工作职责，现答复如下：', '（一）推动电商与现代服务业的融合发展。充分利用报刊、电视等传统媒体和微信、抖音等网络新媒体，加大电商宣传力度，大力展示电商发展成果，营造创业浓厚氛围，激发经营主体创新动力。围绕扩大内需战略基点，聚焦双十一、双十二、元旦、春节等重要消费节点，鼓励服务业企业利用新业态、新模式，开展线上促消费活动，促进线上销售。如今年“网上年货节”期间，通过举办线上系列直播促销活动、引导电商企业对接抖音及美团等平台，营造了浓厚的直播电商发展氛围，在抖音、今日头条端开展的“寻味山东·食在德州年”专题活动，我市4家餐饮企业11天累计总曝光22万余次，实现533单成单量。', '（二）强化电商人才培育。鼓励电商经营主体深化与京东、阿里等大型电商平台企业对接合作，争取平台优惠政策等便企惠企措施，推动更多中小商户尤其是服务业商户上线电商平台。邀请电商企业（平台）的专家对企业进行点对点、线上和线下等多种方式的培训，帮助培养一批精通电商网络销售的实用人才。今年以来，先后在齐河县、乐陵市、宁津县、武城县和临邑县举办电子商务培训七场，邀请德州职业技术学院及电商企业专家现场授课，培训共计1200余人参加，培训活动的开展提升了电商从业及创业人员的实操技能。', '（三）是持续完善城市末端配送网络。进一步完善城市主要商业区、校园、社区等末端配送节点设施，引导企业发展统一配送、集中配送、共同配送等集约化组织方式。一是推动运达物流园和金茂园物流园转型升级为城市配送中心。运达物流园受中心城区限行影响，货运公司大量迁出，大量经销商，电商企业、快餐总部入驻园区，已经达到150余家，接近园区商铺总量的50%以上，基本具备城市综合物流配送中心职能。通过积极引导电商企业入驻金茂源物流园区，加快基础设施建设，金茂源园区建成自动化分拣中心，配备先进的管理系统，实现了仓储管理的信息化、智能化、现代化。顺丰、申通、韵达、中通等各大快递公司均入驻园区，涵盖快递共同分拣和电子商务云仓两大板块，成为我市快递专业配送中心。二是推进智能快件箱等智能化设备进社区、进商圈、进学校。通过我省实施的智能快件箱进楼宇工程“三年行动计划”，我市云柜、智柜、近邻宝和邮政等4家建设企业共安装236组智能快件箱。同时，随着菜鸟网络、摩西管家等新型分拨形式的不断补充，快件末端配送体系基本形成。', '（四）加强家政服务人员培训。2020年，协调、支持德州市家政服务业协会，举办师资培训班3期，共计培训师资51人；培训养老护理员24期，共计培训686人；培训育婴员培训班6期，共计培训149人；举办家庭配餐员培训班22期，共计培训768人；开办线上直播，网上学习人数7800人次；全年家政行业累计培训服务员9403人次。举办全市家政服务职业技能大赛一期。山东朗润家政，德州恩慈家政被评为诚信单位，德州恩慈家政被评为爱心企业。', '今年以来，今年以来共培训6个班次，主要包括高级养老护理员、养老护理员师资、养老护理考评员、家政服务考评员、中式面点考评员、育婴员考评员、公共营养考评员，共计培训210人，其中妇女占65%以上。', '下一步，我们将积极采纳你委的建议，坚持生产性服务业和生活性服务业并重，大力推进互联网＋、云计算、大数据等信息技术改造，推动“物流+””等跨界融合发展。支持信息技术在家政服务等行业创新应用，培育一批“德州服务品牌”。会同、配合各部门强化统计监测，加强数据交流与共享，推动服务业高质量发展。', '人才是创新的第一资源，加快引育专业人才，对于推动服务业发展，促进产业转型升级具有重要意义。近年来，在市委、市政府领导下，人社部门高度重视服务业人才引进培养工作，会同有关行业主管部门，把服务业人才纳入人才工作总体计划，积极推进政策引领、人才招引、培养提升、服务保障等重点工作，持续推动服务业人才队伍壮大。', '2020年9月，德州市积极顺应人才形势发展变化，对标国内发达地区和省内各市先进做法，制定出台《关于实施“人才兴德”行动建设新时代区域性人才聚集高地的若干措施》（德发〔2020〕13号），突出市场化导向、发挥用人主体作用、创新人才评价方式，对原有政策进行了全面升级、系统改革，打造了人才政策“黄金30条”升级版，并将符合条件的服务业人才纳入政策支持范围。对引进的人才和团队最高给予6000万元的科研补助。对企业引进的博士、硕士和“双一流”建设高校本科生，市财政每月分别给予5000元、3500元、2000元生活补贴，其他本科大学生每月给予500元生活补贴。对于自主创业大学生补贴最高不超过100平方米的房租补贴，连续资助3年。近年来，市级财政累计为1774名大学生发放生活补贴7530.85万元，发放创业房租补贴89.99万元。', '一是聚焦重点产业，推进按需引才。紧扣我市重点产业发展，面向包括服务业企业在内的重点企业，定向摸排人才需求情况，及时发布急需紧缺人才目录，通过举办大型综合类招聘会、精准化专业化小型招聘会，为用人单位和求职者搭建对接平台。近年来共组织各类公益性人才招聘会143场，服务企业6000余家。二是推动校企合作，实现精准引才。先后与全国47家高校建立常态化沟通协调机制，与9所高校签订人才战略合作协议，设立“德州市招才引智示范基地”“德州市引才工作站”8个。今年上半年邀请天津大学、山东理工大学、德州学院师生参观考察我市12家重点企业，通过实地考察增加校地企深度了解。三是组织重点活动，做到集中引才。将“走出去”与“引进来”相结合，开展“德州百企校园行”“名校人才直通车”“德州学子家乡行”“高校德州行”等引才活动，市领导带队开展专项引才，今年已组织1600多家企业赴高校专场招聘37场、线上对接54场，达成引才意向5931人。参与举办“智汇德州”人才创新创业周、高端专家服务基层、“百名博士进德州”“中北大学德州行”等20余场大型人才活动，集中引进各行业优秀人才。四是应对新冠疫情，强化线上引才。去年以来受新冠疫情影响，线下招聘活动暂停，为有效缓解人才紧缺问题，依托“互联网+”和“云平台”，为人才引进提供线上线下立体化服务，共发布人才需信息求6.1万条，吸引1.2万名求职者上线应聘，做到了网上招聘“不停歇”，人才服务“不打烊”。积极开展“德州网上百企校园行”活动，对接全国34所重点高校，组织全市1155家用人单位参加网络招聘活动。今年上半年建设运行“德州智慧就业平台”，与线下招聘大厅协调联动、数据共享，初步形成覆盖“一网、一微、一端”多功能人力资源对接平台，为人才引进提供线上线下立体化服务。', '在引进急需紧缺人才的同时，始终把本土人才作为推动城市发展最基本、最持久的力量，通过抓实人才专项工程，构建育才、养才、用才全链条机制等，大力发掘和培养本土人才队伍，做大做强本土人才“基本盘”。近年来先后有4.5万人取得专业技术职称，其中高级职称人才超过7800人。培育高技能人才2.5万人，其中技师2260人、高级技师964人，全市技能人才总量达到55万人。目前，全市现有享受国务院政府特殊津贴专家46人、省市级首席技师283人、省市有突出贡献的中青年专家222人，为全市新旧动能转换提供了有力的人才智力支撑。', '一是开展职业技能提升专项行动。着眼于服务经济发展需要，2019年从失业保险基金中列支2亿元专项用于3年培训行动，2019-2021年共开展补贴性职业技能培训15万人次以上。工作中注重将培训提升与助推职业院校发展有机结合起来，支持职业院校面向企业在职职工、在校大学生等开展补贴性培训，可提取最高不超过50%的培训净收入，用于追加绩效工资总量，并向一线教师倾斜，进一步调动职业院校育训并举的积极性。二是推动职业院校开展校企合作。深化职业培训模式改革，大力推行订单培训、定向培训、定岗培训等培训模式，增强培训的针对性和有效性，提高就业成功率。比如德州交通、走四方、智科等学校开设的铁路客运服务专业，鲁信、普利森等学校开设的物业管理专业，还有多所学校开办的旅游服务与管理、导游等专业，就业率较高。鼓励各技工院校利用自身优势发展品牌特色专业，将专业设置、职业培训与市场需求相结合，稳步扩大技工教育规模，为服务业发展提供高素质技能人才。', '在全省率先建立人才综合服务中心，承担人才政策的落地实施，建立人才服务“一网一库一平台”综合服务系统，服务事项全部实行线上办理、无纸化运行，一站式、一条龙、保姆式的服务受到广大人才的欢迎，先后有省内外的70多家单位来德州考察学习。会同14个部门，整合人才服务优势资源，出台《德州市高层次人才服务绿色通道规定》《德州市高层次人才服务专员管理办法》，为高层次人才开通户籍办理、子女入学、住房保障、医疗保健、交通旅游、工商税务等23个服务事项绿色通道，在全市建立“四级”高层次人才服务专员制度，在政策解读、待遇落实、人文关怀等方面提供高层次人才个性化、精准化服务，在全省率先开通“德州市12345人才服务专线”，提供24小时不打烊服务。目前全市已经发放“山东惠才卡”104张、“德州惠才卡”340张，配备服务专员648名。', '下一步，结合您的建议，人社部门将进一步加大服务业人才引育力度，在人才需求征集、人才引进活动中，重点向服务业倾斜，支持引导职业院校强化服务业校企合作力度，深入实施服务业领域专业技术人才知识更新工程，加快引进一批服务业高端紧缺人才，完善人力资源服务体系，为我市现代服务业发展引进培养更多专业人才。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>141</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>关于加快职业教育与企业需求深度融合的议案</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-12-22</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411338/n66411375/c67975979/content.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['随着经济社会转型发展，我市职业教育发展一路向好，服务经济发展的能力逐年提升。通过调研走访不同地域的不同类型的职业院校，发现还存在以下问题：', '1、一些院校师资配置不强、资金不到位、基础设施建设不足，发展不平衡，专业优势不强、产教融合不深。对职业教育认识不足，一个能为经济发展服务的职教体系还远未建立。学校培养出的技能型人才，企业如何“留住”他们，特别是对德州这座要争创科技创新中心的城市而言，未来产业升级转型亟需两大类人才，一是新技术研发高端人才，二是新兴产业的高技能专业工人，两者缺一不可。', '2、目前仍存在线上线下职业技能培训积极性不高、接受培训劳动力偏少、培训资源供需不均等问题。受传统观念影响，学校在招生、生源数量、校际合作等方面还存在一些困难。而且职业学校学生的上升通道、发展空间比较狭窄。囿于教师招聘条件，工科类教师招聘进口不畅，有些中等职业学校专业教师绝大多数都是普通高中教师转型而来，学校急缺科班出身、有企业工作经验的专业教师。', '需要建立健全“双培型”人才培养模式，加强“双师型”教师队伍建设，加强“双训型”基地企业合作“三个机制”。同时，坚持学历培养与技能培训并重，加快构建紧扣产业、错位发展的专业设置体系;坚持理论教学和实践教学并重，鼓励职业院校特聘高技能人才、能工巧匠兼职任教;引导企业与职业院校资源共享，把课堂办到工厂去、把车间引到学校来，让学生上学如上班、上课如上岗，促进教育链、人才链、产业链、创新链有机衔接。及时快速推进产教融合，不仅增强政府引导职能，提升行业评价权威，而且形成校企一体格局，降低校企合作成本。', '没有先进的教学设施，怎么能培养出高水平技能人才？职业教育专业在动态调整，但新的专业在教学质量、评测体系、教学实践等方面还处于起步状态，师资‘换血’应及时，需要在实践中予以完善，也需要政府、职业院校、企业建立联动机制，需要政府进一步落实“放管服”改革要求，鼓励行业协会、企业、职业院校等多方主体共同筹办线上线下职业技能平台，并给予一定职业资质认证权限，为其招生打开窗口。同时，需将补贴标准与市场培训成本挂钩，并在申领补贴流程方面，可进一步简化手续，缩短审批时长。', '希望相关部门加大政策支持和经费保障，同时还要加强项目的管理，包括考核、实施、验收等工作。加大产教园区项目支持力度，解决园区建设用地、资金需求。对产教融合型企业给予“金融+财政+土地+信用”的组合式激励，可按投资额一定比例抵免该企业当年应缴教育费附加和地方教育附加。进一步深化“引企入教”改革，促进企业的需求融入人才培养环节。健全学生到企业实习实训制度，推进实习实训规范化。鼓励区域、行业骨干企业联合职业学校共同组建产教融合集团（联盟），带动中小企业参与，进一步落实国家、省、地方关于职业教育发展的政策法规，扩大职业院校依法办学的自主权，包括在学校专业设置（包括专业命名）、师资引进等方面应赋予学校更大自主权，激发学校主动性和活力。为解决高技能人才短缺和生源不足现状，可以借鉴国外弹性学制先进经验，吸引在职员工进行学历提升。鼓励更多在岗工人、退役军人、下岗职工和农民工等报考职业院校。', '设立职业教育节不仅体现对职业教育的重视，并且将吸引更多社会力量参与职业教育的发展，职业教育节当天表彰对职业教育做出突出贡献者，更有利于激发职业教育师生的荣誉感。职业教育节的日期要与国家确立职业教育活动周相一致，建议将每年的5月10日作为职业教育节法定日期。', '首先，感谢您对教育和体育工作的关心和支持。您提出的《关于加快职业教育与企业需求深度融合的议案》收悉，现就涉及教育和体育方面的建议答复如下：', '1.坚持育人为本、德育为先。我市职业教育2020年在《推进职业教育创新发展试验区 建设打造职业教育创新发展高地的实施方案》（德政发【2020】5号）中提出，在学校教育中构建“思政课程+课程思政”大格局，把立德树人作为根本任务融入思想道德教育、文化知识教育、技术技能培养、社会实践教育各环节，把社会主义核心价值观融入人才培养全过程，推动专业课教学与思想政治理论课教学紧密结合、同向同行。', '2.推进现代学徒制人才培养模式改革。自2014年德州市被定为省级职业教育发展创新试验区以来，我市已经开始校企协同育人和招生招工一体化，校企共同设计人才培养方案，共同制定相关标准，建设双导师队伍，制定管理制度，完善考核评价机制。从2020 年起，每所职业院校至少1个专业和区域内企业进行现代学徒制人才培养。', '3.推进“文化素质+职业技能”的“职教高考”制度落实。从2020年秋季入学的新生开始，公共基础课程、专业理论课程以及具备条件的专业实践课程先期进行学业水平测试。到 2022年，基本完成职业技能考试成绩权重不低于 50%的“文化素质+职业技能”教学质量评价体系。', '截至2020年，我市中等职业学校有教职工3461人，其中专任教师2844人，任专业课、实习指导课的“双师型”专任教师共1305人，占专任教师比例为45.89%。我市中职教师队伍基本达标，但专业课、实习指导课的“双师型”专任教师存在校校之间的不均衡现象，且总体数量也越来越跟不上职业教育发展需要。为此，德州市政府出台的《推进职业教育创新发展试验区建设打造职业教育创新发展高地的实施方案》（德政发【2020】5号）对我市职业教育教师队伍建设提出了以下方案：“全面落实编制标准。落实中等职业学校教职工编制政策，以学生数为基本参数，根据学校类别综合考虑学校专业特点，按教职工与学生比确定；落实职业学校编制总数的20%用于自主聘用兼职教师，财政部门参照高级专业技术人员平均薪酬水平核拨经费的政策。确保专业专任教师不低于专任教师总数的 60%，“双师型”教师比例不低于专业教师总数的 70%。自 2020年起，除“双师型”职业技术师范专业毕业生外，职业院校新进专业专任教师原则上应具有3年以上企业工作经历和相关专业技术资格。”同时规定“业界优秀人才担任职业院校专任教师可以通过直接考察的方式招聘。设置一定比例的特聘岗位，畅通高层次技术技能人才兼职从教渠道。实施现代产业导师特聘岗位计划，建设标准统一、序列完整、专兼结合的实践导师队伍，推动形成“固定岗+流动岗”、双师结构与双师素质兼顾的专业教学团队。”', '山东省职业教育创新发展试验区建设之初，我市就提出紧密对接十大产业集群和战略性新兴产业发展需要，强化市级对专业建设的统筹，按照“一县一特色”和错位发展的专业布局设想，大力调整、优化专业结构，规范专业设置，支持特色、优势专业发展，限制和取消落后、过剩专业，形成了面向市场、优胜劣汰的专业设置调整机制。目前我市启动了中等职业学校专业分级认定工作，同时酝酿“统筹优化中等职业学校专业设置暂行办法”，要求各学校全面推进职业教育教学标准、行业技术规范、职业资格标准有效对接，对一些优势不明显，发展前景不广阔的专业进行了合并和裁撤。经过整合我市撤销了一批招生人数少、就业困难的专业，新增一批发展前景好的专业，一批骨干优质、示范、品牌专业逐渐形成。', '截至目前，我市共有20余个专业被省教育厅批复为山东省中等职业教育品牌专业，德州交通职业中等专业学校的汽车运用与维修和四方职业中等专业学校的中餐烹饪与营养膳食专业都属于省中职品牌专业，争取到省专项资金扶持，德州交通职业中等专业学校汽车运用与维修专业还成为全国职业院校道路交通类示范专业点。我市还立足学生多样化学习需求，着眼于区域内经济社会发展需求和行业办学特点以及技能型人才的成长规律，积极引导具备条件的职业学校申办五年制高等职业教育专业。', '下一步，按《方案》要求，我市将进一步大力调整、优化专业结构，规范专业设置，支持特色、优势专业发展，围绕实施新型工业化强市三年行动计划和新旧动能转换发展战略，每个县（市、区）主攻 2 个左右主导产业，打造一批与德州产业转型升级相适应的专业（群），重点扶持家政、养老等专业和先进制造业、现代农业、现代服务业、战略新兴产业等人才紧缺专业。建立三年一轮的专业评估长效机制，根据评估结果将专业认定为绿、黄、红牌专业，对绿牌专业给予支持，黄牌专业压缩招生规模，红牌专业逐步停止招生。到2022年，全市重点建成40个左右示范中职专业（群），15个左右高水平中职专业（群），5个左右高水平高职专业（群）。届时，我市职业教育专业建设整体水平的全面提升，将会培养大量的高素质技能型人才，服务京津冀协同发展战略。', '我市较早开展了校企联合招生、联合培养、一体化育人的现代学徒制试点，我市交通职业中等专业学校是教育部首批现代学徒制试点学校，2018年，我市齐河职业中专又成为省现代学徒制试点单位。目前我市共有国家首批现代学徒制试点学校一所，山东省现代学徒制试点学校2所。2017年5月25日，我市发起成立的京津冀·鲁汽车职教联盟组织召开了现代学徒制校企合作人才培养模式论坛。通过实施现代学徒制试点，我市部分职业学校初步建立了“招生即招工、入校即入厂、校企联合培养”的技能人才培养模式。同时我市还启动多元投资主体依法共建职业教育集团改革试点，支持学校、行业、企业、科研机构、社会组织等共同组建覆盖我市主要产业集群的职业教育集团。目前我市职业学校已经和500余家企业组建了德州市职业教育集团及生物科技、制冷与空调、交通、机械、太阳能5家行业类职业教育集团。指导职业教育集团成员单位在专业建设、人才培养方案制定、课程开发、实训实习、资源共享、专业教师培养等方面开展实质性合作，促进教育链和产业链有机融合。目前我市已出台政策，对于认定为产教融合型企业，享受国家支持企业参与举办职业教育的各项优惠政策。企业参与举办的校企合作实训基地项目，优先考虑纳入申报上级教育现代化推进工程产教融合工程资金支持范围。对产教融合型企业在新技术改造、新产品开发等方面给予支持，制定细化“金融+财政+土地+信用”组合式激励政策并落实相关税费政策。下一步，我市将结合国家和省最近出台的有关政策，加大对产教融合、校企合作的支持力度，探索高技能人才培养的新模式。', '在《推进职业教育创新发展试验区 建设打造职业教育创新发展高地的实施方案》（德政发【2020】5号）中，提出了规划建设职业教育园区。按照政府主导、企业参与、校校联合、社会力量举办的模式，支持县（市、区）和高校发挥资源聚集优势，规划职业教育园建设，打造新旧动能转换、产业转型升级的职教引擎，发挥职业教育对产业的支撑作用，进一步优化营商环境，为来德企业提供人力资源支撑。', '目前,我市在建的职教园区是德城区职教园，现已完成职业教育功能区，2020年启用招生；计划建设的乐陵民生职教园区正在论证中。此外，德州市政府明确支持德州学院和中北大学在德州经济技术开发区规划建设大学科技产业园，积极引导市场化投资基金支持科研成果在德州孵化转化，项目产业化优先在园区孵化落地。', '德州职业教育发展需要全社会的认同和支持，因此，我市在职业教育宣传方面做了大量工作。但是群众对职业教育的在认识需要一个过程，所以我们还需继续努力以便让群众百姓了解、理解发展职业教育的重要性。您提出的依托职业教育活动周设立职业教育节，利用节日各项庆典、表彰活动，吸引更多社会力量参与职业教育的发展，我们认为很有意义，但设立职业教育节是国家层面决定的事项，我们可以向上级部门进行反映。下一步，我们将深入研究，积极探索，充分利用各种手段加强宣传，让发展职业教育的理念深入人心。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>141</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>我为群众办实事主题系列新闻发布会第十一场共青团德州市委德州市妇联</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c64329286/content.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['“我为群众办实事”主题系列新闻发布会（第十一场 共青团德州市委 德州市妇联） - 德州市人民政府', '党史学习教育开展以来，团市委认真贯彻落实党中央决策部署和省、市各级党委工作要求，聚焦党政所需、青少年所盼，梳理推出“我为青年办实事”十项行动，5月17日，通过各位媒体朋友们进行了公开，接受社会各界监督。活动开展以来，团市委从严、从细、从实，用心、用力、用情，突出“引”（吸引）“融”（融入）“创”（创业）“爱”（关爱）四字，着力解决好青少年最关心最直接最现实的利益问题，努力把党史学习教育成果转化为青少年看得见、摸得着的归属感、获得感、幸福感、安全感。', '“青鸟计划”吸引青年学子，与12所高校建立校地合作。青年兴则国家兴，青年兴则德州兴。“青鸟计划”旨在通过广泛联系市内外德州籍青年大学生，吸引他们返回德州、留在德州、建设德州。主要做了四个方面的工作：一是与学生直接紧密联系，11个县市区全部建立了青鸟学子联盟，吸引凝聚了大批德州籍在外求学的大学生；二是加强与高校的合作，与德州学院、山东师范大学、山东建筑大学等12所高校签订校地合作协议，在人才招引、科技创新等方面深度合作。三是开展大学生实习实践活动，加强能力培养，利用寒暑假，为大学生实践提供锻炼机会。今年暑期，联合市人社局筛选发布实习岗位6000余个，目前，1200余名大学生在岗实习。四是服务就业创业。团市委先后赴西安、济南、曲阜、日照等地高校及德州学院、华宇工学院举办招聘会10余场次，推动人才招引和校地共建、校企合作，达成就业意向1100余人。', '推进城乡融入行动，创建20余处青春社区。依托现有青年之家，分类施策，一县一品，创建20余处青春社区，用好用活实体阵地。比如：乐陵市人才公寓青年之家引入“乐居乐创”服务项目，开展弹唱、扎染、团聚七夕等活动20余次，服务青年500余人次；平原强化党团攻坚，做到组织融合、阵地融合、群众融合“三个融合”，打造7个青春社区；德城区以“青年联谊交友”为重点，打造共青团“红娘”社区品牌。', '推进组织融入行动，培育130余名“伙伴计划”青少年社工。广泛联系服务青年社会组织，强化人才培养，组织专题培训班两期，培训青少年社工人才130余名；强化社团建设，召开德州市青年社会组织团建工作座谈会，20余家组织负责人参加，就参与基层社会治理等话题进行深入交流，共谋发展。', '实施乡村好青年创业提升行动，促进乡村振兴。一是开展遍访，遍访好青年1355名，帮助好青年解决实际问题、提供服务项目20余个，建立动态人才库，覆盖好青年9676名。二是平台凝聚，搭建发展平台，已有8个县市区成立了“好青年”联盟，开展培训教育、学习交流活动13 场次，参与1010 人次，发放乡村“好青年”贷款300万元。三是赋能提升，在村（社区）两委及团组织换届中，将优秀好青年纳入选用视野，1060人进入两委班子、180人担任村党支部书记、577人担任村团组织书记。', '实施青年创业扶持行动，发放“青字号”贷款近2.5亿元。面向全市广大青年企业家、青年创业者推出“鲁青基准贷”“鲁青农担贷”等扶持项目，建立申贷绿色通道，实现“当天申报、当天响应”，让青年企业家和创业者感受“速度”和“温度”。今年，全市发放青年创业贷款157户，共计2.46亿元，并积极为企业争取贴息资金约110万元。', '实施青联青企协创业交流行动，对接项目21个。承办省青年人才齐河对接会暨学习贯彻习近平总书记“七一”重要讲话精神专题学习班，助力县域经济发展；赴省青企峰会总部交流学习，借助青企峰会平台，开展点对点精准对接，力促产业项目落地；以视频连线方式举行德州——新疆头屯河青年企业家座谈会，40余名企业家参加，达成凝聚合作的共识；开展“普及支行、惠至网点”普惠金融网点行活动暨营销定策会，帮助企业现场授信，达成意向项目21个，授信总额度1.5亿元。', '开展“希望小屋”关爱行动，建设小屋639处。聚焦8至14岁的困难儿童，通过对原有房屋进行隔断、改造，配备必要的家具和学习用品，为孩子打造独立良好的学习生活空间。该项目主要包括三部分内容：一是筹集资金，通过线下走访爱心企业、开通支付宝“消费捐”（与德百集团合作）、线上通过腾讯公益广泛募集等方式，累计筹集资金780余万元。今年520腾讯公益季，组建爱心战队1242支、发动2万余人次参与、募集善款140.23万元，获得团省委的通报表扬。二是建设小屋，严格质量标准，规范建设、监督和验收程序，为孩子们打造漂亮、实用、富有情趣的希望小屋639处。三是跟踪帮扶。小屋建成后，配套志愿者跟踪陪伴，持续关心关爱小屋儿童，促进实现从“小屋焕新”到“精神焕彩”的转变。今年暑期，组织200余名受助儿童开展红色研学活动，走进渤海军区教导旅教育基地、德州市博物馆等地参观学习，传承红色基因，助力健康成长。', '开展“青春志愿”关爱行动，探索“菜单化”服务模式。推进校地共建，组织高校团委与四区结对共建，探索“菜单化”志愿服务模式，征集志愿服务项目“菜单”35项，为创建全国文明城市注入青春力量；推进家社共建，推出“文明德州 志愿你我”暑期亲子志愿服务活动，500余名家长和孩子们参与，开展主题志愿服务20场次；实施牵手关爱行动，确定帮扶儿童2000余名，开展“5+X”服务3000余次；组建“防溺水”青年志愿服务队600余支，开展安全宣讲、巡逻、野泳劝阻等活动，守护生命健康。', '开展安全生产关爱行动，创建青年安全示范岗86个。联合市应急管理局广泛开展青年安全示范岗创建行动，创建市级示范岗86个，争创省级20个，突出安全生产领域的青年生力军突击队作用；提升青年安全生产技能提升行动，培训“青年安全示范岗”创建单位负责人100余人，通过中公教育开展注册安全工程师公益培训，培训青年职工1300人；联合应急管理局对企业进行现场核查10余次，精心组织团员青年开展“安全生产月”活动，提升全社会安全责任意识。', '下一步，全市各级团组织在市委、市政府的领导下，继续深入开展“我为群众办实事”实践活动，通过召开团代会、青联青企协换届、青鸟学子联盟成立、乡村好青年联盟成立、希望小屋后续志愿服务提升、青年安全生产技能提升、青年文明号助力营商环境优化等一系列重大活动，切实把好事办实、把实事办好、办到青年心坎上，为开创德州高质量发展新局面作出积极的贡献！', '大家好！首先，借此机会，向一直以来关心和支持德州市妇联和德州妇女儿童事业发展的媒体朋友们，表示衷心的感谢！', '党史学习教育开展以来，市妇联认真贯彻落实党中央决策部署和省委、市委工作要求，把学习党史同解决妇女群众“急难愁盼”问题结合起来，不断把党史学习教育成果转化为为妇女群众办实事、解难题的具体行动。下面我从四个方面介绍一下办实事的情况，并对下一步工作计划做简要介绍。', '（一）实施“家·课堂”亲子公益服务项目，打造家庭家教家风建设品牌。市妇联整合社会资源，面向广大家庭，以公益课堂为阵地，以亲子活动为载体，采取“政府购买服务＋公益”的形式进行项目化运作。5月11日，举办了2021年“家·课堂”亲子公益服务项目启动仪式，我们招募到22家社会组织、培训机构，开设红色基因传承、传统文化体验、安全教育、心理健康、0-3岁家庭科学育儿指导、儿童科技、儿童保健等亲子体验活动和家庭教育知识讲座，涉及八大主题，总共开展300场次活动，每场次15-30个家庭参与，能够服务家长、儿童1.5万人次。为助力全国文明城市创建，其中100场活动走进德城区、陵城区、经济技术开发区、运河经济开发区的基层村（社区）开展。截至目前，已开展活动84场次，3300余名家长、儿童参与。今年是市妇联实施“家·课堂”公益服务项目的第三年，该项目也入选了“新时代妇联干部教育培训参考教材”系列——《家庭家教家风工作创新案例选编》教材，相关工作经验获全国推广。', '（二）助力乡村振兴，当好妇女创业就业“服务员”。一是实施“乡村振兴 巾帼先行”人才培训工程。市妇联根据农村创业就业妇女实际需要，通过“妇女群众点单+政府购买服务”方式，确定阳光大姐家政职业培训学校等4家机构，在全市开展家政、电商、农业种植、手工编织等31场农村妇女实用技能培训，共培训农村创业就业妇女1460余人次。二是实施“巾帼助农”项目。牵头引入山东省供应链管理协会会长单位——佳怡供应链企业集团实施“巾帼助农”项目，先后深入乐陵市、齐河县、庆云县等9个县市区开展考察调研16次，通过协调搭建巾帼好品供应链服务平台，降低农产品物流成本，让农村妇女群众的产品卖得出、卖得好。', '（三）开展婚姻家庭辅导服务，护航婚姻家庭幸福。在全市建立县级婚姻家庭辅导中心11处，招募607名志愿者作为婚姻家庭辅导员，对新婚夫妇进行婚前辅导培训，对申请办理离婚的夫妻进行解疑释惑、纠纷化解、情感疏导等方面的辅导，有效预防和化解婚姻家庭纠纷，降低离婚率。今年上半年，开展婚前辅导培训170场次，培训9362人；为6319对办理离婚登记的夫妻进行婚姻家庭辅导服务，2136对经辅导放弃或暂缓离婚。在乡镇、社区建立婚姻家庭辅导站22处，开展婚姻家庭知识讲座，提供矛盾调解、心理咨询等志愿服务。实施“我的幸福我做主”婚姻家庭公益巡讲项目，招募律师、心理咨询师、婚姻家庭咨询师等专业志愿者59名，开展《幸福家庭从好好说话开启》《走进新时代，护家庭幸福安康》等内容的婚姻家庭知识巡讲。开通“网上家庭课堂”，推出婚姻家庭知识宣讲系列小视频。', '（四）关爱帮扶困难群体，增强获得感幸福感。今年市政府将“全面开展农村适龄妇女‘两癌’免费检查”写入政府工作报告，市妇联积极建立完善低收入“两癌”患病妇女台账，切实摸清关爱对象底数，推进实施贫困妇女“两癌”保险救助项目，争取省级妇女儿童发展资金48万元，救助贫困“两癌”妇女48人。持续开展“爱心妈妈”结对关爱留守儿童、困境儿童活动，招募“爱心妈妈”（爱心爸爸）960名，为留守、困境儿童提供生活救助、亲情抚慰、学业辅导等关爱服务，关爱农村留守儿童、困境儿童1300人次。7月1日，“春蕾计划—佑未来 护成长”女童关爱行动项目基地在夏津县揭牌，夏津县双庙镇中心小学作为全省8所项目基地校之一、德州市唯一项目基地学校，全校500名女童获得爱心资助。针对暑期儿童溺水高发易发情况，市妇联联合德州市社会力量救援协会开展百场儿童防溺水安全教育进社区活动，走进13个县市区、城乡社区宣讲，总计4200人次受益。市妇联、市委政法委等10个部门联合下发《关于建立维护妇女儿童权益部门联防联动工作机制的意见》，制定“风险隐患联查、信息情况联通、社会干预联治、依法处理联动、舆情应对联处、社会救助联手”六项工作制度，进一步建立和完善保护妇女权益的长效工作机制。开展“反家暴”维权志愿行动，招募公检法等部门工作人员和律师、心理咨询师等社会人士作为志愿者，为家暴受害妇女提供法律咨询、案件代理、心理疏导、矛盾调解等服务。印制“反家暴”便民卡片5000余份，通过基层派出所进行发放，让家暴受害人了解更多求助途径，更好维护自身合法权益。', '为群众办实事永远在路上。下一步，市妇联将深入学习贯彻习近平总书记“七一”重要讲话精神，落实省委党的群团工作会议和德州市第十五届委员会第十次全体会议要求，扬优势、找差距，继续深入开展“我为妇女群众办实事”实践活动，具体做好以下几个方面的工作。一是持续推进家庭家教家风建设。按照习近平总书记关于家庭家教家风建设重要论述要求，组织全市美丽庭院创建现场推进观摩活动，表扬一批先进集体、个人和示范户。在农民丰收节前夕对全市新时代最美家庭、好婆婆好媳妇进行表扬。继续实施好“家·课堂”亲子公益服务、婚姻家庭辅导服务，总结好相关工作经验。二是持续助力妇女创业就业。推动“乡村振兴 巾帼先行”人才培训工程项目31个班次落细落实。持续跟进“巾帼助农”项目，搭建巾帼农产品供应链服务平台。深入开展“奋进新征程 巾帼建新功”主题竞赛活动，组织巾帼致富带头人、女企业家培训。三是持续抓实妇女儿童维权关爱。做好德州市妇女儿童“十四五”发展规划的编制、发布、宣传工作，召开全市妇儿工委成员单位座谈会，推动重点难点问题解决。推动男女平等基本国策进党校、进中小学。继续实施“反家暴”维权志愿行动，开展婚姻家庭风险隐患大排查，开展婚姻家庭法律知识和心理知识宣讲。', '提问：您好，我是德州日报的记者。刚才的介绍中提到，“家·课堂”亲子公益服务项目入选了“新时代妇联干部教育培训参考教材”系列——《家庭家教家风工作创新案例选编》教材，相关工作经验获全国推广。请介绍一下该项目的特色？', '赵晓静：“家·课堂”亲子公益服务项目科学运作有三大特色：一是深入调研，立足需求确定活动内容。深入村（社区）、机关企事业单位开展专题调研，在充分了解各年龄段家庭、妇女、儿童的实际需求前提下，科学设定活动目标和活动内容。二是招募社会组织作为合作伙伴。连续三年面向社会发布《关于招募德州市“家·课堂”亲子公益培训项目合作伙伴的公告》，全市累计有90家社会组织参与申报，通过现场对接、实地查看等方式，今年选取22家社会组织承接。三是改变传统行政化组织手段。我们以丰富多彩的亲子活动吸引家长儿童参与，建立了4个“家·课堂”公益服务项目微信群，每周固定时间发布活动报名信息，通过微信小程序报名，很多活动名额不到一分钟就被抢光。', '提问：您好，我是齐鲁晚报齐鲁壹点的记者。德州市在服务青年来德就业创业提供了很多的优惠政策，下一步，团市委在联系吸引德州籍大学生返乡创业还有那些具体的举措？', '张方瑞：主要体现在两方面，即外强联系，内优服务。一是外强联系，以高校或城市为单位，建设100处“青鸟驿站”（即大学生联络站），招募一批在校大学生担任站长，他们负责联系本校或本地的德州籍大学生，并及时宣传发布德州的人才政策、就业信息、良好环境等情况，打通在外学子与家乡的联系；同时结合驻外商会、“青年工作委员会”或“青年人才联络站”等组织，帮助他们解决在学习、生活、就业等方面遇到的实际问题。二是内优服务，在德州从各方面做好对市内外大学生的服务工作，积极配合组织、人社等部门，落实好大学生实习实践、就业创业、人才引进的各项政策，以岗位、平台和政策吸引人；同时，团市委还通过“青年驿站”免费入住、免费乘坐公交车、组织联谊交友活动等暖心细节服务，来打动、吸引和留住人才。', '提问：您好，我是山东商报的记者。“青字号”贷款有效满足青年创新创业群体的资金需求，这个项目针对的群体和申请流程是什么？', '张方瑞：“青字号”贷款主要推出“鲁青基准贷”“鲁青农担贷”“乡村好青年贷”等贷款项目，帮助创业青年破解资金瓶颈。“鲁青基准贷”“鲁青农担贷”重点群体为企业法定代表人或主要负责人为45岁以下的青年创办的小微企业；“乡村好青年贷”重点群体为各级评选的乡村好青年创办的小微企业，单笔贷款额度均为300万元以内。目前，这三个贷款项目与农商银行、邮储银行合作，满足条件的创业青年填写项目申请表，向所在县市区团委提出申请，团市委审核签章后，提交相关银行金融机构进行考察、放贷。', '提问：您好，我是市广播电视台融媒体中心的记者。市妇联在婚姻家庭辅导工作中，采取了开展离婚辅导、婚前培训和在社区建立婚姻家庭辅导站等措施，请问，施行这些措施的考虑是什么？成效如何？', '赵晓静：我市开展婚姻家庭辅导服务，最早是从离婚辅导开始的，在工作推进过程中，我们越来越觉得，离婚辅导对婚姻家庭而言是最后一道“关卡”，对婚姻而言，更有意义的是提前介入，实现“关口前移”，从而避免婚姻走到解体那一步。为此，一是从服务内容上，由“离婚辅导”延伸到“婚前培训”。通过对办理结婚手续的夫妻，进行科学婚姻家庭知识的普及，引导新婚夫妻理性处理家庭矛盾。我市宁津县首创“幸福三步走”婚前辅导法，包括婚姻家庭知识学习、夫妻默契度测试、结婚宣誓等三个环节，增强婚姻神圣感，引导年轻人以更严肃、负责的态度对待婚姻，受到新婚夫妻的欢迎和社会各界的好评。二是从服务平台上，由“辅导中心”延伸到“辅导站”。“辅导中心”是建立在婚姻登记处的，而“辅导站”建在更基层的有条件的村或社区，采用更灵活适宜的方式为家庭服务。比如禹城市的老城社区辅导站，10多名心理咨询师志愿者组成“好大姐”心理志愿服务队，每周六轮班到社区开展活动，上午为群众开设“公开课”，讲解婚姻家庭知识，下午为社区家庭和妇女儿童开展个案咨询，受到基层群众欢迎。下一步，我们将继续在创新服务内容和扩大受众群体等方面下功夫，为公众树立正确的婚姻家庭观做出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>141</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>关于加快我市社会救助体系建设的建议</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-12-09</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n66411248/n66411343/n66411380/c67377563/content.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['习近平同志在党的十九大报告中明确提出，按照兜底线、织密网、建机制的要求全面建成覆盖全民、城乡统筹、权责清晰、保障适度、可持续的多层次社会保障体系。多层次社会保障体系建设要求坚持以社会保险为主体，社会救助保底层，积极完善社会福利、慈善事业、优抚安置等。', '社会救助体系建设是关系民生、连着民心的重点工程之一。社会救助体系的建设，对着力防止返贫、脱贫不稳定人口、边缘易致贫人口实施精准脱贫起到重要作用。', '一）低保对象识别难度较大。低保政策要求低保对象主要依靠户籍、家庭收入和家庭财产三个要件来识别认定，家庭收入的复杂性和隐蔽性，给低保对象识别造成很大困难。在对贫困人口、低保对象的精准识别工作中，需要多个部门配合协作，农村居民的家庭收入难以准确界定，特别是隐性收入，是困扰农村低保救助，阻碍公平公正的一个难点。', '二）镇（街道办）民政助理岗位任务繁重，工作不堪重负。民政工作人员编制少与所承担的工作量成反比，直接影响到各项救助工作的开展和落实。', '六）存在“等、靠、要”思想。部分贫困人口因为不想失去救助政策和各种扶贫资源，消极对待就业、技术教育、技术扶贫等帮扶政策。', '一）提高认识，完善救助体系。随着我国进入新时代的大变革，社会主要矛盾已转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。切实解决困难群众生活中面临的各种问题，完善社会主义救助体系建设，从源头上解决社会问题和社会矛盾，维护社会稳定发展。要进一步提高对社会救助工作的认识，关注和救助弱势群体，是实现脱贫攻坚，实现共同富裕，实现伟大“中国梦”的保障。建立政府领导、民政主管、部门分工负责的救助工作领导体系，将关注和救助弱势群体工作纳入目标考核，增强刚性约束。民政部门是城乡社会救助的主管部门，要统筹协调好劳动保障、财政、卫生、扶贫、住建、教育、国土资源、农业、司法等职能部门，各司其职，密切配合，形成多形式、多渠道、多方位、网格化的社会救助体系。', '二）整合资源，将救助体系建设落到实处。加大对社会救助体系建设的财政投入，按照建立公共财政的要求，保障各项社会救助政策落实。建立社会救助资金的增长机制，增长幅度要随着当地财政收入的涨幅而增长。广泛动员社会力量参与社会救助工作，建立政府牵头、有社会责任感的志愿团体、企业家共同参与的社会救助体系。大力发展慈善事业、福利彩票事业等筹集社会救助资金，由单一投入为多元化投入；由依靠经常性救助，依靠政府财政救助转变为多股社会力量参与的临时配套救助为补充的多元化救助体系。', '三）建立社会救助的行政管理机制，畅通社会救助和社会服务渠道。2014年我国颁布的《社会救助暂行办法》规定，县级以上地方人民政府应当发挥社会工作服务机构和社会工作者作用，为社会救助对象提供社会融入、能力提升、心理疏导等专业服务。这些机制和渠道主要包括：一是在县级以上地方人民政府和社会工作服务机构之间建立起“政府购买服务”的机制和渠道。二是县级以上地方人民政府应支持在街道办事处设立以社会工作为主体专业技术岗位的社会救助经办机构，对街道办事处的社会救助经办机构或经办人员采取培训考核，使之胜任社会服务的办法；使社会救助经办机构变成以社会工作为主体专业技术岗位的机构，使经办人员变成符合资格要求的社会工作者。只有如此，他们才能同时承担起两种功能，既提供经济援助，又提供社会服务。', '四）形成部门网上办理同步审批联动机制。今年以来，新冠疫情疫情防控要求进一步优化社会救助服务流程，减少现场经办。搭建全市统一的民政“互联网+政务服务”平台，以城乡社会最低生活保障为基础，以教育救助、住房救助、医疗救助、法律援助、就业援助等专项救助为配套，以经常性社会捐助、慈善救助、结对帮扶等社会帮困手段为补充的城乡社会救助体系，优化简化审核审批程序，不再开展入户调查和民主评议，实行申请、审核、审批等环节全流程在线办理是社会救助体系建设的变革和创新。通过大数据、云计算等技术手段，实现申请人身份信息实时验证，申请信息在线填写，证明材料即时上传，核对授权当场填报等功能，需要社会救助行政业务部门有专人负责，做到职、责、权明确界定，各个办理节点合法规范，缩短办理时限。完善服务指南，使申请人对流程和要素了然于心。涉及两个或者多个救助事项的审批，减少办事环节。探索实行“多窗口为一窗口”、“多环节为一环节”、“串联审批为同步审批”部门联动机制。通过困难群众信息数据库建设，实现救助与保障信息资源共享，实现对救助对象的动态管理，真正实现申请救助“触手可及”，为政府决策提供依据。', '六）社会救助对接乡村振兴。农村贫困人口占被救助群体的绝大多数，助力乡村振兴，是摆脱贫困的根本。“以农为主”、“靠天吃饭”是我国农民多年来形成的思维习惯，也是部分农民致贫的原因。有的地区通过生态旅游、农家乐旅游等带动地域经济发展；也有的村庄以畜牧养殖、生态大棚种植等特色农业带动农民致富、增加村集体收入。在市场经济环境冲击下，在自然环境的突变下，在今年新冠疫情的影响下，农业创业存在着一定的风险。做好自然灾害的预警检测等机制，防范遭受自然灾害的农民陷入贫困，完善健全自然灾害临时救助体系，解决农民的后顾之忧，助力乡村振兴。同时，乡村振兴又是带动贫困人口摆脱贫困的最高效手段。', '2020年以来，德州市深入贯彻习近平总书记对民政工作的重要指示精神，按照民政部统筹改革完善社会救助体系的有关要求，直面“后扶贫时代”如何解决相对贫困这一时代之问，坚持以人民为中心、问题为导向、创新为动力，创造性开展社会大救助体系建设，建成了以“救助领航、送爱到家”为主旨的新型社会救助保障体制机制，奋勇担当、走在前列，努力打造可复制、可推广的全国民生工作特色品牌。全国政协副主席万刚作出指示充分肯定，《中国社会报》《大众日报》《新华社期刊》多次刊发德州工作经验，山东省委办公厅、省政府办公厅、省委党校等先后到德州视察调研，省内外多地市来德州考察学习。', '（一）工作背景。党的十九届四中全会提出“构建解决相对贫困的长效机制”。打赢脱贫攻坚战并不意味着贫困彻底消除，贫困治理的重点和难点将转向更加隐蔽的相对贫困。党的十九届五中全会提出“健全分层分类的社会救助体系”，对新形势下的社会救助工作提出了更具体的要求。今年，中办、国办印发的《关于改革完善社会救助制度的意见》提出“运用现代信息技术推进救助信息聚合、救助资源统筹、救助效率提升，实现精准救助、高效救助、温暖救助、智慧救助”。当前，各类社会救助政策系统整合不够，救助资源有机统筹不够，救助方式无法满足多样化的救助需求。因此，进一步改革完善救助制度，构建以解决相对贫困长效机制为目标，建立制度健全、政策衔接、城乡统筹、兜底有力的社会大救助体系势在必行。', '（二）工作原则。为确保社会大救助体系的科学性、针对性和实用性，我们努力做到“五个坚持”。一是始终坚持以习近平总书记重要指示为基本遵循。习近平总书记指出“保障和改善民生没有终点，要采取针对性更强、覆盖面更大、作用更直接、效果更明显的举措，为群众增福祉、让群众享公平”。总书记的重要论述，为我们开展工作提供了基本遵循。二是始终坚持以人民群众对美好生活的需要为基本方向。着力解决发展不平衡不充分带来的相对贫困问题，确保弱势群体和全国人民一道过上幸福美好生活。三是始终坚持以保障困难群众的基本生活为底线。在脱贫攻坚中，社会救助承担着“兜底一批”的重要任务，既要兜得住，做到主动发现、实时比对、及时救助；还要兜的好，大力整合各类资源，实施“物质+服务”，同时，建立动力提升机制，激发贫困群众脱贫解困的内生动力。四是始终坚持“尽力而为、量力而行”的基本原则。在不断提升保障能力的同时，充分考虑社会救助的阶段性特征和德州发展水平，合理引导社会预期。五是始终坚持顶层设计和基层创新相结合。在顶层设计上做到科学合理、实事求是，同时，鼓励基层结合实际创新探索。', '（三）工作历程。德州市社会大救助体系建设整体发展历程经历了三个阶段。第一阶段：2018年，时任民政部部长黄树贤在德州临邑蹲点调研，对社会救助体系完善作出指导。我们以临邑为试点，统筹完善社会救助体系，探索了全国典型经验，打造了社会大救助体系的1.0版本。第二阶段：今年6月30日，德州市社会大救助综合服务新平台上线，“德救助”微信小程序、12345呼叫平台同步上线，困难群众申请救助可“网上办”“掌上办”“指尖办”“电话办”“口述办”，并实现了“全域申请、居家办理”，社会大救助体系升级为2.0版本。第三阶段：9月29日，相对贫困人口主动发现机制、政府和社会力量相结合的救助保障机制、适应相对贫困人口多层次需要的动力提升机制“三大机制”初步建成，社会大救助体系3.0版本正式建成。', '（四）工作推进。市委、市政府将社会大救助体系建设列入年度重点督查内容，纳入市直机关绩效考核和县市区经济社会发展综合考核。成立了以市委书记和市长为“双组长”的工作专班，建立由35个部门组成的联席会议制度。工作专班办公室成立制度建设组、能力建设组、平台建设组、资金管理组、脱贫攻坚组、协调调度组6个工作组，并组建临时党支部，攻坚克难、全力以赴确保各项任务目标落实落地。各县市区参照市级成立相应的工作机构，配齐配强专班力量，自上而下全面建立起党委领导、政府负责、民政牵头、部门协同、社会参与的工作体制。', '德州社会大救助体系，可以形象地称为“莲藕式”，就是实现“一口进、一口出、各口独立运行又协同联动”。“一口进”就是所有申请救助项目均可在救助网点、呼叫平台（12345）、手机客户端申报，就近接收反馈结果；“一口出”就是工作人员或网络平台在接收到救助申请后，通过前台受理、后台转办方式将求助信息转至各救助职能部门，并通过最初接收窗口反馈救助结果；“独立运行”就是在各救助职能不变的前提下，审批部门按照相应政策进行办理，并按时限要求将办理结果进行反馈；“协同联动”就是通过信息平台的大数据库、贫困指数排序、系统主动发现等功能进行数据交换，最终实现困难群众申请救助“一窗受理”，审批流程“全程在线”，救助过程“一网通办”，救助项目“一次办好”，救助对象“一库取单”。', '德州市社会大救助体系建设的主要内容为“1335”，即“一个目标、三大机制、三个统筹和五大体系”。', '（一）咬定一个目标，构建解决相对贫困长效机制。我们在谋划社会大救助体系建设之初，不仅将其作为打赢脱贫攻坚战的保障措施，更将其作为“后扶贫时代”稳定脱贫的有效手段，通过构建识别机制、保障机制及动力提升机制，以3%的困难家庭、10%的困难人口作为相对贫困人口进行主动识别、动态识别、适度保障、多维度帮扶，构建起相对贫困问题的长效解决机制。', '（二）创新三大机制，救助模式更加精准公平长效。着眼于破解“依申请救助”短板不足，创新机制改革，变“人找政策”为“政策找人”，最终实现由被动救助向主动救助转变，由单一政府救助向社会全域救助转变，由“输血型”救助向“造血型”救助转变。一是建立相对贫困人口主动发现机制。建立基础数据库和救助成果库，设置贫困指数，通过大数据、云计算掌握不同群众贫困状况，按照指数排序和相应的政策标准确定救助对象并进行救助，实现了系统主动提醒、转办时人工推送、救助时按库取单，有效破除了救助中的“悬崖效应”。同时，村级协理员协助做好人工发现应救助人员，及时录入系统并推送至相关部门，彻底解决了重复救助、遗漏救助问题，做到了及时发现、及时介入和即时救助，实现了科学、公平、公正、公开救助。二是建立政府和社会力量相结合的保障机制。充分利用“三个统筹”的资源整合力量，为救助提供基础性保障。建立特别困难群众“一事一议”制度，适当提高救助额度，实施叠加救助。进一步加强政府与社会力量的衔接，为慈善组织、志愿者、各类救助平台、爱心单位、个人与需救助的对象搭桥，精准实施救助帮扶。立足困难群众需要，探索“物质+服务”救助模式，通过政府购买服务对不能自理的老年人、未成年人、残疾人等提供探访照料服务，实施类别化、差异化救助。三是建立适应相对贫困人口多层次需要的动力提升机制。通过系统大数据分析，对困难群众“两不愁、三保障”问题实时预警，实现应救尽救、有效保障。针对相对贫困人口脱贫动力能力不足等问题，由大数据平台推送相关信息，根据信息提示，结合动力能力提升路径指引，实施精准帮扶。把促进动力提升的各项措施标准化、信息化。建立多次适岗介绍不就业惩戒机制，引导贫困人口在参与劳动中激发内生动力。', '（三）立足三个统筹，救助资源更加整合有力适配。在不增加投入的情况下，如何让救助效果更好？力量统筹、资源整合是出路。一是统筹完善社会救助政策。针对 “群蜂送蜜、多而无序”的救助现状，全面梳理15个职能部门的43项政策，打通救助政策壁垒，实现了“蜂巢式”救助向“莲藕式”救助的转变。二是统筹衔接社会福利和社会保险政策。将保险和福利政策按照自愿原则纳入社会大救助综合服务新平台，流程再造，打通政府与社会救助资源共享通道。三是统筹组织社会力量。目前，现行的政府保障政策还有覆盖不到的地方，需要社会力量补充。我们引导和支持慈善组织、社会志愿者、各类救助平台等高效有序参与社会救助工作，举办社会共救体系联动仪式，制定《社会大救助对接社会力量实施方案》和《关于支持引导社会力量参与社会救助工作的实施意见》，搭建起困难群众和社会力量的桥梁，让困难家庭得到最大限度的救助。', '（四）打造五大体系，救助服务更加高效智慧便民。围绕构建解决相对贫困的长效机制，我们着力推进五大体系建设。一是完善政策体系。对15个救助职能部门的43项政策进行梳理，结合省市“流程再造”工作，优化申请、审核、审批流程，按照“乡镇审批是常态，县级审批是例外”的原则下放审批权限，大幅度压缩审批时限。低保办理时限由近40个工作日缩短为11个工作日。联合市财政局、市残联、市退役军人事务局、市人社局等部门，对残疾人两项补贴、经济困难老年人补贴的申请进行流程再造，由当事人申请变为部门间信息核对主动发现，实现了“免申秒办”。将救助项目分层次、分类别导入智慧平台，全部进行流程再造。二是拓展平台体系。以信息技术为手段，全力打造“一网三平台”，即德州市社会大救助综合服务新平台、居民家庭经济状况核对平台、依托12345市民热线建立的呼叫平台和社会救助综合信息网，实现“一网三平台”实时对接，各项业务可通过大救助服务网站、12345市民热线、“德救助”小程序、微信公众号等各类窗口直接申请办理，实现零跑腿、远程办。全市利用社会大救助综合服务新平台已办理低保、特困、临时救助等业务9392项。家庭经济状况核对平台可在3分钟内对申请救助家庭成员的住房、车辆、退休金、公积金等13项数据进行比对并反馈。三是布局网点体系。在全市市、县和134个乡镇、8155个村（社区）全部设立救助网点，所有网点统一标识，所有救助项目在大救助平台内运转，前台统一受理，后台部门在线审批，实现“全域通办”。四是充实队伍体系。市、县两级全部建立社会大救助中心，乡镇（街道）全部设置工作站，村（居）按实际需要设置服务站。为11个县市区核定编制 135名，配备工作人员101人，乡镇（街道）配备专职工作人员474人、社会公益岗人员328人、专职村级协理员7584人。五是强化保障体系。规范社会救助资金发放，通过民生资金监管平台公开发布社会救助信息；利用德州信用信息平台，建立失信惩戒数据库；建立了社会大救助监督考核制度，全力保障体系运行。', '（一）兜牢了民生保障底线。社会大救助体系不仅在打赢脱贫攻坚战中发挥了巨大作用，保障了绝对贫困人口解贫解困，更通过对相对贫困人口的及时发现和预警提醒，有效防止了脱贫后返贫情况的出现，为困难群众群体和沉默少数提供了更加完善、更加贴心的保障。', '（二）织密了民生安全网。党的十九大提出，按照兜底线、织密网、建机制的要求，全面建成覆盖全民、城乡统筹、权责清晰、保障适度、可持续的多层次社会保障体系。德州社会大救助把低保、特困等重点救助对象应救尽救作为基础核心，并通过制度创新将部分低保边缘人群纳入保障范围，同时以3%的困难家庭、10%的困难人口作为相对贫困人口进行主动识别、适度帮扶，实现了对困难群体的多层次全面保障。', '（三）建立了解贫解困长效机制。德州社会大救助通过建立相对贫困人口主动发现机制、政府和社会力量相结合的保障机制、适应相对贫困人口多层次需要的动力提升机制，确保了贫困人口及时发现、及时介入和即时救助，实现了各类社会救助资源按需分配、有序流动、精准使用，满足了困难群众多样化需求。解决了救助谁、怎么救、救多少、救什么等关键性问题，构建起了解决相对贫困的长效机制。', '（四）破除了体制机制弊端。一是创新了体制改革。以往各项救助分布在多个部门，有多个“入口”，改革后所有救助项目从一个口进，救助资金从一个口出，极大方便了群众，提高了救助效率。二是完善了机制改革。社会大救助体系实现了“一库取单”，避免了救助职能部门确定救助对象的随意性和随机性，确保了救助政策优先用在最贫困的家庭上。三是深化了“放管服”改革。把能够下放的审批权限全部下放到了乡镇，对所有救助项目按照“减无可减”的原则进行流程再造，确保了群众“一次办好”。', '（五）推进了新时代市域现代化治理。市域社会治理是国家治理在市域范围的具体实施，是国家治理的重要基石。德州社会大救助体系是市域层面社会治理体系的重要组成部分，通过建立“一网三平台”，利用信息化手段铺设了市、县、乡、村四级社会大救助服务网络，在城乡社区实现一个平台统一救助，为贫困群众提供了便捷、高效的救助服务，拓展了市域治理解决矛盾问题的资源，提升了市域治理将矛盾解决在萌芽和基层的能力。', '救助领航保民生，送爱到家暖民心。德州市将深入贯彻中央和民政部有关要求，根据新形势、新变化，改革创新、与时俱进，以“人民至上”的责任担当对社会大救助体系进一步完善提升，逐步实现大救助工作的制度化、长效化和标准化，让困难群众的获得感、幸福感、安全感更加充实、更有保障、更可持续！']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>141</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>德州新闻网我市加快推进新型工业化强市建设实施双强企业培植三年行动</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-02-08</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952759/c60845209/content.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['【德州新闻网】我市加快推进新型工业化强市建设 实施双50强企业培植三年行动 - 德州市人民政府', '（记者 王志冕 杨鸣宇）2月3日，我市举行“重点工作攻坚年”主题系列新闻发布会第二阶段第十五场发布会，市工业和信息化局副局长王明杰、市行政审批服务局副局长丁世章、市地方金融监管局副局长刘秀岭介绍推进企业领域改革攻坚相关情况。', '2020年，全市工业经济实现平稳健康发展，规模以上工业增加值累计增速5.5%，圆满完成2020年工业增加值预期增长目标。2021年，市工信局将扎实推动新型工业化强市三年行动全面破局。加强产业链链长制推进体系建设，依托研究机构和智库力量，建立产业链专家库。落实《德州市支持新型工业化强市20条意见》和《德州市关心关爱企业家二十条措施》，开展企业“赋能行动”，组织企业家对标学习、考察培训等活动。实施“工业企业50强”和“创新型高成长企业50强”培植三年行动，树立标杆企业，提升发展能力。狠抓链长制，分产业链制定振兴规划，开展“产业链振兴行动”，围绕“建链、延链、补链、强链”，突出抓好产业链龙头企业技改提升，对外合作，快速膨胀。此外，强力推进智能化与产业深度融合。一是推动工业企业智能化技术改造；二是实施“人工智能+”突破行动，开展智能工厂、数字化车间创建，打造“示范流水线”“示范工厂”“示范园区”“示范县”；三是加大智能化培训力度，积极开展工业互联网、企业上云、5G技术应用等培训活动，提升企业数字化、智能化转型的能力和水平。', '行政审批改革服务领域，我市大力推进开办企业“一件事、一链办”、“一业一证、多证合一”、企业“一业一证”四级通办。下一步，我市将在推进“一业一证”改革上再鼓干劲、再添力量、再出新招。一是推进“一业一证”行业清单化。在现有清单基础上，扩展“一业一证”行业范围，同时对行业进行动态管理。二是实施“一业一证”系统重塑。统筹窗口综合服务，集成现场核查，统一审批结果送达，建立部门协同工作机制，构建纵向贯通、横向相联的一体化审批许可服务格局。三是强化“一业一证”标准管理。全面规范审批窗口、审批要件、申报材料、受理流程、核查程序，建立审批监管信息双向反馈，实现全市范围无差别办理。四是优化“一业一证”联动服务。按行业做好指引，实行全程帮办代办，推行在线申请、在线受理、证照免费寄递、不见面审批。', '2020年，我市聚焦精准服务，对市级重点项目、化工项目、外贸企业等领域信贷需求集中向银行机构推介，督促做好融资服务工作，着力缓解企业融资难题。2020年全市新增各项贷款319.9亿元，增速14.5%，同比多增86.2亿元。同时，创新融资服务举措，市内银行机构为符合条件的高层次人才及其所在企业办理“人才贷”1.28亿元，支持企业科技成果转化和创新创业活动。2021年，市地方金融监管局将协调引导金融机构创新金融服务、扩大金融供给、优化金融环境，持续推动企业上市挂牌和发展直接融资，助推我市经济社会实现更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>141</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>我为群众办实事主题系列新闻发布会第一场德州市民政局德州市退役军人事务局德州市残联</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-07-27</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c63968882/content.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['“我为群众办实事”主题系列新闻发布会（第一场 德州市民政局 德州市退役军人事务局 德州市残联） - 德州市人民政府', '“我为群众办实事”主题系列新闻发布会（第一场 德州市民政局 德州市退役军人事务局 德州市残联）', '各位新闻媒体的朋友们，大家好！首先我代表市民政局对参加本次新闻发布会的各位新闻记者朋友们表示热烈的欢迎和衷心的感谢！感谢各位长期以来对我市民政事业的关心、支持和帮助！', '党史学习教育开展以来，我局始终认真践行“民政为民、民政爱民”工作理念，锐意进取、扎实工作，在保障和改善基本民生、筑牢民生底线、构建和谐社会等方面积极开展工作，紧盯人民群众“急难愁盼”问题，立足民政工作实际，以“解忧暖心传党恩”为主题，扎实开展“我为群众办实事”活动。下面，就我局开展“我为群众办实事”活动中重点的民生工作阶段性进展情况进行简要介绍。', '创新建立以“救助领航、送爱到家”为主旨，以推进脱贫攻坚与乡村振兴有效衔接为目标的社会大救助体系，打造了困难群众及时发现、及时介入、即时救助的社会救助新格局，群众申请救助实现了“网上办”“掌上办”“电话办”“口述办”，做到了“全域申请、居家办理”。2020年6月30日，德州市社会大救助综合服务新平台上线，新平台与省救助平台数据对接，通过省平台共享残疾证数据。为了简化手续，方便群众，新平台建立了免申请，秒批秒办救助事项工作机制。残疾人补贴、经济困难老年人补贴，不再需要当事人申请，平台自动按照公安户籍、民政、残联等部门的相关数据进行碰撞比对，符合救助条件直接发放救助资金。', '全国政协副主席万钢同志作出专门批示，民政部党组成员、副部长唐承沛同志来德视察社会大救助工作并作出批示，市委书记田卫东同志将社会大救助工作列为个人“为民办实事”清单。新华社、《中国社会报》《山东通讯》《大众日报》等多家主流媒体进行专题报道，全国各地先后来德州专程考察学习，德州社会大救助被评为2020年度全省改革品牌，被省民政厅评为2020年全省民政工作创新案例，在民政部举办的全国低收入人口动态监测和常态化救助帮扶机制建设培训班和省民政厅召开的全省完善社会救助制度暨低收入人口动态监测推进会议上，德州均受邀作典型发言，改革成果在全国产生良好影响。', '2021年截至目前，建设改造农村敬老院9处，街道综合养老服务机构10处，增加护理型养老床位1120张。为失智老年人发放防走失定位手环项目已完成政府采购程序，拟于7月底开始发放。开展养老机构安全生产大排查大整治行动，落实省级相关养老服务标准，加强养老服务队伍建设，培训养老院长20名、养老护理员230名。制定出台了《德州市民政局 德州市财政局关于印发〈德州市养老服务专项资金补助项目实施方案〉的通知》（德民字〔2021〕60 号），优化民办和委托运营养老机构奖补政策，重点对收住中度、重度失能老年人的养老机构给予运营奖补，在省级奖补基础上给予市级配套奖补，市级按照每人每年400元、600元（不满一年的每人每月35元、50元）的标准，根据养老机构1-5星级等级评定结果，分别给予0.8倍、0.9倍、1倍、1.1倍、1.2倍差异化奖补。接下来，下半年再改造提升农村敬老院6处，街道综合养老服务机构5处，增加护理型养老床位1480张。为失智老年人发放防走失定位手环。', '建设完成德州养老示范城项目，运营后将对全市养老机构养老业态，适老化建筑、智能化管理、规范化服务、配套设施应用和孝文化等方面起到示范引领作用。深入开展社区养老服务设施配建工作专项行动，2021年年底前，社区养老服务设施“四同步”(同步规划、同步建设、同步验收、同步移交)机制和统一登记管理制度全面建立，老旧住宅区、新建住宅区养老服务设施配建达标率分别达到70%、100%。', '提高困难群众救助保障水平。为进一步增强民生兜底保障能力、巩固拓展脱贫攻坚成果、提升困难群众福祉水平，5月份，市民政局、财政局联合印发《关于提高困难群众救助保障水平的通知》。自2021年1月起，全面提高困难群众救助保障水平。全市各类困难群体共有150394人，其中包括：3103名城市低保对象，标准每人每月755元；49378名农村低保对象，标准每人每月565元；24913名城乡特困对象，城市特困人员基本生活标准每人每月1130元，农村特困人员基本生活标准每人每月815元；73000名残疾人，困难残疾人生活补贴一、二级每人每月160元，三、四级每人每月130元；重度残疾人护理补贴一级每人每月140元，二级每人每月120元。1576名孤困儿童，机构养育孤儿基本生活费标准每人每月1940元，社会散居孤儿基本生活费标准每人每月1540元；重点困境儿童基本生活费标准每人每月1080元；事实无人抚养儿童、受艾滋病影响儿童参照社会散居孤儿保障标准执行。民政服务对象救助保障标准全部达到全国平均水平。', '残疾人两项补贴实现“跨省通办”。残疾人两项补贴“跨省通办”以任意地申请、户籍地审核审定及发放的形式办理。通过全国残疾人两项补贴信息系统，进行资格认定申请的异地代收、推送户籍地审核、办理、结果反馈等工作。', '开展“解忧暖心传党恩”行动。动员全市民政系统党员、干部对低保对象、特困人员等困难群众开展走访慰问活动，对走访慰问发现的问题制定具有针对性的政策举措，将因新冠肺炎疫情、自然灾害、重大疾病或者因其他意外事故造成基本生活困难的人员及时纳入救助范围，做到应保尽保、应救尽救。通过走访慰问，传达党对困难群众的关怀，宣讲党的民生政策，教育引导困难群众听党话、感党恩、跟党走，用脚步丈量民情，用政策排忧解难，用行动温暖民心。印发《关于印发“解忧暖心传党恩”行动实施方案的通知》（德民字〔2021〕23号）。截至目前，各县（市、区）走访慰问低保、特困人员等特殊困难群众1599人次，支出资金48.94万元。走访后解决的政策问题15个，走访后解决的个案问题7个。', '开展全市农村低保专项治理巩固提升行动。在三年全市农村低保工作中的腐败和作风问题专项治理基础上，开展全市农村低保专项治理巩固提升行动。印发《全市农村低保专项治理巩固提升行动方案》的通知》（德民字〔2021〕31号）。截至目前，各县（市、区）退出不再符合条件低保对象数为962户、1138人；新纳入低保对象数为1937户、2628人；受疫情影响纳入临时救助数为11人次；有集中供养需求人数为245人；新增分散供养人数为1163人。', '以上只是民政部门践行“我为群众办实事”活动的一个缩影。民政工作关系民生，连着民心，一刻也不能耽搁，我们将以更加蓬勃的朝气、昂扬的斗志、务实的作风，不断创新工作思路，增强发展动力，提高工作水平，提高服务质量，为建设“富强、活力、幸福、美丽”的新时代现代化新德州做出新的更大的民政贡献！', '大家上午好！首先感谢大家对我市退役军人事务工作的关心和支持。我们德州市退役军人事务局是维护军人军属合法权益，加强退役军人服务保障体系建设，让军人成为全社会尊崇的职业的民生保障部门，为机构改革后首个挂牌的市政府部门。', '退役军人是党和国家的宝贵财富，他们为国防和军队建设作出积极贡献，面对急难险重的任务，他们总是冲锋在前，义无反顾，总有他们拼搏的身影。当前，面对河南省来势汹汹的汛情，我市11支退役军人志愿救援队近百名退役军人已奔赴救援前线。在此向所有心念党恩、心系人民、心怀国家的现役军人和退役军人致敬。', '党史学习教育开展后，在市委、市政府的坚强领导下，市退役军人事务局始终把“我为群众办实事”实践活动，作为党史学习教育的重要抓手，把党史学习教育与退役军人事务系统开展的“讲政治、勇担当、创一流”活动有机结合，发挥退役军人事务部门的职能优势、服务对象元素优势、红色资源平台优势，将“我为群众办实事”作为服务退役军人的“责任田”，作为党员干部党性修养锤炼的“试金石”，作为检验党史学习教育成效的“考核尺”。聚焦群众操心事、烦心事、揪心事，列出“我为群众办实事”民生项目清单，建台账、限时限，倒排工期，将基本优待目录落实工作纳入市政府督查事项，保质提速“我为群众办实事”实践活动。现将相关工作情况及下一步工作计划做简要介绍：', '坚持“传承红色基因，从娃娃抓起”的工作理念，运用退役军人的红色元素、烈士纪念设施红色资源，通过组建“一老一小”红色故事宣讲团、兴建双拥主题公园、用好双拥展厅等一系列创新动作，让红色党史“活”了起来，红色基因“红”了起来，红色教育“火”了起来。举办德州市首届信仰的力量“小小英烈讲解员”大赛，全市累计培养了2000余名“娃娃讲解员”，组建15支平均年龄只有9岁的“娃娃宣讲团”，在全市11家烈士陵园“持证上岗”，用红色故事和英烈事迹加强对青少年的政治启蒙和价值观塑造，把党的红色江山世世代代传下去。开展了“老兵讲故事”“老兵永远跟党走”主题宣讲系列活动，组织抗战老战士、退伍老兵、军队离退休干部走进校园，给孩子们讲述自己的红色初心和党的历史故事，引导他们红色童心永向党，从小听党话、跟党走。德州市“红色故事小小英烈讲解员”做法，已经成为响遍全国的“红色品牌”，《新华社》《人民网》《大众日报》对我市做法进行集中宣传报道。', '一是服务保障新格局不断完善。扎实开展退役军人精准信息采集工作，按照“一人一档”标准，建立全市18.5万余名退役军人信息系统，为精准服务退役军人奠定大数据基础。建立服务中心12个，服务站8200个，全市80%以上的退役军人服务中心（站）达到全国示范型服务中心（站）标准。', '二是优抚政策不断落实落细。今年以来为5.5万名优抚对象发放优抚资金1.8亿元。创新探索“1+1+N”商业保险模式，为全市1.7万名重点优抚对象投入120万元购买商业保险，解决看病贵看病难问题。与全市16部门联合发布市级基本优待目录清单，围绕养老、医疗、住房、教育等8个方面优待内容共计163条，涵盖了现役军人、现役军人家属、残疾军人、退役军人、“三属”等5类人群。持续开展“老兵永远跟党走”主题走访慰问活动。截至日前，全市共计走访慰问在乡老退役军人、烈士遗属等共计3557人，发放慰问金、慰问品合计151万余元，为548名困难退役军人发放救助金258万元。启动“三送下乡”活动，将“健康、政策、关爱”送到优抚对象家门口，惠及2200余名重点优抚对象、数万名退役军人。', '三是就业创业渠道不断拓宽。全市开发10878个退役士兵专项公益性岗位，有效解决部分退役士兵就业难题。常态化举办专场招聘活动70余场次，创建“退役军人就业超市”线上平台，扩大就业渠道。设立专项基金，发放退役军人创业扶持贷款发放375笔8318万元，培育20个退役军人就业创业孵化基地，吸引44家军创企业入驻。成功举办首届退役军人创业大赛，认定37家退役军人职业技能培训承训机构，开展适应性、技能型和新职业培训1600余人次，激发退役军人“建功新时代”的就业创业热情。', '四是深化新时代双拥工作内涵外延。我市连续三届荣膺“全国双拥模范城”。积极开展最美退役军人、最美兵妈妈等选树宣传活动，发放“拥军卡”6万多张。聚焦“备战”，紧盯“前方、前线、前沿”，围绕“后路、后院、后代”，积极帮助部队解决“急难愁盼”的家属就业、子女教育等问题。今年我局荣获山东省“十三五”时期民兵工作先进单位、“山东省爱国拥军模范单位”等荣誉称号。', '一是认真做好“八一”期间退役军人走访关爱工作，对退役军人中的下岗失业人员、鳏寡孤独人员、80岁以上高龄人员、重点优抚对象、新中国成立前和抗美援朝作战老兵等重点群体，通过上门看望、发慰问信、送慰问品等多种形式进行全面走访慰问，持续开展“三问于民”，把握思想动态，了解生活所需，把党和政府的关爱及时送到他们身边。', '二是进一步提升安置质量和就业创业帮扶力度。为今年拟安置的转业士官和军官，积极对接相关部门，开发安置岗位，拓宽安置渠道，解决好退役士兵安置“最后一公里”的问题。充分了解我市失业退役军人底数，利用数据优势了解他们的特长，精准对接用人单位需求，用好“德州退役军人就业超市”等平台，力求人岗相适，用人单位和退役军人“双满意”。', '三是充分利用大数据等手段，优化工作流程，提高为退役军人服务水平。以市县乡村四级退役军人保障体系为保障，以精准采集退役军人信息为基础，积极与市大数据局、市行政审批服务局等部门沟通协调，优化政务流程，在退役军人报到安置、就业创业、待遇发放等环节实施“一网通办”“一次受理”等改革，让数据多跑腿，让退役军人不跑腿、少跑腿，切实提高退役军人的幸福感和满意度。', '下一步，我们将建立教育成果转化长效机制，健全常态化为群众办实事工作运作机制，推动“我为群众办实事”向常态化、精细化、规范化发展，坚持“以退役军人为中心”，把实事办好，办到退役军人心坎上，努力让尊崇更有温度、关爱更有厚度，带着责任、带着感情，发扬伟大建党精神，做好退役军人工作，在新征程中实现退役军人工作高质量发展。', '大家好！借此机会向一直以来关心和支持我市残疾人事业发展的各位领导、社会各界人士和新闻媒体界各位朋友，表示衷心感谢！现在我来介绍一下 “我为群众办实事”残疾人工作情况。', '自深入开展“我为群众办实事”实践活动以来，市残联坚持全心全意为残疾人群众服务的坚定信念，紧紧围绕实践活动要求，聚焦残疾人群众“急难愁盼”问题，积极响应残疾人群众诉求，在做好残疾群众“贴心人”上下功夫，在提升服务水平、办惠残实事上出实招，不断提升残疾人群众的获得感、幸福感、安全感。', '一、为民服务办实事，“如康家园”残疾人之家有序推进。“如康家园”残疾人之家建设项目是贯彻落实省委、省政府2021年度20项重点民生实事、健全残疾人关爱服务体系建设的具体要求，也是我市残疾人提升生活质量的现实需求。“如康家园”残疾人之家聚焦16至59周岁困难且有需求的智力、精神和重度肢体残疾人群体，依托基层公共服务设施建设的集日间照料、辅助性就业、社区康复等多功能为一体的综合性服务机构，为残疾人群众提供就近就便常态化服务。目前，乐陵市、宁津县、齐河县3处省级试点已建成并运营。市残联协调市财政局统筹资金110万元，为22处市级“如康家园”试点每处补助5万元的建设经费，现已建成运营4处市级“如康家园”。齐河县将“如康家园”建设列为县委书记为民办实事清单项目，在11个乡镇街至少建立1处“如康家园”试点，实现县域内乡镇街全覆盖。', '二、为民服务解难事，残疾人康复工作取得显著进展。一是持续推进残疾儿童康复救助工作。今年，市残联将省民生实事“免费康复救助3万名残疾儿童”纳入市对县考核办法，确保符合条件的残疾儿童“应救尽救”。目前，已为全市1550名残疾儿童免费提供了康复服务，服务率达到95.44%。已为全市354名残疾儿童免费适配辅助器具，辅具适配服务率达到91.95%。二是扎实开展听障儿童人工耳蜗救助、肢体残疾儿童矫治手术救助项目,确保符合条件的残疾儿童“有一助一”。目前，已为49名肢体残疾儿童免费进行肢体矫治手术，为14名听障儿童免费进行人工耳蜗植入手术。三是深入开展残疾人精准康复服务工作，目前，我市已为29373名有康复需求的残疾人提供基本康复服务，有需求康复服务率达到98.56%；为3669名残疾人配发轮椅、助行器、助听器等辅助器具，有需求辅具适配率达到89.55%，帮助残疾人改善身体功能，解决残疾人群众出行难、沟通难等难事，使残疾人群众更好地融入社会。', '促进残疾人群众参与共享。举办庆祝建党100周年暨第三十一次“全国助残日”残疾人艺术汇演，调动残疾人参与文化活动的积极性和主动性，丰富残疾人群众精神文化生活；参加第十届全省残疾人艺术汇演获得3个银奖、2个铜奖、1个优秀奖，展示了新时代德州市残疾人自强不息、乐观向上的精神面貌，让残疾人共享人生出彩机会。', '2021年是“十四五”规划开局之年，做好残疾人工作十分重要。下一步，我们将深入开展“我为群众办实事”实践活动，不断完善残疾人社会保障体系、拓展残疾人服务内涵，不断改善残疾人群众生活品质。重点是做好以下几个方面：', '一是聚焦残疾人就业创业，促进就业增收。进一步完善残疾人就业创业制度体系，推动建立覆盖残疾人、用人单位、社会机构的就业政策体系。加强残疾人职业技能培训，提升残疾人职业素质和就业能力。进一步推进盲人按摩品牌化建设，促进我市盲人按摩行业健康持续发展。', '二是聚焦“如康家园”残疾人之家建设，畅通服务“最后一公里”。下大力气加强“如康家园”建设工作，督导推动各县（市、区）“如康家园”建设工作，确保年底完成省民生实事重点督导任务。', '三是聚焦残疾大学生励志助学，确保符合条件的残疾大学生“有一助一”。开展“我和你·心连心”残疾大学生励志助学工程，对今年新考取的大专以上残疾大学生。按照大专、本科6000元，硕士研究生8000元，博士研究生10000元的标准予以一次性资助。', '四是聚焦残疾人康复工作，提供优质康复服务。一是“应救尽救”，符合条件且有康复需求的残疾儿童基本康复服务率达到100%；二是“应配尽配”，符合条件的残疾儿童辅助器具适配率达到100%；三是“应签尽签”，有需求的残疾儿童家庭医生签约率达到100%。', '实事践初心。全市残联系统将乘势而上、奋发作为，推动“我为群众办实事”实践活动走深走实，让残疾人群众有更多的获得感、幸福感、安全感。也衷心希望新闻媒体和社会各界朋友一如既往地关心、支持残疾人事业，共同推动我市残疾人事业高质量发展！', '问题：您好，我是大众网的记者。田卫东书记将提升社会大救助工作列为个人“为民办实事”清单，那么市民政局接下来怎么去实现德州大救助的创新升级？', '沙剑：下一步，我们将围绕以下三个方面持续推动德州大救助改革创新。一是加大试点改革创新力度。在推进齐河、平原、乐陵试点的基础上，进一步将德城区作为低收入人口动态监测和常态化救助帮扶机制建设试点、禹城市作为三级工作体系建设试点、武城县作为智能化考核机制试点、庆云县作为制度改革试点，由市工作专班办公室资金管理组牵头负责推进大救助平台专项资金运行试点，全力推进德州大救助4.0版本建设。二是推进救助制度改革。进一步深化“放管服”改革，对所有救助制度再进行一次流程再造，提高救助效率。做好救助政策的有效衔接，通过大数据分析，及时掌握不符合低保条件的低保边缘家庭或支出型困难家庭情况，职能部门根据情况不同，有针对性地给予生活救助或者专项救助，避免“悬崖效应”的产生。三是加快推进“幸福清单”建设。每半年或一年，向享受救助政策的困难群体推送“幸福清单”，让其详细了解政府对其的救助帮扶，不断提高困难群体获得感和幸福感。', '问题：您好，我是德州市广播电视台记者。我注意到日前我市印发了《德州市军人军属、退役军人和其他优抚对象基本优待目录清单》，请问这个清单主要包含哪些内容，有哪些措施促进清单事项落实落地？', '为认真贯彻落实《退役军人保障法》和《关于印发山东省军人军属、退役军人和其他优抚对象基本优待目录实施办法的通知》，扎实做好我市军人军属、退役军人和其他优抚对象优待工作，2021年以来，市退役军人事务局广泛开展调研论证，多方征求意见建议，并按照细化管用的原则，研究起草了《目录清单》（征求意见稿）。在此基础上，市退役军人事务局先后3次征求涉及优待项目职责的市直16部门（单位）及市退役军人事务局相关科室和各县（市、区）退役军人事务局的意见，听取了部分军人军属、退役军人、优抚对象的意见建议，形成了《德州市军人军属、退役军人和其他优抚对象基本优待目录清单》并于2021年5月31日印发。', '我市《目录清单》分别对现役军人、现役军人家属、残疾军人、退役军人及三属（烈属、因公牺牲军人遗属、病故军人遗属）等5类人员的优待项目进行了明确，涵盖荣誉激励、生活、养老、医疗、住房、教育、文化旅游、交通、法律服务、金融服务等多方面内容。', '《目录清单》共163条，其中，沿用优化省级优待事项153条，增加10条。主要在如下方面作出细化明确。一是企业机构优先优惠服务；二是明确义务兵家庭优待金增发比例；三是增加民营景区优惠减免；四是明确伤残军人商业补充保险、巡诊优待；五是明确教育优待；', '为将我市退役军人优待目录清单落到实处，德州市政府专门成立联合督导组，分赴13个县市区，对优待目录清单落实情况进行督导，推动退役军人优待政策尽快落实落地落细。', '1、能立即落实的，迅速落地。比如，悬挂光荣牌、举行悬挂仪式，重大节日走访慰问，为当年荣立三等功以上奖励的德州籍现役军人家庭送去喜报和慰问金，常态化联系退役军人，入伍、退伍时举行迎送仪式。在车站、医院、旅游景区等开通优先通道（窗口），尽早让服务对象享受到政策红利。', '2、需要细化的，抓紧研究出台配套措施。优待目录清单涵盖广，牵涉部门、单位多，原则要求比较多。今年以来，市退役军人局联合市直相关部门出台相关配套政策，强化政策供给，保证优待目录清单能落实落地，不光好看，而且好用。', '《市级目录清单》的出台，体现了党和政府对军人军属、退役军人和其他优抚对象的关心关爱，对于维护军人军属合法权益、浓厚全社会拥军优属氛围具有重要意义。', '问题：您好，我是省广播电视台的记者。请问，残疾人励志助学项目资助对象及标准是如何规定的？具体申请流程是怎样的？', '李峰：资助对象是具有本市户籍，并持有《中华人民共和国残疾人证》，当年新考取的大专以上残疾大学生。资助标准按照大专、本科 6000 元，硕士研究生 8000 元，博士研究生 10000元的标准予以一次性资助。', '问题：您好，我是齐鲁晚报齐鲁壹点的记者。申请残疾儿童康复救助需要符合那些条件？怎样申请？', '李峰：2020年，省残联下发了《关于印发&lt;山东省残疾儿童康复救助实施办法&gt;的通知》（鲁残联发[2020]28号），明确规定：“申请康复救助的残疾儿童须为持有中华人民共和国残疾人证且未满十八周岁的残疾儿童或者持有符合规定的残疾诊断证明且未满七周岁的疑似残疾儿童，并且符合下列条件之一：（一）持有本地户籍，（二）监护人持有本地居住证且纳税一年以上；（三）监护人持有本地居住证且缴纳社会保险一年以上；（四）监护人持有本地居住证连续三年以上。” 的可以申请残疾儿童康复救助。', '残疾儿童监护人应当向残疾儿童户籍所在地或者居住证发放地的县级残联现场或网上提出康复救助申请。监护人无法申请的，可委托他人、社会组织等代为申请。', '问题：您好，我是大众日报的记者。请问，目前我市对退役军人就业创业有哪些具体扶持政策？', '孟令芳：退役军人是一支宝贵的人才人力资源。促进他们就业创业对于更好实现退役军人自身价值、助推经济社会发展、服务国防和军队建设具有重要意义。目前，我市退役军人就业创业工作，坚持以习近平新时代中国特色社会主义思想为指导，坚持政府推动、政策优先，市场导向、需求牵引，自愿选择、自主作为，社会支持、多方参与，调动各方面力量共同推进，保障我市退役军人在享受普惠性就业创业扶持政策和公共服务基础上再给予特殊优待。', '一是在就业方面：建立了退役军人与用人单位双向选择平台，目前，我们每双月组织1次全市退役军人专场招聘活动，各类公共就业服务机构免费为退役军人提供服务。对在部队有专长、地方有需要、本人有意愿的退役军人，主动对接用人单位实行“直通车”式就业。研究制定了适合退役军人就业的岗位目录，提高退役军人服务保障以及安保等岗位招录退役军人的比例，辅警岗位同等条件下优先招录退役军人。选派退役军人参与社会治理、脱贫攻坚等重点工作，鼓励退役军人到党的基层组织、城乡社区担任专职工作人员。', '二是在技能培训方面：加强退役士兵职业教育和技能培训工作,对于提高退役士兵就业能力、缓解政府安置压力、解除现役军人后顾之忧,都具有十分重要的意义。我们将退役军人纳入国家终身职业技能培训政策和组织实施体系。引导退役军人积极参加职业技能培训，退役后可选择接受一次免费课程（免学杂费、住宿费、技能鉴定费）培训，并享受培训期间生活补助，教育培训期限一般最短不少于3个月。', '今年，我们开展了退役军人职业技能培训承训机构的评估工作，择优纳入了37家培训规模大、质量高、信誉好的培训机构，专门开展退役军人职能技能培训，覆盖了各县市区，涉及70多个社会紧缺急需的技能专业。我们将积极选择技术层次高、社会需求大、就业前景好的专业，按培训周期（3个月至2年）细化课程，积极推动产教融合、校企合作、现代企业新型学徒制，力争实现“入学即入职”。', '三是在创业扶持方面：创业是最好的就业。为此，我们设立了退役军人专项基金开展创业扶持工作。对退役军人个人自主创业贷款和其创办的小微企业初创期（注册登记3年内）创业贷款，分别给予最长3年和最长2年全额贷款利率贴息。对退役军人创办的小微企业后续发展申请的信用贷款、抵押贷款，按贷款利率的50%，给予最长2年贴息。我们还成立了由80名专家组成的退役军人就业创业导师团队，对退役军人就业创业服务机构进行工作帮带，对退役军人职业规划和就业创业进行指导。建立16家退役军人创业孵化（实训）基地，促进退役军人创业稳健开展、做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>141</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>我为群众办实事主题系列新闻发布会第七场德州市发展改革委德州市行政审批服务局德州市公共资源交易中心</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-08-10</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c64184687/content.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['“我为群众办实事”主题系列新闻发布会（第七场 德州市发展改革委 德州市行政审批服务局 德州市公共资源交易中心） - 德州市人民政府', '“我为群众办实事”主题系列新闻发布会（第七场 德州市发展改革委 德州市行政审批服务局 德州市公共资源交易中心）', '大家好！首先，借此机会，向多年来关注、关心和支持全市发展改革工作的媒体记者和社会各界朋友表示衷心感谢！', '党史学习教育开展以来，市发展改革委聚焦“学党史、悟思想、办实事、开新局”，立足于“学”、致力于“行”，扎实开展“我为群众办实事”实践活动。制定了《“我为群众办实事”重点民生项目清单》，建立了“我为群众办实事”工作调度机制，确保活动取得实效。', '坚持“产业立市、项目为王”，突出要素保障，着力破解项目落地、建设中的难题，确保项目落地速度、建设进度。上半年省市各类重点项目均超时序进度。一是做好重大项目谋划，帮助企业绘制发展“蓝图”。结合党史学习教育，创新开展自选动作，委内成立20支“重大项目攻坚突击队”，聚焦全市十大重点产业进行攻坚。累计下沉一线调研140余次，共谋划成形德瑞智能制造产业园、尼龙66等化工新材料及深加工等重大项目19个，包含子项目140个，估算总投资3015亿元，不仅为企业解除了未来发展方向的困惑，也为我市争取国家、省有关政策和资金支持、对外招商引资以及优化资源配置储备了一批大项目、好项目。二是落实“要素跟着项目走”，帮助企业缓解资金“制约”。截至7月底，落实各类政策性资金61.24亿元。其中，为25个项目落实中央、省预算内资金4.26亿元；已落实地方政府专项债券项目93个，发行债券56.98亿元。三是健全协调服务保障机制，帮助企业解决开工“拦路虎”。坚持“一企一策”“一事一议”，对进展较慢的重点项目开展“一对一”“面对面”协调服务，“一把手”亲自靠上解决项目推进中遇到的问题。中机寰宇认证检测公共服务平台项目虽是2020年省重大建设项目，但不符合省电力专线建设的优惠政策。我委通过积极与供电公司共同向上汇报沟通，成功争取从35千伏孟集站配出4回10千伏公用架空线路，作为该项目临时电源，且同步设计1套永久供电方案，彻底解决了项目用电问题，为基层及项目单位节约经费1500万元。平原斯玛特有限公司因电力供应不足，导致二期项目迟迟不能开工，我委积极争取将该项目列入2021年省新旧动能转换优选项目，符合了架设电力专线的条件，保证了项目进度，同时为企业节约了400万元的经费。', '二、全力优化全市营商环境。一是提升政务服务水平。今年以来，办理市级项目立项19件，总投资95亿元，好评满意率100%。二是启动营商环境立法。牵头制定《德州市优化营商环境条例（草案）》，将为我市建立健全市场环境、打造便利高效政务服务、营造公正民主法治环境持续保驾护航。三是积极争创全国社会信用体系建设示范区。推广应用信用承诺制度，让群众不跑少跑、“一次办好”。加强信用信息惠民便企服务，探索开展个人信用分“明德分”在图书借阅、健康体检、商超购物等领域的应用。累计为全市1900余家企业完成了信用修复。大力推动“信易贷”服务，解决中小微企业融资难问题，累计发放贷款32亿元。四是贯彻落实减税降费政策。为进一步增强市场活力，进一步放开了内河港口服务费、户外广告资源有偿使用费、新装有线电视一次性建设费、基层法律服务费、普通道路车辆救援清障服务等收费项目。开展涉企税费专项清理整治工作，确保各项优惠政策落实到位。', '三、全力推进乡村振兴战略。一是加强政策引领。牵头制定《德州市农业农村基础设施建设领域以工代赈工作方案》《德州市村庄建设项目施行简易审批暂行办法》，对全市农业农村以工代赈和村庄建设项目施行简易审批工作进行规范指导。二是推进省市两级乡村振兴重大项目建设。市级入库项目51个，总投资444.8亿元，成功争取将23个项目纳入到省级库。目前，有10个项目获得农发行政策性贷款，授信额度52.44亿元，极大解决了企业的资金难题。三是推动乡村教师周转宿舍建设。为解决农村教师生活困难，今年我市实施了乡村教师周转宿舍建设工程，共建设周转宿舍365套。市发展改革委充分发挥职能作用，积极为项目筹集资金，目前，已争取省财政预算内资金485万元，支持建设周转宿舍182套。四是为帮促的村庄办实事。帮助齐河县马集镇西南吴庄村新建电井、维修道路、加固桥梁，推进美丽乡村建设；助力陵城区糜镇党史学习馆落成，将一大批“老德县”红色教育资源转变成“活教材”。', '四、全力提升民生保障能力。一是深入研究“一老一小”政策。印发我市“推动解决老年人运用智能技术困难问题”、“落实国家、省促进养老托育服务健康发展”的分工意见等政策文件。二是认真落实各项价格惠民、惠企政策。圆满完成6610个村庄的农业灌溉用电价格改革，3161个村庄的加价标准降低，每年约为农民降低灌溉成本1922万元。贯彻落实工商业及其他用电（两部制）目录电价平均每千瓦时降低1.5分的政策，上半年为企业降低用电成本9745万元。理顺非居民用管道天然气价格，自4月1日起，非居民用天然气最高销售价格调整为2.86元/立方米，降幅0.32元/立方米，降低企业用气成本1100万元。降低车用气瓶安装监督检验收费，由每安装一只气瓶100元降为75元。修订物业服务收费管理办法，规范物业服务收费管理行为。三是扎实开展安全生产大排查大整治行动，确保全市煤矿、电力、天然气长输管道及粮食安全。已形成政府储气能力1200万立方米，加快推进全市“四纵四横”天然气管网项目建设，不断提升天然气保供能力。做好电煤增储保供工作，保障迎峰度夏期间全市电力平稳运行。做好粮油安全检测，确保全市人民“舌尖上的安全”。四是及时回应群众关切。今年以来，共办理12345市民热线310件，切实做到了“事事有落实，件件有回音”。五是推进社区“双报到”与文明城市创建工作相结合。以帮促社区提升文明创建水平为目标，委领导带队，多次到运河街道盐店口社区实地调研并召开创城联席会议，全力推动小区党支部、业主委员会、红色物业建设，帮促网格化小区解决了下水道堵塞、陈年垃圾堆积及外墙护墙板脱落等实际问题。', '群众利益无小事，一枝一叶总关情。下一步，我委将按照党史学习教育“我为群众办实事”实践活动安排，持续开展联系群众“大走访”、民生难题“大排查”、服务群众“大提升”工作，全力推进由我委牵头负责的3项重点民生项目和10项配合重点民生项目落实落地，推动党史学习教育走深走实，不断增强人民群众获得感、幸福感、安全感。', '首先感谢各界朋友对政务服务工作的关注，也感谢新闻媒体在提升“在德州，办德好”政务服务品牌知晓度和认可度上的辛苦付出。党史学习教育开展以来，市行政审批服务局紧扣目标要求，聚焦“学”与“干”，把推进群众办事“一次办好”作为“我为群众办实事”的“靶心”，聚焦群众办事的“堵点”“难点”“痛点”，细化了近100项工作任务目标，并实施项目化、清单化、责任化管理，层层推进，压茬落实。截至目前，“一业一证”“证照三联办”“双全双百”等多项改革被选为省级试点，惠企惠民“政策通”平台、全链条智能审批、政务服务“信易批”等多个“德州样板”成为全省乃至全国的创新亮点，受到了社会各界的广泛关注。企业和群众办事的便利度、快捷度、满意度得到明显提升。下面我就近期重点开展的“我为群众办实事”的工作情况向大家简要介绍。', '一是实施企业开办“零成本”。开设“企业开办专窗”，升级“一窗通”网上服务平台，整合多部门业务表单和数据接口，实现企业开办全程网办，2小时内完成所有开办事项。免费发放营业执照、五枚光敏印章、五枚电子印章、发票、税控设备及惠企政策包，“零成本办公司”。今年上半年我市新登记市场主体4.14万户，同比增长18.95%，“双创”活力得到有效激发。', '二是实施企业证照“三联办”。按照“1+X”模式定位证照联办需求，瞄准设立、变更、注销三个企业重要阶段，开创性的实施证照“联合设立、联合变更、联合注销”的“三联办”模式。首批选择了营业执照和涉及食品、药品、文广旅、卫健、发改、民政、财政、人社、教育等领域 27种高频经营许可证件，形成140类《德州市证照“三联办”颗粒化清单》，全面统筹审前服务、申请受理、材料审核、现场勘验等基本环节，实现“一窗受理”。截至目前，共计办理“三联办”业务3719件，平均节省跑腿次数3次。德州“三联办”改革被山东省市场监督管理局列为创新做法，专门发文在德州全域试点。', '三是实施企业注销、迁移简易化。着眼企业注销中“退出难”“成本高”等痛点，出台简易注销登记改革举措，为领取营业执照后未开展经营活动、申请注销登记前未发生债权债务或已将债权债务清算完结的企业提供简易注销服务，不再要求提交清算报告、投资人决议、清税证明、清算组备案证明、刊登公告的报纸样张等材料。简易注销公告时间由45天缩短至20天，增强企业办事的透明度和可预期性，促进企业快进快出的“新陈代谢”。印发了《关于优化市内企业迁移登记的实施方案》，企业仅需在迁入地登记机关提出档案迁移申请，两地登记机关内部联动，即可完成迁档全流程。', '一是创新智能审批辅助系统。充分运用“AI+RPA”技术（人工智能+机器人流程自动化技术）和大数据应用，实现了工改项目无感审批、秒批秒办，助力企业更好更快发展。首批水土保持方案审批、企业投资项目核准等12个事项、26种情形已经落地，第二批19个事项、43种情形正在推进实施。5月18日，国家工程建设项目改革领导小组来我市专程现场考察改革情况。', '二是创新项目前期策划生成。开发完成项目策划生成系统，以“多规合一”的“一张蓝图”为基础，统筹整合各类规划159个，基础现状数据2个，省厅调用数据10个，叠加图层171个，可在线确定项目选址，明确项目建设管控要求、技术设计要点等内容，实现了项目科学决策、精准落地、高效实施。目前，全市依托项目策划生成系统储备项目81个，策划成功项目752个，省监管系统认定项目策划成功数367个，位居全省第一。', '三是创新简易低风险工程项目快速审批。印发《德州市优化社会投资简易低风险工程建设项目审批服务的实施方案》，将建设项目备案申请、建设工程规划许可申报、市政公用设施接入报装申请同步受理，精简环评、消防、人防手续，取消强制监理、市政公用设施供水供热供气供电接入服务报装环节，免费实施电力管线接入。通过以上举措，审批时限由原来45个工作日压缩到12个工作日，审批环节从原来5个压缩到2个，申请表单从原来20张表单压缩到2张表单，彻底为企业“松绑”。', '一是打造惠企惠民政策服务“中央厨房”。在“山东省政务服务平台德州站”设立德州市惠企惠民政策集成专区，开发上线全省首家集“政策查询”“精准推送”“不来即享”“免申即享”“评价督查”“评估分析”6大功能于一体的综合性惠企惠民“政策通”平台，收录497个文件、2177项政策，年度新增“小升规”企业资金奖励、公益性岗位补贴申领等720项政策可在平台完成全程网上办理，国家专精特新“小巨人”企业奖励等22项政策实现“免申既享”。平台上线首日，11家企业650万元“免申即享”财政奖补资金获得批复。“企业智慧赋能奖励资金申报”“德州市标准化工作自助奖励”等政策正在梳理完善兑现流程，即将上线实施。', '二是开展“双全双百”改革。根据《山东省政务服务“双全双百”工程实施方案》，围绕企业从开办、准营、运营到退出和个人从出生、教育、工作、退休养老到身后“全生命周期”中的重要节点，在全市推出23件集成事项作为首批改革试点。其中，企业“一件事”包含：企业开办、企业变更、投资立项和企业注销等15个事项；个人“一件事”包含：婚育、出生、入学、退休、身后、退役、助残和购房等8个事项。依托政务服务平台，开发了“一件事联办平台”，近期“助残一件事”全面上线，构建了“只到一窗、一套材料、一个流程、统一送达”的审批闭环。5月28日，我市作为“双全双百”工程优秀试点城市，在全省政务服务“双全双百”工作座谈会上做了典型发言。截至7到月底，前期在全市全面推广的“出生一件事”已办理363件，“身后一件事”已办理333件。', '一是创新推出“信易批”改革。在全国率先开发政务服务信用收集平台，推出轻微失信人员的“失信制约人管理制度”，与市政务服务平台完成对接，将信用查询嵌入受理环节，新增“制约核查”，对信用好的申请人，提供承诺制、容缺制、绿色通道类服务，告知承诺书实时推送信用德州进行公示。对告知承诺的业务，通过数据核查、现场核查等方式，核查承诺落实情况，将失信人纳入“失信制约人”名单管理，系统将自动限制申请人再次享受告知承诺服务等。目前，112项证明事项纳入“信易批”管理清单，2000多个办事群众或企业享受了“承诺即可开工、承诺即可经营、承诺即可换证、承诺即免现场、承诺即可备案”服务。', '二是开发网上中介库。开发政务服务网上中介超市，具备网上展示、服务委托、成果提交、监督评价等功能，对中介机构实行“零门槛、零限制”进驻，让中介机构接受企业、审批部门和行业主管部门三方监督，从而提高服务质量、压缩服务时限。目前，已入驻网上中介超市的中介机构达到500家，网上交易发布量382件，成交量222件。', '三是开发审批专家库系统。在全省行政审批系统首个搭建使用专家库，在政务内网平台运行。经公告征集、部门推荐等方式，共筛选1315名专家，涉及计量、水利、医疗卫生、园林畜牧等9大类行业。制定了专家库使用办法和管理办法，研究形成我市行政审批专家库管理工作规范，细化、明确了工作流程、专家评价、出入库细则等10个方面的内容。今年以来，全市共使用专家库80余次，抽取专家150余人次，有效提升了行政审批工作质量和效率。', '下一步，我们将继续抓细抓实市委部署要求,更加注重“我为群众办实事”实践活动及相关改革的系统性、整体性、协同性，聚焦重点难点领域，沉下心来、扑下身子，把人民群众迫切需要解决的每件事做好，确保人民群众真正得到实惠。', '自党史学习教育开展以来，市公共资源交易中心认真贯彻落实市委、市政府决策部署，坚持把党史学习教育同解决公共资源交易领域痛点难点堵点问题结合起来，始终以人民为中心，以科技为引领，持续打造“数智化、极速化、一体化”的高标准智慧交易云平台，着力营造优质高效交易环境，让交易更有温度，让服务更有力度，让百姓更有满意度，做好“我为群众办实事”特色文章。', '一是推行CA证书免费发放。德州市作为全省首批多CA统一认证平台试点城市，提前谋划，主动作为，先后完成了省内多CA全省互认，推行了CA数字证书免费发放。今年4月又推出了CA证书线上办理免费邮寄服务，实现证书办理“零跑腿”、“零费用”，网办CA数量占总办理量的47%。 截至7月底，中心共为3000多家交易主体免费办理CA证书3219把，减免办理费用97万元。', '二是推进云上开标常态化运行。深化不见面开标“云交易”模式，启动网上开标直播大厅建设项目，推行网上“不见面”开标常态化运行，打通了线上交易一次不跑的“最后一公里”，使交易成本费用更低，交易过程更透明，有力激发了交易主体活力。中心创新的“云交易模式”先后被新华社、经济日报、光明日报等媒体予以报道。截至7月底，全市（含分中心）共完成政府采购和建设工程交易项目1022个，为企业节省标书印制、往来交通食宿等各项费用约777万元，为助力全市经济社会发展提供了强有力的要素保障。', '三是推动交易信息数据赋能应用。深化“德州市公共资源交易智慧数据赋能分析系统”建设，运用AI智能、云计算等技术手段，对交易主体招投标活动进行监测分析，对重点地区、重点领域、重点环节及时发现并自动预警围标串标、弄虚作假等违法违规行为，为行业监管部门提供技术支撑，增强监管的针对性和精准性，同时以交易数据赋能探究交易活动潜在规律，为科学决策提供参考，推动公共资源交易事业高质量发展。', '一是推进电子保函应用，缓解企业资金压力。在全省率先接入省电子保函服务平台，采用“投标人线上申请—金融机构线上授信—线上出函”方式为企业开具电子投标保函，代替现金保证金。截至7月底，有289家企业办理电子保函业务，为企业释放保证金5838.5万元。', '二是上线企业融资服务平台，打造“普惠金融”体系。积极争取金融机构入驻平台为投标企业提供标前、标后灵活多样的融资产品，满足中标企业融资需求。目前已有7家银行14类金融产品为中小企业提供融资服务。7月8日，我市第一笔融资贷款山东省博岭商贸有限公司申请的42万元中标通知贷获批。', '三是推进商城建设，提高政府采购质效。制定《德州市政府采购网上商城运行管理制度（试行）》，强化齐鲁云采德州网上商城运行管理，主动靠上、全程跟进，为供应商入驻提供全流程一站式服务，同时建立网上商城市县分级管理模式，全力打造高效政采“网店”。截至7月底，网上商城超市电商、厂商、代理商及定点供应商达到17616家，130万种上架商品，已上线运行项目1589单，成交金额1524万元。', '一是推行“市县一体化”。制定《关于规范统一市县两级公共资源交易平台业务工作的实施方案》，规范统一市县两级公共资源交易平台业务工作，实行统一交易平台、统一规则流程、统一信息发布、统一服务标准、统一综合管理的“五统一”运行模式。', '二是优化“一链办理”。以“一项目一链办”为标准，将“一事一流程”整合为“多事一流程”，推出重大项目提前联系、标后履约回访、直通快办绿色通道、保姆式一站办理、容缺受理、保证金线上秒退等6项“主题式”套餐服务，用群众看得懂的语言和形式编制服务指南，做到服务无差别、办事不求人。', '三是建立标准化体系。将标准化的理念、原则、方法引入到公共资源交易领域，提高服务质量和水平。制定《标准化实施方案》、《标准化实施细则》，建立了一套以通用基础标准为指导、以服务提供标准为核心、以现场管理标准为保障、以岗位工作标准为支撑的标准体系，基本实现“标准全覆盖、管理全规范、服务全方位、满意全过程”。2021年7月，中心发放的“三问于民”网络调查问卷，企业满意度达99%。', '以上是我中心今年党史学习教育以来“我为群众办实事”的一些工作情况。欢迎媒体朋友们持续关注我们的工作，我们将不断推进平台建设、提升服务质效，为广大群众提供一个更加阳光规范高效便捷的公共资源交易平台。', '问题：您好，我是山东商报的记者。在全国全省优化营商环境的大背景下，下一步，德州市在公共资源交易领域便民利民方面将会有什么样的工作打算？', '刘凯：为持续开展“减证便民”行动，深化“证照分离”改革，市公共资源交易中心将按照最大限度便民利民原则，积极打通数据通道，通过建立告知承诺制在线核查支撑体系，在公共资源交易领域推行交易证明事项告知承诺制。', '市公共资源交易平台通过与全国公共资源交易平台全量数据接口对接，打通投标企业的主体资质、信用、业务和从业人员的全量数据共享通道,实现了跨地区、跨部门、跨层级数据共享和业务协同。', '中心坚持分级分类，精准确定实行告知承诺制的事项范围，积极沟通市住建部门，确定在房屋建筑和市政领域内，将投标企业资质证书和建造师注册资格证书列入公共资源交易证明事项告知承诺制（第一批）清单。告知承诺制实施后，投标企业参与我市房屋建筑和市政类招投标项目时，无需提供企业资质证书和人员建造师注册资格证书，专家评审时，通过在线核查即可完成对投标企业的资格评审。', '下一步，交易中心将继续坚持高效便企的服务导向，以社会普遍关注的领域和事项为重点，优化办事流程，完善便民服务措施，进一步通过数据互联共享，推进无证明事项在公共资源交易领域内全面落实。', '问题：您好，我是德州日报的记者。近年来，我市社会信用体系建设成效显著，请介绍一下信用修复方面为民、为企服务的情况。', '曹文瓒：我市信用建设始终牢记服务宗旨，坚持将信用“取之用民，用之于民”，从信用修复方面全力提升为民、为企服务水平。', '为帮助企业尽早完成信用修复，重塑信用，不影响企业参与招投标及政府采购活动、申请各类项目、银行贷款等，自去年以来，我市探索创新信用修复“1100”模式，即“材料提交一网通、材料有问题的逐一电话回复、办理过程零跑腿、修复初审每天清零”，并开辟信用修复“绿色通道”，尽全力缩短信用修复时间，得到广大群众和企业的一致好评。下一步，我们将继续加大信用修复宣传力度，进一步畅通行政处罚机关修复流程，落实各行业主管部门的责任，督促各部门认真核实被处罚单位的履行情况并协助出具相关证明材料，让企业少跑腿，争取做到“一次办好”，积极争创社会信用体系建设示范区。', '问题：您好，我是大众网的记者。夏季是用电高峰期，请问，为保障迎峰度夏期间电力平稳运行，发改委采取了哪些措施？', '曹文瓒：作为发改委来讲呢，就是要做好全市迎峰度夏期间增储保供工作，增加电煤储备，提升突出事件应急处置能力，确保煤炭稳定供应、电力平稳运行。为此，我们专门成立了市迎峰度夏增储保供工作班子，统筹做好全市今夏增储保供的组织、协调、调度、督导工作。制定了完善的电力迎峰度夏预案，优化电力运行调度，确保高峰时段顶峰出力。同时，根据“需求响应优先，有序用电保底”原则，用市场机制调动用户主动错避峰用电。并督促各发电企业切实履行电煤调运储备的主体责任，千方百计加大迎峰度夏期间的电煤调运力度。截至8月9日，重点调度的18家燃煤发电企业库存电煤72.6万吨，库存较为充足。我们也建立了政府可调度煤炭储备能力，做好了防范大面积停电等极端情况出现的应急预案，做好了应对高温、强对流、台风等极端天气和自然灾害的准备。', '问题：您好，我是省广播电视台的记者。德州市政府采购网上商城于去年9月正式上线。请问企业如何进入网上商城参与我市政府采购项目？商城在方便企业入驻方面采取了哪些措施？', '刘凯：除车辆加油、车辆维修等个别行业主管部门有管理要求的品目外，网上商城供应商库实行广泛入驻制，公开征集、承诺入驻。具有网上商城品目供应服务能力，符合并承诺履行政府采购法律法规、网上商城有关管理规定的国内供应商均可自主申请。', '自商城上线以来，为进一步贯彻落实政府采购领域“放管服”改革有关要求，持续优化营商环境，中心在供应商征集方面采取了以下措施。', '三是降低了准入门槛。按照省里统一要求，开放了超市采购代理商上架销售产品权限，同时放宽家具类品目入驻供应商范围，允许家具代理商自愿申请成为家具定点供应商，实现代理商与厂商同台竞争。', '四是提高了服务水平。调整完善供应商承诺入驻操作手册，加强供应商线上培训，积极做好政策解释及业务咨询工作，协调解决供应商入驻过程中遇到的问题。', '下一步，中心将继续扎实开展供应商常态化征集入驻工作，加强政策宣传及普及推广工作，进一步提高促进公平竞争、丰富商品供应。', '问题：您好，我是德州晚报的记者。刚才在发布中提到，我市现在应用“人工智能+机器人流程自动化技术”创新智能审批，能给我们介绍下如何实现辅助审批的吗？', '方士彬：这一技术主要是通过“智能比对、智能秒批、跨网抓取数据、无感审批”这几个功能实现的。智能比对，就是系统自动查询筛选数据，通过智能文档审阅技术对受理的资料做出初步审核，代替人工录入查询相关信息，保留筛选有效字段，辅助工作人员从事简单机械性的工作中解放出来，像施工许可、建筑业企业资质、房地产企业资质审核，较人工查询节约用时9成以上。智能秒批，就是“机器审”替代“人工审”，在制证环节自动提取企业材料中的关键信息，自动录入模板，形成批复及证照，生成公示信息时间由30分钟压缩到45秒。跨网抓取，就是智能审批系统通过自动切换网络，根据需求抓取有效信息，完成数据摆渡，电子证照读秒可取。“无感审批”是“智能审批”的极限模式，企业办事人员在无感体验中即可领到证照，房地产资质变更、水土保持告知承诺制、抗震设防要求3个审批事项首先实现了无感审批模式，企业在上传完成后，后台智能审批系统自动抓取信息，并核对信息，在模板中录入数据，生成资质证书电子证照，办事人员打印下载即可。审批全过程建设单位和审批人员“不见面”，后台机器人按照指令进行操作，避免了人为操控因素，减少了廉政风险。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>141</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>德州市重点工作攻坚年主题系列新闻发布会第二阶段第十五场</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c60780489/content.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['2020年，在市委、市政府的坚强领导下，在全市人民的热切期盼下，全市工信系统广大干部职工战疫情、促复工、搞技改、稳运行、追进度，全市工业经济实现了平稳健康发展。全年规模以上工业增加值累计增速5.5%，其中12月可达8%，圆满完成我市2020年工业增加值预期增长目标。', '（一）加快新型工业化强市建设。为攻克全市工业长期存在的结构不优、散而不强、多而不聚、龙头企业少、产业链条短的难题，2020年，德州市委、市政府实施新型工业化强市三年行动计划，在全省率先推行产业链“链长制”，以产业链培植为抓手，改造升级传统动能，培育壮大新兴动能，形成了分类指导、精准施策、上下联动、齐抓共管的态势，走出一条以高技术龙头企业为引领，先进制造业为主体，优势产业集群为特色，各类创新主体活力迸发的新型工业化路子，建设新时代的 “活力德州、智造名城”。', '一是规划先行。2020年上半年，实地调研100多家工业企业，举办30余场座谈会，研究50余家标杆企业，制定《德州市新型工业化强市建设三年行动计划》及系列配套文件，确定构建“541”产业体系，暨做大高端装备、新能源与节能环保、医养健康、新材料、新一代信息技术五大新兴产业，做优绿色化工、农副产品深加工、纺织服装、特色轻工四大传统产业，做强以新基建为代表的未来产业。', '二是组织创新。创造性提出产业链链长制，围绕“541”产业体系，分成33个二级产业链，由市委书记、市长担任总链长，市委、市人大、市政府、市政协四大班子领导成员担任各产业链链长。成立市新型工业化强市推进委员会办公室（以下简称“推进办”），主任由分管工业的副市长担任，下设综合协调组、产业规划组、调度督导组等5个工作组，抽调精干力量，实行集中统一办公。33个产业链相继成立链长办公室，制定工作制度，明确工作职责，构成运作高效、上下协同的组织架构。目前，各产业链已开展调研300余次，调研企业800余家，召开各种类型会议150余次。', '三是健全机制。出台《关于实施产业链链长制的工作方案》，明确实施链长制的工作目标、工作职责、重点任务和工作要求。建立链长制“4个1”的推进工作体系，每个产业由1个专班集体负责，1个规划引领，1个（或以上）智库专家组支持，1支（或以上）基金保障。', '四是强化保障。出台《德州市支持新型工业化强市20条意见》，从创新发展、提质增效、智慧赋能等方面对企业提供资金支持，推动工业企业做强做大。制定《德州市推进智能制造和工业互联网发展三年行动方案（2020—2022年）》，突出数字赋能，推进制造业和智能化、数字化深度融合，推动产业智慧化、智慧产业化。大力发展工业设计、创意研发、科技咨询等生产性服务业，打造先进制造业与生产性服务业协同互动的产业综合体。加快“政产学研金服用”创新创业共同体建设，深化“研发在京津、转化在德州”科技合作模式，加快德州应用技术研究院建设步伐，引进清华山东化工研究院、山东大学德州研究院、中北大学产业技术研究院落户德州。计划组建现代产业商学院，着力培养新时代高素质企业家和经营管理人才队伍。', '（二）狠抓企业技改提升。一是抓重点技改项目。围绕龙头骨干企业，实施100个市级和1000个县级工业重点技改项目，实行清单式管理、工程式推进，力促项目快投入、快建设，市级工业重点技改项目完成年度投资175亿元。二是抓智能化改造。先后在齐河、平原、禹城等八个县（市、区）召开智能化技改现场会，共组织400余家智能化技改服务商与1000余家企业进行了“面对面”“一对一”的免费智能化改造诊断，推动80%以上的企业工艺技术装备达到国内先进水平。三是抓零增地技改。及时与发改、消防、环保、住建、安检等部门对接，简化审批手续，缩短审批时间，鼓励企业通过“零增地”技术改造，提高单位土地面积产出效益，加快技术更新换代和产业转型升级。', '（三）大力扶持民营企业发展。一是加强组织领导。调整充实了德州市促进非公有制经济发展工作领导小组，统筹组织、协调、领导全市非公有制经济发展工作。二是梳理全市工业企业名单。按照“541”产业体系33个产业链共梳理出工业企业6785家，编印《全市“541”产业体系33个产业链企业名录》，送至各产业链链长和牵头部门。三是培育壮大民营企业。获批省级单项冠军企业5家，国家级单项冠军2家，瞪羚企业12家，专精特新“小巨人”企业4家，“专精特新”中小企业34家。通过“四升”壮大民营企业群体规模，完成“个转企”3449家，“小升规”281家，“规改股”72家，“股上市”12家。四是抓好惠企政策落实。建立民营企业家调查库，入库企业1832家。与市委统战部、市工商联联合成立13个工作组，调研13个县市区共1140家企业，编印并发放1200余本《德州市疫情防控和支持企业复工复产政策汇编》。五是创新开展融资服务。在全省率先开展中小企业信用担保试点，出台《关于开展百家小微企业信用保证试点的指导意见》，累计收集需求企业160家，先后向市、县融资担保公司推荐企业65家，目前已为10户企业办理信用担保贷款。继续推进无还本续贷业务，截至2020年末，全市银行机构无还本续贷余额100.75亿元，当年累计发放无还本续贷94.37亿元。', '（四）扎实推进亩产效益评价改革。4月12日制定印发《关于在全市开展“亩产效益”评价改革工作的实施意见》（德工指〔2020〕1号），截止6月29日，德州市13个县（市、区）已全部完成规模以上工业企业“亩产效益”综合评价工作。7月13日印发《关于对“亩产效益”评价企业试行差别化价格政策的通知》（德发改价格〔2020〕369号），根据全市“亩产效益”评价结果落实用水、用气、用电差异化价格政策，倒逼企业提高全要素生产率。', '（五）加快5G建设应用。印发《德州市人民政府办公室关于加快5G产业发展的实施意见》，建立5G建设半月调度通报制度和5G基站困难问题清单，分类协调，销号处理。截止12月底，开通5G基站1649个，开通率103.06%。加大工业互联网平台培育，涌现出了奥链工业互联网平台、纺织工业云平台等一批本地工业云平台，腾讯（德州）工业云基地平台搭建完成，忽米网环境治理行业标识解析二级节点、海尔中央空调行业工业互联网平台等合作项目签约落地。4个项目入选2020年省“现代优势产业集群+人工智能”试点示范项目，6家企业入选2020年省两化融合管理体系贯标试点企业。', '2021年，市工信局将在市委、市政府的坚强领导下，紧紧围绕全市发展大局，充分发挥主责、主业、主阵地的职能作用，坚决当好市委市政府的指挥部、参谋部、突击队，扎实推动新型工业化强市三年行动全面破局。', '（一）加快实施新型工业化强市三年行动。按照“紧盯前沿、打造生态、沿链聚合、集群发展”要求，加强产业链链长制推进体系建设，依托研究机构和智库力量，建立产业链专家库。落实《德州市支持新型工业化强市20条意见》和《关心关爱企业家的二十条措施》，开展企业“赋能行动”，组织企业家对标学习、考察培训等活动。实施“工业企业50强”和“创新型高成长企业50强”培植三年行动，树立标杆企业，提升发展能力。狠抓链长制，分产业链制定振兴规划，开展“产业链振兴行动”，围绕“建链、延链、补链、强链”，突出抓好产业链龙头企业技改提升，对外合作，快速膨胀。', '（二）强力推进智能化与产业深度融合。一是推动工业企业智能化技术改造。明年上半年实现全市13个县市区智能化技改现场会全覆盖。组织“智能化技改公益服务队”，深入企业，开展“面对面”免费诊断咨询公益服务活动，帮助企业解决智能化技改中遇到的问题。二是实施“人工智能+”突破行动。研究制定《德州市智能工厂、数字化车间认定管理办法》，实施生产线智能化改造，开展智能工厂、数字化车间创建活动，打造“示范流水线”“示范工厂”“示范园区”“示范县”。三是加大智能化培训力度。充分利用智能化技改现场会、两化融合深度行、数据赋能山东行等载体，积极开展工业互联网、企业上云、5G技术应用等培训活动，提升企业数字化、智能化转型的能力和水平。', '（三）加强运行监测分析判断。发挥市、县工业运行指挥部作用，统筹对全市工业经济运行的组织领导和调度指挥，抓住20%关键企业的运行监测调度，稳定提升全市工业运行。每月形成企业运行基本情况、每季度形成工业运行情况分析报市委市政府。', '（四）着力提升企业家素质能力。重点围绕“双50强”企业，聚焦难点，精准发力，建立现代产业商学院，通过专题培训、对标学习、企业家大讲堂等形式，组织实施精准化、系统化、差异化学习培训，全力抓好企业家素质能力提升。同时，积极搭建平台载体，不断拓展企业对外合作交流层次和水平，持续提升企业市场核心竞争力。', '（五）持续抓好企业精准帮扶。建立政企网络沟通平台，推行“早餐会”“下午茶”“直通车”等服务机制，为企业提供全天候“保姆式”服务。聚焦融资难、融资贵，出台《百家制造企业中期流动资金贷款计划》，提高中期流动资金贷款覆盖面，继续推行无还本续贷、企业信用保证政策，缓解企业贷款短期化、倒贷成本高风险大问题。', '大家好！首先，我代表市行政审批服务局向多年来关心支持政务服务事业发展的各位朋友们表示衷心感谢！在今年5月份上一阶段的新闻发布会上，我为大家介绍了“一业一证”改革工作前期的推进过程、具体措施、取得成效，半年时间已将过去，通过我们的不断探索与推进，市行政审批服务局以“一业一证”改革为重要抓手，助力企业发展，推进准入准营，创新“四级联办”，实现了新突破、再提升。10月份，上海浦东国家课题组专程来我局学习调研“一业一证”改革工作，先进做法被上升成国家改革试点方案。近日，经市委推荐、省委评定，拟授予我局“勇于创新先进集体”。改革带来的制度红利体，体现到了企业生长、发展活力上，在不久前公布的《全国地级市营商环境热力指数报告》中，我市在全国261个地级市中企业数量增存比排名全国前列。下面我就相关的改革成效向大家简要介绍。', '一、推进开办企业“一件事、一链办”。我们将多个部门办理或多件相关的企业开办“一揽子事”，经过梳理整合、流程再造后，变成企业群众眼中的“一件事”。一是设立开办企业“一件事”专网专窗。市、县政务中心都设置企业开办实体专窗，在政务服务平台开通了企业开办“一件事”专区，实现了“一窗受理、全程网办、一窗出件、半日拿证”。2020年，全年我市登记各类市场主体88145户，同比增长31.99%，增长率排名全省第一，企业开办全程电子化登记率达96%，位列全省第二。二是试点将企业开办和相关许可证进行并联“一链办理”办理。公布155项“一链办”清单，明确办理事项和办事流程，提供办事指南。清单内办事服务申请人只需填写一套表单、到一个窗口、跑一次大厅、提交一套材料即可办理。截至目前，共办理“一链办理”事项4622件，通过流程再造事项办理时间压减了82%，申请材料压减了63%。新开办企业在获取营业执照等证照的同时，赠送五枚光敏印章、发票、税控设备及惠企政策等企业开办大礼包，使创业“免费又省力”。三是“政银合作+智能审批”推进服务升级。市县两级登记机关分别与银行、邮政网点建立“政银合作”工作机制，在200余个企业开办点设置智能审批一体机，通过政务平台进行数据推送和识别，完成证照的打印、发放等工作，实现简单企业登记免人工干预“秒批秒办”。', '二、推进开办企业照后“一业一证、多证合一”。我们以规范、拓面、增量为基础，精准化、定制化、系统化、延伸化“一业一证”改革，先后在药店、食品便利店、餐饮等45个行业实现“一业一证”，行业综合许可证已出证7428张，其中网办6122张，出证总量居全省第三，网办率居全省第一。一是统一实行标准。边探索、边实践、边规范，每覆盖一个行业，就按照标准制作《行业综合许可工作规范》，统一许可条件、申请材料、办理流程、审批时限等11个要素和行业综合许可申请表、承诺书等4套表格，全面提升了行业综合许可工作的标准化水平，实现了服务指南、工作规范、许可文书、档案管理“四统一”，确保了改革行稳致远。二是强化基层办事能力。配套完善街道社区综合许可现场服务、硬件建设、服务规范等，确保群众在全市范围内任一办理点均能获得同质的综合许可服务。选派200余名审批业务骨干充实到乡镇便民服务中心，为强化基层办事服务能力，扩大“一业一证”改革实施范围，拓展审批服务层级提供人力保障。宁津县为每个乡镇和中心社区便民服务中心配备1-2名审批局工作人员；夏津县在各街区党群服务中心设置便民窗口，配备2名熟悉业务的工作人员，负责指导基层综合许可证办理。三是充实帮办代办队伍。全市组建50余支帮办小分队，通过现场指导、上门服务、QQ、微信、邮件、电话沟通，打造24小时不打烊服务。通过视频会议、现场会等形式，在基层服务点开展帮办代办，强化基层培训，全面提升“一业一证”业务水平，增强帮办代办能力。推广“一人一企”服务模式，形成咨询、受理、办理“一人通办、独立负责”，以“受理前服务最优”推动“受理后办结最快”。像平原县立伟宠物店负责人朱女士在“一业一证”办理专员全程帮办下，只用1个工作日便完成一体审批、一次勘查，收到了宠物店《行业综合许可证》。', '三、推进企业“一业一证”四级通办。我们充分发挥政务一体化信息平台优势，以实体平台提升审批速度，以网络平台拓展服务广度，线上和线下融合加快“一业一证”改革进度。一是优化实体平台。借力全市乡镇（街道）、社区便民服务中心规范化建设，将与群众生活关系密切的药品经营许可、食品经营许可等28个基础民生事项，下沉至乡镇（街道）、社区便民中心受理，设置“一业一证”综合办理专窗，实现“一窗多事”和“一窗通办”，打造起了“十分钟办事圈”，实现了“一业一证”改革市、县、乡镇（街道）、社区四级通办。二是优化用好网络平台。依托山东政务服务网，开通“一业一证”综合许可系统，实现市县街区申请表单在线填报、申请材料集成上传、审批信息分发推送、许可信息联网可查，真正做到“足不出户、一证准营”。为群众提供更加优质、高效、便捷的政务服务。三是推进“云上”审批。依托远程视频平台，以“视频指导＋视频勘察+视频审批”的方式，市、县审批局协助基层代办员办理业务，对现场勘查进行远程指导，将服务窗口直接延伸到村（社区），让群众“不出村”就能完成业务办理，家门口就能“拿证开业”，平均每个行业少跑20公里路。举一简单的实例，宁津县时集镇千椿社区的张女士想开一家面馆，来到社区党群服务中心咨询办事流程，在社区工作人员的帮助以及县行政审批服务局“云指导”专员的远程指导下，当场办理出《行业综合许可证》。以前开办一家面馆需要去县城的相关部门跑多套手续，乡镇到县城来回最少1个小时的路程，“一业一证”改革下沉至乡镇便民服务中心后，让居民真正感受到了“大事不出镇，小事不出村”的贴心服务。我市“一业一证”四级通办改革案例作为山东营商环境的品牌，上报中央审改办，成为制定行业标准的重要参考。', '各位媒体朋友们，简化企业开办流程，优化再造行业准入业务标准，是一项长期系统工程，也是不断摸索创新的工作，我们欣喜的看到在这一年的改革实践中我们取得的可喜成绩，但也能发现在改革覆盖面，跨区域协同性，信息数据支撑等方面存在的不足。下一步，我们将继续深入贯彻落实上级部署要求，强化担当精神，在服务企业发展，推进“一业一证”改革上再鼓干劲、再添力量、再出新招，坚决打赢这场重点工作攻坚战。一是推进“一业一证”行业清单化。在现有清单基础上，扩展“一业一证”行业范围，增加建筑行业、检验检测行业、特种设备生产行业等不少于30个行业，同时对行业进行动态管理。二是实施“一业一证”系统重塑。统筹窗口综合服务，集成现场核查，统一审批结果送达，建立部门协同工作机制，构建纵向贯通、横向相联的一体化审批许可服务格局。三是强化“一业一证”标准管理。全面规范审批窗口、审批要件、申报材料、受理流程、核查程序，建立审批监管信息双向反馈，实现全市范围无差别办理。四是优化“一业一证”联动服务。按行业做好指引，实行全程帮办代办，推行在线申请、在线受理、证照免费寄递、不见面审批。真正实现“一单覆盖、一门办理、一次告知、一表申请、一窗受理、一同核查、一并审批、一证准营、一体联动”。同时，我们还将面向企业和群众各再推出50项主题式“一链办理”服务事项，进一步拓展“一链办理”服务范围，争取常办情形全覆盖。', '我们也希望在座的媒体朋友积极宣传行政审批服务改革建设成效，提高社会认知度和群众认同感。谢谢。', '大家好！今天很高兴有这个机会和大家交流。2020年，市地方金融监管局认真贯彻市委、市政府决策部署，团结带领全市金融系统全力落实“重点工作攻坚年”各项目标任务，积极制定疫情期间金融支持企业复工复产政策、创新金融服务方式、大力发展直接融资、搭建企业融资发展服务平台，有效地发挥了金融对冲疫情影响、助力经济加快复苏、服务实体经济高质量发展的重要作用。', '（一）全力推动企业上市挂牌融资。一是强化组织领导作用。优化我市推动企业上市工作推进机制，制定《德州市人民政府关于推进全市区域性股权市场创新发展的意见》（德政字〔2020〕15号），市级财政兑现2019年度企业上市挂牌补助资金488.9万元，累计兑现3760.9万元。二是多途径夯实上市挂牌根基。更新调整上市挂牌后备资源库。对企业上市全程提供“保姆式”服务和精准化、差异化指导，及时协调有关部门解决企业上市过程中的难题，一企一策，做到急事急办、特事特办。邀请沪深证券交易所专家到拟上市企业指导，把脉问诊。三是加强政策宣传培训。编印政策汇编，举办资本市场专题培训会，进一步转变企业家思想观念。2020年，百龙创园上市过会，联合石油实现当年辅导报会“双突破”，德州扒鸡、百多安报山东证监局辅导。长信化学取得新三板挂牌函，80家企业在四板挂牌创历年新高。全市新增直接融资75.8亿元。', '（二）加快发展齐鲁股权德州运营中心。作为齐鲁股权交易中心在全省设立的首家非法人分支机构，5月份，齐鲁股权交易中心德州运营中心正式揭牌运营，为小微企业提供挂牌、股权托管、融资路演等服务。中心成立以来，举办了集中挂牌仪式、融资工具推介会等近十场活动。由市金控集团、中泰证券、德州银行、齐鲁股权交易中心、省资本市场促进会五家机构发起设立德州市金融服务联盟，为企业融资发展提供综合性金融服务。持续开展县域资本市场专题巡回培训活动，实现县域培训全覆盖，通过投贷联动，对1家招商引资企业给予了8000万元融资支持。', '（一）加大信贷支持力度。市政府2020年分别与农发行、工商银行、交通银行山东省分行签订战略合作协议，2020年9月举办省金融系统支持德州市工业强市三年行动暨建设智慧金融先行区座谈会，市政府与中国人民银行济南分行签订合作备忘录，与16家省级银行机构签订信贷支持协议，在新旧动能转换、民营经济等方面争取信贷规模倾斜。对市级重点项目、化工项目、外贸企业等领域信贷需求集中向银行机构推介，督促做好融资服务工作。2020年全市新增各项贷款319.9亿元，增速14.5%，同比多增86.2亿元。', '（二）加强疫情期间企业融资服务。出台《德州市强化金融支持企业复工生产和项目建设的通知》，督促各银行机构保障金融供给。疫情期间市地方金融监管局、人行、银保监分局成立13个督导组，对全市规模以上工业企业融资需求开展两次调研摸排，逐企建立融资台账，督促银行机构做好名单内企业融资保障。2020年全市银行机构累计为台账内企业提供续贷倒贷83.8亿元，新增贷款36.9亿元。疫情发生以来我局累计为企业召开27次专题会议，协调续贷周转、贷款成本等事宜，涉及贷款金额44.4亿元，有效助力企业渡过疫情难关。', '（三）创新融资服务举措。2020年市内银行机构为符合条件的高层次人才及其所在企业办理“人才贷”1.28亿元,支持企业科技成果转化和创新创业活动。今年以来累计办理无还本续贷业务94.4亿元，保障有续贷需求企业资金链安全。充分发挥应急转贷资金作用，2020年市、县两级续贷周转金累计为181家企业提供续贷周转服务43.9亿元，有效为企业防范流动性风险。', '2021年，市地方金融监管局将认真落实中央、省委、市委经济工作会议精神和市委、市政府决策部署，协调引导金融机构创新金融服务、扩大金融供给、优化金融环境，持续推动企业上市挂牌和发展直接融资，助推我市经济社会实现更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>141</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>辉煌十三五奋进新德州主题系列新闻发布会第四场</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-01-07</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c60418666/content.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['大家上午好！2020年是“十三五”收官之年，2021年是“十四五”开局之年，很高兴能在这个承前启后的时间节点，向大家介绍德州人社事业“十三五”期间的发展情况。借此机会，我谨代表市人社局，向各位记者朋友及社会各界多年来对人社工作的关心和支持，表示衷心地感谢！', '“十三五”以来，全市人社系统坚持以习近平新时代中国特色社会主义思想为指导，牢固树立以人民为中心的发展理念，着力惠民生、促发展、构和谐，统筹推进就业创业、社会保障、人事人才、劳动关系、便民服务等各项工作，不断提升广大群众的获得感，为全市经济社会发展提供了有力的民生保障和人才支撑。市人社局先后荣获全国人社系统先进集体、全国人社系统优质服务窗口、全国内部审计先进集体等国字号荣誉。', '就业是民生之本，是最大的民生，居于“六稳”“六保”之首，市委、市政府非常重视、强力推进。“十三五”期间，我们始终把就业作为优先目标，坚持促就业举措应出尽出，拓岗位办法能用尽用，千方百计促对接、强培训、稳就业。', '一是就业规模更大。五年来，全市新增城镇就业每年都保持在6万人左右，累计实现城镇新增就业31.75万人，超额完成既定目标；城镇登记失业率保持在2.7%以内，远低于3.5%的规划目标。特别是2020年，为应对全球经济下行压力增大、国际贸易摩擦加剧、新冠肺炎疫情影响等不利因素，我市出台援企纾困一揽子举措，直接发放各类惠企补贴超过2.9亿元，其中为3700多家企业返还稳岗补贴8179万元，稳定岗位17.56万个，确保了全市就业形势总体稳定，守住了民生之本、财富之源。', '二是重点群体更稳。五年来，全市高校毕业生总体就业率始终稳定在88%以上，特别是2020年，在德州生源毕业生总量创历史新高（3.03万人，较2019年增加7000人）、求职就业受到疫情较大影响的情况下，多措并举，实现了大学生总体就业率不降反升。农民工转移就业顺畅开展，创出德州电子、德州数控、德州装配等特色劳务品牌。大力开展困难群体就业援助，每年组织开展“春风行动”“就业援助月”等招聘活动110场以上，五年来，累计帮扶失业人员再就业8.92万人，就业困难人员就业1.49万人，保持了零就业家庭动态清零。在就业扶贫实践中，我们针对部分贫困人员由于各种原因无法外出就业，同时部分贫困人员无法得到生活照料和精神慰藉的问题，探索出“公岗互助扶贫”新模式，先后有1600多名贫困人员上岗，帮扶贫困家庭2100多户，得到了上级的充分肯定并在全省推广，新华社进行了专题报道，入选了全国党员干部远程教育典型案例。', '三是就业质量更高。创造性推出“企业下订单、劳动者选单、培训机构列单、政府补贴买单”的“四单式”培训模式，在全省得到推广实施。从失业保险基金结余中拿出2亿元专项用于全市职业技能提升行动，五年来累计组织就业技能培训23.97万人次，广大劳动者通过提高技能水平获得了更好的岗位、更高的收入。', '四是创业环境更优。每年安排不少于5000万元的市级创业扶持资金，五年来，共发放创业担保贷款16.84亿元，扶持市场主体1.1万家。先后创建省市级创业孵化示范基地（园区）、创业型街道（社区）等220多家，通过税费减免、贴息贷款、创业补贴、辅导培训等措施，为创业者实现“创业梦”提供全方位支持。', '社会保障是民生之基，我们坚持尽力而为、量力而行，努力提升人民群众老有所养、失有所助、伤有所保的安全感。', '一是参保群众越来越多。以农民工、个体灵活就业人员、新业态从业人员为重点，全力实施全民参保计划，努力实现应保尽保，加快社会保障法定人群全覆盖进程。全市养老、失业、工伤保险参保人数分别达到406.84万人、45.63万人和64.57万人，比“十二五”期末分别增长23.2万人、9.6万人和4.7万人，社保卡累计持卡人数超过510万人，签发电子社保卡170余万张，将更多职工群众纳入了社会保障“安全网”。', '二是待遇水平越来越高。坚持发展成果由人民群众共享，待遇保障水平不断跃上新台阶。五年来，每年都提高企业退休人员养老金，全市月人均养老金由2015年的2107元增加到目前的2793元，提高了686元，增长32.5％，受益退休职工17.5万人。先后三次提高城乡居民基础养老金最低标准，由2015年的每人每月85元提高到目前的142元，受益城乡居民97.6万人。失业金标准由每人每月850元提高至1395元，增长64.1%。工伤职工定期待遇也连续上调。2020年在大幅减免企业缴费、基金收入受到较大影响的情况下，克服困难，尽最大努力上调了养老金、失业金、工伤待遇等多项待遇，共发放社保待遇102.8亿元，受益总人口超过123万人，确保了待遇保障水平只升不降，实现了各项待遇按时足额发放，守牢了特殊之年的民生底线。', '三是制度建设越来越完善。机关事业单位养老保险制度改革走在全省前列，打破了养老保险“双轨制”，先后四次在全省会议介绍经验。企业养老保险省级统收统支顺利实施，2020年归集、上解、拨付基金总量超过108亿元。落实社保降费减负政策，参保单位养老保险缴费比例由20%降到16%，工伤保险费率降低50%，失业保险缴费比例由3%降到1%。特别是2020年，出台“减免缓返补”政策大礼包，共为全市1.2万家用人单位减免社保费超过18亿元，助力企业渡过难关、健康发展。', '人才是第一资源，是创新发展的第一动力。市委、市政府先后出台人才政策“黄金30条”及其升级版、“人才改革25条”“乡村人才振兴20条”等政策措施，通过精准施策，引育并举，目前全市入选市级以上重点工程的高层次人才达到2937人次，较2016年初增长107%，创造了欠发达地区人才工作跨越发展的“德州经验”。', '一是人才招引成效凸显。突出做好活动聚才、柔性引才、市场招才文章，2016年成功承办山东省第九届“海洽会”，连续参与举办五届“智汇德州”人才创新创业周，累计签订合作项目837个，带来直接经济效益14.84亿元，德州人才工作知名度、影响力显著提升。除举办重点活动外，还采取“小快灵”的方式，组织开展“百企校园行”“名校人才直通车”“大学生归巢计划”等引才活动，先后组织1931家（次）重点企业赴省内外高校开展人才招聘，推介德州良好环境，宣传德州人才政策，吸引越来越多的青年人才选择德州、回到德州、扎根德州。5年来，全市集聚各类大学生人才10万余人。', '二是人才平台载体建设成效显著。成功创建全国第4家国家级引智试验区、全省第4家省级人才改革试验区。市人力资源服务产业园获批省级产业园，成为鲁北唯一一家省级产业园。先后建成博士后科研工作站17家、博士后创新实践基地及备案单位41家，总量居全省前列。建成省市级技师工作站75家、省市级专家服务基地25家，各类人才创新创业的舞台更加宽阔。', '三是人才总量持续扩大。五年来，先后有4.5万人取得专业技术职称，其中高级职称人才超过7800人。培育高技能人才2.5万人，其中技师2260人、高级技师964人，全市技能人才总量达到55万人。目前，全市现有享受国务院政府特殊津贴专家46人、省市级首席技师283人、省市有突出贡献的中青年专家222人，为全市新旧动能转换提供了有力的人才智力支撑。', '四是乡村人才振兴全面起势。发挥专班牵头作用，先后培育省市级乡村振兴专家服务基地36家，实现了各县市区全覆盖。实施人才“三回”工程，建成返乡创业服务站4家，开展农村劳动力专项培训9.5万人，招募“三支一扶”大学生1104人，加快推进基层职称、农民职称、直评直聘三项制度改革，为乡村人才拓宽发展空间。', '五是人才服务走在全省前列。在全省率先建立人才综合服务中心，开发建设人才服务“一网一库一平台”，服务事项全部线上办理、无纸化运行。出台《德州市高层次人才服务专员管理办法》，配备人才服务专员648人，开通“12345人才服务专线”，发放“德州惠才卡”295张，畅通23项人才服务绿色通道，一站式、定制化的服务受到广大人才欢迎，先后有省内外70多家单位来德州考察学习。', '劳动关系和谐稳定是社会稳定的基石，五年来，我们把构建和谐劳动关系作为重要使命，全力防风险、促和谐、保稳定，切实维护广大劳动者合法权益。', '一是协调机制不断健全。实施和谐劳动关系创建计划，评选“市级劳动关系和谐单位”157家。劳动合同签订率持续保持在95%以上。2020年创新开展“千家企业巡回大讲堂”活动，深入基层用工一线为企业和职工宣讲法规、答疑解惑，妥善应对疫情对劳动关系带来的影响。', '二是监察执法成效明显。五年来，主动监察2.1万家企业劳动用工情况，涉及职工46.8万人次，督促用人单位补发职工工资1.87亿元，绝不让劳动者流汗又流泪。持续开展根治欠薪行动，推进农民工工资支付监管平台全覆盖，累计纳入工程建设项目880个，向31.56万人次农民工代发工资17.5亿元，为农民工追回欠薪6870余万元，坚决维护劳动者合法权益。', '三是调解仲裁依法开展。坚持以“和”为贵，以“调”为主，建立大中型企业劳动争议调解委员会1367个、乡镇街道调解组织134个，实现乡镇街道全覆盖。五年来，共受理劳动争议案件10284件，结案率保持在93%以上，调解成功率达到61%，为当事人挽回经济损失2.5亿元。', '把优化人社领域营商环境作为“一号改革工程”，深入推进行风建设，努力打造标准化、信息化、一体化服务模式，让群众“不进人社门”也能“办好人社事”。', '一是力争“办得快”。深化“一次办好、流程再造”改革，大力度开展减事项、减材料、减环节、减时间、提升服务水平“四减一提”行动，全面推行分类综合柜员制改革，相比2018年，共取消各类证明38项，精简各类申报材料470个，精简率达61.3%，社保业务中有58项实现即时办理。', '二是推动“办得好”。编制公布了覆盖150个服务事项、全市统一的服务指南和工作手册，将140项依申请政务服务事项纳入“市域通办”，方便企业群众就近办、异地办。“网上申领失业保险金”“申领社保卡”“办理高校毕业生手续”等高频办事事项，实现“一链办理”。广泛设立自助服务专区，最大限度方便群众办事。', '三是提高网办率。坚持“不跑腿”“零见面”为常态，推进人社业务“网上办”“掌上办”，让广大企业和职工群众足不出户就能办理人社业务。目前，社保增减员、劳动合同备案、人事考试报名、职业资格证书和职称信息查询等业务支持全程网办，依申请政务服务事项网办率达到100%。推广以“静默认证为主，远程自助认证为辅”的新型认证方式，使120多万老年人足不出户就能享受到养老金信息查询、自助认证等服务，为群众搭建不打烊、不停歇的服务平台，人社服务更高效、更便捷、也更温馨。', '立足新征程，扬帆再远航。迈入“十四五”，我们将坚持以习近平新时代中国特色社会主义思想为指引，认真落实市委、市政府决策部署，抢抓机遇，奋力攻坚，不断开创全市人社事业发展新局面，为建设“富强、活力、幸福、美丽”的新时代现代化新德州作出新贡献。', '上午好。“十三五”时期是全面建成小康社会决胜阶段，在市委、市政府的坚强领导下，全市经济社会各项事业蓬勃发展。作为民生领域的重要内容，全市民政事业在服务经济社会发展大局中发挥了重要作用。民政事业的发展成效，是新时代现代化新德州建设成就的重要体现。去年3月，习近平总书记专门对民政工作作出重要指示，强调民政工作关系民生、连着民心，是社会建设的兜底性、基础性工作。要求各级民政部门聚焦脱贫攻坚、聚焦特殊群体、聚焦群众关切，更好履行基本民生保障、基层社会治理、基本社会服务等职责。近年来，市民政局始终坚持以人民为中心的发展思想，紧扣“三聚焦”“三基”开展工作，努力打造了全国、全省民政工作德州经验，连年获得全省民政系统考核优秀等级、市综合考核一等奖，发展成就主要体现在以下五个方面。', '一、民政基层基础更加牢固，为民服务能力水平全面提升。坚持把重视基层、加强基层、倾斜基层作为抓好民政工作的基本原则，不断加强基层基础工作。2018年，时任民政部党组书记、部长黄树贤对德州加强民政工作提高为民服务能力水平的成效作出专门批示。一是强化工作力量配备。全市各乡镇（街道）专职民政工作人员达到450人，村级民政专职协理员配备8118人，增设社会工作岗位434个，基层服务力量全面加强。二是强化工作经费投入。累计支出民政事业费88.26亿元，地方配套39.81亿元。社会福利中心、社会救助服务窗口、社区服务中心、养老服务中心等一批民政便民服务设施相继建成投入使用。县市区普遍建立了稳定的基层民政工作经费筹措和保障机制。三是强化民政为民服务场所建设。13个县市区均已建立县级民政为民综合服务中心，或依托便民综合服务大厅设立了专门民政服务窗口。建立了乡镇（街道）为民服务中心或依托社区综合服务中心设立了专门民政服务窗口127个。村（居）设立为民服务站5262个。四是强化信息化平台构建。建立了市、县、乡三级衔接互通的民生民政综合服务平台，城乡社区公共服务综合信息平台纳入国务院政务信息系统整合共享应用试点。', '二、基本民生保障网密实牢靠，社会救助兜底功能显著增强。坚持把保障和改善民生作为工作出发点和落脚点，守住低保扶贫底线、突出社会救助重点、改革完善救助制度，在全面建成小康社会的路上，不让一个困难群众掉队。一是兜底保障基础日益坚实。制定出台《德州市社会救助办法》，建立社会救助联席会议制度，创新开展“三加一减”精准扶贫、临时救助、“一门受理、协同办理”、“救急难”综合试点等工作，打造核对信息平台、社会救助平台、一站式结算平台等救助平台，13个县市区全部建立乡镇临时救助备用金制度，人均救助水平达到2100元。二是助力脱贫攻坚作用充分发挥。将符合条件的建档立卡贫困户及时纳入低保范围，确保农村低保标准始终高于省定扶贫线。十八大以来，城市低保标准由每人每月300元提高到不低于684元，农村低保标准由每人每月166元提高到不低于511元，分别增长128%、208%。城市特困人员基本生活标准全市统一调整为每人每月不低于1026元；农村特困人员基本生活标准全市统一调整为每人每月不低于738元。特困人员照料护理标准，按照自理、半自理和不能自理人员每人每年600元、1800元、6000元执行。三是社会大救助体系全面建成。在全市开展以“1335”为主要内容的社会大救助体系建设，即坚持“构建解决相对贫困长效机制”一个目标，建立“相对贫困人口主动发现机制、政府和社会力量相结合的救助保障提升机制、适应相对贫困人口多层次需要的动力提升”三大机制，立足“统筹完善社会政策、统筹衔接社会福利和社会保险政策、统筹组织社会力量”三个统筹，打造“政策、平台、网点、队伍、保障”五大体系，全面建成了以“救助领航、送爱到家”为主旨，以构建解决相对贫困长效机制为目标的新型社会救助保障体制机制，实现了对困难群众的主动发现和主动救助，群众申请救助实现了“网上办”“掌上办”“电话办”“口述办”，并做到了“全域申请、居家办理”。全国政协副主席、致公党中央主席、中国科学技术协会主席万钢和省民生厅厅长刘炳国同志先后对德州社会大救助工作作出批示。这些兜底保障政', '策的实施，使广大贫困家庭实现了“不愁吃、不愁穿”，发展成果由全民共享得到了很好体现。', '三、基本社会服务持续优化，回应群众关心关切及时有力。坚持把解决好与群众息息相关的民生实事作为重中之重，在增强群众“获得感”最现实、最直观、最迫切的领域狠下功夫。一是创新推动养老产业发展。编制了《德州市养老设施建设和养老产业发展规划》，2019年在全省率先开展养老立法工作，《德州市养老服务条例》于今年1月1日正式施行。构建了以居家为基础、社区为依托、机构为补充的养老服务体系，全市共运营养老机构130处，建成日间照料中心75处、农村幸福院332处。建设示范性社区养老服务中心20处，医养结合型养老机构80处。全市养老总床位4.1万张，每千名老人拥有床位38张，建成市民大食堂4处。积极推进市级养老示范城项目，投资8亿元，建设床位2000张，目前已完成主体工程。深入开展养老院服务质量建设专项行动和全市乡镇敬老院及农村幸福院整改提升工作，养老院服务质量迈入长效机制建设新阶段。二是深入推进殡葬改革。成立市委书记、市长任组长的工作专班，出台免除居民四项基本丧葬费用全民普惠政策文件，火化率保持在98%以上。把殡葬改革纳入我市打造乡村振兴齐鲁样板中率先突破工作规划，拟定《德州市殡葬管理暂行办法》，编制《德州市绿色殡葬建设规划》，全市共建成县级公益性骨灰安葬设施11处，乡、村级495处。三是加强儿童关爱保护。构建了市、县、乡、村四级联动、纵向到底、横向到边、覆盖城乡的未成年人保护网络。扎实开展农村留守儿童“合力监护，相伴成长”专项行动，共签订《农村留守儿童委托监护责任确认书》8400份。社会散居孤儿生活费按照每人每月1400元发放，集中供养孤儿按照每人每月1760元发放，困境儿童按照每人每月980元发放。明确乡镇儿童督导员135名，儿童主任8100名。四是做好残疾人生活补贴发放工作。创新对残疾人两项补贴发放工作，实行“免申秒办”。自2020年1月1日起，享有困难残疾人生活补贴的一、二级残疾人，补贴标准由每人每月100元提高到140元，其他等级的困难残疾人生活补贴标准由每人每月80元提高到113元。享有重度残疾人护理补贴的一级残疾人，补贴标准由每人每月100元提高到125元，二级的重度残疾人护理补贴标准由每人每月80元提高到109元。五是扎实做好婚姻登记和流浪乞讨救助管理工作。我市11处婚姻登记机关均成立婚姻家庭辅导中心，离婚率降低20个百分点。婚姻登记管理服务实现信息化管理，全市有2个国家4A级婚姻登记机关，其他全部达到3A级标准。建立了由政府分管领导牵头的流浪乞讨人员救助管理工作小组，共救助流浪乞讨人员3.2万人次，收养登记合格率达100%。', '四、基础社会治理体系更有活力，共建共治共享的社会治理效能不断显现。坚持以村民自治、社区建设、完善社区服务为主线，不断提升基层社会治理水平和为民服务效能，形成了和谐宜居、富有活力、特色明显的现代基层社会治理和服务体系。一是基层政权全面稳固。结合“两区同建”工作全面开展农村社区建设，实现了由“乡—村”式农村管理体制向“街—居”式城市管理体制的转变。印发了社区减负增效相关制度文件，建立城乡社区多层次协商制度，聘请第三方机构开展村务公开督导检查工作。二是创新开展社区治理。优选18个试点开展“和谐幸福社区”创建活动，构建了共建共治共享的社会治理新机制。制定市级社区工作者管理办法，县市区分别制定出台社区工作者薪酬体系办法，建立“四社联动”社区试点30个，总计培育发展扶持专业社工组织38个，培育社区社会组织200余个，带动全市实名注册志愿者86万人。三是加强乡镇服务能力建设。以临邑县为试点，推进乡镇治理体系和治理能力现代化。临邑县经验做法入选全国第一批十个乡镇政府服务能力建设典型经验。四是社会组织管理改革深入推进。稳妥开展行业协会商会与行政机关脱钩改革，扎实开展行业协会商会涉企收费工作，引导社会组织参与脱贫攻坚，积极开展对口支援和扶贫协作工作，德州市慈善总会向秀山县慈善会捐赠款物共计80万元用于秀山本地脱贫攻坚。全市依法登记社会组织1888个。', '五、专项行政管理科学规范，服务经济社会发展的资源配置能力全面加强。圆满完成陵县改县设区工作，撤乡设镇17个，新增街道办事处5个。积极稳妥推进经济开发区体制机制改革工作。目前，我市共辖2区2市7县134个乡镇（街道）。完成高铁新区新建成的31条道路命名，设立道路标志2万余个。对老城区道路标牌进行升级改造，共设置道路标牌1200多块。对全市区30条道路进行命名、更名，对德城区、运河经济技术开发区、经济技术开发区所辖村庄、街道设立村碑164块，指导德城区对主城区内136个街巷、胡同进行了命名论证和路牌安装，实现了主城区地名标志全覆盖。成功拍摄地名文化宣传片《古县神韵－临邑县》。开展全国第二次地名普查工作，代表山东省地名普查成果验收率先上报至民政部进行全面验收。', '同时，针对各类民政服务对象，我们持续绷紧疫情防控和安全生产这根弦，严格落实常态化防控措施，确保了全市敬老院、养老院、福利院、救助站等机构所有服务对象和工作人员未出现一例疑似、确诊病例。五年来全市民政系统未出现1起重大安全事故，没有1起冲击社会道德底线的事件发生，确保了各类特殊困难群体与全市人民一道同步迈进全面小康。', '朋友们，以上介绍的是“十三五”时期全市民政事业发展所取得的主要成就。“十四五”时期是开启全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的第一个五年。面对新时代人民对美好生活的向往，我们将深入贯彻习近平总书记对民政工作的重要批示和党的十九届五中全会对保障和改善民生提出的新要求，科学把握新发展阶段，深入贯彻新发展理念，加快构建新发展格局，全力推进各项民政事业全面进步，为加快新时代现代化新德州建设作出更大贡献。', '大家上午好！感谢大家长期以来对全市教育体育事业的关心和支持。现在我介绍 “十三五”以来全市教育体育事业发展取得的主要成就。', '一是持续加强党对教育工作的全面领导，全面提升大中小学党建工作质量，使教育领域成为坚持党的领导的坚强阵地。二是加强思想政治和意识形态工作。狠抓全国全省思政工作会议精神落实，全面深化中小学社会主义核心价值观“三进”工作，开展扣好“人生第一粒扣子”教育实践活动。三是在全省率先出台《德州市深化新时代全市思政课改革创新实施方案》，建立“德州市大中小学思政课一体化指导中心”。扎实推进党的创新理论进教材、进课堂、进头脑。四是组织思政课教师全员大培训、思政课教学比赛等活动，广大党员及师生思想政治基础进一步牢固。', '坚持从人民群众最关切的问题入手，着力补齐教育的短板。一是扩大资源供给，让幼儿入园不再“难”。五年来，新建、改扩建幼儿园367所，整治完成城镇居住区配套幼儿园154所，新增学位10.86万个，为适龄儿童提供了更多入园机会。二是狠抓办学条件改善，让城镇中小学不再“挤”，农村中小学不再“弱”。五年来投资150多亿元实施解决大班额项目建设、全面改薄和薄弱环节改造工程，建设校舍522万平方米，新建、改扩建学校1061所；标准化塑胶操场由2015年初的41块增加到1272块，56人以上大班额比例由2015年的35%到全部化解。我市中小学办学条件基本达到省定标准，所有县（市、区）通过国家义务教育发展基本均衡县验收。三是兜住公平底线，让弱势群体不再“弱”。3676名建档立卡贫困家庭学生全部在校在读，残疾儿童、特困家庭儿童15年教育全免费，305个贫困村留守儿童关爱室全覆盖，具备受教育能力的残疾儿童少年义务教育入学率达到98%，进城务工人员子女100%平等接受义务教育，保障“弱有所教、弱有所助”。四是开展托管服务，让家长课后不再“等”。全面推行小学生课后服务，有需求的学校覆盖率达到100%，参与教师2.2万人，惠及小学生24万名，有效解决了群众关注的“放学早、无人看”难题。', '一是深入推进德育改革，落实全员育人导师制。设立德州冀鲁边区革命教育基地等80余处红色文化、优秀传统文化、地域文化等研学教育基地。建立和完善家庭教育工作体系，评选80所市级家庭教育示范基地。加强青少年心理健康教育，7所学校被认定为省级心理健康特色学校，24所学校被认定为市级心理健康特色学校，实现心理健康教育特色学校县域全覆盖。3所学校获全国文明校园，36所学校获评省级文明校园。二是稳妥实施考试招生制度改革。启动实施“分数加等级”的普通高中招生考试改革，扩大普通高中学校的招生自主权。在全市实施中小学网上报名和电脑分班派位，促进教育公平。三是创新办学模式，大力引进省内外优质教育资源，吸引社会力量投资教育。山大、山师、北京八中等均在德州设立分校。德州学院与经济技术开发区校城融合合作实施，成立学院附属第一实验小学。引进中北大学在德州设立研究生分院，搭建了招才引智和政产学研长期合作的平台，目前已与我市企业学校开展产学研合作项目26个。', '一是深入推进省级职业教育创新发展试验区和职教高地建设。在全省率先开展了中职教育与技工教育“双证互通”、普通高中和中职“学分互认、学籍互转”、中职与本科院校“3+4”对口贯通分段培养试点，实现了现代职业教育体系“上下贯通”。2020年，中职教育招生录取2.13万人，同比增长4.4%。二是围绕全市“十大产业集群”和职业院校主要专业，建设德州市职业教育公共实训中心主中心，构建了“一主多辅”的实训体系。三是狠抓重点项目建设。创建国家中等职业教育改革发展示范校3所，省示范性中等职业学校2所，省规范化中等职业学校10所,省中等职业教育品牌专业建设项目12个。', '一是坚持把师德师风建设摆在首位，持续开展师德师风专项治理。我市“德能双修”教师成长模式作为教育部30个教师队伍建设典型案例之一，在全国推广。二是大力优化队伍结构。2015年以来，全市招聘教师1.5万人，占到中小学教师总数的30%；30岁以下教师的比例提升到21.2%，50岁以上教师的比例下降到23.6%；本科以上学历教师的比例提升到57.76%，研究生以上学历教师的比例达到2.4%。首届毕业的198名省属公费师范生全部充实到乡村学校，城乡师资配置进一步均衡。三是大力开展“名师、名校、名校长培养”工程。四是稳妥推进了校长职级制、教师“县管校聘”改革，落实乡村教师享受乡镇工作人员补贴政策，让教师群体更有获得感。', '下一步，我们将按照十九届五中全会绘制的宏伟蓝图，以办人民满意的教育体育事业为目标，不断深化教育体育改革，着力解决好人民群众关注的教育体育难点问题，以实际行动，践行好党和政府对人民的庄严承诺，向党和人民交出一份满意的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>141</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>对标提升重实干靶向发力绘蓝图</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-12-21</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860999/n42861191/c59783690/content.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['12月14日至12月18日，院长张同光带队，校党委副书记张恒斌，校党委委员、副院长殷淑英，校党委委员、宣传部部长周吉星，校党委委员、组织部（人事处）部长（处长）孟繁营，及研修班成员一行共27人，在为期一周的师资队伍建设对标提升研修班顺利结业。', '研修班紧紧围绕对标提升这个主题，紧扣职业院校高质量发展、高水平专业群建设、师资队伍建设的要求，精心设计了培训课程，既有体系与机制研究，又有路径与模式的探索；既有专家讲座，又有交流参访。浙江机电共安排了7名专家教授作专题讲座，涵盖提质培优推进高职教育、高水平专业群建设、类型教育相匹配的职业院校治理体系建设、学校内部质量保证体系诊断与改进、科技驱动背景下金融管理高水平专业群的改革与创新、高水平专业群建设和教学改革等专题；组织了3次实地参观，突出利用浙江职业教育资源开展对标学习，突出校企实训基地优势参观了基地建设和海康威视。全体成员既找到了“寻标对标”的目标，又找到了“达标创标”的差距，切身感受了职教新时代下的最新实践成果。', '12月14日，丁金昌教授作题为《“提质培优”行动计划背景下推进高职教育高水平专业群建设的思考》的精彩讲座。讲座从政策、产业、专业以及发展形势的维度，在理论和操作层面，讲解专业群的组群逻辑和丰富内涵。讲座还解读了《职业教育提质培优行动计划（2020—2023年）》等文件精神，提出高职教育进入提质培优新阶段的论断，以此为背景，分析了高职专业群的办学定位，梳理了高职专业群内涵建设的目标、原则、路径、措施和评价机制，并结合实际，讲解了有关高校高水平专业群建设的案例。下午进入对口交流环节，两校对接人员就工作中的经验、热点难点问题及改进措施进行坦诚交流，行政交流组对绩效改革、工资管理、职称等方面进行探讨和借鉴，专业交流组实地参观实训建设，都达到了预期效果。', '12月15日上午，全体成员实地探访了杭州职业技术学院现代学徒制校企共建实习基地，重点考察了友嘉机电学院的机床博物馆、数控加工培训中心和特种设备学院电梯工程技术培训中心。杭州职业技术学院党委成员、副院长陈加明热情接待并介绍了他们近几年的办学经验与特色发展、高素质人才的培养通道和现代学徒制实施的基本路径；现代学徒制试点工作的开展情况，从学徒制工作的基本情况、主要做法、工作展望和思考体会做了详细介绍。从观念、师资队伍、方法建设、机制建设四方面介绍了杭职院的督导工作。这次考察交流使我们对杭职院先进的办学理念、体制机制改革、产教融合校企合作留下了深刻印象，为我校现代学徒制试点工作的推进、校企“工学精准交替”教学实施、督导工作等方面提供了有益的借鉴。', '12月15日下午，方健华教授以《走向行动导向的“深度教学”：职教新时代高质量课程教学新思维》为题，从职教新时代课程教学改革发展新趋势开启报告，提出职教新时代是一个需要高质量并正在创造高质量的新时代！方教授谈到教育技术的创新正在改变课堂，基于互联网+的时代，信息化社会的到来，学习者的生成空间在不断拓展。要运用信息技术，推进教育信息化进程，深化教学改革，提高教学质量，更有效地实施素质教育。呼吁全体教学骨干基于标准，以生为本，回归生活，行动导向，让职业院校教学与评价充满生命的活力!', '方教授的讲座高屋建瓴，案例生动鲜活，语言幽默风趣、全体学员深受启发。讲座为学校的课程改革、教学大赛、职教高考等工作指明了方向。', '12月16日上午，原宁波工程学院党委书记，中国职业技术教育学会副会长苏志刚，以《类型教育与院校治理体系建设——高职管理模式创新的实践探索、类型教育内涵特征与双高计划、高职治理体系建设的路径思考》为题，从以评促建，明确共同责任；以生为本，激发学生潜能；夯实基础，完善评价体系三个方面，深刻阐述了合格评估的内涵及要求。援引大量的调查数据和国内外著名高校的教学改革典型案例，结合我校实际，从办学方向、办学定位、办学条件、专业设置、培养方案、课堂教学、师资队伍、质量评价等方面，为我校扎实做好合格评估整改工作及学校发展提出了宝贵的意见和建议。讲座深入浅出，内容详实，案例丰富，有理论高度和实践深度，对我校进一步加强内涵建设，深化教学改革，凝练办学特色具有很强的指导意义和启发作用。', '苏志刚教授从高职品牌建设的现实需要入手，深入浅出地分析指出，在面临实施双高计划的重大机遇条件下，高职品牌建设是摆在每一所职业院校面前一个严峻的任务。要想办好高职学校，必须要认真做好品牌建设的路径设计，要立足做好特色品牌、服务品牌、文化品牌和管理品牌。', '12月16日下午，辽宁教育研究院副院长高鸿，以《职业院校教师科研能力提升的途径与方法》为题，结合自己多年教科研实践的经验，就职业院校教师专业化发展途径；如何有效开展科研；教学研究与科学研究的区别；创新思维形成及应用研究等方面进行了深入浅出地讲解。他强调一切科学研究始于问题，着力于解决问题、着眼于热点问题、着手于服务教学；高校教师必须承担教科研任务，这既是有助于个人成长，也是社会赋予高校的职责；要想成功申报课题，要有好的选题和研究方法，功夫重在平时积累，要关注国家和行业发展趋势；要想在职教领域有所突破，教科研必须先行。他鼓励教师积极投身教科研工作，以教科研兴校。', '12月17日上午，浙江经贸职业技术学院副院长张红博士，在内部质量保证体系的建立与运行方面取得了不俗的成果、积累了丰富的经验。张博士以“学校内部质量保证体系诊断与改进”为题，从诊改工作的背景内涵、目标任务、具体流程、做法经验、工作建议等方面分享了浙江经贸的做法与思考、成绩与经验、感受与建议；就诊断与改进平台功能及复核准备工作做了详尽介绍，大家对内部质量保证体系诊断与改进复核工作有了更清晰更透彻的认识。', '12月17日下午，浙江金融职业学院信息与互联网金融学院副院长、全国金融职业教指委委员吴金旺，从当前经济发展形势、科技金融的内涵及颠覆性、高职金融管理专业群的改革之路三个维度，深度剖析“科技驱动背景下金融管理高水平专业群的改革与创新”。', '12月18日上午，浙江机电职业技术学院智能制造学院院长杜红文，以《高水平专业群建设和教学改革》为题，介绍了智能制造学院发展状况，以及“双高”专业群建设规划、目标以及相关建设举措，就机械制造类专业的发展规划、模具与数控专业的人才培养、专业建设、教学改革，特别是围绕国家“双高”建设中提升专业群建设，以及专业诊改平台的应用、专业群组群案例。', '12月18日下午，参观了海康威视数字技术股份有限公司，重点关注车辆智能识别系统、无人机及反无人机设备、监控视频大数据系统等产品；以及应用于安防领域的各类前沿技术：4K星光摄像头、人脸识别系统、机器人技术、热成像技术、智慧城市创建方案、城市鹰眼技术等。考察组一行都感受到科技发展的强大。参观后考察组就适用于高校领域安防智能化建设开展交流，海康威视项目工程师对高校内安防智能化设备、消防可视化系统做出详细介绍，希望将智能化设备引进高校，适用于学校安防、消防、教学、后勤等保障措施，充分做到智能管理。', '在此次培训中，学员们站位高，非常珍惜疫情防控常态化大背景下的宝贵机会，严格遵守培训纪律，坐得住，听得进，记得牢，保持强烈的求知欲望和良好的学习态度，表现出良好的精神风貌和良好形象，切实做到学有所获，研有所得，必将助推学校职教高地和优质校建设，本次培训取得圆满成功。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>141</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>群众身后事彰显大民生德城区积极推动公益性公墓建设工作纪实</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-12-08</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860999/n42861158/n42935842/c59270548/content.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['群众“身后事”彰显大民生——德城区积极推动公益性公墓建设工作纪实 - 德州市人民政府', '“今年政府建起了公益性墓地，真是太给力了，关键是价格公道合理！”在新湖街道青龙桥社区宣传栏前，居民刘先生指着宣传海报，兴高采烈地对记者说。刘先生表示，接下来要准备将寄存在城北某陵园的父母的骨灰，安葬到区级公益性公墓。“这样，就可以让他们入土为安了，也了了我们子女多年的夙愿！”，刘先生说罢眼里闪着泪光。', '刘先生所指的公墓就是德城区区级公益性公墓，是由政府主导、社会资本参与并特许运营的一处公益性殡葬服务设施，坐落于天衢街道大马厂村北，占地45.17亩，建设标准墓穴9041个，目前建成在即，并通过了行政审批。与此同时，德城区启动建设的还有黄河涯镇、二屯镇两处镇级公益性公墓，建成后，将实现全区城乡基本殡葬服务均等化。', '多年来，由于供需长期错位，供给侧结构性矛盾突出，我区殡葬市场同全国一样出现了这样那样的问题。表现为：城市群众可选安葬资源单一，负担重；农村群众散埋乱葬，乱占耕地行为禁而不止；自然形成的墓地凋敝残破，有碍观瞻；政府对特殊群众的免费优待政策不到位等。', '其实这些问题，早在2018年下半年，区委、区政府主要领导就敏锐地意识到了，并责成民政局、文明办等部门加强调研。9月初，区委书记巩洪波要求民政部门做好调研和公墓建设谋篇布局的文章。5天后，民政局会同文明办、有关镇街赴淄博临淄、临沂沂水考察学习。期间，又先后考察了陕西大荔、江西铅山、江苏丽水、我省威海等先进地区殡葬改革和公墓建设的经验。期间，区委书记、区长多次对民政局提交的公墓建设工作汇报作出批示，区政府常务会议4次上会决策，概念图逐步变成了设计院的规划图和土地上的施工图，最终变成了今天看得见、摸得着的高标准绿色墓区。', '为凝聚合力，区委、区政府成立了以区委书记、区长任双组长，分管副区长任副组长，有关部门、镇街主要负责人任成员的全区殡葬改革工作专班，明确了各主体职责，实现上下协同、左右协动、快速推进。', '2020年5月20日，区政府第6次常务会议召开，会上听取了区民政局关于《全区公益性公墓建设方案》有关情况汇报，原则上同意了建设方式、用地指标和推进措施，拉开了全区公益性公墓落地建设的序幕。', '公墓建设，规划先行。区委副书记、区长王洪林特别指出，要做好规划先行文章，严把质量建设关。第二天，区民政局就会同自然资源部门，委托德州市规划设计研究院，对全区各级公益性公墓进行规划设计。为了尽快完成选址，各相关参与方使出浑身解数，完成图斑筛选、土地定性、现场勘察、实地测绘，终于在较短时间内完成了选址和初步规划设计。', '为体现区级公墓的公益属性，区政府提供土地，承担墓区地块地上附着物补偿、老旧墓地回迁安置等补偿费用，以及墓区办公服务用房、围墙、大门、广场、公共区域的绿化等建设费用，累计投资超过800万元，而这些费用均不计入墓穴的建设成本，全部由财政通过招标方式最后“买单”，不增加群众一分钱负担。', '为加快区级公益性公墓建设进度，区民政局组织召开由街道、社区、咨询方、承建方、运营方、监理方等7方参加的调度会议，倒排工期，制定《德城区区级公益性公墓建设任务责任落实清单》送达与会方并签字确认，明晰责任，保证了项目超常推进。截至目前，德城区区级公益性公墓已完成全部工程的95%，完全可在预计的12月16日开园。', '在“大智移云”时代，如何应用“互联网+”助力添翼，推动治理体系和治理能力现代化，始终是永恒的时代课题。', '为有效链接“火化——安葬”，区民政局按照民政部《民政部关于印发推进“互联网+殡葬服务”行动方案的通知》要求，决定开发殡葬管理系统和微信小程序，从提出需求到现在，只用了20天时间，就完成了软件开发和系统测试，即将进入试运行阶段。', '系统通过互联网技术，实时联结社区、镇街、殡仪馆、公墓（包括公益性公墓和经营性公墓）、民政部门，并在社区端、公墓端开发微信小程序，方便即时信息和影像资料上传。实现纵向贯通、横向互联、信息共享、业务协同、全程阳光。', '人去世后，在办理火化手续的同时，由殡仪馆发起（也可由社区申请，成为殡仪馆的基础数据），由家属或经办人员选择拟安葬公墓，生成待处理活动任务（所在镇街、所选公墓、民政部门可见），纳入监管视线；待逝者安葬后，由公墓管理单位上传相关手续或墓穴图片，终结此任务；对“死而不化”“化而不葬”的异常数据，进入追踪程序，由镇街、社区负责查明骨灰去向后报民政局，民政局提请区政府同意后作出处理。', '“按照相关规定，单穴占地面积不得超过0.5平方米，双穴占地面积不得超过0.8平方米，但就是这小小的墓穴上面，承载的却是厚重的民生。今年，我们启动建设了区级公益性公墓（天衢墓区）和两处镇级公墓，明年有条件时将启动区级公益性公墓（黄河涯墓区）和运河街道公益性公墓建设，并在时机成熟时启动区级公益性骨灰堂建设，满足群众多元化的生态安置需要，真正实现逝有所安！”区民政局副局长李晓乐如是说。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>141</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>住闽全国政协委员考察团来我市</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860896/c58049524/content.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['（记者杨鸣宇）9月29日，住闽全国政协委员活动召集人、福建省政协主席崔玉英带领住闽全国政协委员考察团，来我市考察传统文化保护与开发利用情况。省政协副主席、党组副书记吴翠云，市委副书记张传忠，市政协副主席许绍华陪同。', '考察团一行实地参观了齐河博物馆群项目，对我市加强传统文化保护与开发利用取得的成果给予高度评价。崔玉英指出，德州认真践行新发展理念，注重一二三产共振发展、互动发展，借助旅游项目载体建设，做深做透旅游+文化融合文章，以文促旅、以旅兴文的成效得到彰显。将充分借鉴和吸收德州的好经验、好做法，创新体制推动传统文化产业高质量发展。', '张传忠表示，我市将依托特有文化资源禀赋，深入挖掘好传统文化特色，坚持保护与开发并重，大力发展特色文化产业，培育高质量发展新动能。希望加强沟通交流，互相学习借鉴，促进两地经济社会的共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>141</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>德州市社会大救助体系有关情况新闻发布会</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c58031681/content.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['上午好！欢迎参加德州市社会大救助体系建设新闻发布会。感谢各家媒体和记者朋友长期以来对民政民生工作的关注和支持！下面我就社会大救助体系建设的推进过程、主要内容和工作成效作一简要介绍。', '在2019年召开的第十四次全国民政会议上，习近平总书记对民政工作作出重要指示，指出“民政工作关系民生、连着民心，是社会建设的兜底性、基础性工作”。新时代给社会救助民生兜底保障确定了新的功能定位，提出了新的要求和新的目标任务，亟需改革完善社会救助体系。', '（一）工作背景。一是中央有要求。党的十八大以来，党和政府在社会救助方面不断建立健全制度，社会救助兜底保障能力不断提升。党的十九届四中全会提出“构建解决相对贫困的长效机制”，对“后扶贫时代”如何做好兜底保障工作提出新的要求。今年，中共中央办公厅、国务院办公厅印发了《关于改革完善社会救助制度的意见》，对统筹发展社会救助体系，巩固脱贫攻坚成果，构建社会救助新格局作出重大工作部署。二是救助可保障。社会保障是一个大的概念，宏观来讲，主要指政府层面的保障政策，主要包括保险、救助和福利。保险与劳动贡献密切相关，救助扮演的是补差的角色，而福利是面向特定人群。从三类保障政策的性质来看，只能从救助入手，通过建立社会大救助体系，整合各方面资源，解决贫困问题。三是市县有成就。近年来，在市委、市政府坚强领导下，我市社会救助工作发挥了在保障基本民生、打赢脱贫攻坚战、全面建成小康社会等方面的积极作用。一方面，制定出台《德州市社会救助办法》，健全“市统筹、县实施、乡受理、村协助”的四级协同推进工作机制，创新开展临时救助、“一门受理、协同办理”、“救急难”综合试点等工作；另一方面，不断提高社会救助资金投入规模和使用效能，将符合条件的建档立卡贫困户及时纳入低保范围，建立了城乡低保标准自然增长机制，农村低保标准始终高于省定扶贫线。2018年，时任民政部部长黄树贤在临邑县蹲点调研，我们以临邑县为试点，探索了社会救助工作全国性改革创新经验。四是现实有需求。打赢脱贫攻坚战后，将进入“后扶贫时代”，解决相对贫困问题将成为新的工作重心。在“后扶贫时代”，社会救助体系需要亟需改进和完善。另外，从我市现实情况来看，社会救助发展还存在不平衡不充分的问题，难以满足困难群众多样化救助需求，突出表现为救助职能和资源散落在10多个部门和单位，整个救助缺乏整体的规划，各种社会救助制度和部门之间无法达到有效衔接，形成了“蜂巢式”的救助体系，影响了社会救助效率和质量，迫切需要进一步改革完善救助制度，构建城乡统筹、制度衔接、运行规范、兜底有力的社会大救助体系。', '（二）工作原则。为确保社会大救助体系的科学性、针对性和实用性，我们在工作过程中坚持了三个原则。一是坚持与上级决策部署相一致原则。近日，中办、国办印发了《关于改革完善社会救助制度的意见》，省委办公厅、省政府办公厅印发了《山东省贯彻〈关于改革完善社会救助制度的意见〉若干措施》。德州市社会大救助体系的理念与内涵与中央和省精神要求高度契合，并在探索实践上走在了前面。同时，我们在推进工作过程中，及时学习上级最新政策，补充完善工作内容，确保了整体工作与上级决策部署始终一致。二是坚持与群众需求和德州实际相统一原则。困难群众最大的需求就是申请救助方便，得到救助及时。我们把社会大救助体系建设与“放管服”结合，坚持“乡镇审批是常态、县级以上是例外”的原则，积极稳妥推进社会救助审批权限下放，优化简化社会救助审批流程，最大限度精简申请材料，切实把该放的权彻底放出去，该减的事项坚决减下来，该清的障碍加快清除掉，让数据多跑路，让群众少跑腿，努力让“跑一次”成为上限，“不用跑”成为常态。同时，坚持“尽力而为、量力而行”原则，在不断提升保障能力的同时，充分考虑社会救助的阶段性特征和德州财力水平，合理引导社会预期，持续健全完善社会大救助体系。三是坚持与各部门工作流程相融合原则。社会大救助体系整合相关部门救助职能，但又坚持“不收权、不收钱”的原则，在各部门救助职能不变的前提下，部门审批按照本单位相应政策进行办理，并按时限要求将办理结果进行反馈。具体操作上，工作人员在接收到困难群众救助申请后，通过前台受理、后台转办方式将求助信息转至各救助职能部门，并通过接收窗口反馈救助结果，资金由财政部门通过社会大救助综合服务新平台支付，既凝聚了工作合力，又提高了救助效率、强化了资金监管。', '（三）工作历程。德州市社会大救助体系建设在全省乃至全国具有先发优势和深厚基础，整体发展历程经历了三个阶段。第一阶段：2018年，时任民政部部长黄树贤在德州临邑蹲点调研，我们以临邑县为试点，研发智慧民生“大救助”云平台，探索出“村级申报、乡镇审批、县级监管”民生服务新模式，被评为“全国社会救助领域十佳优秀创新实践案例”，这是社会大救助体系的1.0版本。第二阶段：今年6月30日，德州市社会大救助综合服务新平台上线，“一网三平台”同步在13个县（市、区）上线运行，“德救助”微信小程序同步上线，困难群众申请救助可“网上办”“掌上办”“指尖办”“电话办”“口述办”，并实现了“全域申请、居家办理”，社会大救助体系升级为2.0版本。第三阶段：也就是今天，相对贫困人口主动发现机制、政府和社会力量相结合的救助保障提升机制、适应相对贫困人口多层次需要的动力提升机制“三大机制”全面建成，标志着社会大救助体系3.0版本正式建成。', '（四）工作推进。社会大救助体系建设是一项庞大的系统工程，涵盖救助业务广、涉及职能部门多、社会力量参与度强，需要凝聚多方力量共同推进。为此，李猛书记和杨洪涛市长亲自召开动员大会，成立以市委书记和市长为“双组长”的工作专班，建立由35个部门组成的联席会议制度，加强对全市社会大救助体系建设工作的综合协调、组织推动和督导落实。市委、市政府将社会大救助体系建设列入年度重点督查内容，“两办”督查室及时督导跟进、推动落实。同时将该项工作纳入市直机关绩效考核和县市区经济社会发展综合考核，设立社会救助监督咨询公开电话，畅通投诉举报渠道，用社会监督倒逼工作落实。', '工作专班办公室成立制度建设组、能力建设组、平台建设组、资金管理组、脱贫攻坚组、协调调度组6个工作组，在专班成员单位抽调20名领导干部和业务骨干，并组建临时党支部，全力以赴确保各项任务目标落实落地。成立以来，专班办公室先后召开20多次调度会议，深入研究政策整合、流程再造、平台建设、资金保障等工作事项，倒排工期，攻坚克难，对各县市区进行专项督查和指导，确保了各项工作的顺利推进和如期完成。各县市区参照市级成立相应的工作机构，配齐配强专班力量，自上而下全面建立起建立党委领导、政府负责、民政牵头、部门协同、社会参与的工作体制。', '历经4个多月的时间，目前已经全面建成了以“救助领航、送爱到家”为主旨，以构建解决相对贫困长效机制为目标，以服务于新时代现代化新德州建设为核心的新型社会救助保障体制机制，打造了全国民生工作特色品牌。民政部主办的《中国社会报》《大众日报》头版刊发德州工作经验，广东省民政厅、潍坊市民政局、滨州市民政局等先后来德州考察学习。', '社会大救助体系，可以形象地称为“莲藕式”。“莲藕式”是针对社会救助工作互不关联、多而无序、群蜂送蜜的“蜂巢式”现状提出的。“莲藕式”就是实现“一口进、一口出、各口独立运行又相互渗透”。“一口进”就是所有申请救助项目均可在救助网点、呼叫平台（12345）、手机客户端申报，就近接收反馈结果，着力解决群众求助无门、救助不及时等问题；“一口出”就是工作人员或网络平台在接收到困难群众救助申请后，通过前台受理、后台转办方式将求助信息转至各救助职能部门，并通过最初接收窗口反馈救助结果；“独立运行”就是在各救助职能不变的前提下，审批部门按照相应政策进行办理，并按时限要求将办理结果进行反馈；“相互渗透”就是通过信息平台的大数据库、贫困指数排序、系统主动发现等功能进行数据交换，最终实现困难群众申请救助“一窗受理”，审批流程“全程在线”，救助过程“一网通办”，救助项目“一次办好”。', '德州市社会大救助体系建设的主要内容为“1335”，即“一个目标、三个统筹、三大机制和五大体系”，下面我简要介绍一下。', '（一）坚持一个目标，构建解决相对贫困长效机制。党的十九届四中全会提出，要构建解决相对贫困的长效机制。今年是脱贫攻坚决战决胜年，但打赢脱贫攻坚战，并不意味着贫困从此消除，贫困治理的重点和难点将从显性的绝对贫困转向更加隐蔽的相对贫困。为此，我们在谋划社会大救助体系之初，不仅将其作为打赢脱贫攻坚战的有效兜底保障措施，更将其作为“后扶贫时代”稳定脱贫的有效手段，把最终目标定为“构建解决相对贫困的长效机制”。', '（二）立足三个统筹，改革完善社会救助制度。通过对各类救助政策进行深度融合，对关联的救助项目进行流程优化，实现群众申请后应得救助及时全面享受。同时加强与各类保险、福利政策、社会力量等方面衔接，全面构建起面向困难群众的“两不愁、三保障”的社会救助兜底保障机制。一是统筹完善社会救助政策。针对目前“群蜂送蜜、多而无序”的救助现状，我们全面梳理18个救助职能部门的41项政策，打通各类救助政策壁垒，实现了“蜂巢式”救助向“莲藕式”救助的转变。二是统筹衔接社会福利和社会保险政策。社会保障制度主要分为社会救助、社会福利和社会保险三个方面，社会救助政策要实现真正的公平公正，必须要与社会保险、社会福利政策相衔接。我们将保险和福利政策按照自愿原则纳入社会大救助综合服务新平台，全部进行流程再造，打通政府与社会救助资源共享通道。三是统筹组织社会力量。目前，现行的政府保障政策还有覆盖不到的地方，需要社会力量予以补充。在推进社会大救助体系建设中，我们注重引导和支持慈善组织、社会志愿者、各类救助平台等社会力量高效有序参与社会救助工作，由政府搭建起困难群众和社会力量的桥梁，让困难家庭得到最大限度的救助。', '（三）打造五大体系，全面整合救助资源。救助职能和救助资源相对分散是影响社会救助质量和效益的的重要因素，全面整合社会救助资源成为社会大救助体系建设的重中之重。因此，我们着力推进五大体系建设，全面夯实社会救助工作基础。一是完善政策体系。对18个救助职能部门的41项政策及其执行流程进行梳理，结合省市“流程再造”工作，优化申请、审核、审批流程，按照“乡镇审批是常态，县级审批是例外”的原则下放审批权限，将各项救助审批时限大幅度压缩。比如，目前低保办理时限由之前的近40个工作日缩短为13个工作日。将各类救助项目分层次、分类别导入智慧平台，对纳入平台的项目全部进行流程再造。二是拓展平台体系。以信息技术为手段，全力打造“一网三平台”，即德州市社会大救助综合服务新平台、居民家庭经济状况核对平台、依托12345市民热线建立的呼叫平台以及社会救助综合信息网，实现“一网三平台”实时对接。目前，全市利用综合服务新平台办理低保、特困、临时救助等业务1470项。三是布局网点体系。在全市134个乡镇和8155个村（社区）全部设立救助网点，所有救助项目在大救助平台内运转，前台统一受理，后台部门在线审批。市、县、乡、村四级救助网点均可办理业务，求助群众可就近异地申报。四是充实队伍体系。市、县两级全部建立社会大救助中心，乡镇（街道）全部设置工作站，村（居）按实际需要设置服务站。为11个县市区核定编制 135名，配备工作人员101人，乡镇（街道）配备专职工作人员474人、社会公益岗人员328人、专职村级协理员7584人。五是强化保障体系。规范社会救助资金发放，通过民生资金监管平台公开发布社会救助信息；利用德州信用信息平台，建立失信惩戒数据库；建立了社会大救助监督考核制度，全力保障体系运行。', '（四）建立三大机制，长效解决相对贫困。在完善“五大体系”的基础上，扎实推进“三大机制”建设，最终实现救助工作由被动救助向主动救助转变，由单一政府救助向社会全域救助转变，由“输血型”救助向“造血型”救助转变。一是建立相对贫困人口主动发现机制。建立贫困人口大数据库和已救助事项成果库，设置居民家庭贫困救助指数排序功能，通过大数据云计算掌握不同困难群众贫困情况，按照指数排序和相应的政策标准确定救助对象并进行救助，实现了系统主动提醒、转办时人工推送、救助时按库取单。同时，村级协理员协助做好人工发现应救助困难群众，及时录入系统并推送至相关部门进行救助，彻底解决了重复救助、遗漏救助问题，实现了科学、公平、公正、公开救助。二是建立政府和社会力量相结合的救助保障提升机制。建立特别困难群众“一事一议”制度，适当提高救助额度，实施叠加救助。进一步加强政府与社会力量的衔接，为慈善组织、志愿者、各类救助平台爱心单位和个人与要救助的对象搭桥，精准实施救助帮扶。探索“物质+服务”救助模式，逐步通过政府购买服务对社会救助家庭中生活不能自理的老年人、未成年人、残疾人等提供探访照料服务。三是建立适应相对贫困人口多层次需要的动力提升机制。通过系统大数据分析，对困难群众“两不愁、三保障”问题实时预警，实现应救尽救、有效保障。针对相对贫困人口脱贫动力能力不足等问题，由大数据平台推送相关信息，根据信息提示，结合动力能力提升路径指引，实施精准帮扶。把促进动力提升的各项措施标准化、信息化，由大数据平台统计分析，全部设立考核排名，通过统计分析在平台专门板块滚动展示，作为督导考核动力提升成效的依据。同时，建立多次适岗介绍不就业惩戒机制，引导贫困人口在参与劳动中激发内生动力，全面构建解决相对贫困长效机制。', '（一）社会大救助体系是落实“两个维护”“四个意识”和“四个自信”的生动实践。民生保障理念是习近平新时代中国特色社会主义思想的重要内容，社会救助工作是保障和改善民生的重要手段。社会大救助体系始终围绕落实习近平总书记关于民生民政工作的重要批示精神建设，其核心内涵最能体现党的宗旨和政府职能，最能体现社会主义制度的优越性。', '（二）社会大救助体系是落实“以人民为中心”思想的具体体现。党的十八大以来，以习近平同志为核心的党中央旗帜鲜明地把人民对美好生活的向往作为奋斗目标，提出了“以人民为中心”的发展思想。党的十九大报告把“坚持以人民为中心”确立为新时代坚持和发展中国特色社会主义的基本方略之一。以人为本，以民为先，民生为大。社会救助工作是民生兜底保障在工作，面对的是党和政府“格外关注、格外关爱、格外关心”的特殊困难群体，最能体现“一切为了人民”的执政理念。可以说，社会救助工作的根本属性与坚持以人民为中心的发展思想是高度契合的。', '（三）社会大救助体系是流程再造改革创新的进一步深化。今年，市委把推进流程再造改革作为“重点工作攻坚年”的一项重要工作，着力打通数据共享堵点，努力让“跑一次”成为上限，“不用跑”成为常态。开展社会大救助体系建设，就是贯彻落实“一次办好”要求和流程再造理念的创新实践，通过对各类救助政策进行深度融合，对关联的救助项目进行流程优化，利用数字化、网络化、智能化信息技术，实现群众申请后应得救助及时全面享受。同时加强与各类保险、福利政策、社会力量等方面衔接，打通政府与社会救助资源共享通道，实现了各类社会救助资源按需分配、有序流动、精准使用，真正做到了便民利民、应助尽助。', '（四）社会大救助体系是弘扬社会新风的载体平台。我市社会大救助体系建设坚持政府救助为主体，社会力量参与救助为补充的原则，政府救助与社会力量参与紧密衔接，充分调动慈善组织、社会团体、企业和个人等社会力量积极参与救助工作，有效解决了工作人员不足、救助能力不够、服务资源缺乏等问题，切实做到了资源互补、项目互补、方式互补，实现协了调配合、良性互动、有效对接，形成多元参与、相互协作、合力推动的社会救助新格局，弘扬了社会新风，提升了“城市温度”。', '（五）社会大救助体系是构建“后扶贫时代”解决相对贫困长效机制的有力保障。今年是脱贫攻坚决战决胜年，社会救助工作在脱贫攻坚中承担着“兜底一批”的重要职能，社会大救助体系建设有助于各类救助政策与脱贫攻坚的有效衔接，是打赢脱贫攻坚战的现实需要。更为重要的是，我们着眼于落实十九届四中全会提出的“构建解决相对贫困长效机制”要求，把基本生活救助与专项救助相结合，社会救助与社会福利、社会保险相衔接，统筹各项资源，用足用好政策，通过建设智能的政策预判系统、完善主动发现救助机制等措施，彻底解决了救助谁、怎么救、救多少、救什么等关键性问题，构建起了解决相对贫困的长效机制。', '时间关系，相关情况就介绍到这。下一步，我们将对社会大救助的政策、体系、机制进一步完善提升，确保解决相对贫困的长效机制充分、持续发挥作用。有关内容的进一步解读可关注市民政局的后续报道，谢谢大家。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>141</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>我市持续优化营商环境对标全国先进务求更快更好</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860896/c57864923/content.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['（记者杨鸣宇）9月22日，全市“优化营商环境”系列新闻发布会第一场召开，市委常委、常务副市长、市持续深入优化营商环境和推进政府职能转变领导小组副组长刘长民介绍了全市优化营商环境总体情况，市政府办公室、市发改委、市行政审批服务局介绍了本系统主要经验做法。', '市委、市政府把持续深入优化营商环境列为重要改革事项，召开动员大会，主要领导亲自安排部署，积极营造快捷、高效、规范、透明的营商环境。', '建立健全工作机制，市级和各县市区都成立了领导小组，组建专班，各相关部门建立了以“一把手”为组长亲自抓、分管负责人靠上抓、业务科室具体抓的工作机制。开展对标学习专项行动，各指标牵头部门、责任部门按照国内领先、省内最优的标准确定本系统、本领域对标学习城市，到对标城市开展实地考察学习，对照先进逐条逐项分析研究，形成本部门营商环境优化提升方案。', '探索改革创新举措，各县市区、各相关部门在改革过程中探索和创新了一些好经验、好做法，大大提升了服务效能，我市在企业开办、办理建筑许可、获得电力等指标政策先进性上表现突出。下一步，全市上下将继续把优化营商环境作为“一号改革工程”，比学赶超全国最先进的做法，力争做到“凡是上级有要求的，要全部落实到位；凡是外地能办的，德州都能办；凡是外地能办好的，德州一定能办得更快更好”。', '今年以来，市政府办公室围绕全面提升企业便利化水平等4方面21项改革措施持续发力，着力打造手续最简、环节最少、成本最低、效率最高的营商环境。', '承权有序，放权到位，打造精简高效政务生态。按照“应放尽放、减无可减、放无可放”的原则全面放权，52项行政许可事项直接下放到县级实施，市直有关部门承接60项省级行政权力事项；明确分工，保障承权放权落实到位，合理部门之间的职责关系，加强事中事后监管。', '督导调研，对标学习，持续开创优化营商环境新局面。督导调研组、暗访调研组深入各县市区，开展了优化营商环境专题督导调研，目前各县市区发现问题已全部整改到位；组织各相关部门到对标城市进行实地考察学习，研究提出细化配套政策措施，形成工作台账，达标一项、销号一项。', '减证便民，提速增效，持续推进审批服务便民化。以服务企业质效，提高便民服务效率为出发点，乐陵市打造“企业会客厅”，党委政府主要负责人定期同企业家沟通交流；深入开展减证便民专项行动，凡是没有法律法规依据的证明一律取消，凡是能以电子证明替代纸质证明的一律替代，逐步实现凭居民身份证、统一社会信用代码“一证通办”。', '为建设一流营商环境，市发改委在跨境贸易、获得信贷等方面做了大量工作。在跨境贸易指标方面，优化进口大宗资源性商品“先验放后检测”检验监管方式，对进出境防疫物资等实现“零待时”验放，应用现场快速检测技术，推行退税标准化服务，明确退税业务时间标准，我市出口退税审批平均用时仅1.46天，退税速度继续保持全省第二位。', '在获得信贷方面，打造“首贷、主办行、信用贷款、无还本续贷”有序衔接的企业贷款全周期融资服务体系，引导全市金融机构加大对民营小微企业的信贷投放，普惠小微贷款余额241.97亿元，同比增长23.57%。在劳动力市场监管方面，推行“工会+法院”“工会+仲裁”的劳动人事争议解决模式，下放职称管理权限，开展阳光评审，疫情期间，推出用工服务队等活动，通过“减免缓返补保”惠企大礼包，促进企业复工复产。', '在招标投标和政府采购方面，开展电子化云交易，推出预付款制度，公布政府采购负面清单，规范政府采购各方主体行为，对信用良好供应商，免收政府采购项目投标保证金，推广使用电子营业执照，提高企业参加投标活动便利度。下一步，市发改委将继续以企业和群众为中心，打通“堵点”、破解“痛点”、攻克“难点”，着力提升市场主体对我市营商环境优化的获得感。', '市行政审批服务局围绕“开办企业、建筑许可、政务服务”3项重点指标，成立工作专班，全力推进改革落实。“企业开办”便利度大幅提升。企业开办时限全面压减，一般性企业开办仅需半日；在全省率先为市级新开办企业提供电子印章，全市7254家企业享受免费印章政策；优化整合高频民生服务事项，餐饮等行业纳入综合许可“一证化”改革范围。“建筑许可”审批显著提速。通过“减放并转调”，在事项、材料等方面实现了审批事项“极简办理”；通过创新容缺受理机制等，实现项目申报“即来即办”；项目运行实现“一网办理”，线上建成工程建设项目审批平台，线下建立帮办队伍，定期上门指导企业编制审批材料。', '政务服务群众获得感明显增强。今年，市行政审批服务局累计取消183个环节，减少3575个工作日；积极探索“一窗两模式”样本，实行“受审合一全程通、即办容缺马上好”服务模式；打造德州特色政务服务“好差评”体系，设置找茬窗口，畅通评价渠道。', '市行政审批服务局将加快转变行政审批服务模式，依托现代信息技术，运用智慧化的方式完成政务服务办理；在基层延伸上做好乡镇便民服务中心标准化建设，让更多企业群众享受改革红利。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>141</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>德州新闻网我市持续优化营商环境对标全国先进务求更快更好</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952759/c59814625/content.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['【德州新闻网】我市持续优化营商环境 对标全国先进 务求更快更好 - 德州市人民政府', '（记者杨鸣宇）9月22日，全市“优化营商环境”系列新闻发布会第一场召开，市委常委、常务副市长、市持续深入优化营商环境和推进政府职能转变领导小组副组长刘长民介绍了全市优化营商环境总体情况，市政府办公室、市发改委、市行政审批服务局介绍了本系统主要经验做法。', '市委、市政府把持续深入优化营商环境列为重要改革事项，召开动员大会，主要领导亲自安排部署，积极营造快捷、高效、规范、透明的营商环境。', '建立健全工作机制，市级和各县市区都成立了领导小组，组建专班，各相关部门建立了以“一把手”为组长亲自抓、分管负责人靠上抓、业务科室具体抓的工作机制。开展对标学习专项行动，各指标牵头部门、责任部门按照国内领先、省内最优的标准确定本系统、本领域对标学习城市，到对标城市开展实地考察学习，对照先进逐条逐项分析研究，形成本部门营商环境优化提升方案。', '探索改革创新举措，各县市区、各相关部门在改革过程中探索和创新了一些好经验、好做法，大大提升了服务效能，我市在企业开办、办理建筑许可、获得电力等指标政策先进性上表现突出。下一步，全市上下将继续把优化营商环境作为“一号改革工程”，比学赶超全国最先进的做法，力争做到“凡是上级有要求的，要全部落实到位；凡是外地能办的，德州都能办；凡是外地能办好的，德州一定能办得更快更好”。', '今年以来，市政府办公室围绕全面提升企业便利化水平等4方面21项改革措施持续发力，着力打造手续最简、环节最少、成本最低、效率最高的营商环境。', '承权有序，放权到位，打造精简高效政务生态。按照“应放尽放、减无可减、放无可放”的原则全面放权，52项行政许可事项直接下放到县级实施，市直有关部门承接60项省级行政权力事项；明确分工，保障承权放权落实到位，合理部门之间的职责关系，加强事中事后监管。', '督导调研，对标学习，持续开创优化营商环境新局面。督导调研组、暗访调研组深入各县市区，开展了优化营商环境专题督导调研，目前各县市区发现问题已全部整改到位；组织各相关部门到对标城市进行实地考察学习，研究提出细化配套政策措施，形成工作台账，达标一项、销号一项。', '减证便民，提速增效，持续推进审批服务便民化。以服务企业质效，提高便民服务效率为出发点，乐陵市打造“企业会客厅”，党委政府主要负责人定期同企业家沟通交流；深入开展减证便民专项行动，凡是没有法律法规依据的证明一律取消，凡是能以电子证明替代纸质证明的一律替代，逐步实现凭居民身份证、统一社会信用代码“一证通办”。', '为建设一流营商环境，市发改委在跨境贸易、获得信贷等方面做了大量工作。在跨境贸易指标方面，优化进口大宗资源性商品“先验放后检测”检验监管方式，对进出境防疫物资等实现“零待时”验放，应用现场快速检测技术，推行退税标准化服务，明确退税业务时间标准，我市出口退税审批平均用时仅1.46天，退税速度继续保持全省第二位。', '在获得信贷方面，打造“首贷、主办行、信用贷款、无还本续贷”有序衔接的企业贷款全周期融资服务体系，引导全市金融机构加大对民营小微企业的信贷投放，普惠小微贷款余额241.97亿元，同比增长23.57%。在劳动力市场监管方面，推行“工会+法院”“工会+仲裁”的劳动人事争议解决模式，下放职称管理权限，开展阳光评审，疫情期间，推出用工服务队等活动，通过“减免缓返补保”惠企大礼包，促进企业复工复产。', '在招标投标和政府采购方面，开展电子化云交易，推出预付款制度，公布政府采购负面清单，规范政府采购各方主体行为，对信用良好供应商，免收政府采购项目投标保证金，推广使用电子营业执照，提高企业参加投标活动便利度。下一步，市发改委将继续以企业和群众为中心，打通“堵点”、破解“痛点”、攻克“难点”，着力提升市场主体对我市营商环境优化的获得感。', '市行政审批服务局围绕“开办企业、建筑许可、政务服务”3项重点指标，成立工作专班，全力推进改革落实。“企业开办”便利度大幅提升。企业开办时限全面压减，一般性企业开办仅需半日；在全省率先为市级新开办企业提供电子印章，全市7254家企业享受免费印章政策；优化整合高频民生服务事项，餐饮等行业纳入综合许可“一证化”改革范围。“建筑许可”审批显著提速。通过“减放并转调”，在事项、材料等方面实现了审批事项“极简办理”；通过创新容缺受理机制等，实现项目申报“即来即办”；项目运行实现“一网办理”，线上建成工程建设项目审批平台，线下建立帮办队伍，定期上门指导企业编制审批材料。', '政务服务群众获得感明显增强。今年，市行政审批服务局累计取消183个环节，减少3575个工作日；积极探索“一窗两模式”样本，实行“受审合一全程通、即办容缺马上好”服务模式；打造德州特色政务服务“好差评”体系，设置找茬窗口，畅通评价渠道。', '市行政审批服务局将加快转变行政审批服务模式，依托现代信息技术，运用智慧化的方式完成政务服务办理；在基层延伸上做好乡镇便民服务中心标准化建设，让更多企业群众享受改革红利。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>141</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>年德州市优化营商环境系列新闻发布会</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c57874333/content.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['营商环境是一个地方政治生态、发展生态、社会生态的综合反映。今年以来，市委、市政府先后召开全市优化营商环境集中攻坚动员大会、全市优化营商环境推进会议，坚决贯彻落实中央决策部署和省委工作要求，持续深入优化营商环境工作取得显著成效。', '为全面系统介绍我市持续深入优化营商环境工作情况，市政府新闻办与市持续深入优化营商环境和推进政府职能转变领导小组办公室联合组织以“优化营商环境”为主题的系列新闻发布会，今天召开第一场，邀请市委常委、常务副市长，市持续深入优化营商环境和推进政府职能转变领导小组副组长刘长民先生，市政府副秘书长、市政府办公室主任，领导小组办公室主任穆修海先生，市发改委党组书记、主任，领导小组办公室主任邵清泽先生，市审批服务局党组书记、局长隋力女士出席发布会，向大家通报我市持续深入优化营商环境工作最新情况，介绍主要经验做法及取得的成果。参加今天发布会的有上级媒体驻德州记者站和市属主要新闻单位的记者朋友。', '今天的发布会共有四项议程：一是请刘长民先生介绍全市优化营商环境总体情况；二是请穆修海先生介绍市政府办公室在简政放权、推进政务服务优化方面的工作情况；三是请邵清泽先生介绍优化投资环境工作情况；四是请隋力女士介绍“开办企业、办理建筑许可、政务服务”方面重点工作改革推进情况。', '首先，我代表市委、市政府对各位媒体朋友一直以来对全市优化营商环境工作的关注和支持表示衷心的感谢！', '一是市委、市政府把持续深入优化营商环境列入重要议事日程，列为重要改革事项，专门召开动员大会，市委、市政府主要领导亲自安排部署，作为推动改革、发展、稳定的总抓手，加强组织领导，明确主体责任，真抓实干，积极营造快捷、高效、规范、透明的营商环境。', '二是建立健全工作机制。市级和各县（市、区）都成立了领导小组，组建了由政府办公室、发改局牵头的工作专班，市级有关部门（单位）都建立了以“一把手”为组长亲自抓、分管负责人靠上抓、业务科室具体抓的工作机制，扎实推进营商环境优化提升。', '三是开展对标学习专项行动。7月底开始，各指标牵头部门、责任部门按照国内领先、省内最优的标准确定本系统、本领域对标学习城市，利用一周的时间到对标城市开展实地考察学习，对照先进逐条逐项分析研究，形成本部门营商环境优化提升方案。目前，有关部门（单位）正在稳步推进指标优化提升行动，项目化推进各项工作。', '四是探索改革创新举措。各县（市、区）、市级有关部门（单位）在改革过程中探索和创新了一些好经验、好做法，大大提升了服务效能。我市在企业开办、办理建筑许可、获得电力、获得用水用气、纳税、政府采购和招标投标等指标政策先进性上表现突出。', '对照国内及省内先进城市，虽然我市优化营商环境工作取得了积极进展，但在肯定成绩的同时也要清醒的看到，我市营商环境优化工作还存在很大程度上的不足，接下来全市上下将继续把优化营商环境作为“一号改革工程”，比学赶超全国最先进的做法，“凡是上级有要求的，要全部落实到位，凡是外地能办的，德州都能办，凡是外地能办好的，德州一定能办得更快更好”。', '首先，我代表市政府办公室对各位媒体朋友一直以来对我们工作的关注和支持表示衷心的感谢！', '下面，我来介绍一下在持续深入优化营商环境和推进政府职能转变工作中市政府办公室牵头开展工作的相关情况。', '今年以来，德州市人民政府把优化营商环境作为“一号改革工程”，对标国际国内一流标准，在全面提升企业便利化水平、着力打通企业难点堵点痛点、精准提供便捷高效的政务服务、着力打造透明的政策环境四个方面21项改革措施上持续发力，着力打造手续最简、环节最少、成本最低、效率最高的营商环境。围绕21项改革措施，市政府办公室重点开展以下工作：', '（一）按照“应放尽放、减无可减、放无可放”的原则，全面放权。一是印发《德州市人民政府关于推进“市县同权”改革进一步扩大县级行政许可权限的通知》，采用直接下放的方式，对法律法规没有明确规定实施层级的52项行政许可事项直接下放到县级实施，对17项市、县共有行政许可事项，进一步赋予德城区行政许可权限实现“区县同权”；采用县审市办的方式，对法律法规规定不能下放和委托的31项行政许可事项实现“市县同权”；对99项行政许可事项，采取服务窗口前移至德城区的方式实现“市县同权”。二是印发《德州市人民政府关于深化相对集中许可权改革公布市级行政许可等事项划转清单的通知》，明确事项划转范围，除我市没有相关职责权限的事项，实现全部划转，并按照“一链办理”要求，将涉及的关联事项一并划转，确保事项划转到位。同时按照“三集中三到位”原则，要求政务服务事项进驻市政府服务大厅，目前18个部门693项事项通过进驻窗口的形式进驻，26个部门258项事项通过委托收件的形式进驻，基本实现了“应进必进”。三是印发《德州市人民政府关于贯彻落实省政府第333号文件承接省级下放行政权力事项的通知》，承接省级下放行政权力事项。市直有关部门承接60项省级行政权力事项，其中，直接承接5项，并“一步到位”同步下放至县（市、区）实施；与省级主管部门签订委托协议后承接55项。德州经济技术开发区管委会、德州高新技术产业开发区管委会分别结合各自开发区体制机制改革进展情况，分别承接省级行政权力事项51项、63项。四是积极稳妥推进德州经济技术开发区体制机制改革创新试点工作，印发《德州市人民政府关于公布德州经济技术开发区管委会行政权力事项清单的通知》，对经济技术开发区管委会实行“点菜单”式赋权，赋予其经济社会发展涉及14 个领域共计1217项行政权力事项，聚焦主责主业，激发发展活力，全力打造全市新旧动能转换引领区。', '（二）明确分工，加强培训，保障承权放权落实到位。一是印发了《德州市相对集中行政许可与监管协调互动暂行办法》，明确了审管互动中的会商、协同、信息交流、责任追究等制度问题。二是按照“进一步明晰审管职责边界”和“优化审批服务协调联动机制”的要求，合理界定市审批服务局、行业主管部门及相关执法机构之间的职责关系，促进协调联动，确定审管边界，高质高效开展审批监管工作。三是切实加强事中事后监管，对承接的省级行政权力事项，要求各部门要切实履行相关事项的管理职责，对依申请行政权力事项要逐项制定事中事后监管措施，采取“双随机、一公开”监管、重点监管、信用监管、“互联网+监管”等方式，提高监管效率，确保接得住、管得好。', '（一）督导调研，反馈整改，确保各项政策落实落地落细。8月4日至13日，市优化营商环境领导小组办公室组织3个督导调研组，深入各县（市、区），围绕深化“放管服”改革、优化营商环境重点工作，通过与各县（市、区）政府（管委会）分管负责人、考核指标牵头部门负责人员、一线工作人员、15项考核指标涉及的各类企业等进行“一对一”访谈、企业填写调查问卷等方式，开展了优化营商环境专题督导调研，发现问题72个；暗访调研组以个人名义在各县（市、区）政务服务中心办理具体业务，在办事过程中对涉及政务服务环境、开办企业、办理建筑许可、登记财产、办税等事项发现问题95个。领导小组办公室在8月19日将督导调研中发现的具体问题反馈至各县（市、区）党委、政府主要负责同志，截止8月25日各县（市、区）已全部整改到位，切实解决企业群众面临的难点堵点，提升企业群众满意度。', '（二）对照问题，寻找短板，确保对标学习高标定位高点起步。市领导小组办公室按照市委、市政府关于优化营商环境工作部署，坚持需求导向、问题导向和目标导向，8月3日至 10日组织各指标牵头部门、责任部门到对标城市进行实地考察学习，特别是学习创新举措、协同配合机制等，要求各部门单位对照先进逐条逐项分析研究，找准差距、定好目标，形成本部门营商环境优化提升方案并结合工作实际，研究提出细化配套政策措施，形成工作台账，达标一项、销号一项，目前，共梳理出243条基本目标，制定500余条整改举措，确保本领域优化营商环境工作达到省内最优。', '德城区在全区基层服务站所（含镇（街）便民服务中心、社区党群服务中心）推行“沙漏工作法”，工作人员审核好材料后，按下计时键，15分钟内未办结的居民可不再等待，事项办结后由帮办代办员送往群众家中或邮寄直达，让群众不再跑腿，节省群众办事时间。陵城区推出“一链办理”，将115项高频民生服务事项的办理条件、申请要件及办理流程进行优化整合，变“串联”为“并联”，解决了审批事项互为前置、群众多次跑腿的难题。乐陵市积极打造“企业会客厅”。党委、政府主要负责同志每周定期在“企业会客厅”，与企业家面对面沟通交流，了解企业发展中出现的问题、发展规划及意见建议。武城县在全省率先探索“一业一证”行业综合许可改革，在餐饮、便利店等20个行业将不同准入、准营许可整合到一张行业综合许可证上，重塑审批流程，破解准入不准营难题，确保市场主体扩量提质。', '（二）行“简约”之道，以删繁就简、便民利企为基本遵循，深入开展“减证便民”专项行动。', '一是对市县两级政府部门权责清单中，所有依相对人申请办理的其他行政权力事项和公共服务事项，在实施中存在的以备案、登记、注册、目录、年检、监制、认定、认证、专项计划等形式变相设置、实施的审批和许可进行清理整治。二是凡是没有法律法规依据的证明一律取消，凡是能以电子证明替代纸质证明的一律替代，凡是符合告知承诺制规定的一律告知承诺办理，全面推广电子证照、电子印章、电子档案应用，逐步实现凭居民身份证、凭统一社会信用代码“一证通办”，不需再提供由政府机关产生的其他相关证明材料。', '下一步，市政府办公室将继续攻坚克难，奋力进取，真抓实干，进一步深化简政放权，加快流程再造，为全市营商环境优化提升作出新的更大贡献。同时也对各位媒体朋友们一直以来的关心支持表示感谢，希望大家继续加强宣传和报道，提升我们政策措施的影响力和公众知晓度，同时也对我们工作加以监督指导，推动我市营商环境再上新台阶。', '各位媒体朋友们好，首先感谢大家长期以来对德州市投资环境工作的理解、持续关注和大力支持。建设一流营商环境，离不开我市各职能部门的共同努力。下面就我市跨境贸易、获得信贷、劳动力市场监管、政府采购、招标投标方面的有关改革情况向大家作介绍。', '在跨境贸易指标方面，优化进口大宗资源性商品“先验放后检测”检验监管方式。推广“两步申报”“提前申报”“一站检验”“随到随检”等改革措施，设立“快速通关绿色通道”，对进出境防疫物资等实现“零待时”验放。进境水果现场检疫未发现检疫性有害生物或疑似检疫性有害生物的，实施“即验即放”。应用现场快速检测技术，进一步缩短检验检疫周期。全面推行退税标准化服务，对退税业务受理、审核、审批等环节，明确统一时间标准，我市“出口退税审批平均用时”仅1.46天，退税速度继续保持全省第二位。在疫情期间推出了17条促进贸易畅通的措施，支持跨境电商等外贸新业态发展。', '在获得信贷方面，强化企业贷款支持，打造“首贷、主办行、信用贷款、无还本续贷”有序衔接的企业贷款“全周期”融资服务体系，力争覆盖企业不同阶段多样化融资需求。持续调整优化信贷结构，引导全市金融机构加大对民营小微企业的信贷投放。普惠小微贷款余额241.97亿元，同比增长23.57%，高于各项贷款增速12.23个百分点。疫情期间，人民银行德州市中心支行组织金融机构全面对接民营和小微企业融资需求，设立信贷审批快速通道，支持疫情防控物资生产和企业复工复产。', '在劳动力市场监管方面，优化劳动力市场服务，组织开展了创建和谐劳动关系千家企业“巡回大讲堂”系列活动。推行“工会+法院”“工会+仲裁”的劳动人事争议解决模式，加强诉调、裁调衔接，进一步促进和谐劳动关系构建和社会稳定。下放职称管理权限，开展阳光评审，激发专业技术人才钻研技术的积极性和创造性。疫情期间，推出用工服务队、基层招聘公益性岗位、“千企万岗网络招聘会”“线上春风行动”等活动，保障重点群体就业和企业用工需求。通过“减免缓返补保”惠企大礼包，给予企业有力的政策支持和保障，促进企业复工复产。', '在招标投标和政府采购方面，通过远程解密方式开展电子化“云交易”，推行常态化“不见面开标”模式，实现公共资源交易全流程电子化。推出“预付款”制度，明确预付款最低比例和支付最长期限。公布政府采购负面清单，规范政府采购各方主体的行为。对信用良好的供应商，免收政府采购项目投标保证金，丰富建设工程项目保证金缴纳方式，投标人可自行选择以投标保证金方式或电子保函方式递交。在招投标领域推广使用电子营业执照，提高企业参加投标活动便利度。疫情期间，开启政府采购绿色通道，投诉供应商可通过邮寄方式，向采购项目所属财政部门发出投诉书。', '优化营商环境是一项系统性工程，只有进行时没有完成时，需要持续推动。下一步，德州市发展改革委将会同相关部门继续以企业和群众为中心，打通“堵点”、破解“痛点”、攻克“难点”，着力提升市场主体对我市营商环境优化的获得感。', '首先感谢各界朋友对政务服务工作的关注，也感谢媒体人在推进营商环境提升宣传中的辛苦付出。全市优化营商环境集中攻坚动员大会召开后，我们积极对标国内最高标准，紧紧抓住重点领域和关键环节，持续自我加压，全局上下围绕“开办企业、建筑许可、政务服务”三项重点指标，分别成立工作专班，挂图作战，全力推进改革落实。下面我就近期这三项重点工作的改革推进情况向大家简要介绍。', '1.“全覆盖”，打造企业全生命周期审批服务。企业开办时限全面压减。“一次网上申报、两个环节办结”成为常态，一般性企业开办仅需半日拿证，比省里要求提速一倍。针对“高层次人才”、“新旧动能转换”、“防疫物资”等开办企业，开通快速联办专线，登记过程不超过30分钟。本月初我们又开发设置了“智慧政务服务机”，个体工商户、自然人有限公司、个人独资企业实现非人工干预的“秒批秒办，即时拿证”。企业注销实施简易化改革。聚焦企业注销中的“难点”“痛点”“堵点”，在保障市场交易秩序和交易安全的基础上，通过优化注销流程、提供在线办理渠道和精简报送资料等举措，强化部门信息共享和业务协同，增强企业办事的透明度和可预期性，促进企业快进快出的“新陈代谢”、结构优化。', '2.“零成本”，激发市场主体创业活力。不断丰富企业开办大礼包，新开办企业除能够免费领取四枚光敏印章、发票、税控设备（含一年服务费）外，还在全省率先为市级新开办企业提供电子印章及一年服务费，让企业放心经营。目前，目前，全市7254家企业享受免费印章政策，合计减免印章刻制费用101万元；923家企业享受免费税控设备（含首年服务费）政策，合计减免费用近43万元。1-8月份全市新开办企业23420家，同比增长21.90%，“双创”活力得到有效激发。', '3.“一链办”，兑现企业群众眼里“一件事”。将原来分散在不同部门的审批事项进行细致梳理，将高频民生服务事项的办理条件、申请要件及办理流程进行优化整合，推出市级34项、县级59项、个人事项62项主题式审批服务，编写“一链办理”事项指南，打通事项办理链条，变“串联审批”为“并联审批”，变“一事一流程”为“多事一流程”。同时，在“一链办理”基础上服务再升级，选取了餐饮、食品销售、美容等行业纳入行业综合许可“一证化”改革范围，把“多个证、多个事项办理”创新为办“一件事、一个证”，群众到一个窗口、交一套材料、走一组流程、填一张表单，就可领取一张载明相关行政许可信息的综合许可证。截至9月17日，我市共发放1502张行业综合许可证，全省排名第二；覆盖20个试点行业，占试点行业总数的100%。夏津县推出6大类31项“一链办理”事项，直接下沉到乡镇便民大厅及社区服务中心受理。', '4.“就近办”，家门口实现企业开办。创新推出“全域通办”“省内通办”等跨地服务，对接济南、淄博、泰安等7个地市局，签订“省会经济圈企业开办联动机制框架协议”，联通全市13县市区，统一受理标准，投资人家门口即可完成企业开办全过程，无差别享受专业代办服务。打造“15分钟”企业开办服务圈。发挥银行金融、科技、线上、安全、渠道、服务六大优势，推出“智慧政务，政银合作”，在银行网点、乡镇街道便民中心设置了166处“开办服务点”，将网点升级成群众身边的“微型”政务服务大厅，实现政务服务就近能办、多点可办，随时快办、立等可取。平原县还与邮政公司签订协议，在66个邮局建立“开办服务点”，真正将企业开办推向群众身边。', '1.重塑流程，审批事项实现“极简办理”。对建筑许可涉及事项，通过“减放并转调”实现精简：在减事项上，工程建设项目审批事项数量从112项精简为74项；在减材料上，通过制定建设项目“一张表单”，将21个原有单项表单中的174条基本信息整合为20条，压减率88%；在减时间上，再次压减时限151个工作日，如结合民用建筑修建防空地下室、防空地下室易地建设审批等6个人防高频事项从5个工作日压缩到1个工作日，做到全省最短。同时，大力开展优化简易低风险工程项目审批提速。简易低风险项目是多数企业扩建升级的常见审批项目，是我们今年改革的重中之重。之前此类小型项目从拿地到开工，再到施工、验收，几乎要跑完和大型项目一样的流程，“束缚”了企业投资生产的“手脚”。我们印发了《德州市优化社会投资简易低风险工程建设项目审批服务的实施方案》，将建设项目备案申请、建设工程规划许可申报、市政公用设施接入报装申请同步受理，精简环评、消防、人防手续，取消强制监理、市政公用设施供水供热供气供电接入服务报装环节，免费实施电力管线接入。通过以上举措，审批时限由原来45个工作日压缩到12个工作日，审批环节从原来5个压缩到2个，申请表单从原来20张表单压缩到2张表单，彻底为企业“松绑”。', '2.创新机制，项目申报实现“即来即办”。一是创新容缺受理机制。梳理出8项全过程告知承诺制审批事项和26项非核心要件告知承诺制审批事项，工程规划和施工许可全流程实行告知承诺。目前全市共有300多家企业享受到了告知承诺制审批带来的优惠便利政策，累计容缺材料400多份，为企业节省业务办理时间40余天。二是创新“绿色通行证”机制。建设单位取得土地预审或者缴纳土地保证金后，我局牵头组织相关部门和水电气暖各专营单位召开联审联办会议，提前介入指导，开展各类评估，组织联合踏勘，以联审会议纪要作为“绿色通行证”，各相关部门据此开展审批。待项目单位拿到正式用地手续后，“见证换证”，直接办理施工许可。有研半导体集成电路大尺寸硅材料生产基地项目等多个省级重点项目实现“拿地即开工”。三是创新多图联审机制。建成启用施工图数字化联审系统，对建设项目实行规划设计图、建筑工程施工图、消防设计图、人防工程施工图、防雷装置设计施工图等图纸联合审查，一次性网上报审。同时，企业可通过数字化审图系统提交电子版图纸，审批人员5分钟就可实现施工图的受理转办，解决了企业以前“抱着一堆图纸多地跑”的难题。今年已有634个项目实现数字化联合审图，一般工业项目审查均不超过5个工作日，合计为企业节约成本近10万元。四是创新项目策划生成机制。为了解决“规划自成体系、实施相互打架”的难题，牵头开发“多规合一”建设项目策划生成系统，印发了《工程建设项目策划生成管理办法》。目前系统已开始使用，省工程建设项目审批监管系统6-9月份均有我市项目策划生成数据，位居全省第二。五是创新联合验收机制。在全省率先出台《全市工程建设项目竣工联合验收实施办法》，将“多次验收”整合为“一次过关”，将“多次测绘”合并为“多测合一”，变原来“分头前往、各自审查”为“信息共享、集中验收、限时办结、统一确认”。今年全市已完成瑞发混凝土、盛奥数控等80余个项目的联合验收，33个项目被省工改监管系统认定，项目数位居全省第一。临邑县还创新“验收即拿证”模式，将工程建设项目从竣工验收申请到办理不动产手续全链条业务进行深度融合，华瑞驰达电动车等项目3个工作日完成全部验收事项及不动产登记。', '3.精准服务，项目运行实现“一网办理”。线上，建成横向覆盖26个部门、纵向贯通13个区县的工程建设项目审批平台，51个审批事项全部纳入平台运行，做到清单外无审批、流程外无审批、平台外无审批。统筹整合各类规划11个，叠加图层38个，实现发展目标、空间坐标、用地指标“三标衔接”，形成我市“一张蓝图”。目前，已通过系统办理电子化施工许可460余件，1707个工程建设项目在系统中运行，排名全省第一。同时，建成“项目材料库、电子证照库、中介成果库、电子身份识别库”等审批数据库，共享复用批文证照 2万余件，表单要素自动获取率达80%，真正发挥了大数据作用。线下，我们市级大厅建立由10名业务骨干组成的专业、专职、高效帮办代办队伍，每个项目明确1名帮办代办专员，线上建立“阳光客厅微信交流群”，为企业24小时答疑解惑，线下定期上门指导企业编制审批材料，跟踪解决难题。平原县按照“一个代办项目、一套服务手册、一个最优流程、一个推进团队”的工作模式，创新推出“主辅分离审批”模式，打造了项目管家，平原碧桂园项目仅用时1天办结发9证，26天完成从项目立项到施工许可核发。', '1.以工匠精神打磨办事程序。我们在优化流程过程中始终做到“三个一律”：凡没有法律、法规、规章依据的审批材料，一律不要；凡电子证照库能共享应用的，一律不要；凡事项环节互为前置的，一律取消。在去年环节、材料、时限减少一半的基础上，今年又减少一半，全局累计取消183个环节、446份材料，减少3575个工作日。梳理发布预约办、网上办、就近办、指尖办、一次办、承诺办等“九办”清单，实现事项规范化、标准化管理。', '2.积极探索“一窗两模式”样本。受理审批前对事项进行筛分，对不涉及核查、评估评审等环节的事项，实行“受审合一全程通、即办容缺马上好”的服务模式；对主题式“一链办理”事项、省市县通办事项、涉及核查、评估评审等特殊环节的事项，实行“前台综合受理、后台分类审批、统一窗口出件”的服务模式。双轨协同的“一窗受理”改革使即办件比例从40%提升到70%，材料补齐补正率降低50%，被省政府作为典型推广。临邑县成立“颖颖帮办工作室”“永康帮办工作室”等实名帮办工作室，配备多名“全科人才”参与审批，极大提高审批效率。', '3.积极推广电子证照应用。在全省率先推进市县行政审批服务局56个审批专用电子印章上线，3868个行政许可事项全部实现电子证照与纸质证照同步制发、同步亮证、同步应用。电子证照库中40154个历史证照数据补签电子签章。近期，又上线了政务区块链平台，首批上线621种电子证照，提供查询、亮证、下载服务，工程规划许可证、施工许可证等作为首批“区块链+电子证照”应用场景在市县两级同步实现。与市公共资源交易中心联合发布了《关于在招投标领域推广使用营业执照的通告》，实现了电子营业执照跨领域的推广应用。', '4.打造惠企惠民政策服务“中央厨房”。在“山东省政务服务平台德州站”设立德州市惠企惠民政策集成专区，目前集成1300余条政策，企业群众可根据要素所需，精准匹配查找政策。专区同时公开政策服务指南，指南内容涵盖了企业群众最关心的咨询电话、限制条件、办事流程、申报材料、执行科室等要素，方便企业、群众跟进了解政策落实执行情况。', '5.提升“一网通办”功能效率。组织开展市、县、乡、村四级政务服务事项标准化梳理，在网办深度、主题分类、子项拆分等方面做到同一事项全市统一，目前市县两级依申请政务服务事项12498项，可全程网办事项占比95%。重点开展全市网上政务服务能力提升工作，围绕办事指南准确度、服务事项覆盖度、服务方式完备度、在线办理成熟度、在线服务成效度五个方面提升水平，以“智能化、移动化、一体化”为标志“一网通办”新模式加速形成。', '6.打造德州特色政务服务“好差评”体系。围绕“用户思维、客户体验”的服务定位，设置找茬窗口，推行“只说YSE不说NO”窗口无否决权制度。畅通评价渠道，平板电脑、二维码小程序、意见评价箱等评价设施在各级大厅窗口100%全覆盖。在全省率先采用AI智能人工语音回访技术开展政务服务“好差评”电话回访测评，并对回访结果进行数据分析，强化差评整改，提升有效评价率。', '营商环境建设永远在路上。我们将继续坚持“效率优先、体验至上”服务理念，加快推进行政审批服务模式转变。一是在办事渠道上，依托人工智能、区块链、移动互联网等现代信息技术，更多地运用手机、自助服务终端等智慧化的方式完成政务服务办理。二是在办事方式上，能够更多地采取“信任在先、审批在后”、“宽进严管”的方式，扩大“容缺承诺办理”“政务秒批”“无感智办”“双向邮寄”范围，实现从“最多跑一次”到“一次不用跑”的转变。三是在基层延伸上，做好乡镇便民服务中心标准化建设，对事项进驻不到位、链条不完善、多次跑等短板持续调度，让更多企业群众享受改革红利。', '刚才，刘长民先生介绍了全市优化营商环境总体情况，三位部门主要负责人分别介绍了本单位本系统持续深入优化营商环境工作情况，请各媒体做好宣传报道。', '营商环境是衡量一个城市生产力、竞争力、吸引力的重要标尺，也是扩大对外开放的“软实力”，是推动高质量发展的“硬支撑”。营商环境没有最好，只有更好。优化营商环境工作只有起点，没有终点，需要社会各界广泛参与。请各媒体持续关注，广泛宣传，为我市持续深入优化营商环境工作营造良好舆论氛围。如需进一步了解情况，请与市优化营商环境专班联系，电话0534-2288223。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>141</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>年德州市优化营商环境系列新闻发布会第四场</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c58032604/content.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['营商环境是一个地方政治生态、发展生态、社会生态的综合反映。今年以来，市委、市政府先后召开全市优化营商环境集中攻坚动员大会、全市优化营商环境推进会议，坚决贯彻落实中央决策部署和省委工作要求，持续深入优化营商环境工作取得显著成效。', '为全面系统介绍我市持续深入优化营商环境工作情况，市政府新闻办与市持续深入优化营商环境和推进政府职能转变领导小组办公室联合组织以“优化营商环境”为主题的系列新闻发布会，今天召开第四场法制人文监管环境专场，邀请市法院党组成员、副院长李文铎先生，市统计局党组书记、局长张千华先生，市市场监管局党组书记、局长高秀鹏先生，市地方金融监管局党组成员、副局长刘秀岭先生出席发布会，向大家通报我市持续深入优化营商环境工作最新情况，介绍主要经验做法及取得的成果。参加今天发布会的有上级媒体驻德州记者站和市属主要新闻单位的记者朋友。', '今天的发布会共有四项议程：一是请李文铎先生介绍“办理破产、执行合同”方面的工作情况；二是请张千华先生介绍“包容普惠创新”方面的工作情况；三是请高秀鹏先生介绍“市场监管、知识产权创造保护和运用”方面的工作情况；四是请刘秀岭先生介绍“保护中小投资者”方面的工作情况。', '德州法院高度重视优化营商环境工作，认真贯彻落实中央关于优化营商环境重大决策部署和省委、市委、上级法院工作要求，进一步提高政治站位，强化责任担当，充分发挥审判职能作用，依法维护平等有序、充满活力的法治化营商环境，促进全市经济高质量发展，为加快建设新时代现代化新德州提供坚强有力的司法服务和司法保障。', '一是成立工作专班，加强组织领导。中院党组从讲政治的高度全力推进优化营商环境工作，党组会议多次专题研究、重点调度。成立由院长任组长、各党组成员为成员的优化营商环境工作领导小组。设立专门办公室，由党组成员、副院长兼任办公室主任，统筹协调推进优化营商环境工作。专门组建“办理破产”和“执行合同”两个工作组，具体负责相关工作措施落实和测评指标的参评工作。', '二是完善规章制度，加强工作调度。出台《德州市中级人民法院关于持续深入优化营商环境的实施方案》，对照上级法院和市委工作要求，细化20条具体措施，明确责任人员和任务目标，限期完成工作任务。为持续深入优化营商环境，德州中院先后制定出台了27项涉及规范立、审、执全流程办案以及加强金融、破产、涉外等审判工作的制度措施，全面提升办案质效，进一步推进法治德州建设。7月7日，召开中院机关优化营商环境工作调度会，进一步细化措施，分项明确责任，完善工作台帐，强化监督指导。7月22日，中院以视频会议形式调度各基层法院优化营商环境工作，逐项调度、查找不足、限期整改。8月3日，召开全市法院优化法治营商环境视频会议，中院党组书记、院长孟祥刚同志出席会议并讲话。对“僵尸企业”处置、破产积案清理、优化法治营商环境工作进行再部署、再督导、再落实。', '三是聚焦重点工作，依法积极推进。中院建立优化营商环境重大敏感案件报告制度和2年以上涉企积案清理工作进度月报告制度，加强对涉及地方政府和重点企业纠纷案件、2年以上涉企积案、涉“历史遗留问题”企业案件和涉“僵尸企业”案件的督导，对重点案件，坚持分类施策、倒排工期、挂图作战，力争年底办结。为加快推进府院联动机制建设，中院正联合政府多部门制定《德州市人民政府 德州市中级人民法院关于建立府院联动机制的实施意见》，凝聚协作合力，共同攻坚克难，为优化全市营商环境提供有力的制度保障。', '四是坚持对标学习，提升工作水平。8月6日，中院党组成员、副院长李文铎带领全市法院优化营商环境业务骨干到东营中院现场考察学习。借鉴外地先进经验，起草了《德州市中级人民法院优化营商环境对标学习专项行动提升方案》，向德州市持续深入优化营商环境和推进政府职能转变领导小组办公室作了专项工作汇报，进一步完善具体措施，加大推进工作力度，促进全市法院优化营商环境工作水平再提升。', '五是组建专业队伍，提高测评成绩。中院针对“办理破产”和“执行合同”两项评价指标具体内容，分别选派政治素质高和业务能力强的法官组建两个专业化测评团队。相关业务庭主要负责人带队、全院法官配合参加营商环境测评，市公安局、司法局、自然资源局等营商环境评价配合单位均派人参加，健全完善参评工作长期协同配合机制，以实战状态做好营商环境测评的各项准备工作，力争取得优异成绩。', '六是开展专项执行行动，服务“六稳”“六保”。今年9月份，中院认真贯彻最高法院和省高院关于发挥执行职能、做好“六稳”工作落实“六保”任务专项执行行动部署要求，依照法律及司法解释规定，发布《关于开展“六稳”“六保”专项执行行动的公告》，优化法治营商环境，保护人民群众合法权益。要求凡在德州两级法院立案执行但仍未履行生效法律文书确定义务的被执行人，限于2020年10月31日前，自觉主动到执行法院报告财产并积极履行义务。无正当事由拒不报告财产、拒不履行义务的，将依法采取强制执行措施。自2020年9月下旬至2021年2月上旬，德州两级法院将加大对涉黑涉恶案件财产刑、职务犯罪财产刑、涉民生、涉民营企业权益保障等执行案件的执行力度，突出抓好法院查封土地使用权专项清理活动，严厉打击拒不履行生效裁判的失信被执行人，为扎实做好“六稳” “六保”各项工作提供强有力的司法服务和保障。', '为落实市委、市政府“重点工作攻坚年”任务要求，德州中院积极作为，以清理破产积案为抓手，以攻坚克难解决历史遗留问题为切入点，全市法院涉企积案清理、破产案件审理进入快车道。全市法院25件破产积案、共计93件破产未结案件，在摸清底数、查清症结的基础上，完善“一县一表”、“一案一策”工作台账。严格落实院领导包案制，93件未结破产案件全部由院庭长承办或担任审判长。强化工作督导，逐县逐案调度，实行周通报月调度制度，增强清理实效。强化业务指导，在充分保障债权人和债务人权益的情况下，缩短办案期限,推广适用简易审理程序，为破产积案清理提质增速。今年1-8月，长期未结破产积案25件中，已结7件，其中破产重整结案2件，破产清算结案5件，力争年底全部办结；全市93件未结破产案件，8月已结9件，其中重整3件，清算6件。据不完全统计，今年1-8月，通过破产积案清理工作释放闲置土地面积635829.52平方米，化解不良资产7.36亿元，安置职工942人。', '全市法院认真落实《德州市“僵尸企业”处置工作实施方案》要求，深入推进僵尸企业破产清理工作，完善常态化、法治化、市场化的市场主体救治和退出机制。对全市涉僵尸企业12件破产案件建立专项工作台账，逐案督办，并通知基层法院主动对接发改委等有关部门，摸清僵尸企业处置现状并书面报告。对涉僵尸企业破产案件因企施策，一案一专班，强化流程节点控制，限期办结。截至今年8月底，12家僵尸企业破产案件，2家已终结破产程序，1家进入重整计划执行阶段；另有4家已完成资产处置，现处于财产分配阶段；其余5家正在有序推进，力争如期完成僵尸企业出清任务。', '中院党组高度重视“历史遗留问题”处理工作，召开专题党组会议，对照《历史遗留重点问题攻坚台账》，针对涉及法院工作的13项历史遗留重点工作，逐项研究制定解决方案，统筹推进历史遗留问题解决。强化领导，明确责任，根据党组成员工作分工将13项历史遗留重点问题全部分解落实到具体院领导，由院领导负责、有关职能部门人员参加组成工作专班。建立一案一包案领导、一案一台帐、一案一专班、定期研究会商工作机制，压实责任，销号管理。坚持依法精准施策，分别制定详细推进方案。坚持党委领导、政府支持合力攻坚，健全各项工作协作机制。坚持依法保障当事人权益与解决问题提高效率并重，积极推进积案化解。强化专项督导，坚持周通报、月调度，严把办案时限。先后多次召开涉历史遗留重点问题攻坚任务调度会，党组书记、院长孟祥刚同志逐案听取汇报，对重大疑难问题逐项研究制定推进措施，强力督办、限时完成，切实提高工作效率，加快积案办理进度。涉及德州监狱旧址及袁桥农场土地租赁合同的两起案件，法院依法及时开庭、及时研究、及时宣判，此两件历史问题已经办结。涉及鲁王化工、宏力集团、大坝建材破产积案计划十月份召开第二次债权人会议，尽快办结。德州恒丰棉纺织厂破产清算案已立案受理，将依法适用简易程序，力争年底办结。其他涉法院历史遗留重点任务正在依法积极稳妥推进之中。', '中院坚持优化营商环境与执法办案融合推进，进一步转理念、转模式、转作风，为涉企案件依法提供公正高效的司法保障。今年1-8月，德州中院结案率87.65%，全省中院第1名；结收比93.87%，全省中院第4名；结案均衡度0.74，全省中院第2名；平均办案天数46.58天，全省中院第5名；二审发改率8.4%，全省中院第3名，主要审判质效指标排名持续走在全省中院前列，德州法院以优质高效的审判工作成果助力营商环境优化。', '德州中院坚持优化营商环境与智慧法院建设协调推进，线上线下同步，通过信息化深度运用，为涉企案件提供更便利、更快捷的优质司法服务。全市法院一体推进全流程网上办公、办案、“两个一站式”建设，通过24小时自助法院、网上立案、网上交费、退费、网上开庭、网上送达等线上线下相结合，极大的方便当事人诉讼。疫情期间法院不停摆，在全省率先建成刑事“云审判”系统，有力保障扫黑除恶工作顺利开展。7月16日，市中院孟祥刚院长通过“云审判”系统公开开庭、当庭宣判。院庭长带头参加全省商事审判百场“云庭审”活动。初步统计，今年以来互联网开庭1663件，当事人足不出户，在线立案、在线缴费、在线开庭、裁判文书电子送达等已成为新常态，极大的方便群众诉讼、减少诉讼成本、提高诉讼效率，也快速解决了大量涉企纠纷，为促进“六稳”“六保”做出了法院贡献。', '今年以来，德州法院在推进重点工作攻坚和优化营商环境工作中，多项重点工作和典型案件被各大媒体宣传报道，借此机会，向长期以来关心关注法院工作的媒体朋友表示感谢！下一步，我们将紧紧围绕市委决策部署和全市发展大局，以更高的站位、更大的力度、更实的举措，充分发挥司法职能，持续推进优化营商环境工作，为加快新时代现代化新德州建设贡献法院力量。', '首先我代表德州市统计局对各位媒体朋友一直以来对我们工作的关注和支持表示衷心的感谢！', '按照全市优化营商环境工作安排，市统计局作为第18项一级指标“包容普惠创新”的牵头部门。这项指标覆盖面广，涉及部门众多，主要有创新创业、人才流动、对外开放、基本公共服务、生态环保和综合交通等6大方面内容，涉及46个相关职能部门，是营商环境工作中涉及部门最多、内容最丰富的一个指标。为此，市统计局高度重视，按照市委、市政府的要求，组织协调各相关职能部门积极开展2020年各项工作。一是高度重视、精心组织。今年来通过协调会、座谈会等各种形式组织协调相关职能部门推进工作，充分发挥了调度、协调、联系的总联络人作用。二是合理分工、责任明确。按照工作职责，将上述6项内容分别明确一个牵头组织单位，确保工作顺利有序开展。三是积极协调、保障充分。通过组织相关职能部门赴济南市实地学习、对标先进等多种方式，积极推动各项工作的优化提升。下面我详细介绍下这6个方面的具体工作措施及成效。', '（一）加强科技合作。连续四年成功举办“中国·德州京津冀鲁技术交易大会”，邀请来自京津冀鲁936家高校院所、科研机构、3200余位专家教授参会，累计签约科技成果转化项目1109项，落地转化747项。目前，全市与大院大所建立合作关系的企业数量达到1381家。', '（二）强化科技创新平台建设。发挥清华大学山东化工研究院科研优势，争创山东省医药化工创新创业共同体。加快推动德州中关村智造大街创新中心、山东中关村前沿技术推广应用中心等平台落地运营。启动企业研究生工作站建设，与高校院所联合共建开展产学研合作。目前，全市市级以上科技创新平台总数达到1304家。', '（三）加强高新技术企业培育。全市高新技术企业数量达到245家。全市高新技术产业产值占规模以上工业产值比重43.08%，减免高新技术企业所得税额8亿元，享受加计扣除企业546家，加计扣除额22.07亿元。', '（四）为科技成果转移转化提供科技金融支撑。充分发挥政府“黄金信用”的作用，与中国银行等22家银行机构签订科技成果转化贷款风险补偿合作协议，积极开展科技成果转化贷款工作，累计为64家科技型中小企业发放科技成果转化贷款100笔，总计4.47亿元。', '9月18日，市委、市政府印发出台《关于实施“人才兴德”行动建设新时代区域性人才聚集高地的若干措施》，在原人才政策“黄金30条”的基础上，从六个方面提出40条创新力度大、含金量高的政策措施，加快建设新时代区域性人才聚集高地。', '主要内容，一是完善人才支持体系。提出“一事一议”支持顶尖人才、强化领军人才项目支持、深化“假日专家”工程等8个方面的政策措施。二是吸引留住高校毕业生。提出加强企业大学生激励、引进在校大学生、强化大学生创业扶持等8个方面的政策措施。三是健全人才支撑平台。提出搭建引才活动平台、完善线上对接招聘平台、打造高端人才承载平台等7个方面的政策措施。四是提升市场配置能力。提出拓展市场化引才路径、支持人力资源服务业发展等4个方面的政策措施。五是优化创新创业环境。提出深化高层次人才服务绿色通道建设、提升“德州惠才卡”服务等措施，并对人才编制保障、签证居留、安居保障、就业落户、配偶安置等事项进行了整体优化。六是加强组织领导保障。从健全人才荣誉制度、加大资金保障力度、强化政策落实督办等方面，进一步强化了工作推进和政策落地的组织支撑和机制保障。', '一是推进“放管服”改革，打造外商投资高地。疫情以来，不断完善外资企业服务大使制度，为每一家外资企业配备了一名服务大使，为外商投资企业提供“管家式”“店小二”服务。今年1-7月，新备案外商投资企业14家，实际使用外资1.02亿美元，同比增长50.2%，增幅位居全省第7位。', '二是优化外贸企业发展环境，稳定外贸发展基本盘。将对外贸易经营者备案登记权限下放到县级商务部门，使企业获得自营进出口权期限大幅缩短。出台疫情防控期间特殊扶持政策，及时拨付市级外经贸专项资金，对已付费报名的外贸企业参加境外展会，因疫情影响而未参展的，仍按原标准进行补助。为1084家外贸企业梳理发放了《应对疫情支持企业发展政策明白纸》。1-7月份，全市外贸出口实现121.8亿元，同比增长3.8%，增幅位居全省第6位。', '三是积极稳妥走出去，全面融入“一带一路”建设。加强双边经贸合作，全力拓展对外开放新空间。截至目前，全市在“一带一路”沿线国家累计设立境外投资企业和机构42家，涉及俄罗斯等29个国家。', '基本公共服务主要涉及全市医疗、教育、养老、文化四项内容，今年以来，全市基本公共服务基础设施建设、服务内容增项、服务质量提升等工作有序推进，群众满意度不断提升。', '公共医疗服务提档升级。与微医集团开展全方位战略合作，全力争取德州为“健共体”全国示范点，加快推进陵城区“健共体”样板工程建设。积极与哈特瑞姆心脏医生集团、海吉亚医疗集团等开展合作。全市民营医院76家，比“十二五”时期增加90%。', '公共教育服务均衡发展。在全市推行义务教育学校招生网上报名，让群众少跑腿；推行电脑随机派位分班，解决择师、择班的问题；对培训机构严格监管，杜绝超纲、超前、超量培训；织密校园安全防护网，确保师生安全；推行学校开门开放办学，增加社会、家长参与学校管理和教学的渠道；主动开展家校沟通，构建家校联合育人体系。', '公共养老服务多元推进。全方位推进全市养老服务体系建设工作，不断增加养老服务资源总量。加强农村养老服务能力，开展农村敬老院提升改造专项行动，提高护理型床位占比；加快公办养老机构“公建民营”改革，提升公办养老机构服务专业化水平；加快德州养老示范城项目建设，为全市养老工作提供业态示范作用；完善老年人社会福利制度，为全市80周岁以上老年人发放高龄津贴。', '公共文化服务水平显著提升。完善市县乡村四级公共文化服务阵地建设，加快推进市级“三馆”建设，着力提升县级两馆文化设施水平，扎实推进基层综合性文化服务中心建设。深入实施文化惠民工程，开展丰富多彩的群众文化活动，累计开展送演出下基层活动1600余场，全市共放映农村公益电影34216场。开展公共文化机构总分馆建设，推进德州市文化馆数字平台服务项目建设，深入推广数字服务，志愿服务模式，着力提升文化场馆服务效能。', '对外交通：全面提升高速公路等重大交通基础设施建设。目前，德上高速京台高速至G105段、京台高速德州（鲁冀界）至齐河段改扩建工程、济南绕城二环线西环等项目已开工建设；济南绕城二环线北环、京台高速齐河至济南段改扩建工程、德单（单县）高速德州至高唐段等项目正开展前期工作；德高（高青）高速临邑至武城段项目已确定项目投资人，我市又将迎来新一轮高速公路建设高潮。', '对内交通：一是扎实做好日常管理维护。建立道路专业巡视方案，为道路管养工作开展提供第一手资料。二是采取多种工艺进行道路维护。对德政路、纬二路、纬三路和东方红路（岔河桥西至德兴路）采用精罩面的新型工艺做法进行的维护维修。针对市区路口车辙严重的现状，采用泡沫沥青冷再生工艺对天衢广川路口、长河路口、康博路口、三八康博路口、太阳湖路口进行维护维修。三是多种形式做好防污除尘工作。施工期间，进行精细化科学管理，加大防尘降尘的整治力度，严格按照环保相关规定进行施工作业。', '以上是“包容普惠创新”6项主要方面的工作措施以及成效，下一步市统计局将再接再厉，充分发挥牵头部门组织协调作用，对标省内、国内先进地市，继续深入推动各项提升工作的开展，为持续优化营商环境贡献力量。', '今天要向大家发布的是优化营商环境工作中由市场监管局牵头实施的两项内容——“双随机、一公开”监管和知识产权运用及保护工作。', '一、“双随机、一公开”监管情况。2015年8月，国务院要求在政府管理方式和规范市场执法中，全面推行监管过程中随机抽取检查对象，随机选派执法检查人员，抽查情况及查处结果及时向社会公开的“双随机、一公开”监管模式。市委、市政府对“双随机、一公开”工作高度重视，明确市场监管部门作为全市部门“双随机、一公开”工作牵头部门。近年来，我市各级市场监管部门将“双随机、一公开”监管作为持续深化“放管服”改革、推进我市营商环境建设，加强和规范事中事后监管的重要抓手，以监管方式创新助力我市经济高质量发展，取得了阶段性成效。', '（一）健全工作机制，确保“双随机、一公开”监管工作有效开展。以省政府工作平台为依托，建立检查事项清单、检查对象名录库和执法人员名录库，依照清单制定计划并实施抽查。工作中，本着“抽查事项全面，抽查比例科学，抽查任务适中，抽查流程规范”的原则制定实施方案，全程跟踪，动态推进，保障了“双随机、一公开”监管工作的有序开展。2020年度全市市场监管系统第一次“双随机、一公开”检查共抽取对2017、2018年连续两个年度未年报的企业、投资担保类企业、信用风险等级为E类的企业1607家，截至8月底工作已全部完成，公示率 100%。根据企业风险状况，全市系统第二次“双随机、一公开”抽查共抽取2020年新登记的注册企业、生活美容机构、风险分类为D类的企业等13类抽查对象4193户，目前，这项工作正在有序进行中。', '（二）创新监管思路，推动政府部门联合“双随机、一公开”监管向纵深发展。去年9月份，我市在全省率先印发《在市场监管领域全面推行部门联合“双随机、一公开”监管的实施方案》，建立了由市政府领导同志任总召集人的高规格联席会议；制定了“联席会议制度”和联合“双随机、一公开”监管实施细则，为这项工作提供了制度和机制保障。截至目前，各成员单位均制定了联合抽查计划，完成省抽查任务71家，市抽查任务6起，我市联合“双随机、一公开”监管工作正按计划稳步推进。', '（三）聚力优化营商环境，推进“双随机、一公开”监管常态化。为更好地落实全市优化营商环境集中攻坚动员大会精神，我们积极推动“双随机、一公开”工作与“互联网+监管”工作的深度融合，就“双随机、一公开”监管平台应用、“互联网+监管”清单认领和编制、行政行为数据归集等事项开展了集中培训。8月份，市政府召开“双随机、一公开”监管工作联席会议，就“双随机、一公开”监管常态化进行部署。为参评优化营商环境和“双随机、一公开”监管的常态化理清思路，打好基础。', '下一步，我们将努力推进“双随机、一公开”监管常态化。一是充分发挥联席会议作用，加大宣传力度，提高社会各界的认识程度。同时，对发现的违法违规现象，依法加大公示曝光力度，提高震慑效果。二是进一步探索建立风险分类监管机制。运用大数据手段，建立风险评估机制，实施差异化监管，减少对市场主体的不定向抽查，增加对高风险主体的定向抽查，通过加大抽查比例和抽查频次，及时发现和查处违法违规行为，提高监管的精准性。三是进一步强化抽查结果运用。加强涉企信息的归集应用，及时将“双随机”抽查结果信息录入公示系统向社会公示。将随机抽查结果与市场主体的社会信用挂钩，健全市场主体诚信档案、失信联合惩戒和“黑名单”制度，让失信者“一处违规、处处受限”。', '（一）坚持精准施策，着力重点突破。一是创新工作方式，区分产业类型开展专题培训，积极帮助企业挖掘技术创新点，提高知识产权创造质量。自今年6月起，围绕全市优势产业开展专利挖掘、质押融资、维权援助及PCT申请等内容的专题培训12期，培训1000余人，进一步提高了企业技术创新水平。二是强化知识产权保护，全面提高办案效率。通过实行“一人一案负责制”、建立知识产权案件办理“快速通道”等方式，大大压缩办案时间，实现一般行政处罚案件平均17个工作日办结，比要求的20个工作日还少3日，行政裁决案件实现60日内办结。全面开展网络知识产权案件在线办理，运用 “网上立案”制度，实现“数据多跑路，群众少跑腿”便民模式。三是扩大非诉纠纷解决机构覆盖面。成立中国（山东）知识产权维权援助中心德州中心，提高维权援助服务水平。建立了德州市知识产权纠纷人民调解委员会、德州仲裁委员会知识产权仲裁院，推动各县市区设立基层知识产权纠纷人民调解委员会，实现了基层知识产权纠纷人民调解委员会全覆盖，知识产权“大保护”工作机制逐步形成。四是提高知识产权运用效益。创新知识产权质押融资工作，通过建立联合办公机制、征集企业融资需求等方式推动知识产权质押融资，累计突破10亿元。建成德州市新旧动能转换专利库，共为16家企业匹配到137项专利。', '（二）完善政策体系，提高服务水平。出台了“春笋行动”及6个配套细则办法，构建起“1+6”的知识产权政策体系，激励技术创新。设立了中国知识产权远程教育山东省知识产权远程教育平台德州分站，强化知识产权人才培养。引进高端服务机构，与上海盛知华知识产权公司筹备建设绿色技术银行，与北京邦信阳专利商标代理有限公司等7家知识产权高端服务机构达成初步意向，同意在德设立分支机构，进一步提高知识产权服务水平。', '（三）强化协同配合，形成工作合力。充分发挥知识产权战略实施工作联席会议作用，建立重点工作调度通报制度，加强知识产权营商环境考核指标各相关部门信息交流，共同推进各项知识产权工作，确保知识产权营商环境考核各项任务目标落到实处。定期召开各部门联席会议，分类分档归集整理文字、影像等资料，做到各项考核指标有据可证、有痕可查。', '下一步，我们将继续创新工作思路，推动知识产权营商环境不断优化。一是对标先进，取长补短。积极走出去，学习国内先进地区的经验做法，及时取长补短。二是提高服务企业的水平。进一步树立服务意识，端正服务态度，优化办事服务流程，压缩办事实现，全面提高服务水平与企业满意度。三是加强政策宣传落实。全面梳理知识产权惠企惠民政策，加大政策宣传力度，将各项惠企惠民措施落到实处，真正让企业和专利权人受惠。同时，也恳请大家一如既往地关注、支持和监督我们的工作。', '大家好！按照全市“优化营商环境”工作安排，我将保护中小投资者指标有关工作情况介绍如下。', '保护中小投资者指标主要衡量在利益冲突情况下，中小投资者受法律保护的情况，以及在公司治理结构中的权利。市地方金融监管局牵头，市中级法院、司法局、行政审批局、市场监管局参与，共同负责该项指标有关工作。重点做了以下工作：', '一、建立机制，全力推动各项工作落地落实。一是联合市司法局、行政审批局和市场监管局出台《德州市保护中小投资者指标工作方案》，强化五项工作措施，做到五个提升。二是成立保护中小投资者指标专项小组。由市地方金融监管局主要负责同志任组长，各责任部门负责同志任副组长，统筹推进各项工作，总结创新做法，宣传典型案例。三是召开座谈会，建立工作台账。对6个二级指标落实责任主体、明确任务目标、确定完成时限，定期调度工作进展，确保各项工作扎实推进。', '二、综合施策，提升上市公司质量。一是全力支持配合证监系统加大对上市公司监管和现场检查力度，实现信息共享，有效防范各类风险隐患。二是通过到企业调研、召开座谈会、宣传上市公司典型案例、组织企业参加证监部门监管培训等形式，督促上市公司完善内生管控监督机制，严格遵守上市公司信息披露规则，履行信息披露义务，在加快产业转型、推动高质量发展方面带好头、尽好责。三是加强与山东证监局的沟通联系，及时了解、传达监管方面的新规定、新要求，推动上市公司质量不断提升。', '三、优化流程，提升中小投资者诉讼便利度。一是充分利用智慧法院建设成果，实行网上立案、完善网上缴费系统、推行“互联网+”送达、推进互联网庭审，畅通网上诉讼服务，努力实现当事人网上阅卷、网上材料提交，手机远程参与庭审、手写签字确认笔录，从而减少中小投资者诉累，节省诉讼成本和时间。二是提升审判质效，严格控制庭审次数及案件办理期限，缩短纠纷处理周期，妥善化解涉中小投资者纠纷。三是利用法院微信公众号等加强法制宣传，发布相关典型案例，引导中小投资者理性维权。', '四、完善体系，提升法律服务效能。一是通过加强12348法律咨询服务热线、市县乡村公共法律服务平台建设，在法治德州公众号、市司法局网站开设德州法律服务板块等措施，进一步畅通了中小投资者法律援助途径。二是在全省首创市级法律援助经济困难状况承诺制实施办法，率先发布公共法律服务产品目录，实现了菜单式供给、订单式服务，促进了中小投资者办理援助手续的便捷度。三是成立中小投资者权益保护法律服务顾问团，充分发挥全市律师职能作用，进一步优化营商环境，保护中小投资者合法权益。', '下一步，市地方金融监管局将认真贯彻落实市委、市政府工作部署，充分发挥保护中小投资者指标牵头协调职能，联合责任部门开展普法宣传，普及保护中小投资者法律知识，引导投资者增强法律意识，运用法律手段维护自身权益。同时，坚持以风险和问题为导向，支持配合证监部门加大对我市上市公司规范督导与检查力度，增强上市公司责任意识、诚信意识和风险意识，依法合规运作，促进上市公司持续健康发展，切实维护中小投资者合法权益。', '刚才，四位部门负责同志分别介绍了本单位本系统持续深入优化营商环境工作情况，请各媒体做好宣传报道。', '营商环境是衡量一个城市生产力、竞争力、吸引力的重要标尺，也是扩大对外开放的“软实力”，是推动高质量发展的“硬支撑”。营商环境没有最好，只有更好。优化营商环境工作只有起点，没有终点，需要社会各界广泛参与。请各媒体持续关注，广泛宣传，为我市持续深入优化营商环境工作营造良好舆论氛围。如需进一步了解情况，请与市优化营商环境专班联系，电话0534-2288223。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>141</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>全市重点工作攻坚年新闻发布会之财税金融改革攻坚第二场</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c54857287/content.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['大家上午好！很高兴有机会向大家通报我市金融工作开展情况，首先我代表德州市地方金融监督管理局向各位媒体朋友多年来对全市金融的支持和帮助表示衷心的感谢。下面，按照全市重点攻坚年工作安排，我将金融工作开展情况及下步工作安排介绍如下。', '（一）针对性做好疫情防控与企业复工复产金融服务工作。一是强化制度保障，疫情期间，市地方金融监管局会同发改、工信、人行、银保监等部门制定出台了《德州市强化金融支持企业复工生产和项目建设的通知》等多个文件，鼓励银行机构加大对重点企业支持力度，稳定企业信贷融资规模。截至4月末，全市新增人民币贷款160.07亿元，同比多增23.93亿元。二是推进疫情防控期间金融政策落实。为有针对性地做好疫情防控与企业复工、项目建设金融服务工作，2月18日—19日、3月4日—5日市地方金融监管局、市人行、银保监分局组成13个督导调研组两度赴各县市区开展实地督导，对全市防疫物资生产企业、规模以上工业企业、重点项目承建企业逐家调研，全面摸排融资需求及存在的困难和问题，召开疫情防控期间企业融资推进会议，日调度、周通报，督促各金融机构落实疫情防控期间上级出台的各项政策。截至6月5日，全市银行机构累计为名单内企业提供续贷倒贷服务43.23亿元，新增授信13.41亿元，新发放贷款13.74亿元。三是健全市、县应急转贷服务体系。以政府转贷基金帮助企业解决续贷过桥急需，截至4月末，市、县两级应急转贷基金规模达11.8亿元，累计为52家企业提供应急转贷业务101笔、21.9亿元，有效防范了企业流动性风险。四是积极引导政府性融资担保机构发挥作用。全市10家政府性融资担保机构疫情期间新增融资担保业务36268.6万元，新增担保户数55户，平均担保费率1.43%，与2019年末的市场化平均融资担保费率相比，降幅达35.88%。', '（三）积极推进无还本续贷、“政银保”业务、中期流动资金贷款等创新性政策。一是积极推进无还本续贷业务扩面增量。引导辖内银行机构落实《山东省地方金融监管局 山东银保监局关于疫情防控期间全面做好贷款业务资金接续工作的指导意见》要求，适当放宽无还本续贷业务办理条件，全力保障企业资金链条安全。今年以来全市累计办理无还本续贷业务434笔，金额26.18亿元。二是积极推动政银保业务开展。组织召开“政银保”贷款保证保险业务推进会，推动业务加快落地。今年以来泰山保险、齐鲁银行及11家农商行完成政银保业务备案工作。三是探索开展中长期流动贷款业务。联合工信局等部门印发《关于增加制造业、民营企业中期流动资金贷款的指导意见》，鼓励银行机构加强中期流动资金贷款服务，减少企业流动资金“断档”、频繁倒贷和过桥成本高等问题，改善金融环境。', '（四）扎实推进资本市场建设，创新发展齐鲁股权交易中心德州运营中心。一是扎实推进企业上市挂牌。4月份，市政府召开全市企业上市工作调度会，调度10家重点企业上市进展，协调解决企业上市过程中遇到的难题。二是创新发展齐鲁股权交易中心德州运营中心。5月18日举行了齐鲁股权交易中心德州运营中心揭牌暨企业集中挂牌仪式，21家企业现场挂牌；成立德州市金融服务联盟，为德州运营中心运营和企业发展提供综合金融服务。三是加强政策宣传引导。自3月份开始，到乐陵、禹城、武城、平原开展县域资本市场专题巡回培训，推广“县域资本市场工程”。3月25日，举办全市资本市场专题视频培训会，邀请齐鲁股权交易中心、中泰证券专家围绕资本市场发展新形势，上市挂牌新要求进行讲解，进一步提高了企业上市挂牌的积极性。', '（一）完善企业复工复产金融服务工作。一是继续做好企业复工复产、重点项目开工建设融资服务工作。加大对重点企业、项目融资需求推介力度，对前期摸排的企业融资需求实行台账管理，逐企落实销号，督促银行机构加大信贷政策和规模争取力度，加快落实审批程序，满足企业、项目合理融资需求。二是引导市内银行运用无还本续贷、再融资、借新还旧、收回再贷等续贷政策，对符合条件的企业给予续贷支持，防范企业流动性风险。', '（二）推进金融辅导工作有序开展。一是切实加强实地对接指导。督促市县两级金融辅导队深入开展进企辅导，及时向企业推送、解读金融政策，在与企业充分对接的基础上实地解决企业困难，为企业量身定制个性化融资方案，满足企业融资需求。二是实行动态调整注重辅导实效。开展辅导攻坚行动，针对融资需求无法办理企业的实际情况，组织辖内辅导队在风险可控和商业可持续的前提下，逐个研究提出解决方案，最大限度满足辅导企业的合理需求。', '（三）继续推进创新性政策业务开展。一是依法合规持续推进无还本续贷业务扩面增量工作，扩大无还本续贷业务覆盖面，满足企业合理续贷需求，降低资金周转成本。二是推动开展中长期流动资金贷款业务试点工作，以点带面全面推开，有效缓解企业贷款期限与生产经营周期错配问题。三是着力加大“政银保”贷款保证保险业务推动力度，争取业务实现突破。', '（四）全力推动企业上市挂牌。一是坚持“改制一批、储备一批、辅导一批、上市一批”原则，分层次、分梯次引导企业上市挂牌。协调解决进入上市程序的企业存在的问题和困难，加快上市进程。二是强化上市后备资源培育，加大科创板、新三板精选层后备企业挖掘力度，发挥齐鲁股权交易中心德州运营中心上市孵化作用，引导科技型、成长型小微企业在齐鲁股权交易中心股改、规范运营、挂牌融资，为上市奠定基础。', '用好省、市基金“20条”政策，发挥政府引导基金作用，大力推行“基金+项目”模式，撬动社会资本，聚集金融资源，支持实体经济发展。', '2019年7月，省政府办公厅印发了《关于进一步推动山东省新旧动能转换基金加快投资的意见》，也就是基金“20条”，财政部门积极利用好政策，及时调整以项目为中心基金运作导向，大力推行“基金+项目”模式，充分发挥引导基金杠杆撬动作用，通过围绕项目设基金、设立基金引项目、本地资本引基金三种形式，吸引各类社会资本和优质项目落地我市，推进全市新旧动能转换基金加快投资，带动金融业态创新，促进各类私募基金管理机构聚集，取得了良好效果。', '一是申报设立项目基金，精准支持重大项目建设。我们紧盯上级政策变化，准确把握政策利好，充分利用优惠政策红利，围绕北京有色金属研究总院大尺寸硅材料规模化生产项目等7个项目，量身定制项目基金设立方案，申请省级新旧动能转换引导基金出资。省级确定出资有研半导体项目基金、坤河文旅项目基金、松果汽车项目基金等3只项目基金，基金总规模达到45亿元，其中省级出资9亿元。截至目前，3只项目基金已完成基金投资15亿元。', '二是积极组织各类推介活动，吸引基金及投资项目落地。2019年，我们与省财政厅、省财金集团联合成功举办了山东（德州）新旧动能转换基金项目推介会。推介会邀请58家基金管理机构和17家金融机构参加，并通过网络进行全球同步直播。推介会根据德州市产业发展布局，精准对接新一代信息技术、高端装备、新能源、新材料、现代高效农业、医养健康、高端化工、精品旅游等八大重点产业领域，集中推介 42个优质产业项目。推介会架起了基金管理机构与企业沟通的桥梁，拓展了企业融资渠道和融资机会，吸引了各类投资机构我市考察项目、洽谈投资。', '三是出台《新旧动能转换基金管理办法》，加快基金投资和机构聚集。在省基金“20条”基础上，学习先进地区做法，结合我市基金运作经验和工作实际，制定出台了《德州市新旧动能转换基金管理办法》。《办法》改革了基金设立决策机制，不再设立市级政府投资引导基金决策委员会，取消基金设立环节的政府审批，由市财政局代表市政府履行引导基金出资人职责，委托市金控集团设立专门公司作为引导基金管理公司，实行封闭运行，对基金设立、项目投资等事项按照市场化方式自主决策；调整了基金投资原则，强化引导基金出资的导向作用，提高了引导基金在各类基金中出资比例，降低参股基金返投比例，发挥基金招商作用，鼓励基金管理机构从市外招引项目迁移至市内；采取差异化让利政策，可将引导基金增值收益或门槛收益率以上增值收益让渡给其他出资人或基金管理机构，为提高引导基金使用效率，鼓励社会资本回购引导基金所持基金的份额。', '特别是实现了奖励与服务政策突破，为加快基金及管理机构聚集，汇集参照了先进地区最优政策，形成了开办奖励、募集奖励、投资奖励等累进式奖励政策。', '募集奖励：实缴超过2000万的天使投资基金、实缴超过5000万元的创业投资基金及实缴超过1亿元的私募股权投资基金，在市内投资达到10%的，按照到位资金1%给予奖励，最高不超过1000万元。', '投资奖励：基金投资本地企业达到5000万元且已满1年的，按投资本地企业资金规模1%给予基奖励。基金引进市外项目落地我市，市外实际到位投资额达到1亿、5亿、10亿，可分别按市外实际到位投资额0.5%、0.8%、1%奖励。单一基金奖励最高不超过1000万元。', '政策优惠力度可以说是空前的，也展示了德州加快基金投资和机构聚集的诚意和决心。目前，《办法》已于5月13日印发，6月1日起正式实施，下一步，我们将积极宣传政策、普及基金投资知识，激发基金融资需求，同时，举办多种形式的基金项目推介会和项目路演，搭建投资机构和项目沟通的桥梁。更重要的是，落实好各项奖励政策，吸引更多的投资机构来德州投资兴业，助推我市新旧动能转换和高质量发展。在这里也诚挚的邀请和热烈欢迎各位业界大鳄和企业家来德州考察洽谈，我们将竭诚提供一切力所能及的便利与服务！', '今年以来，面对疫情冲击，在市委市政府坚强领导下，在各金融监管部门的协调配合下，人民银行德州市中心支行精准高效落实中央和总分行宏观调控政策，充分发挥再贷款再贴现等货币政策工具的结构化引导功能，推动金融机构持续加大信贷投放，为抗击疫情和恢复经济发展提供了有力的资金支持。截至4月末，全市人民币各项贷款余额2374.06亿元，比年初增加160.07亿元，同比多增23.93亿元，增长7.23%，增速高于全省平均增速0.23个百分点。', '一是加大总量货币信贷政策支持。快速精准落实总行支持疫情防控和复工复产的再贷款再贴现政策，组织金融机构对接全国疫情防控重点保障企业名单中的融资需求，设立信贷审批快速通道。截至5月末，已为我市13家名单内重点企业发放专项优惠贷款16笔，1.1亿元，平均利率仅为2.6%；聚焦复工复产、普惠小微等重点领域，落实5000亿元和1万亿元再贷款再贴现政策，截至目前，全市已投放该类政策资金26.6亿元，比去年同期增加22.9亿元，带动全市法人银行发放贷款28.9亿元，后续资金将分批落地，保证优惠政策资金不断档、不断流。先后4次降低存款准备金率，为全市金融机构增加可用资金28.7亿元，提供了充足的流动性支持。', '二是加快贷款市场报价利率（LPR）推广运用，引导降低贷款利率。LPR是以银行报价方式确定市场利率，用以替代原来的基准利率，目的是引导贷款利率下降。全市1季度已经实现了新发放贷款全部按照LPR定价，目前全市正在进行存量贷款的利率转换，在此，请有贷款的企业和个人积极配合银行开展该项工作。全市4月份新发放的企业贷款加权平均利率为5.17%，为2015年以来最低。其中，小微企业贷款加权平均利率为5.52%，同比下降了0.81个百分点。', '三是破解制约信贷服务的难点堵点。在“增量、降价”的基础上，针对民营小微企业首贷难、续贷难、抵押担保不足等问题，加大攻坚力度，推动金融服务“提质、扩面”。制定了“民营和小微企业首贷培植行动”工作方案，截至4月末，已累计走访、建档培植企业1320家，通过培植获得首贷企业达到1264家，累计发放贷款金额9.8亿元。指导金融机构实施信用贷款模式创新，全面提升信用贷款占比。截至4月末，全市小微企业信用贷款比年初增加9.3亿元，增速达51.7%。健全山东省融资服务网络平台对接责任制和考核制，前5个月累计发布融资需求信息131条，对接金额13.3亿元，为企业新增授信7.9亿元。推动应收账款融资，今年以来撮合融资25笔，金额3.13亿元。鼓励金融机构通过无还本续贷、展期等方式，支持企业延期还本。至5月末，全市金融机构共计对1100多户企业45.1亿元的贷款进行了延期。', '下一步，人民银行将深入贯彻党委、政府部署要求，精准落实新出台的优惠政策，引领全市金融机构全力做好“六稳”“六保”资金支持和金融服务工作。', '一是落实好中小微企业贷款阶段性延期还本付息政策。6月1日，人民银行出台了最新的延期还本付息优惠政策，具体措施是，对保持现有抵押担保状态不变或可以提供替代性安排，并承诺就业基本稳定的个体经营者和小微企业，其2020年6月1日至12月31日到期的贷款，还本付息期最长可延至2021年3月31日，免收罚息。对符合条件的延期申请，银行要做到“应延尽延”。人民银行对地方法人银行给予一定比例的奖励激励，预计全国激励的贷款金额接近4万亿元。下一步，我行将加大新政策的宣讲力度，加强对金融机构的监测督导，确保普惠小微贷款“应延尽延”，让更多的小微企业享受政策红利，“留得青山、赢得未来”。', '二是落实好小微企业信用贷款支持计划。人民银行提供4000亿元再贷款专用额度，对于符合条件的地方法人银行，在今年3月1日到12月31日期间新发放的期限不少于6个月普惠小微信用贷款，给予贷款本金40%的无息资金支持。预计全国可带动相关地方法人银行新发放普惠小微信用贷款接近1万亿元。下一步，我行将指导法人机构提升经营管理能力，推动更多的机构达到政策条件，扩大政策受惠面；继续在全市推开信用贷款模式创新工程，使小微企业申请贷款时能够实实在在地感到便利，大幅度提高信用贷款比例。', '三是落实好中小微企业金融服务政策指引。与上述两个阶段性政策工具同时出台的，还有人民银行联合八部门制定的《进一步强化中小微企业金融服务的指导意见》，主要是解决小微金融服务供给结构性失衡的问题，着力于长期性、制度性的推动，通过督促商业银行加快观念转变和业务转型，优化内部资源配置和政策安排，使其真正敢贷、能贷、会贷、愿贷。下一步，我行将加强与相关部门的协调联动，指导金融机构开展小微企业金融服务能力提升工程，促进小微企业信用贷款、首贷、无还本续贷大幅增加，切实缓解中小微企业融资难、融资贵的问题。', '今年以来，德州银保监分局认真贯彻落实银保监会及省市政府工作部署,建立明确责任包干、日周调度、监管激励、工作联动四项工作机制，通过强化政策引领、调研督导、统计监测抓实疫情期间金融政策传导落实。针对疫情导致的部分企业资金紧张问题，制定印发专项指导文件，从6大方面提出15项具体监管要求，并强化统计督导，按周调度银行机构续贷、展期、利息减免、延期还本付息等政策实施情况。并在加强非现场统计分析基础上，领导班子成员带队对全市13个县市区规模以上企业、省市防疫物资生产企业和双向联系企业、重点建设项目等1492个企业进行逐一走访调研，并在调研摸排基础上，对全市266家企业、104亿元续贷需求，458家企业、299亿元新增融资需求，按照“一企一清单”的原则分流动资金、项目贷款建立工作台账，挂图作战，销号管理，提前5个工作日落实续贷手续，按日调度银行机构办理进展，确保及时、精准支持。在监管部门督导下，辖区银行机构主动加大产品服务创新，为助力企业复工复产及春耕备播创新“应急抗疫贷”“惠企复工贷”“农耕贷”等信贷产品20余种，同时积极开展银税互动，推广应用“小微易贷”“税贷通”等纯线上信用贷款产品。截至5月底，辖区银行机构通过线上线下累计对接企业86684户，累计为受疫情影响企业（含个体工商户、小微企业主）办理包含展期、无还本续贷、借新还旧、收回再贷等续贷业务31949户、涉及金额258.93亿元；累计为企业办理延期还本1147户，延期本金45.09亿元；办理延期付息325户，延期利息2430万元。其中，为我市符合条件的规模以上名单内工业企业续贷率达100%。', '与此同时，不断深化银企对接，创新开展“百行进万企”融资对接工作，充分运用税务部门纳税数据，对全辖17000余户优质纳税小微企业主动对接、上门服务，通过在线问卷调查、实地走访、融资解决等环节，真正贴近小微企业，了解企业融资需求，针对性制定解决方案，做到银行业机构100%参与，对符合条件的小微企业100%开展问卷调查，对有融资意向的小微企业100%上门走访对接。疫情期间，督导银行机构创新工作方式，综合采取电话、微信、视频、走访等渠道对接了解企业生产经营情况及融资需求，对标企业需求提供金融产品及服务，帮助企业渡过疫情难关。积极发挥社会及行业内外监督作用，搭建交流监督工作平台，银行业协会通过微信公众号设置疫情防控工作专刊，专题报道机构经验做法，及时解读最新监管政策，并发布投诉电话，接受企业举报监督。积极借助媒体力量扩大政策宣传，在德州电视台开设“百行进万企”宣传工作专栏，定期在德州新闻频道《金融聚焦》栏目发布银行机构金融服务典型案例，目前已播出25期。截至5月底，辖区银行机构已对接“百行进万企”名单内企业16099户，对接比例94.49%，对1150户企业新增融资，融资金额34.28亿元。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>141</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>全市重点工作攻坚年新闻发布会之推进企业改革攻坚</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-06-02</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860956/n42952242/c54692613/content.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全省“重点工作攻坚年”动员大会精神，按照《全市“重点工作攻坚年”重点任务实施方案》相关要求，我代表德州市工业和信息化局，对推动民营企业高质量发展和支持企业创新创意方面做以下发言。', '4月16日，为进一步推动我市非公有制经济发展，市政府办公室下发了《德州市人民政府办公室关于调整部分市政府议事协调机构 组成人员的通知》（德政办字[2020]21号），调整了德州市促进非公有制经济发展工作领导小组，15个成员单位参加，领导小组下设办公室，办公室设在市工信局，拟定了领导小组办公室工作规则及工作细则。', '德州市促进非公有制经济发展领导小组是市政府议事协调机构，领导小组组长由市政府主要领导同志担任，在市委、市政府领导下，负责统一组织、协调、领导全市非公有制经济（民营经济）发展工作。下一步，积极发挥非公有制领导小组办公室的作用，加强对全市非公有制经济的组织领导和统筹协调，研究提出促进全市非公有制经济发展的政策措施，检查政策落实情况，协调解决非公有制经济发展工作中的重大问题。', '主动加强各部门沟通衔接，进一步推进“零增地”审批方式改革和智能化改造。一是认真学习研究“零增地”技术改造项目审批方式改革政策文件，及时与发展改革、消防、环保、住房城乡建设、安检、气象等部门沟通对接，各司其职，共同做好我市工业企业“零增地”技术改造项目审批方式改革具体工作。二是加大宣贯力度，保证政策落实到位。及时研究部署，强化宣传，根据“零增地”技术改造项目审批方式改革政策文件工作要求，及时向各县市区部署，并在日常工作中和深入项目现场调研时对企业进行宣传指导，遵循企业自愿原则，鼓励企业通过“零增地”技术改造项目承诺制实现项目开工建设。同时起草了企业技术改造和推进智能制造和工业互联网发展行动方案以及有关政策，待批准后组织实施。三是加强落实省市现有相关政策文件落实力度，支持开展零增地技改、智能化改造，企业技改项目同等享受双招双引政策。', '组织建立“小升规”重点企业培育库。4月1日下发了《关于建立“小升规”重点企业培育库的通知》，要求在全市“小升规”企业培育指导名录基础上，对年营业收入1000-2000万元的工业企业进行全面摸排，纳入培育库进行“小升规”指导培育。建立对接机制，对纳入培育库的企业逐一对接，进行跟踪指导和服务；对经培育达到进库纳统条件的企业，积极对接统计部门纳入工业企业统计范围。加大融资支持力度，积极对接“小升规”重点培育企业的融资需求，优先落实无还本续贷、中期流动资金贷款、信用担保贷款等融资支持措施，降低企业融资成本，提高贷款获得率。加强政策引导，对新升规企业，帮助申请省最高一次性10万元奖励；将升规3年内的企业作为中小微企业重点培育对象，符合条件的推荐申报“专精特新”中小企业、专精特新“小巨人”和“瞪羚企业”。', '一是优化新生代企业家培训顶层设计。扎实开展“新生代”企业家培训需求调研，科学设计制定有针对性、实效性强的培训方案；认真学习借鉴其他地区先进经验做法，提出设立企业家培训专项资金等一系列全市工业企业企业家培训扶持政策措施，为全面实施企业家学习培训奠定坚实基础。', '二是组织新生代企业家参加省市线上培训。今年以来，疫情期间采用线上培训方式，组织新生代企业家在内的工业企业参加“抗击疫情 复工复产”“企业数字化转型”“打破企业营销困境，提高企业生存和发展能力”3轮主题、9期专题课程培训；组织企业参加《化危机为转机-疫情后的企业风险管控》、《提升人力资源价值 突围经营困境》、《疫情之后如何用品牌价值打造翻盘点》、《疫情冲击下的商业模式之变-商业模式重构》、《疫情后全面复工的纳税与筹划》、《“后新冠时代”的营销战略新思维》、《疫情之下的新机遇-工业互联网》、《工业大数据与智能制造》等线上专题课程40多期，受到广大企业家热烈欢迎和积极参与。', '三是搭建新生代企业家省级成长培育平台载体。积极推荐我市优秀青年企业家进入山东省中青班、山东省青年企业家培育中心学习，进一步增长见识、扩展视野、提升素质。今年以来，积极争取并择优遴选推荐4名学员参评山东省青年企业家培育中心学员；推荐12名中青年企业家参选第6期山东省中青年企业家培训班学员，积极借助省级企业家人才成长培育平台，加快带动我市新生代企业家成长成才，努力建设一批优秀企业后备人才队伍。', '我局及时下发《关于产业集群配套发展好创意好想法的通知》，各县市区的部分企业在纺织产业、食品产业、电梯产业、健身器材产业、新材料产业及装备制造业等提出产业集群配套发展的好创意、好想法,我们已经进行汇总整合,并结合新型工业化强市三年行动计划的制定,围绕着新兴产业+传统产业+新基建的产业体系思路,与县(市区)和部分企业进行了多轮的对接沟通,初步提出了一批二级子产业发展的方向和目标。下一步把这些内容,列入新型工业化强市三年行动计划中,按照延链、补链、强链的路径，集中力量、集聚资源、集成政策，精准发力做好产业链培育、发展，着力打造特色产业集群。', '最后，我代表市工信局，向多年来对我市工业经济发展给予关心支持的各新闻媒体和记者朋友们表示衷心的感谢！', '本次新闻发布会主要涉及国有企业混合所有制改革、市属国有企业投资监督管理办法以及修订市管企业负责人经营业绩考核办法和薪酬管理办法等四个方面工作。', '为全面贯彻落实中央和省政府关于积极发展混合所有制经济的决策部署，稳妥有序推进我市市属国有企业混合所有制改革，实现国有资本与各类社会资本的有效融合、相互促进，进一步放大国有资本功能，切实提升国有企业活力和竞争力，促进国有资本保值增值，我市于2019年12月份印发《关于市属国有企业发展混合所有制经济的意见》（德办发〔2019〕17号）。', '《市属国有企业发展混合所有制经济的意见》分四个部分，分别是：指导思想、基本原则和任务目标，推进路径，制度设计，组织实施。', '2、明确了任务目标。除市政府根据国家规定和我市经济社会发展战略明确需要保持国有全资的市属国有企业外，其他市属国有企业稳妥有序发展混合所有制经济，切实转换经营机制，放大国有资本功能，提高国有资本配置和运行效率，实现各种所有制资本取长补短、相互促进、共同发展。', '3、明确了实现形式。主要有四种:鼓励各类社会资本参与改革、积极推动国有资本参与非国有经济发展、探索实行混合所有制企业员工持股和培育国有企业上市资源。', '4、明确决策权限。市属国有企业实施混合所有制改革前，报市国资委批准；市属一级企业、关系全市经济发展全局的重要行业和关键领域、企业改制后国有资本不再控股的，报市政府批准。', '5、明确了关键措施。一是根据市属国有企业不同功能定位，合理设置混合所有制企业国有股权比例。对现有一级企业，原则上保持国有全资;对现有二级及以下权属企业中，涉及重要基础设施、提供公共产品和服务的企业保持国有全资或控股;其它市属国有企业，根据业务特点实现投资主体多元化，依据发展状况和市场规则有序进退，合理流动。二是完善法人治理结构。依法规范股东（大）会、董事会、经理层和党组织的权责关系，形成定位清晰、权责对等、协调运转、制衡有效的运行机制。三是依法保障中小股东权利。各股东经充分协商，可在公司章程中约定股东（大）会特别决议事项、决议程序和决议通过的比例，可就公司章程修改、董事提名等重大事项约定中小股东的特别表决权。适当增加中小股东董事、监事席位。四是规范审计评估程序，实行公开交易。五是建立容错机制。鼓励探索，鼓励创新，充分尊重基层首创精神，对有关单位和个人依法依规决策，实施有关改革措施未能实现预期目标的，给予充分包容。', '1、明确具体负责领导和责任科室，紧扣《市属国有企业发展混合所有制经济的意见》指导思想和基本原则，结合我市国有资本布局结构调整和企业发展战略，因业决策、因企决策，严格履行法定程序，规范操作流程，严防国有资产流失。', '2、将“稳妥推进混合所有制改革”列入我委2020年业务工作要点，紧密结合“双招双引”支持市属国有企业引进战略投资者。', '3、研究制定《德州市属国有企业混合所有制改革操作指引》，规范市属国有企业混合所有制改革操作流程，明确决策程序，该文件已完成初稿，待征求相关部门意见建议后，我委根据反馈意见建议，修订后印发出台。', '5、开展混改试点工作。以德州燃气发展有限公司拟以非公开增资扩股的方式，引进战略投资者中石油昆仑燃气有限公司。通过混改试点工作，总结提炼可复制可推广经验，逐步培育一批体制机制灵活，发展前景良好的混改企业，真正改出“国企资源+民企机制”新优势、新活力。', '当前，我省国企改革正处在“进入倒计时”的关键时期，我们将要以更大的决心、更大的气力把国有企业改革往深里推、往实处走，指导各市属国有企业因业施策，因企施策，多路径的推进混合所有制改革，更好地促进高质量发展。', '为进一步完善市属国有企业投资监督管理制度，规范企业投资活动，提高投资决策的科学性和规范性，落实国有企业资产的保值增值责任，市国资委在吸收借鉴山东省国资委和先进地市做法的基础上，起草《德州市市属企业投资监督管理办法》以下简称《办法》），在报经市政府常务会议、市委全面深化改革委员会研究审议后，于2020年4月份印发出台（德政办字〔2020〕22号）。', '《办法》共八章三十七条，主要规范了市属国有企业投资监管体系建设、事前事中事后管理、风险管理、责任追究等内容。', '1、明确企业投资原则。明确企业是投资的决策主体、执行主体和责任主体，要求市属企业投资应贯彻落实新发展理念，坚持质量第一、效益优先，增强企业核心竞争力，实现高质量发展;遵守有关法律法规和企业章程，符合国家和省产业政策、发展规划，以及国有资本布局结构调整导向，体现出资人意愿；符合企业功能定位、发展战略规划及投资管理制度，坚持聚焦主业，严控非主业、产能严重过剩行业、高风险业务和低端低效产业投资。', '2、改进投资监管方式。坚持对市属国有企业投资行为实行计划管理和项目管理。年度投资计划由国资委报市政府同意后，实行核准管理。对投资项目实行分类监管。年度投资计划外2000万元（含）以上长期股权投资项目或5000万元（含）以上固定资产投资项目，经市国资委审核后，报市政府批准；年度投资计划外2000万元以下长期股权投资项目或1000万元（含）至5000万元的固定资产投资项目、特别监管类投资项目报市国资委核准；年度投资计划外1000万元以下的固定资产投资项目，由企业自行决策，报市国资委备案。', '投资前，充分研究论证，落实决策责任。要求企业依据战略规划编制年度投资计划，投资项目决策前，从政策、市场、技术、效益、环境、安全、社会稳定等方面，做好全面充分的尽职调查、可行性研究、风险评估等前期工作，强化对投资项目可行性研究报告的审查论证，建立项目专家库，组织专家审查论证，将专家论证意见作为投资决策的重要依据。规范决策程序、落实决策责任，明确企业各级投资决策机构对决策结果承担责任。', '投资实施过程中，强化项目管理，有效防范风险。要求企业规范项目实施程序，全面掌握投资项目进展情况，做好跟踪管理和信息统计分析工作，关注项目是否按期推进、投资是否超预算、是否按期达产达效等，对出现的问题及时妥善处置。', '加强投后管理，及时跟踪评价。要求市属国有企业每年选择部分已完成的重大投资项目开展后评价，形成后评价报告，总结经验、揭示风险、制定对策，改进投资管理，并提出奖惩处理意见等。企业应当对重大投资项目进行专项审计，对项目决策、投资方向、资金使用、投资收益、投资风险管理等方面进行重点审计，并针对发现的问题，制定落实相应整改措施。市国资委建立健全企业投资监督检查机制，根据工作需要对企业投资情况随机检查。', '4、强化投资风险管控。要求企业投资事前进行风险评估、制订风控方案，实施中做好风险监控、预警和处置；鼓励企业引入各类投资机构参与投资，对具备条件的实施项目团队跟投、风险抵押金等方式实现收益共享、风险共担，合资合作及并购项目要完善权益保护措施，切实维护国有权益，防控投资风险。', '为推动国有企业建立现代企业制度，更好发挥企业市场化主体作用，使市管企业经营业绩目标更符合全市经济社会发展总体目标要求，市国资委以国务院国资委《中央企业负责人经营业绩考核办法》（国资委令第40号）、山东省国资委《关于印发山东省省属企业负责人经营业绩考核办法的通知》（鲁国资考核〔2019〕3号)等上级制度性文件为依据，在充分征求5家市管国有企业意见的基础上，结合我市落实“重点工作攻坚年”和国资国企改革攻坚实际，正在对《德州市市管企业负责人经营业绩考核办法》进行修订。', '《考核办法》将从考核内容及指标、考核目标及实施、考核结果及奖惩、绩效考核与薪酬挂钩情况等方面对市管企业负责人经营业绩考核及薪酬管理进行了修订和完善。一是对企业考核内容及权重进行了调整，在共性指标中增加了对招商引资工作的考核。二是完善了经营绩效考核个性化指标，实行一企一策，针对提高企业核心竞争力、招才引智工作、履行社会责任等内容，由企业申请设定2项可量化的考核指标。三是在原有限制性指标基础上增加了奖励性指标，重点围绕经营业绩突出、新旧动能转换成效突出、推进企业改革攻坚、完成混合所有制改革等方面进行加分。同时，合理划分绩效考核等级，科学制定薪酬总额。修订后的《考核办法》考核内容更加具体、细致，可操作性更强，近期将以德州市国资委名义予以印发。', '今年以来，市国资委根据中央、省、市关于国有企业负责人薪酬制度改革政策精神，参照省国资委《山东省省管企业负责人薪酬管理办法》（鲁国资考核〔2016〕4号），借鉴兄弟地市的先进经验做法，在充分征求5家市属国有企业和相关部门意见建议的基础上，正在拟定《德州市市管企业负责人薪酬管理办法》。', '《管理办法》从基本原则、薪酬结构和水平、薪酬支付、福利待遇、监督管理以及组织实施等方面，围绕科学制定差异化薪酬激励机制、规范薪酬支付和福利性待遇、建立健全薪酬监督管理体系三方面内容，对市属国有企业负责人薪酬管理作出了规范，将于下半年以市政府名义予以印发。', '《管理办法》的实施，将进一步调整薪酬结构，合理确定并严格规范国有企业管理人员薪酬水平，使市管企业负责人薪酬与经营业绩相挂钩，对于激发企业负责人干事创业热情，形成合理有序的收入分配格局，推动企业高质量发展具有重要意义。', '大家好！首先，我代表市行政审批服务局对参加今天新闻发布会的各位朋友表示热烈欢迎，并借此机会，向长期以来关心和支持行政审批服务局工作，关注和推进“一业一证”改革的媒体朋友表示衷心感谢！“一业一证”改革是落实全省全市“重点工作攻坚年”动员大会精神，推进企业改革攻坚，破解“准入不准营”问题，进一步激发市场主体活力的重要措施和手段。今天的发布会，我主要向大家通报三个方面的情况。', '一是梳理事项阶段。2月份以来全面梳理群众和企业办事最多的行业，以及行业经营所涉及的事项办事流程、现场勘查要求、法定承诺时限、申报材料、收费标准、办理条件、需填表单等信息，按照减材料、减时限、减环节、优服务的“三减一优”要求进一步整合申报材料、办事流程、现场勘查需求和标准，形成了标准化操作手册和办事指南。', '二是调研摸底阶段 。3月份到先期开展相关工作的武城县开展实地调研，组织召开“一业一证”工作座谈会，现场观摩武城县审批服务局具体工作做法，对“一业一证”工作的基本思路、面临的问题和困难、意见和建议，广泛征求意见，深入开展讨论研究。为全市范围内“一业一证”改革工作开展奠定基础。', '三是确定实施阶段。4月份落实专人专岗，审定通过整合办事流程、现场勘查需求和标准、申报材料标准。4月30日，省政府办公厅印发《山东省加快流程再造推进“一业一证”改革试点实施方案》，选取德州承担餐饮、便利店、药店等8个行业的试点工作。我市在前期探索的基础上，再进一步，由市审批服务局联合8部门制定印发《关于在全市开展行业许可“一业一证”改革的实施意见（试行）》，明确首批在15个行业试点整合13项行政许可事项。', '四是制证发证阶段。5月18日，市委常委、常务副市长刘长民在德州市行政审批服务局“一业一证·一链办理”窗口为德州金胜酒店管理有限公司颁发了全市首张市县联办“行业综合许可证”。目前全市共发证50多个，一份材料能营业的省心省事省时服务，极大改善了营商环境，从根本上解决了“准入不准营”的难题。', '五是深化创新阶段。我市“一业一证”按照成熟一批公布一批的原则，逐步向社会公开实施清单。除首批公布的15个行业试点整合的13项行政许可事项外，我们还将逐步把范围扩大到民办幼儿园、民办培训机构等行业。', '“一业一证”改革是将一个行业多个许可证件，合并为一张载明相关行政许可信息的行业综合许可证，改革目标是要从“以部门为中心”的单个事项改革，转向“以企业为中心”办成“一件事”的业务流程革命性再造。在“一业一证”改革推进过程中，我们按照能并则并、能简则简的原则，全面梳理、分类处理涉企证照事项，解决企业申请需要多部门审批发证、多次申请、审批涉及链条长、互为前后置证件等问题，使企业在办理“行业综合许可证”后即能达到预定可生产经营状态，大幅度缩短了企业从筹备开办到进入市场的时间。', '通过对行业相关行政审批事项的审批环节进行重新梳理和流程优化再造，我们实现了一表申请、一套材料、一次告知、一证准营、一档并归“五个一”综合服务。“一表申请”是将申请表单整合为一个《行业综合许可证申请表》，申请人可一次性申请行业经营所涉及的多个审批事项。“一套材料”是按照同类合并原则整合申请材料，申请人根据要求一次性提交，涉及不同事项重复的资料只需一次性提供，凡是能通过信息共享获取的信息，不得要求企业和群众重复提交；凡是能通过网络核验的信息，不得要求其他单位和申请人重复提交；凡是应由行政机关及相关机构调查核实的信息，由部门自行核实，实现相同信息“一次采集、一档管理”。“一次告知”是“一业一证”综合办理专窗收到申请材料后，申请材料齐全、符合法定形式的，实施一次性受理并发放综合受理通知书，承诺统一的办理时限；申请材料不齐全或者不符合法定形式的，工作人员应当对办理所需补正的材料实施一次性综合告知。“一证准营”是将不同审批结果整合到一张《行业综合许可证》上，载明经营者名称、法定代表人（负责人）、经营场所及许可项目等信息，并加载集成具体许可内容的二维码，实现行业经营许可信息和营业执照信息一码覆盖、一证准营。市场主体只需在经营场所公示“行业经营许可证”，即视为符合各监管部门的亮证要求，社会公众和监管部门可通过手机扫码查询，实现“一业一证”综合许可在区域内、行业内的互认和应用。“一档并归”是行业经营综合许可档案实行一家行业主体一套档案，档案材料覆盖相应许可内容，统一归档。从15个行业业务梳理情况看，平均每个行业可实现审批时限压减90%，申请材料压减80%，填表要素压减70%。', '“一业一证”改革社会关注度高，与群众和企业生产生活关系密切相关。我市的改革在省级文件指导下，重点围绕提供便捷、透明、集约、高效的目标，开展创新实践，推行了“统一受理、统一审核、统一踏勘、统一出证”“四统一”审批服务。“统一受理”即优化一窗综合受理服务，由“一业一证”综合办理专窗统一收件、受理及提供现场咨询答疑和材料准备辅导咨询服务等，实现“一窗多事”和“一窗通办”。“统一审核”即对行业经营综合许可涉及的事项建立流程关联，通过信息化手段实现受理材料的流转、共享，由后台不同科室同步开展材料审核工作，简化办事手续，减少办事环节，降低办事成本。“统一踏勘”即多个审批事项需进行现场核查的，将现场勘查要点、标准等要素加以规范整合，制定《行业综合许可现场核查表》，由市县行政审批服务局组织一次性实施合并审查，统筹组织专家评审，协调联合勘查，做到多个事项一次勘查，整改意见一口告知，整改情况一趟复审，避免“多次审”“来回审”“重复审”。“统一出证”即从受理、核查，到最终审批、发证，所有审批事项一并同时实施，最终一次办结，一次出证，出证窗口负责联系申请人现场取证或通过快递免费送达。', '各位媒体朋友们，“一业一证”改革工作是个新事物，是长期系统工程，也是个摸索创新的工作，在工作推进过程中，我们将全面贯彻落实市委、市政府部署要求，强化担当精神，不折不扣落实好“一业一证”改革任务，坚决打赢这场重点工作攻坚战。同时，我们也会悉心接受社会各界的批评建议，更需要在座的媒体朋友的支持和理解，希望大家以后多宣传行政审批服务改革建设成效，提高社会认知度和群众认同感。最后，再次感谢大家的出席，谢谢。', '上午好！首先我代表德州市市场监管局对大家一直以来给予市场监管工作的关心和支持表示衷心感谢！', '2018年以来，为认真贯彻落实《山东省人民政府办公厅关于印发山东省小微企业治理机构和产业结构“双升战略”实施方案的通知》（鲁政办字[2017]111号）、《德州市人民政府办公室关于印发德州市小微企业治理结构和产业结构“双升”战略实施方案的通知》（德政办字〔2018〕22号）和《2019年度山东省小微企业“双升”战略工作要点》文件精神，全面推进德州市小微企业治理结构和产业结构“双升”战略，促进我市小微企业可持续发展，推进供给侧结构性改革，加快新旧动能转换，提升民营企业高质量发展，德州市市场监督管理局充分发挥职能作用，积极开展小微企业“双升”战略、推进“个转企”重点工作。截至2020年5月29日，市局累计完成“个转企”6118家，其中“新转制”小微企业3438家，提前完成山东省小微企业“双升”战略、引导支持5034家个体工商户转型升级为小微企业目标任务的121.53%。其中1510家新转公司制小微企业完成目标任务的230.66%。', '2018年，原德州市工商局按照《德州市小微企业治理结构和产业结构“双升”战略实施方案》中规定的责任分工，研究制定了《德州市工商局小微企业治理结构和产业结构“双升”战略实施方案》，明确到2020年6月30日，全市工商（市场监管）部门引导支持5034家个体工商户转型升级为小微企业，其中新转公司制小微企业占比不少于30%的任务目标，并向各县（市、区）局下达了《落实小微企业“双升”战略（2017-2020）主要指标分解指导性计划》，全力推进“个转企”重点工作，当年完成“个转企”1565家，其中“新转制”800家。', '2019年，德州市市场监督管理局在市委、市政府的领导下和社会各界的关心支持下，坚持政治引领，强化责任担当，克服各县（市、区）正在进行机构改革，特别是涉及原工商部门登记职能划转过度期间，导致全市“个转企”工作推进缓慢的现实难题，群策群力，多措并举，扎实推进“个转企”重点工作。一是深入调研。5月中旬，市局领导带队对禹城、陵城、德城、平原等县市区就“个转企”工作进行调研，与县级局开展座谈交流，深入了解基层机构改革状况和在“个转企”工作推进过程中遇到的困难和问题，听取基层人员的意见建议。对具有发展前景的个体工商户进行走访，了解转企的意愿以及看法，与经营者就转企后产生的问题和顾虑深入探讨，积极向个体工商户宣传转企政策，并向经营者赠送了省市有关推动民营经济发展的政策文件。8月上旬、10月中旬，在全市市场监管工作座谈会和全市个体私营经济发展暨非公党建工作推进视频会议上，市局党组书记、局长王胜强又作了重点强调和部署安排。二是加强请示汇报和沟通。与省局积极对接汇报，将我市在机构改革后出现的阻力和困难，通过电话沟通积极向省局有关处室反映获得理解和支持。同时加强与行政审批服务局、工业和信息化局等相关部门的信息交流和业务沟通，持续加大转企工作力度。三是深度融合职能，用足用活政策。以省局《关于做好支持个体工商户转型升级为企业工作的通知》（鲁市监个字〔2019〕451号）为契机，10月份，市局牵头11个部门联合印发《关于转发&lt;关于做好支持个体工商户转型升级为企业工作的通知&gt;的通知》（德市监个字〔2019〕153号），出台19条扶持政策，形成工作合力，助推德州“个转企”工作顺利开展。2019年全市完成“个转企”2030家，其中“新转制”1421家。', '2020年以来，德州市市场监督管理局深入贯彻落实省、市“重点工作攻坚年”工作会议精神，紧紧围绕“个转企”重点任务目标，发挥职能，完善机制，专门印发了《德州市市场监督管理局关于进一步推进“个转企”工作的通知》，明确年度任务目标和推进工作措施，强势推进“个转企”工作。一是建立考核约谈机制。将“个转企”工作纳入2020年度市局考核内容，对“个转企”排名后三位的进行约谈。督导各县市区局消除和排解不利因素，着眼未来长远发展，采取适当的倾斜举措，增强工作主动性，切实把“个转企”工作抓紧、抓好、抓出成效。二是完善督导机制。实行周提醒月通报制度，督促各县市区局每周上报个转企周进度表，每月对各县市区局完成进度通过市局办公系统进行发布，必要时通报给县市区政府领导。同时指导各县市区局建立“个转企”台账，做到有据可查，避免虚报或数据不实。三是深入调研宣传。自3月份开始，市局制定调研方案，对德城区、禹城、武城、临邑、宁津、齐河、乐陵等7个县市区进行了调研，深入了解基层在疫情期间“个转企”工作推进过程中遇到的困难，积极向个体业户宣传国家、省、市支持个体工商户复工复产及“个转企”工作的有关扶持和优惠政策，并赠送了市局编辑印制的《抗击疫情扶持政策促进个体私营经济发展文件汇集》，进一步提高了个体工商户对“个转企”工作的认知度和自觉性。截至5月29日，市局2020年完成“个转企” 2523家，其中“新转制”小微企业1222家，提前完成2020 年“个转企”1300家全市“重点工作攻坚年”重点工作任务的194.08%。', '下半年，我们将在市委、市政府的正确领导下，深入贯彻落实省、市“重点工作攻坚年”工作会议精神，强化担当，提高监管效能，狠抓落实，继续巩固扩大战果，凝心聚力，助推民营企业高质量发展，高标准完成省、市小微企业“双升”战略和全市“重点工作攻坚年”任务目标，为加快德州高质量发展做出新贡献。同时，也恳请大家一如既往地关注、支持和监督我们的工作，多提宝贵的意见建议，促进我们的工作再上新台阶。', '首先感谢大家多年来对市工商联系统给予的关注和支持。下面，我给大家简要地介绍一下本届工商联领导班子对新生代企业家教育培养的有关情况。', '我市的新生代企业家主要由民营企业接班人和自主创业人才两大群体组成，与老一辈民营经济人士相比，他们年龄普遍较轻，主要集中在30—45岁，学历层次较高，部分有海外留学经历，思想比较开放创新，综合素质更为突出。近年来，市工商联以新生代企业家为重点服务对象，举办了一系列活动，取得了一些成效。', '为加强对新生代企业家的培养，市工商联组织成立了新生代企业家商会，在全市范围内，吸纳工商联会员企业家推荐的企业接班人和新发现的优秀新生代企业家作为会员，目前已发展了210余名会员，为全市的新生代企业家提供了一个成长、交流的平台。市工商联指导商会发挥培养新生代企业家的主阵地作用，把商会建成了创业摇篮、互动沙龙、成长学堂、参政通道和理想信念教育基地，取得了丰硕的成果。商会每年组织会员深入会员企业学习考察，相互学习企业经营、管理方面的先进经验；部分商会会员联合创办了创梦空间，创梦空间于2017年5月19日在前海股权交易中心挂牌，目前已入驻企业150多家，年营业额5亿多元，纳税1000多万。', '近年来，德州市工商联加大对优秀新生代企业家的推荐选拔力度，积极推荐新生代企业家担任各级人大代表、政协委员，加强对他们的培养历练。在工商联换届工作中，增加了新生代企业家比例，市工商联执委会258名民营经济代表人士中，45岁以下的新生代企业家共有122人，其中特别优秀的新生代企业家，例如山东鼎力枣业食品集团有限公司经理刘洪恩，被推荐为山东省工商联执委、德州市政协常委；德州安广置业投资有限公司董事长刘军胜，被推荐为山东省工商联执委、德州市人大代表。市工商联每年举办执委培训班时，也有意向新生代企业家倾斜，保证新生代企业家学员占有一定的比例，加强对他们的教育培训力度。通过给予政治地位和教育培训，极大地提高了他们的思想政治素质、履职能力和社会责任感，使他们更快地得到成长。', '依托市工商联的“六大服务平台”，为新生代企业家提供经济服务，助力企业发展、个人成长。例如，金融服务平台方面，已举办“金桥沙龙”活动12期，16个政府部门，7家银行参与，180余位企业家参与，其中新生代企业家达130余人，累计实现放贷34亿元；政策服务平台方面，通过“送政策上门精准对接”活动，共开展各类送政策活动60余次，发放政策汇编2300余本，其中大部分是各县市区的新生代企业。', '开展新生代企业家理想信念教育实践活动是近几年来全国各级工商联的重点工作之一，2018年，市工商联组建了参政议政研学团、企业家精神宣讲团、企业文化宣传团“三团”。“三团”既发挥老一辈民营企业家的典型带动作用，又发挥新生代企业家生力军作用。每个“团”新生代企业家比例均在80%以上，发挥的作用和取得的成绩也得到了上级部门的充分认可，例如参政议政研学团刘亚楠所提报的《关于平行进口车增值税流失问题的建议》被省委办公厅采纳；企业家精神宣讲团的10余位新生代企业家走进校园，为近万名师生讲述创业历程。', '下一步，市工商联将以我市开展的“重点工作攻坚年”为契机，加强新生代企业家队伍建设，深化理想信念教育，努力实现新生代企业家政治素养和业务能力的“双提升”。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>141</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>我市参加全省重点外商投资项目签约仪式</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n6844/n52808985/n52809748/c53128528/content.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['（记者 王贺）2月25日，在全国上下奋力抗疫情保发展的关键时期，省委、省政府举行重点外商投资项目视频集中签约仪式，深入学习贯彻习近平总书记在统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上的重要讲话精神，坚决打赢疫情防控阻击战，确保实现全年经济社会发展目标。', '签约仪式以“主会场+分会场+投资方视频连线”方式进行。十三届全国政协副主席梁振英在香港出席仪式并致辞。省委书记刘家义讲话。省委副书记、省长龚正主持。', '刘家义说，全省各级各有关部门要强化统筹协调、政策集成、要素保障，为外资外企来鲁投资兴业提供最优质、最便捷、最实在服务，推动签约项目早落地、早开工、早投产、早见效，更好推进经济高质量发展。在特殊时期，各位山东新老朋友，采用视频连线方式与我们签约项目，展现了对山东发展的信心和对互利合作的诚心。', '市委书记李猛在德州分会场介绍了我市外商投资项目并主持签约。市委副书记、市长杨洪涛，副市长张桂爱和市直有关部门负责同志参加。', '李猛说，微医集团区域总部项目由微医香港有限公司和微医集团（浙江）有限公司共同投资，总投资额10亿元，在德州经济技术开发区设立“微医集团区域总部”。本次签约合同金额1500万美元，主要用于引进微医产业生态，打造全国数字健共体试点，项目建成运营后将极大方便群众就医。德州将深入贯彻习近平总书记重要讲话重要指示精神，认真落实省委工作要求，全力推进外商投资项目建设，全力做好服务。诚挚邀请各位企业家朋友来德州参观考察、投资兴业。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>141</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>年德州市属事业单位公开招聘工作人员简章</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860954/c52974020/content.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['根据《事业单位人事管理条例》（国务院令第652号）、《事业单位公开招聘人员暂行规定》（人事部令第6号）等有关规定和要求，2020年德州市属事业单位面向社会集中公开招聘84名工作人员(具体岗位见附件)，现将有关事项公告如下:', '根据国家和省有关规定，由我省统一组织招募和选派的“三支一扶”计划、“大学生志愿服务西部计划”等服务基层项目人员（须是德州市生源、德州市户籍或在德州市从事基层服务的人员，以下简称“服务基层项目人员”），服务满2年且完成协议书（合同）规定的服务期限、考核合格后，3年内（指2016年、2017年、2018年招募和选派人员，其中，“三支一扶”计划仅限2016年招募人员）报考的，实行定向招聘。已按照优惠政策被录用为公务员或招聘为事业单位工作人员的，不再适用该政策。', '入伍前取得全日制普通高等教育本科及以上学历（学位）或入伍前为全日制普通高等教育在校生，退役后复学取得本科及以上学历(学位)证书，且为我市接收的退役大学生士兵，可应聘符合岗位条件的面向退役大学生士兵的招聘岗位。已安置到机关事业单位工作的退役大学生士兵不再适用该政策。', '具有5年以上我市乡镇（街道办事处）事业单位工作经历的正式在编在岗人员，可应聘符合条件的定向招聘岗位。', '香港和澳门居民中的中国公民可应聘符合条件的岗位，取得祖国大陆全日制普通高校学历的台湾学生和取得祖国大陆认可学历的其他台湾居民，可应聘公共文化服务机构、医疗卫生机构符合条件的岗位。', '取得高级工、预备技师职业资格的高级技校或技师学院全日制毕业生，可分别按照全日制高职（大专）、本科毕业生应聘符合条件的岗位。', '定向、委培应届毕业生应聘，须征得定向、委培单位同意。公办中小学教师应聘，须经县以上教育行政主管部门同意。', '招聘岗位对工作经历有明确要求的，应聘人员需提供相应的工作经历证明。高校毕业生在校期间的社会实践、实习、兼职等不作为工作经历。工作经历年限按足年足月累计，以2020年2月18日为截至日期。', '应聘人员学历证书所载专业应当与招聘岗位专业要求相一致。除2020年全日制普通大中专院校毕业生学历证书、相应学位证书、资格证书（岗位要求的）应于2020年7月31日前取得外，招聘岗位要求的其他所有资格、资质及证书（含海外留学人员的学历、学位认证书），应聘人员均须于2020年2月18日之前取得。', '曾受过刑事处罚和曾被开除公职的人员、在读全日制普通高校非应届毕业生（也不能用已取得的学历学位作为条件应聘）、现役军人以及法律法规规定不得聘用的其他情形的人员不得应聘。', '应聘人员不得报考有《事业单位人事管理回避规定》（人社部规〔2019〕1号）规定回避情形的岗位。', '报名人员在应聘期间的表现，将作为公开招聘考察的重要内容之一，有恶意注册报名信息、扰乱报名秩序等行为的，查实后取消其本次报名资格。', '招聘单位或其主管部门（举办单位）要指定专人负责资格初审工作，及时查看本单位的网上报名情况，认真进行资格审查，确认初审结果。对具备报名资格并符合应聘条件的，不得拒绝报名；对未通过初审的人员，要说明理由；对提交材料不全的，应注明缺少的内容，退回报名人员进行补充。招聘单位在报名人员信息提交2小时后进行初审。对通过资格初审的人员，招聘单位应留存应聘人员的报名信息，以备资格审查时使用。网上报名期间，招聘单位应安排专人接听公布的咨询电话，提供咨询服务。', '鉴于我们参考的高等教育专业目录中未能完全涵盖一些旧专业、新兴学科、国外学科等，如应聘人员所学专业不属于参考专业目录中的专业，且认为所学专业为招聘岗位专业条件设置的近似专业，招聘单位可要求应聘人员提供相应的主干学习课程等证明材料，并根据招聘岗位的履职需要，认定是否属于近似专业。', '应聘不参加笔试岗位的人员，通过网上初审后，不需进行网上缴费，由招聘单位下载打印《2020年德州市属事业单位公开招聘报名登记表》、《应聘事业单位工作人员诚信承诺书》。考生根据招聘单位主管部门安排，进行资格审查，现场缴纳面试或专业测试费用。', '笔试考务费收取标准：每科40元。拟享受减免笔试费用的农村特困大学生和城市低保人员，不需进行网上缴费，应聘人员资格初审通过后，于2月21日—24日将相关证明材料以PDF或照片格式发送到邮箱dzrsjsgk@dz.shandong.cn，邮件名称为“姓名+身份证号”，并于24日（上午8:30-12:00，下午14:00-16:00）拨打电话0534-2687084进行确认。如在疫情防控期间上网发送证明材料电子版有困难的，可事先电话告知，先行减免，事后补报。相关证明材料包括：《2020年德州市属事业单位公开招聘报名登记表》、《应聘事业单位工作人员诚信承诺书》，享受国家最低生活保障金的城镇家庭的应聘人员，提交家庭所在地的县（市、区）民政部门出具的享受最低生活保障的证明和低保证（原件和复印件）；农村绝对贫困家庭的应聘人员，提交家庭所在地的县（市、区）扶贫办（部门）出具的特困证明和特困家庭基本情况档案卡（原件和复印件），或者出具省人力资源社会保障厅、省教育厅核发的《山东省特困家庭毕业生就业服务卡》。免笔试费用认定结果以电子邮件形式反馈本人，通过认定人员报名缴费截止后统一进行免缴费处理。', '报名结束后，对应聘人数达不到招聘计划3倍的招聘岗位，计划招聘l人的，取消招聘计划；计划招聘2人（含）以上的，按1:3的比例相应核减招聘计划。招聘岗位因达不到开考比例而取消的，该岗位应聘人员可在规定时间内改报其他符合条件的岗位。', '对应聘人员资格审查工作，贯穿招聘工作的全过程。各招聘岗位拟进入面试人员名单确定之后，先由招聘单位业务主管部门对照岗位条件进行资格初审，然后报送相关材料到市公开招聘主管部门进行资格复审。', '进入面试的应聘人员，需按招聘岗位要求，向招聘单位或主管部门提交本人相关证明材料以及《2020年德州市属事业单位公开招聘报名登记表》、《应聘事业单位工作人员诚信承诺书》。相关证明材料包括：', '1.全日制普通高校应届毕业生应聘的，提交二代身份证、学校核发的就业推荐表、应聘岗位所要求的资格证书等，2020年定向、委培毕业生还需提交定向、委培单位同意应聘的证明。', '2.其他人员应聘的，须提交国家承认的学历、学位证书和应聘岗位所要求的资格证书原件、二代身份证，在职人员还应提交有用人管理权限部门或单位出具的同意报考证明（对按时出具同意应聘介绍信确有困难的在职人员，经招聘单位同意，可在考察前提供），公办中小学教师应聘须提交县级以上教育行政部门同意报考证明。留学回国人员应聘的，除需提供《招聘简章》中规定的材料外，还要出具国家教育部门的学历学位认证。香港和澳门居民中的中国公民应聘的，还需提供《港澳居民来往内地通行证》；台湾学生应聘的，还需提供《台湾居民来往大陆通行证》。', '服务基层项目人员除出具国家承认的学历证书、二代身份证和毕业当年就业主管机构签发的报到证外，“三支一扶”大学生还需出具山东省“三支一扶”工作协调管理办公室签发的《招募通知书》和县以上人社部门出具的考核材料；参加“大学生志愿服务西部计划”项目的毕业生还需出具团省委考核认定的证明材料，共青团中央统一制作的服务证和大学生志愿服务西部计划鉴定表。退役大学生士兵则需提供本人身份证、毕业证、学位证和退役证。要求具有5年以上乡镇（街道办事处）事业单位工作经历的正式在编在岗人员的，还需提供乡镇（街道办事处）或主管部门出具的事业单位工作的证明材料。', '笔试只考一科，考试内容包括法律法规、政治经济理论、时政方针、科技知识、省情省况等基础性知识和综合写作。笔试采用百分制计算应聘人员的成绩。为保证新进人员基本素质，笔试设定最低合格分数线，由市事业单位公开招聘主管部门根据岗位招聘人数和笔试情况确定。', '从达到笔试合格分数线的应聘人员中，按计划招聘人数3倍的比例，确定参加面试的人员。笔试合格人数出现空缺的岗位，取消招聘；达不到招聘比例的，按实有人数参加面试。参加面试的人员未按面试公告要求提交有关审查材料的，视为自动放弃。经审查不具备应聘条件的，取消面试资格。因自动放弃或取消资格造成的空缺，按笔试成绩从高分到低分依次递补。', '1、A类面试，主要为管理岗位和通用性较强的专业技术岗位, 直接采用通用能力面试方式。通用能力面试由市组织、人社部门统一组织实施，进入通用能力面试的考生凭市事业单位公开招聘主管部门发放的面试通知书参加面试。面试内容主要是测试应聘人员从事本岗工作所必需的基本能力素质。根据招聘岗位的招聘计划由高分到低分按1：3的比例确定面试人选。笔试后因无人达到合格分数线而出现空缺的岗位，取消招聘计划；达不到计划招聘比例的，按实有合格人数确定进入面试人员。面试划定最低合格线，低于最低合格线的，取消其聘用资格。', '2、C类面试，主要为新闻中级、艺术、教师岗位，采用专业考试方式。根据岗位招聘计划由高分到低分按1：3的比例确定面试人员。笔试合格人数出现空缺的岗位，取消招聘计划；达不到招聘比例的，按实有合格人数确定进入面试人员。专业考试主要测试其专业水平和技能，', 'C类、D类面试在市事业单位公开招聘主管部门的指导下，由招聘单位业务主管部门具体负责组织实施，划定最低合格线，考生达不到合格分数线的，取消其应聘资格。面试方案由招聘单位业务主管部门制定，并提交市事业单位公开招聘主管部门审核同意后，面向社会公布。', '全部考试结束后，市事业单位公开招聘主管部门按笔试成绩和面试成绩各占50%的比例计算应聘人员考试总成绩；D类面试岗位的考生专业技能考试成绩即为总成绩。考试总成绩及岗位排名在德州市人力资源和社会保障局网站公示。如同一招聘岗位出现总成绩同分者，采取笔试成绩、学历层次高者依次优先的办法确定考察人选，以上条件仍相同者采取增加专业测试的方式予以确定。', '按照招聘岗位，根据应聘人员考试总成绩，由高分到低分依次等额确定进入考察范围人选。因考察、体检不合格或放弃考察、体检资格造成的空缺，根据考试总成绩依次递补。', '事业单位或其主管部门（举办单位）应成立考察工作小组，具体负责考察工作。考察可根据岗位条件要求采取多种方式进行，主要考察思想政治表现、道德品质、业务能力和工作实绩等方面情况，并对应聘人员是否符合规定的岗位资格条件，提供的相关信息、材料是否真实准确等进行复审。要按照《关于进一步从严管理干部档案的意见》（鲁组发〔2017〕2号）要求，对考察对象的档案进行严格审核，重点审核“三龄二历一身份”等内容。对档案中存在的问题，要认真进行调查，问题未查清并处理到位的，不得办理聘用手续。考察工作小组要实事求是，全面、客观、公正地评价被考察对象，并写出考察意见。', '体检标准和项目参照《关于修订〈公务员录用体检通用标准（试行）〉及〈公务员录用体检操作手册（试行）〉有关内容的通知》（人社部发〔2016〕140号）执行，国家另有规定的从其规定。体检费用由应聘人员承担。应聘者在体检过程中有意隐瞒影响聘用的疾病或者病史的，不予聘用；在体检过程中有串通体检工作人员作弊或者请他人顶替体检以及交换、替换化验样本等作弊行为的，取消资格。用人单位或应聘人员对体检结果有疑问的，应在接到体检结论通知之日起7日内提出，费用由申请方负担。对按规定需要复检的，不在原体检医院进行，复检医院级别不低于原体检医院，复检只能进行1次，结果以复检结论为准。未经市事业单位公开招聘主管部门同意，应聘人员不按规定的时间、地点参加体检的，视为放弃。', '要严肃招聘工作纪律，严格按程序进行，招聘信息将及时在德州市人力资源和社会保障局网站上公示，做到程序公开，信息公开。招聘工作全程接受相关职能部门的监督，自觉接受社会监督。对违反招聘规定以及被实名举报查实的工作人员和应聘人员，按照《事业单位公开招聘违纪违规行为处理规定》（中华人民共和国人力资源和社会保障部令第35号）处理，对招聘工作中存在不诚信情形的应聘人员，纳入事业单位公开招聘违纪违规与诚信档案库，对违反公开招聘纪律的工作人员，按照有关规定给予处理，涉嫌犯罪的，移送司法机关依法追究刑事责任。', '本次市属事业单位集中公开招聘工作人员的未尽事宜，按照事业单位公开招聘的相关规定执行。招聘后续工作有关通知、公告、公示等信息也将通过德州市人力资源和社会保障局网站公布，请应聘人员在报名、笔试、资格审查、面试、考察、体检、公示等期间，随时关注相关信息，保持报名时所留电话畅通。因本人原因错过重要信息而影响考试聘用的，责任自负。', '招聘后续工作有关通知、公告、公示等信息也将通过德州市人力资源和社会保障局网站公布，请应聘人员在报名、笔试、资格审查、面试、考察、体检、公示等期间，随时关注相关信息，保持报名时所留电话畅通。', '对应聘岗位资格条件、资格初审情况有疑问的，请直接咨询各招聘单位，招聘单位咨询电话见《2020年德州市属事业单位公开招聘工作人员岗位情况表》(附件1)。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>141</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>德州市人民政府在线访谈德州市财政局民营经济发展相关解答</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-01-14</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c52666386/content.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['2019德州市人民政府在线访谈——德州市财政局 民营经济发展相关解答 - 德州市人民政府', '主持人：聚焦民生，贴心服务。观众朋友们大家好，欢迎大家观看2019年德州市人民政府在线访谈。今天做客我们访谈室的是德州市财政局工商贸易科副科长王美荣。', '欢迎王科长。1.目前，我市处于新旧动能转换的关键时期，为助力我市民营经济发展，市财政部门做了哪些方面的工作？', '答：为助力我市民营经济发展，市财政部门做了大量工作。首先是积极争取上级资金支持，借力推动我市企业转型升级升级。为深入学习贯彻习近平新时代中国特色社会主义思想，认真落实习近平总书记在民营企业座谈会上的重要讲话精神，牢固树立“政府创造环境、企业创造财富”的理念，着力破解制约民营经济发展的突出困难和问题，不断优化发展环境，促进我市民营经济高质量发展，市财政局积极配合有关业务主管部门，争取上级资金。2019年争取上级涉企资金涉及商贸流通、服务业发展、食药安全、产业转型升级、中小企业发展、智慧城市建设等多个方面。', '答;财政资金主要是发挥“四两拨千斤”的导向作用。（一）支持创新发展，激发企业创新创造活力。强化创新驱动作为振兴实体经济的主攻方向，从多方面加大激励力度。在创新平台建设方面，德州市经济开发区高端人才引领型创新创业特色载体获得中央资金扶持。二是支持制造业高质量发展，积聚可持续发展能力。延伸产业链，争取产业链协同创新。 (二) 支持实体经济和民营经济发展迈出新步伐。实体经济和民营经济是经济发展的根基，各级按照“产业政策要准”的要求，不断优化财政供给。一是聚焦高成长性科技型企业，实施瞪羚企业培育计划，引导高科技中小企业实现跨越式、飞跃式发展。二是扶持制造业与服务业融合发展的新旧动能转换服务业项目。2019年争取大量省级服务业发展引导资金、泰山产业领军人才和专业人才奖励资金。 三是谋划我市推动产业集群发展的政策措施，培植壮大财源，推进民营企业健康发展。德州经济技术开发区新能源产业集群获得省级资金，较好地发挥了集聚要素资源、激发创新创业活力作用。', '市级资金在助力民营经济发展方面也发挥了很好的引导作用。比如说聚焦“数字赋能”，落实“云服务券”财政补贴制度。为促进我市工业互联网发展，立足我市制造业与互联网产业基础，以企业“上云”为抓手，加大“互联网+”融合发展投入力度，建立“云服务券”财政补贴制度，加快企业“上云”进程，提升企业“上云”意识，大幅增加企业“上云”数量和应用深度。市级安排“两化”融合专项引导资金，助力我市产业互联网建设迈上一个新台阶。', '3.问：众所周知，商贸物流对企业的发展相当重要，这方面有什么政策能给我们详细介绍一下吗？', '答：早在2016年，我市就被批准为全国物流标准化试点城市，获得中央资金支持。项目建设期2年。虽然29个试点项目早已全部验收完毕，但是物流标准化工作还在继续，而且这项工作对我市影响很大。据业务主管部门统计，试点后，社会物流总费用与城市GDP比率的对比由试点前的14.6%降低到了13.12%；试点企业物流成本与营业收入比率由试点前的43.6%降低到了19.75%；同口径对比的情况下，包装耗材减少比率平均降低7.8%。通过试点，物流效率显著提升，物流成本明显降低，推动了全市物流业健康发展。形成了推进物流标准化的浓厚氛围，基本形成了三种创新模式。一是“一托链接”：护航农产品流通畅行无阻。创新农副产品“托盘+周转筐”的一贯式运输，将德州农产品物流标准化纳入京津冀标准化物流发展大格局。我市试点企业针对德州在“一圈一带一区”区域发展战略中的“优质农产品供应基地”定位要求，上连农户，下接商超，推行果蔬周转箱循环共用，实现从田间地头采摘到超市销售各环节不倒筐。对济南都市圈和京津冀地区的商超门店以周转筐（箱）为单元进行订货，实现供应链全程“不倒箱”，降低农产品的损耗。二是一托促统”：加速区域主导产业集群的物流标准化发展。围绕农产品加工和流通的产业关键环节以标准化助力德州市现代高效农业新旧动能转换，实现区域实体产业集群提质增效。三是“一托共享”：推进上下游协同提效，降低产业链物流总成本。发挥企业链主作用，积极衔接上下游推动带托运输，提高物流综合效率，实现供应链内企业多方收益，企业合作战略深化稳固。目前三种模式正在周边城市、企业中进行推广。', '答：支持有关主管部门举办各种与外经贸有关的活动。比如说“一带一路”国家经贸活动，邀请“一带一路”国家政府机构及商会协会代表、外宾团组来我市开展经贸考察；鼓励有关主管部门带领企业去其他国家开展经贸洽谈活动、组织企业参加国内外知名的展（博）览会，深化巩固传统市场，拓展提升新兴市场；举办涉外企业培训。', '答：政策的关键在于落实。比如说落实省里出台的《关于支持新旧动能转换重大工程的若干财政政策》及5个实施意见，2019年市级财政安排支持新旧动能转换重大工程专项资金,分别从体制激励、现代优势产业集群、科技创新、金融协同以及落实现行政策等方面助推我市新旧动能转换工作。并以市委办公室、市政府办公室文件印发了《德州市对接争取落实山东省支持新旧动能转换重大工程若干财政政策及5个实施意见的分工方案》对省1+5财政政策进行细化分工。在2019年预算执行中，市财政局与各新旧动能转换有关业务部门积极沟通，加大对我市企业关于涉企政策的宣传和解读，各单位可根据《分工方案》的部门分工和实际工作需要申请使用支持新旧动能转换专项资金，资金统筹用于各项新旧动能转换重大工程的落实，助推民营经济发展。', '6.刚才您介绍的时候我注意到，咱们争取上级资金涉及的领域非常多，比如说食品药品安全，这是与百姓生活息息相关的，能详细介绍一下这方面的情况吗？', '答：民以食为天，食以安为先，近几年食品安全领域发生的许多事件引起了大家广泛的关注。省级对食品和药品的生产环节、流通环节都有资金支持。比如食品安全管理规范化农贸市场创建、“食安山东”餐饮服务示范单位、食品微生物指标检测、食品化学污染物检测、食源性疾病主动监测、药品抽检、医疗器械抽检、药品不良反应监测。市级在食品药品安全领域也投入很多资金。安排的有食品药品安全监管资金，包括食品药品安全监督抽检项目、食品安全质量提升工程项目、市级食品药品检验任务成本性支出、食药稽查项目、食品生产环节第三方协查项目以及相关的食药检测设备购置。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>141</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市文化和旅游局关于丰富农村文化生活市政协十四届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n52354890/c52411017/content.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['市文化和旅游局关于“丰富农村文化生活”（市政协十四届三次会议第 14030340 号）提案的答复', '您提出的《关于丰富农村文化生活的建议》的提案收悉， 现将涉及德州市文化和旅游局业务工作范围的有关情况答复如下：', '为丰富基层群众的业余文化生活，德州市现已开展实施的 文化惠民服务群众文艺演出活动是按照省、市党委政府的部署要求，于 2015 年起逐步开展实施的一项惠民工程，其主要任务是以市级专业文艺院团开展“送演出下基层”为引领与补充，', '深入全市 13 个县市区的部分企事业单位、军营、学校、福利机构、重点村镇（社区）演出，为基层群众送去歌舞、京剧、杂技、曲艺等精彩节目。各县市区则通过选拔组织各类文艺表演团体以开展“一村一年一场戏工程”为主体，确保每年度实施的文化惠民演出活动覆盖本行政区域内的所有行政村。为切实把文化惠民服务群众文艺演出活动做好，把服务民生、文化惠民政策落到实处，近几年来，我市采取政府购买服务的方式大力推进和实施，每年初，市文化和旅游局均召开专题会议研究部署，分级负责落实市、县、乡三级联合保障，选拔优秀文艺演出团体，精心编排群众喜闻乐见的文艺节目开展演出活动。2018 年度，德州市文化和旅游局在总结近年来文化惠民演出经验和借鉴先进市做法基础上，又进一步修订完善了《德州市文化惠民服务群众演出实施方案》，明确了“政府购买、院团演出、监管提效、保障有力”的总体思路，建立起由市局综合协调和督导推进、各县市区局组织实施的领导体制和工作机制，确定于每年度 4 月至 11 月期间在全市集中组织实施文化惠民服务群众文艺演出活动。随着活动逐年开展，全市演出活动场次和效果也逐年增加提高，受到了基层群众的普遍欢迎，市直专业艺术院团演出场次，2015 年达到 300 余场，2016 年达到 600 场， 2017 年达到 800 场，2018 年达到 900 场，2019 年在经费紧张的情况下仍安排 900 场演出计划。各县市区自行组织的民营剧团、庄户剧团开展的“一村一年一场戏”送戏下乡演出活动，2016年就已达到 3210 余场，2018 年度演出活动也已经基本达到行政村全覆盖。同时，我们也看到现实存在的一些问题，如：县市区财政预算配套资金严重不足、参演团体水平有待进一步提高、 室内演出场地太少、我市年中 6 月下旬-9 月份阴雨天气较多、10 月份以后雾霾天气增加交通限行等影响演出开展实施的许多不利因素，对此我们将努力克服，同时继续积极向省、市有关领导和相关部门报告和反映提案所述建议，努力争取给予政策扶持，解决财政经费保障，进一步做好文化惠民服务群众文艺演出工作。', '近年来，德州市委、市政府高度重视农村文化建设，市县 两级投入 5.8 亿元，依托村、社区办公服务场所，采取了市委组织部、市委宣传部、市文广新局联合发文、市政府牵头召开专题会议、承办全省公共文化服务培训班、外出学习考察、销号式摸底、专项督导检查、加大考核力度等一系列有效措施， 全市基层综合性文化服务中心建设成效显著。目前全市建成村（社区）级综合性文化服务中心 2891 个、达标率 99，省定贫困村文化大院 755 个、达标率 100，超额圆满完成省、市年度建设任务，为基层群众开展文化活动提供了便利。三年来市县两级共投入 2000 余万元，其中市本级投入 245 万元，为 140 个贫困村配备电脑、音箱等设备，农家书屋工作基本覆盖已全面完成，根据省局“每年每个农家书屋补充更新出版物不少于 200册，60 种”的工作要求，各县市区统筹农村文化转移支付资金， 为贫困村配发了图书 100 万册，传统文化点播机 100 台，移动音响已实现全覆盖，村级文化大院各类器材设备日趋完善，为群众开展文化活动提供了硬件保障。目前，农村电影院建设国家目前尚未有建设规划，但为了丰富农村精神文化生活，更好地满足广大农村群众观影需求，提高基本公共文化服务水平， 国家一直把农村公益电影放映纳入文化惠民系列工程，每年度以政府购买服务的方式为农村基层群众免费放映电影。2018 年， 全市全年共放映农村公益电影 61526 场。', '一方面，加大培训力度。连续三年举办全市基层文艺骨干 培训班、合唱指挥业务骨干培训班、广场舞业务骨干培训班， 培训 2000 余人，有效提升了我市基层文艺骨干的专业水平和业务素质，使每个贫困村都有一支以上广场舞队伍。2019 年，我市将继续以“培训+活动+比赛”的形成，举办各类基层文艺骨 干培训班。另一方面，开展丰富多彩的群众文化活动，丰富群众文化生活。成功举办了全市元宵节民间文艺展演、德州市广场舞大赛等活动，通过一系列的“送文化”，丰富贫困村群众文化生活。同时帮助贫困村组建群众业余文艺队伍，在具备条件的贫困村中培育扶持一批庄户剧团。', '下一步，我们将在完善设施的基础上，进一步提升管理与服务效能，一是强化队伍建设，每个村配备一名文化服务管理人员，由社区管理人员或聘请文化积极分子参加，负责定期组织文化活动。二是完善服务设施。统筹资金，为综合性文化服务中心配齐相应的设施设备，完善功能厅室。三是，打造活动品牌。发挥民间“土”秀才、乡土文化能人力量，推动“草根” 成为文化礼堂的名人、名师、名角。通过建立书法、音乐、舞蹈等各种协会组织，加强文化活动管理，变送文化为种文化， 确保每个村都能排练演出精品节目。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>141</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市工信局对关于加强对年轻一代民营企业家培养市政协十四届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n52354890/c52364749/content.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['市工信局对“关于加强对年轻一代民营企业家培养（市政协十四届三次会议第14030087号提案）”的答复', '一、关于构建机制，凝聚培育合力方面。一是去年我市印发了《贯彻落实省委省政府关于支持非公有制经济健康发展的十条意见》的实施方案，提出建设高素质企业家队伍，引导非公有制企业加强人才队伍建设。二是我市在支持民营经济发展方面，始终按照中央和省委部署，坚持“两个毫不动摇”“三个没有变”，进一步激发和释放民营市场主体活力和创造力。认真落实习近平总书记在民营企业座谈会上的重要讲话和全省民营企业家座谈会精神，深入贯彻《山东省人民政府关于支持民营经济高质量发展的若干意见》，市政府出台了《德州市人民政府关于支持民营经济高质量发展的意见》，支持民营企业发展，激发各类市场主体活力，促进民营经济更高质量、更有效率、更加公平、更可持续的发展。', '二、关于营造范围，为年轻一代企业家创业创新营造良好成长环境方面。今年市纪委出台《关于推动构建亲清新型政商关系优化营商环境的实施意见》，聚焦影响企业健康发展、破坏营商环境的突出问题，加大精准执纪执法力度，纠正政商交往“亲”而不“清”官商勾结、“清”而不“亲”为官不为等行为，持续优化企业发展的政策环境、政务环境、市场环境、法治环境，为推动企业高质量发展清淤排阻、助力护航。', '三、关于表彰鼓励，激发年轻一代企业家创业创新发展的激情和动力方面。我市出台《关于支持民营经济高质量发展的意见》，指出营造创新创业氛围，建立民营经济表彰制度，营造尊重、爱护、关心企业家的浓厚氛围，市委市政府每年评选表彰奖励100名优秀民营企业家，各县市区也要进行表彰奖励，弘扬企业家精神，焕发企业家创新创业的激情活力。', '四、关于科学培训，提升年轻一代民营企业家综合能力方面。近年来在市委、市政府的高度重视下，围绕影响全市企业发展最基础的问题，以集中轮训方式，开展了“企业家素质提升工程”培训工作，培训工作坚持“三个结合”，即基础启蒙培训和个性化深度培训相结合、线下培训和线上培训相结合，省、市、县培训和企业培训相结合的综合培训体系。突出“三个原则”。一是科学选题突出一个“准”字。组成13个小组深入800多家企业调研，摸清企业需求，确定了公司治理、融资模式、商业模式等十二个培训课题。培训主题侧重预见性、前瞻性、实用性、针对性，对准困扰我市企业发展最关键、最紧迫的问题“下猛药”。同时，根据企业反馈意见及时调整授课内容，组织导师带领资本运营团队，到禹城、乐陵等地企业进行现场对接，取得了良好效果。二是集中轮训突出一个“严”字。按照“统一内容、统一师资、统一计划、分期举办”的方式开展集中轮训。制度保障严，制定了实施方案、县乡党委政府负责人带队制、档案管理制、参训通报制、交流反馈制等制度，确保规模以上企业主要负责人参训。程序规范严，严格规范讲师筛选程序、会务组织程序、考勤补课程序，使得培训工作规范化、流程化。责任分工严，每期培训前召开筹备工作会议，并制定培训工作手册，细化分工，落实到人。三是精选师资突出一个“实”字。以北大、清华、浙大、中央财经大学等国内著名高院博导、硕导，以及华为、阿里巴巴等企业的资深经理人为主，组建了讲师备选库。讲师筛选过程中，不求高、不求大，但求实，除要求理论素养过硬，更注重对实战经验的考察。2013年至今，我市共举办了公司治理与股权激励、企业融资模式、企业全球化战略、“互联网+”企业全程电子商务、区块链技术等五大主题、26场次专题培训活动，先后培训企业主要负责人1.8万人次。通过培训消除了企业家的思想顾虑，极大地提升了企业家的整体素质。', '五、关于团结引导，引领年轻一代企业家弘扬企业家精神端正价值追求方面。市委市政府在贯彻落实省委省政府关于支持非公有制经济健康发展的十条意见》的实施方案中提出，支持各级商会党的建设，以县市区为单位设立“两新”组织；增强非公有制企业党建力量，每年定期进行党组织书记培训，配强党务力量；组织引导非公有制企业党员发挥作用，推进“两学一做”学习教育常态化和“不忘初心、牢记使命”主题教育，促进非公有制企业党组织履职尽责创先进、广大党员立足岗位争优秀。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>141</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>市工信局对关于加快促进德州市工业电商生态化发展市政协十四届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-06-07</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38391604/n38392197/n52354890/c52364857/content.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['市工信局对“关于加快促进德州市工业电商生态化发展（市政协十四届三次会议第14030026号提案）”的...', '市工信局对“关于加快促进德州市工业电商生态化发展（市政协十四届三次会议第14030026号提案）”的答复', '近年来，市工信局高度重视工业企业电子商务发展，结合我市制造业发展实际，大力推动云计算、大数据、工业互联网等新一代信息技术与实体经济融合创新，助力企业借助电子商务发展，推动制造业数字化、网络化、智能化转型。', '2015年，我市被工信部列为国家级“宽带中国”示范城市，成为京津冀协同发展示范城市中唯一被列入的城市。为做好示范城市创建工作，我市深化移动通信基础设施规划，着力打造光纤网络城市，强化城乡公用基础服务设施功能，优化网络发展环境，2016年12月荣获全国“宽带中国”示范城市宽带普及最佳实践奖。目前，固定宽带接入用户数达到127万户，同比增长17.9%，光纤宽带用户达115万，占固定宽带用户的比重达90.6%。4G移动电话用户265.9万户，同比增长22.7%。较宽带中国示范城市创建期初，全市互联网出口带宽从450G提升到2.3T；4G电话用户增长8倍，光纤宽带用户增长4倍；宽带用户网速从2M至4M免费提速到50M至200M。依托高速网络，为电子商务发展提供了可靠的网络保障。', '近年来，我们根据省《关于开展全省“工业电商进千企”活动的通知》要求，积极组织县市区梳理电子商务企业需求，共有华源生态科技等28家企业提报“工业电商进千企”活动需求。2016国际电子商务服务产业博览会在济南高新区国际会展中心举行，我市组织县市区经信局和制造业及电子商务相关企业负责同志等20余人到会参观学习，听取典型企业工业电商经验介绍和工业电商专家讲座，积极促进产业转型升级。博览会期间，禹城市人民政府与网来云商正式签约。', '德州百仕达地标产业有限公司的原产地地理标志产品（农产品）电子商务公共服务平台等6个电子商务平台列入首批山东省重点电子商务平台。积极组织省级工业电商示范县申报，全省共有21个县市区入选，我市的市经济技术开发区、乐陵市和平原县被评为省级电子商务示范县，总量居全省前列。', '组织参加全省工业电商高层次人才培训班，共涉及工业电子商务发展特点、制造业企业电商型路径及方法、制造业企业电子商务管理与运营等六个专题，组织到工信部工业电商示范区、北汽福田参访考察。举办“工业电商百县行”活动，由山东省经信委、山东省电子商务协会主办的“工业电商百县行”活动在武城、夏津、宁津等地举行，同期举行电子商务协会分会授牌仪式。县政府、经信、商务、乡镇负责同志，重点企业代表等500余人参会，来自清华大学、山东财经大学的知名专家作了专题讲座，省内外的10余位电商专家与200家代表企业面对面交流。', '依托电子商务，倒逼企业推动数字化转型，在智能制造系统应用、个性化定制、远程运维服务等领域，涌现出了一批先进典型。1、工业大数据应用方面，禹王集团通过工业互联网实现了生产管理数据实时采集，生产车间的工艺、质量参数等数据与信息化管理平台实时对接，生产计划准确率提高了20%，库存周转率提高了60%。莱钢永锋集团通过实施智能化能源管理系统，消除了因煤气压力过低造成轧钢停线问题，每年带来2500万元的净利润收益；减少高炉煤气总量3%的放散，年化节能1700万元；管网压力稳定率由78%上升到95%。恒丰集团通过生产云平台应用，可实时掌控车间生产数据，及时发现设备故障，减少停台时间，使生产效率提高2个百分点，降低耗能3个百分点，能源利用率提高1.7个百分点。丽驰新能源汽车利用工业互联网实现系统之间的数据联通，初步实现了设计、制造、分销、运营、财务互联和数据共享。2、个性化定制方面，丽驰新能源汽车有限公司、豪美帝家家具有限公司等企业开展了个性化定制服务。豪美帝家家具有限公司以大规模个性化定制为导向，积极构建“在线体验平台+线下体验店+柔性化生产”模式，利用互联网搭建用户与厂家的互动交流平台，针对用户个性化需求进行设计。3、远程运维方面，格瑞德集团启动实施了空调远程云智能服务中心项目，在监控中心即可实时观察机组的运行情况，监控空调机组的控制程序，提升了故障处理效率，降低了现场维护成本，已有21台离心机组在线。宁津县富士、博尔特、莱茵艾佳3家企业应用电梯物联网技术对电梯状态远程监控，电梯物联网使用数量已达7000多部。', '下一步，我们将深入研究您提出的意见建议，立足单位职能和全市实际，围绕工业互联网、现代优势产业+人工智能、5G产业发展和应用等新机遇，统筹推动制造业工业电子商务、工业互联网、双创平台、工业大数据等协调发展，强化电子商务在企业的应用，加速我市企业供给侧改革，更好地促进新旧动能转换和工业转型升级、提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>141</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市统计局精抓四点做好限下贸易抽样问卷</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860999/n42861191/c47874616/content.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['整合限下贸易抽样调查和限下贸易问卷调查工作，是国家局限下抽样调查工作的创新模式，为了高质量高标准的完成首季限下抽样调查任务，德州市局坚持“细、实、严、勤”的原则，从样本确认、数据采集、资料审核、质量评估、汇总上报等环节严格把关，夯实样本数据质量。', '一、样本名录确认，突出“细”字。针对限下贸易抽样+问卷工作的特点，分析批发和零售业、住宿和餐饮业行业及区域分布情况，认真筛选符合要求的样本单位，统筹把握好抽样+问卷的样本数量和结构，通过电话联系、实地考察等多种方式，深入调查核实样本单位基本信息，确保信息准确、有效。并结合四经普清查摸底资料加强与样本名录信息的比对，对于行业代码、城乡代码、单位类型、组织机构代码等信息及时梳理确认，确保样本单位的准确性和代表性。', '二、数据采集，突出“实”字。一是填报有据，在认真学习调查方案基础上，编辑制作相关指标填报说明，印制纸质一览表，详细解读指标填报口径、审核要点和填报注意事项，发放至调查员和调查户，达到弄得通、填的明、有质量的填报效果，为抽样调查+问卷工作打好基础。二是数报要实，市县两级统计人员全程参与，全力指导完成首季调查数据采集工作，仔细填报从业人员、报酬支付、销售额（营业额）、税金、费用等相关数据情况，询问被访者经营中的困难和问题，同时加强数据间逻辑关系的纵横对比，夯实数据采集质量。三是数据留痕，报表填报要签名确认并留档保存。', '三、审核把关，突出“严”字。加大抽样调查数据的审核查询力度，采用市县乡三级层层过滤审核方式，重点审核单指标的极值、各指标间的匹配等，对发现的问题第一时间电话回访、查询反馈，最大限度减少差错，杜绝由于调查员粗心而造成的数据异常现象。详细查看经营情况数据和调查单位问卷中相关指标是否一致，基于客观经济环境对调查数据全方位科学评估，确保报送数据真实准确。', '四、联动沟通，突出“勤”字。调查期间，市县乡随时保持联系，有效沟通解决相关问题，并建立了统计人员及调查员的微信和QQ工作群，将调查进展情况和遇到的问题进行讨论，及时将直报情况在工作群内进行公布，时时做到上情下达，心中有数。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>141</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>平原县年初中小学幼儿园教师招聘公告</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42860412/n42860954/c47645378/content.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['为进一步优化教师队伍结构，促进我县教育事业持续健康发展，根据省委、省政府《关于全面深化新时代全省教师队伍建设改革的实施意见》（鲁发〔2018〕44号）、省委组织部、省人社厅《关于进一步做好县乡事业单位公开招聘工作的若干意见》（鲁人社规〔2017〕21号）、《山东省事业单位公开招聘工作规程》(鲁人社发〔2015〕6号)等有关规定和要求，经研究确定，公开招聘初中小学幼儿园教师82人（具体岗位见附表），现公告如下：', '根据国家和省、市有关规定，由我省统一组织招募和选派的“三支一扶”计划、“大学生志愿服务西部计划”等服务基层项目人员（以下简称服务基层项目人员），服务满2年且完成协议书（合同）规定的服务期限、考核合格后，3年内（指2015年、2016年、2017年招募和选派人员，其中，“三支一扶”计划仅限2015、2016年招募人员）报考的，实行定向招聘。已按照优惠政策被录用为公务员或招聘为事业单位工作人员的，不再适用该政策。', '1. 平原县在编在职教职工；现役军人；在读全日制普通高校非应届毕业生(也不能用已取得的学历学位作为条件报考)。', '2.曾受过刑事处罚或曾被开除公职的；有犯罪嫌疑尚未查清的，以及法律、法规规定不得聘用的其他情形的人员。', '县教师招聘工作领导小组办公室根据考生提交的信息资料进行资格审查，并及时公布初审结果。', '对最终确定的应聘人数达不到招聘计划3倍的岗位，计划招聘l人的，原则上取消招聘计划；计划招聘2人以上的，按3：1的比例相应核减招聘计划。面向服务基层项目人员定向招聘岗位核减的计划数优先调整到同学段同学科的岗位，其他岗位核减和取消的计划数调整到同学段开考比例最大的岗位。报考岗位因达不到开考比例而取消的，考生可在规定时间内改报符合条件的其他岗位。', '拟享受减免考试费用的农村特困大学生和城市低保人员，不实行网上缴费，考生资格初审通过后，本人或委托人于4月26日16：00前到平原县教育局办理减免考务费审核确认手续。办理确认时须携带《平原县2019年教师招聘报名表》、《诚信承诺书》及有关证明材料。证明材料包括：享受国家最低生活保障金的城镇家庭的报考人员，提交家庭所在地的县（市、区）民政部门出具的享受最低生活保障的证明和低保证(原件和复印件)；农村贫困家庭的报考人员，提交家庭所在地的县（市、区）扶贫办（部门）出具的特困证明和特困家庭基本情况档案卡（原件和复印件），或者出具省人力资源和社会保障厅、省教育厅核发的《山东省特困家庭毕业生就业服务卡》（原件和复印件）。', '资格审查工作贯穿教师招聘工作的全过程。进入面试的考生，须向县教师招聘工作领导小组办公室提交本人相关证明材料、《平原县2019年教师招聘报名表》和《诚信承诺书》及1寸近期同底版免冠照片3张。相关证明材料包括：应届毕业生提交学校核发的就业推荐表（毕业时提交毕业证、学位证、报到证、教师资格证）、二代身份证、户口簿等原件及复印件；其他考生提交毕业证、学位证、报到证、教师资格证、二代身份证、户口簿等原件及复印件、中国高等教育学生信息网（http://www.chsi.com.cn/）验证期内的《教育部学历证书电子注册备案表》打印件1份；报考定向招聘岗位的人员，还需提供相关服务基层项目的证明材料：“三支一扶”毕业生出具《招募通知书》和人社部门认定的考核材料；“大学生志愿服务西部计划”毕业生出具团省委考核认定的证明材料、共青团中央统一制作的服务证和大学生志愿服务西部计划鉴定表。', '2019年应届毕业生的学历及学位证书须在2019年7月31日前取得，其他报考人员的国家承认的学历学位证书须在2019年4月20日前取得。', '参加面试的考生面试前三天仍未提交有关审查材料的则视为弃权。经审查不具备应聘条件的，取消其面试资格。因弃权或取消资格造成的空缺，按笔试成绩从高分到低分依次递补。', '1．初中：各学科分别命题，内容为中学教育学、教育心理学，教育法律法规，初中教育教学知识与应用。', '2．小学：各学科分别命题，内容为小学教育学、教育心理学，教育法律法规，小学教育教学知识与应用。', '3．幼儿园：不分学科，内容为学前教育学、教育心理学，教育法律法规，学前教育教学知识与应用。', '笔试结束后，笔试成绩在平原县人民政府网站（教育局公告公示栏）公布。县教师招聘领导小组根据各岗位招聘计划和笔试成绩分别划定合格分数线。各岗位在合格线以上，按招聘计划数3倍的比例确定参加面试人员，若进入面试范围的最后一名有重分者，一并进入面试。达不到规定比例的岗位，按实有人数确定参加面试人员。笔试合格人数出现空缺的岗位，取消招聘计划。', '（一）面试形式：音、体、美学科采取“说课+技能考查”的形式，其他学科采取“说课”的形式。', '全部考试结束后，按笔试成绩和面试成绩各占50%的比例，计算出考生的总成绩。笔试成绩、面试成绩、总成绩均计算到小数点后两位数，尾数四舍五入。总成绩在平原县人民政府网站（教育局公告公示栏）公布。各招聘岗位分别根据实际招聘数按考试总成绩高低依次等额确定参加考察、体检人员名单。如同一岗位出现总成绩相同者，采取笔试成绩、学历层次高者依次优先的办法确定考察、体检人选，以上条件仍相同者采取增加面试的方式予以确定。', '（一）考察。考察按照德才兼备、以德为先的用人标准，根据招聘岗位的要求，全面了解被考察对象的政治思想、道德品质、学习和工作表现、遵纪守法等方面的情况，并对考察对象是否符合规定的报考资格条件、提供的报考信息和相关材料是否真实、准确等进行复审。', '（二）体检。体检标准和相关要求参照公务员录用体检通用标准执行，国家另有规定的从其规定。体检费用由应聘人员承担。应聘者在体检过程中有意隐瞒影响聘用的疾病或者病史的，不予聘用；在体检过程中有串通体检工作人员作弊或者请他人顶替体检以及交换、替换化验样本等作弊行为的，取消资格。未经公开招聘主管部门同意，应聘人员不按规定的时间、地点参加体检的，视作放弃体检。用人单位或应聘人员对体检结果有疑问的，应在接到体检结论通知之日起七日内提出，费用由申请方负担。复检只能进行1次，不在原体检医院进行，复检医院级别不低于原体检医院。体检结果以复检结论为准。', '拟聘用人员公示前，因考察、体检不合格或放弃资格造成的空缺，从同一岗位中按总成绩依次递补。', '1.考察和体检均合格且应聘资格经复核合格的，确定为拟聘用人员并进行公示，公示期为7个工作日。', '2.经公示无异议的拟聘用人员在同一岗位中按考试总成绩由高到低的顺序依次选择工作单位。总成绩相同者，笔试成绩高者优先，笔试成绩也相同的，现场抽签确定择岗顺序。工作单位一经选择，不再进行变更。对拒不服从选择的聘用人员，取消其聘用资格。', '3.拟聘用人员确定工作单位后，报请县政府批准，办理聘用手续。受聘人员与用人单位签订五年的聘用合同，确立人事关系。受聘人员按规定实行试用期制度，期满合格的正式聘用，不合格的解除聘用合同。', '招聘坚持公开、公正和公平的原则，实行招聘范围条件、岗位、程序、考试成绩、聘用结果等“五公开”。对违反招聘规定以及被实名举报查实的工作人员和应聘人员，按照《事业单位公开招聘违纪违规行为处理规定》(中华人民共和国人力资源和社会保障部令第35号)处理，对招聘工作中存在不诚信情形的应聘人员，纳入事业单位公开招聘违纪违规与诚信档案库。', '１、应聘人员在招聘期间要保持通讯畅通，并及时关注平原县人民政府网站（教育局公告公示栏）发布的相关信息。因本人原因错过重要信息而影响聘用的，责任自负。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>141</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>牢记使命严字当头捍卫百姓舌尖上的安全</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018-11-12</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c43697725/content.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：大家好，今天我们有幸邀请到市食品安全委员会办公室主任、市食品药品监督管理局党组书记、局长王胜强同志做客访谈栏目，王局长，您好，欢迎您！', '王胜强：主持人好，大家好！非常高兴通过政府网访谈栏目与大家沟通交流，借此机会，衷心感谢社会各界朋友们长期以来对全市食品药品安全监管工作的大力支持。', '“中国德州”政府网站：王局长，今天想请您就我市食品安全城市创建工作与大家做一下交流，据了解，我市已经取得山东省食品安全市的牌子，目前正在积极争取创建国家食品安全示范城市，您能详细介绍一下相关情况吗？', '王胜强：好的，主持人！我市自2016年开始创建山东省食品安全城市，是全省第二批创建市，创建伊始，在全省率先提出全域创建工作目标，即13个县市区一个标准，共同创建，没有列入创建名单的也要创，目的是确保全市齐头并进提升监管能力和水平。目前，市级层面德州市荣膺山东省食品安全市，7月份省政府为我市授牌。县级层面陵城、禹城、齐河、庆云已命名为山东省食品安全县，临邑、武城、夏津今年底考核验收，乐陵、宁津、平原明年验收。通过创建，夯实了基层基础，目前全市134个乡镇全部建立了食品药品监管所，各县市区从编制、人员、经费、场所、执法装备等方面全力支持，执法条件明显改善，监管能力显著提升。成功创建省级食品安全市后，省政府把我市确定为创建国家食品安全示范城市之一，已经上报国务院食安办，目前尚在等待审批。', '“中国德州”政府网站：相信通过下一步的国家食品安全示范城市创建工作，我市的食品安全水平会取得更好成绩。王局长，当前食品药品安全仍处于问题多发期，防控风险、确保安全是永恒的话题，那么，面对这一艰巨任务，今年我们主要做了哪些工作呢？', '王胜强：解决影响食品药品安全的深层次矛盾和问题，不可能毕其功于一役，我们坚持“安而不忘危、治而不忘乱”的理念，始终把风险防范摆在突出位置，实行全程治理，全面排查食品药品各领域、各环节风险隐患。一是组织开展了十大专项整治。重点对学校食堂及学校周边、高速公路服务区、旅游景区、食品“三小”、高风险药械、网络订餐、农村自办宴席开展专项治理，实施全市统一集中打击。二是着力提升行业面貌。在全市食品生产企业开展食品工厂规范化行动，督促企业落实主体责任，推行良好行为规范，提升软硬件条件。完成20处农贸市场规范提升，完成28家大中型商超“放心肉菜”示范超市公开评价，818家大中型饭店达清洁厨房标准，975家达明厨亮灶标准。借势国家卫生城市复审、全国文明城市创建工作，深化食品“三小”治理整顿和规范提升，促其改善生产经营环境，提升管理能力，“三小”行业的整体面貌有了很大改观。三是深入开展药品净网行动，重点查处从非法渠道购入药品，整顿和规范网上制售假药行为，全面排查乡镇卫生院、农村卫生室药品安全隐患，有效净化了药品市场秩序。', '“中国德州”政府网站：智慧监管实现了政府管理与公共服务的有机结合，可以说是创新驱动监管工作的一次革命，王局长，请问我们是如何从传统监管向智慧监管转变的？', '王胜强：好的！随着大数据、云计算的高速融合发展，信息化日益成为社会经济发展的重要推动力，监管从传统监管向智慧监管势在必行，也面临难得机遇。一是建立“互联网+监管”平台，集许可审批、抽检检测、稽查办案、应急管理于一体，市、县、乡三级建成信息化指挥中心，实现人人监管的目标，解决了监管力量不足的问题。二是汇聚分析大数据，智慧监管平台把监管数据实时传输到县，县再传输到市，市也可以传到省，形成一个大数据。三是实行风险会商，建立“一月一排查，一季一会商”制度，综合分析监管数据，预测安全形势和趋势，增强工作的主动性和有效性，推动由事后查处、被动监管向主动排查、预先防控转变。', '“中国德州”政府网站：近年来，我市不断加强食品药品抽检工作，食品药品抽检合格率也呈现逐年升高趋势，请您详细评价一下德州市的食品药品市场经营状况？', '近年来，我市不断加强食品药品抽检工作，食品药品抽检合格率也呈现逐年升高趋势，请您详细评价一下德州市的食品药品市场经营状况？', '王胜强：近年来，随着创建食品安全城市的深入，我市食品药品抽检数量逐年增大，2016年、2017年连续两年，主城区每年食品抽检超过4批次/千人，其余县市区超过3批次/千人，食品抽检总体合格率97.97%，药品抽检合格率98.08%，食品药品抽检合格率处于历史最好水平，安全形势持续稳定向好。', '“中国德州”政府网站：：当前的食品抽检数量得到大幅提升，请问王局长，我们是如何来提高抽检的质量的呢？', '王胜强：在增加抽检数量的同时，我们也在探求抽检的规范高效途径，实现抽检质量的提升。今年，我市被省局列为食品抽检改革试点，实践中我们以问题为导向，结合产品特点，探索了哨点动态跟踪、抽检分离、查检结合、企业风险评定和地图指引、食品安全状况跟踪等有效途径，提升了抽检的效率和靶向性，以高质量监测促进监管精准化。', '“中国德州”政府网站：随着互联网的发展，网上订餐和网络购物逐渐兴起，已融入我们老百姓的日常生活，在这方面也存在着一些安全隐患，这是我们的一个监管难题，请问我们是如何破解的？', '王胜强：今年省局将网上订餐和网络购物监管试点工作放在德州，为破解难题，我们多次赴外地考察，深入美团、饿了么、阿里巴巴等公司总部，探讨学习先进经验，研究具体监管措施。5月，省局专题到德州调研，邀请美团、饿了么等平台总部对网络监管的思路与办法进行探讨，我局与美团、饿了么等平台总部签署了合作协议，共享信息资源，为做好网上订餐监管工作提供了思路和方法。', '“中国德州”政府网站：当前，我市正在大力推行“一次办好”改革，请问王局长，我们是如何推行“放管服”改革，做好“一次办好”工作的？', '王胜强：“一次办好”是深化行政审批制度改革迈出的坚实一步，是构建服务型政府的重要组成部分。我们坚持“简政放权、放管结合、优化服务”三管齐下，统筹做好“一次办好”改革工作，梳理细化承担的32项“一次办好”事项，拆分成85项行政权力办理事项，2项公共服务办理事项，实现事项全覆盖，提高了办事效率。同时，拓宽“全程网办”内容，率先启用“政务服务综合运用系统”，80%以上的审批事项实现“全程网办”，群众可在网上查阅服务指南、办理流程、许可进度、申报蓝本，也可网络提交材料，由窗口预审。', '“中国德州”政府网站：俗话说，食品安全是产出来的，也是管出来的，良好的市场秩序离不开监管部门的严格执法，请您谈谈我们是怎样打击食品药品违法行为的？', '王胜强：针对食品药品领域群众关心的突出问题，近年来，我们充分发挥稽查办案的“拳头”作用，注重打击实效，严厉打击违法犯罪行为，开展了“守护舌尖安全”、“清源”、保健食品非法宣传等各类整治活动，对违法行为、不法分子无禁区、全覆盖、零容忍，坚决查处非法生产经营的组织者、获利者，坚决斩断重点违法活动的利益链。同时，强化区域协作，去年，由我市发起，建立了德州、沧州、衡水食品药品稽查联动协作区，今年6月召开了“省会城市群”稽查联动协作区第五次联席会议暨“德州、沧州、衡水”稽查协作区第二次联席会议，与公安部门深入故城、景县等地，排查消除省际边界安全隐患。', '“中国德州”政府网站：王局长，前期我市建立了食品药品“1711”社会共治体系，我们是如何发挥共治体系的社会监督作用的？', '王胜强：要实现“管得好”“防得住”和“吃得放心”目标，必须以问题为导向，探索建立符合德州市情的食品药品社会共治模式。今年我们建立了食品药品“1711”社会共治体系，即聘请100名社会监督员，70名专家学者，100名企业质量受权人，1000名志愿者，充分发挥“1711”社会共治体系社会监督作用，启动了“食品安全宣传周”，举办了食品安全社会共治论坛，开展了食品安全进社区、进商场、“透明工厂”体验日等活动，在稽查执法、案件办理中邀请社会监督员全程跟踪参与，邀请专家集中授课，开展志愿宣传普法活动，引导人民群众参与、理解、支持监管工作，把食品药品监管“嵌入”社会管理。', '“中国德州”政府网站：现在已经到了11月份，前期，我们确实做了很多工作，那么下一步，我们要重点做好哪些工作呢？', '王胜强：好的。下一步，我们将面临体制改革，我们将按照市委、市政府的要求，积极推进机构改革工作。改革期间，时刻保持大局稳定，坚守工作岗位，严守各项纪律，保持干部队伍的思想稳定，保持工作的连续性，工作一时一刻也不放松，毫不松懈地抓好食品药品监管工作，深入排查各类风险隐患，抓好关键节点重要领域监管，确保全市人民群众饮食用药安全。', '“中国德州”政府网站：通过王局长的介绍，相信大家对全市食品药品安全监管工作有了更加深入和全面的了解，感谢王局长在百忙之中接受我们的采访，也衷心祝愿我市食品药品监管工作能够不断取得新进展、新成效！', '王胜强：谢谢主持人！食品药品安全永远在路上，我们相信在市委、市政府的正确领导和大力支持下，通过全市上下食品药品监管部门的不懈努力，我们的食品药品安全形势必将持续稳定向好。在此，恳请社会各界一如既往地支持我们的监管工作，积极建言献策，共同维护人民群众“舌尖安全”。谢谢大家！']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>141</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>德州市农业局与烟台市农业局举行农业领域扶贫协作签约仪式</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018-06-08</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1403/n38999498/n38999551/n38999706/n38999712/c39028815/content.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为深入推进德州市与烟台市扶贫协作，加强双方农业领域合作，推进两地农业产业共同发展，', '以烟德扶贫对接签约为新的契机，进一步推动德州市与烟台市在农业领域开展对接协作，实现两市农业领域扶贫协作工作常态化，', '充分发挥两地现代农业品牌、市场、技术优势，支持农业技术人员根据扶贫需要相互学习交流，组织德州贫困村、贫困户代表到烟台实地考察交流，学习果品种植新技术、经营新理念。积极协作推进“企业+基地+农户”模式，帮扶德州发展壮大一批蔬菜、食用菌、中草药等优势产业，健全完善利益联结机制，带动农民增收致富。', '充分发挥两地现代农业品牌、市场、技术优势，支持农业技术人员根据扶贫需要相互学习交流，组织德州贫困村、贫困户代表到烟台实地考察交流，学习果品种植新技术、经营新理念。积极协作推进', '将继续组织烟台农业龙头企业到德州考察，引导和鼓励农业龙头企业到德州投资兴农。同时，将积极为各类参与扶贫协作的企业创造良好条件，支持']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>141</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>德州市制造业与互联网融合发展成效显著</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-04-24</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n19651778/n19652018/c37537042/content.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['为贯彻落实国务院《关于深化制造业与互联网融合发展的指导意见》（国发〔2016〕28号），激发制造业创新活力、发展潜力和转型动力，德州市围绕制造业与互联网融合关键环节，以建设京津冀协同发展示范区为契机，以推进互联网+行动计划为主线，以两化深度融合为主攻方向，立足实际，积极创新，努力推进制造业与互联网融合发展。', '近年来，德州市以两化融合为抓手，大力推动传统产业转型升级，实施新旧动能转换，取得了较好的效果。', '（一）两化融合管理体系贯标进展顺利。山东力驰新能源汽车等7家企业列入国家级两化融合贯标试点企业，其中禹王实业已通过国家贯标认证，两家企业顺利完成工信部电子五所评估，正在审核上报评定。13家企业列入省级两化融合管理体系贯标试点企业。', '（三）两化融合试点示范务实有效。禹王实业有限公司被工信部评为首批国家级信息化和工业化深度融合示范企业。2个单位被评为2017年省级物联网示范平台和物联网应用示范基地。德州电商产业园等4家园区获省级智慧园区试点。宁津县作为德州市首个省级信息消费试点县，“智慧宁津”建设进展顺利，德州市首个县级大数据中心建成运行。', '（四）两化融合发展环境不断优化。出台了《德州市人民政府关于加快推进“互联网+”发展的实施意见》（德政发﹝2015﹞59号），德州市成为全省第一个以市政府的名义发文的地市。《德州市人民政府关于加快电子商务发展的意见》等一系列政策意见先后发布或编制完成，信息化推进的法规体系不断完善，推进机制不断健全，以市信息化工作领导小组为统领，德州市推进大信息化的格局已经形成。先后组织重点企业赴徐工集团、海尔集团、天津赛象等标杆企业学习，企业家对推动企业数字化、网络化、智能化发展的认识不断提高，实施智能制造的意愿不断增强。', '（五）电子商务快速发展。采购环节37%的企业电子商务应用超过30%。实华化工2017年采购订单22.02亿元，全部在网上进行，累计节约资金5000余万元。3个县市区被评为山东省工业电子商务示范县，涌现出国际地理标志产品产业信息网、黄河商品交易市场（大宗农产品在线交易）等一批行业电子商务平台，德州百仕达总经理曹成坤荣获“2017中国电子商务十大新经济人物”。', '（一）大力推动两化融合。1、扎实推进两化融合管理体系贯标。以德州市“三个一百”企业为主体，通过召开座谈交流会、举行专题培训班、组织外出学习对标等形式，提升企业对贯标工作的认识，积极申报国家和省级试点，深入启动实施贯标。禹王集团依托管理体系贯标，通过实施数字化改造，实现了信息化集成管控和大数据建模分析，生产计划准确率提高了20%，库存周转率提高了60%，销售合格率达到了99.5%以上。玲珑轮胎通过实施MES管控应用，平均生产周期缩短15%到20%，产品一次合格率提高到90％以上，原料浪费减少80％。2、深入开展两化融合试点示范。围绕智能制造系统应用、工业电子商务等领域，我们组织开展了德州市两化深度融合示范企业和示范项目评选，确定了禹王实业等首批32家示范企业。恒丰集团通过建设生产经营管理系统，统计人员工作量减少70%以上，重点客户成单率提高20%以上；通过工业云对生产数据实时采集，在线分析，生产效率提高20%，能耗降低10%以上。3、积极组织两化融合整体性评估。从总体上看，德州市工业企业信息化应用层次不断深化，范围不断拓宽，特别是处于集成提升阶段企业有了较大提升。', '（二）推动新业态新模式发展。1、务实推进工业电子商务发展。德州把工业电子商务作为推动企业转型升级的重要途径，成功举办宁津、武城、夏津、市经济技术开发区四场“工业电商百县行”活动，培训人员1000余人；组织企业参加山东省工业电商高层次人才培训班。德州百惠互联科技、德州百仕达地标两家企业入选省级电子商务优秀服务企业。格瑞德集团建立了基于云的商务运营平台，并实现商务运营平台与企业管理平台的对接和数据共享。2、扎实开展智慧园区和信息消费试点县建设。德州电商产业园等4家园区获省级智慧园区试点。作为德州市首个省级信息消费试点县，“智慧宁津”项目建设规划通过专家评审，宁津县政府与好品山东签订战略合作协议，“中国（宁津）实木家具城”电商平台框架搭建完毕，德州市首个大数据中心建成运行。3、大数据云计算产业起步发展。积极发挥通信企业作用，推动大数据产业发展。德州市政府与中兴通讯股份有限公司、中国联通山东省分公司举行战略合作签约仪式，推进建设大数据研究院、大数据产业园等工作。', '（三）完善优化信息化建设环境。1、宽带中国示范城市建设扎实推进。为做好示范城市创建工作，德州市深化移动通信基础设施规划，着力打造光纤网络城市，优化网络发展环境。截至2017年底，德州市互联网出口带宽1.8T；4G基站8792个，增长36.7%；移动电话用户495.3万户，增长3.7%，其中4G电话用户238.8万户，增长27.9%；固定宽带用户119万户，增长14.2%；网络速率20M以上宽带用户89.7万户，较去年增长4倍。去年12月，德州市政府与中国铁塔山东省分公司举行战略合作协议签约仪式，助力德州优先建成5G网络和铁塔绿色电源应用的示范城市。2、深入开展学习培训活动。先后组织相关部门和部分重点企业主要负责人到海尔、红领和徐工集团进行考察学习。组织开展了“山东省‘两化融合’深度行德州站”等一系列活动。通过上述活动，对互联网+制造有了更强的感性认识，对促进德州市企业生产模式向敏捷、绿色、智能、服务化转变起到了积极的推动作用。禹王实业有限公司CIO林青家等三名同志荣获2016年全国优秀首席信息官称号。3、完善信息化建设政策体系。出台了《德州市人民政府关于加快推进“互联网+”发展的实施意见》、《德州市人民政府关于加快电子商务发展的意见》、《德州市“宽带中国”战略实施方案》、《“智慧德州”顶层设计》等一系列政策意见，信息化推进的政策体系不断完善，推进机制不断健全。', '（一）新旧动能转换为信息化建设创造了难得的发展机遇。根据山东省新旧动能转换规划，德州将壮大新能源、生物医药、体育、高端装备制造等新兴产业，改造化工、纺织等传统产业。推动新旧动能转换，基础和核心都离不开信息化，需要全方位提升对信息化建设的认识，加大资金投入，推动信息化与产业发展的全面浓度融合。', '（二）信息化建设中还存在着不容忽视的问题。具体表现在：对信息化的认识还不到位，没有站在发展创新型经济、促进产业转型升级的战略高度来认识和推动；部分企业信息化缺乏总体规划，形成 “信息孤岛”，信息资源未得到充分挖掘；企业信息化建设资金投入不足。信息化建设投入资金较大、回收周期长，中小企业产业项目达不到扶持标准，很难得到资金支持；人才支撑和保障能力不足，信息化建设人才资源匮乏，尤其是既懂企业管理、生产工艺，又懂信息化的复合型人才稀缺，存在招聘难、离职率高等问题；企业信息化应用水平不均衡，相当数量的企业信息化水平仅处于部分业务应用阶段，生产环节应用水平低，集成应用、业务协同基本没有开展。', '（三）推动信息化建设必须与时俱进。目前，德州市正在制定新旧动能转换重大工程实施规划（2018—2022年），全力抓好利用两化融合推进新旧动能转化这篇大文章，推动基于互联网的创新设计、智能制造、新型营销等新业态层出叠现，推动分享经济、平台经济、融合经济等新模式蓬勃兴起。', '制造业与互联网融合发展是实现中国制造2025的重要基础，对推进我国由制造大国到制造强国、互联网大国到互联网强国转变发挥着极其重要的作用。结合德州实际，对制造业与互联网融合发展提出以下建议：', '（一）完善制造业与互联网融合发展体制机制。制造业与互联网融合带来的新业态、新模式，制造业“双创”平台服务型制造等新业务健康发展需要更加完善的制度环境，建议从国家层面加强顶层设计，完善在科技创新、财税金融等配套服务方面的政策，营造有利于制造业与互联网融合发展环境。', '（二）开展制造业与互联网融合发展试点示范。围绕制造业与互联网融合产业发展和应用，积极培育认定一批制造业与互联网融合发展示范企业和示范项目，树立融合发展和应用标杆企业，并积极总结成熟的经验模式。组织同行业企业交流，对接行业成功案例，尤其是国家重点扶植的典型企业案例，为企业的制造业与互联网融合发展提供可借鉴的优化思路。', '（三）健全制造业与互联网融合人才培养体系。建议从国家层面加强对企业信息化人才特别是首席信息官的培训力度，积极开展学习交流活动，完善人才培养体系，培养一批精通制造业与互联网融合融合发展的高端人才和团队，深入到企业内部开展与企业发展需求相一致的培训，为制造业与互联网融合发展提供人才支撑。', '（四）加强互联网安全顶层设计。建立健全新技术、新产品、新模式、新业态的安全模式和安全规则，建立低时延，高可靠、覆盖广的网络或设施。构建互联网立体防御体系，加大力度提升制造业与互联网融合安全监测预警能力、应急处置能力，切实提升工业网络、工业控制系统、工业大数据平台安全防护能力。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>141</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>突出重点打造亮点推动全市文广新工作呈现新局面</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2017-08-03</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c30297083/content.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['德州市政府网站：高局长您好，欢迎您做客“中国德州”网站。公共文化服务体系建设与人民群众的文化生活息息相关，今年3月1日，《中华人民共和国公共文化服务保障法》正式施行，对进一步加快公共文化服务体系建设产生了积极的推动作用。上半年我市公共文化服务体系建设进展如何，又取得了那些成效呢？', '高建：今年以来，我们以贯彻公共文化服务保障法为契机，坚持城市农村统筹、硬件软件同抓，不断完善公共文化服务体系联席会议运行机制，全市公共文化服务体系建设取得新成就。 （一）大力推进德州市图书馆新馆、市文化馆、市美术馆建设。市文广新局制定完成详尽完善的三馆规划建议书，同时积极向市委、市政府汇报争取，三馆建设列入全市建设规划。目前，已组成市民中心建设工作小组，采用PPP建设模式，并配合相关部门做好业务工作指导。 （二）积极开展图书馆评估定级工作。加强业务指导，组织召开全市图书馆评估定级业务培训。市文广新局成立3个督导组，对县市区图书馆评估定级工作开展督促指导，要求县市区采取新建、扩建、建分馆等措施，查漏补缺，不断完善提升。目前，全市11个图书馆拟申报国家一级图书馆5个、二级馆6个。 （三）扎实推进基层综合性文化服务中心建设。3月中旬，省文化厅厅长王磊来德州调研文化工作，王磊厅长再次肯定和表扬我市基层综合性文化服务中心建设工作措施得力，落实到位，成效显著。为圆满完成今年工作任务，市文广新局先后赴滨州市、东营市学习考察，特别是分管副市长马俊昀带队赴浙江省考察学习，取得很好的工作成效。5月份，市政府牵头召开全市基层公共文化服务体系建设专题会议，各县市区政府分管负责人、文广新局局长及市公共文化服务体系建设协调机制成员单位参加会议，马俊昀副市长对基层公共文化服务体系建设提出“十个一”工程要求。市文广新局将基层综合性文化服务中心建设纳入全市协同发展考核指标，实行督导问责机制，坚持党组成员分包县市区制度，建立完善协调机制和销号制度，按月调度进展情况。结合工作实际，制定差异化工作目标，明确5个县市区达标率100%、8个县市区最低达标率90%。目前，全市村级综合性文化服务中心建设达标率72%，省定贫困村文化大院达标率82%。', '德州市政府网站：文化惠民工程是丰富群众文化生活的重要抓手之一，高局长，请您介绍下今年来我市文化惠民工作的开展情况。', '高建：今年以来，市文广新局坚持文化惠民、服务群众，强力推进公共文化场馆免费开放、农村文化大院优化升级、农家书屋提升工程、农村公益电影放映、送演出下基层等文化民生工作，确保广大群众充分享受了文化发展成果。 （一）送演出下基层活动取得新突破。坚持文化惠民服务群众，投入400万元，以政府购买服务的方式大力开展送戏下乡。为进一步扩大文化惠民覆盖面，研究成立了全市送演出下基层文化惠民活动领导小组，两次赴滨州专题学习考察，并召开全市送演出下基层专题会议安排部署。同时加大宣传力度，统一印制演出海报，通过张贴海报、喇叭广播、微信推送等方式，确保广大群众共享文化发展成果。自4月6日启动市级演出以来，目前已完成上半年“送演出下基层”活动390场，参与群众11万人，进一步提升了广大群众的文化生活满意度。 （二）文化惠民活动取得新成效。目前，市县乡村四级公共文化场馆全部实现免费开放，年均接待观众4000万人（次）。同时不断充实服务项目、拓展服务空间，拥有服务品牌101个、服务窗口82个，实现服务有标准，管理更规范；采取“培训+活动+比赛”模式，成功举办全市基层文艺骨干培训、元宵节民间文艺展演暨“非遗月”系列活动启动仪式、青少年儿童才艺大赛等品牌文化活动。特别是为鼓励支持广大基层群众开展丰富多彩的文化活动，市文广新局积极争取省级扶持政策，为800个社区（村）配发便携式拉杆音响。7月10日，已按照社区比例，将音响配发至各县市区，实现全市所有社区、村移动音响全覆盖，为基层群众文化生活提供便利；全市全部实现有线电视“户户通”，无线数字电视覆盖工程第一期乐陵市、陵城区、宁津县、武城县、庆云县、夏津县6个县市区已全部开播，第二期平原县、临邑县正在进行发射铁塔建设，即将开播，居民通过无线可免费收看中央地方十几套电视节目；目前已放映“文化惠民 服务群众”与“迎接党的十九大、共圆小康中国梦”等农村公益电影电影6.4万场，特别是近期开展“送清凉”活动，现场慰问了一线电影放映员；加强农家书屋管理使用和作用发挥，突出做好贫困村农家书屋的补充更新工作。目前，全市755家省定贫困村，已完成696家贫困村农家书屋的提档升级工作。', '德州市政府网站：南运河德州段列入世界文化遗产之后，关于南运河德州段的开发和利用始终是市委市政府所重视的问题，也是广大市民关心和关注的问题。高局长，请您介绍下我市近年来大运河保护与利用情况。', '高建：近年来，我们市文广新局积极做好世界遗产中国大运河的保护与利用。按照省文物局推动建设大运河世界文化遗产公园项目要求，确定“三段一点”工作思路，扎实推进大运河项目建设。围绕科技运河、文化运河和生态运河，分别在德州码头（仓储）打造近现代运河文化风貌文化节点，在武城县四女寺恢复四女寺枢纽船闸通航展示，建设四女寺枢纽水利科技文化展示场馆。同时，申报完成北厂漕仓遗址考古勘探项目、德州机床厂旧址建筑修缮工程、省级以上文物保护单位保护员项目3个省级重点文保项目，申请补助资金971.2万元。申报乡村记忆工程传统民居修缮项目13处。', '德州市政府网站：除了南运河德州段的保护与利用，我市文物保护工作还开展了哪些重点项目和工作？', '德州市政府网站：今年来，我市的“非遗进校园”活动如火如荼，受到了广泛好评。高局长，请您介绍下，今年我市“非遗进校园”活动的有关情况。', '高建：今年来，市文广新局加大非物质文化遗产保护力度，非遗进校园系列活动取得新突破。为加强非物质文化遗产保护，培养学生对传统文化的兴趣，市文广新局采取成立非遗进校园活动领导小组、召开新闻发布会、与市教育局联合发文等措施开展非遗进校园活动40余场，参与学生4万余人，是近年开展场次最多、参与学生最多、社会效果最好的一年。全市“非遗进校园”活动按照展演+展览模式，突出讲、演、教特点，邀请省吕剧院进高校、市直三团进中学演出8场，在学校营造了保护传承非物质文化遗产的浓厚氛围。同时，加强非遗名录体系建设，全市9处历史文化展示点入选全省首批县及县以下历史文化展示“十百千”示范点，推荐5名代表性传承人申报省级代表性传承人，推荐古贝春有限公司、木人唐木艺有限公司申报省级非遗示范基地，争取省级资金20余万元。', '德州市政府网站：近年来，市委市政府提出协同发展战略部署。上半年咱们市文广新局开展了哪些工作呢？', '高建：我们以全市建设协同发展示范区为契机，加快融入首都北京和济南省会城市步伐，推动文化产业协同融合发展。一是积极开展文化产业发展战略合作。以全市协同发展为契机，加快融入首都北京和济南省会城市步伐，加强与文化部中国对外文化集团公司、中国出版集团等签署战略合作；推动与中电建集团战略合作。积极引领德州杂技进驻首都文化市场，市杂技团成功进驻北京十三陵景区，精彩上演《鼎盛王朝》《梦回明朝》等杂技晚会，平均每天演出3场，平均日接待游客1万余人，演出持续三年左右。4月10日，省文化厅厅长王磊一行赴北京十三陵景区调研观看演出。对德州市加强艺术创作，开拓演艺市场，融入首都文化中心的做法给予充分肯定，并要求为全省文化消费季提高积极借鉴，大力发展文化旅游样板。二是文化产业项目建设顺利推进。由德州董子文化街、青岛银行投资建设的鬲津艺术小镇，已完成前期策划。项目为综合性文化产业园区，以书画艺术为主体，规划建设占地3平方公里。德州电影文化产业园完成前期运作，位于德州董子文化街二期，规划建筑面积4万平方米，目前已有数十家企业入驻。', '德州市政府网站：文化惠民消费季是我省丰富群众文化生活、拉动文化消费、培育经济发展新动能的重要举措，也受到广大群众的关注。高局长，请您介绍下我市文化惠民消费季有关情况。', '高建：按照省文化厅有关要求，市文广新局精心筹备组织开展山东文化惠民消费季活动，积极向市政府汇报争取，起草上报《关于开展首届德州文化惠民消费季的报告》《首届德州文化惠民消费季实施方案及相关部门分工方案》，同时组建成立市文广新局消费季工作组委会及办事机构，明确工作人员和工作职责，确保活动顺利开展。目前，拟定首届德州文化惠民消费季的主题--文惠德州，征集52项主题活动项目，特约文化企业及商户94家，重点策划推出中国国际（德州）董子文化节、中国德州黑陶文化艺术节、德州不夜城、孝行天下孝道文化大篷车齐鲁行、剪纸文化进校园等一系列德州特色的文化惠民主题活动。7月15日，圆满举行“孝行天下--首届山东孝道文化大篷车齐鲁行公益活动启动仪式暨《中华孝道 厚德之州》文化论坛”，是全省启动最早的文化主题活动；成功签约第一批特约企业31家，成为全省第一个集中签约的市，广大文化企业及商户参与积极性不断高涨。', '德州市政府网站：高局长，咱们全市的新闻出版广播电视工作，上半年取得了哪些工作成效，请具体介绍一下吧？', '高建：（一）支持媒体深度融合发展。深入贯彻落实省、市推动媒体融合发展的有关要求，积极做好扶持项目申报，《德州广播电视台融合媒体技术平台》《夏津广播电视台互联网+融媒集成服务平台》成功列入省级新闻出版广电影视产业项目库。 （二）推动市县广播电视台改革。为深入贯彻落实习近平总书记在党的新闻舆论工作座谈会上的重要讲话精神，及中央、省、市深化文化体制改革要求，扎实推进县级广播电视台改革发展。 （三）深入开展全市安全播出大检查活动。为确保十九大期间广播电视安全播出，根据国家、省部署要求，深入开展广播电视播出秩序集中整治行动，分4个检查组对8个县市区（陵城、平原、宁津、乐陵、临邑、庆云、武城）的广播电视台播控中心、无线发射台站、有线电视前端等进行安全检查，加强整改，确保规章制度、应急预案、供配电系统、设备配置、消防安全、安全保卫等健全完善，进一步规范了广播电视播出秩序。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>141</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>德州运河经济开发区幼儿园园长及骨干教师赴北京研修</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2016-06-22</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1431/n20123954/n20129280/n20130173/n20151704/c27920553/content.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为了提高运河区的学前教育管理水平、办园理念，提升品质，率先引进京津冀发达地区先进的幼教理念，积极探索办园新模式。结合我区教育实际需求，运河区教育局组织幼儿园园长及骨干教师一行53人，参加了北京开发大学为我区学前教育现状量身打造的为期三天的“幼儿园园长、骨干教师课程领导力专题研修班”培训学习。 为了保证培训质量，区教育局制作了培训学习手册，并进行了训前学习培训。从成立组织，学习要求，纪律要求，生活须知，学员分组,五个方面进行详细的培训。 教育局全程参与此次研修。这次培训时间是：6月14日--6月17日，学研修内容为~园所实地考察+特色课程规划、设计与实施+课程领导力+专家专题报告+总体回顾与反思+行动计划。并且研修过程中还进行了网络直播，让未到北京的教师，通过网络一起观看了梁雅珠教授的报告。参加此次学习的园长及骨干积极主动，课上认真倾听，课后认真反思讨论，回到幼儿园有马上进行了园内二次培训。运河学前教育掀起了培训的热潮。 通过三天紧张地研修，收获满满，园长教师十分珍惜运河区教育局领导提供的这次宝贵的学习机会，感受到北京先进的教学理念。一致表示在今后的工作中不断地更新改进，做好京津冀对接，促进运河区学前教育的发展！']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>141</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>发展新经济助推工业与信息化发展</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2016-11-10</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c27531414/content.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：大家好，今天我们邀请到的嘉宾是德州市经信委研究室主任贾卫国同志。贾主任您好，很高兴您能抽出时间接受我们的采访。', '贾卫国：主持人好，大家好！很高兴今天能够通过咱们市政府网站这个平台与网友们沟通交流。', '“中国德州”政府网站：信息化一直是群众非常关注的热门话题，工业则是国家发展的重要支柱，请您简要介绍一下今年的经信工作情况吧。', '贾卫国：今年以来，德州市经信委在市委市政府的领导下，牢固树立创新、协调、绿色、开放、共享发展理念，主动适应经济发展新常态，全委精神风貌、工作质效不断提高，得到了党委政府和社会各界的充分肯定，荣获国家生物产业新型工业化示范基地、国家太阳能光热利用新型工业化示范基地、国家体育产业基地、国家工业领域煤炭清洁高效利用示范市、国家“宽带中国”示范城市等一批国家级荣誉称号，连续多年在德州市科学发展综合考评中获得一等奖。拥有规模以上工业企业3019户，数量居全省第五位。2016年1-10月份，全市规模以上工业增加值同比增长6.5%，增速较1-9月（6.2%）提高0.3个百分点，较上半年（5.6%）提高0.9个百分点。全市规模以上工业实现主营业务收入8295亿元，同比增长9.5%，增速居全省第一位。我市建成全国首批全光网城市，成功入选国家“宽带中国”示范城市，为京津冀地区唯一入选的地级市。2015年11月，德州市政府出台了《关于加快推进“互联网+”发展的实施意见》（德政发﹝2015﹞59号），成为全省第一个以市政府名义发文的城市。', '“中国德州”政府网站：真是让人欣喜地成就，那么请您介绍一下是如何规划引领工业发展的好吗？', '贾卫国：近年来，围绕强化工业主导地位和支撑作用，先后制定了《德州市工业产业集群发展与布局总体规划》（2014-2020），《关于加快推进工业转型升级的意见》和《德州市工业产业“8+1”转型升级行动方案》涉及22个重点子行业。特别是2015年10月10日，全市召开解放思想抢抓机遇努力建设协同发展示范区动员大会，印发了《关于抓大扶强加快工业转型发展的意见》，提出了打造装备制造、绿色化工、农产品加工、新型纺织、新能源、生物技术等6个千亿级产业集群的发展目标，规划“10+6”产业布局，实施“3个100”培植工程，明确了工业突破的“路线图”和“时间表”。围绕主导产业的培植，建立了小型电动车、体育用品、电梯、新型纺织、产业用布、空调设备、汽车零部件、生物技术、现代医药、石油装备、节能环保、太阳能利用等12个产业联盟。', '贾卫国：你说的很对，近年来，我市始终把技术改造作为调整工业结构、转变经济发展方式的重要突破口。全市每年实施150个工业转型升级导向计划项目，全市技改项目质量明显提升，今年共有18个项目列入工信部工业技术改造重点项目库，112个技改项目列入全省技改导向计划，占全省导向计划项目的十分之一。1-10月份，全市完成技改投资655亿元，同比增长20.8%，增幅居全省第3位。', '贾卫国：企业想发展，经济想进步，需要全方位的指导与帮助，具体的做法还包括以下几点：', '一是抢抓机遇，加快企业对外合作。为抢抓融入京津冀协同发展机遇，加快重点企业培植，把对外“合作”作为企业膨胀发展最有效、最直接的措施。近两年来，全市工业企业中共有各种类型对外合作项目522个。一是并购重组59个，其中实施并购26家，被并购33家；二是开展项目合作154个，其中与科研机构合作项目39个，与投资机构合作项目12个，与“下游大户”合作项目54个，与行业“龙头”合作项目49个；三是开展研发合作的企业216个，其中合建平台企业117个，协同研发企业99个；四是开展“市场”合作企业93个。', '二是加快股改，建立现代企业制度。2014年以来，印发《德州市工业企业股份制改造工作实施意见》、《关于进一步加快工业企业股份制改造的意见》，大力推动股份制改造。2014年以前，全市仅有38家企业进行了股改，目前全市完成股改企业200家，新三板挂牌企业19家，区域性场外市场挂牌企业101家。郭树清省长对我市企业股改上市工作充分肯定并作出批示， 2015年6月10日召开的全省规模企业规范化公司制改制工作会议上，我市作为唯一发言地市作了经验介绍。', '三是排忧解难，全面开展“进解促”活动。按照建立“亲”、“清”新型政商关系的要求，自今年8月份开始，在全市开展 “进企业、解难题、促发展”活动。组织17位市级领导成立14个帮扶工作组，对全市“三个一百”企业进行帮扶，目前，各工作组共开展进厂入企1092（企）次，梳理企业问题561个，已解决完成274个，正在解决287个。经济日报头版头条以《山东德州帮扶企业破难题—对接“京津冀”敢啃硬骨头》为题进行了重点报道；中国工业报社3次来德采访，分别以《聚焦德州—市委书记带头唱响进企业、解难题、促发展高歌》、《山东德州全面掀起进企业、解难题、促发展帮扶热潮》、《进企业、解难题、促发展—山东德州构筑新型政企关系》为题进行了专题报道。', '贾卫国：今年以来，在市委、市政府的正确领导下，我市认真贯彻落实国家和省关于信息化发展的有关政策，以建设京津冀协同发展示范区为契机，以推进互联网+行动计划为主线，坚持“顶层设计、基础先行、融合应用、创新驱动、示范引领、协同推进”的基本思路，扎实工作，开拓创新，我市的信息化工作有序推进。山东力驰新能源汽车有限公司获国家级两化融合管理体系贯标试点企业，德州精益信息咨询有限公司被工信部列入贯标咨询服务机构，德州联合石油等7家企业入选省级两化融合管理体系贯标试点企业。德州百仕达等6个电子商务平台列入首批山东省重点电子商务平台。德州电商产业园、乐陵经济开发区等2家园区获省级智慧园区试点。３人入选国家级优秀首席信息官，4名同志入选省级优秀首席信息官，禹王实业有限公司CIO林青家荣获2016年全国百佳优秀首席信息官称号。信息化扶贫成绩突出，夏津县苏留庄镇等三个乡镇被评为山东省信息化扶贫示范镇试点。', '一是，积极推进企业两化融合管理体系贯标。为引导企业建立科学的两化融合管理机制，确保企业达到预期的两化融合成效，打造信息化环境下的新型能力。按照省经信委关于做好两化融合管理体系贯标试点申报工作的通知要求，以我市“三个一百”工程企业为主体，积极组织企业开展贯标工作。目前，共有5家企业获国家两化融合管理体系贯标试点企业，分别是山东力驰新能源汽车、保龄宝、天鼎丰、德方液压、奇威特、禹王集团，其中禹王集团已通过国家两化融合管理体系认定。德州联合石油等7家企业入选省级两化融合管理体系贯标试点企业。德州精益信息咨询有限公司被工信部列入贯标咨询服务机构。', '二是，积极做好两化融合整体性评估。根据省经信委《关于开展企业两化融合整体性评估和区域性评估工作的通知》要求，我市进行了专项部署，各县（市、区）高度重视，积极组织企业填报数据，对企业上报数据进行审核汇总，严格把关，已完成评估数据的上报工作。从总体上看，经过近几年努力，全市工业企业信息化应用层次不断深化，范围不断拓宽，特别是处于集成提升阶段企业有了较大提升。', '三是，深入开展企业信息化培训考察活动。为开拓全市经信系统和企业开展两化融合的思路，帮助企业树立互联网思维，提高智能制造发展意识，助推工业转型升级，先后组织我市经信部门和部分重点企业主要负责人到海尔、红领和徐工集团进行考察学习。组织开展了“2016年山东省‘两化融合’深度行德州站活动”，参加了中国制造业与互联网融合发展高峰论坛、2016世界工业互联网大会、山东省两化融合深度行——化工机械行业专场活动等一系列活动。通过上述活动，使经信系统负责信息化的同志和企业负责同志，对互联网+制造有了更强的感性认识，对促进我市企业生产模式向敏捷、绿色、智能、服务化转变起到了积极的推动作用。', '四是，扎实推进信息化人才建设。３人入选国家级优秀首席信息官。4名同志入选省级首席信息官，禹王实业有限公司CIO林青家荣获2016年全国百佳优秀首席信息官称号，丽驰新能源有限公司副总经理张立军、德方液压机械股份有限公司副总经理刘宝芳荣获2016年全国优秀首席信息官称号，我市当选人数居全省前列。', '五是，组织开展两化深度融合示范企业和示范项目评选工作。为贯彻落实《德州市人民政府关于加快推进“互联网+”发展的实施意见》（德政字〔2015〕59号），强化示范带动效应，提升两化深度融合整体水平，推动全市工业转型升级和发展方式转变，市经信委组织开展2016年德州市两化深度融合示范企业和示范项目评选工作。围绕智能制造系统应用、两化融合管理体系建设、大规模个性化定制、远程运维服务等领域，筛选一批重点示范企业和示范项目进行培育。', '“中国德州”政府网站：由于时间关系，今天的访谈就要结束了，再次感谢贾主任参加本次访谈。', '贾卫国：谢谢主持人，谢谢各位网友。最后，再次感谢各位网友对经信委的关心和支持，希望大家多提宝贵意见。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>141</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>把握机遇积极作为迎创德州旅游新时代</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2017-10-30</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c33518520/content.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['“德州市政府网站：刘局长您好，欢迎作客“中国德州”。 近年来，旅游业受到了社会各界的广泛关注，各级党委、政府也高度重视。我市旅游业目前是什么情况？给大家介绍一下好吗？', '刘宗斌：好的。首先，我代表德州市旅游局，向关心支持旅游事业发展的广大网友和人民群众表示衷心的感谢。 近年来，在市委、市政府的坚强领导和社会各界的关心支持下，全市旅游系统终坚持以科学发展观和新发展理念为引领，以打造“区域性观光、休闲、度假、养生旅游目的地”为目标，解放思想、务实创新，履职尽责、积极作为，实现了德州旅游由小到大、由少到多、由点到面、由量到质的跨越式发展，旅游业已经成为我市新旧动能转换的强大动力。 一是旅游发展氛围空前浓厚。市委、市政府将旅游业发展摆到更加重要位置，出台了《关于加快全市旅游业改革发展的意见》等多个规范性文件；市四大班子领导高度重视旅游工作，市委书记、市长、分管市长多次对旅游业工作进行调研和做出批示；市人大、市政协每年都视察旅游工作，形成多篇高质量的调研报告，为旅游业发展出谋划策；各县市区（管委会）抓旅游发展的工作热情空前高涨，涌现出庆云、夏津、齐河三个旅游强县，同时齐河、夏津、庆云、乐陵列入全省全域旅游示范单位创建名单，形成了你追我赶，竞相发展的良好局面；市直有关部门充分认识到“旅游+”的意义，普遍加大了支持力度；市内大企业积极参与旅游开发和投资，社会各界对旅游业的关注度持续增加，“大旅游”深入人心，形成了“党政领导、社会关注、全民参与、齐抓共管”的工作格局和浓厚的社会氛围。 二是旅游产业经济快速发展。2012年至2016年间，全市接待国内外游客数量超过1亿人次，实现旅游收入600多亿元，年均增长率分别达到11.24%和17.23%，两项指标增速均居全省前列。其中，旅游消费总额相当于全市GDP比重由2012年的3.9%提高到5.6%，在服务业增加值中的占比由2012年的11.2%提高到13.3%，旅游业成为全市国民经济中发展速度最快的产业之一，在全市经济发展中的地位逐渐提高，对经济的贡献率逐年增加。 三是旅游项目建设硕果累累。坚持将旅游项目作为拉动旅游产业发展的第一动力，大力实施旅游项目建设行动计划。推进精品建设，齐河泉城海洋极地世界、泉城欧乐堡梦幻世界，德百温泉度假村获批国家4A级旅游景区；强化项目招商和服务，齐河大地自然博物馆、齐河温泉度假村、水上世界、东盟现代生态城、庆云迪趣欢乐水镇、夏津德百旅游小镇、太阳能德州小镇等77个，总投资超过500亿元的重点旅游项目相继签约落地并在加快建设之中；乡村旅游风生水起，齐河、夏津获全省乡村旅游示范县，致中和、金水湾、龙悦、九龙湾、探花庄园、沃森、鳌龙等项目相继建设并获省级乡村旅游示范单位称号。 四是旅游产业规模持续壮大。坚持抓产业要素配套不放松，“吃、住、行、游、购、娱”六大旅游要素不断完善。新增A级景区22处，达到58家，其中4A级旅游景区达到8家，是2012年的2倍；国家级和省级工农业旅游示范点发展到80处，是2012年的2.1倍；旅行社及分支机构达到300多家，是2012年的4.3倍；齐河县成为全市第三个省级旅游强县；省级旅游强乡镇发展达到26个、旅游特色村达到39个，分别是2012年的3.7倍和6.5倍；旅游行业从业人员超过10万人，旅游业成为转移农村劳动力和拉动就业的新引擎。全市初步形成了要素集聚化、产业链条化、发展规模化的旅游发展新格局。 五是旅游宣传促销丰富多彩。坚持广告铺路，连续五年在中央电视台、山东卫视等重要媒体，多次在重点客源城市高铁站、机场等人员密集区投放旅游宣传广告，市级投资超过1600万元；坚持活动聚焦，连续五年举办好客山东贺年会、好客山东休闲汇和中国旅游日主题活动，精心打造了梨花节、蟋蟀节、椹果节、小枣节等十多个特色旅游节庆品牌；坚持区域合作，积极融入京津冀旅游市场，我市发起成立了“冀鲁边旅游联盟”和“京津冀鲁旅游联盟”，树立了形象，扩大了宣传，实现了规划、市场、线路三对接。同时，还加入高铁城市旅游联盟、运河旅游联盟、省会城市群旅游联盟等，参加旅游交易会60余次。五年的投入和实践，叫响了“协同发展示范城市”品牌，“上善若水，有德之州”已家喻户晓，深入人心。 六是旅游市场秩序安全有序。坚持“一切为了游客，为了游客一切”的理念，把产业当事业，把游客当亲人，推进旅游管理创新。坚持标准化建设，在全省率先出台《德州市旅行社考核办法》和《德州市旅游饭店接待服务标准》；宣传贯彻《旅游法》，开展旅游市场检查60余次，严查各类旅游违法、违规行为，建立了良好的旅游市场秩序；深化旅游管理改革，实现旅游协会“政会脱钩”，夏津县旅游警察大队开创了全省旅游市场综合监管机制改革的先河；坚持人才兴旅，连续五年举办旅游饭店业务技能大赛和导游员才艺大赛，选拔推荐优秀人才，在全省比赛中多次取得佳绩，举办各类培训班20余次，培训行业人员3000多人次；大力实施厕所革命、饭店提升、旅游商品、旅游文明等重大行动，旅游软件、硬件环境受到业内人士和游客高度评价。', '“德州市政府网站：听了刘局长的介绍，大家对我市旅游业发展情况有了更加清楚的了解。今年以来，全市旅游系统主要做了哪些工作，给大家介绍一下好吗？', '刘宗斌：好的。为促进旅游业发展，市委、市政府采取了很多有利的措施，我们旅游系统也紧跟上级工作思路，结合我市实际，做了一些工作。 一是稳步推进全域旅游工作。按照全省《全域旅游示范市县评定标准》，指导相关单位争创省级全域旅游示范区。其中，庆云县召开了全域旅游示范区创建动员会议，编制了全域旅游规划，成立了旅游发展委员会；乐陵市成立了党政主要领导任组长的全域旅游创建工作领导小组，制定具体实施方案；齐河县设立300万元旅游专项资金，助力全域旅游建设；夏津县加快编制《黄河故道森林公园总体规划》，推动全域旅游创建工作有序进行。 二是重点抓好项目建设。市旅游局出台了《德州市旅游项目建设三年行动计划（2017-2019年）》；全市在建重点旅游项目77个，上半年完成旅游项目投资36.7亿元。投资15亿元的齐河水上世界建成营业，德州太阳能小镇、齐河温泉度假村、东盟国际生态城、大禹文化产业园、庆云古城等重点项目加快建设；投资68亿元的庆云迪趣欢乐水镇，投资32亿元的夏津德百旅游小镇等6个项目开工建设；庆云金山国际文化旅游城、夏津平安湖梦幻水上乐园、平原东海温泉健康旅游小镇等项目完成签约，正在编制完善详细规划。 三是全力突出乡村旅游。积极开展省级休闲农业和乡村旅游示范点、旅游小镇和精品民宿培育工作，乐陵市龙悦生态观光园等5家单位通过省级精品民宿验收，庆云尚堂石斛小镇入选全国特色小镇创建名单，投资300亿元的齐河温泉小镇项目全面启动；认真开展旅游扶贫工作，7个乡村旅游项目获上级资金480万元，21个省级旅游扶贫村获乡村旅游扶贫资金2100万元；千年枣林游览区成功入选全国80家旅游扶贫“景区带村”示范项目，乐陵龙悦生态观光园总经理付桂海被评为全国旅游扶贫“能人带户”；强化乡村旅游从业人员培训，采取外出考察参观、举办专题培训班等培训相关人员500余人。 四是不断完善旅游要素。开展旅游饭店提升工程，创新性印发了全省首个《德州市旅游饭店接待服务标准》，申报四星级饭店1家、主题文化酒店5家；加强旅行社考核工作，新增旅行社4家;加强A级景区培育，召开全市A级旅游景区工作座谈会，新增4A级景区1家；组织参加“山东好礼﹒一城一品”评选，17项特色旅游商品进入候选名单；强力推动厕所革命，完成了801个旅游厕所的验收工作，获得上级奖补资金1300多万元。 五是宣传推介形式多样。在央视、山东卫视等宣传播放德州旅游宣传片；参加山东国际旅游交易会、北京国际旅游博览会等5次旅游交易会；组织发起成立了4省12市“京津冀鲁协同发展城市旅游联盟”，7省370多家旅行社参加会议，在全国区域旅游联盟也是一个创举；举办了好客山东（德州）贺年会、“5.19”中国旅游日、夏津黄河故道森林公园椹果生态文化节、奥德曼文化旅游节、“爱家乡·游德州”等多个旅游文化活动，不断聚集人气。 六是行业监管不断加强。加强出境旅行社管理，开展“低价游清理行动”；实施旅游系统“安全生产月”活动，开展市场秩序大检查行动，确保了旅游安全无事故；以创建全国文明城市为契机，积极推进文明旅游工作，指导各涉旅企业宣传创城工作和文明旅游，累计发放文明旅游公益广告、宣传语、宣传画等1万多份，以旅游文明促进城市文明的氛围已初步形成。', '“德州市政府网站：我们相信，作出这些成绩的背后，肯定是很多个旅游工作者们兢兢业业的工作。刘局长能不能简单介绍一下，全市旅游系统机关建设情况？', '刘宗斌：面对日益繁重的旅游工作，市旅游局积极打造一支特别能吃苦、特别能战斗、特别能奉献的干部队伍，努力克服人员少、机构弱的现状，保障了全市旅游工作健康快速发展。 一是抓思想。针对旅游系统年轻干部多的特点，确立了以社会主义核心价值观为指导的队伍建设思路，针对班子成员、科级干部和普通干部分别提出“四句十二字”要求，倡导“四种精神”，守住“四条底线”，开展系列活动，干部队伍焕发出青春活力。 二是抓学习。坚持周五政治业务学习，认真开展“党的群众路线”、“三严三实”、“两学一做”等专题教育，工作学习化、学习工作化的氛围日益浓厚，学习型机关建设稳步推进。 三是抓作风。严格执行中央八项规定、市八条禁令及局内工作规范，明确责任分工，创新考核机制，树立正确用人导向，营造“赶、学、比、超”的竞争氛围，提高了工作效率，促进了队伍作风的根本转变。 四是抓廉洁。推行主体责任清单制度，认真履行“一岗双责”，完善相关制度，坚持把纪律和规矩挺在前面，抓在日常、严在经常，促进了干部清正、队伍清廉。五年来，市旅游局等7家旅游主管部门被评为全省旅游系统先进单位，2人获全国旅游系统劳动模范称号，1人赢得中国旅游产业杰出贡献奖——飞马奖，9人被评为全省旅游系统先进个人；2016年市旅游局在全市协同发展综合考评中排名第九位，荣获二等奖。', '刘宗斌：虽然近年来市旅游局在工作中取得了一定的成绩，我们也清醒的认识到，全市旅游业的发展还面临着许多困难和挑战，存在着旅游大项目少、整体实力弱，基础设施落后、财力支撑有限、政策吸引力不强等诸多问题，干部群众急于看到旅游发展成果和旅游发展还处于较低水平的矛盾还没有根本解决。这些都需要我们下大力气去解决。但是我相信，随着各项旅游政策的落实、工作的紧密推进，这些问题都可以解决。', '“德州市政府网站：刘局长，目前全市正在抓力推进新旧动能转换，建设协同发展示范区，我们旅游系统有什么打算？', '刘宗斌：下一步，我们将在市委、市政府的领导下，着力抓好以下六个方面的工作：一是以新旧动能转换为契机，加大旅游工作宣传力度，使旅游理念深入人心，营造旅游发展氛围；二是以全域旅游发展为契机，推动旅游体制机制改革，完善旅游基础设施，争创省级全域旅游示范单位；三是以旅游供给侧结构性改革为契机，加快在建旅游项目建设，培育旅游新业态，壮大产业主体和市场规模，推动旅游产业转型升级；四是以全省乡村旅游提档升级为契机，强化乡村旅游集聚示范区和旅游特色小镇平台体系建设，打造“上善若水、有德之州”旅游特色品牌；五是以协同发展示范区建设为契机，积极对接京津冀、融入省会圈，拓展旅游市场，提升城市旅游品牌影响力；六是以创建国家文明城市为契机，积极倡导文明旅游，强化旅游安全管理，规范旅游市场秩序，提升旅游服务质量。', '“德州市政府网站：刘局长，非常感谢您接受我们的采访，预祝德州旅游事业取得更大的成就，也希望您常来做客。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>141</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>凝神聚力谋求发展加快建设幸福平原</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2015-08-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c21688068/content.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：大家好，今天我们邀请到的嘉宾是平原县委常委、副县长谷举族同志。谷县长您好，很高兴您能抽出时间接受我们的采访。', '谷举族：主持人好，大家好！很高兴今天能够通过咱们市政府网站这个平台与网友们沟通交流。', '“中国德州”政府网站：谷县长，近年来平原的发展越来越好，请您简要介绍一下平原县的发展思路好吗？', '谷举族：近年来，我们提出了“以整合资源为基础，以发展循环经济为方向，以开放合作为动力，以统筹协调为方法，以创新社会管理为保障，以改善民生为目的，凝聚全县人民的智慧和力量，加快建设经济繁荣、社会和谐、可持续发展的幸福平原”的总体工作思路。在发展上，我们把“转型升级、跨越赶超”作为工作主题，坚持项目建设、人才引进、大众创业、万众创新“四轮驱动”，大力倡树“诚实守信、开放包容、公平正义、勤劳致富”的社会风气，努力为招商引资和经济发展营造良好的环境；在保障发展上，坚持党要管党、从严治党不动摇，切实增强各级干部做好群众工作的能力，等等。这些思路理念的确立，使平原蓝图越来越清晰，发展重点越来越突出。', '“中国德州”政府网站：刚才您提到通过大力抓招商引资和项目建设为经济发展提供了有力保障，那今年平原县的招商引资总体情况如何？', '谷举族：县委、县政府多年来一直高度重视招商引资工作，今年以来，各级各部门克服各种困难和压力，广泛收集招商线索，积极开展项目对接，扎实推进项目建设，全县招商引资、项目建设工作取得了阶段性成果。截止7月底，全县新开工、新注册项目52个，实际到位资金4.3亿元，其中，新注册过亿元项目26个，新开工过亿元项目21个；续建项目97个，实际到位资金34.2亿元，其中过亿元项目65个;签约项目30个，其中，亿元以上项目19个；在谈项目115个；成功举办了两次集中开工仪式。经市经合局核定，上半年，我县招商引资实际到位资金33.9亿元，列全市第4位；对接央企强企到位资金4.91亿元，列全市第5位。', '首先是扎实推进在建项目建设。通过召开协调会、现场督导等形式，及时解决在建项目存在的问题和困难，有效促进了项目建设进度。其中，联化科技二期、史丹利三期、氢能设备制造、京津鲁冀门窗幕墙产业园等项目正在加快基础设施建设；晟合机电、日升电子单晶铜键合丝、嘉隆化工、鑫岳化学等项目厂房、设备已安装完毕，正在调试设备，准备试生产；水溶性壳寡糖、鸿荣电子压敏芯片、新东明树脂等项目已开始试生产；福贞金属包装、嘉施利（平原）化肥项目，目前已投入生产。另外，盛原服装、倍斯特化工等在建项目都有了较大进展。', '其次是全力推动新签约项目开工建设。通过招商单位跟进服务，职能部门加快办理各项手续等措施，有力推动了签约项目的开工建设。其中，协衡新能源光伏发电、新希望六和金珊食品等项目，正在开展清理地面附着物、办理土地使用手续等前期工作；裕盛复合材料项目，土建已完成，设备已安装完毕，准备试生产。另外，中电投风电、中宥高分子材料等项目也在加紧办理开工前的准备工作，争取早日开工建设。', '第三是狠抓项目洽谈引进。大力鼓励各级各部门积极走出去、请进来，多次赴北京、上海、沈阳等地招商洽谈，积极邀请巴威锅炉公司、巴斯夫（中国）有限公司、天光电子、北京航空集团、上海台商联谊促进会等企业或商会的客商到平原考察。今年1-7月份，全县各级各部门外出招商230多人次，洽谈项目60余个，接待来访客商120余人次，积累了一批项目线索，有的已进入实质洽谈阶段。同时，我们还建立了项目评审机制，严把项目准入关，今年县政府分别于1月25日、4月23日，召开了两次招商项目集中评审会，有效保证了落地项目的质量。', '谷举族：招商引资工作面临的困难和压力是多方面造成的，总结起来，最主要是受以下三个方面的影响：一是去年国发〔2014〕62号文下发，要求全面清理已有的各类税收等优惠政策，对招商引资工作造成较大冲击。虽然今年国发〔2015〕25号文明确指出，各地与企业已签订合同的优惠政策继续有效，现行的招商优惠政策可继续执行；省政府也出台了鲁政发〔2015〕14号文，在要求贯彻国发25号文件规定的同时，对涉企收费等又做出了明确规定，释放出促进招商引资、加快经济发展的强烈信号，但面对政策的再次调整，同志们思想的转变仍需要经过一个过程。二是经济下行压力持续增大，企业投资欲望降低。国内很多企业处在盈亏临界点上波动，勉强维持生存，对外投资扩张的欲望不强，增大了我们寻找投资者及项目洽谈的难度。三是发展环境有待进一步优化。客商们最重视的问题之一就是营商环境，目前，土地指标、环境保护、容积率等一些要求越来越严，项目手续办理难度越来越大。', '“中国德州”政府网站：既然招商引资工作开展难度加大，下一步是否会为了追求税收而引进高耗能、高污染的企业呢？', '谷举族：这是绝对不可能的。自2012年以来，我们坚持以争创全国循环经济示范县为抓手，把推进绿色发展、可持续发展作为加快转型升级的重中之重，以发展循环经济为主攻方向，持续推动生态文明建设。我们聘请国家发改委专家编制了《平原县循环经济发展规划》，依托阳煤平原化工、泰鼎新材料等企业，建立完善了10条循环经济产业链。2014年，在全省循环经济示范县创建专家评审中，我县位列第一名。同时，我们加快发展可再生能源。汉源生物质发电、协合太阳能光伏发电已建成并网发电，中节能、中兴新能源屋顶光伏发电、农业大棚光伏发电项目加速推进。我县现已审批光伏发电240兆瓦，是目前山东省内审批最多的县份。从前几年的招商引资情况来看，部分项目的纳税并不高，但因它们能够促进循环经济的发展，我们允许它们落户并支持它们发展；而部分高污染、高能耗的项目虽然保证高额纳税，我们仍然没有允许它们落户。下一步，无论招商引资难度多么大，我们将始终坚持以发展循环经济为前提，严格执行落地项目集中评审制度，坚决将能耗过高、污染超标的项目拒之门外，确保同时拥有健康快速的经济发展与碧水蓝天的良好环境，实现鱼与熊掌可以兼得的双赢局面。', '“中国德州”政府网站：面对招商引资面临的诸多困难和压力，下一步，平原县打算如何应对呢？', '谷举族：招商引资、企业培植等经济工作的压力增大是经济新常态下的一种必然现象，对此，全县各级各部门早已坚定了抓经济发展不放松的信念，坚持把招商引资作为各项工作的重中之重来抓。下一步我们将重点做以下几方面工作：', '一是抓紧研究制定我县的招商引资优惠政策及相关规定。按照上级相关文件精神，尽快制定我县新的招商优惠政策和招商引资奖励办法，并大力宣传我县落实相关政策的态度，鼓舞全县招商引资工作士气。', '二是围绕京津转移项目开展招商。当前，德州“一区四基地”战略地位的确立，给我们带来了承接京津转移的大项目、好项目的难得机遇。我们将继续加强与京津企业的沟通联络，时刻关注并用好上级即将出台的各项政策措施，力争吸引更多好项目、大项目转移落户平原。', '三是强化项目建设督导调度。按照年初确定的任务分工，各级各部门进一步加强对项目的帮扶力度，全面加快项目建设进度，及时协调解决项目建设中存在的问题和困难。', '四是进一步优化发展环境。牢固树立环境就是竞争力、生产力的观念，把优化环境作为“一号工程”来抓。严格落实省政府14号文精神，尽快编制完成涉企收费目录清单编制和行政审批中介服务收费项目清单，清单之外一律不得收费。积极帮助企业向上级部门做好沟通协调，在不违规、不违纪的前提下，能简则简，能免则免，把优质高效的政务服务打造成为招商引资的新品牌。', '五是大力推动企业“互联网+”转型升级。鼓励县内所有企业和招商项目积极向海尔集团等勇立潮头的先进企业学习，深入研究如何适应新的发展形势，通过采取内部技术改造、对外招商合作等多种方式，加快“互联网+”转型升级步伐，把握住这次跨越赶超的难得机遇。', '“中国德州”政府网站：您刚才提到促进经济发展的还有企业培植工作，这项工作开展情况如何呢？', '谷举族：如果把经济发展比喻成一辆车行驶的话，招商引资是其中一个驱动轮，而企业培植就是推动经济发展的另一个驱动轮。所以，我们在积极开展招商引资引入外力的同时，始终坚持大力实施企业梯队培育计划，壮大骨干企业，培强中小企业，促进产业发展。2014年，实施福洋生物8万吨葡萄糖酸钠等工业技改项目76个，累计完成投资29亿元，同比增长41%，企业内涵式发展步伐加快;规模以上工业实现增加值137.9亿元、主营业务收入613亿元、利税63.9亿元、利润44.8亿元，同比分别增长14.1%、15.6%、8.4%和7.9%。今年1—7月份，全县83家骨干企业累计纳税4.53亿元，同比增长9.73%。目前，初步形成了以联化科技、阳煤平原化工为代表的绿色化工产业；以嘉施利化肥、史丹利化肥为代表的复合肥产业；以福洋生物、信谊制药为代表的生物医药产业；以五岳建材、申原新材料为代表的建筑节能建材产业；以协合太阳能光伏发电、中节能光伏大棚发电、汉源生物质能发电为代表的新能源产业；以鸿荣电子压敏芯片、日升科技单晶铜键合丝为代表的电子信息产业。', '“中国德州”政府网站：可以看出，平原县近几年的经济发展形势始终持续向好，那么平原县下一步有什么工作打算呢？', '谷举族：近期，省委、市委相继召开了全委会议，都明确提出把稳增长调结构作为当前及今后一个时期的重大战略任务来抓。下一步，平原县也将全力打好稳增长调结构的攻坚战，着重把握好四个方面：一是保持战略定力。始终抓住发展这个第一要务不动摇，严格按照县十三次党代会以来确立的发展思路抓好落实，精力不散，步子不乱。当前就是要紧紧盯住年初经济工作会、人代会确立的发展目标和工作重点，脚踏实地，精准发力，确保圆满完成全年的各项任务目标。二是突出质效双优。积极顺应新常态的趋势性特征，以提高经济发展的质量和效益为中心，努力追求质量更高、效益更好、结构更优、后劲更足的持续健康发展。三是坚持创新驱动。加快推动大众创业、万众创新，着力培养、引进高端创业人才，积极引进科技型、创新型企业，让创新成为点燃发展的新引擎。四是重视改善民生。坚持把促进社会公平正义、增强人民群众的幸福感，作为稳增长调结构的出发点和落脚点，切实把年初确定的民生工程、为民实事办实办好，使发展的成果更多更公平地惠及全体人民群众，力争尽快实现建设幸福平原的目标。', '“中国德州”政府网站：由于时间关系，今天的访谈就要结束了，再次感谢谷县长参加本次访谈。', '谷举族：谢谢主持人，谢谢各位网友。最后，再次感谢各位网友对平原县的关心和支持，希望大家多提促进平原县发展的宝贵意见。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>141</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>充分发挥工商职能优势全力服务协同发展示范区建设</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2015-10-26</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c22351978/content.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：全市“解放思想 抢抓机遇 努力建设协同发展示范区”动员大会召开后，市工商局是如何传达贯彻的？', '周庆立：全市“解放思想 抢抓机遇 努力建设协同发展示范区”动员大会召开后，我们于当天下午分别召开党组会和全体人员会议，深入学习陈勇书记、陈飞市长的重要讲话和相关文件，统一思想、提高认识。成立了由我任组长、班子其他成员任副组长，各相关科室负责人为成员的服务协同发展示范区建设工作领导小组，并结合工商职能，研究部署全力服务好协同发展示范区建设的措施，明确了从优化登记服务、强化招商引资、优化市场环境、加强信用体系建设等方面入手，积极推动协同发展示范区建设。', '“中国德州”政府网站：承接京津冀产业转移第一个环节就是工商登记，工商部门的作用非常突出，请问工商局在做好企业登记工作方面有哪些举措？', '周庆立：为了更加顺畅地承接京津冀产业转移，在企业注册登记方面我们主要是做好以下三个方面的工作。一是以深化商事制度改革为契机,最大限度放宽准入条件。凡是职权范围内能够推动的改革事项，一律全部落实到位。不折不扣落实“实缴”改“认缴”，清障搭台，打破注册资本“玻璃门”。除国家规定的27类行业外，一律实行注册资本最低限额、投资人出资额、出资方式、出资期限“四个不限制”，提供最佳准入环境。对国家确定的前置改后置事项，在第一时间执行到位，真正实现“零门槛”准入。按照“三证合一、一照一码”要求，全部实现“一窗受理、联动审批、限时办结、一窗发照”，最大限度提高办照效率。二是进一步简政放权，优化流程。为方便企业就近登记，节省时间和费用，最大限度下放登记管辖权，除法律规定必须由市局登记的市场主体外，登记管辖权全部下放到各县市区局，市局仅保留股份有限公司、外商投资、中外合资、中外合作、合伙企业的登记管辖权。登记权下放后，市局将集中力量服务市级重点项目的落地。本着把办事环节压到最少、办事效率提到最高、服务工作做到最优、改革效果放到最大的原则，优化工作流程，减少审批环节，提高办事效率。进一步改进服务方式。积极推行延时服务、预约服务、上门服务等服务形式，配备流动登记服务车，增设网上受理平台，推行电话或网上预约办理登记。建立重大项目“工商受理、协调推动、全程帮办”的设立审批制度，确保京津冀转移项目尽快落地。三是加强窗口建设，大力提高服务质量。以强服务为目标，以强素质为手段，配齐配强登记队伍，强化工作纪律和廉政纪律，进一步完善服务承诺制、首问负责制、一次性告知制、AB角工作制、限时办结制、责任追究制等制度。在登记窗口全面推行“五心五办”工作要求，“五心”即接待企业要热心、解答企业咨询要耐心，处理问题要静心、办理事情要细心、审查材料要专心。“五办”即：材料齐全马上办、企业不懂指导办、紧急项目加班办、特殊项目跟踪办、重大项目全程办。', '“中国德州”政府网站：建设协同发展示范区离不开积极主动地开展招商引资活动，请问市工商局在这方面有什么安排？', '周庆立：我们将以德州融入京津冀协同发展示范区为契机，充分发挥职能作用，积极开展招商引资工作，做到“走出去、请进来、留得住”，确保全面完成或超额完成市里下达的招商引资任务目标。发挥德州新能源、新材料、生物技术、体育装备和装备制造等产业优势，通过工商部门掌握的各类信息，整合产业资源，引导德州企业与京津关联企业结成合作伙伴，拓展合作领域和空间，实现互利共赢。发挥企业信用信息公示系统作用，建立与相关部门的信息共享制度，初步建立信用约束机制，为领导决策及社会各界提供信息服务。同时，我们还将组建专门的招商引资队伍，成立2个招商引资推进小组，选派业务素质高、能力强的干部赴北京、天津开展招商引资活动，引进符合我市产业发展要求的优质企业。', '“中国德州”政府网站：在协同发展示范区建设中，信用环境建设是重要的一环，在这方面市工商局有什么打算？', '周庆立：我们将进一步采取有力措施，加强信用监管服务，为融入京津冀协同发展提供良好的诚信环境。一是发挥合同指导职能，为企业签约提供指导、咨询服务，规范签约行为；根据企业实际，指导企业建立完善合同管理制度，提升信用管理水平，促进履约，提高企业经济效益。二是加强合同维权服务。对企业因合同侵权、合同欺诈遭受损失，依法进行查处，切实维护企业权益。三是在落地企业中积极推广“守合同重信用”创建活动，主动向企业宣传“守重”创建活动的重要意义，通过指导、帮扶企业建立完善内部合同信用管理机制等，规范签约、重视履约，支持落地企业通过参与“守重”创建活动打造诚信品牌，提升企业社会影响。四是依托动产抵押登记职能，指导、帮助落地企业理清抵押资产，为企业开展抵押融资提供指导服务；积极推进银、企联系，在企业、金融机构之间牵好线、搭好桥，并积极向金融机构推荐资产优良、信用水平高以及“守合同重信用”企业，鼓励、支持企业通过动产抵押实施融资，缓解融资难题。同时，对企业开展其他形式的抵押融资提供咨询服务。', '周庆立：在服务协同发展示范区建设工作中，我们将充分发挥商标监管服务职能，深入重点项目企业、科技成果转化企业、招商引资企业、外向型出口企业走访，指导企业制定推进商标战略实施措施规划，加强商标品牌建设管理。鼓励、指导企业通过商标作价出资、质押融资等资本化运作，提高企业商标运用实效和水平。支持有条件的企业通过商标使用许可，输出品牌、标准、管理和营销模式，提高整合产业链、提升价值链的能力，促进全市稳增长，调结构。对有出口业务企业进行排查摸底，上门服务，加快利用马德里体系进行商标国际注册，维护企业海外权益。继续推行企业名称预先核准环节的商标注册行政指导和企业字号、商标一体化战略，探索实施商标注册工作目标考核制度，将申请和核准商标注册两个指标层层分解，落实到单位、监管服务片区和工作人员。继续指导企业争创知名商标、省著名商标，为争创驰名商标夯实基础。', '“中国德州”政府网站：陈勇书记在全市“解放思想、抢抓机遇，努力建设协同发展示范区”动员大会上提出建设周边城市“放心农场”，并举了市工商局第一书记龙虾养殖项目的例子，能不能介绍以下这方面的情况？', '“中国德州”政府网站：协同发展示范区建设离不开规范有序的市场环境，能不能介绍一下工商部门规范市场秩序的打算？', '周庆立：下一步我们将根据商事制度改革“宽进严管”的要求，进一步强化市场监管，营造公平竞争的市场环境，为协同发展示范区建设保驾护航。一是强化公平交易执法。以群众关心、社会关注、领导重视、关系民生的重大案件为重点，进一步强化公平交易执法的力度和深度，消除地区封锁，打破行业垄断。加强对电信服务、公共交通等行业的监管力度，依法查处公用企业限制竞争行为。以医药购销、工程建设、教育等领域为重点，依法整治商业贿赂行为。以电子电器、建材、汽配等与民生密切相关的商品为重点，着力打击“傍名牌”行为。继续依法查处虚假宣传、侵犯商业秘密等违法行为，维护公平竞争。切实履行新《商标法》赋予工商机关的查处、调解、移送等职能，严厉打击商标侵权行为。加大商标专用权，尤其是驰名商标权益的保护。加强网络商品交易监管，积极探索建立网络市场长效监管机制。加强对市场开办者、经营者的管理，推进市场企业化登记，落实商品交易市场主体责任。突出成品油、农资等重点商品及拍卖市场、经纪人的监管。二是改进市场监管方式。认真落实工商总局和省局部署，实行经营异常名录制度、建立市场主体公示信息抽查制度的各项工作。要以工商登记信息为基础，整合各类监管执法信息，加快建设市场主体信用信息公示平台。要强化对市场主体公示信息的抽查力度，依法查处虚假信息。进一步完善“守合同、重信用”企业公示工作机制，指导督促企业建立合同管理制度，推进诚信建设。要按照“宽进便利、严管透明”的原则，结合商事登记改革，在降低门槛、放宽政策的同时，强化对严重扰乱市场秩序违法行为的监管力度，促进市场公平交易、竞争有序。三是强化协作配合，形成监管合力。着重建立健全部门间工作协调机制，强化与质检、食药、公安等职能部门和行业协会的协作配合。加强信息沟通、情况通报，做好违法案件的移交和移送工作。定期开展联合执法行动，发挥各部门职能优势，切实形成监管合力，全面提高监管效能。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>141</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>发挥优势突出特色积极推进产业转型升级</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2014-05-28</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c15058139/content.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：今年初，市委副书记、市长杨宜新同志在《政府工作报告》中指出，政府工作将“强力突破产业发展”，并“坚定不移地培植十大产业集群”。临邑县作为我市的经济大县，产业发展现状如何？在培植产业集群、推进产业转型升级中有哪些优势？', '林春元：近年来，按照市委、市政府的工作部署，临邑县大力实施工业优先发展战略，构筑起了石油化工、生物医药、食品加工、纺织服装、机械制造、新能源及现代服务业的“6+1”现代产业体系。特别是石油化工、生物医药、食品加工三大产业成为我县颇具特色的支柱产业，并在全市具有较强竞争力。同时，随着索通发展、奥福陶瓷等企业的快速发展和旭日新材料、恒光石墨等项目的落户建设，新材料这一产业迅速壮大，成为我县的又一特色产业。', '产业要在一个地区具有较强竞争力，就必须不断推进转型升级，形成集群效应。我县作为全市的经济大县，基础牢固、资源丰富、要素充足，在推进产业转型升级中有着诸多优势。一是油气优势独特。我县地处胜利油田主采区，已探明石油储量3亿吨、天然气40亿立方米，涉油企业8家，油气井2800余口，年产原油160多万吨。二是龙头企业名气大。石油化工产业中的恒源石化、桦超化工，食品加工产业中的金锣肉制品、六和集团，生物医药产业中的齐鲁制药、信立泰药业，新材料产业中的鲁北炭素、奥福陶瓷等龙头企业，生产规模、影响力在全国都有一定的位次和知名度，发展势头强劲。三是有科技人才作支撑。我们坚持不求所有、但求所用，与国内40多家高等院校和科研院所建立了合作关系，有80多家企业聘有技术顾问。四是市场网络健全。我县产业外向度较高，与经济发达地区和国外商贸活动频繁，拥有广泛的市场网络。索通发展的产品出口到10多个国家和地区，创汇额占全国同类产品的三分之一；新宇包装的编织品占韩国市场的80%，占日本市场的20%以上。', '“中国德州”政府网站：为推进产业转型升级，4月份，市政府出台了《关于落实工业产业集群发展规划加强产业基地建设的意见》，在全市确立了47个产业基地，并制定了个性化培植方案，临邑有4个纳入其中。请林县长具体介绍一下临邑县特色产业基地建设的发展目标？', '林春元：今年以来，临邑县积极落实市委、市政府培植产业集群的战略部署，结合自身优势和发展基础，确定重点建设石油化工、食品加工、新材料和生物医药四大特色产业基地。', '一是石油化工产业基地。依托北部大工业区建设石化产业园区，计划5年投入210亿元，重点培植恒源石化、德宝路、桦超化工等龙头企业，延伸产业链条，发展精细化工，打造全国最大的碳四深加工基地；加快发展天安化工、壹诺化工等成长型企业，壮大产业规模，提升产业竞争力。到2018年，石化产业规模以上企业达到68家，实现主营业务收入1000亿元。', '二是食品加工产业基地。规划建设畜产品养殖及加工专业园区，计划5年投入40亿元，重点培植金锣肉制品、峰宇面粉两大龙头企业，引导其发展成为全市乃至全省食品加工的标杆性企业；扶持洛北春白酒、六和集团、福润禽业等重点企业，上项目、扩总量，不断做大做强。到2018年，食品加工产业规模以上企业达到80家，主营业务收入突破200亿元。', '三是新材料产业基地。规划建设新材料产业园区，5年投入60亿元，重点培植索通发展、奥福陶瓷2家龙头企业，积极扶持恒光石墨、旭日新材料、鲁北碳素等骨干企业，打造在全省有较强影响力和知名度的预焙阳极、特种石墨、功能性陶瓷等产业品牌。到2018年，新材料产业规模以上企业达到40家，主营业务收入突破180亿元。', '四是生物医药产业基地。依托西部经济开发区，计划5年投入55亿元，以齐鲁制药和信立泰为龙头企业，推进成品药制剂生产；壮大科信生物、乡村生物等潜力企业，发展高效、低毒、安全的新品种农药及生物农药；同时加大生物能源招商引资力度，延伸产业链，提升价值链，打造技术先进、特色明显、全国重要的生物医药产业基地。到2018年，生物医药产业规模以上企业达到15家，主营业务收入突破100亿元。', '“中国德州”政府网站：临邑县在推进四大特色产业基地建设中，采取了哪些有针对性的措施？', '林春元：为确保产业基地建设目标的顺利实现，我们重点实施了五个方面的举措：一是加强组织领导。成立了临邑县工业产业集群推进小组，建立了四大产业基地所涉及的162家企业台帐，有针对性地确定了相关企业的培植方向、目标和路径。二是加快园区基础设施建设。依托三大园区现状，结合四大产业发展需求，进一步理顺开发区管理体制，科学编制分区控制性规划，增强园区承载能力。重点做好园区配套设施和公共服务体系建设，将产品项目、公共辅助、物流传输、环境保护、管理服务等五个一体化的开发思路，融入到园区建设的全过程中。三是全力推动招商引资。创新项目招商机制，把京津、长三角、济南作为招商引资主攻区域，实施环境招商、服务招商、联合招商、企业招商、产业链招商，重点引进与四大产业密切相关的行业龙头、上市公司和高新技术企业，完善产业链条。四是大力破解融资瓶颈。充分发挥财政资金的引导作用，先后设立了政府引导资金、产业发展基金、科技保险基金等，保证企业发展融资需求；积极搭建政银企合作平台、产学研推进平台、科技金融综合性服务平台，不断拓宽企业融资渠道。五是大力开展招才引智。设立专项资金，吸纳科技、金融领军人才，提供高端智力支持；引导科技型企业，建立股权激励与融合机制，与人才形成利益共同体，增强对高端人才的吸纳能力。', '“中国德州”政府网站：培植产业基地重点企业是关键。近年来，市委、市政府高度重视重点企业培植工作，先后出台了一系列政策措施，临邑县是如何开展重点企业培植的？', '林春元：重点企业是县域经济的重要支撑，对推动产业聚集、壮大县域财源、实现可持续发展具有重要的作用。我们在13家企业列入全市大企业和科技成长型企业培植计划的基础上，又将培植范围扩大到20家，大企业和科技成长型企业各10家，通过重点培植，以点带面，促进全县企业做大做强。我们培植重点企业的主要措施：一是狠抓项目建设。坚持项目推进责任化、责任落实具体化，进一步完善前期项目落地、中期挂牌督办、后期服务保障三个机制，形成“闭环式”工作链，力促项目早开工、快建设、速达效。二是大力实施科技创新。把创新工作的着力点放在创新能力建设、创新机制建设和增加科技投入上，确保创新取得实效。三是加强企业管理。重点加强成本、财务、现场等方面的管理，向管理要效益。四是注重资本运营。完善拟上市企业资源库，建立上市企业梯队，加快上市挂牌；推进企业战略合作，实现低成本扩张、裂变式发展。', '“中国德州”政府网站：刚才，您提到培植重点企业的主要措施之一是加强企业管理，临邑县在加强企业管理方面主要做了哪些工作？', '林春元：加强企业管理，是企业在激烈的市场竞争中生存发展、不断壮大的必然选择。近年来，我们着力推进管理理念、管理内容和管理方法“三个创新”，引导企业学习借鉴先进管理经验，推进企业由传统管理向现代科学管理转变。一是加大专题培训。以推行先进的经营管理理念、培养高层管理人才、提高企业家素质为目标，组织企业负责人外出学习考察、交流研讨，学习先进经营管理理念，多形式培训企业经营管理人员，不断推进企业管理现代化。二是开展企业效益年和企业现场管理年活动。制定《临邑县开展“管理效益年”活动实施方案》、《临邑县加强工业企业现场管理工作实施方案》，引导企业加强基础管理，优化现场管理，推进信息化管理，不断增强企业发展内生动力和核心竞争力。三是开展省级企业管理优秀单位创建活动。强化督导检查和学习培训，组织重点企业赴淄博、章丘等地参观学习优秀管理企业，聘请省企联专家对企业进行现场管理指导，不断提高企业管理水平和整体素质。', '“中国德州”政府网站：科技创新是企业发展的内生动力，临邑县在提升企业技术创新能力方面采取了哪些措施？', '林春元：近年来，我们大力推进了以企业为主体、市场为导向、产学研相结合的技术创新体系建设，加快提升企业技术创新能力，增强企业核心竞争力。一是推进技术创新基地和平台建设。围绕工程技术研究中心、企业技术中心、重点实验室、院士工作站等创新平台建设，遴选优势企业进行重点培植和扶持，加强申报指导，完善各项指标，不断提高申报成功率。二是加强技术创新项目的申报、调度和鉴定验收。强化实施调度，认真组织企业申报创新项目；对已完成项目积极申请省级鉴定验收，为申报各级创新平台和政策资金扶持奠定基础。2012年以来，我县有55个项目列入山东省技术创新项目计划。三是鼓励企业开展产学研合作。深化企业与高校、科研单位的技术合作，加快技术引进和创新步伐，推进引进消化再创新和自主创新的结合，开发具有自主知识产权的高新技术，促进科技成果向现实生产力转化。四是引导企业加大科技投入。认真研究并用足用好上级扶持政策，充分发挥财政、税收、金融政策的激励作用，落实高新技术企业研发投入占销售收入5%、重点企业占3%、一般企业占1 %的要求，进一步加大科研投入，增加发展后劲。', '“中国德州”政府网站：工业用能约占全社会用能的70%左右，临邑县是如何处理工业发展与节能降耗之间的关系的？']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>141</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>发挥司法行政职能推进法治德州建设</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2015-07-06</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1480/n15503/n15567/c20374666/content.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['“中国德州”政府网站：你好扈局长，近年来，司法行政工作在国家法治进程中发挥着越来越重要的作用，能给大家介绍一下市司法局的工作职能和基本情况吗？', '扈建军：好的。司法行政机关承担着法律保障、法律服务和法治宣传职能，其中，法律保障包括人民调解、社区矫正、安置帮教等工作；法律服务包括律师、公证、法律援助、司法鉴定、基层法律服务以及国家司法考试等工作；法治宣传包括普法宣传、依法治理等工作。自上世纪九十年代以来，司法行政机关先后增加了法律援助、国家司法考试、司法鉴定管理、社区矫正、人民监督员选任管理等职能，承担的任务越来越艰巨。随着司法体制改革不断深化和法治建设的逐步推进，司法行政职能会进一步拓展。', '我市司法行政系统自1980年恢复重建，市、县（市、区）、乡（镇、街）三级司法行政职能逐步健全完善。目前，市司法局内设11个职能科室及3个直属单位，有55名干部职工。11个县级司法局和137个乡镇（街道）司法所共有645名工作人员。全市共有141家法律服务机构，885名法律服务人员。其中52个律师所共有407名律师，12个公证处共有65名公证员；12家司法鉴定机构共有57名司法鉴定人员，53个基层法律服务所共有286名基层法律服务人员，12个法律援助机构共有70名法律援助人员。全市共有各级各类人民调解组织5396个，人民调解员18629人。全市从事司法行政工作和法律服务人员共计20214人。', '“中国德州”政府网站：十八届四中全会明确提出“推进覆盖城乡居民的公共法律服务体系建设”，这项工作关系到基本民生需求，关系到法治建设整体进程。请问市司法局开展了哪些工作，来推进我市的公共法律服务体系建设？', '扈建军：好的。党的十八届四中全会《决定》提出，要“建设完备的法律服务体系，推进覆盖城乡居民的公共法律服务体系建设，加强民生领域法律服务”。司法行政部门承担着法治宣传、法律服务和法律保障等方面的职能，是基本公共法律服务体系的组织者和主要参与者，主要包括:为全民提供法律知识普及教育和法治文化活动；为经济困难和特殊案件当事人提供法律援助；开展公益性法律顾问、法律咨询、辩护、代理、公证、司法鉴定等法律服务；预防和化解民间纠纷的人民调解活动等。为贯彻落实党的十八届四中全会精神，按照市委、市政府要求，近两年，市司法局立足法定职能，主动融入大局，以“结合就是创新”的理念，从满足人民群众对法律服务的新期待、新需求出发，指导全市各级司法行政机关整合优化法律服务、法治宣传和法律保障等职能优势，以建立完善市县乡村四级法律服务平台为抓手，全力推进公共法律服务体系建设，得到了各级党委政府的肯定和广大人民群众的欢迎。目前，全市以县级司法行政综合服务中心、乡镇（街道）司法所及基层法律服务所、社区（村）司法行政工作室和12348公共法律服务专线、公共法律服务网为主干的公共法律服务平台已基本成型，初步形成了实体平台服务和专项网络服务对接互通、有机融合的工作机制，走出了一条具有德州特色的基本公共法律服务体系建设路子。', '公共法律服务作为公共服务的重要组成部分，是由政府统筹提供的旨在保障公民基本权利、维护人民群众合法权益、实现社会公平正义和保障人民安居乐业所必需的法律服务。德州是一个经济发展相对落后的地级市，公共法律服务不管是从硬件设施还是服务管理层次上，都与形势任务的要求和人民群众的期待有着不小距离，历史欠账较多。如何改变这种状况，近两年，我们先后做了大量的调查研究，吸取先进地区工作经验，结合德州实际，力求顶层设计，高点起步，把全市基本法律服务体系建设作为一个系统性、整体性、联动性的制度体系和运行机制运作和把握，从问题导向入手，破解影响基本公共法律服务体系建设的老大难问题，取得了初步成效。', '（一）建立服务平台组织体系，解决“在哪里开展服务”问题。服务平台组织体系包括实体平台和网络平台两部分。其中公共法律服务实体平台由县级司法行政综合服务中心、乡镇（街道）司法所和基层法律服务所、社区（村）司法行政工作室组成；网络平台包括各级司法行政部门建立的“12348公共法律服务专线”及以互联网为依托建立的具备法律服务、法治宣传、人民调解、法律援助等功能的“公共法律服务网”。一是在县级司法行政综合服务中心建设上，遵从和适应城乡居民寻求法律帮助的习惯，突出方便城乡居民享受服务的功能，以商场化、超市化、陈列式，展示服务内容，服务群众需求，提升服务质量，接受社会监督。目前全市以宁津、乐陵、齐河为代表的第一批县级司法行政综合服务中心已建成投入使用，到年底争取11个县市区全部建成。二是在乡镇（街道）司法所和基层法律服务所建设上，以强基固本、规范服务、扩展职能为主，实行“两所合一”，整合加强服务力量，提升服务标准。目前全市已建成市级规范化司法所66个，占137个司法所总数的近一半，其中达到省级规范化司法所标准的53个。三是在社区（村）司法行政工作室建设上，我们抓住全市“两区同建”机遇，用好市委、市政府有关政策，解决打通服务群众最后一公里问题。全市目前已建成司法行政工作室217个。四是在12348公共法律服务专线建设上，与12345市民热线联通，扩大服务范围和群众知晓率，进一步完善专线的接听、受理和落地服务对接功能。同时，运用互联网+模式，探索创新公共法律服务新领域，提高服务效率，提升服务水平。', '（二）建立服务产品项目体系，解决“提供什么服务”问题。制定指导全市的公共法律服务项目清单，推进基本公共法律服务体系产品化。项目按需设置，居民自主点单，通过向城乡居民印发《公共法律服务手册》等形式，及时向社会推出基本公共法律服务产品，明确各个产品项目的具体内容、服务模式、供应渠道和最新政策。目前，已将法律服务、法律援助、法治宣传、人民调解、社区矫正、安置帮教等司法行政工作主要内容列入项目目录，并分解成若干子项目，方便群众选择，最大限度满足人民群众的法律服务新需求。', '（三）建立服务供给配量体系，解决“如何集约服务”问题。举个例子：乐陵把信访中心和司法行政综合服务中心安排在一个大厅合署办公，群众有矛盾纠纷来上访，信访中心接待、登记，综合服务中心有专业调解员跟进调解，调解成功了，可以写个协议书进行公证，不成功可以找律师帮助打官司，打官司固定证据我们可以提供司法鉴定服务，打不起官司的我们还提供法律援助服务，在这个过程中还把法治宣传贯穿其中，这就形成了一条龙的集约服务。', '（四）建立服务指标考评体系，解决“确保规范服务”问题。这是对基本公共法律服务的质量和成效进行管理和评价的制度性安排，其出发点和落脚点在于提高人民群众对公共法律服务的认同度和满意率，也是促进基本公共法律服务规范化、制度化发展的主要保证。主要包括：服务设施、人员配备、工作流程、业务规范、服务绩效和满意度评估等方面的工作。去年以来，我们以硬件建设促软件建设，以群众需求对接工作内容，以群众满意检验工作成效，逐步建立健全工作评价体系，有力促进了工作的开展。', '“中国德州”政府网站：十八届三中全会《决定》鲜明提出要“健全社区矫正制度”，四中全会也把“制定社区矫正法”写进了《决定》。能介绍一下我市社区矫正工作开展情况吗？', '扈建军：好的。我们抓住社区矫正工作在全国起步较晚，各地都处于同一起跑线，便于工作创新突破的有利时机，坚持高起点定位，将外地经验与德州实际相结合，积极创新社区矫正工作“德州模式”。2014年，时任省委常委、政法委书记才利民，市委书记吴翠云，省司法厅长王本群先后视察并充分肯定德州社区矫正工作，省司法厅为德州社区矫正工作记集体二等功。', '一是推进县级“四个一”建设。成立社区矫正管理局，负责辖区内社区矫正工作；建立监控指挥中心，对社区服刑人员24小时定位监管；建立监管执法大队，负责调查评估、接收、宣告等程序性工作和查找脱管人员、处置突发情况等非正常性工作；建立社区矫正教育基地，对社区服刑人员开展义务劳动、教育矫治、技能培训。目前11个县市区全部完成了“四个一”建设。', '二是建立市县乡村四级工作体系。建立市级社区矫正指挥中心，负责全市工作的指挥、调度、检查、督导。县级以“四个一”为平台，具体开展调查、接收、监督、管理等工作。乡镇司法所加挂社区矫正工作站牌子，配合做好日常管理工作。加强村居社区矫正工作室建设，共建立工作室440个，结成帮扶对子1860个，解决合理诉求184件。', '四是密切部门配合。认真落实党委政法委、法院、检察院、公安局、司法局共同参加的社区矫正工作政法联席会议制度。联合法院对社区矫正档案进行专项评查，在社区矫正管理局设立检察官办公室，坚持县级社区矫正监管大队由公安机关分管领导任副大队长，乡镇中队由派出所民警参与，形成了政法各部门协调联动、密切配合的工作机制。', '“中国德州”政府网站：随着经济社会快速发展，目前社会上各种矛盾纠纷呈多发态势，请问市司法局在化解矛盾纠纷方面做了哪些工作？', '扈建军：好的。正确处理人民内部矛盾，事关改革、发展和稳定大局。我们司法行政工作中的人民调解工作作为一项诉讼程序之外化解矛盾、消除纷争的法律制度，以其组织扎根基层、分布广泛，以及调处方式简便快捷、便民利民等特点和优势，深受广大群众欢迎，在化解社会矛盾纠纷中发挥了“主力军”作用。', '面上抓基层人民调解组织建设。结合村“两委”换届和两区同建，不断健全、调整、规范基层人民调解组织，实行网格化管理。目前，全市共建立基层人民调解组织5221个。其中，村调委会4282个；居调委会693个；乡镇调委会108个；街道调委会23个；企事业调委会115个。今年以来，在做好常见性矛盾纠纷排查调处的同时，围绕春节、五一等重大节日和“两会”、“6.4”等敏感时期，扎实开展集中排查调处活动，共化解矛盾纠纷9227件，调解成功9061件，成功率98.2%，人民调解协议涉及金额2464.07万元。', '重点推进专业性、行业性人民调解组织建设。目前全市共建立各类专业性调解组织20个，其中，交通事故类9个、医疗纠纷类2个、消费纠纷类2个、劳动争议类2个、建筑工程类2个、物业管理类1个，土地纠纷类1个、老干部权益保护类1个。建立法律专家库和人才库24个。与市卫生局联合下发《关于在全市医疗机构实施医疗责任保险的意见》，为有效解决医疗机构资金赔偿问题，最大限度避免“医闹”迈出关键一步。乐陵组织交通事故、物业、劳动争议等13家与群众生产生活相关的专业性调解组织，与信访、公安、法院、检察院共同在县级司法行政综合服务中心设立窗口，引导群众通过调解、法律等手段解决信访问题，有效缓解了社会矛盾，避免了越级上访甚至大规模群体性事件的发生，切实发挥了司法行政机关在维护社会稳定中的功能作用。“人民调解多投入，社会稳定少花钱”已成为基层广大干部群众的广泛共识。', '我们还大力开展了个人品牌人民调解室创建工作。印发了《关于开展品牌人民调解室争创活动的通知》，明确了个人品牌调解工作室的性质、调解员需具备的条件、申报流程、工作范围等重点内容。目前全市共建立品牌人民调解室12个，分别为宁津毕向东调解工作室，陵城宋善金调解室、王秀春调解室，乐陵刘新海调解室，平原县陈世和调解室，齐河祝阿调解室、刘桥调解室，武城大鹏调解室、老彪调解室，禹城老郭调解室、老秦调解室，促进了人民调解工作向精细化发展。', '“中国德州”政府网站：司法体制改革的一项重要内容就是加强对司法活动监督。据了解，我省是全国10个人民监督员制度改革试点单位之一，全省17市都在开展人民监督员制度改革试点工作，能介绍一下我市这项工作的开展情况吗？', '扈建军：好的。人民监督员制度是人民检察院主动接受社会监督的一种外部监督制度，目的是在检察机关直接受理案件的环节建立起有效的监督制约机制，保障职务犯罪侦查权的正确行使，增强执法的公信度。党中央对人民监督员制度改革高度重视。党的十八届三中、四中全会《决定》都涉及了这项改革任务。今年2月27日，习近平总书记亲自主持召开中央深化改革领导小组会议，审议通过了《深化人民监督员制度改革方案》，对做好这项工作提出明确要求。最高人民检察院、司法部和省人民检察院、省司法厅也分别印发了《意见》和《实施方案》，对这项工作进行了层层部署。', '省司法厅部署这项工作以后，全市司法行政机关精心组织、科学安排，扎实做好人民监督员选任管理工作。1月21日，召开会议对全市人民监督员选任管理方式改革试点工作作出具体部署。3月2日，在《德州日报》和市司法行政网站刊登了人民监督员选任公告。3月份以来，我们按照全省《实施方案》要求，对市检察院原来聘任的41名人民监督员进行了重新审查确认。同时，严格依照好中选好、优中选优的原则标准，经过公开报名、组织考察等环节，新确定了35名人民监督员拟任人选。5月18日，将76名拟任人民监督员进行了社会公示，完成了市级人民监督员的选任工作。6月3日，市司法局举行了新一届人民监督员聘任仪式，76名人民监督员正式上岗履职。', '“中国德州”政府网站：十八届四中全会以依法治国为主题，全面绘就了法治中国的路线图，随着依法治国的深入推进，人们对于法律知识方面的需求也越来越多，请问市司法局在法治宣传方面做了哪些工作?', '扈建军：好的。法治宣传是司法行政机关的招牌职能，我们大力开展法律进机关、进乡村、进社区、进学校、进企业、进单位活动，力推全市500个普法典型培植。落实“谁执法谁普法”普法责任制，围绕首个“国家宪法日”开展了集中宣传活动，全市400多个单位参加。组织了21000人参加的全市科以上干部无纸化普法考试。抓好重点对象法治宣传教育，重点突出对全市青少年的法治宣传教育。充分利用春节、全国“两会”、“3.8”妇女节、“3.15”消费者权益保护日、“4.26”世界知识产权日等时机，大力宣传宪法与中国特色法律体系，宣传与促进经济发展、维护社会稳定、保障改善民生相关的法律法规，今年以来开展普法宣传活动152场次，受益群众近50万人。我们还制定出台了《法治德州建设纲要》，为全市各项工作步入法治轨道提供了行动指南。', '同时，我们认真做好对外宣传工作。不断拓展媒体宣传阵地，在德州广播电台开播了“司法之声”和“大家说法”栏目，目前分别播放了36期和90期。与电视台联合开办了《司法行政》专题栏目，通过电视宣传的形式，宣传司法行政工作各项内容，推动依法治市工作全面开展，目前已播放6期。去年以来在德州日报、德州晚报、齐鲁晚报、德州广播电视台、法治山东周刊、大众网等各类媒体共刊发新闻稿件3500余篇。', '“中国德州”政府网站：您刚才提到我市已经出台了《法治德州建设纲要》，能介绍一下有关情况吗？', '扈建军：好的。为贯彻落实上级精神，加快法治德州建设，市委市政府决定起草我市法治建设纲要，并要求由市委政法委牵头，市司法局具体负责起草工作。随后，市司法局成立了专门起草小组，文件起草小组认真学习省《纲要》和十八届四中全会精神，广泛征求意见建议，对《纲要》进行了多次修改完善。12月15日山东省社会科学院法学研究所所长于向阳对纲要草稿进行了全面审核、把关、修改。2015年1月7日组织召开由28个有关市直部门负责人及部分人大代表、政协委员、高校教授等40余人参加的专题座谈会。之后，又先后7次组织各县市区，市直各部门及省社科院、山东大学、山东财经大学、山东政法学院、市委党校、德州学院的专家学者对《纲要》进行了深入讨论研究、修改完善，形成了送审稿。5月8日，市司法局向市委、市政府报送了《关于以市委 市政府名义发文&lt;法治德州建设纲要&gt;的请示》，在完成相关程序后，市委、市政府6月6日印发了《法治德州建设纲要》。《纲要》从立项起草到出台公布，先后经过19次较大修改，11个县市区、2个开发区、187个有关单位及30余名专家学者先后参与了有关起草和修改工作。可以说，《纲要》的制定出台，是一个广泛听取民意、集中民智的过程，是一个深化认识、凝聚共识的过程，是一个科学决策、民主决策的过程。', '一是精心规划，集中开展《纲要》的宣传活动。最近我们制定了《纲要》宣传计划，对学习宣传《纲要》作出了整体安排。充分利用广播、电视、报刊等传统媒体开设专栏、专版、专题节目，注重发挥各类网站、移动电视、手机等新媒体的作用，集中开展《纲要》的宣传活动，营造浓厚氛围。', '二是组织力量，做好《纲要》的深入解读。通过举办辅导报告会、骨干培训班等形式，组织专家深入解读《纲要》，力求全面、准确阐释法治德州建设的深刻内涵和精神实质。', '三是积极履职，抓好《纲要》的贯彻实施。各级普法依法治理工作机构立即行动起来，把学习宣传贯彻落实《纲要》摆在各项工作的突出位置，加强组织领导，明确职责任务，全力推动《纲要》各项目标任务的落实。', '四是强化责任，健全完善法治德州建设领导体制和工作机制。市司法局正在研究制定法治德州建设指标体系和考核评价标准，细化责任分工，强化检查考核，着力建立一套科学实用的法治德州建设长效机制。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>141</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>关于支持留学人员回国创业的意见</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2015-07-04</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1431/n20123954/n20129301/n20155269/n20155273/c20345242/content.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['各省、自治区、直辖市党委组织部、人力资源社会保障厅（局），新疆生产建设兵团党委组织部、人事局，国务院各部委、各直属机构人事部门：', '为贯彻落实《国家中长期人才发展规划纲要（2010-2020年）》，加大海外留学人才引进工作力度，加强对留学人员回国创业的支持，中央组织部、人力资源社会保障部会同教育部、科技部、财政部、外交部、发展改革委、公安部、国土资源部、商务部、人口计生委、人民银行、国资委、海关总署、税务总局、工商总局、侨办、中科院、外专局、外汇局等有关部门研究制定了《关于支持留学人员回国创业的意见》，经中央人才工作协调小组同意，现印发给你们，请结合本地区、本部门的实际情况贯彻落实。', '留学人员是我国人才资源的重要组成部分。吸引广大留学人员回国工作、创业或为国服务，是我国加强人才队伍建设、建设创新型国家的重要途径，也是新形势下实施科教兴国战略和人才强国战略的重要内容。近年来，回国创业逐渐成为留学人员报效祖国、服务国家经济社会发展的重要方式。支持广大留学人员回国创办企业，参与创新型国家建设，有利于学习国外先进的科学技术、促进科技成果转化，有利于推动我国企业自主创新、提高我国自主创新能力，有利于以创业带动就业，对于推动我国现代化建设事业具有重要意义。为贯彻落实《国家中长期人才发展规划纲要（2010-2020年）》精神，按照中央人才工作协调小组的要求，结合新时期留学人员回国创业的特点，现提出如下意见：', '、留学人员回国创业是指海外留学人员以专利、科研成果、专有技术等回国创办企业。留学人员企业一般要由留学人员担任企业法人代表，或者留学人员自有资金（含技术入股）及海内外跟进的风险投资占企业总投资的30%以上。', '、支持留学人员回国创业要全面贯彻落实科学发展观，坚持以科学人才观为指导，认真贯彻“支持留学、鼓励回国、来去自由”的工作方针，按照“拓宽留学渠道，吸引人才回国，支持创新创业，鼓励为国服务”的工作要求，围绕西部大开发、东北地区等老工业基地振兴、中部崛起、东部地区率先发展和行业振兴等战略规划，创造和利用更多支持条件，全方位、多渠道、多层次为留学人员回国创业予以扶持。通过支持留学人员回国创业，努力实现推动创新型国家建设、提高整体自主创新能力、优化产业结构调整的目标，为全面建设小康社会提供人才支持。', '、支持留学人员回国创业要坚持经济效益与社会效益、人才效益相结合，对关系经济社会发展全局的项目要大力支持，并通过企业发展培养出一批掌握尖端科技的创新型人才和善于经营管理的领军型人才；坚持国家战略与区域规划相结合，优先支持我国急需发展的高新技术产业以及地方振兴进程中的重点产业项目；坚持政府投入与社会投入相结合，以政府投入引导、带动社会投入支持留学人员创业；坚持优化环境与市场调节相结合，在提供优惠政策的同时，进一步完善市场机制，充分发挥市场的基础性作用；坚持个人素质与创业前景相结合，在考虑企业科技成果创新性的同时，注重留学回国人员的诚信记录和能力水平的综合评价。', '、支持留学人员回国创业必须营造有利于创业的良好环境。要不断创新政策、完善体制、强化服务、优化环境，为留学人员回国创办企业提供优惠的政策支持、良好的生活保障和优良的服务环境，积极构建以企业为主体、市场为导向、产学研相结合的留学人员创新创业体系，逐步发展一批具有自主知识产权的留学人员高新技术企业，培养一批专业素质高、技术前景好、海外联系广、熟悉国际运作规则的现代企业经营管理人才。', '、要结合经济社会发展和产业结构调整的需要，研究制定专项创业支持计划，有针对性地重点引进一批本地区发展急需和紧缺的留学人员回国创业。各地区要积极加强创业载体建设，依托当地经济技术开发区、高新技术产业开发区、留学人员创业园、大学科技园、农业科技园区等创业载体，大力吸引留学人员回国创业。', '、国家实施留学人员回国创业启动支持计划，对创新能力强、发展潜力大、市场前景好的留学人员企业，在创办初始启动阶段予以重点支持。有条件的地区可为留学人员回国创办企业提供一定数量的创业启动资金，并为领军型回国创业留学人员及其创业团队成员提供一定数额的安家费或租房补贴。', '、有条件的地方可以设立政府创业投资引导基金，引导和鼓励国有企业、私营企业、外资企业、社会团体、自然人等各类社会资本参与创业投资事业，为留学人员回国创业拓宽融资渠道。', '、进一步改进和完善创业贷款管理，推进金融产品和服务方式创新，研究探索“银行+担保+额外风险补偿机制”的贷款模式，加强对留学人员回国创业的金融服务。鼓励担保机构和再担保机构为留学人员回国创办企业提供贷款担保和再担保服务。', '、符合条件的留学人员企业可以按规定参与国家和省级科技计划项目、科研项目等，对进入各类园区孵化或转化的科研项目给予减免场地租金等优惠。', '、留学人员回国创办企业的，按有关规定享受相应的税收优惠政策。其中，属于国家需要重点扶持的高新技术企业，减按15%的税率征收企业所得税；企业开发新技术、新产品、新工艺发生的研究开发费用，可按实际发生额的150%在计算应纳税所得额时加计扣除；企业从事农、林、牧、渔业项目的所得，从事国家重点扶持的公共基础设施项目投资经营的所得，从事符合条件的环境保护、节能节水项目的所得，可以免征、减征企业所得税；企业以《资源综合利用企业所得税优惠目录》规定的资源作为主要原材料，生产国家非限制和禁止并符合国家和行业相关标准的产品取得的收入，可以在计算应纳税所得额时减计收入。', '、外籍或取得海外永久居留权的回国创业留学人员在国内取得的合法收入，依法纳税并持有税务部门出具的对外支付税务证明后，可全部兑换外汇汇出境外。在售付汇管理上，根据收入的性质，按照相关外汇管理规定办理。', '、回国创业留学人员以租赁方式使用国有土地进行创业，可享受各地政府优先供应土地等政策。留学回国人员可依照土地管理法律法规和土地利用总体规划，利用荒山、滩涂等特殊土地开发农业、林业项目，但不能抵押、转让、转租土地，不得改变用地性质。', '、鼓励留学人员企业申请专利，形成企业自主知识产权与核心技术的专利保护，加大对留学人员企业专利申请的支持力度。回国创业留学人员的技术成果可按国家有关规定作价入股投资。', '、积极鼓励留学人员企业申报设立博士后科研工作站，鼓励博士后科研工作站招收海外博士后进站开展科研活动，并对进站的海外博士后给予经费资助。', '、对回国创业留学人员坚持来去自由的原则，回国创业留学人员出国学习、考察，参加有关学术活动等正常业务活动，有关部门要简化手续，优先办理。', '、回国创业留学人员本人及其随行配偶、未成年子女，经本地人力资源社会保障部门和公安部门审核后，可在创业地或其本人原籍户口所在地落户，也可在其本人原户口注销地恢复户口。其中，北京市、上海市应当结合本地对人才的需求以及经济社会发展水平和综合承受能力，制定对非在本地注销户口或原籍不在本地的回国创业留学人员的户口迁移政策。', '夫妻双方在国外连续居住1年以上的持中国护照的留学人员，按政策生育或在国外期间生育及在国外怀孕后回中国内地生育第二个子女的，要按照国家及本地区有关规定在计划生育服务管理等方面给予适当照顾；其子女回国，可按照国家及本地区的有关法律政策规定，随父母在当地落户。', '、回国创业留学人员按照国家有关规定参加中国境内各项社会保险（有社会保险双边或多边互免协议的除外），包括基本养老、基本医疗、失业和工伤保险等，缴费年限以实际缴纳各项社会保险费的年限为准。', '回国创业留学人员可凭劳动、聘用等有效合同和各地人力资源社会保障部门的证明在当地建立个人住房公积金账户。非本地户籍的回国创业留学人员可以按规定，在当地缴存和使用住房公积金，离开该地区时，可以按规定办理住房公积金的提取或转移手续。', '已加入外国籍的回国创业留学人员在中国境内跨统筹地区流动，按照中国有关规定，办理社会保险关系转移接续，享受各项社会保险待遇的办法和个人住房公积金时，在缴费标准、转移办法和享受待遇等方面，与中国公民有相同的权利和义务。', '、回国创业留学人员在国内首次申报职称时，可比照国内同等资历人员申报相应级别专业技术职务任职资格的评审，免试外语和计算机。对其在国外取得的与国内相对应的技术职务或执业资格，经验证后，在各地人力资源社会保障部门办理确认手续。', '、已加入外籍的回国创业留学人员初次申领机动车驾驶证，符合驾驶证申领条件的，可凭其入境时所持有的护照或者其他旅行证件、有效签证或者居留许可，以及公安机关出具的住宿登记证明和身体条件证明，经考试合格后，由公安机关核发《中华人民共和国机动车驾驶证》。', '持境外机动车驾驶证的回国创业留学人员，符合驾驶证申领条件的，可凭境外机动车驾驶证、身份证明和身体条件证明，经考试合格后，由公安机关核发《中华人民共和国机动车驾驶证》。', '回国创业留学人员可以凭身份证明及机动车相关证明、凭证，到公安部门申请办理机动车注册登记。', '、妥善安排回国创业留学人员的配偶工作和子女就学。随迁配偶就业，采取个人联系和组织推荐相结合的方法，用人单位有接收条件的，要优先安排，确有困难的，当地人力资源社会保障部门要积极帮助推荐就业。', '随迁子女入托及义务教育阶段入学，由其居住地教育行政部门按照就近入学的原则优先办理入、转学手续，不收取国家规定以外费用。', '、鼓励留学人员企业申报各级各类科技计划和科研基金项目，开展科研活动。同等条件下，对研究开发水平高、具有良好产业化前景的留学人员企业科研项目予以优先支持。进一步发挥留学人员独特优势，鼓励他们创造更多成果和效益。', '、鼓励各高等院校及科研机构实验室向留学人员企业开放，支持留学人员企业建立企业技术中心或与高等院校、科研院所联合组建工程技术研究中心，并享受相关优惠政策。鼓励有发明专利或科研成果的回国创业留学人员申报国家和省部级有关科技奖项。', '、各地人力资源社会保障等部门要主动为留学人员创办企业及留学人员创业园提供支持和帮助。建立留学人员回国创业信息平台，加大信息网络建设力度，宣传引才和创业政策，提供项目需求信息等，促进资源共享。积极为留学人员回国创业搭建交流平台，鼓励和支持各地区开展多种形式的留学人员智力交流活动。建立创业投资综合性服务平台，实现留学人员回国创办企业和创业投资企业的信息互动交流。建立技术产权服务平台，为留学人员回国创业提供中外技术专利信息数据库检索、国家重点行业数据库检索和技术产权网上交易等服务。', '、高度重视。各地区要充分认识支持留学人员回国创业工作的重要意义，要把支持留学人员回国创业工作摆上重要议事日程，按照党管人才的原则，加强对留学人员回国创业工作的政策研究、宏观指导和组织协调，进一步发挥留学人员回国服务工作部际联席会议的积极作用。在各地人才工作领导小组的统一领导下，人力资源社会保障部门要充分发挥政府留学人员回国工作综合管理职能作用，加强与有关部门的沟通协调，指定专门机构，负责本地区的留学人员回国创业工作。各有关部门要相互支持，密切配合，形成合力，共同做好支持留学人员回国创业工作。', '、加强协调。各地区要根据本地区的实际情况建立留学人员回国创业服务工作协调机制，综合协调当地留学人员回国创业工作。各部门要加强沟通协调，进一步加强对留学人员回国创业工作的宏观指导。建立留学人员回国创业工作定期交流制度，加大地区、部门、行业间交流合作，盘活留学人员资源，探索建立海内外留学人员组织合作机制，以留学人员服务机构为主体，发挥海内外各类留学人员组织、社会团体的积极作用，不断开创留学人员回国创业服务工作新格局。', '、突出重点。各地区要进一步完善鼓励和支持留学人员回国创业工作的政策措施，加快培育和发展留学人员创业园，为留学人员回国创业提供专业服务，充分发挥各地国家级留学人员创业园的示范、引领和推广作用，要根据本地区经济社会发展制定专门的支持留学人员创业工作计划，把工作重点放在支持高层次留学人员回国创业工作上。集中优势力量，加大投入力度，力争在引进一批具有核心竞争力的留学人员回国创业企业方面有所突破。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>141</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>关于加强公立医疗机构廉洁风险防控的指导意见</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2015-07-04</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n1431/n20123954/n20129319/n20155509/n20155513/c20348510/content.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['为进一步推进公立医疗机构反腐倡廉建设和行业作风建设，根据中央纪委《关于加强廉政风险防控的指导意见》精神，结合公立医疗机构实际，现就加强公立医疗机构廉洁风险防控，提出以下指导意见。 一、指导思想、工作原则和目标要求 （一）指导思想。以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，按照“在坚决惩治腐败的同时，更加注重治本、更加注重预防、更加注重制度建设”的要求，以制约和监督权力运行为核心，以岗位廉洁风险防控为基础，以加强制度建设为重点，以现代信息技术为支撑，构建权责清晰、流程规范、风险明确、措施有力、制度管用、预警及时的公立医疗机构廉洁风险防控机制，确保公立医疗机构所有权力规范行使、高效运行，不断提高反腐倡廉工作科学化、制度化和精细化水平。 （二）工作原则。 ??坚持围绕中心、统筹兼顾。把加强廉洁风险防控与公立医疗机构中心工作紧密结合，融入业务工作和管理流程之中，实现廉洁风险防控与各项工作的统筹兼顾、相互协调、相互促进，推动公立医疗机构惩治和预防腐败体系逐步完善。 ??坚持结合实际、注重创新。紧密结合公立医疗机构改革发展实际，把握新形势下医疗机构反腐倡廉纠风工作的特点和规律，积极实践、不断创新，努力探索公立医疗机构惩治和预防腐败的新思路、新办法、新途径。 ??坚持依法依规、遵循规律。严格按照国家法律法规和规章制度，遵循权力运行的规律，规范权力行使的环节和流程，建立实用、有效的廉洁风险防控体系。 ??坚持统一要求、分类管理。针对公立医疗机构所有权力，区别不同特点和运行流程，实行统一部署要求、分类管理防控。 ??坚持重点突出、务求实效。在全面查找和评估风险的基础上，以腐败和不正之风问题易发多发的主要部位为重点，突出重要权力和权力行使的关键环节，提高预警防控措施的针对性和可操作性，重点明确、简便易行、务求实效。 （三）目标要求。在认真总结试点经验的基础上，2012年下半年全面启动公立医疗机构廉洁风险防控工作，逐步建立覆盖所有公立医疗机构的廉洁风险防控机制；结合公立医疗机构实际，通过充分实践，使公立医疗机构廉洁风险防控机制运行更加顺畅，制度配套更加完善、执行更加有力，防控腐败和不正之风的成效更加明显，在惩治和预防腐败体系建设中发挥更加重要的作用。 二、防控重点 加强公立医疗机构廉洁风险防控，要在全面防控的基础上，重点加强对医疗机构管理中腐败问题易发多发的重点岗位和医疗服务中社会关注度高、容易发生损害群众利益问题的关键环节廉洁风险的防控，对权力运行的“关节点”、内部管理的“薄弱点”、问题易发的“风险点”，强化防控措施、落实防控责任，实行重点监督、重点管理、重点防控。 （一）开展医疗机构管理权力廉洁风险防控，促进医疗机构管理人员规范用权。把决策、基建、采购、人事、财务等管理权力纳入重点监控范围，通过设置“内控点”实施过程动态监控。决策权，要强化对“三重一大”事项民主决策制度落实情况的监控；基建权，要强化对“项目法人制”、“工程招投标制”、“工程监理制”、“合同管理制”落实情况的监控，实行工程造价跟踪审计，重点防范招投标和资金管理使用中的廉洁风险；采购权，要重点加强药品、设备、试剂、耗材等物资采购的监管，加强对公开招标、邀请招标、询价采购和单一来源采购的管理，强化对采购范围、采购程序、采购环节和结果的监控；人事权，要强化对干部任用、人员招聘、职称评审、编制管理、转岗和执业资格管理的监控；财务权，要强化对资金集中统一管理、执行财务内控制度和基建项目、大额购置、专项资金等重点支出的监控。 （二）开展医疗服务廉洁风险防控，规范医务人员执业行为。针对社会普遍关注和群众反映强烈的突出问题，以医德医风、临床诊疗、临床用药、医用耗材和试剂使用、大型医疗设备检查、医疗收费、统方管理等为重点，充分利用信息技术，实行指标控制，规范诊疗服务行为，防止收受“红包”、回扣、过度检查治疗、乱收费等损害群众利益问题的发生。要加强医德医风学习教育，强化“红包”治理，改进完善医德考评制度，建立对医务人员有效的激励和约束机制；要以临床路径管理为抓手，加强临床诊疗管理，强化对入径标准、路径管理和路径变异的监控；要强化对临床用药药品来源、基本药物使用、抗菌药物使用、超限处方、不合理处方、贵重药物和单品种药物用药数量的监控；要强化对医用耗材和试剂来源、采购、资质、出入库、使用的监控；要强化对大型医疗设备检查阳性率、检查权限和重复检查的监控；要强化对医疗收费标准、项目执行情况和超标准超范围收费、分解项目收费、重复收费的监控；要健全医疗机构统方管理制度，加强对药房、信息中心（科）等重点部门人员管理和医疗机构信息系统药品、高值耗材统计功能管理，严格统方权限和审批程序，加强对软件信息公司人员行为规范，防止商业目的统方。 （三）开展供应商诚信管理，净化医疗机构工作环境。坚持受贿、行贿两个方面同时抓、同时管，在强化医疗机构内部监控的同时，对供应商营销行为进行诚信管理。一是实施诚信承诺制度。供应商与医疗机构签订业务合同，必须在合同中设置不得收、送商业贿赂的条款，并明确约定法律责任。建立供应商廉洁诚信电子档案，接受干部职工监督。二是实施诚信评估制度。对供应商廉洁守信、依法经营情况，每年全面评估和分级排队，作为是否续签合同的重要依据。三是实施风险预警制度。开展供应商产品价格监测，把出厂和销售差价较大的作为监控重点；对反映存在问题的，适时组织调查，确存问题的，实施限量、降价、暂停采购等措施，严厉打击失信行为。四是实施诚信捐赠制度。供应商对医疗机构的自愿捐赠资助，必须按规定纳入医疗机构财务部门统一管理，捐赠资助不得附加任何影响公平竞争的条件，不得与采购商品（服务）挂钩，不得指向特定内部职能部门或个人。五是实施不良记录制度。对经核实有商业贿赂行为的供应商，及时列入不良记录，按规定不得以任何名义、任何形式购买其产品。 （四）开展患者满意度管理，不断提升医疗服务水平。一是建设评价平台。以医疗服务、医疗质量、医德医风等为重要评价内容，在门诊大厅、收费和取药窗口、住院病区显要位置，设置评价信息采集器，为患者提供满意度评价平台。建立出院患者回访制度，为患者提供评价和跟踪服务。二是提供评价服务。实行全员与大样本相结合评价，为住院患者提供全员评价服务，为门诊患者提供大样本评价服务。对实施评价的患者身份采取保密措施，评价结果定期在医疗机构内部公开。三是健全评价制度。建立评价信息采集制度、定期分析改进制度和奖惩制度，注重评价结果运用，定期分析患者不满意的问题及原因，促进医疗机构规范管理。 三、方法步骤 （一）开展廉洁风险教育，营造风险防控氛围。坚持把教育贯穿廉洁风险防控工作始终，结合党风廉政建设责任制和纠风工作责任制，组织全体干部职工广泛开展有针对性的岗位廉洁风险教育，深入开展人生观、价值观、权力观和职业精神、职业道德、法制纪律教育，广泛收集廉洁风险信息，突出正面典型宣传和反面警示教育，动员和引导广大干部职工积极参与，充分发挥其防控主体作用，切实提高开展廉洁风险防控的主动性和自觉性。 （二）全面清权确权，编制职权目录。按照“权责一致”的要求，对具有行政权力特点的医疗机构管理权力，对照法律法规、制度规定、岗位职责，采取自下而上与自上而下相结合的方式，逐项进行清理；对从业人员执业过程中行使的职权，严格按照执业资格和执业范围，结合诊疗服务和业务工作流程，组织人员逐个环节系统分析清理。对清理出来的职权，最终统一由医疗机构专门会议集体审核确认，未经审核确认的，禁止行使。对审核确认的职权，统一编制并对内公开《职权目录》，逐项明确职权的名称、内容、类别、行使主体、行使依据等，把权力行使责任落实到处（科）室和岗位。 （三）查找廉洁风险，评定风险等级。通过自己查找、集体评议、案例分析、组织审定等方式，从权力行使、制度机制等方面，认真查找和确定每个岗位职权运行中的廉洁风险。权力行使方面，重点查找由于权力过于集中、运行程序不规范和自由裁量幅度过大，可能造成权力滥用的风险；制度机制方面，重点查找由于规章制度不健全、监督制约机制不完善，可能导致权力失控的风险。依据查找出的廉洁风险发生可能性的大小、频率的强弱、危害程度的高低等因素，组织各处（科）室认真分析、逐一研究，对每项职权按照“高”、“中”、“低”三个风险等级进行评定，并经医疗机构领导班子会议集体审定，列表内部公示。 （四）优化职权运行流程，制定防控规则。按照结构合理、配置科学、程序严密、制约有效的原则，对每项职权特别是“高”风险等级的职权运行的流程进行系统梳理、科学设定，明确并公开权力行使的基本程序、承办岗位、办理时限、相对人权利等，绘制印发职权运行流程图，使权力运行步骤更加简约明确、程序更加清晰流畅、监督更加方便有效。职权运行流程图要对内全部公开，与医疗服务相关的职权流程图同时要向社会公开。针对各项职权廉洁风险状况，依据法律法规、规章制度、廉洁要求、工作职责、工作标准，从依法履行职责、构建制衡机制、明确防控目标、建立内控节点、开展风险预警等方面，制定有针对性、可操作性、具体管用和切实可行的防控规则。 （五）建立防控平台，强化权力运行监控。结合医疗机构信息系统建设，建立医疗机构廉洁风险防控信息平台，实现风险预警、风险分析、风险处置等功能，对权力运行廉洁风险实施动态防控。对不同风险等级的权力实行分级管理、分级负责、分级监控、责任到人。对高风险权力重点管理，将权力运行过程中一些易公示、可核查的具体环节、要点、指标作为“内控点”，随权力行使过程动态公开，决策环节实行起点监控，执行环节实行网上过程监控，完结环节实行结果监控；对“中”、“低”风险等级权力，充分发挥处（科）室、岗位人员作用，实施常规监控、自我监控。 （六）实施预警处置，及时化解廉洁风险。通过对职权运行实时监控，结合大型医院巡查、审计、干部考察、述职述廉、行风评议、媒体反映、纠风治理、信访举报和案件分析等工作，全面收集廉洁风险信息，及时进行分析、研判和评估，对可能引发腐败或不正之风的苗头性、倾向性问题进行风险预警，综合运用风险提示、诫勉谈话、责令纠错等处置措施，做到早发现、早提醒、早纠正，及时化解廉洁风险。同时要结合公立医疗机构改革发展、功能定位转变和预防腐败新要求，根据法律法规和政策规定的调整、职责职能的变更、防控措施落实的效果以及反腐倡廉实际需要，及时调整、完善廉洁风险内容、等级和防控措施，加强对廉洁风险防控的动态管理。 （七）严格绩效评估，提高防控实效。研究建立廉洁风险防控绩效评估制度，以权力运行流程、运行状况和防控规则为重点，对廉洁风险防控工作实际效果进行考核评估。对权力运行流程，重点关注其是否科学合理有利于防控廉洁风险，是否简便高效有利于提高工作效率；对权力运行状况，重点关注权力行使是否严格符合运行流程并按规定公开相关信息；对防控规则，重点关注其是否得到严格落实及其防控实效。对考核评估中发现的问题和薄弱环节，采取措施、及时整改，建章立制、堵塞漏洞。 四、工作要求 （一）加强领导，落实责任。各级卫生行政部门和公立医疗机构要把加强廉洁风险防控作为落实党风廉政建设责任制和纠风工作 责任制、加强惩治和预防腐败体系建设的一项重要任务，作为强化医疗机构管理、提高反腐倡廉纠风工作科学化水平的重要举措，列入领导班子重要议事日程，认真组织落实。公立医疗机构领导班子要高度重视，党政主要负责人是第一责任人，要主动抓、亲自抓，及时研究解决推进工作中存在的困难和问题。领导班子其他成员要以身作则，率先垂范，根据分工带头抓好自身和职责范围内的廉洁风险防控工作。各业务部门要主动做好本部门的廉洁风险防控工作。卫生系统各级纪检监察机构要认真履行职责，加强组织协调和监督检查，切实推动工作落实。 （二）结合实际，扎实推进。各省级卫生行政部门要在地方党委政府的统一领导部署下，认真总结前期试点工作经验，按照本指导意见要求，研究制定具体工作实施方案，对本地区公立医疗机构廉洁风险防控工作进行统一动员和安排部署，加强工作指导和监督检查，确保取得实效。各省级卫生行政部门要结合本地区实际，区分不同医疗机构类型，研究制定全省统一的公立医疗机构职权目录和职权运行流程图范例，与工作实施方案一并下发。各级卫生行政部门和公立医疗机构要结合本地区、本单位工作实际，创造性地开展工作，不断丰富廉洁风险防控内容，完善廉洁风险防控办法，积极探索具有本地区、本医疗机构特色的廉洁风险防控机制，推进医疗机构科学发展。 （三）注重“制度+科技”，形成防控长效机制。各地区各单位要及时总结实践经验，逐步建立健全廉洁风险评估预警制度，分析风险来源，强化防范预警措施，减少和规避廉洁风险；逐步建立健全廉洁风险决策制度，完善决策议事规则，规范决策程序，提高决策的科学性；逐步建立健全对权力运行的监督制约制度，转变防控观念，拓展防控渠道，改进防控方式。要注重防控制度与其他制度的相互衔接，构建完整的制度链条，逐步形成内容科学、程序严密、配套完备、有效管用的廉洁风险防控制度体系。注意加强统一规划和资源整合，充分利用医疗机构已有信息网络设施，依据“职权运行流程图”，将职权流程程序化、标准化和规范化，并结合院务公开工作，实现网上实时动态防控，依托科技手段防控廉洁风险。 （四）开展监督检查，确保任务落实。各级卫生行政部门要强化对公立医疗机构廉洁风险防控工作的检查和考核，把廉洁风险防控作为医疗机构年度校验、等级评审的重要内容，纳入党风廉政建设责任制检查考核、领导班子和领导干部目标考核、惩治和预防腐败体系建设检查之中，并将检查考核结果作为评先、评优和干部奖惩任免的重要依据。要研究制定检查评估标准，探索建立廉洁风险防控的社会评价办法，采取定期自查、年度检查、社会评议等方式，提高检查评估的针对性和有效性，确保公立医疗机构廉洁风险防控扎实推进、取得实效。 附件：1.公立医疗机构管理权力廉洁风险防控规则 2.公立医疗机构医疗服务廉洁风险防控规则 卫生部 国家中医药管理局 2012年9月18日 附件1 公立医疗机构管理权力廉洁风险防控规则 开展公立医疗机构管理权力廉洁风险防控，主要是对医疗机构内具有行政特点的管理权力，运用“制度＋科技”的办法，将廉洁风险防控制度融入医疗机构管理之中，落实到权力运行的关键环节，并把制度落实情况随权力运行过程在内网实时公开，实现医疗机构管理廉洁风险的动态防控。 一、决策权。（一）优化决策机构和运行机制。完善党委（总支或支部）、行政领导班子议事规则和工作规则，医疗机构“三重一大”事项，必须经领导班子集体讨论决定；凡事关医疗机构改革发展全局的重大问题和涉及职工切身利益的重要事项，都要经职代会审议通过；对专业性较强的重要事项,应当经过专业委员会咨询论证。医疗机构领导班子成员应当按照分权制衡原则合理确定分工，建立健全决策权、执行权、监督权既相互制约又相互协调的权力结构和运行机制，领导班子主要负责人不直接分管人事、财务、基建和物资采购工作，同一领导班子成员不同时分管人事、财务、物资采购工作。（二）完善决策程序和方法。开展廉洁风险评估决策、廉洁规则遵循决策和廉洁后果导向决策。凡医疗机构的重大决策，都要开展廉洁风险评估，研究制定预防措施，并纳入决策方案；制定决策草案时，对涉及廉洁风险的问题要注明法律法规和政策依据，不得作出与法律法规和政策规定相抵触的决策，不得开展未经卫生行政部门批准的医疗技术服务和临床检验项目；重大决策，实行决策前调研论证、议题会前通报、会中充分讨论、“一把手”集中正确意见最后表态等制度。研究重大决策要有专人记录，编写会议纪要，不涉及保密事项的在内网向干部职工公开。（三）开展决策效果的绩效和廉洁评估。涉及廉洁风险的重要决策运行一段时间后，要根据执行情况，对决策绩效评估的同时，对风险防控措施的实用性和有效性进行评估，依据两方面的评估情况，提出改进意见和建议。 二、基建权。（一）明确和落实决策、执行和监督职责。工程项目决策必须召开领导班子会议集体研究决定，实行项目建设法人负责制，但项目建设的执行事宜由主管副职负责，明确项目执行各环节的具体责任人及其职责。由纪检监察、内审机构、职工代表大会等组织成立监督委员会，充分履行监督职责。（二）加强对关键环节和重点部位的防控。强化对“项目法人制”、“工程招投标制”、“工程监理制”、“合同管理制”落实情况廉洁风险的防控，重点加强对招投标和资金管理使用的监控。凡符合招投标条件的项目必须按规定实行招投标。实行工程造价跟踪审计，项目建设资金须专款专用、专户管理，项目管理与财务管理分离，项目款项须经项目管理部门、财务管理部门和审计部门共同审签后按有关规定支付。（三）开展结构化全程监督。实行项目建设“阳光工程”，项目建设的重要环节必须按规定实时公开；单位内部纪检监察、内审机构要主动介入项目设计、施工、采购、验收等环节，实行全过程监督；主动协调检察、审计等机关提前介入，积极引入职工民主监督、社会监督机制，形成监督合力。 三、采购权。（一）规范采购范围。凡应参加政府采购和集中采购的，都应当严格执行政府采购、集中采购有关法律政策规定，参加政府采购和集中采购。未纳入政府采购或集中采购范围的,药品、耗材、设备、试剂和其他超过一定金额或数量的物资，必须由医疗机构统一集中采购；不需统一集中采购的，要经主管领导批准后，实行使用、主管、监察三方人员共同参与、货比三家的采购制度。（二）严格采购程序。医疗机构遴选本机构用药目录、审核新购药品、调整药品品种，应当由药事管理与治疗学委员会（组）组织，在纪检监察部门监督下，从本单位具有一定专业技术职称的临床、药学人员中随机抽取专家，以票决制方式确定。医疗机构组织集中采购，要严格按照编制采购计划、单位主管领导审批、专门委员会论证、制定采购文件、发布采购公告、开展资质审核、组织招标评标、签署供货合同和采购验收等规定程序进行，不得无故简化或遗漏。（三）实施医药购销廉洁协议制度。医疗机构与供应商签订购销合同，必须同时签订廉洁协议，或将廉洁协议载入购销合同，明确不得收、送商业贿赂，并明确约定法律责任，一旦违反协议严格按照合同约定和有关规定处理。（四）公开采购关键环节和结果。加强对采购过程各环节的廉洁风险防控，关键环节的重要内容特别是采购结果，要在内网公开，接受干部职工监督。 四、人事权。（一）干部任用。认真执行干部选拔任用的各项规定，严格实施“没有岗位空缺不推荐、没有民主推荐情况不考察、没有考察情况不上会、没有任前公示不发文”和“公开选拔岗位、考察人选、拟任人选、任命文件”的“四没有、四公开”防控制度。（二）职称评聘。严格执行职称评聘的各项法规制度，要组成职称聘任工作委员会，认真制定并公布职称聘任工作方案；公布职称申报条件，个人自主申报、单位审查资格，公示上级评审结果，按医疗机构职数择优聘任，公示聘任结果。（三）人员招聘。医疗机构招聘人员，必须进行公开招聘。要制定公开招聘方案，经领导班子集体研究通过后，及时向社会发布招聘信息。依照招聘方案，组织考试、考核，经单位集体研究后，按照考试和考核结果择优确定拟聘人员。及时在内网公布会议纪要、招聘方案、考试情况和招聘结果。（四）编制管理。编制外临时或聘用人员转入编制内管理的，要通过集中考试或量化打分等形式确定人选，由领导班子会议集体研究决定，结果应当及时向干部职工公开。（五）轮岗交流。对廉洁风险比较高的岗位，定期轮岗交流。较大规模轮岗交流，要制定方案，召开领导班子会议集体研究，并采取竞争上岗、优化组合等形式进行，结果及时向干部职工公开。（六）执业资格管理。认真落实医务人员执业管理各项规定，把医、药、护、技人员的执业要求和行为规范列为防控要点，在内网公布所有医务人员的执业资格及执业范围，防止医务人员无证或超范围执业。 五、财务权。（一）加强资金的集中统一管理。医疗机构所有资金必须由财务部门统一集中管理，票据管理要严格规范，严防“账外账”和“小金库”。（二）强化重点支出监控。科学编制年度财务预决算，真实反映财务情况，全面落实预决算向职代会报告制度。完善基建项目、大额购置和专项资金审批程序，加强审核、审计，认真落实逐级审批制度。（三）认真执行财务内控制度。明晰管理职责分工，财务收支、审核、审批、审计由不同岗位分管，建立纵向与横向的监督关系，形成严密、完整的财务内控制度。（四）开展资金使用绩效考评。建立绩效考评指标体系，对大额资金支出定期开展绩效考评，确保资金使用效益。 附件2 公立医疗机构医疗服务廉洁风险防控规则 开展医疗机构医疗服务廉洁风险防控，主要是针对医疗机构内医、药、护、技等从业人员的执业行为，利用信息技术的自动筛查、自动对比、自动排序、自动公示功能，查找可能存在的问题或需进一步审查的重点，实时有效遏制收受“红包”、回扣、过度检查治疗、乱收费等损害群众利益问题的发生，规范诊疗服务行为。 一、医德医风。（一）加强医德医风学习教育。定期开展专题教育活动，加强职业道德、行为规范、纪律法制学习和教育，加强正面典型教育和反面警示教育，把医德医风教育作为医务人员上岗培训、继续医学教育、毕业后教育、执业资格考试、职称晋升考试的必要内容。（二）实行医患双方签署协议书制度。患者入院时进行医生不收“红包”、患者不送“红包”双向签字，协议书纳入病案管理。（三）改进完善医德考评制度。与日常监管和科室日常考核结果相结合，细化工作指标和考评标准，注重考评结果的运用，把考评结果与医务人员的晋职晋级、岗位聘用、评先评优和定期考核直接挂钩。（四）健全医德医风问题投诉和查处机制。畅通投诉渠道，规范线索管理，问题线索集中管理、逐件登记，定期研究、集中排查，确保群众反映的医德医风问题件件有落实、事事有答复。 二、临床诊疗。要以临床路径管理为主要抓手，实现临床诊疗行为的标准化、规范化、可控化，规范诊疗行为，防止过度医疗。（一）增加管理病种。认真推进临床路径管理，在临床路径管理试点的基础上，扩大管理病种，逐步把医疗机构主要病种全部纳入临床路径管理。（二）规范路径内容。医疗机构要在卫生部印发的临床路径基础上，结合医疗实际，进一步细化各病种临床路径，制定临床路径文本，优化诊疗流程，明确治疗药物，限定使用耗材，科学测算并严格控制单病种诊疗费用。临床路径文本经医疗机构临床路径管理委员会审核后实施。（三）加强实施过程监控。医疗机构要结合实际，强化对入径标准、路径变异的监控，对出径病例进行监测、预警，不断提高路径入组率和完成率。（四）强化实施效果评价。建立完善临床路径相关信息收集和数据报送制度，定期对临床路径的实施效果进行评价分析。对临床路径实施效果评价应当包括合理用药相关指标（手术患者重点是预防性抗菌药物应用类型、应用天数等指标，非手术患者重点是主要药物选择等指标），住院天数、手术前住院天数等效率指标，住院费用、药品费用、医疗耗材费用等卫生经济学指标。根据评价情况，要不断修订、完善和改进临床路径。 三、临床用药。全面加强医疗机构用药监控，防止不合理用药。（一）加强药品来源监控。规范医疗机构用药来源，严禁使用非经医疗机构统一渠道采购的药品。临床急需的省级药品集中采购目录外的药品，执行备案采购制度。（二）开展基本药物使用监控。对处（科）室、医师基本药物的使用数量、金额、比例等进行排名，对名次靠前的进行公示，鼓励医师更多地使用基本药物。（三）开展抗菌药物使用监控。重点加强抗菌药物使用量、分级管理和围手术期预防使用的监控，严格控制抗菌药物使用品种、使用强度和使用率，促进合理使用抗菌药物。（四）加强超限处方监控。对单张门诊处方（中药处方除外）设定“金额、品种、时间”三个上限，由职能处（科）室进行审核监督。（五）实行药品“三双”监控。将抗菌药物、心脑血管、肿瘤、血液制品等药物纳入监控重点，对医疗机构单品种用药数量、金额实行“双排序、双公示、双监控”，对排位靠前的处（科）室、医师定期在院内公示。（六）组织开展处方点评。按照卫生部《医院处方点评管理规范（试行）》开展处方点评，对不合理处方（包括不规范处方、用药不适宜处方及超常处方）进行内部公示，对开具不合理处方的医师，实施教育、批评、谈话、告诫、处罚等措施；对存在不合理增长的药品，实施限购、暂停采购等措施。 四、医用耗材。（一）来源监控。推进耗材规范化管理，严禁使用未经医疗机构统一采购的医用耗材。医疗机构自采的医用耗材，成立专门管理委员会，按规定进行集中采购。对临采性强的高值植入性耗材，招标选择生产企业。严格供货渠道，积极参加以省（区、市）为单位的高值耗材集中采购。严禁处（科）室和个人自行采购。（二）资质监控。建立健全电子档案管理系统。严格进行资质准入管理，凡不符合规定要求的，一律不得在医疗机构使用。（三）使用监控。对高值耗材使用，认真履行征求患者或家属意见制度，严格使用程序，强化使用合理性审查，防范使用中的廉洁风险。（四）重复使用监控。根据耗材编码的唯一性监控高值耗材重复使用，通过收费数量与出库数量的对比监控低值耗材重复使用。（五）跟踪监控。对植入性高值耗材，全部建立患者档案，运用出院患者回访系统进行定期跟踪服务，为耗材的采购和使用提供技术依据，减少违规违纪行为的发生。 五、医用试剂。积极建立完善试剂管理系统。（一）采购监控。积极参加以省为单位的试剂集中采购，对医疗机构可以自采的试剂，严格执行采购规则，严禁使用未经医疗机构统一采购的试剂。（二）出入库监控。对医疗机构集中采购的试剂，要统一验收、编码后管理，无验收或非集中采购的产品不得入库、不得付款。（三）使用监控。强化对试剂质量和使用数量的监控，严防发生质量事故和乱收费等问题。 六、大型医疗设备检查。重点防范过度检查。（一）监控检查阳性率。对大型医疗设备检查阳性率，按科室、医师进行排序和公示，对低于规定标准的，进行审查。（二）监控检查权限。严格遵守检查权限，严禁非临床医师开具检查单，严禁使用未经配置审批的大型医用设备。加强对同一名医师既开检查单又执行检查情况的监控。（三）监控重复检查。除需要连续观察病情变化的患者外，对同一患者、同一部位、同日重复检查的病例进行重点筛查，审核检查的合理性。 七、医疗收费。通过公开栏、电子屏等多种方式，公示药品、医疗服务等价格信息，供患者监督。重点在以下几个方面实施监控，防止乱收费：（一）监控药品、耗材加成率。将物价部门规定的药品、耗材等加成标准，与医疗机构实际执行的情况进行比对，超过规定的，及时纠正。（二）监控超标准、超范围、重复收费。对发现的违规问题，及时督促纠正。（三）监控越权收费。按照规定的科室收费权限，对越权收费问题进行审查。（四）监控逻辑错误收费。按照住院时间、收费次数等逻辑关系，筛查诊疗、护理、吸氧等收费方面的问题，及时进行审查和纠正。（五）监控住院限额费用。根据医疗机构实际，对一个时段的住院费用设定一个规定上限进行监控，筛查可能出现的收费问题。 八、统方管理。建立医疗机构统方管理制度，重点防止为商业目的统方。（一）加强对医疗机构工作人员的管理。以药房、信息中心（科）为重点，健全管理制度，严禁任何人利用任何途径和方式进行商业目的统方或为医药营销人员统方提供便利。（二）加强医疗机构信息系统药品、高值耗材统计功能管理。对医疗机构各部门通过计算机网络查询医疗机构信息的权限实行分级管理，对医疗机构信息系统中有关药品、高值耗材使用等信息专人负责、加密管理。采取有效的技术手段，对统方行为进行监控，防止为商业目的统计医师个人和临床科室有关药品、高值耗材用量信息。（三）严格统方权限和审批程序。医疗机构其他部门或人员如因工作原因需要了解用药和高值耗材用量的情况，应严格按照程序审批、查询，未经批准不得统方、查询。（四）加强对医疗机构信息系统备份数据信息的管理。对备份数据加密管理，防止利用备份数据统方。（五）加强对软件信息公司人员行为的规范。通过签订廉洁协议等方式，加强对软件信息公司及其工作人员管理，明确其法律责任，防止其利用工作之便进行统方或为医药营销人员统方提供信息数据便利。', '为进一步推进公立医疗机构反腐倡廉建设和行业作风建设，根据中央纪委《关于加强廉政风险防控的指导意见》精神，结合公立医疗机构实际，现就加强公立医疗机构廉洁风险防控，提出以下指导意见。', '以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，按照“在坚决惩治腐败的同时，更加注重治本、更加注重预防、更加注重制度建设”的要求，以制约和监督权力运行为核心，以岗位廉洁风险防控为基础，以加强制度建设为重点，以现代信息技术为支撑，构建权责清晰、流程规范、风险明确、措施有力、制度管用、预警及时的公立医疗机构廉洁风险防控机制，确保公立医疗机构所有权力规范行使、高效运行，不断提高反腐倡廉工作科学化、制度化和精细化水平。', '坚持围绕中心、统筹兼顾。把加强廉洁风险防控与公立医疗机构中心工作紧密结合，融入业务工作和管理流程之中，实现廉洁风险防控与各项工作的统筹兼顾、相互协调、相互促进，推动公立医疗机构惩治和预防腐败体系逐步完善。', '坚持结合实际、注重创新。紧密结合公立医疗机构改革发展实际，把握新形势下医疗机构反腐倡廉纠风工作的特点和规律，积极实践、不断创新，努力探索公立医疗机构惩治和预防腐败的新思路、新办法、新途径。', '坚持依法依规、遵循规律。严格按照国家法律法规和规章制度，遵循权力运行的规律，规范权力行使的环节和流程，建立实用、有效的廉洁风险防控体系。', '坚持统一要求、分类管理。针对公立医疗机构所有权力，区别不同特点和运行流程，实行统一部署要求、分类管理防控。', '坚持重点突出、务求实效。在全面查找和评估风险的基础上，以腐败和不正之风问题易发多发的主要部位为重点，突出重要权力和权力行使的关键环节，提高预警防控措施的针对性和可操作性，重点明确、简便易行、务求实效。', '在认真总结试点经验的基础上，2012年下半年全面启动公立医疗机构廉洁风险防控工作，逐步建立覆盖所有公立医疗机构的廉洁风险防控机制；结合公立医疗机构实际，通过充分实践，使公立医疗机构廉洁风险防控机制运行更加顺畅，制度配套更加完善、执行更加有力，防控腐败和不正之风的成效更加明显，在惩治和预防腐败体系建设中发挥更加重要的作用。', '加强公立医疗机构廉洁风险防控，要在全面防控的基础上，重点加强对医疗机构管理中腐败问题易发多发的重点岗位和医疗服务中社会关注度高、容易发生损害群众利益问题的关键环节廉洁风险的防控，对权力运行的“关节点”、内部管理的“薄弱点”、问题易发的“风险点”，强化防控措施、落实防控责任，实行重点监督、重点管理、重点防控。', '把决策、基建、采购、人事、财务等管理权力纳入重点监控范围，通过设置“内控点”实施过程动态监控。决策权，要强化对“三重一大”事项民主决策制度落实情况的监控；基建权，要强化对“项目法人制”、“工程招投标制”、“工程监理制”、“合同管理制”落实情况的监控，实行工程造价跟踪审计，重点防范招投标和资金管理使用中的廉洁风险；采购权，要重点加强药品、设备、试剂、耗材等物资采购的监管，加强对公开招标、邀请招标、询价采购和单一来源采购的管理，强化对采购范围、采购程序、采购环节和结果的监控；人事权，要强化对干部任用、人员招聘、职称评审、编制管理、转岗和执业资格管理的监控；财务权，要强化对资金集中统一管理、执行财务内控制度和基建项目、大额购置、专项资金等重点支出的监控。', '针对社会普遍关注和群众反映强烈的突出问题，以医德医风、临床诊疗、临床用药、医用耗材和试剂使用、大型医疗设备检查、医疗收费、统方管理等为重点，充分利用信息技术，实行指标控制，规范诊疗服务行为，防止收受“红包”、回扣、过度检查治疗、乱收费等损害群众利益问题的发生。要加强医德医风学习教育，强化“红包”治理，改进完善医德考评制度，建立对医务人员有效的激励和约束机制；要以临床路径管理为抓手，加强临床诊疗管理，强化对入径标准、路径管理和路径变异的监控；要强化对临床用药药品来源、基本药物使用、抗菌药物使用、超限处方、不合理处方、贵重药物和单品种药物用药数量的监控；要强化对医用耗材和试剂来源、采购、资质、出入库、使用的监控；要强化对大型医疗设备检查阳性率、检查权限和重复检查的监控；要强化对医疗收费标准、项目执行情况和超标准超范围收费、分解项目收费、重复收费的监控；要健全医疗机构统方管理制度，加强对药房、信息中心（科）等重点部门人员管理和医疗机构信息系统药品、高值耗材统计功能管理，严格统方权限和审批程序，加强对软件信息公司人员行为规范，防止商业目的统方。', '坚持受贿、行贿两个方面同时抓、同时管，在强化医疗机构内部监控的同时，对供应商营销行为进行诚信管理。一是实施诚信承诺制度。供应商与医疗机构签订业务合同，必须在合同中设置不得收、送商业贿赂的条款，并明确约定法律责任。建立供应商廉洁诚信电子档案，接受干部职工监督。二是实施诚信评估制度。对供应商廉洁守信、依法经营情况，每年全面评估和分级排队，作为是否续签合同的重要依据。三是实施风险预警制度。开展供应商产品价格监测，把出厂和销售差价较大的作为监控重点；对反映存在问题的，适时组织调查，确存问题的，实施限量、降价、暂停采购等措施，严厉打击失信行为。四是实施诚信捐赠制度。供应商对医疗机构的自愿捐赠资助，必须按规定纳入医疗机构财务部门统一管理，捐赠资助不得附加任何影响公平竞争的条件，不得与采购商品（服务）挂钩，不得指向特定内部职能部门或个人。五是实施不良记录制度。对经核实有商业贿赂行为的供应商，及时列入不良记录，按规定不得以任何名义、任何形式购买其产品。', '一是建设评价平台。以医疗服务、医疗质量、医德医风等为重要评价内容，在门诊大厅、收费和取药窗口、住院病区显要位置，设置评价信息采集器，为患者提供满意度评价平台。建立出院患者回访制度，为患者提供评价和跟踪服务。二是提供评价服务。实行全员与大样本相结合评价，为住院患者提供全员评价服务，为门诊患者提供大样本评价服务。对实施评价的患者身份采取保密措施，评价结果定期在医疗机构内部公开。三是健全评价制度。建立评价信息采集制度、定期分析改进制度和奖惩制度，注重评价结果运用，定期分析患者不满意的问题及原因，促进医疗机构规范管理。', '坚持把教育贯穿廉洁风险防控工作始终，结合党风廉政建设责任制和纠风工作责任制，组织全体干部职工广泛开展有针对性的岗位廉洁风险教育，深入开展人生观、价值观、权力观和职业精神、职业道德、法制纪律教育，广泛收集廉洁风险信息，突出正面典型宣传和反面警示教育，动员和引导广大干部职工积极参与，充分发挥其防控主体作用，切实提高开展廉洁风险防控的主动性和自觉性。', '按照“权责一致”的要求，对具有行政权力特点的医疗机构管理权力，对照法律法规、制度规定、岗位职责，采取自下而上与自上而下相结合的方式，逐项进行清理；对从业人员执业过程中行使的职权，严格按照执业资格和执业范围，结合诊疗服务和业务工作流程，组织人员逐个环节系统分析清理。对清理出来的职权，最终统一由医疗机构专门会议集体审核确认，未经审核确认的，禁止行使。对审核确认的职权，统一编制并对内公开《职权目录》，逐项明确职权的名称、内容、类别、行使主体、行使依据等，把权力行使责任落实到处（科）室和岗位。', '通过自己查找、集体评议、案例分析、组织审定等方式，从权力行使、制度机制等方面，认真查找和确定每个岗位职权运行中的廉洁风险。权力行使方面，重点查找由于权力过于集中、运行程序不规范和自由裁量幅度过大，可能造成权力滥用的风险；制度机制方面，重点查找由于规章制度不健全、监督制约机制不完善，可能导致权力失控的风险。依据查找出的廉洁风险发生可能性的大小、频率的强弱、危害程度的高低等因素，组织各处（科）室认真分析、逐一研究，对每项职权按照“高”、“中”、“低”三个风险等级进行评定，并经医疗机构领导班子会议集体审定，列表内部公示。', '按照结构合理、配置科学、程序严密、制约有效的原则，对每项职权特别是“高”风险等级的职权运行的流程进行系统梳理、科学设定，明确并公开权力行使的基本程序、承办岗位、办理时限、相对人权利等，绘制印发职权运行流程图，使权力运行步骤更加简约明确、程序更加清晰流畅、监督更加方便有效。职权运行流程图要对内全部公开，与医疗服务相关的职权流程图同时要向社会公开。针对各项职权廉洁风险状况，依据法律法规、规章制度、廉洁要求、工作职责、工作标准，从依法履行职责、构建制衡机制、明确防控目标、建立内控节点、开展风险预警等方面，制定有针对性、可操作性、具体管用和切实可行的防控规则。', '结合医疗机构信息系统建设，建立医疗机构廉洁风险防控信息平台，实现风险预警、风险分析、风险处置等功能，对权力运行廉洁风险实施动态防控。对不同风险等级的权力实行分级管理、分级负责、分级监控、责任到人。对高风险权力重点管理，将权力运行过程中一些易公示、可核查的具体环节、要点、指标作为“内控点”，随权力行使过程动态公开，决策环节实行起点监控，执行环节实行网上过程监控，完结环节实行结果监控；对“中”、“低”风险等级权力，充分发挥处（科）室、岗位人员作用，实施常规监控、自我监控。', '通过对职权运行实时监控，结合大型医院巡查、审计、干部考察、述职述廉、行风评议、媒体反映、纠风治理、信访举报和案件分析等工作，全面收集廉洁风险信息，及时进行分析、研判和评估，对可能引发腐败或不正之风的苗头性、倾向性问题进行风险预警，综合运用风险提示、诫勉谈话、责令纠错等处置措施，做到早发现、早提醒、早纠正，及时化解廉洁风险。同时要结合公立医疗机构改革发展、功能定位转变和预防腐败新要求，根据法律法规和政策规定的调整、职责职能的变更、防控措施落实的效果以及反腐倡廉实际需要，及时调整、完善廉洁风险内容、等级和防控措施，加强对廉洁风险防控的动态管理。', '研究建立廉洁风险防控绩效评估制度，以权力运行流程、运行状况和防控规则为重点，对廉洁风险防控工作实际效果进行考核评估。对权力运行流程，重点关注其是否科学合理有利于防控廉洁风险，是否简便高效有利于提高工作效率；对权力运行状况，重点关注权力行使是否严格符合运行流程并按规定公开相关信息；对防控规则，重点关注其是否得到严格落实及其防控实效。对考核评估中发现的问题和薄弱环节，采取措施、及时整改，建章立制、堵塞漏洞。', '各级卫生行政部门和公立医疗机构要把加强廉洁风险防控作为落实党风廉政建设责任制和纠风工作', '责任制、加强惩治和预防腐败体系建设的一项重要任务，作为强化医疗机构管理、提高反腐倡廉纠风工作科学化水平的重要举措，列入领导班子重要议事日程，认真组织落实。公立医疗机构领导班子要高度重视，党政主要负责人是第一责任人，要主动抓、亲自抓，及时研究解决推进工作中存在的困难和问题。领导班子其他成员要以身作则，率先垂范，根据分工带头抓好自身和职责范围内的廉洁风险防控工作。各业务部门要主动做好本部门的廉洁风险防控工作。卫生系统各级纪检监察机构要认真履行职责，加强组织协调和监督检查，切实推动工作落实。', '各省级卫生行政部门要在地方党委政府的统一领导部署下，认真总结前期试点工作经验，按照本指导意见要求，研究制定具体工作实施方案，对本地区公立医疗机构廉洁风险防控工作进行统一动员和安排部署，加强工作指导和监督检查，确保取得实效。各省级卫生行政部门要结合本地区实际，区分不同医疗机构类型，研究制定全省统一的公立医疗机构职权目录和职权运行流程图范例，与工作实施方案一并下发。各级卫生行政部门和公立医疗机构要结合本地区、本单位工作实际，创造性地开展工作，不断丰富廉洁风险防控内容，完善廉洁风险防控办法，积极探索具有本地区、本医疗机构特色的廉洁风险防控机制，推进医疗机构科学发展。', '各地区各单位要及时总结实践经验，逐步建立健全廉洁风险评估预警制度，分析风险来源，强化防范预警措施，减少和规避廉洁风险；逐步建立健全廉洁风险决策制度，完善决策议事规则，规范决策程序，提高决策的科学性；逐步建立健全对权力运行的监督制约制度，转变防控观念，拓展防控渠道，改进防控方式。要注重防控制度与其他制度的相互衔接，构建完整的制度链条，逐步形成内容科学、程序严密、配套完备、有效管用的廉洁风险防控制度体系。注意加强统一规划和资源整合，充分利用医疗机构已有信息网络设施，依据“职权运行流程图”，将职权流程程序化、标准化和规范化，并结合院务公开工作，实现网上实时动态防控，依托科技手段防控廉洁风险。', '各级卫生行政部门要强化对公立医疗机构廉洁风险防控工作的检查和考核，把廉洁风险防控作为医疗机构年度校验、等级评审的重要内容，纳入党风廉政建设责任制检查考核、领导班子和领导干部目标考核、惩治和预防腐败体系建设检查之中，并将检查考核结果作为评先、评优和干部奖惩任免的重要依据。要研究制定检查评估标准，探索建立廉洁风险防控的社会评价办法，采取定期自查、年度检查、社会评议等方式，提高检查评估的针对性和有效性，确保公立医疗机构廉洁风险防控扎实推进、取得实效。', '开展公立医疗机构管理权力廉洁风险防控，主要是对医疗机构内具有行政特点的管理权力，运用“制度＋科技”的办法，将廉洁风险防控制度融入医疗机构管理之中，落实到权力运行的关键环节，并把制度落实情况随权力运行过程在内网实时公开，实现医疗机构管理廉洁风险的动态防控。', '一、决策权。（一）优化决策机构和运行机制。完善党委（总支或支部）、行政领导班子议事规则和工作规则，医疗机构“三重一大”事项，必须经领导班子集体讨论决定；凡事关医疗机构改革发展全局的重大问题和涉及职工切身利益的重要事项，都要经职代会审议通过；对专业性较强的重要事项,应当经过专业委员会咨询论证。医疗机构领导班子成员应当按照分权制衡原则合理确定分工，建立健全决策权、执行权、监督权既相互制约又相互协调的权力结构和运行机制，领导班子主要负责人不直接分管人事、财务、基建和物资采购工作，同一领导班子成员不同时分管人事、财务、物资采购工作。（二）完善决策程序和方法。开展廉洁风险评估决策、廉洁规则遵循决策和廉洁后果导向决策。凡医疗机构的重大决策，都要开展廉洁风险评估，研究制定预防措施，并纳入决策方案；制定决策草案时，对涉及廉洁风险的问题要注明法律法规和政策依据，不得作出与法律法规和政策规定相抵触的决策，不得开展未经卫生行政部门批准的医疗技术服务和临床检验项目；重大决策，实行决策前调研论证、议题会前通报、会中充分讨论、“一把手”集中正确意见最后表态等制度。研究重大决策要有专人记录，编写会议纪要，不涉及保密事项的在内网向干部职工公开。（三）开展决策效果的绩效和廉洁评估。涉及廉洁风险的重要决策运行一段时间后，要根据执行情况，对决策绩效评估的同时，对风险防控措施的实用性和有效性进行评估，依据两方面的评估情况，提出改进意见和建议。', '二、基建权。（一）明确和落实决策、执行和监督职责。工程项目决策必须召开领导班子会议集体研究决定，实行项目建设法人负责制，但项目建设的执行事宜由主管副职负责，明确项目执行各环节的具体责任人及其职责。由纪检监察、内审机构、职工代表大会等组织成立监督委员会，充分履行监督职责。（二）加强对关键环节和重点部位的防控。强化对“项目法人制”、“工程招投标制”、“工程监理制”、“合同管理制”落实情况廉洁风险的防控，重点加强对招投标和资金管理使用的监控。凡符合招投标条件的项目必须按规定实行招投标。实行工程造价跟踪审计，项目建设资金须专款专用、专户管理，项目管理与财务管理分离，项目款项须经项目管理部门、财务管理部门和审计部门共同审签后按有关规定支付。（三）开展结构化全程监督。实行项目建设“阳光工程”，项目建设的重要环节必须按规定实时公开；单位内部纪检监察、内审机构要主动介入项目设计、施工、采购、验收等环节，实行全过程监督；主动协调检察、审计等机关提前介入，积极引入职工民主监督、社会监督机制，形成监督合力。', '三、采购权。（一）规范采购范围。凡应参加政府采购和集中采购的，都应当严格执行政府采购、集中采购有关法律政策规定，参加政府采购和集中采购。未纳入政府采购或集中采购范围的,药品、耗材、设备、试剂和其他超过一定金额或数量的物资，必须由医疗机构统一集中采购；不需统一集中采购的，要经主管领导批准后，实行使用、主管、监察三方人员共同参与、货比三家的采购制度。（二）严格采购程序。医疗机构遴选本机构用药目录、审核新购药品、调整药品品种，应当由药事管理与治疗学委员会（组）组织，在纪检监察部门监督下，从本单位具有一定专业技术职称的临床、药学人员中随机抽取专家，以票决制方式确定。医疗机构组织集中采购，要严格按照编制采购计划、单位主管领导审批、专门委员会论证、制定采购文件、发布采购公告、开展资质审核、组织招标评标、签署供货合同和采购验收等规定程序进行，不得无故简化或遗漏。（三）实施医药购销廉洁协议制度。医疗机构与供应商签订购销合同，必须同时签订廉洁协议，或将廉洁协议载入购销合同，明确不得收、送商业贿赂，并明确约定法律责任，一旦违反协议严格按照合同约定和有关规定处理。（四）公开采购关键环节和结果。加强对采购过程各环节的廉洁风险防控，关键环节的重要内容特别是采购结果，要在内网公开，接受干部职工监督。', '四、人事权。（一）干部任用。认真执行干部选拔任用的各项规定，严格实施“没有岗位空缺不推荐、没有民主推荐情况不考察、没有考察情况不上会、没有任前公示不发文”和“公开选拔岗位、考察人选、拟任人选、任命文件”的“四没有、四公开”防控制度。（二）职称评聘。严格执行职称评聘的各项法规制度，要组成职称聘任工作委员会，认真制定并公布职称聘任工作方案；公布职称申报条件，个人自主申报、单位审查资格，公示上级评审结果，按医疗机构职数择优聘任，公示聘任结果。（三）人员招聘。医疗机构招聘人员，必须进行公开招聘。要制定公开招聘方案，经领导班子集体研究通过后，及时向社会发布招聘信息。依照招聘方案，组织考试、考核，经单位集体研究后，按照考试和考核结果择优确定拟聘人员。及时在内网公布会议纪要、招聘方案、考试情况和招聘结果。（四）编制管理。编制外临时或聘用人员转入编制内管理的，要通过集中考试或量化打分等形式确定人选，由领导班子会议集体研究决定，结果应当及时向干部职工公开。（五）轮岗交流。对廉洁风险比较高的岗位，定期轮岗交流。较大规模轮岗交流，要制定方案，召开领导班子会议集体研究，并采取竞争上岗、优化组合等形式进行，结果及时向干部职工公开。（六）执业资格管理。认真落实医务人员执业管理各项规定，把医、药、护、技人员的执业要求和行为规范列为防控要点，在内网公布所有医务人员的执业资格及执业范围，防止医务人员无证或超范围执业。', '五、财务权。（一）加强资金的集中统一管理。医疗机构所有资金必须由财务部门统一集中管理，票据管理要严格规范，严防“账外账”和“小金库”。（二）强化重点支出监控。科学编制年度财务预决算，真实反映财务情况，全面落实预决算向职代会报告制度。完善基建项目、大额购置和专项资金审批程序，加强审核、审计，认真落实逐级审批制度。（三）认真执行财务内控制度。明晰管理职责分工，财务收支、审核、审批、审计由不同岗位分管，建立纵向与横向的监督关系，形成严密、完整的财务内控制度。（四）开展资金使用绩效考评。建立绩效考评指标体系，对大额资金支出定期开展绩效考评，确保资金使用效益。', '开展医疗机构医疗服务廉洁风险防控，主要是针对医疗机构内医、药、护、技等从业人员的执业行为，利用信息技术的自动筛查、自动对比、自动排序、自动公示功能，查找可能存在的问题或需进一步审查的重点，实时有效遏制收受“红包”、回扣、过度检查治疗、乱收费等损害群众利益问题的发生，规范诊疗服务行为。', '一、医德医风。（一）加强医德医风学习教育。定期开展专题教育活动，加强职业道德、行为规范、纪律法制学习和教育，加强正面典型教育和反面警示教育，把医德医风教育作为医务人员上岗培训、继续医学教育、毕业后教育、执业资格考试、职称晋升考试的必要内容。（二）实行医患双方签署协议书制度。患者入院时进行医生不收“红包”、患者不送“红包”双向签字，协议书纳入病案管理。（三）改进完善医德考评制度。与日常监管和科室日常考核结果相结合，细化工作指标和考评标准，注重考评结果的运用，把考评结果与医务人员的晋职晋级、岗位聘用、评先评优和定期考核直接挂钩。（四）健全医德医风问题投诉和查处机制。畅通投诉渠道，规范线索管理，问题线索集中管理、逐件登记，定期研究、集中排查，确保群众反映的医德医风问题件件有落实、事事有答复。', '二、临床诊疗。要以临床路径管理为主要抓手，实现临床诊疗行为的标准化、规范化、可控化，规范诊疗行为，防止过度医疗。（一）增加管理病种。认真推进临床路径管理，在临床路径管理试点的基础上，扩大管理病种，逐步把医疗机构主要病种全部纳入临床路径管理。（二）规范路径内容。医疗机构要在卫生部印发的临床路径基础上，结合医疗实际，进一步细化各病种临床路径，制定临床路径文本，优化诊疗流程，明确治疗药物，限定使用耗材，科学测算并严格控制单病种诊疗费用。临床路径文本经医疗机构临床路径管理委员会审核后实施。（三）加强实施过程监控。医疗机构要结合实际，强化对入径标准、路径变异的监控，对出径病例进行监测、预警，不断提高路径入组率和完成率。（四）强化实施效果评价。建立完善临床路径相关信息收集和数据报送制度，定期对临床路径的实施效果进行评价分析。对临床路径实施效果评价应当包括合理用药相关指标（手术患者重点是预防性抗菌药物应用类型、应用天数等指标，非手术患者重点是主要药物选择等指标），住院天数、手术前住院天数等效率指标，住院费用、药品费用、医疗耗材费用等卫生经济学指标。根据评价情况，要不断修订、完善和改进临床路径。', '三、临床用药。全面加强医疗机构用药监控，防止不合理用药。（一）加强药品来源监控。规范医疗机构用药来源，严禁使用非经医疗机构统一渠道采购的药品。临床急需的省级药品集中采购目录外的药品，执行备案采购制度。（二）开展基本药物使用监控。对处（科）室、医师基本药物的使用数量、金额、比例等进行排名，对名次靠前的进行公示，鼓励医师更多地使用基本药物。（三）开展抗菌药物使用监控。重点加强抗菌药物使用量、分级管理和围手术期预防使用的监控，严格控制抗菌药物使用品种、使用强度和使用率，促进合理使用抗菌药物。（四）加强超限处方监控。对单张门诊处方（中药处方除外）设定“金额、品种、时间”三个上限，由职能处（科）室进行审核监督。（五）实行药品“三双”监控。将抗菌药物、心脑血管、肿瘤、血液制品等药物纳入监控重点，对医疗机构单品种用药数量、金额实行“双排序、双公示、双监控”，对排位靠前的处（科）室、医师定期在院内公示。（六）组织开展处方点评。按照卫生部《医院处方点评管理规范（试行）》开展处方点评，对不合理处方（包括不规范处方、用药不适宜处方及超常处方）进行内部公示，对开具不合理处方的医师，实施教育、批评、谈话、告诫、处罚等措施；对存在不合理增长的药品，实施限购、暂停采购等措施。', '四、医用耗材。（一）来源监控。推进耗材规范化管理，严禁使用未经医疗机构统一采购的医用耗材。医疗机构自采的医用耗材，成立专门管理委员会，按规定进行集中采购。对临采性强的高值植入性耗材，招标选择生产企业。严格供货渠道，积极参加以省（区、市）为单位的高值耗材集中采购。严禁处（科）室和个人自行采购。（二）资质监控。建立健全电子档案管理系统。严格进行资质准入管理，凡不符合规定要求的，一律不得在医疗机构使用。（三）使用监控。对高值耗材使用，认真履行征求患者或家属意见制度，严格使用程序，强化使用合理性审查，防范使用中的廉洁风险。（四）重复使用监控。根据耗材编码的唯一性监控高值耗材重复使用，通过收费数量与出库数量的对比监控低值耗材重复使用。（五）跟踪监控。对植入性高值耗材，全部建立患者档案，运用出院患者回访系统进行定期跟踪服务，为耗材的采购和使用提供技术依据，减少违规违纪行为的发生。', '五、医用试剂。积极建立完善试剂管理系统。（一）采购监控。积极参加以省为单位的试剂集中采购，对医疗机构可以自采的试剂，严格执行采购规则，严禁使用未经医疗机构统一采购的试剂。（二）出入库监控。对医疗机构集中采购的试剂，要统一验收、编码后管理，无验收或非集中采购的产品不得入库、不得付款。（三）使用监控。强化对试剂质量和使用数量的监控，严防发生质量事故和乱收费等问题。', '六、大型医疗设备检查。重点防范过度检查。（一）监控检查阳性率。对大型医疗设备检查阳性率，按科室、医师进行排序和公示，对低于规定标准的，进行审查。（二）监控检查权限。严格遵守检查权限，严禁非临床医师开具检查单，严禁使用未经配置审批的大型医用设备。加强对同一名医师既开检查单又执行检查情况的监控。（三）监控重复检查。除需要连续观察病情变化的患者外，对同一患者、同一部位、同日重复检查的病例进行重点筛查，审核检查的合理性。', '七、医疗收费。通过公开栏、电子屏等多种方式，公示药品、医疗服务等价格信息，供患者监督。重点在以下几个方面实施监控，防止乱收费：（一）监控药品、耗材加成率。将物价部门规定的药品、耗材等加成标准，与医疗机构实际执行的情况进行比对，超过规定的，及时纠正。（二）监控超标准、超范围、重复收费。对发现的违规问题，及时督促纠正。（三）监控越权收费。按照规定的科室收费权限，对越权收费问题进行审查。（四）监控逻辑错误收费。按照住院时间、收费次数等逻辑关系，筛查诊疗、护理、吸氧等收费方面的问题，及时进行审查和纠正。（五）监控住院限额费用。根据医疗机构实际，对一个时段的住院费用设定一个规定上限进行监控，筛查可能出现的收费问题。', '八、统方管理。建立医疗机构统方管理制度，重点防止为商业目的统方。（一）加强对医疗机构工作人员的管理。以药房、信息中心（科）为重点，健全管理制度，严禁任何人利用任何途径和方式进行商业目的统方或为医药营销人员统方提供便利。（二）加强医疗机构信息系统药品、高值耗材统计功能管理。对医疗机构各部门通过计算机网络查询医疗机构信息的权限实行分级管理，对医疗机构信息系统中有关药品、高值耗材使用等信息专人负责、加密管理。采取有效的技术手段，对统方行为进行监控，防止为商业目的统计医师个人和临床科室有关药品、高值耗材用量信息。（三）严格统方权限和审批程序。医疗机构其他部门或人员如因工作原因需要了解用药和高值耗材用量的情况，应严格按照程序审批、查询，未经批准不得统方、查询。（四）加强对医疗机构信息系统备份数据信息的管理。对备份数据加密管理，防止利用备份数据统方。（五）加强对软件信息公司人员行为的规范。通过签订廉洁协议等方式，加强对软件信息公司及其工作人员管理，明确其法律责任，防止其利用工作之便进行统方或为医药营销人员统方提供信息数据便利。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>141</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>德州市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>年政府工作报告</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2012-02-13</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.dezhou.gov.cn/n42795639/n42795889/c50270862/content.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会报告工作，请予审议，并请市政协委员和其他列席会议的同志提出意见。', '市十六届人民代表大会第一次会议以来，本届政府在中共德州市委的坚强领导下，在市人大、市政协及社会各界的监督支持下，团结带领全市人民，以科学发展观统领全局，围绕“实现新崛起、建设新德州”奋斗目标和“三主六大”总体要求，积极进取，扎实苦干，圆满完成“十一五”任务目标，实现了“十二五”良好开局，呈现出经济大发展、城乡大变化、民生大改善的可喜局面。', '——坚持解放思想，发展境界不断提高。深入开展解放思想加快发展大讨论、学习实践科学发展观和创先争优活动，着力解决思想观念、工作思路、体制机制、发展环境等方面的突出问题。多次组织外出学习考察，邀请高层次专家学者授课宣讲，以更宽视野研判宏观形势，用战略思维审视优势弱项。从打造区域经济文化高地的宏伟构想，到建设幸福德州新追求的理念提升，从培植四大新兴产业、南融北接、一心四极等发展思路的确立实施，再到构建现代产业体系、对接央企和世界500强、做大中心城区、推进两区同建等战略重点的纵深突破，无不体现着思想解放和改革创新的力量，赢得了广大干部群众的一致认同，成为推动跨越发展的强大动力。', '——坚持科学发展，综合实力大幅提升。2011年，实现地区生产总值1950亿元，是2007年的1.7倍，年均增长13.1%；人均生产总值突破3万元。地方财政收入95.1亿元，年均增长22.6%。四年累计完成固定资产投资3954亿元，年均增长20.7%，实施重点项目313个，发展潜力明显增强。产业结构优化为10.8：55.6：33.6，三产提高3.7个百分点。农业稳步发展。粮食生产实现“亩产过一吨、总产超百亿”，连续8年全省第一；累计造林105万亩，林木覆盖率达到30.5%；畜牧业产值占农业总产值的比重增至38%。粮食高产创建、小农水建设、林下经济发展成为全国先进典型。工业提质增效。规模以上工业企业实现主营业务收入5000亿元、利税596亿元，分别增长1.5和1.2倍；中大、通裕、恒升、金能等7家企业销售收入过50亿元，恒源石化超过100亿元，永锋钢铁突破200亿元。新能源等特色新兴产业异军突起，被命名为国家火炬计划新能源特色产业基地、国家生物产业高技术产业基地、国家级体育产业基地。高新技术产业产值占规模以上工业总产值的比重提高到20.5%，国家级研发机构达到8家，新设博士后科研工作站10家。服务业实现突破。社会消费品零售总额757.5亿元，增长近1倍。东北城、黄河生态旅游文化大观园等投资过百亿元的商贸物流、文化旅游项目开工建设，成为全省五大物流区域核心城市和六大物流节点城市。县域经济实力显著增强。经济总量达到1591.7亿元，增长68%；地方财政收入52亿元，增长1.2倍，形成了一批优势明显、支撑有力、富有活力的特色产业。', '——坚持城乡统筹，人居环境显著改善。实施主城带动、城乡一体化战略，城镇化水平达到47%，提高7.5个百分点。中心城区加快建设，累计投入322亿元，实施城建工程398项，新建改造城区道路73条、背街小巷200多条，完成城中村、旧住宅区和棚户区综合整治改造50个，东部高铁新区全面启动，荣获中国人居环境奖、省级园林城市等称号。城市功能日趋完善，供水管网实现市区全覆盖，供热、供气普及率分别达到65%和95%。积极稳妥推进两区同建，全市8319个行政村合并为3070个社区（村），开工并建社区959个、产业园区953个，被列为中国城市化和谐发展典范案例。重大基础设施项目进展顺利，京沪高铁建成通车，滨德高速即将开通，济乐高速和德大、邯济铁路正在建设，新建改造农村公路4000公里；实施骨干河道治理，十年任务三年完成，马颊河治理、引黄济津等重点水利工程取得良好效益。节能减排扎实推进，生态环境日益改善。万元GDP能耗累计下降23.07%，COD、二氧化硫排放量分别削减17.43%、26.37%。在海河流域7省市、全国9大流域33个代表城市考核中获得“双第一”，被评为低碳中国突出贡献城市、国家新能源示范城市。', '——坚持改革开放，发展活力明显增强。市县两级政府机构改革、乡镇机构改革顺利完成。企事业单位、财税体制、金融体制、集体林权制度、综合配套等改革稳步实施。城乡统筹、社会保障领域改革步伐加快。南融北接战略深入实施，济德一体化、黄三角开发有序推进；与天津滨海新区、青岛、绵阳、宜宾等城市建立战略合作关系，与国外8个城市结为友好城市。招商引资卓有成效，引进各类项目1292个，到位资金1057亿元。对接央企力度加大，实施合作项目59个，完成投资160亿元。直接融资实现突破，16家企业上市和场外挂牌，齐鲁股权托管交易中心在德州设立管理服务机构。外经贸工作取得新成绩，累计完成进出口总额75.5亿美元，实际利用外资6.2亿美元。成功举办第四届世界太阳城大会、太博会和资本交易大会等重大经贸活动，对外交流合作向更高层次、更宽领域拓展。', '——坚持民生为本，社会事业全面进步。千方百计提高城乡居民收入水平，让人民共享发展成果。城镇居民人均可支配收入19771元，增长59.5%；农民人均纯收入8350元，增长67.5%；城乡居民人均储蓄增长86.5%；民生支出占财政总支出的比重达到57.9%。每年集中力量办好“为民十件实事”，一批关系民生的实际问题得到较好解决。社会保障扩面提标。累计新增城镇就业30万人，农村劳动力转移就业54万人。城镇居民医疗保险全面启动，城乡居民养老保险实现制度全覆盖，70万城乡老年居民领取养老金。连续7年提高企业退休人员待遇，养老金实现翻番。城市低保标准每人每月增加80元，农村每人每年增加600元。开工建设保障性住房33650套，竣工13310套，农房建设和危房改造超额完成省下达任务。基础教育办学条件和教学质量明显改善，新建改造农村校舍271.8万平方米，补充教师3600余名。医药卫生体制改革扎实推进，政府办基层医疗卫生机构和一体化管理的村卫生室全部实施基本药物制度；建成村卫生室1899处，新农合参合率99.77%。文化体育事业繁荣发展，公共文化服务体系建设、文化体制改革、文化产业发展取得新成效，市博物馆主体竣工，德州大剧院开工，市体育馆、全民健身中心投入使用，专业文化院团建设和群众性文体活动再上新水平。平安德州建设持续推进，信访工作、公安机关执法规范化建设成为全国样板。安全生产形势平稳，未发生重特大事故。应急平台建设力度加大，处置能力明显提高。食品药品安全体系不断完善，群众饮食用药安全有效保障。援川工作受到省政府表彰。荣获“全国双拥模范城”称号。连续20年全面完成人口控制计划，妇女儿童、老龄、慈善、助残、民族宗教、档案、史志、气象、地震、人防、打私等工作取得新进展。', '——坚持高效服务，自身建设得到加强。推进依法行政，自觉接受人大、政协监督，广泛听取各方面意见，共办理人大代表建议812件、政协提案1457件，办结率100%。组织开展机关效能建设年、服务企业发展年、高效服务高效落实年等主题活动，严格执行“八条禁令”，机关作风不断改进。集中清理市级行政权力，做到了行政审批事项最少、平均审批时限最短。建成新的市政务服务中心，按照“凡批必进、应进全进”的原则，集中行政资源实行一站式便民服务。严格落实廉政建设“一岗双责”，强化行政监察和审计监督，反腐倡廉工作取得新成效。', '刚刚过去的2011年，是“十二五”的开局之年。这一年，我们围绕市委的决策部署，秉承“立足市情、把握规律、顶层设计”的先进理念，创新完善跨越发展的思路目标、体制机制、方式方法，开启了建设幸福德州的新征程。这一年，我们把构建现代产业体系作为推进跨越发展的总抓手，在集中要素、建设园区、产业招商等方面大胆实践，掀开了主导产业发展的新篇章。成立13个产业推进工作小组，高标准规划建设13个产业园区，总投资934亿元的52个项目成功签约，台湾蓝天、红星美凯龙等知名企业前来落户，电子信息、交通装备等引领未来发展的重大产业项目扎实推进。这一年，我们把破解发展瓶颈作为推进跨越发展的突破口，在多元融资、项目用地、企业解困等方面勇于创新，进行了重点领域和关键环节改革的新探索。加强金融工作，优化金融生态环境，德州银行增资扩股，2家企业上市、8家企业挂牌，融资总额276.5亿元，同比多增51.4亿元。加快城乡统筹，推进两区同建，搞好土地挖潜，满足项目用地需求。创新企业改革发展思路，立足盘活存量、做优增量，实现了解困与发展的有机统一。这一年，我们把优化发展环境作为推进跨越发展的生命线，在招商引资、项目论证、落地建设、政策扶持等方面进行制度设计，制定项目专家评审、联席会议和落地保障“三项制度”，成立招商指导、融资服务和发展环境投诉“三个中心”，设立涉企收费检查防护线、隔离线、高压线“三条线”，形成了闭环式项目建设保障的新机制。这一年，我们积极打造城市品牌，在城市定位、规划引领、体制理顺等方面大手笔谋划、大力度调整，展现出城市跨越发展的新态势。以成功创建“国家卫生城市”为标志，中心城区市容市貌、公共秩序、人居环境、社会文明、城市品位均实现新的提升。中国太阳城品牌优势不断增强，高铁效应开始显现，德州的知名度和影响力越来越大。', '各位代表！四年来的巨大变化，是上级党委、政府和市委正确领导的结果，是市人大、市政协和社会各界监督支持的结果，是历届政府工作成效巩固发展的结果，是全市人民团结进取、奋力拼搏的结果。在此，我代表市人民政府，向各位人大代表、政协委员、离退休老同志，向工作在各条战线上的广大干部群众，向各民主党派、工商联、人民团体和各界人士，向驻德部队官兵，向中央、省驻德单位，向所有关心支持德州发展的海内外朋友，表示衷心的感谢，并致以崇高的敬意!', '四年的成绩来之不易，积累的经验弥足珍贵。实践告诉我们：只要持续不断地解放思想，把握规律，坚持先进理念，制定科学思路，就能够开创新局面；只要坚定不移地真抓实干，变压力为动力，化挑战为机遇，就能够实现赶超跨越；只要毫不动摇地抓改革促开放，以开放的思路谋划发展，用创新的举措破解难题，就能够在发展中争取主动；只要坚持不懈地加强自身建设，执政为民，廉洁勤政，就能够赢得群众的真心拥护，凝聚起攻坚克难的强大动力。这些经验，从实践中来，从群众中来，必须倍加珍惜，丰富完善，发扬光大！', '回首四年，我们虽然做了很多工作，但必须清醒地认识到，对照发展的新要求、群众的新期待，还有很大距离。当前，德州最大的现实是经济总量小、财政实力弱；最突出的矛盾是结构不合理、制约因素多；最迫切的需要是改革创新、跨越发展；最要紧的是解决个别干部境界不高、工作集中度和执行力不够的问题。对此，我们必须高度重视、严肃对待，采取强力措施，认真加以解决。', '未来五年，我们肩负历史重任。德州正值工业化加速期和城镇化扩张期，是抢抓机遇、跨越发展的关键期。面对周边你追我赶的竞争态势，实现争先进位，这五年的发展成效，至关重要、影响巨大。', '未来五年，我们面临严峻挑战。世界经济形势复杂多变，国内体制性结构性问题依然存在，新旧矛盾相互交织，不确定不稳定因素日益增多，经济和社会发展将经受一系列考验。', '未来五年，我们拥有难得机遇。国家宏观政策向实体经济、中小企业和民生领域倾斜，有利于我市现代产业乘势而上、加快发展；国际产业布局加速调整，国内南资北移趋势明显，高铁效应不断释放，有利于我市深度承接产业转移，实现借力发展；城镇化、工业化、农业现代化融合互动，有利于我市要素集聚、产业升级，增强发展的内生动力和活力。', '未来五年，我们具备诸多优势。党的十八大、省十次党代会和市十四次党代会召开，将为跨越发展指明前进的方向；坚实的工作基础、科学的发展思路、先进的理念机制和饱满的工作热情，形成了对外开放、招商引资的比较优势；城市大框架和园区主战场的加快建设，搭建了支撑发展的优质载体；幸福德州的美好追求，激发了全市上下干事创业的昂扬斗志。只要我们坚定信心，勇往直前，就一定能够在跨越发展中实现赶超，在幸福德州建设中创造美好明天！', '今后五年政府工作的基本思路是：高举中国特色社会主义伟大旗帜，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，按照市委“三主六大”总体要求，把构建现代产业体系作为推进跨越发展的总抓手，抓好投资、载体、环境三个关键，实施产业强市、文化立市、生态美市、惠民安市四大战略，努力实现综合实力、产业发展、城乡建设、改革开放、生态文明、民生改善六大突破，全面开创幸福德州建设新局面。', '主要预期目标为：地区生产总值年均增长12%；地方财政收入年均增长18%；固定资产投资年均增长20%；社会消费品零售总额年均增长18%；城镇居民人均可支配收入和农民人均纯收入年均增长13%；万元生产总值能耗降低17%；境内水体稳定达到V类水质标准要求，空气质量良好率达到70%以上；城镇登记失业率控制在3.5%以内；人口自然增长率控制在7.3‰以内。', '——高扬跨越发展主旋律，在打造区域经济文化高地上谋求新突破。主要经济指标增幅位居全省前列、人均指标大幅前移，地区生产总值、地方财政收入、固定资产投资、工业主营业务收入、城乡居民收入、社会消费品零售总额翻一番多，综合实力进入全省中等水平。坚持优化一产、做大二产、提升三产，三次产业比例调整到7：50：43。中心城区综合实力大幅度提升，辐射带动作用和调控能力明显增强。县域经济整体进位，在全省位次明显前移。文化事业繁荣发展，城乡公共文化服务体系基本建立，文化产业成为重要支柱产业。', '——实施产业强市战略，在构建现代产业体系上创造新优势。围绕打造产业名城，集中力量实施“10+3”主导产业集群推进计划，狠抓大项目，培植大企业，发展大产业，建设大平台。坚持以优质骨干项目为支撑，以形成优势产能为导向，千方百计扩大有效投入，力争五年投入万亿以上，实现主营业务收入2万亿以上，两项指标年均增长30%以上。装备制造、化学工业、纺织服装、农产品加工、新能源、新材料、生物技术、电子信息产业达到千亿级规模，交通装备、现代物流、现代服务业、文化旅游、城市综合体等产业快速膨胀。组织实施大企业培植计划，发展一批主营业务收入过30亿元、50亿元、100亿元的龙头企业。以高铁新区为核心建成30平方公里的产业园区，延伸规划30平方公里，园区产业规模达到万亿级。加快县域产业园区建设，培植壮大特色鲜明、支撑有力的产业集群。', '——推动城乡面貌大变样，在统筹协调发展上开创新局面。以战略眼光超前谋划城市空间布局，积极推进德陵一体化，促进平原、武城、宁津融入中心城区，在基础设施、产业承载等方面全方位对接，加快构建“一心四极、组团发展”的城市格局。中心城区外环围合面积260平方公里，近期规划建设100平方公里，优化提升老城区，集中建设高铁新区和市级产业园区。科学规划建设县、乡、村城镇框架体系，全市城镇化水平达到55%。禹城、乐陵、齐河、临邑加快形成次中心城市，县城常住人口达到20万人以上。小城镇以强化公共服务和居住功能为主，重点中心镇常住人口3—5万人。新农村建设以两区同建为引领，用10—15年时间完成乡村改造提升任务。五年内实现三分之一以上农村综合整治、连片改造，确保35万户农民入驻设施配套、生活便利、环境优美的新社区，建成规模以上产业园区900个。全面落实生态美市战略，改善生态环境，推进节能减排，中心城区和县城生活污水处理率达到90%以上，农村社区实现生活垃圾集中收集处理。加大对夏津黄河故道森林公园、临邑红坛寺森林公园等重要生态功能区的保护建设力度。加快实施城市绿化提升工程，新增绿地2500万平方米，绿化覆盖率达到43%，创建“国家园林城市”。', '——激发经济社会发展活力，在推动改革开放上实现新作为。坚定不移地向改革要出路、要办法、要活力。加快金融组织体系建设，优化金融生态环境，培育资本市场。推广集约节约用地新模式，统筹城乡建设用地。创新市属企业改革发展方式，从发展的角度盘活有效存量，从稳定的角度解决遗留问题，促进中心城区工业企业升级发展。大力推动全民创业，鼓励中小企业发展。积极拓宽财源渠道，规范一般预算收入，用活政府融资平台，抓好国有资产经营。坚定不移地向开放要投入、要动力、要空间。把招商引资作为产业发展的不竭动力，以骨干企业为合作载体，明确主攻方向，聚焦重点区域，创新招商方式，强化招商力量，实现借势发展。继续强力突破外经外贸，用好两个市场，扩大德州外向度。围绕建设创新型城市，加快建立以企业为主体、市场为导向、产学研相结合的技术创新体系，实施一批重大科技工程，形成一批拥有自主知识产权的高新产品，培育一批具有核心竞争力的领军企业，建设一批国家级、省级创新平台，打造一批科技孵化基地。加快实施人才发展规划，统筹推进各类人才队伍建设，突出抓好创新型人才的培养和急需人才的引进，为经济社会发展提供智力支持和人才保障。', '——提高人民生活水平，在建设美好家园上展现新气象。大力实施城乡居民收入倍增计划，建立发展成果“双同步”共享机制。全面贯彻民生优先原则，大幅度提升公共财政民生支出比例。完善民生保障的制度安排，促进城乡基本公共服务均等化。积极拓展就业创业渠道，做好重点人群和零就业家庭的就业援助。进一步完善城乡统筹、均衡普惠的社会保障体系，加大社会保险扩面征缴力度，实现城乡居民社会养老保险全覆盖，提高新农合和城镇居民医疗保险报销比例。坚持教育优先发展，力争建成德州大学，提高义务教育巩固率、高中阶段入学率和学前三年入园率。大力发展职业教育，德州职业技术学院成为国家级示范高职院校，每个县市建设一所高标准的国办中等职业学校。优化城乡教育资源配置，建立城乡教师补充长效机制，实现农村中小学楼房化，促进农民工子女就近就地入学。深入推进医药卫生体制改革，提高公共卫生服务能力，切实解决好看病贵、看病难问题。实施文化立市战略，促进文化大发展大繁荣。规划建设市图书馆新馆、科技馆、艺术馆，建成德州大剧院，完成市体育中心二期工程，推进城乡文体场所建设，丰富群众精神生活。加强和创新社会管理，形成科学有效的利益协调、诉求表达、矛盾调处和权益保障机制。推进平安德州建设，完善社会治安防控体系，抓好安全生产和食品药品监管，切实增强人民群众的安全感，营造社会安定和谐、百姓安宁幸福的良好环境。', '各位代表！未来五年的发展目标振奋人心，工作任务繁重艰巨，美好前景令人向往。到那时，德州综合实力将实现历史性跨越；到那时，人民收入水平大幅度提高；到那时，城乡面貌根本性变化；到那时，社会事业全方位发展。政贵在行，事成于实。美好的明天是干出来的。干，就要真干实干、大干快干；干，就要干出激情、干出风采，干出一个让我们倍感振奋、倍感自豪的幸福德州！', '今年是新一届政府履行职责的第一年。面对繁重的发展任务，我们必须准确把握宏观形势，按照中央、省委和市委的决策部署，立足德州市情，坚持稳中求进、进中求好、好中求快，坚定不移抓投入，集中力量抓产业，统筹兼顾抓均衡，确保完成以下主要目标：地区生产总值增长11%以上，地方财政收入增长18%以上，固定资产投资增长20%以上，社会消费品零售总额增长16%以上，外贸进出口增长12%以上，实际利用外资持续增长，城镇登记失业率控制在3.5%以内，城镇居民人均可支配收入和农民人均纯收入均增长12%以上，居民消费价格涨幅控制在4%左右，人口自然增长率控制在7.5‰以内。', '（一）实施产业振兴四大工程。一是主攻大产业。集中力量发展“10+3”主导产业集群，充分发挥13个产业推进办公室的主导作用和13个县市区的主体作用，按照规划目标强力推进，确保全年产业投入增长40%以上。二是培植大企业。实施“1351”工程，制定骨干企业培植规划，出台扶持政策，强化要素保障，加速形成一批规模大、效益好、后劲足、竞争力强、带动引领作用突出的企业群体。年内力争主营业务收入过10亿元的企业达到46家，过30亿元的25家，过50亿元的8家，过100亿元的2家。三是狠抓大项目。强化产业招商，重点引进产业高端项目，推动交通装备、电子信息重大在谈项目签约落地。完善“三个中心”，落实“三项制度”，执行好项目落地机制。引进过10亿元的项目80个，到位资金560亿元；安排市级重点项目100个以上，完成投资500亿元。四是搭建大平台。力争市经济开发区尽快晋升为国家级开发区。衔接好城市总体规划、土地利用规划和产业发展规划，形成30平方公里的产业发展空间。全面启动产业园区村庄搬迁，开工建设安置社区，为项目建设提供用地保障。组织实施路网、供热、供水、供气、污水处理等9项基础设施工程，总投资53.9亿元，达到关键功能一步到位，实现13个产业园区“九通一平”，增强产业吸纳能力。', '（二）组织中心城区建设大会战。一是以大规划引领城市发展。着眼于拓展城市未来发展空间，对260平方公里的大外环围合区进行概念性规划。对中心城区100平方公里的空间范围，组织专家编制控制性详规、重大专项规划和重点片区、重点工程的修建性详规，尽快实现控制性详规全覆盖。实施国道104、105改线和省道353、314改造工程，建成大外环快速通道，以路网的规划建设拉开城市大框架。高起点规划“三河六岸”城市景观，开工建设滨河路，抓好实验性、示范性区段景观建设。着力打造“太阳城”城市品牌，策划规划在全国领先的太阳能技术研发中心、产业制造基地、综合应用示范基地、文化展示中心，积极创造条件，适时启动；高水平策划规划太阳主题公园，开工建设太阳湖、太阳岛，精心设计太阳塔等地标性建筑。二是以大建设完善城市功能。今年城建工程初步安排市政设施、景区生态、民生改善、城市安全、公益事业和城市综合体、大社区建设及棚户区改造6大类、80个项目，计划总投资167亿元，是历年来投资最多的一年。以保民生为重点，启动13个城中村、棚户区改造，建设7个大社区，抓好95条背街小巷的改造提升。大力推进物业管理规范化建设，开展“物业管理提升年”活动，改善群众生活居住环境。以保安全为重点，完善“四供两排”和生产生活服务设施建设，健全城市安全保障体系。以保发展为重点，加快东部新区“三纵五横”、生态片区“三纵一横”主路网及次干道建设，形成网格化道路布局，支撑产业大发展。三是以大城管提升城市形象。巩固创卫成果，理顺城市管理体制，推进管理重心下移。建立健全极端天气快速反应机制，确保城市正常运行。实行精细化管理，建设数字化城管，打造“用心细心”的城管品牌。四是以大交通巩固枢纽地位。推进济乐、德商高速公路和济齐黄河大桥建设，完成汽车总站改造和汽车北站主体工程。滨德高速公路竣工通车。加快德大、邯济铁路和火车站片区建设改造进度，开工建设京沪高铁综合客运站，提升交通枢纽功能。通过一年的努力，全长77公里的大外环快速通道全线贯通，连接五大片区的“两环三纵五横”主路网全部形成，绿化、管网等基础设施一步到位，城市规模更大、功能更完善。', '（三）扎实做好“三农”工作。推进新型工业化、城镇化和农业现代化“三化互动”，促进农业增效、农民增收、农村繁荣。一是发展现代农业。落实千亿斤粮食产能建设规划，稳步提升粮食产量，力争总产160亿斤以上。调整种养结构，发展设施农业，新增蔬菜20万亩，新造林25万亩，畜牧业比重提高1个百分点。培育引进带动力强的农产品加工企业，推行种养加、产供销、农工贸一体化经营模式，新增农业产业化龙头企业20家、专业合作社300家，粮油加工能力达到1400万吨以上。加快科技兴农步伐，增加农业科技投入，加强农技推广队伍建设，推进农业科技成果转化应用。完善农产品质量标准、监测和认证体系，保障农产品质量安全。实施现代水网建设规划，加快小农水重点县建设，抓好南水北调及其配套工程。二是建设秀美农村。积极推进两区同建，启动农村社区108个、规模产业园区300个，同步推进农村环境整治、饮水安全、道路建设和电网改造，新建改造农村公路1900公里，解决40万农村群众的饮水安全问题，加速建设产业发展、村居改貌、环境优美的新农村。三是增加农民收入。全面落实强农惠农富农政策，增加农民转移性收入。支持农民工返乡创业，鼓励发展农村二三产业，增加经营性收入。有序推进土地流转，引导农民以土地等生产要素参股经营，增加农民财产性收入。加强农民职业培训和就业服务，促进农民就地就业和转移就业，增加工资性收入，优化收入结构，使农民增收更多依靠发展现代农业、建设产业园区，提高持续增收能力。', '（四）加快改革开放步伐。坚持以改革激活力，以开放增动力。一是推进重要领域改革。分类推进事业单位改革。启动中心城区工业企业“退城进园”，完成12家企业搬迁改造。加快供销社改革发展。健全县级基本财力保障机制，稳步扩大国库集中支付范围。理顺文化市场管理体制机制，促进文化产业繁荣发展。二是形成大开放格局。把京津冀、长三角、珠三角、港澳台、日韩、东南亚作为招商引资的重点区域，推动与世界500强、中国500强、行业龙头企业、央企、重点科研院所、国家行业协会的深度合作，密切与国内外友好城市的经贸往来，加快济德一体化步伐。支持乐陵、庆云借势黄三角开发，争取建设环渤海高等级公路延长线，打开出海新通道。鼓励机电、纺织、建材等优势产品出口和关键设备及零部件进口。抓好境外上市、外资并购和增资扩股，提高利用外资规模。办好太博会和资本交易大会等重大节会，组织参加境内外各类经贸文化活动。三是推动开发区转型升级。改革管理体制，创新管理模式，调整职能定位，加快形成有利于项目聚集的体制机制。严格功能分区，推动园区向特色化、专业化、集约化方向发展。根据环境容量、入区标准，严把项目准入关，实施低端低效项目“腾笼换鸟”，为优质高端项目提供更多发展空间。', '（五）抓好生态文明建设。坚持绿色增长、生态优先，均衡推进节能减排，确保天更蓝、水更清。一是抓好节能降耗。加速淘汰“五小”企业等落后产能，强化50家重点用能企业监测分析，推进工业、建筑、交通、公共机构等领域节能降耗，确保万元GDP能耗下降3.7%。二是集约节约利用资源。严格土地供应标准，全面清理闲置和低效利用土地，提高投资强度和产出效益。严格实行用水总量、用水效率、水功能区限制纳污“三条红线”管理，加大地下水资源保护力度，有序开发地热资源。三是加强环境保护。加快污水、垃圾处理厂升级改造，加大监控监督力度，确保处理设施正常运转。完善生态修复工程，实施城区水系综合治理，有计划地增加公共绿地面积，每县都建成一处人工湿地。加快重点流域水污染治理、大气污染防治，确保5条主要河流稳定实现V类水质、市县城区空气质量良好以上天数增加5%。', '（六）强化金融财税体系建设。认真落实金融财税政策，构建基础稳固、保障有力、规范高效的金融财税体系。充分发挥金融的支撑作用。用好银行主渠道，深化政银企合作，引导金融机构更好地服务实体经济，争取新增贷款200亿元。健全金融体系，新增各类金融机构10家以上。大力发展资本市场，鼓励企业采用股票上市、再融资、发行债券等方式，拓宽直接融资渠道，争取新增上市企业3家、挂牌30家以上，融资超过100亿元。开展优化金融生态环境年活动，及时妥善处置资金链断裂等风险事件，大幅压减不良贷款。灵活运用财税杠杆。抓好一般预算收入，积极争取上级资金项目，搞好城市土地配置，探索国有资产经营，实现财政收益多元化。不断优化税源结构，提高依法治税水平。完善中心城区土地出让金和基础设施配套费征收管理办法，市级统筹，集中使用。调整财政支出次序，更加注重向民生倾斜，更加注重支持重点领域，更加注重加强薄弱环节，严格控制一般性支出。着力壮大县域财力，力争3个县市区地方财政收入过10亿元。', '（七）加强和创新社会管理。最大限度增加和谐因素，最大限度减少不和谐因素。一是强化社会治安综合治理。坚持专项整治与治安防控相结合，加快打防管控体系建设，构建信息网络综合管理体系，提升治安管控水平。二是加大矛盾纠纷排查调处力度。坚持以群众工作统揽信访工作，畅通诉求渠道，注重解决问题，从源头上预防和减少社会矛盾。三是加强公共安全管理。强化安全生产“双基”建设，落实“一岗双责”，严格企业主体责任和政府监管责任，深化重点领域专项整治，加大监管执法力度，有效防范和遏制各类安全生产事故发生。理顺食品药品监管体制，保障群众饮食用药安全。完成市应急平台系统二期工程，健全地震、气象等防灾救灾体系，提高应急处置能力。', '（八）推进民生事业进步。围绕幸福德州建设，积极构建六大惠民体系：一是就业保障体系。实施积极就业政策，开发更多就业岗位，强化职业技能培训和创业培训，认真解决大学生、农民工、困难群体的就业问题，新增城镇就业8万人，农村劳动力转移就业10万人。二是就学保障体系。加强校车安全和校园治安，完成农村初中和中心小学楼房化工程，引进招聘教师1500名。加快实施德州学院东扩、职业技术学院二期建设，启用新城中学，抓好主城区中小学校规划建设。三是就医保障体系。继续深化医药卫生体制改革，加快推进以县级医院为重点的公立医院改革试点，落实基本药物配备使用、医保报销政策。鼓励发展特色中医药事业，强化基层医疗卫生机构全科医生培养，提高基层医疗水平。四是社会保障体系。做好城乡养老保险制度衔接，新农合和城镇居民医保补助标准提高到每人每年240元。继续增加企业退休人员养老金，提高城乡居民低保和优抚对象生活补助。完善物价上涨与提高困难群众生活补贴和保障标准联动机制，保证主要农产品、基本生活必需品、重要生产资料供应。五是住房保障体系。开工建设保障性住房18800套，连同结转项目年底竣工60%以上。增加中低价位、中小户型普通住房供给，满足自住型、改善型住房需求。六是文化服务体系。加快市博物馆等重点工程建设进度，扶持文化院团改革发展，完善基层文化设施，开展丰富多彩的群众文化活动。高度重视国防动员、双拥共建和人民防空工作，继续加强人口和计划生育工作，大力发展社会福利和慈善事业，依法保障妇女儿童、青少年、残疾人、老年人权益，统筹做好民族宗教、史志、档案等工作，全面发展各项社会事业。', '各位代表！面对今年复杂多变的发展形势，政府担负的任务繁重而艰巨。我们相信，只要坚定必胜的信念，拿出十足的干劲，千方百计抓投入，攻坚克难抓载体，齐心协力抓环境，就一定能够圆满完成全年任务目标，在推进跨越发展、建设幸福德州征程中迈出坚实步伐！', '做好今年各项工作，全面完成今后五年任务目标，必须坚持在市委领导下，加快转变职能，改进工作方式，加强管理创新，全面提高政府科学施政水平。', '（一）提高综合素质，建设学习型政府。强化学习意识，系统学习方针政策、政治理论、业务知识，用先进理论武装头脑，提升政治素养、思想境界。倡导学以致用，理论与实践相结合，对每项工作全面了解情况，注重理论分析，把握内在规律，借鉴先进经验，形成科学的理念思路、措施办法，增强分析问题、解决问题的能力。大兴学习之风，提倡白天走干讲、晚上读写想，潜心研究工作，静心读书学习，营造善学习、勤思考、重研究的良好氛围。', '（二）强化宗旨意识，建设为民政府。权为民所用，情为民所系，利为民所谋。人民群众满意是政府工作第一追求，凡是国家出台的惠民政策，坚决落实；凡是得民心顺民意的事情，全力去做。着眼于解决群众最关心、最直接、最现实的利益问题，把公共资源更多地向社会管理和公共服务倾斜，让群众共享发展成果。自觉践行群众路线，健全问政于民、问需于民、问计于民的制度设计，形成服务群众长效机制。健全民意表达机制，办好“12345”市民热线，打造政务服务新品牌。', '（三）改进工作作风，建设务实政府。注重调查研究，从实际出发，从现实需要出发，科学确定工作的方向、目标、重点，合理安排工作推进时序。坚持脚踏实地，干实事，求实效，集中力量抓促发展惠民生的事，抓打基础管长远的事，抓破瓶颈创优势的事。力促真抓实干，干就要快干，雷厉风行，争分夺秒，抢机遇抓主动；干就要苦干，攻坚克难，甘于奉献，不达目的不罢休；干就要会干，大胆创新，统筹兼顾，干成事，出亮点；干还要持续干，锲而不舍，持之以恒，切实在综合实力、群众收入、城乡面貌上见到实实在在的成效。', '（四）创新方式方法，建设效能政府。全面落实目标责任制，防止任务悬空、责任不清。提高工作集中度，倡导“二八律”，用20%的精力抓常规性工作，用80%的精力抓重点工作、抓主要矛盾。强化执行力，明确任务目标、工作节点、标准要求，制定清晰的时间表、路线图、配档表，实行倒排工期、挂图作业。简化办事程序，规范工作流程，建立健全便民服务、行政审批、公共资源交易“三位一体”的行政服务模式。落实服务承诺制、首问负责制、限时办结制，加快电子政务建设，提高服务效率。严格督查调度，严明工作纪律，坚决防止行政不作为、慢作为和乱作为，确保令行禁止、政令畅通。', '（五）推进依法行政，建设法治政府。加强行政程序建设，规范行政执法行为。坚持科学民主决策，完善行政决策程序，实行重大决策听证和风险评估制度，建立公众参与、专家论证和政府决定相结合的决策机制。深入推进政务公开，实行办事公开制度，创新公开方式，扩大公开范围。自觉接受人大及其常委会监督、政协民主监督、媒体舆论监督以及人民群众社会监督，主动听取民主党派、工商联、人民团体和社会各界的意见建议，认真做好人大代表建议和政协提案的办理工作。', '（六）坚持从严治政，建设廉洁政府。全面落实党风廉政建设责任制，健全完善惩治和预防腐败体系，加强对重要岗位、关键环节的监督和制约，强化领导干部经济责任审计，规范权力运行。完善政府重大投资项目公示制和责任追究制，规范土地招拍挂、建设工程招投标、政府采购和产权交易等行为。积极推进公务消费和公务接待改革，大力削减行政成本。加强对政府工作人员的教育管理和政风建设，严厉查处各种违纪违法案件，坚决纠正损害群众利益的不正之风，以勤政为民、为政清廉的实际行动，赢得群众的信任和支持，努力建设让组织放心、人民满意的政府。', '各位代表！勤劳勇敢、质朴聪慧的德州人民，在这片充满生机的热土上，创造了昨天的辉煌业绩和宝贵财富，成就了今天的良好基础和巨大潜力！站在新的历史起点，我们信心百倍、豪情满怀；肩负新的重大使命，我们意气风发、斗志昂扬。让我们在中共德州市委的坚强领导下，万众一心，扎实苦干，锐意进取，创新图强，为全面建设幸福德州而努力奋斗！']</t>
         </is>
